--- a/CallTranscripts_Scripts/SentimentDataframe_nes.xlsx
+++ b/CallTranscripts_Scripts/SentimentDataframe_nes.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="148">
+  <si>
+    <t>CallTranscriptID</t>
+  </si>
   <si>
     <t>PublishedTime</t>
   </si>
@@ -28,6 +31,9 @@
     <t>Year</t>
   </si>
   <si>
+    <t>summary</t>
+  </si>
+  <si>
     <t>title</t>
   </si>
   <si>
@@ -49,37 +55,409 @@
     <t>GunningFogIndex</t>
   </si>
   <si>
+    <t>CT_GOOG_2018_q4</t>
+  </si>
+  <si>
+    <t>CT_GOOGL_2018_q4</t>
+  </si>
+  <si>
+    <t>CT_GE_2018_q4</t>
+  </si>
+  <si>
+    <t>CT_ETN_2018_q4</t>
+  </si>
+  <si>
+    <t>CT_PEP_2018_q4</t>
+  </si>
+  <si>
+    <t>CT_KHC_2018_q4</t>
+  </si>
+  <si>
+    <t>CT_FB_2018_q4</t>
+  </si>
+  <si>
+    <t>CT_MCHP_2018_q4</t>
+  </si>
+  <si>
+    <t>CT_SLAB_2018_q4</t>
+  </si>
+  <si>
+    <t>CT_JPM_2018_q4</t>
+  </si>
+  <si>
+    <t>CT_STT_2018_q4</t>
+  </si>
+  <si>
+    <t>CT_GOOG_2018_q3</t>
+  </si>
+  <si>
+    <t>CT_GOOGL_2018_q3</t>
+  </si>
+  <si>
+    <t>CT_GE_2018_q3</t>
+  </si>
+  <si>
+    <t>CT_ETN_2018_q3</t>
+  </si>
+  <si>
+    <t>CT_PEP_2018_q3</t>
+  </si>
+  <si>
+    <t>CT_KHC_2018_q3</t>
+  </si>
+  <si>
+    <t>CT_FB_2018_q3</t>
+  </si>
+  <si>
+    <t>CT_MCHP_2018_q3</t>
+  </si>
+  <si>
+    <t>CT_SLAB_2018_q3</t>
+  </si>
+  <si>
+    <t>CT_JPM_2018_q3</t>
+  </si>
+  <si>
+    <t>CT_STT_2018_q3</t>
+  </si>
+  <si>
+    <t>Feb.  4, 2019 11:44 PM ET</t>
+  </si>
+  <si>
+    <t>Jan. 31, 2019  4:29 PM ET</t>
+  </si>
+  <si>
     <t>Jan. 31, 2019  5:01 PM ET</t>
   </si>
   <si>
+    <t>Feb. 15, 2019  2:01 PM ET</t>
+  </si>
+  <si>
+    <t>Feb. 22, 2019 12:16 AM ET</t>
+  </si>
+  <si>
     <t>Jan. 30, 2019 11:34 PM ET</t>
   </si>
   <si>
+    <t>May  8, 2018  1:16 PM ET</t>
+  </si>
+  <si>
+    <t>Jan. 30, 2019  1:04 PM ET</t>
+  </si>
+  <si>
+    <t>Jan. 15, 2019  6:32 PM ET</t>
+  </si>
+  <si>
+    <t>Jan. 18, 2019  3:17 PM ET</t>
+  </si>
+  <si>
+    <t>Oct. 25, 2018  9:01 PM ET</t>
+  </si>
+  <si>
+    <t>Oct. 30, 2018 11:20 AM ET</t>
+  </si>
+  <si>
+    <t>Oct. 30, 2018  3:32 PM ET</t>
+  </si>
+  <si>
+    <t>Oct.  2, 2018  2:18 PM ET</t>
+  </si>
+  <si>
+    <t>Nov.  2, 2018 12:25 AM ET</t>
+  </si>
+  <si>
+    <t>Oct. 30, 2018  9:37 PM ET</t>
+  </si>
+  <si>
+    <t>Feb.  7, 2018  1:10 AM ET</t>
+  </si>
+  <si>
+    <t>Oct. 24, 2018  1:40 PM ET</t>
+  </si>
+  <si>
+    <t>Oct. 12, 2018  2:33 PM ET</t>
+  </si>
+  <si>
+    <t>Oct. 19, 2018  4:15 PM ET</t>
+  </si>
+  <si>
     <t>q4</t>
   </si>
   <si>
+    <t>q3</t>
+  </si>
+  <si>
+    <t>GOOG</t>
+  </si>
+  <si>
+    <t>GOOGL</t>
+  </si>
+  <si>
+    <t>GE</t>
+  </si>
+  <si>
     <t>ETN</t>
   </si>
   <si>
+    <t>PEP</t>
+  </si>
+  <si>
+    <t>KHC</t>
+  </si>
+  <si>
     <t>FB</t>
   </si>
   <si>
+    <t>MCHP</t>
+  </si>
+  <si>
+    <t>SLAB</t>
+  </si>
+  <si>
+    <t>JPM</t>
+  </si>
+  <si>
+    <t>STT</t>
+  </si>
+  <si>
+    <t>Alphabet, Inc. Cl C (NASDAQ:GOOG) Q4 2018 Earnings Conference Call February  4, 2019  4:30 PM ETCompany ParticipantsEllen West - Head, IRRuth Porat - CFOSundar Pichai - CEOConference Call ParticipantsEric Sheridan - UBS Securities LLCAnthony DiClemente - Evercore Group LLCDouglas Anmuth - JPMorgan Securities LLCHeather Bellini - Goldman Sachs &amp; Co. LLCBrian Nowak - Morgan Stanley &amp; Co. LLCMark Mahaney - RBC Capital Markets LLCStephen Ju - Credit Suisse AGDaniel Salmon - BMO Capital MarketsColin Sebastian - Robert W. Baird &amp; Co.Justin Post - Bank of America Merrill LynchRoss Sandler - Barclays Capital, Inc.Brent Thill - Jefferies LLCOperatorGood day ladies and gentlemen, and welcome to the Alphabet Fourth Quarter 2018 Earnings Call. [Operator Instructions] I'd now like to turn the conference over to Ellen West, Head of Investor Relations. Please go ahead.Ellen West… fourth quarter 2018 earnings conference call. With us today are Ruth Porat and Sundar Pichai.Now I'll quickly cover the Safe Harbor. Some of the statements that we make today regarding our business performance and operations and our expected level of capital expenditures may be considered forward looking and such statements involve a number of risks and uncertainties that could cause actual results to differ materially. For more information, please refer to the risk factors discussed in our most recent Form 10-K filed with the SEC.During this call, we will present both GAAP and non-GAAP financial measures. A reconciliation of GAAP to non-GAAP measures is included in today's earnings press release, which is distributed and available to the public through our Investor Relations Web site located at abc.xyz/investor.And now I'll turn the call over to Ruth.Ruth PoratThank you, Ellen. We have a strong 2018, with total revenues of $136.8 billion, up 23% over 2017, reflecting the benefit of our ongoing investments to deliver exceptional experiences for users and compelling returns for our advertisers, partners and enterprise customers.For the fourth quarter, revenues of $39.3 billion or up 22% year-on-year and up 23% in constant currency, as we continue to benefit from ongoing strength in mobile search with important contributions from YouTube, Cloud and Desktop Search.For today's call, I will begin with a review of results for the quarter on a consolidated basis for Alphabet focusing on year-over-year changes. I will then review results for Google followed by Other Bets, and will conclude with our outlook. Sundar will then discuss business and product highlights after which we will take your questions.Let me start with a summary of Alphabet's consolidated financial performance for the quarter: our total revenues of $39.3 billion reflect a negative currency impact year-over-year of $724 million or $600 million after the impact of our hedging program.Turning to Alphabet revenues by geography, you can see that our performance was strong again in all regions: U.S. revenues were $18.7 billion, up 21% year-over-year. EMEA revenues were $12.4 billion, up 20% year-over-year in both reported and constant currency terms with a slight headwind primarily from the euro.APAC revenues were $6.1 billion, up 29% versus last year and up 32% in constant currency, reflecting weakness of the Australian dollar. Other Americas revenues were $2.2 billion, up 16% year-over-year and up 26% in constant currency, reflecting weakening of the Brazilian real and the Argentine peso.On a consolidated basis, total cost of revenues including TAC, which I'll discuss in the Google segment results, was $17.9 billion, up 26% year-on-year. Other cost of revenues on a consolidated basis was $10.5 billion, up 34% year-over-year, primarily driven by Google-related expenses.The key drivers were: first, content acquisition costs, primarily for YouTube, mostly for our advertising supported content in what is a seasonally strong quarter for YouTube, but also for our newer subscription businesses, YouTube Premium and YouTube TV which have higher CAC as a percentage of revenues. Second, costs associated with our data centers and other operations, including depreciation and, third, hardware related costs for our made by Google and Nest family of products.Operating expenses were $13.2 billion, up 27% year-over-year. The biggest increase was in R&amp;D expenses, with the larger driver being headcount growth, followed by the accrual of compensation expenses to reflect increases in the valuation of equity in certain Other Bets. Growth in Sales and marketing expenses reflect increases in sales and marketing headcount primarily for Cloud and Ads followed by advertising investments mainly in Search and the Assistant. The growth in G&amp;A expenses reflects mostly increases in headcount.Stock-based compensation totaled $2.3 billion. Headcount at the end of the quarter was 98,771, up 4,399 from last quarter. Consistent with prior quarters, the majority of new hires were engineers and product managers. In terms of product areas, the most sizable head count increases were in Cloud for both technical and sales roles.Operating income was $8.2 billion, up 7% versus last year for an operating margin of 21%. Other income and expense was $1.9 billion, which includes $1.3 billion of unrealized gain related to a non-marketable debt security investment. We provide more detail on these line items within OI&amp;E in our earnings press release.Our effective tax rate was 11.2% for the fourth quarter, reflecting a discrete benefit due to the reversal of an accrual made as a result of updated guidance associated with the U.S Tax Act. Net income was $8.9 billion and earnings per diluted share were $12.77.Turning now to CapEx and operating cash flow. Cash CapEx for the quarter was $7.1 billion, which I'll discuss in the Google segment results. Operating cash flow was $13 billion with free cash flow of $5.9 billion. We ended the quarter with cash and marketable securities of approximately $109 billion.Let me now turn to our segment financial results. Starting with the Google segment. Revenues were $39.1 billion, up 22% year-over-year. In terms of the revenue detail, Google Sites revenues were $27 billion in the quarter, up 22% year-over-year. In terms of dollar growth, results were led again by mobile search, with a strong contribution from YouTube followed by desktop search. Network revenues were $5.6 billion, up 12% year-on-year reflecting the ongoing momentum of AdMob and Google Ad Manager.Other revenues for Google were $6.5 billion, up 31% year-over-year fueled by Cloud, Hardware and Play. We continue to provide monetization metrics in our earnings press release to give you a sense of the price and volume dynamics of our advertising businesses.Total traffic acquisition costs were $7.4 billion or 23% of total advertising revenues and up 15% year-over-year. Total TAC as a percentage of total advertising revenues was down year-over-year, primarily reflecting a favorable revenue mix shift from network to sites. The increase in the sites' TAC rate year-over-year was driven by the ongoing shift to mobile, which carries higher TAC, followed by changes in partner agreements offset by the seasonally higher proportion of YouTube advertising revenues in the fourth quarter.In Q4, the network TAC rate declined year-on-year, primarily due to our revenue mix shift within our programmatic business. Google stock-based compensation totaled $2.1 billion for the quarter, up 22% year-over-year. Operating income was $9.7 billion, up 13% versus last year and the operating margin was 24.8%.Accrued CapEx for the quarter was $6.8 billion, reflecting investments in office facilities, datacenters, and servers.Let me now turn to and talk about Other Bets. I'll cover results for the full-year 2018 because it remains most instructive to look at the financials for Other Bets over a longer-term horizon, as we've discussed on prior calls. Results for the quarter are in our earnings release.For the full-year 2018, Other Bets revenues were $595 million, up 25% versus 2017 primarily generated by Fiber and Verily. Operating loss for Other Bets was $3.4 billion for the full-year 2018 versus an operating loss of $2.7 billion in 2017. Other Bets accrued CapEx was $181 million, down from $493 million in 2017 primarily reflecting investments in Fiber.Key recent accomplishments include: in December, Waymo launched Waymo One, which enables participants to use its app to hail and pay for rides. Also Verily recently announced a $1 billion investment round led by Silver Lake as it advances on plans that are complementary and additive to its current life sciences portfolio. That investment of course was in addition to the $800 million it raised from Temasek previously.Let me close with some observations on our priorities and longer-term outlook. First, with respect to revenues. Our 23% revenue growth in 2018 was powered in particular by the ongoing benefit of innovation in our Sites business. With eight products, with more than 1 billion users each and more people coming online every day, we remain excited by the opportunities to continue to create valuable experiences for users around the globe.In particular, we see significant ongoing potential to apply our machine learning capabilities across our businesses. In our advertising business, machine learning has enabled innovation in advertisers ability to match consumer intent into bit more effectively for improved ROI. It has also enhanced the ability of smaller businesses to benefit from advertising on our platforms.Machine learning is also driving differentiation for newer Google businesses, like Cloud and Hardware, as well as central to a number of Other Bets, most notably Waymo and Verily. Looking ahead, a couple of things to note. First, as we’ve said many times, we continuously work to enhance the user and advertiser experience because we make changes with a focus on the best interest of users and advertisers over the long-term, the timing of the introduction of new experiences, particularly, in search advertising can vary which can result in an impact on quarterly year-on-year growth.Second, during 2018, the FX tailwinds in the first half of the year turn to headwinds in the third and fourth quarters, in line with the strengthening of the U.S dollar. Based on the continuing strengthening of the U.S dollar, we expect a headwind to reported versus fixed FX results in the first quarter, in contrast to the favorable impact of FX in the first quarter of 2018.Turning to investments and profitability. In terms of gross margin, the biggest component within cost of revenues remains our traffic acquisition costs, reflecting our strong revenue growth in mobile search and the fact that mobile search carries higher TAC than our desktop business. As we've discussed on prior calls, while the pace of year-on-year growth in Sites TAC as a percentage of sites revenues, slowed after the first quarter of 2018. We do expect the Sites TAC rate to continue to increase year-on-year, reflecting ongoing strength in mobile search.Within OpEx, we remain focused on prioritization in order to optimize resources for longer-term growth in sizable markets. You'll see us continue to support our priority areas with increased headcount, which will remain concentrated in R&amp;D. Although we expect the growth rate to moderate in 2019. In 2018, we also saw continued progress on our goal to nurture new businesses outside of Google, our Other Bets with a model of independence.While I've said previously that there is no monolithic approach to how the Other Bets execute against opportunities, a shared principle is aligning employee interest with the long-term value creation by these companies. Since inception, this has been an important part of our approach at Google with stock grants comprising a meaningful component of overall compensation across our employee days.We are increasingly following that approach in the Other Bets with compensation programs that align employee and company interests. You’ve seen the impact of some of those programs in the fourth quarter as we accrued compensation expenses to reflect increases in the valuation of equity in certain Other Bets. While these expenses will recur, the timing evaluation events is unpredictable and can vary between debts which can affect quarterly comparisons.Finally, on capital allocation. Our primary use continues to be to support organic growth in our businesses, followed by retaining flexibility for acquisitions. After taking these needs into account, our Board has authorized the repurchase of up to an additional 12.5 billion of our Class C capital stock.With respect to CapEx, we continue to invest in both compute requirements and for office facilities. Although we expect the CapEx growth rate in 2019 to moderate quite significantly. In conclusion, 2018 was another great year, with tremendous ongoing opportunity ahead of us.I will now turn the call over to Sundar.Sundar PichaiThanks, Ruth. Last year, we set out to bring the benefits of AI to everyone through our products. And I'm proud of the tremendous progress we made towards that goal. From smart compose and Gmail to the new Google news experience, to call screening on the pixel and improving the overall safety of our products. AI's helping people get things done every day. Beyond our products, AI is also helping us drive our mission forward at the scale we couldn’t have imagined just a few years ago.Google Al Lead, Jeff Dean recapped the results of our efforts in a great post on our AI block. Accusing AI to better deduct the spread of breast cancer, or providing flood victims, with real-time information in a crisis. I encourage everyone to check it out.We also launched the Google AI impact challenge to help nonprofits find ways to use AI to solve social and environmental problems. In addition to our progress in AI we saw great traction across newer areas, like the Google assistant, hardware, and Cloud. And our core area such as search maps new use YouTube under computing and advertising platforms continue their strong momentum.Everything we do at Google is united by the mission of making information accessible and useful for everyone. Providing accurate and trusted information at the scale the internet has reached is an extremely complex challenge. And one that is constantly getting harder. But we’ve 20 years of experience in these information challenges, and it's what we strive to do better than anyone else.As we do this, we feel a deep sense of responsibility to do the right thing and are continuing to build privacy and security into the core of our products, keeping uses data safe and secure with the industry's best security systems and giving people better and clearer controls. You will see us continue to do a lot more here in 2019.Today I will start by sharing some of the new ways that we are working towards our mission. Then I will give an update on our video and advertising platforms, followed by the latest on our hardware and cloud efforts. And I will close with a few thoughts on our investments around the world. First, advancing our mission of making information accessible and useful. The Google assistant is a great example of how we help people throughout the day and we demonstrated that at CES last month with lots of exciting new partners and features.From the Lenovo Smart Clock that wakes you up in the morning to real-time navigation that helps during your commute. To a build in interpreter that translates conversations across dozens of languages on Google home. And speaking of languages, over the past year the Google assistant expanded from eight languages and 14 countries to nearly 30 languages and 80 countries. In that time, the number of active users us quadruple. As we had more partners, devices and capabilities, the Google assistant will only get better and more helpful.There's a lot of great progress in other areas too. Last month, we announced the launch of activity cards and search. Now when you search for a topic that you’ve previously explode, you can quickly see very of already being and pick up where you left off. Thanks to our strengths in AI and Search, Google Lens uses your smartphone camera to help identify more than 1 billion products. So if you see an item that you like, Lens can show you similar designs, along with useful information like product reviews.We continue to see great momentum across our computing platforms, android and chrome. In Q4, we announced that android was officially support affordable phones that partners like Samson introducing their first portable devices this year. We see continued traction with manufacturer adoption of android auto. We recently announced new media and messaging features to significantly simplify and improve the car dashboard experience.And building on the speed simplicity and security of chrome OS, partners like Asus and HP, introduced a slew of great consumer and enterprise Chromebooks last months at CES. Now let me provide an update on our video and advertising platforms, starting with YouTube.We are seeing great traction in some of our newer experiences on YouTube. YouTube music and YouTube Premium are now available in nearly 30 countries up from five countries at the start of 2018. Last month, YouTube TV announced that it is expanded nationwide to cover 98% of U.S households with the rest to follow shortly. YouTube continues to invest in its thriving community of creators and build great features for its nearly 2 billion monthly log in users.For instance in Q4, the expanded access to tools like stories and community polls that strengthen the connections between France and creators. One of our newest tools, Premiers, is a breakout hit. Ariana Grande's premiere of her official music video for Thank U, Next in November holds the record for biggest music video debut in YouTube history earning over $55 million views in its first day.We are driving revenue to the YouTube creator community from established channels to newly emerging ones. The number of YouTube channels with more than 1 million subscribers nearly doubled in the last year, and the number of creators earning five or six figures grew by more than 40% year-over-year. A big priority for YouTube in 2019 is to continue our work to quickly find and remove content that violates YouTube's content guidelines.It's an important challenge and with advanced machine learning and investments in human reviewers, we are making continued progress. Now I'll touch on some of the recent highlights of our advertising business, which continue to go from strength to strength. Recently, Warner Brothers embedded the first full-length film with an ad on YouTube and reached a record number of people.Over 17 million users in a single day. Viewers who watch the trailer for LEGO Movie 2 on Black Friday, were served the franchise's original film for free within the Ad. So great example of how advertisers continue to delight users on YouTube. Performance advertisers love TrueView for action. YouTube's direct response offering. Since the product launch in March 2018 over 30% of the advertisers who use TrueView for action were new to buying inc and video ads on YouTube.In Q4, we also announced a global strategic ad tech relationship with The Walt Disney Company across their entire portfolio of brands and properties. With Google Ad Manager as its core platform, Disney will be able to serve across its digital property seamlessly. On the web and mobile apps through connected TVs and even during live events.Our shopping tools, that are also front and center during the holidays, helping retailers reach people during the busy holiday shopping season. In fact, the number of shopping daily active users on Google.com during the holidays, double compared to last year. Thanks and part to new features like product list modules that showcase the most popular products across the web.Small retailers are also benefiting from automated bidding solutions like smart shopping campaigns, which now has more than 20,000 live merchants. Impressive progress since launching in April. Now on to our growing hardware efforts. During the holiday season, our newest line up of made by Google Devices top many best of 2018 looks. The response from shoppers was equally positive.It was another record year for our Google home family of devices, with million sold this holiday season. They’re helping people easily get things done around the house. For example, people use Google home devices to cook over 16 million recipes this holiday season. 1 million on Christmas Day alone. Our newest smart displays were particularly popular. One out of every seven Google home devices activated or the holiday season was a Google home hub.In Q4, we launched significant advances in computational photography in our pixel three with features such as night sight for lowlight photos. We’ve also expanded availability to four more countries: Japan, France, Ireland, and Taiwan. And finally, our growing cloud business. I want to thank Diane Greene for her leadership over the last three years.Google Cloud is a fast-growing multibillion-dollar business that supports major global 5,000 companies in every important vertical with a robust enterprise organization. This was not the case just three years ago. What Diane and their team accomplished, it's phenomenal. Now Diane's work is done and she has handed the reins to Thomas Kurian, and I’m thrilled to have him here as our new Cloud leader.Google Cloud closed out the strong year, with momentum across the business. Last year, we more than doubled both the number of Google Cloud platform deals over $1 million as well as the number of multiyear contracts signed. We also ended the year with another milestone, passing 5 million paying customers for our cloud collaboration and productivity solution G suite. Our focus on helping customers digitally transform their businesses is paying off.We continue to see strong growth in all our major geographies and industries this quarter. In financial services, we signed agreements with two of the top financial institutions in the U.S to help them transition their business to Google Cloud with our highly secured solutions. In retail, brands like Bed Bath &amp; Beyond, DSW and Ulta Beauty are using our cloud to manage data and provide more personalized experiences to consumer.In Media and Entertainment, the telegraph and the U.K's going all in with Google Cloud because of our data and machine learning expertise. To support our global growth, in Q4, we launched our 18th Google cloud region and announced plans for a new region in Jakarta. So as you can see we are investing in the many incredible opportunities across our business. We would also investing in communities around the world and right here at home. I was recently in Europe opening up our new office in Berlin, which will help us more than doubled the number of Googlers who work there.Across Europe, we've invested more than €4.3 billion in five data centers since 2007. And in Q4, we announced a new data center coming in Denmark. In all, it's estimated that these data centers have generated more than €5.4 billion in GDP over the last ticket. Of course the amount generated by our creator, publisher and app developer partners across the region is orders of magnitude larger.We also continue our substantial investments throughout the U.S. Last year, we made significant investments in new and expanded office space. In Q4, we open the doors to our new office in Detroit and announced that we will be investing over $1 billion in capital improvements to establish a new campus in New York City, which will begin to open in 2020.We are also continuing to invest in data center construction and expansion. There is an important long-term investment that lay the groundwork for our future computing needs primarily to x-rayed machine learning across our businesses. But also to support the opportunities we see in cloud, search, ads and YouTube. More than 20 years in there is still tremendous opportunity for Google to help people save time, learn new things, grow their businesses and build stronger communities. I want thank every Googler around the world for making 2018, a great year for users and our business.With that I'll hand it back over to Ruth.Ruth PoratThank you, Sundar. And we will now take your questions.Question-and-Answer SessionOperatorThank you. [Operator Instructions] And our first question comes from Eric Sheridan of UBS. Your line is now open.Eric SheridanThank you so much for taking the question. Two, if I could. On YouTube, you never have a number of brands in the marketplace between YouTube Premium, TV, YouTube Music. How are you thinking about positioning those brands against a global opportunity, especially in mobile to consume media on a global scale and how you’re positioning those brands for the opportunity. And then, Ruth, I wanted to come back to comment on revenue versus extends with respect to YouTube. It sounds like called out YouTube as strong in the quarter on the revenue side, but is depressed on the expense side. Was that because of licensed content for things like Music and YouTube TV, or what is ad splits? How should we think about what the drivers were there and how they’re now permanent versus seasonal in Q4. Thank you so much.Sundar PichaiThanks Eric. On the YouTube question, of course, our core effort is around the main YouTube product and that is what works at scale globally across the world and we are seeing continued engagement and it's doing very well. We are committed to making sure there's a premium experience on YouTube, delivering the content people would want and YouTube Music is an important part of that as well. So we're investing in both. As you know YouTube TV is U.S only and we are definitely -- it's an exciting product. It's differentiated and has long run value for us because it brings our advertising products together including being able to serve it across TV. So we are clearly investing in areas where we see opportunity. We are pretty thorough about making sure our investments deliver growth on the other side. And so we monitored with metrics and beat engagement and revenue growth and we see a lot of opportunity here.Ruth PoratAnd then in terms of revenue it's an investment in YouTube, overall, as Sundar said, we are --YouTube is continuing to benefit from the secular change the way users are consuming content and that's reflected in strong revenue growth. Brand advertising does remain the largest part of the business. It's growing at a strong pace and as I said in opening comments, we're particularly excited about the significant growth in direct response both TrueView for action and app promo formats are delivering a great value for users and advertisers, and that's driving growth across regions and channels. In terms of the expenses, I think what you're referring to is within other cost revenues. The primary driver in the fourth quarter was the increase in content acquisition costs due to YouTube growth and that's both for ad supported content and what is typically a seasonally strong quarter. And also for our newer subscription businesses, which do have higher TAC as a percentage of revenue we're excited about the growth we're seeing here.OperatorThank you. And our next question comes from Anthony DiClemente of Evercore. Your line is now open.Anthony DiClementeGreat. Thank you so much for taking my questions. One for Ruth and one for Sundar. Ruth, if I look at the segment operating losses for Other Bets, they were higher both in the fourth quarter and for the year '18 over '17. Is it safe to assume that investments at Waymo or can you just flush out a little bit more for us if possible, were there other Other Bets besides Waymo, which were worthy of call out in terms of greater or decreasing investment. That will be great? And then for, Sundar, I’m just wondering if you could provide us any commentary about how good the Cloud is going? Any milestones? You talked about the investment there. Ruth did, I think, in terms of headcount growth in technical and sales roles and for the new leadership that you mentioned what is the things that the new -- that Thomas Kurian can kind of do Cloud to accelerate the next phase of growth in that business. Thank you so much.Ruth PoratSo in terms of the investment levels in Other Bets, the major point is that we are investing across Other Bets commencement with what we think is required kind of looking out at the opportunity set for each one. And we go through a regular process with weekly business reviews and quarterly board reviews and try and calibrate the appropriate pace of investment. In terms of the increase this quarter, as I indicated in opening comments, we accrued some comp expenses for a number of bets and that was really to reflect increases in the valuation of equity in certain Other Bets.Sundar PichaiOn Cloud, one of the things that was evident towards the end of last year is now our inability to win in a very large customers global 5,000 companies with multiyear contracts. And so that's definitely something we want to focus on. I think Dyne and Thomas have been working closely on a transition with a lot of continuity, and you'll continue to see us. It's very clear to us that our product offerings are ready and differentiated and so we want to invest and scale our go-to-market both in terms of direct sales and our channel partnerships. And maybe you will see us focus more on areas where we’re clearly seeing returns. Be the geographic regions we care about the six main verticals where most of the momentum is. And within product offerings, the five major areas where we’ve clearly defined product with differentiated features to. But I’m excited at the traction we are seeing, we are getting large wins and I look forward to executing here.Eric SheridanThank you.OperatorThank you. And our next question comes from Doug Anmuth of JPMorgan. Your line is now open.Douglas AnmuthGreat. Thanks for taking the questions. I just wanted to ask to, first, can you think about the strong Google Sites growth 23%, that’s actually neutral. Can you just help us understand some of the mobile search innovations that you think are really driving things here beyond some of these underlying secular strength, with the particular focus perhaps on the retail channel, and just how you’re thinking about the opportunity there? And then, second, Ruth, just wanted to go back to your comment on OpEx. Just wanted to clarify, were you saying that headcount growth, specifically you think will moderate in '19 or are you talking about overall OpEx spending? Thank you.Sundar PichaiDoug, on the first one, obviously we have thousands of engineers working on continually launching search improvements. I think for me a lot of this has been the clear hard work that's gone into making sure search on mobile works really, really well removing friction where we can constantly working to get the answers, a bit quicker and faster and make -- making the more relevant. So to me it's more a set of a continual innovation mentality that we’ve had there for a long time. And that’s really working at scale.Ruth PoratAnd then the specific comment I think you’re referencing is I was pointing to headcount growth. We are continuing to hire to support growth opportunities, particularly hiring engineers and product managers in Google and continuing to support growth in Cloud, and what I was just trying to draw out was we will continue to hire, but the year-on-year growth rate will moderate there.Douglas AnmuthOkay. Thank you, both.OperatorThank you. And then next question comes from Heather Bellini of Goldman Sachs. Your line is now open.Heather BelliniGreat. Thank you. Yes, I had a follow-up on to Anthony's questions on cloud. It doesn’t seem like you want to share an update on the revenue run rate. But I was wondering if maybe you can share with us what you’re seeing in terms of year-over-year growth rate, and in particular are they growing faster than what the competitors disclosed in their public results? Because maybe they will help think about the pace of growth in your Cloud business. And then, secondarily I was just wondering if you can give us a sense of the types of workloads, if there's any commonality to the types of workloads, you might be running work frequently than not. Thank you.Ruth PoratSo, in terms of growth, Cloud does continue to deliver sizable revenue growth driven by GCP and GCP does remain one of the fastest-growing businesses across Alphabet. As Sundar said, we double the numb</t>
+  </si>
+  <si>
+    <t>General Electric Company (NYSE:GE) Q4 2018 Earnings Conference Call January 31, 2019  8:00 AM ETCompany ParticipantsSteve Winoker - VP of Investor CommunicationsLarry Culp - Chairman &amp; CEOJamie Miller - CFOConference Call ParticipantsNigel Coe - Wolfe ResearchSteve Tusa - JPMorganJeffrey Sprague - Vertical Research Julian Mitchell - BarclaysScott Davis - Melius ResearchAndrew Kaplowitz - CitiAndrew Obin - Bank of America Merrill LynchNicole DeBlase - Deutsche BankDeane Dray - RBC Capital MarketsJohn Inch - Gordon HaskettJoe Ritchie - Goldman SachsGautam Khanna - Cowen and CompanyOperatorGood day, ladies and gentlemen and welcome to the General Electric Fourth Quarter 2018 Earnings Conference Call. At this time, all participants are in a listen-only mode. My name is Brandon and I'll be your conference facilitator today. [Operator Instructions] As a reminder, this conference is being recorded.I would now like to turn the program over to your host for today's conference, Steve Winoker Vice President of Investor Communications. Please go ahead sir.Steve WinokerThanks, Brandon and good morning and welcome to GE's Fourth Quarter Earnings Webcast. I'm joined by our Chairman and CEO Larry Culp; and CFO, Jamie Miller. Before we start, I'd like to remind you that the press release, presentation and supplemental have been available since earlier today on our investor website at www.ge.com/investors.Please note that some of the statements we are making today are forward looking and are based on our best view of the world and our businesses as we see them today. As described in our SEC filings and on our website, those elements can change as the world changes.And now, I'll turn the call over to LarryLarry CulpThank you, Steve. Good morning, everyone. And thank you for joining us. Our comments are going to be a bit longer than usual this morning to help you understand where we are and where we're going. But rest assured, we'll leave as much time as we can for questions at the end.First, I'd like to start by welcoming Steve to the GE team. I've known him for over a decade. Steve's already had positive impact here at GE and I'm sure, he'll do the same for you, our investors going forward. I'm here today because I believe in GE. There is no company on earth with a scale of GE's global reach, brand, talent and long-term customer relationships. We have leading technology in key infrastructure markets with high barriers to entry and strong aftermarket streams. We're poised to capture recurring revenues on a global installed base of almost 70,000 engines more than 70 -- 7,000 gas turbines and aero-derivatives, more than 40,000 onshore wind turbines and more than 4 million Healthcare Systems. In short, GE matters. We've identified clear opportunities to improve our performance and we are working to address them at root cause.We have the right portfolio of strategy and I'm confident the company is capable of gaining profitable share and creating long-term value for our shareholders. So let me cover where we stand on providing an outlook. Then I'll address some of the company changes followed by updates on our results, the balance sheet, capital and power. Jamie will take you through more details on the quarter and then I'll wrap with some metrics and comments to help you frame the outlook for 2019 before Q&amp;A.Let's start with the outlook because investors want to know how we expect to perform financially and you should expect to come from a place of reality. Simply put the how much is important but the how is far more fundamental. We have a good line of sight in most of our businesses today including Aviation and Healthcare.For the industrial portfolio in total, we will provide you with our outlook for organic growth and we'll do so directionally on operating margins and free cash flow. We will give you a more detailed outlook in the near term but not today. For Power, we are resetting the baseline. We are reviewing every single project and contract and digging deeper to understand costs and benefits with respect to restructuring, market and commercial execution, improvement opportunities, legacy project issues and our service operations. We're gaining more meaningful insights into the paths for near and long-term earnings and cash potential of this business. This work takes time especially with the new structure and leadership team.In the spirit of providing you with all the information we have as soon as we have it, I'll speak to what I have found over the last 120 days. We were executing against the key priorities we laid out in June and again in October. Simply put deleveraging the balance sheet and strengthening our businesses starting with Power. Remember beyond Power, it's important to recognize the underlying strengths in our businesses where the story is about enhancing our competitive advantage and delivering for customers and shareholders.With respect to delevering, we've taken the following actions: We've reduced the quarterly dividend retaining $4 billion per year; accelerated the sale of a portion of our BHGE ownership stake raising $3.7 billion; and changed the structure of our transaction with Wabtec enabling us to retain an incremental $2 billion stake. We're demonstrating our seriousness and the flexibility with respect to our decisions to recut the BHGE and Wabtec deals in particular. We closed Distributed Power for $2.8 billion of net cash in the quarter.For the year, we signed or completed substantially all of our $20 billion industrial asset sale plan, which had targeted roughly $10 billion in proceeds. We also announced the sale of ServiceMax in the fourth quarter. We completed $8 billion of capital asset sales and other actions in the quarter bringing our total for the year to $15 billion, which were executed at book value or better. We're more than halfway through the total of $25 billion capital asset sale program, which we expect to complete this year.Today, we have announced that we've reached an agreement in principle with the United States Department of Justice to settle the FIRREA investigation of WMC. GE will pay the United States a civil penalty of $1.5 billion consistent with our reserve recorded for this matter in the first quarter of last year. We've taken the following actions to strengthen our businesses.In 2018, our corporate headquarters cost was $1.2 billion down $400 million from $1.6 billion in 2017. We have begun transferring a significant portion of headcount and activities that were previously managed at corporate to the segments or to third parties with over 6,500 full-time employees transferred to-date. We're confident that as we move more activity and headcount closer to those that are directly accountable, we will see additional savings.Good examples include the recently announced agreement with Genpact around our global operations activities and the delayering and reorganization of our Global Growth Organization. Our changes in Power followed a similar approach. We have $1.6 billion of cost at Power headquarters and expect to produce that amount by $300 million for headquarter's overhead functions. And as we distribute the remaining cost to the business units, we expect that they will find additional savings over time.We announced this week that we will be delayering the headquarter levels at Renewable Energy. And yesterday announced that we are bringing GE's grid, solar and storage assets into that business creating an end-to-end offering from renewables customers as the demand for renewable power generation and grid integration continues to grow globally. We're strengthening our senior team. We've brought in fresh eyes that are already having an impact.We're combining new perspectives from strong external talent, proven GE leaders with domain expertise and entrepreneurial spirit, next-gen thinkers as well as leaders with deep customer relationships. From a governance perspective, Paula Reynolds joined our Board of Directors bringing extensive experience in both the Energy and Insurance industries. The majority of our Directors now are new since 2017 and I'm finding the Board deeply engaged in all matters of our businessOur audit committee also announced that they will move forward with the tender process for the appointment of GE's independent audit firm. And finally, we announced our plan to combine the digital businesses into an independently operated IoT Software business with employee equity a separate Board and the ability to raise capital and operate like a start-up. We're on the precipice of something great. We're getting a 100 years of domain and hardware expertise and growing out of our digital DNA over the last several decades.As my friend, Jim Collins of "good-to-great" fame might say, it's a start. But we have much more work to do. So let me now share with you, how I've talked with our team about how we will do it. Number one, is managing first and foremost for operational performance. Preparing for the earnings call, my first month on the job showed me that we often start with corporate and bring in the business leaders including the CEO later. We turned that around this quarter holding operating reviews first and then preparing for this call. Those reviews were tightly focused on the how we can do and how do we get better, more so than how do we explain what just happened. Let me give you an example.Previous P&amp;L reviews focused on revenue, contribution margin and base cost and then, of course, operating profit. The same high-level framing I saw on the Board room. No more. We now get into much more operating detail, volume, price, mix, material and labor productivity overhead and operating expenses like R&amp;D sales and marketing and G&amp;A, all of which are critical to understanding and then improving the business.The second is a focus on putting our customer at the center of all we do. Over the past few months, I've spent time with our customers in China, the Middle East, Europe and here in the US. I've learned that what they value is not always aligned with how we measure our own performance.Take quality. When I ask about quality internally, I often hear about our cost of quality, which measures our issues rather than how the customer experiences us. We're shifting our perspectives so that we understand and measure ourselves the way customers do and work backwards from there. The third area is having fewer and more impactful priorities. GE has ambition like no other company I've ever seen and that's mostly a good thing but we need to focus our attention to more of the things that matter most, so we can move them the furthest.At a company level, we've committed to the two priorities I mentioned earlier: Deleveraging the balance sheet and strengthening the businesses starting with Power. I'd now like to address some of the areas of importance that are high on my priority list. First, our high-level financial results. We ended the year with adjusted EPS of $0.65. GAAP EPS of negative $2.43 and industrial free cash flow of $4.5 billion. Our backlog stands at $391 billion up 5% year-on-year with equipment at $89 billion up 4%; and service at $302 billion up 5%.For the fourth quarter, our industrial free cash flow was $4.9 billion. While cash flow was negatively impacted by the weakness in Power, we were encouraged by the strong cash generation in the other businesses. We delivered adjusted EPS of $0.17 and GAAP EPS of $0.08. Jamie will take you through all this in more detail in a moment.Next to the balance sheet. As I've stated already, we are reducing our debt levels both at Industrial and GE Capital. We know full well that our shareholders own all debt obligations across GE but these are two distinct sets of businesses with different financing needs and different capital structures and therefore we analyze their leverage separately. In industrial, we are targeting a net debt-to-EBITDA ratio of less than 2.5x over the next few years.Our Healthcare, transportation and BHGE separations can provide sources of roughly $50 billion toward that goal. Our Healthcare team continues to prepare for public company separation and that is progressing very well. We expect to monetize up to just under 50% of our Healthcare business. I talked earlier to the GE Transportation merger with Wabtec and the amended terms to increase our cash proceeds and we will sell down our remaining 50% ownership in BHGE in an orderly manner over time building on the actions, we took in November.Overall our liquidity position remains strong with $16.8 billion of industrial cash and funding lines of $40 billion. Now on capital, we are targeting a debt-to-equity ratio of less than 4x by 2020. In 2018, we paid down capital's external debt balance by $21 billion and we executed $15 billion in asset sales at book more than half of our $25 billion asset disposition program. Capital ended the year with a $124 billion of assets including $15 billion of liquidity in line with our goal to materially shrink this business.To be clear, we have no plans to sell GECAS. We expect to contribute approximately $4 billion of parent support in 2019. We've listened to you on the insurance front and we're preparing increased disclosures in line with peers, which will be available with our 10-K release. Jamie will cover some of that detail shortly. And then finally on Power. Let me share with you the root causes of our underperformance as I see them today and the actions we're taking to address each one.First as I said, last quarter we were late to embrace the realities of the secular and cyclical pressures in the business. Recent data suggests that the market for new generating capacity is settling in to the 25 to 30 gigawatts range for the foreseeable future. We continue to believe gas will play an important role in global electrification but we have to resize our cost structure, our capital expenses and our supply chains to this new reality now.As a result last year, we reduced headcount by 10,000 or 15% in the business, consolidated our footprint by 30% and took out $900 million of base cost exiting at a $1 billion lower run rate. Embracing market reality means a more appropriate revenue outlook, one that is further grounded in the reality of our $92 billion backlog rather than in the hope of new orders not yet won. Second Power faces a number of nonoperational headwinds and we expect a high water mark in this regard this year. These include legal settlements and legacy project erosion principally driven by the Alstom acquisition. There's also the runoff of the effects of past long-term receivables factoring and other programs.Over the next few years, these effects should come down substantially. Third, we need to execute better. Running Power better means improved daily management in how we sell make and service our products. Let me give you a few examples. We had separate teams of managers commissioning new plants owning a warranty period and overseeing the services contracts after the warranty.Now, we present one face to the customer, who is accountable for the best long-term economic answer both for the customer and GE. We put the sales organization under one leader with deep domain expertise and are coordinating better on contract negotiations. We now have more experienced people, owning negotiations and responsible for project cost. We performed risk assessments of our existing 400 equipment contracts to identify cost and execution risks. We also performed a similar assessment on the 750 CSA contracts to identify price and utilization risk.We have overhauled our commercial underwriting processes to set more realistic commitments and returns from the start. This is hard work but I'm encouraged by the Power's team's dedication to proactively address these issues at their root cause. Fixing Power will take time and in turn will take time for the changes, we're making to our daily operations to be reflected in our financial results but we are improving and I'm confident that those changes will come.As I've met with customers around the world, I'm really been struck by their sentiment. They're rooting for us. They want us to succeed and they want to know how they can help. So in summary, we're taking action, taking action on the priorities we laid out to you, deleveraging our balance sheet and strengthening our businesses starting with Power.Jamie will now take you through the detailed financial results.Jamie MillerThanks. Larry. I'll start with the fourth quarter summary. Orders were $34.1 billion down 1% reported and up 4% organically with particular strength in equipment orders up 7% organically driven by aviation commercial engines and renewables. The services orders were up 1% organically. Revenues were up 5%, industrial segment revenues were up 2% reported and 8% organically driven by renewables Aviation Oil &amp; Gas Healthcare and Transportation.Equipment revenues grew 10% and services were up 6% organically. Industrial profit margins were 7.5% in the quarter down 150 basis points year-over-year on a reported and organic basis driven by significant declines in Power and Renewables. For the year, margins were down 80 basis points organically. Industrial profit was down 16% in the quarter with Aviation, Healthcare and Baker Hughes GE all delivering strong profit growth offset mostly by Power. Specifically Aviation had another outstanding quarter and year expanding total year margins while shipping over 1,100 LEAP engines. Net earnings per share was $0.07, which includes losses from discontinued operations related to GE Capital. GAAP continuing EPS was $0.08 and adjusted EPS was $0.17.I'll walk the GAAP continuing EPS to adjusted EPS on the right side of the page. Starting from GAAP. Continuing EPS was $0.08 and we had $0.06 of gains principally from the sale of Distributed Power. As you will recall in the third quarter, we booked the $22 billion impairment charge related to Power goodwill based on our best estimate at that time. And during the fourth quarter, we finalized our analysis and booked an incremental $69 million charge for Power following the third quarter charge. We also recorded a goodwill impairment charge of $94 million in renewables at our Hydro business. Combined these charges were $0.02 impact. On restructuring and other items, we incurred $0.07 of charges principally at Corporate and Power as we continue to resize those segments in line with our stated plan including $0.02 of charges related to business development transaction expenses and $0.01 for our share of Baker Hughes GE's restructuring.Lastly, we realized a $0.01 negative impact from US tax reform as we updated our estimate of the transition tax and other aspects of the enactment of the new law. Our current accrual reflects the effects of tax reform enactment based on guidance issued through year-end. Excluding these items adjusted EPS was $0.17 in the quarter.Moving to cash, adjusted industrial free cash flow was $4.9 billion for the quarter, $1.9 billion lower than the prior year driven primarily by a lower progress collections. Income depreciation and amortization totaled $2.3 billion. Working capital was positive $2.3 billion for the quarter as we reduced over $1 billion of inventory on a higher fourth quarter volume and grew progress collections by $500 million primarily in renewables from strong PTC-driven orders.Contract assets were a source of cash of $900 million as we saw higher services billings in aviation driven by higher fleet utilization and spare parts consumption from strong air traffic and we spent about $1 billion in gross CapEx or $600 million ex-Baker Hughes GE. For the year, we generated $4.5 billion of adjusted industrial free cash flow and we ended the year with higher volume in the fourth quarter as is typical for our businesses. And to provide you with more detail, Power used $2.7 billion in free cash flow for the year due to a combination of restructuring costs, nonoperational headwinds as well as execution and market issues.Next, I'll cover liquidity. On the left side of the page, you can see the walk of the GE cash balance. We ended the fourth quarter with $16.8 billion of industrial cash in the bank excluding Baker Hughes GE. And for the total year, we had industrial free cash flow of $4.5 billion. We paid dividends of $4.2 billion and as of the first quarter of 2019, you'll recall that the dividend is decreasing to $0.01 per share per quarter, which will preserve about $4 billion of cash in 2019. We generated cash proceeds of $5.9 billion net of taxes related to our industrial disposition principally Industrial Solutions, Value-Based Care and Dis Power. And together with Wabtec that gets to the more than $10 billion we had talked about previously.Earlier in the year, we assumed $6 billion of debt from GE Capital to fund the principal pension plan, which was completed in the third quarter. Alstom and GE exercised their JV redemption rights and call options, which we settled for $3.1 billion in the fourth quarter. These entities operate at a loss. So the consolidation of 100% of the financials negatively impacted fourth quarter and will be an income headwind for us of about $300 million in 2019. We also completed a secondary offering for approximately 100 million Baker Hughes GE shares as well as a direct stock buyback with Baker Hughes GE for 65 million shares bringing our ownership stake to 50.4% in the fourth quarter.These actions combined with other Baker Hughes GE buybacks during the year totaled $4.4 billion in cash proceeds. The $2.5 billion of other cash includes a number of items including about $900 million of investments in our Aviation business primarily from the first half of the year; $900 million of short data derivative hedge settlements that we used to mitigate risks across the portfolio; and $400 million of FX translation on our non-US dollar-denominated cash. Running with a higher cash balance will help us address inter-quarter funding needs. In line with our goal to reduce reliance on short-term funding, peak short-term funding needs declined from $19.7 billion in the fourth quarter of '17 to $14.8 billion in the fourth quarter of '18. These were funded with commercial paper and some utilization of our credit facilities.As we execute dispositions in 2019, we expect our intra-quarter funding needs to continue to decline and would expect to use a mix of commercial paper, credit facilities and excess cash at GE Capital to efficiently fund these needs. At the end of the year, commercial paper outstanding was $3 billion and we had access to $40 billion of committed revolving credit facilities with zero drawn. These lines are available to draw at any time and they don't have financial covenants ratings triggers or material adverse change clauses. As you know, our credit rating was downgraded from A to BBB+ with a stable outlook in early fourth quarter.This impact has been manageable with less than $15 million of collateral postings and a smooth transition to a Tier two commercial paper program. We continue to target a sustainable rating in the single A range.Now, I'll take you through financial policy and leverage. We remain committed to our financial policy of a target single A rating a leverage level of less than 2.5x net debt-to-EBITDA and ultimately a dividend level in line with our peers. Deleveraging both GE and GE Capital is a priority and we have significant sources to achieve our goals.As Larry mentioned, we view these businesses differently with different balance sheets and capital structure needs and therefore we analyze their leverage separately. Our goal is leverage for the GE industrial businesses of less than 2.5x net debt-to-EBITDA. We plan to make significant progress toward this goal by the end of 2020 and as a reminder when we speak about net debt, we're talking about debt adjusted for pensions, operating leases and a portion of preferred stock and cash. Measured on this basis, GE Industrial net debt at the end of 2018 was $55 billion. As we look out over the next couple of years, we expect to have roughly $50 billion of industrial sources that can be used to delever and derisk the company.These sources include $18 billion of debt and pension transfer to Healthcare and more than $30 billion of cash proceeds from the monetization of up to just under 50% of Healthcare, 100% of our remaining stake in Baker Hughes GE and our stake in transportation. These sources will be used in part to reduce GE net debt by more than $30 billion including repaying a significant part of the $14 billion of debt transferred from GE Capital and reducing commercial paper. The parent also plans to contribute $4 billion to GE Capital in 2019 to maintain adequate capital levels there.At GE Capital, we have a plan to reduce our debt to equity ratio to less than 4x by the end of 2020. GE Capital began the quarter with $70 billion of debt and ended with $66 billion while our total assets measure $124 billion. For the year, we made significant progress at GE Capital paying down $21 billion of external debt, taking down leverage by 1.4 turns including reducing commercial paper from $5 billion to zero.GE Capital ended 2018 with $15 billion of liquidity. Over the next two years, we expect to generate additional sources of cash from asset sales, including $10 billion in 2019 from completing our GE Capital $25 billion asset reduction plan. We'll have cash from the pay down of most of the debt transferred to GE and capital support from GE. We have reached an agreement in principle on WMC that we expect to conclude expeditiously. And in 2019 and 2020, GE Capital will pay down $25 billion of scheduled debt maturities and continue to contribute about $2 billion per year of capital to our insurance businesses as previously disclosed. We now don't expect to issue new debt until 2021.We are planning approximately $4 billion of capital contributions to GE Capital in 2019. This includes $1.5 billion for the WMC agreement in principal announced today and ensuring we have adequate risk-based capital levels for our current portfolio. Going forward, we anticipate funding any insurance capital requirements or strategic options through a combination of GE Capital earnings, asset sales, liquidity and GE parent support. While we have more work to do, we continue to make progress in strengthening the balance sheet.Next on Power. Orders were down 19% in the quarter. Gas Power Systems orders were down 26%. For the year, Gas Power Systems orders were down 40%. We ended the year with a $9 billion backlog, which was down 8% year-over-year. This is consistent with our outlook for a 25 to 30 gigawatt market for the foreseeable future. Power Services orders were down 20%. Steam orders were up 61% and grid orders were down 13% for the year. Power revenue was down 25%. Gas Power Systems revenues were down 21%. Power Services revenue was also down 21%. During the quarter, we took $400 million of charges related to our CSA contracts, which impacts revenue. Excluding these charges Power Services revenue was down 11%. Steam revenue was down 30% on lower America's and Europe volume and grid was flat.Moving to profit. The segment loss $872 million in the fourth quarter. We performed our normal CSA reviews and while total utilization on the book is flat, we have seen lower utilization on some of our units in some geographies and some pricing pressure in contracts relative to ongoing market dynamics and we updated our assumptions to reflect a revised outlook in these areas.In addition, we had our normal cost standard updates, which included updates to our cost standards including the impact of the stage-one blade issue as expected. This resulted in the $400 million of charges that I previously mentioned. In addition, we also incurred about $350 million of costs related to Gas Power Systems projects. Similar to the third quarter, we continue to experience project execution issues resulting in liquidated damages as well as partner execution issues. Grid profit was down year-over-year impacted negatively by the buyout of the Alstom share of the JV.These items had a significant impact on Power's results and overall, we see the heavy duty gas turbine market is flat over the next few years and see significant opportunity to improve our own execution. Next on Aviation, which had another great quarter. Orders of $8.8 billion were up 12%. Equipment orders grew 20%, driven by continued strong momentum of the LEAP engine program up 56% versus prior year. Military engine orders were up 69% driven by the F414 and service orders grew 7%. Revenues of $8.5 billion grew 21%. Equipment revenues were up 13% on higher commercial engine partially offset by lower military volume.Specifically, we shipped 379 LEAP engines this quarter up 177 units year-over-year. And in total, we shipped 1,118 LEAP engines for the year. We're still behind on deliveries by about four weeks but the business expects to be back on schedule by mid-2019. Services revenue grew 26% with spares rate up 10% driven by higher fleet utilization and spare parts consumption from strong air traffic. Segment profit of $1.7 billion was up 24% on higher volumes, improved price and operating productivity and compared to the fourth quarter of last year, we shipped almost 90% more LEAP engines.Despite the negative mix from higher LEAP shipments operating profit margins of 20.4% expanded 60 basis points in the quarter and 130 basis points for the year. The LEAP engine continues to perform very well with a 58% win rate on the A320neo family and 81% win rate in the narrow-body segment when you add in Boeing 737 MAX and Comac C919. Utilization rates are over 95%. We continue to improve the cost position of the LEAP and over the last two years, we've taken out more than 40% of the cost of the engine and are ahead on the learning curve initially laid out for the program. The overall program will break even around 2021.Now, I'll provide some additional transparency on the engine transition in the narrow-body market. The mixing from CFM56 to LEAP resulted in a margin drag of approximately 160 basis points in 2018 and 130 basis points in the quarter. The business is successfully offsetting this margin pressure through continued growth in aftermarket services, military and changing the mix of company-funded R&amp;D spend. In summary, another strong year for David and the aviation team. In renewables, renewables orders were up 19% versus prior year driven by onshore equipment up 9% and services up 32% on strong repower units.We shipped 44% more megawatts and onshore wind and saw strong orders bookings 3 gigawatts in the fourth quarter and 8.6 gigawatts for the year and we gained share. Revenues of $3.4 billion were up 28% mainly driven by onshore wind up 34% on both higher new unit shipments and repowering volume. Segment margin of 2% was down 330 basis points for the quarter and profit of $67 million was down 51% mainly driven by negative price, liquidated damages for execution delays on a handful of complicated projects including some legacy Alstom projects and higher losses in hydro and offshore as we began fully consolidating these entities in the fourth quarter.The consolidation presented a headwind of about 220 basis points. Recall that we had to book loss reserves at the time of the Alstom deal and we continue to burn through the negative cash flow impact of those projects. The business has seen favorable cash tailwinds from the PTC cycle, pricing is improving and we continue to see strong product cost reduction and while we're seeing some adverse impacts from tariffs, we're working to mitigate them with pricing and supply chain actions.For Healthcare, orders of $5.8 billion were up 2% organically. On a product line basis, Life Sciences orders were up 13% organically with bioprocess up 20%. Healthcare Systems orders were down 1% organically, which was about what we expected as we were comping a very strong fourth quarter in 2017.Revenue of $5.4 billion was up 6% organically. Healthcare Systems revenue grew 4% organically and Life Sciences was up 10%. Segment margin was 21.8% expanding 10 basis points reported and 110 basis points organically, which excluded costs incurred in preparation for a separation in 2019. Profit was $1.2 billion up 2% on a reported basis and 12% organically. Organic profit growth was driven by volume and cost productivity partially offset by inflation, price and higher program investment. As the Healthcare team continues to prepare for separation, they closed out a solid year.Moving to oil and gas. Baker Hughes GE released its f</t>
+  </si>
+  <si>
+    <t>Eaton Corp. plc. (NYSE:ETN) Q4 2018 Results Earnings Conference Call January 31, 2019 10:00 AM ETCompany ParticipantsDonald Bullock - Senior Vice President of Investor RelationsCraig Arnold - Chairman and CEORichard Fearon - Vice Chairman Chief Financial and Planning OfficerConference Call ParticipantsJeff Sprague - Vertical ResearchJoe Ritchie - Goldman SachsNicole DeBlase - Deutsche BankAnn Duignan - JPMorganNigel Coe - Wolfe ResearchJulian Mitchell - BarclaysDavid Raso - EvercoreSteve Volkmann - JefferiesJeff Hammond - KeyBancAndy Casey - Wells FargoMircea Dobre - BairdAndrew Obin - BofA Merrill LynchRob McCarthy - StephensOperatorLadies and gentlemen, thank you for standing by and welcome to the Eaton Fourth Quarter Earnings Conference Call. For the conference, all the participant lines are in a listen-only mode. There will be an opportunity for your questions and instructions will be given at that time. [Operator Instructions]. I’ll turn the call now to Mr. Donald Bullock, Senior Vice President of Investor Relations. Please go ahead, sir.Donald BullockGood morning. For those of you I’m Donald Bullock, Eaton's Senior Vice President of Investor Relations. Thank you to all of you for joining us for Eaton's fourth quarter 2018 earnings call. With me today are Craig Arnold, our Chairman and CEO and Rick Fearon, our Vice Chairman Chief Financial and planning officer.The agenda for today’s call includes our opening remarks by Craig, highlighting the performance in the fourth quarter, our outlook and our guidance for 2019. As we’ve done on our prior calls, we’ll be taking questions at the end of Craig’s comments today.Before we dive into that, I do want to make couple of quick passing comments. The press release for our earnings announcement this morning and the presentation we’ll go through today have been posted on our website at www.eaton.com. Please note that the press release and the presentation include reconciliations to non-GAAP measures, and a webcast of this call will be accessible on our website and available for replay after today’s call.Before we get started, I do need to remind you that the comments today do include statements related to expected future results of the company and are therefore forward-looking statements. Any results may differ materially from a forecast that could be due to a wide range of risk and uncertainties, and those are described in the earnings release and the presentation, and they will be also outlined in our related 10 Q filing.With that, I’ll turn it over to Craig.Craig ArnoldOkay. Hey thanks, Don. I’ll start on page 3 with highlights of our Q4 results, and I’ll start by saying that I’m very pleased naturally with their report this morning and another very strong quarter performance, which really rounded out our solid year overall.Earnings per share of a $1.46 a share, up 13% from last year, and above the midpoint of our guidance. And this was driven by flows strong growth in sales, as well as higher margins. Sales are actually $5.5 billion in the quarter, an increase of 5% and this includes 7% organic growth and this was above our guidance of 6% for the quarter.Bookings growth in the quarter was also strong, led by double digit growth in both Electrical Systems &amp; Services and in Aerospace. And so we continue to be pleased with our margin performance as well, which increased 100 basis points to 17.4%.We had solid margin performance really across all of the segments and all time record margins in Electrical Systems &amp; Services and in Aerospace. We also generated very strong operating cash flows at $1.1 billion, up 27% and a quarterly record if you exclude the $300 million arbitration payment that we made earlier this year.And lastly, we reported and repurchased $700 million of shares in the quarter, taking advantage of what we saw this frequent pullback in financial markets. And if you’ll recall, we had planned to purchase $240 million in the quarter to achieve our target of $800 million to $1 billion for the year.I’d say for now, you can think about this as an acceleration of purchases and that we were planning to make in 2019. However, if markets remain weak, we’ll certainly take advantage of those opportunities as well and buy at higher levels.Moving to Page 4, you’ll see our financial summary for the quarter. You can read these numbers for sure, but I’ll provide maybe just a bit of context here. First, our operating segment profits increased 11% and we generated strong incremental of almost 40%.Second, segment margins of 17.4% were at the high end of our guidance range, and 100 basis points above Q4, 2017. And finally, our net income as reported was flat with prior year and prior year included income related to the U.S. tax bill, excluding this onetime benefit from Q3 -- Q4, 2017 our net income increased 10%. On page five, we’ll start our segment overviews with electrical products. The revenues grew 3% in Q4 and this includes 5% of organic growth offset by 2% in currency.And this was really a strong finish to the year and in the end it was actually our highest organic growth rate for Electrical Products since Q4 of 2014. As we expected, growth in our lighting business turned positive and was up mid-single digits, while orders increased 3% and this was led by solid growth in the Americas.I’d also note here that our backlog increased 15% and while we generally think about this as a book-and-bill business, this increase does suggest that we didn’t see any unusual pre-buying at the end of the quarter.Segment margins were 18.2% flat with prior year and this was largely a result of some unfavorable product mix between the businesses.Next, we can move to Page Six and a summary of our Electrical Systems &amp; Services Segment. As I noted in my opening commentary, this segment posted excellent results for the quarter. The business continued to strengthen. We posted 10% organic growth in the quarter in with strength across all major end markets.The 10% growth represented an acceleration of growth, which was above our Q3 growth rate of 9% and above the Q2 growth rate which was up 7%. And as you can see we did have some negative impact from foreign exchange and a small divestiture during the course of last year.Orders were even stronger up 12% on strong growth and all major end markets in the Americas, and in EMEA. And I’d say that there’s strong growth in Q4 was against a very strong comp from last year where orders were up 12%.You’ll recall from our Q3 earnings call that we noted a pause in orders during the month of September. We had expected that this was largely project timing and temporary. So things really played out as we expected in this segment.In addition, our backlog continued to increase and was up 13%. So overall, the segment is performing very consistent with what we would expect from this long cycle business. And lastly, segment operating profits were up 19% and we generated all time record margins in this segment of 16.6%, so a very strong quarter across the board.If you turn to page seven, we'll summarize the results of our Hydraulics business. Here, we had another strong quarter of revenue growth with sales up 6%, 8% organic growth offset by 2% negative currency. And we continued to see strength really in mobile and with Industrial OEMs, and Construction and Ag markets and in the distribution channel, so pretty broad based.Orders were down 4%, and I would say here on tough comps and if you recall Q4 2017, our orders were up 25%. In the quarter, we did however see continued strength in Asia with orders up 10%, orders in the Americas were flat, but at very high levels. And we continue to see order weakness in EMEA with orders down some 24% as lead times continue to improve.And I’d also add here, but this was the region where we had our most difficult comp, orders in Q4 of 2017 were actually up 38%. And so we feel once again pretty good overall about the activity levels in the hydraulics business.Our backlog does remain strong; it increased 6% from last year. And turning to operating profits, we increased profit by 15% and our operating margins increased 90 basis points to 13%. So I think the right conclusion here is that we made solid progress in this business, which was held back in some prior quarters by some supply chain issues, but that progress needs to continue and is expected to continue going into 2019.On Page eight, we moved to Aerospace, and the business here is clearly firing on all cylinders. Now begin by noting that growth continues to accelerate in Q4 with organic revenue growth up 13% and this is up from 9% growth in Q3 and 6% growth in Q2.Orders also accelerated, they are increasing 17% with strength in commercial transport military fighters and both commercial and military aftermarket. And our backlog continues to grow up some 13% in the quarter.Now the business here also demonstrated very strong operating leverage with profits increasing 30% and delivering record operating margins of 22.9%. I would add that favorable mix certainly contributed to these record margins as aftermarket revenues continue to perform well, but our team also is doing an outstanding job of executing.Moving to the Vehicle Segment on page 9, we’re also very pleased with how this segment performed in the quarter. Our revenues were down 2% with flat organic revenues, and 2% percent negative FX. The NAFTA Class 8 truck market remained very strong in the quarter and reached 324,000 units for 2018 and this is up some 27%.You’ll recall here that revenues for our automated truck transmission business are now included in the Eaton Cummins joint venture and are not consolidated in our financials. The JV actually had revenue growth up 45% in the quarter. So our business overall is performing extremely well.On the other hand, our global light vehicle production was down in Q4, with North America up modestly offset by slight declines in Europe, and particular weakness as you’ve all heard in China.Despite flat organic revenues, operating profits increased 4% and our operating margins increased 90 basis points to 17.9%. And finishing up our segment summaries, eMobility is on page 10. Organic revenue growth was 11% offset by 1% negative currency.Not unexpected, operating margins declined to 11.3% as we continue to ramp up our R&amp;D spending. You’ll recall that this new segment was created in Q1 of last year. At last year’s investors meeting, we told you that eMobility would become a new $2 to $4 billion offset of our company. And I’m pleased to say that we’re on track. 2018 was a busy year and a year where we ended ahead of schedule.We’re in ongoing discussions with a large number of customers on new programs, and we remain very optimistic about the long term growth outlook for the business overall. We’re ahead of schedule on new product developments. These new products are allowing us to quote on a broader range of opportunities and quite frankly to move from selling only components to selling systems.So we remain very excited about the future of this segment, and the work that our team is doing and what this represents as a growth opportunity for Eaton as we move forward.And before we turn our attention to 2019, I would like to just take a moment to recap some of the key highlights from 2018 now which we see a strong year as a strong year of progress. First, end markets improved allowing us to generate 6% organic revenue growth and this was double the growth rate of 2017 and above our initial estimate for the year, which was 4%. We continued to make good progress on enhancing our margin performance with a 100 basis point improvement and setting an all-time record for the company at 16.8%. As a result, our net income per share of $5.39 when you exclude the $0.48 [ph] impact in the legacy Cooper arbitration decision was up 16% over 2017.And our teams very effectively offset both the impact of tariffs and commodity inflation with incremental price. We generated $3 billion of operating cash flow and this would exclude the $300 million impact from the arbitration payment.This allowed us to return $2.45 billion to shareholders. $1.15 billion in dividends and another 1.3 billion of share repurchases and the 1.3 billion represents 4% of our shares outstanding at the beginning of the year. So, overall very proud of the team. We exceeded our financial commitment to shareholders. We invested in the future of the business and really are building a stronger company.Now turning to 2019. Let me begin by summarizing our growth outlook. Overall, we’re expecting 4% to 5% organic growth, and this is consistent with the outlook that we provided in Q3, 2018 during our conference call.As we take a look at our individual businesses, we expect 4% to 5% organic growth in Electrical products, with continued strength in industrial and large commercial projects. We expect modest growth in lighting, and also modest growth in single phase power quality and small commercial projects.For Electrical Systems &amp; Services, we see 5% to 6% organic growth. And here our backlog is very strong. We expect continued market strength and power distribution assemblies in the Americas and in the datacenter markets globally.We also see modest growth, in both the utility and harsh and hazardous markets. For hydraulics, growth is expected to be 5% to 6% on revenue levels that are already very strong, but we see continued strength in mobile markets in Asia and in North America.And Aerospace markets really are universally strong, and we expect to see 8% to 9% growth on strength in OEM and aftermarket, and really, with both military and commercial customers.Vehicle markets are expected to be flat for both North America heavy duty truck, and global light vehicles. But, both are running at I’d say very high levels, and we expect to see strong growth in the Brazilian truck market. Overall, our organic revenues are expected to be down 2% to 1% for the year, but once again keep in mind, that our revenues for automated truck transmissions are expected to grow and are now apart and reported as a part of the Eaton Cummins joint venture.Finally, we expect eMobility to grow 11% to 12% organically, consistent with a level of growth that we experienced in 2018. And while we’re still a few years away from what we call a major growth inflection point, our optimism for this segment continues to grow as we look forward.Moving on to Page 13, we lay out our margin expectations for 2019. For Eaton overall, we expect segment margins to be between 17% and 17.4%. At the midpoint, this represents a 40 basis point improvement over 2018 and it really places us solidly within the 17% to 18% range that we set as a 2020 goal. And I would add, one year ahead of schedule.And with the exception of new eMobility, we investing – we were investing heavily in product development. Margins are expected to increase in each of our segments, specifically Electrical Products at 18.6% to 19.2%, to a 50 basis point improvement and Electrical System &amp; Services at 15.2% to 15 8%, up 60 basis points. Hydraulics at 14% to 14.6% up 90 basis points. Aerospace at a very strong level already, but at 21.4% to 22% up 70 basis points and Vehicle at 17.4% to 18% up 20 basis points.eMobility as we noted, we’re investing heavily in this segment. Margins will be down to 6.1% to 6.7% from 70 basis points, really just as a function of heavy R&amp;D investment.And on page 14, we pick up the balance of our guidance for 2019. So we expect our full year EPS to be $5.70 to $6 a share. At the midpoint, this represents a 9% increase, excluding the impact of the arbitration decision that reduced 2018 earnings by some $0.48.As we discussed, organic revenue is expected to be up 4% to 5%, but this growth is expected to be partially offset by some $250 million of negative currency translation. We expect our corporate costs, including pension and interest and other corporate items to be flat with 2018 and our tax rate to be between 14% and 16%.This will result in operating cash flows coming in between $3.1 billion and $3.3 billion and we expect CapEx to be $600 million. As I noted, we accelerated some $400 million of share repurchases into Q4. So the target purchases for 2019 are now at $400 million.And for Q1, we expect EPS to be between $1.18 and $1.28, a 12% increase at the midpoint. And for Q1, we also expect organic growth to be approximately 4% to have segment margins between 55 and 59 and a tax rate of between 13% and 14%.So overall, we expect another strong year. And this concludes my opening comments, and I’ll hand it back to you and you can open the line for Q&amp;A.Donald BullockThanks, Craig. Before we go ahead to operator to open it up for questions, I do want to make a couple of comments. First, we do acknowledge today, is a day that has an enormous number of peers out there and earnings announcements. So we are going to hold our call to an hour. To do that, it’s important that you limit your questions to a question and a follow up if you would, so we can be sure to cover everyone’s questions.With that, I’ll turn it over the operator to give instructions.Question-and-Answer SessionOperator[Operator Instructions] Donald BullockOur first question today comes from Jeff Sprague with Vertical Research.Jeff SpragueThank you. Good morning. Thought very solid Craig, I was wondering, if you could provide a little bit of additional color on how you saw things play out during the quarter, obviously the quarter itself was very strong. But we did have that peculiar slowdown in September. Did you see people tapping the brakes in December as the market got wobbly and what are you seeing here in January?Craig ArnoldJeff, I guess you’re referencing largely what we talked about on the Q3 earnings call and Electrical Systems &amp; Service where we did see this pause during the month of September. We’d indicated at the time that we thought that was a temporary pause, that these products do at sometimes tend to be lumpy, and we thought that, that would come back in Q4, which it certainly did.No, I’d say Q4 was really pretty much a consistent quarter. We saw the high level of economic activity really across the quarter, pretty consistent across each of our businesses and as I’d noted, with no real significant, no measurable pre buy at all, as evidenced by the growth in our backlog.And so, I think it was a solid clean quarter across the board, and despite the level of economic uncertainty that’s out there. Activity levels are fairly good, and in through the month of January, we’ve really seen kind of a continuation of that performance. Certainly, in the context of our guidance for Q1, which is a little lighter than the growth rate that we saw in Q4, we do think there is some economic uncertainty out there, which is essentially what we have reflected in our guidance. But by and large, activity levels across our businesses are still quite positive and quite strong.Jeff SpragueThanks and unrelated. Just on tax, Rick. I mean your guidance is pretty straightforward, but we’ve seen a couple of companies getting hit by this IRS change and deductibility of interest. Is that an issue for you or a wild card or is that fully encapsulated in your guide?Richard FearonIt’s fully baked into our guide. One of the reasons that the tax rate jumps from roughly around 13% to 15% in 2019 is because we’re reflecting the implications of all these regulations that came out last year, some of which, I think surprise some companies. But we had anticipated that they would come out largely as they did. So that’s why we’re comfortable with this 14% to 16% range for 2019.Jeff SpragueGreat. Thank you.Donald BullockOur next question comes from Joe Ritchie with Goldman Sachs.Joe RitchieThanks. Good morning guys. So Craig, maybe just on the EPS range. $0.30 wide versus kind of like typical is closer to $0.20. Maybe, can you just give us some insight into why you expanded the range, and what market conditions have to be in place to drive you to that towards the higher end or the lower end of the range?Craig ArnoldYes, I would suggest Joe that don’t really over read or read much into the fact that the range is a little bit wider. I mean, I think it’s as our EPS in absolute dollar terms increases the percentage and the range will naturally widen a little bit. But I’d say that, for us, the big variables as we look forward into 2019 that could potentially influence whether you’re on the low end or the high end of the range. It’s largely a function of what happens with our end markets.Right now, I said we’re feeling fairly good. It was a strong fourth quarter, coming in stronger than what most had expected ourselves included. And so I think, it’s really a function of how end markets perform going into 2019, and to what extent some of the geopolitical kind of concerns that the world we’re dealing with in various kind of countries around the world get resolved.But I wouldn’t read anything into the fact that the range has been opened up a little bit. We’re feeling very good about kind of you know the company’s performance overall and degrees of freedom that we have around things that we can do in the event of a little bit of an economic slowdown. So I would not over read that at all.Joe RitchieCraig that said, that’s good to hear. And I guess my follow on, you guys cited power distribution assemblies and data centers as strong growers in 2019. I think data centers are up high single digits. This is though a little at odds with some of the announcements we’ve heard from some of the chip makers, so maybe talk a little bit about like the strength that you’re seeing in data centers that makes you feel good about the prospects for 2019.Craig ArnoldYes. I mean the data center market I’d say if you look at the long term trend of what we’ve been seeing in general, the whole world generates and consumes more and more data. I think it’s pretty compelling for the long term growth prospects. We saw strong double digit growth in 2018 and as well as a lot of major projects being announced. And so, as we think about data centers in general, while on the hyperscale side of the market, it can be somewhat lumpy. We do think that what we’re looking at in the form of an existing backlog and projects, that were in the pipeline, that the numbers that we’re talking about for 2019, which is kind of mid-single digit growth are very much in line with what we have visibility to.I think the chip maker piece is perhaps one that’s a little bit more nuanced in terms of whether or not that’s a direct proxy for what we’re seeing specifically in the data center market, as a lot of the big data center companies are actually in many cases vertically integrating and doing a lot of this work themselves as opposed to relying upon third parties.But now we feel very good about the data center market and about how we’re positioned and about the number of projects that have already been announced. And so we think it’s going to be another strong year.Joe RitchieOkay. Great, thanks Craig.Donald BullockOur next question comes from Nicole DeBlase at Deutsche Bank.Nicole DeBlaseMorning guys.Craig ArnoldMorning, Nicole.Nicole DeBlaseSo I guess maybe starting with the 1Q outlook, it seems to me like the step down to 4% organic growth could be a little bit of conservatism reading between the lines of what you said in response to Joe’s question. But I guess, maybe thinking about from a segment by segment perspective, where the step down is coming from?Craig ArnoldYes, I’d say that as we take a look at Q1, we’re certainly seeing a step down in the growth rate. I’d say principally and Electrical Systems &amp; Services is one of the big drivers and hydraulics, I’d say would be another one and then also in Aerospace. So those would be the three big ones that I’d say that’s a relative step down in the growth rate.And I think, largely the way we think about it in the call is the way I answer the question earlier is that, there is a lot of economic uncertainty out there whether it’s Brexit or the funding of the U.S. government or trade disputes with China. And so, we think given the level of uncertainty that’s still out there in Q1 that you could largely see a little bit of a pause in economic activity until some of these major structural issues are resolved there.And that’s kind of what’s baked into our forecast. Could it be conservative, it could be, but given kind of just a level of economic uncertainty out there, we think it’s prudent to plan for these issues to at least extend through Q1 and be resolved at some point and we think all of that logic is baked into our guidance for the year of growing some 4% to 5%.Nicole DeBlaseOkay understood. Thanks Craig. And I guess, maybe my second one just around hydraulics. So one of your big distributors talked about solar power demand stepping down a bit in the last two weeks of December. Curious about that, as well as a confidence in the outlook for China Mobile to remain strong just because I think Cat is looking for more like kind of a flattish equipment environment in China in 2019?Craig ArnoldYes, I know China has continued to -- maybe I’ll deal with that one first before I get to the distributor one. China has continued to perform extremely well. If you take a look at excavator sales in Q4, and [Indiscernible] sales excavator, sales are up more than 20% in Q4.Vehicle [ph] order sales up more than 10%. And so the China construction equipment market at least in terms of looking at the public data continues to perform extremely well and our business does as well. And so, we think as we look into 2019, we do think that growth rates are moderate, but we still think that we see growth in the China mobile market specifically going into 2019 and that’s kind of consistent with what we’re hearing from many of our customers.And quite frankly, Eaton in the region we’ve done extremely well in terms of new wins and gaining some market share on platforms and that also influences our thinking as well.But in terms of the distribution market, I can’t really speak to one distributor in one part of region. I would say that, our hydraulics business in Q4, we had growth of organic growth of 8% and that growth was pretty even throughout the quarter. And so, we felt very good about the growth rates and we did not see generally speaking, or here generally speaking of any slowdown that took place at the end of the year. It wouldn’t surprise me that there is a distributor someplace who saw a slowdown someplace. But more broadly speaking, our business continued to perform well.Nicole DeBlaseUnderstood. Thanks Craig.Donald BullockOur next question comes from Ann Duignan with JPMorgan.Ann DuignanYes. Hi good morning. Maybe Craig, maybe you could dig a little bit deeper into some of your end markets and give us some color in terms of where you’re seeing the strength and looking particularly maybe Electrical Products, which specific industrial markets, which some segment of commercial projects and then likewise maybe power distribution. Just so we get some color as to what’s going on out there.Craig ArnoldYes and I’d say that in the beginning with Electrical Products. One of the things we noted was lighting business returned to natural growth. It’s been a business that obviously we were taking some strategic steps to work through some specific market segment issues, and so that business for us returned to growth in Q4. And we think the outlook for lighting going into 2019, is that business will continue to grow low to mid-single digits.We think that the single phase power quality business, another business that grew mid-single digits in Q4. We had order growth that was a little better than that actually in Q4. And so that market continues to do well, and then largely the power distribution components, a lot of what we sell in the component side goes into small and large commercial projects in general. And so when you think about some of the growth that we see today in our Electrical Systems &amp; Services businesses, mainly most of the components that support that business come through our Electrical Products business, and some of that goes to distribution is aftermarket as well. And so that business continues to do well.So we saw generally speaking, pretty decent growth as I mentioned the strongest growth that we’ve seen since 2014 in Electrical Products and the orders are performing solidly. And so, we think that market continues to have a decent year in 2019.In Electrical Systems &amp; Services and it’s really as I mentioned almost strength across the board. Large industrial projects, commercial projects, those markets continue to perform extremely well, and you see many of the same data streams that we see, non-res construction numbers continue to be up strongly mid-to-high single digits. The Dodge non-res contracts on -- were up 23% in dollars in Q4, and on a square footage basis up 10%.And so we’re really seeing strength in most of the non-res construction markets and as we talked about in data centers hyper scale and data centers in general had very strong results, up strong double digits in 2018 and we think a little bit of moderation in that growth rate as we move into 2019, but still strong growth.And so we think in general, these businesses continue to perform very well and that no real evidence of any economic slowdown at this point. And so we’re feeling very good about 2019.And then [Indiscernible] what your own guess is another one of those segments that’s been a lot of stuff talked about, but we had very good growth in Q4 and our [Indiscernible] business up, strong, single digits, high single digits. And so that business as well despite a little bit of pullback in oil and gas prices at the end of the year, we saw some recovery in December. And so we think that market also continues to grow going into 2019.Ann DuignanOkay, that’s good color. I appreciate that. And then just to follow up on that sustainability of aerospace margins. I mean we know it’s great that high margins in aerospace, but we also know we have to be investing in the future, so can you just talk Craig maybe about the near-term maybe positive mix versus the longer term. You need to be on the next platform in order to sustain those high margins?Craig ArnoldAbsolutely, and appreciate the question. I think there’s two things that are really driving the high margins in aerospace. I think one, it is the fact that aftermarket is continuing to perform extremely well. In better than most I mean at the end of the day, you make most of your money in aerospace and aftermarket, and an aftermarket is performing extremely well both in commercial and in on the military side.The other thing that I’d say that we and others are getting a real benefit from right now is really what you alluded to and it’s the fact that we’re in a bit of a pause period as an industry in terms of new programs.We went through a massive refresh over the last 10 years, and most of these new programs are actually going into service at this point in time, and the next, by the time you get to the next generation, the next refresh you’re probably 5 years to 10 years out. And so I do think that our aerospace margins will continue to be at very high levels for the next number of years and until we get to the point where we have the next round of major investments required for the next generation of commercial and/or military aircraft.And so, we are investing in the future. We’re doing a lot of investments in offline technology development to be ready, for insertion to get to a technology readiness level that says that we’re ready to participate on the new platforms. But I say it’s really those two things that are really benefiting our business as well as very strong execution by our operational teams.Ann DuignanRight. Thank you. I leave it there. I appreciate there.Donald BullockOur next question comes from Nigel Coe with Wolfe Research.Nigel CoeThanks guys. Good morning.Craig ArnoldHi.Nigel CoeSo, what a difference [Indiscernible]. I’m just trying to understand the turnaround in ESS because it feels like there’s probably economic concerns in the U.S. than there was back in September, October. So I'm wondering what are you hearing from fields, your sales, engineers, customers whatever in terms of what cause the pause and why there risk now? And maybe just in terms commenting on creep activity this quarter pull ahead a price increases as such. Did you see any of that? And could that explain some of this pressure?Craig ArnoldI’d say – Nigel, I appreciate the question. We spend the fair amount of time talking about Q3 e</t>
+  </si>
+  <si>
+    <t>PepsiCo, Inc. (NASDAQ:PEP) Q4 2018 Earnings Conference Call February 15, 2019  7:45 AM ETCompany ParticipantsJamie Caulfield - SVP, IRRamon Laguarta - Chairman, President &amp; CEOHugh Johnston - Vice Chairman, EVP &amp; CFOConference Call ParticipantsDara Mohsenian - Morgan StanleyBryan Spillane - Bank of America Merrill LynchLauren Lieberman - Barclays BankAli Dibadj - Sanford C. Bernstein &amp; Co.Judy Hong - Goldman Sachs GroupAndrea Teixeira - JPMorgan Chase &amp; Co.Stephen Powers - Deutsche BankBonnie Herzog - Wells Fargo SecuritiesCaroline Levy - Macquarie ResearchKevin Grundy - JefferiesLaurent Grandet - Guggenheim SecuritiesOperatorGood morning, and welcome to PepsiCo's Fourth Quarter 2018 Earnings Conference Call. [Operator Instructions]. Today's call is being recorded and will be archived at www.pepsico.com. It is now my pleasure to introduce Mr. Jamie Caulfield, Senior Vice President of Investor Relations. Mr. Caulfield, you may begin.Jamie CaulfieldThank you, operator, and good morning, everyone. I'm joined this morning by PepsiCo's Chairman and CEO, Ramon Laguarta; and PepsiCo's Vice Chairman and CFO, Hugh Johnston. We'll begin with approximately 25 minutes of prepared comments from Ramon and Hugh, and then open the call up to your questions.Before we begin, please take note of our cautionary statement. This conference call includes forward-looking statements, including statements regarding 2019 guidance and long-term targets, based on currently available information. Forward-looking statements inherently involve risks and uncertainties that could cause our actual results to differ materially from those predicted. Statements made on this conference call should be considered together with cautionary statements and other information contained in today's earnings release and in our most recent periodic reports filed with the SEC.When discussing our financial results on today's call, we will refer to certain non-GAAP measures, which exclude certain items from our reported results. Such items include the impacts of certain tax-related matters, foreign exchange translations, acquisitions, divestitures, structural and other changes, and restructuring charges. You should refer to the glossary and other attachments to this morning's earnings release and to the Investor section of PepsiCo's website under the Events and Presentations tab to find full explanations and reconciliations of these non-GAAP measures.And now it's my pleasure to introduce Ramon Laguarta.Ramon LaguartaThank you, Jamie, and good morning, everyone. We'll begin this morning's call with a brief recap of 2018 performance, and then move on to a discussion at -- of go-forward priorities, long-term targets and the financial outlook for 2019. So let's begin with 2018, which was a very successful year.We met or exceeded each of the financial targets we outlined at the beginning of the year. Organic revenue grew 3.7%, which was a meaningful sequential acceleration from 2017. And within the year, we saw the rate of growth accelerate from 2.5% in the first half to 4.7% in the second half. Purely North America and each one of the international divisions performed very well, and NAV made progress throughout the year with a return to organic revenue growth and improved pricing. At the same time, we continued to make investments in the business, and the solid momentum we have as we enter 2019 is a good indication that those investments are working.Now on to priorities. As most of you know, I assumed the role of CEO in early October, and I'm pleased to report that the transition has gone very well. And I'm fortunate step into the role at such a well positioned company. PepsiCo competes in attractive, large and growing categories. We've been leading -- we have leading brands and a broad portfolio capable of evolving into new growth spaces. We have a very well-developed geographic footprint, with a stronghold positions in our largest markets and very competitive positions in a number of other rapidly growing markets. We have a suite of strong and very relevant capabilities across the value chain that we've been -- that have been built and strengthened over the years.We have scale that allows us to run our operations very efficiently and to leverage our capability investments across a large and global business. We have highly engaged associates, a strong cohesive management team and deep talent bench. And we have a distinct winning culture that has its -- at its foundation, well embodied values and a strong sense of purpose.These traits have enabled us to perform well in an environment characterized by highly-dynamic retail and competitive landscapes, shifting consumer habits and preferences, and volatile currencies, commodities and geopolitics. Over the past six years, organic revenue growth has averaged 3.8%. Core operating margin has expanded by 1.6 percentage points. Core constant currency earnings per share growth has averaged 9%. Core ROIC has expanded by 9.5 percentage points to 24.8%. Dividends per share have grown 9% on a compound basis. And we're returning $45 billion to shareholders through a combination of dividends and share repurchases.I've spended the past four months deeply engaged in the business, connecting with our consumers, our customers and associates, as well as spending considerable time together as a senior leadership team, having no holds barred debates with a goal of focusing on what the opportunities are to make our company even faster, stronger and better. We looked for opportunities to improve our strategies, our portfolio of businesses, the strength and breadth of our capabilities, how we organize and get work done, how we can take our execution to new heights and how we can elevate our sense of purpose.And from this review and assessment, we emerged with a set of what I'll call observation and a very clear set of go-forward priorities. Let me begin with the observations. Fundamentally, we're a highly-focused convenient food and beverage company. We compete in very attractive, large, growing and highly complementary categories that share many common characteristics, including consumers, customers, shoppers and occasions. Our ability to leverage the scale of our business to invest in and deploy new capabilities and technologies is a competitive advantage. Furthermore, we have tremendous potential to expand consumption across multiple dimensions. We believe we can capture a greater share of consumption occasions by considering to broaden our portfolio to provide greater choice to satisfy consumers evolving taste, whether they are seeking for an indulgent treat or a more nutritious snack, hydration or a functional drink, on-the-go convenience or take-home value. And we also see the opportunity to continue to increase consumers perceived visibility of our products as an additional growth avenue.Relatedly, we believe our product and geographic portfolios make sense. And we do not currently see the need to shed or acquire businesses in any significant way. Those businesses are not squarely on strategy, are relatively small and generate very healthy cash flows. And there is no apparent value-creating path to divest them because of tax consequences and/or transaction complexity. Let me go now into our individual businesses.Frito-Lay in North America, our largest sector by profit, is an extremely strong businesses -- strong business that generates consistently attractive top line growth and has industry-leading margins and returns on invested capital. The core of Fritos business remains very strong and growing. Over the years, Frito has successfully adopted its portfolio to address new demand spaces, mainly in more permissible and premium snacking. We've added new brands and product lines to capitalize on those opportunities, with products like simply, SunChips, Smartfood, Off the Eaten Path and Imagine. And we expect this approach will enable Frito to continue to compete very effectively across the spectrum of the snacks category.Furthermore, we see more runway to continue to source volume from other micro snacks occasions in what that played to Fritos strengths -- in ways that play to Frito's strength. Operationally, Frito runs extremely efficient and highly optimized supply chain and go-to-market systems. However, capacity utilization is very high on average and there are pockets where capacity is overstretched. We believe with added capacity, Frito will be even better positioned to capture new growth opportunities.Let me move now to North America Beverages. NAB, our largest sector by revenue, is an attractive business. It has many leading brands in growing beverage categories and operates a differentiated integrated business model. We believe our operating model is a competitive advantage that provides superior customer and system alignment, speed to market and systemwide efficiency.With that said, in a dynamic market, NAB has faced a number of challenges over the past 18 months. New entrants have come to market in some of our stronghold categories. There are opportunities to improve some of our brand marketing and consumer engagement. And there are areas where we can step up our local marketplace execution. We have good plans in place to address these opportunities. We've increased both the quality and level of A&amp;M on key core brands, including Pepsi and Mountain Dew. We've increased our innovation to address new category entrants and to drive success in higher growth segments, with innovations like LIFEWTR, bubly, Gatorade Zero, new variants of Propel and extensions within our successful Starbucks and pure life -- Pure Leaf Tea guidance.At the same time, we're having good success with Pepsi Zero Sugar, and this has been a key element in stabilizing the performance of our trademark Pepsi business. And we're making changes to our NAB organization structure and adding frontline resources to make us a more agile and respondent to local commercial opportunities and local competitive actions.While there is more work to do, we're very encouraged by this steady sequential improvement we've seen in the business. We are confident that with more well-placed investments, we'll see continued improvement in any of these performance.Let me talk a bit about international now. We have a very well developed international footprint, and our international businesses are performing very well. We have strong market positions in snacks globally and within most of our key markets. And in beverages, we have very competitive market positions, either outright or in combination with our bottling partners who provide scale and round out our beverage product portfolio.In most of our key markets, we're the number one or number two overall food and beverage supplier. Our categories travel well. And we had success innovating and marketing in ways that make our products highly relevant at a local level. We have a very well qualified playbook to expand our business in developing and emerging markets by exploiting our global capabilities to grow penetration and frequency. A key element of the playbook is lifting and shifting our ideas from market to market, still that we continue to hold. We believe with greater focus on capability deployments, increasing the local relevance of our products and achieving greater scale, our international business, especially in D&amp;E markets, can be a source of even greater growth and higher profitability.Underpinning all we do is our commitment to a strong environmental, social and governance agenda. Our sense of purpose is a great inspiration to our associates and makes us a very attractive place to build a career. Furthermore, we understand that we're an integral member of the communities we operate in. We embrace the notion that we can and should make big positive impacts in our communities by leveraging our scale and deploying our capabilities to help our communities strive. We believe a strong ESG agenda is fundamental to long-term value creation. Our dedication to environmental, social and governance leadership will not waver.So with these observations in mind, let me move on to our priorities. Our first set of priorities relates to becoming faster, specifically, accelerating our rate of organic revenue growth. And if there's one thing I'd like you to take from our discussion today is that, we view topline acceleration as the single biggest opportunity to create more shareholder value. To achieve accelerated topline growth, we intend to strengthen and broaden our product portfolio packaging formats to win locally in convenient foods and beverages. And this means growing our core businesses as we continue to evolve our product portfolio and sharpening our focus on key geographies.Across snacks and beverages, we'll invest to capture a greater share of consumption occasions, from indulgent to functional, social to individual, value to premium, and across dayparts from morning to night. We plan to do this by continuing to grow our core brands, which include $22 billion brands, and building and/or acquiring new brands to cover new demand spaces, as we have recently done with bubly, LIFEWTR, update in Path or Bare.Within snacks, we intend to further capitalize on the consumer trends of convenience and on-the-go in locally relevant ways. Here, we see themes of convenient mini meals, local street foods and local recipes, just a few inspirations to evolve our portfolio in very locally relevant ways. We intend to rapidly scale our beyond the bottle initiative, building on the foundations of our recent acquisition of SodaStream and our internally developed Spire, Drinkfinity and Aquafina water station platforms to offer consumers even greater variety and choice in beverage formats. From a geographic perspective, our priorities are clear: #1, invest to sustain Frito-Lay North America's growth and leadership; #2, strengthen North America Beverages to grow sustainably with the market; and third, accelerate our international expansion with a disciplined focus on right to win markets.Across each of these initiatives, we'll deploy a simple, clear and very effective growth model that's highly focused on the consumer. That is providing the consumer 4 key benefits: variety, that is what I want; ubiquity, where I want it; desirability, from a brand I trust; and value, with the benefits or affordability that appeals to me. Our entire commercial agenda is centered on delivering these four benefits to the consumer. Our second set of priorities relates to becoming stronger. This involves becoming more capable, leaner, more agile and less bureaucratic. In doing so, we will drive down cost and that enables us to plow the savings back into the business to develop scale and sharpen core capabilities that drive even greater efficiency and effectiveness creating a virtuous cycle.Our productivity programs will be guided by a set of universally applied principles, namely: achieving local affordability; simplifying and standardizing processes; collaborating across functions rather than optimizing within functions to achieve lowest cost end-to-end processes; relentlessly automating and merging the best of our optimized business models with the best new thinking and technologies. Just as importantly, we're also adopting a philosophy that recognizes that not all the capabilities or costs are equal, so we'll be very discriminating in where we need to pay for best-in-class or we should pay for just good enough. These principles will be applied across the entire cost structure, from labor to discretionary costs, and advertising and marketing, to fixed assets.The savings from our productivity programs will be substantially reinvested to develop and scale a set of core capabilities that we believe are necessary to deliver the consumer benefits I mentioned earlier. These capabilities are: indispensable brand building; science and design-led innovation; point of choice excellence across all channels, whether traditional or emerging; consumer intimacy, that is leveraging technology and connecting data to deepen our relationships with consumers, moving from relationships with groups of consumers to relationships with individual consumers. This enables a number of benefits, from individually based media and marketing engagement to personalized pricing; and finally, supply chain agility, where we deploy integrated and more robust data to improve demand forecasting and automation, advance robotics and other technology to make our manufacturing assets and go-to-market systems much more flexible to satisfy that demand with greater speed, precision and efficiency.And of course, executing this aggressive agenda of top line acceleration productivity and capability building will require fostering a high-performance culture, one that is aligned on a common set of leadership behaviors and is supported by the right incentive systems. Among the values we are emphasizing throughout the organization are being more center on the consumer, acting like owners, and moving with focus and speed. And finally, we're examining ways to refine our incentive and pay systems to encourage local empowerment and accountability, as well as even greater alignment between management, our shareholders.And our third and final objective relates to being a better company, with -- by being purpose-led. Performance with Purpose has been a cornerstone of PepsiCo for 12 years. Its guided our strategy and has been a point of differentiation. We're very proud of the progress we've made to date and equally excited about the continued evolution of our purpose agenda. With this in mind, our organization is committing to winning with purpose, which marks a new chapter in our purpose agenda. It acknowledges PepsiCo's leadership in integrating sustainability with a strive for more than a decade and conveys our belief that sustainability can be an even greater contributor to our success in the marketplace.Essential to our winning with purpose agenda will be a sharpened focus on advancing sustainability -- advance in sustainable agricultural practices, a holistic strategy to support the creation of a circle or plastic economy, a striving for positive water impact and continuing to make our products more permissible to consumers. As we work to execute each one of these priorities, our overarching goal is to accelerate the rate of topline growth to enable us to deliver balanced, sustainable financial performance that creates greater long-term sharehold value.With that, now let me hand it over to Hugh to cover the financial goals in more detail.Hugh JohnstonGreat. Thank you, Ramon, and good morning, everyone. The plans Ramon just laid out are intended to create durable, attractive long-term financial performance and total shareholder returns, driven by organic revenue growth of 4% to 6%, 20 to 30 basis points of average annual core operating margin expansion, high single-digit core constant currency EPS growth, growing core net returns on invested capital, and attractive free cash flow and cash returns to shareholders.To support our free cash flow and core net ROIC goals, we remain committed to disciplined capital allocation with our existing priorities intact, namely: number one, investing in the business, number two, paying a dividend; number three, tuck-in acquisitions; and number four, returning residual cash to shareholders through share repurchases. Productivity is a key component of our go-forward plans, providing both fuel for reinvestment and improving our operating margins. We're extending our productivity savings target of more than $1 billion annually through 2023. Contributing to this goal are savings we expect from restructuring actions we announced in this morning's release.We intend to make substantial investments in the business in 2019 in A&amp;M, manufacturing and go-to-market capacity, end-to-end supply chain transformation, and global systems harmonization and standardization. While there are investments in each category in each operating sector, in terms of emphasis, in Frito-Lay North America and our international sectors, there is relatively greater emphasis on adding manufacturing and go-to-market capacity and supply chain transformation. In the case of North America Beverages, there is relatively greater emphasis on investing to support the core brands, ramped up innovation, and adding and redirecting resources to drive enhanced local marketplace execution.And across all the sectors, as well as at the corporate center, we're investing to drive global systems harmonization and standardization. These investments are being made with the aim of building the capabilities and implementing the processes that will support the achievement of the strategic priorities Ramon just reviewed, especially the achievement of sustained accelerated topline performance. We deeply analyze and assess each of the planned investments. We've established detailed guidepost to measure our progress and success against each one. And we're confident that the investments will return meaningful value to investors over time.Beyond the stepped-up investments, our 2019 core earnings performance will be impacted by three other factors: first, we're lapping a number of strategic asset sale and refranchising gains and insurance recoveries net of a frontline bonus that contributed approximately $0.17 to earnings in 2018; second, we expect the core tax rate to increase to approximately 21% in 2019 from a rate of 18.8% in 2018; and third, we expect foreign exchange translation to be an approximate 2 percentage point headwind to both revenue and EPS performance in 2019.Taking all of this together, for 2019, we expect organic revenue growth of 4% and core EPS of approximately $5.50. Importantly, we expect to see a return to high single-digit core constant currency EPS growth in 2020. For 2019, we also expect free cash flow of approximately $5 billion, reflecting a step-up in CapEx to approximately $4.5 billion. Most of the increased capital spending is associated with accelerating progress on our strategic priorities. Following 2019, we expect our capital spending to moderate and to return to approximately 5% of revenue by 2022. We expect total cash returns to shareholders of approximately $8 billion in 2019, comprised with dividends of approximately $5 billion and share repurchases of approximately $3 billion.With that, we'll now open it up to your questions. Operator, we'll take the first question.Question-and-Answer SessionOperator[Operator Instructions]. Our first question comes from the line of Dara Mohsenian of Morgan Stanley.Dara MohsenianSo Ramon and Hugh, your 2019 guidance clearly implies some substantial reinvestment, both from a P&amp;L standpoint and on the CapEx line. Just at a high level, how did the organization come to that decision under new leadership? Is this more sort of underutilized opportunities under new CEO, you're looking at, as you highlighted maybe on the Frito capacity side? Or is it more a need to reboost coffers after a tough external environment the last few years that may have pressured spend a bit? Because you do appear to be leaving 2018 with some nice momentum from a topline perspective. So just trying to better understand the decision at a high level. And then also it would be helpful if you could give us some more granular detail on which product categories or geographies that incremental spend is particularly focused on, both from P&amp;L and CapEx standpoint. And what gives you confidence around the ROI behind that spend as you look out getting it back to that high single-digit algorithm beyond 2019?Ramon LaguartaOkay. Let me start. I mean the process was a, say a four month process that we've -- you know we've been together as a management team over a series of meetings, trying to define what would be the next chapter of PepsiCo. And we came to the realization that we have a good company, we can be a great company. And there is a, say an aligned vision to be a much faster growing company, because we see that our categories are very healthy in large, growing across the world. And we have been performing okay against the category, but there is further growth and further opportunities for us to grow share in those categories. And the process started with, let's see how we can refocus the discretionary funds that we have in each one of our business against the growth opportunities. So we're doing that as part of the AOP for '19. And then we came to the realization, there is even further opportunities for us to invest and grow our top line in a very competitive way and profitable way. So that's what we are. In terms of the areas of spend, you should think about we're investing across all the businesses, from our North America business to our international businesses. And we're investing in brand building, selling capacity and supply chain capacity. Those are the big areas. And also, we've been in building capabilities for the last few years, and we are going to continue to do in areas like away from home, e-commerce, some of the large channels that are driving a lot of growth for the categories.OperatorYour next question comes from the line of Bryan Spillane of Bank of America.Bryan SpillaneSo just two questions related to the investments this year. One, is there incremental -- is it $1 billion of incremental productivity also in 2019? And then second, I guess, as we look at -- there were some investments that went into the business in '18 and then some incremental investments that goes into the business in '19. So in trying to understand like how much of that goes in and stays in the business? Kind of the relative size of that? I mean back of the envelope, I was set of getting to about $500 million. So if you can give us any sense as to whether that's close to the ballpark in terms of the size of the reinvestment?Hugh JohnstonYes. Bryan, it's Hugh. So in terms of the size of the reinvestment, we haven't got overly specific with the numbers. But if you think about what our normal EPS is versus what we're doing this year, I would think about somewhere between 40% and 50% of it being reinvestment and then the other factors. We've mentioned the tax rate and the one-timer lapping being the other parts of it. As to the other part of your question, as you know even in late 2017 and into 2018, we did start making some reinvestments back into the business because with the tax cut and other things, we had the opportunity to do that in '18. The thing that gives us a lot of confidence and gives us a belief that the ROIs are going to be good is the money that we've invested so far, we have actually seen good payback. The reason for that is, obviously, we participate in 2 great categories, convenient foods and beverages. And when we invest money in those businesses, there's good consumer and customer response to it. So the fact that we put money into the businesses and we've seen such good response is what gives us confidence, like going forward, we should continue to do that into 2019. The one thing I do want to stress in all of this is, we started with making the internal cost structure of the company more efficient and have done everything we can do with that, and the restructuring is part of doing that. The incremental portion of it obviously is what we're talking to you about its investors, but I want to assure you while that we've worked hard to make sure PepsiCo is as efficient as it can possibly be, and we'll continue to strive to do that as well.OperatorYour next question comes from the line of Lauren Lieberman of Barclays.Lauren LiebermanI know that you very specifically talked about 2020 earnings growth coming back to kind of the high single-digit range. But in the long-term guidance, you did lower the long-term operating margin target to like 20 to 30 basis points, something more like 30 to 50. So can you just talk a little bit about what's driving that view of the long-term margin in the business? Is it a change in the what's passes from a gross margin perspective? It sounds like a lot of the productivity and restructuring that you're doing should be yielding a more efficient cost structure for the long term? So I was curious why there's sort of less operating leverage in the long-term model.Ramon LaguartaYes. Let me start and then Hugh can give you a few more details. If you think about the three things we're trying to do, which is become faster, stronger and better. We want to first, invest in the business and opportunities that we see ahead of us, and that's going to make us faster, and that's -- they're investments we put in the business last year. As Hugh said, we've optimized, we've seen the ROIs, and we're deploying again this year with some incremental investments. The second concept of being stronger goes to the question that you're posing here which is we're trying to look at adapting technology and data much more in our business, in the way we do business. That will drive a lot of savings that we'll be reinvesting in the new capabilities we've been talking about. We believe that will give us a competitive -- sustained competitive advantage over the long term. These are capabilities in the areas of basically consumer customer and supply chain agility. So yes, you will see a, I think, a virtuous cycle of additional savings, being both brought to the bottom line and what we think is a 0.2, 0.3 margin expansion every year, but very importantly, we want to make sure that the business gets the reinvestment required to become -- to stay as a very competitive business long-term.OperatorYour next question comes from the line of Ali Dibadj of Bernstein.Ali DibadjSo I have actually three questions and all under the umbrella of your philosophy, Ramon. One is that you mentioned you met with clients and consumers and employees. But it doesn't seem like you'd done a lot of meetings with shareholders in forming your observations and priorities. And just wanted to understand why. Clearly, the lot of folks on this call are your owners. Secondly, your philosophy on reinvestments, how does that apply to your philosophy on price/mix rationality, for a lack of a better term, i.e. kind of measured increases and pricing over the past few years, and beverages has taken that industry out of the penalty box for investors, so I'd love to hear your philosophy there. And lastly, your level of confidence that one year of reinvestments is enough to get back to your accelerated long-term growth algorithm 2020 and beyond.Ramon LaguartaThank you, Ali. Let me start from the last one, I think it's a core, the essence of what we're trying to do. As Hugh said, we started investing in '18 back in the business. I mean the tax reduction helped us there and we saw areas where we had very high ROIs, which some area where we didn't have so much high ROIs. So we, at the beginning of this year, we went through a what I think is a pretty rigorous process of filtering investments and saying, "okay, these are areas where we need to double down." And we're adding some more resources to those areas. And it's across, what I said, branding, selling capacity, manufacturing capacity, supply chain capacity and some of the new capabilities.But again, the essence of the model is not this one-year effort that we're trying to make with additional resources. The essence is how we're transforming the machine, the operating machine of PepsiCo with technology and data, and really looking very hard our cost structures to drive sustained savings that we'll reinvest in these new capabilities that we need for the future. That is really the essence of the model. But don't think of a one-year investment which would be a 2-year investment because '18, we already started investing. But think of this as an acceleration and then a very clear transformation of capabilities that will make the acceleration sustainable. And it's a virtuous cycle of adapting technologies, driving savings and reinvesting those savings into what we think are the things that will make us best-in-class in our industry, and it's doubling down on consumer intimacies, doubling down on innovation, doubling down in brand-building, it's multichannel go-to-market capabilities and then flexible supply chain. That's how we are -- how we see the long-term momentum.Hugh JohnstonAnd Ali, the follow-up on your question on price rationality, we do think there's price rationality in the market right now. And a part of our long-term algorithm is continued price rationality in the marketplace.Ramon LaguartaYes.OperatorYour next question comes from the line</t>
+  </si>
+  <si>
+    <t>Kraft Heinz Co (NASDAQ:KHC) Q4 2018 Earnings Conference Call February 21, 2019  5:30 PM ETCompany ParticipantsChristopher Jakubik - Head, Global IRBernardo Hees - CEODavid Knopf - EVP &amp; CFOPaulo Basilio - President, U.S. Commercial BusinessConference Call ParticipantsAndrew Lazar - Barclays BankBryan Spillane - Bank of America Merrill LynchKenneth Zaslow - BMO Capital MarketsDara Mohsenian - Morgan StanleyKenneth Goldman - JPMorgan Chase &amp; Co.David Driscoll - CitigroupJason English - Goldman Sachs GroupMichael Lavery - Piper Jaffray CompaniesRobert Moskow - Crédit SuisseChristopher Growe - Stifel, Nicolaus &amp; CompanyOperatorGood day. My name is Chelsea, and I will be your operator today. At this time, I would like to welcome everyone to The Kraft Heinz Company's Fourth Quarter 2018 Earnings Conference Call. I will now turn the call over to Chris Jakubik, Head of Global Investor Relations. Mr. Jakubik, you may begin.Christopher JakubikHello, everyone, and thanks for joining our business update. We'll start today's call with an overview of our fourth quarter and full year results as well as our view on the path forward from Bernardo Hees, our CEO; and David Knopf, our CFO. After that, Paulo Basilio, President of our U.S. zone, will join us for the Q&amp;A session.Please note that during our remarks today, we will make some forward-looking statements that are based on how we see things today. Actual results may differ materially due to risks and uncertainties, and these are discussed in our press release and our filings with the SEC. We will also discuss some non-GAAP financial measures during the call today. These non-GAAP measures should not be considered a replacement for and should be read together with GAAP results. You can find the GAAP to non-GAAP reconciliations within our earnings release and at the end of the slide presentation available on our website.Lastly, as you may have seen in today's press release, we conducted an internal investigation into our procurement area with the assistance of external legal and accounting advisers and found we should have recorded $25 million in prior periods, which we booked in Q4 2018. To be clear, we do not expect this to be material to our current period or any prior period financial statements.Now let's turn to Slide 2 and I will hand it over to Bernardo.Bernardo HeesThank you, Chris, and good afternoon, everyone. With the closing of one year and the start of a new one, I think it's best to begin our update today similar to how we do things internally, with a scorecard, to better understand where we delivered, where we did not and why. At this time last year, we set plans to drive profitable sales and consumption growth by investing in deployment of new capabilities and a strong pipeline of innovation and white space initiatives. And while we expected this to translate into near-term margin pressure in United States and Rest of the World segments, we anticipated stronger net savings to deliver constant currency EBITDA growth for the year. Overall, we successfully drove profitable sales and consumption growth accelerated, but we fell short in delivering the net savings we expect.From a commercial perspective, we firmly restarted organic growth. In United States, our second half performance came back to offset the self-inflicted losses from the first half of the year. We became one of the few within our industry posting real volume-driven growth, growing volume/mix nearly 4%.In Canada, similar to United States, we ended the year with positive consumption growth from improvements in coffee and cheese. Our EMEA business build momentum on the back of white space gains in condiments and encouraging share trends across our U.K. base. In Rest of the World, we are gaining traction in driving real growth with the startup of our new sauces plant in Brazil, and our Cerebos acquisition in Australia and New Zealand.In our Foodservice business, on a global basis, is approaching $4 billion in sales and gaining momentum from white space initiatives in all markets. And this leads to the second aspect of our scorecard, the significant progress we made developing and deploying strategically advanced capabilities. We had strong returns on investment in marketing, category management and e-store sales. We continue to expand in e-commerce and reach, driving 79% channel growth in United States alone, and a 1/10 market share index versus traditional retail. In this setup, springboard and Evolv Ventures as platforms to accelerate our innovation to consumers, to customers and find new ways to disrupt ourselves.So when you think about the sustainability of our growth, breakthrough innovation, strong in-store activity, distribution gain and white space expansion are all coming together. In fact, our consumption turnaround in United States has been driven by brand-building initiatives across the portfolio, not just a few categories. We are sustaining momentum in brands where we have been successful like Heinz, Philadelphia, Oscar Mayer bacon, Classico, Kraft and our frozen and snack categories at large, all growing mid-single digits in 2018. Turning around other key brands like Kraft Mac &amp; Cheese, Oscar Mayer hotdogs to name one to low single-digit growth after several years of decline. Stabilizing historically challenged brands like Kraft salad dressing, mayo and our kids single-serve beverage business after years of mid-single-digit declines. And building new brands into meaningful platforms for growth, like P3, which now $120 million platform; Devour, a $7 million brand in less than 3 years; and Just Crack an Egg at $50 million after only 12 months. While some of this was supported by incremental promotion and price investments to improve consumption and distribution trends, we saw strong LOIs and created a solid base of support and commercial momentum for 2019. Where we fell short in 2018 was operations. Specifically, our entire EBITDA miss was driven by net savings versus expectations within our United States supply chain. To be fair, we must first recognize that our team operate at industry-leading levels globally; in quality, with top-tier performance in the industry; in safety, with our best results ever; and in customer service, achieving industry-leading case through rates and all-time in full delivery rates as we saw volumes ramp up. The core cause of our shortfall in 2018 was forecasting the pace and magnitude of our savings curve in 2018, not merger-related synergies and not an increase in ZBB costs. In fact, ZBB delivered savings across all fixed-cost package outside of our commercial investments and helped to fund our initiative.To put our performance in context, we started 2018 expecting approximately 3% growth inflation, excluding key commodity costs, with savings programs expected to offset gross inflation. We ended the year with approximately 3% inflation, net of savings, specifically driven by higher supply chain costs and low operational savings in United States. There is no question we are disappointed that profitability did not ramp up with consumption gains as anticipated. We are overly optimistic on delivering savings that did not materialize by year-end. For that, we take full responsibility. And we have taken steps to ensure this does not happen again by touching planning process, procedures and organization structure.In the end, we see three takeaways from 2018: one, we are successfully driving sustainable consumption growth; two, we have the ability to deliver top-tier organic growth at industry-leading margins; and three, we need to better plan and execute our operational net savings initiatives.Before we outline the 2019 plans, David will provide more details on our 2018 financials.David KnopfThank you, Bernardo, and hello, everyone. As we show on Slide 3, while our overall performance fell short of our expectations, the year-on-year drivers are straightforward. Consumption-driven growth, negatively impacted by cost inflation, net of savings in the U.S., with tax savings offsetting lower EBITDA, higher depreciation and interest expense.From a trend perspective, there are a few important details to highlight. On the top line, consumption-driven growth momentum continued to build through Q4. For total Kraft Heinz, Q4 volume/mix growth was 4%, with growth in every reporting segment, driven by innovation, marketing, white space and go-to-market investments and led by improved consumption in a vast majority of U.S. categories. Total company Q4 pricing was down 160 basis points, including 80 basis points from key commodity pass-through in the U.S. Also note that the sequential decline in pricing versus Q3 was accentuated by a deceleration in contribution from price in our Rest of World segment.And regarding U.S. pricing trends, as Bernardo mentioned, we were happy with the returns and results on this front. To provide more context and adjust for program timing, it's useful to understand the key drivers of U.S. pricing from a second half perspective. U.S. pricing in the second half of 2018 was down 2.4 percentage points, with 1 point from passing through lower key commodity costs. So U.S. pricing, net of key commodity impacts, was down 1.4% in the second half. Out of this, 40 basis points of the decline was primarily related to defending our natural cheese business by closing price gaps to private label. The remaining 1 point was a combination of opportunistic price investments and support of our innovation pipeline to stimulate incremental consumption with good lift and solid returns. Looking forward and excluding the impact of key commodity pass-through, we do not expect pricing to be down in 2019, either in the U.S. or globally.Moving to EBITDA. We said on our last call that we expected our EBITDA growth rate to improve beginning in Q4. While this turned out directionally accurate, Q4 constant currency adjusted EBITDA was significantly below the expectations we previously outlined. As Bernardo mentioned, this was driven by shortfalls in the United States. To be more specific, while the one-off factors we outlined in Q3, by and large, fell away as expected, anticipated savings did not materialize, particularly in our procurement area and, to a lesser extent, we had higher-than-anticipated costs in both manufacturing and logistics.Taken together, top line trends and bottom line results lead us to the key factors we considered over the past few months in finalizing our 2019 plans outlined on Slide 4, and I'll hand it back to Bernardo to start it off.Bernardo HeesNow it's time for us to focus on the year ahead, what we see in front of us and how best to grow our business for the long term. Our industry has been and is likely to remain challenged on several front, continued fragmentation of consumer demand, a general lack of affordability to reinvest in brands, retail competition where assortment is likely to grow in importance and, finally, in the short term, ongoing cost inflation. Given our savings shortfall and the high inflation we're seeing, we could focus on maintaining or expanding margins but risk forfeiting commercial growth and market share. By slowing our pace of innovation and channel development, focusing on marketing efficiency versus incremental marketing presence and compromising talent development at a critical time, we have not and we will not.We are choosing to focus on improving our long-term growth trajectory and returns by: driving consumption and market share; leveraging next-generation capabilities for brand and category advantage; and importantly, securing the right talent in areas critical to growth. In fact, in light of the industry backdrop, we have concluded that there is no better time for Kraft Heinz to improve our growth profile. And looking forward, we have set 3 objectives for 2019: first, leverage our industry-leading margins to sustain our commercial momentum; second, more actively manage our portfolio; and third, strengthen our balance sheet as we continue to position Kraft Heinz for industry consolidation. I will cover our commercial growth initiatives, and David will outline our portfolio, capital restructure and financial expectations.By far, the biggest and the best thing you can do to build the long-term value of our portfolio is to capture sustainable commercial growth by building on the sales momentum from 2018. And we have the stronger global pipeline we ever had to go after incremental consumer demand. In the United States, we'll be launching a record level of innovation, improving base consumption, velocities and leveraging brands and go-to-market investments. In Canada, the priority is reignite consumption in peanut butter as well as sauces and condiments. In Europe and Rest of the World markets, whitespace initiatives will focus on driving incremental sauces consumption and opening new geographies. And in Foodservice, all regions have significant opportunities to gain distribution and whitespace.We will support these initiatives with fully funded brand programs, taking advantage of our superior media efficiency or cost per impression, and increasing our media effectiveness, our sales lift per impression by deploying new creative tools in digital marketing.In a nutshell, we plan to go to market in 2019 with a stronger innovation pipeline than we ever had, backed by more marketing dollars while leveraging advantaged, category managed and go-to-market initiatives to win assortment and improve distribution across all channels, including e-commerce. And we plan to do this while we maintain industry-leading margins.Now let me turn back to David as the remaining objectives are a big part of his 2019 goals.David KnopfI'll start with our financial expectations going forward on Slide 6. Regarding top line, we are now well positioned to continue organic net sales growth, driven by incremental consumption gains. This will reflect volume/mix growth from innovation, distribution and whitespace initiatives and pricing actions that balance cost inflation and our market share objectives.On pricing, note that we exited 2018 at strong levels of merchandising support and distribution. And price gaps are currently in a better place, so we do not expect pricing to be a drag year-on-year for 2019 as a whole. In fact, our U.S. business recently announced list price increases that are scheduled to take effect late in Q1.From an organic growth perspective, in the very near term, Q1 is likely to decline versus the prior year due to unfavorable trade timing and a shift in Easter-related shipments to Q2 this year from Q1 last year, trade timing in Canada, comparisons with a very strong winter soup season in the U.K. and destocking in Asia Pacific. For the year, we are targeting positive organic net sales growth, with commercial gains partially offset by price elasticity. And on a nominal basis, a combination of currency headwinds and divestitures is likely to result in a 3 to 4-percentage-point headwind to net sales.Regarding profitability, we fully expect to maintain industry-leading margins. At the same time, we think it's prudent to begin the year by properly level-setting expectations. To do so, as a one-off for 2019, we are breaking with our established guidance practices and setting a range for expected adjusted EBITDA of $6.3 billion to $6.5 billion for this year. This includes: commercial gains offset by stepped-up support of marketing, innovation, e-commerce and people; another year of low to mid-single-digit percentage non-key commodity inflation, net of cost savings; as well as foreign exchange rates and the 2 divestitures already announced.In addition, we currently expect to begin 2019 with a first quarter that is likely to see a high-teens decline in adjusted EBITDA in percentage terms. We will be up against our toughest EBITDA comparisons for the year, particularly in light of our expected net inflation curve, stepped-up commercial spending levels and with pricing not taking effect until late Q1.Finally, at the EPS line, while we continue to believe that we can deliver top-tier growth, it will take hold from 2020 onwards. This is because in addition to our EBITDA outlook, 2019 will see approximately $0.25 of nonoperating headwinds versus 2018. This will come from a combination of several factors: $80 million of incremental depreciation expense; a roughly $120 million reduction in the other income line, mainly due to rising interest rates, increasing pension interest costs and less favorable market returns on planned assets assumed versus 2018; approximately $40 million of additional interest expense and a full year effective tax rate between 20% and 22%.Taken together, top line, EBITDA and EPS drivers, while we expect to take a step backwards in 2019, we remain confident in delivering consistent profit growth from 2020 onwards, driven by fully leveraging our advantage brands, cost structures and capabilities.The rest of our plan is focused on how we can take additional steps to improve our portfolio's growth trajectory, strengthen our balance sheet and position ourselves against inorganic opportunities. It starts with the potential for more active portfolio management, specifically through divestitures as a way to further improve our growth and returns as well as accelerate our deleveraging. The recent transactions we have announced, Indian beverages and Canada Natural Cheese, provide a good template of precedent for additional actions to exit areas with no clear path to competitive advantage and sell assets with strong valuations with some earnings dilution. We have now dedicated more resources, adding experience with Carlos Piani fully focused on our portfolio management efforts. And as we're able to execute such actions, we will look to deleverage with the proceeds, which leads to our next objective, further strengthening our balance sheet.I think it's important to first recognize that we have the capacity to drive industry-leading cash generation along with industry-leading margins and expect to hold existing working capital and CapEx levels even as we drive the growth agenda we've outlined. In addition, given the industry backdrop and opportunities in front of us, we now see even greater strategic advantage in accelerating our deleveraging towards our ongoing 3x leverage target and strengthening the term structure of our debt. To do this, we're undertaking 2 specific actions: first, we intend to dedicate the divestiture proceeds from the sale of our India beverage and Canada Natural Cheese businesses to debt reduction. We also intend to do the same with proceeds from additional divestitures we are currently considering.Second, today, we're announcing a reduction in our quarterly dividend to $0.40 per share or $1.60 per year, down from a rate of $2.50 per year. This will not only provide us greater balance sheet flexibility, it will also establish a base dividend that we can grow consistent with EBITDA growth over time. And we are comfortable that this level of dividend can accommodate the 2 divestitures we have already announced as well as those we are currently considering. These initiatives will accelerate the strengthening of an already solid balance sheet with a fully funded pension plan and continue to position Kraft Heinz for industry consolidation. Now I'll turn it back to Bernardo to close.Bernardo HeesThank you, David. Before we take your questions, I think it's useful to put our progress to date, our plans and priorities as well as our expectations beyond 2019 into context. When we put Kraft Heinz together in mid-2015, our focus through 2017 was clarity on necessary product renovation and supply chain integration, taking out costs that drops no benefit to our consumers, establishing retool and routines, and testing and learning new tools to adapt to a rapidly changing environment.Beginning in 2018 and into 2019, we'll focus on leveraging our industry-leading margins to establish key growth pillars through innovation and whitespace expansion, accelerate the global deployment of advantage capabilities across all channels and geographies and now more actively managing our portfolio for better growth and returns. From 2020, we expect to see growth on both the top and bottom lines, as the full leverage of our advantage brands, cost structure and investments flows to the P&amp;L.So to summarize, we have continued to invest and focus on building our highly scalable operational model, to position ourselves for sustainable organic growth and returns and doing so at the time when the need for industry to modernize and consolidate is more evident than it was 5 or even 3 years ago.Now we will be happy to take your questions.Question-and-Answer SessionOperator[Operator Instructions]. And our first question will come from the line of Andrew Lazar with Barclays.Andrew LazarI guess, I'll kick it off with you mentioned, I think, David, that you thought that there was an opportunity for greater strategic advantage, I think, were the words you used for greater divestiture activity today than previously. I was hoping to get a little more clarity on what you mean by that. Is it a matter of just simply strengthening the balance sheet because you see more opportunities for more transformational deals now than you did before? Is it that valuation opportunities on those potential assets for sale are greater than maybe what you would have expected previously? I'm trying to get a better handle on that.Bernardo HeesAndrew, it's Bernardo, let me take this part of the question. I think we're seeing a large [indiscernible] in the industry. And we are going through commercially a good momentum, right, with acceleration in consumption, in share gains, in volumes, right? Also true that you're coming out of the integration, we know more about the categories and the competitive advantage of each one of our brands than ever before. So with that in mind, our decision here was to execute the strategy on deleveraging faster so we can better position the company for future consolidation, right? As usual, we reward more things than we're actually doing. But as we did in the second half of last year, we did divestiture of India Beverage and the Canadian Natural Cheese business. I think the good framework for the things we're looking today, and that's exactly the point you are right now.OperatorOur next question comes from the line of Bryan Spillane with Bank of America.Bryan SpillaneI guess, two questions, or two points, I guess, related to the, I guess, the build from -- through -- from the end of '18 through getting back to growth in 2020. One is just how much incremental investment is contemplated in your 2019 plan? So how much more are you spending in addition of -- in terms of what you stepped up in 2018? And then, second, the visibility in your business has not been very good. I think we've experienced that here in the second half. So I think it would be really helpful if you could provide a little bit more color in terms of sort of how you see a bridge to actually getting to some growth in 2020.David KnopfBryan, thanks for the question. This is David. So let me step back for a second and I can break down our 2019 outlook a bit more and get a sense for our EBITDA expectations year-over-year. So overall, we expect gains from consumption growth to be in line with the stepped-up spending behind our initiatives. So really, the main drivers for the expected EBITDA decline year-over-year are a few factors: first, the net inflation that we talked about that we expect to see again in 2019; the divestitures I talked about; FX; and to a lesser extent, variable compensation. So to be more specific, if you assume the midpoint of our range or a roughly $700 million decline year-over-year, let me elaborate on the four main drivers behind that.So first off, on the commercial side, again, we should be neutral on the bottom line as we expect the positive contribution from further consumption gains to be in line with the stepped-up investments as we accelerate the pace of our innovation, base business performance and channel development; second, beyond that, roughly half of the total EBITDA decline or roughly $300 million to $400 million is driven by continued inflation, net of cost savings, in the low to mid-single-digit range, consistent with what we saw in 2018. So this will be driven by another year of mid-single-digit growth -- low to mid-single-digit growth inflation, excluding key commodities. And given the recent experience, actions we've taken to replan the savings and pushing out the savings curve. Third, we expect the combination of foreign exchange headwinds and the divestitures we've already announced, that should drive another $250 million headwind to adjusted EBITDA versus 2018. And then, finally, we have an impact from variable compensation, which is another roughly $80 million year-over-year.So taken together, this will put us where we still have the highest margin in the industry, and we believe that is the right base to build from. So to elaborate more on why we're confident even with the miss in expectations that we saw in Q4 and the decline in EBITDA that we're seeing in 2019, let me elaborate a little bit on why we're so confident in 2020. First, on the top line, we should be very well positioned for solid organic growth globally, okay? We're already seeing real consumption-driven growth in the U.S. and globally today that we're able to create in the second half of 2018. And in 2019, we expect to further improve our consumption rate behind the largest innovation pipeline that we've ever had and more support on the core business. And we have a rapidly growing international business with significant exposure to emerging markets and whitespace opportunities to accelerate that growth globally. At EBITDA, in 2019, we are spending ahead to support an even larger innovation pipeline that I mentioned and accelerating channel development, particularly in e-commerce.So the right spending in commercial support levels, capabilities and marketing will have been established this year in 2019. And then, on the cost side, the extraordinary inflation that we're seeing in 2018 and that we're now seeing in 2019 from things like tariffs and transportation should mitigate over time as we're starting to see in the spot markets today. And we're also confident that we will be able to -- we'll be in a much stronger position to manage those costs through pricing and our savings curve going forward in 2020. And finally, at EPS, our nonoperating below-the-line cost that I talked about should be at run rate levels, so that we can leverage the organic growth into both EBITDA and EPS growth 2020 going forward.Bernardo HeesBryan, just to add to what David just said to the numbers, we're seeing a strong consumption-driven growth in our business today that we plan to accelerate. And the base we're assessing for 2019 get us to the right metrics and KPIs in all our key investments, marketing, innovation, supply chain, channels, digital. So with that base, we are very confident as we grow the business in 2019 and '20, that EPS and EBITDA grows together with that perspective.OperatorOur next question comes from the line of Ken Zaslow with BMO.Kenneth ZaslowI have one question. What are the key changes that will take place to change the planning and execution of the savings so we can become more -- so they can become more reliable and kind of put it into a better action? Are they going to be management changes? Is it going to be a change to the methodology? Oversight? Can you talk about that?David KnopfKen, thanks for the question, this is David. So again, let me step back for a second and kind of walk through our Q4 performance versus our original expectations to provide a little more context, and then I'll hand it over to Bernardo to provide a little more color on what we're doing differently to make sure this doesn't happen. On the Q3 call, we did expect Q4 EBITDA growth to improve sequentially, as I talked about, versus the 14% year-over-year decline we saw in Q3, okay? And that assumption was based off of the fact that we expect the transitory headwinds and one-offs in Q3 that would fall away, which would effectively bring our run rate growth to more of a high single-digit decline year-over-year. And then, on top of that, we expected savings to accelerate, leading to a significant sequential improvement from Q3 to Q4. Obviously, in the end, the transitory one-off factors did fall away as expected, but we had 3 negative impacts in the quarter that we didn't expect: first, we had roughly a 3.5 percentage point impact of unanticipated cost headwinds, which I can explain further; second, we didn't have the anticipated savings curve that we expected to materialize in the quarter to partially offset the inflation we're seeing; and then, finally, we did have an incremental FX drag of about 1.5 percentage points in Q4 versus Q3. So given all these factors, the year-on-year decline in Q4 is much closer than Q3, and we didn't see the sequential improvement. With that, I'll hand it over to Bernardo to answer your other question.Bernardo HeesKen, I think it's a very fair point, and even though we're disappointed with the miss, that's pretty much focused, like David said, in the supply chain operations in United States. We did took several actions to not allow this to happen again, right? Actions in the planning process, in organization structure and position ourselves to make sure our savings curve really match, right, the timing and the effectiveness for the year. So even though we understand the reasons of the miss, and we saw in the Q4, higher cost and more volumes coming through the pipe. And we could not offset to timing of our savings curve, we did took actions, process, planning and structure to not repeat that again.OperatorAnd our next question comes from the line of Dara Mohsenian with Morgan Stanley.Dara MohsenianFirst, just for clarification, can you provide a bit more detail on the circumstances behind the SEC subpoena on the procurement side? It sounds like it originated externally as opposed to finding something internally. So just curious for the circumstances there. And then, on the pricing front, you mentioned increases in the U.S. by the end of Q1. Can you give us a rough idea of what percentage of your business that represents? And given we've seen the price gap move up versus private label in a lot of your key product categories in the U.S. over the last few years, do you think there might need to be a broader reset of price gaps at some point, particularly with the market share momentum we're seeing at private label?David KnopfThis is David. Thanks for the question. So I'll answer the first part of your question and then hand it over to Paulo to U.S -- pricing in the U.S. So the company was notified by the SEC regarding an investigation into the company's procurement area. Following this, we conducted a very thorough internal investigation with the support of an independent law firm and accounting firm. And we determined that we should have recorded $25 million in prior periods, which we booked in Q4 2018. And to put into context, that compares to our overall procurement spend of over $11 billion, which excludes big 4 commodities spend. So this misstatement was not material to our current or prior year financial statements. And finally, we did implement several improvements to internal controls and took remedial measures to mitigate the likelihood that this happens again. So with that, I'll hand it over to Paulo to address pricing.Paulo BasilioThanks, Dave. Let me start from the -- answering the private label question and then we move to the 2019 pricing. Why we're seeing the private label expanding and it's doing so at a more -- we are seeing this happening at a more restrained pace, around 0.2 points of share in Q4. It was a material step down from previous quarters that we're seeing. And we are seeing the most pressure in areas where low commodities, excess capacity and retail competition come together, mostly now in some subsegments of our cheese portfolio. In natural cheese, we see also the retailers have used price matching to drive traffic, and being able to invest back, that was part of our price investment we've had in the second half to narrow the price gaps. And after that, we saw branded and private label share starting to stabilize. So again, we're always monitoring the value proposition of the market and continue to innovate and differentiate our brands and products on that matter. When you thi</t>
+  </si>
+  <si>
+    <t>Facebook, Inc. (NASDAQ:FB) Q4 2018 Earnings Conference Call January 30, 2019  5:00 PM ETCompany ParticipantsDeborah Crawford - VP, IRMark Zuckerberg - Founder, Chairman &amp; CEOSheryl Sandberg - COO &amp; DirectorDavid Wehner - CFOConference Call ParticipantsBrian Nowak - Morgan StanleyAnthony DiClemente - Evercore ISIEric Sheridan - UBS Investment BankDouglas Anmuth - JPMorgan Chase &amp; Co.Justin Post - Bank of America Merrill LynchZachary Schwartzman - RBC Capital MarketsLloyd Walmsley - Deutsche BankMark May - CitigroupRoss Sandler - Barclays BankColin Sebastian - Robert W. Baird &amp; Co.Richard Greenfield - BTIGJohn Blackledge - Cowen and CompanyOperatorGood afternoon. My name is Mike, and I will be your conference operator today. At this time, I would like to welcome everyone to the Facebook Fourth Quarter and Full Year 2018 Results Earnings Conference Call. [Operator Instructions]. This call will be recorded. Thank you very much.Ms. Deborah Crawford, Facebook's Vice President of Investor Relations, you may begin.Deborah CrawfordThank you. Good afternoon, and welcome to Facebook's Fourth Quarter 2018 Earnings Conference Call. Joining me today to discuss our results are Mark Zuckerberg, CEO; Sheryl Sandberg, COO; and Dave Wehner, CFO.Before we get started, I would like to take this opportunity to remind you that our remarks today will include forward-looking statements. Actual results may differ materially from those contemplated by these forward-looking statements. Factors that could cause these results to differ materially are set forth in today's press release and in our quarterly report on Form 10-Q filed with the SEC. Any forward-looking statements that we make on this call are based on assumptions as of today, and we undertake no obligation to update these statements as a result of new information or future events.During this call, we may present both GAAP and non-GAAP financial measures. A reconciliation of GAAP to non-GAAP measures is included in today's earnings press release. The press release and an accompanying investor presentation are available on our website at investor.fb.com.And now, I'd like to turn the call over to Mark.Mark ZuckerbergThanks, Deborah, and thank you, all, for joining us today. Our community continues to grow, and our business delivered good results this quarter. There are now 2.7 billion people using Facebook, Instagram, WhatsApp or Messenger each month and more than 2 billion people who use at least one of our services every day.On our last call, I talked about our overall strategy as we faced some important opportunities and challenges. And today, I want to give you an update and talk about our priorities for 2019. For the past couple of years, most of our focus and energy has gone into addressing some of the biggest social issues around the future of the Internet, including election integrity, content governance, safety and security, data privacy and digital well-being. And these are all complex issues but we've made real progress. In many of these areas, we believe we built the most advanced systems in the world and, in many cases, more advanced than any other company or government. And in other areas, we have clear road maps now for our work ahead.Still, there's a lot more to do, and I expect it will take strong execution through 2019 and beyond before we get all our systems to the level that we need. But we've fundamentally changed how we run this company. We've changed how we build services to focus more on preventing harm. We've invested billions of dollars in security, which has affected our profitability. We've taken steps that reduced engagement in WhatsApp to stop misinformation and reduced viral videos in Facebook by more than 50 million hours a day to improve well-being. We've made significant progress and we're going to continue this work, but we're also going to allocate more of our energy to building new and inspiring ways to help people connect and build community.Going into 2019, we're focused on four priorities: first, continue making progress on the major social issues facing the Internet and our company; second, build new experiences that meaningfully improve people's lives today and set the stage for even bigger improvements in the future; third, keep building our business by supporting the millions of businesses, mostly small businesses, that rely on our services to grow and create jobs; then fourth, communicate more transparently about what we're doing and the role our services play in the world. And I want to take a minute talk about each of these.So first, continue making progress on the major social issues. The most important work here is to keep executing our road map to build systems that can proactively identify harmful content so we can act on it sooner. We just finished a year of very heavy investment to get these systems to a better place, and we've seen the results of that in recent elections, including the U.S. midterms and in our transparency reports, where we report what percent of violating content we identified proactively. We ended 2018 with more than 30,000 people working on safety and security, up from 10,000 people a couple of years ago. And this work will never be finished, but I now believe we've built some of the most advanced systems in the world for dealing with these issues.Now however, this raises a broader set of values questions about how to use these systems. One question is about who decides what speech is acceptable and what isn't. Right now, we have a deliberative process of consulting with experts around the world. But I've increasingly come to believe that we shouldn't be making so many of these decisions about content ourselves. In November, I wrote a note about a blueprint for a system of content governance and enforcement, which includes giving people the ability to appeal our internal content decisions to an independent body, and we're currently working with experts to design the system and we plan to start piloting it this half.Another important issue is the future of privacy and encryption. People really value the privacy that encrypted messaging brings and we've built the most secure global messaging service in the world. As people increasingly share more privately, we're working on making more of our products end-to-end encrypted by default and making more of our products ephemeral so your information doesn't stick around forever. And I'll discuss this more over the coming quarters.Our second priority for 2019 is that as we make progress on these social issues, we also need to deliver new experiences that meaningfully improve people's lives. Now, I'm not talking about the many day-to-day iterative improvements we make so that ranking gets a bit better or that things get a little faster, but I'm talking about major improvements to people's lives that whole communities recognize and say, "Wow, we're all doing something new on Facebook or on WhatsApp that we weren't doing before." The last experience like this was Stories, which continues to grow very quickly. For example, Instagram just passed 500 million daily actives on Stories. But the reality is, we've put most of our energy into security over the past 18 months, so that building new experiences wasn't the priority over that period. So this year, I think we're going to deliver several of these new experiences.Messaging is an area that's growing the most quickly. And this year, people are going to feel these apps becoming the center of their social experience in more ways. We're going to roll out Payments on WhatsApp in some more countries. Private sharing in Groups and Stories will become more central to the experience. We're going to onboard millions of more businesses that people can interact with.In Facebook, the way people experience groups and communities will continue to deepen. We're going to get to a point soon where people feel like Facebook is about as communities as it - is about communities as much as it's about your friends and family where almost everyone is in a group that's meaningful to them and that community is a central part of their experience. On Facebook, I also expect this to be the year where Watch becomes more mainstream. There are now 400 million people who use it every month, and people, on average, spend over 20 minutes on Watch daily. This means we're finding ways for video to grow outside of News Feed so it doesn't displace the social interactions that people primarily come to our services for.In Instagram, one of the areas I'm most excited about this year is commerce and shopping. There's a lot of natural activity happening here. And this year, I expect us to deliver some qualitatively new experiences around that. Longer term, I remain very focused on building technology that brings people together in new ways, including through AR and VR. I'm looking forward to Oculus Quest shipping this spring. The feedback there so far has been very positive. And I've also been positively surprised that Portal has done better than I expected it to. I love using it with my own family. But we never shipped Facebook-branded hardware before and a lot of people said this would be a difficult time to start. So I'm pleased that so many people are enjoying this experience of being able to feel closer to the people they care about even when they're physically far apart.Our third priority is to continue strong execution on our business. In the past couple of years, a lot of our business challenges have been self-imposed. The reality is that we've had a number of substantive issues that we needed to address, and the investments we made in safety, security, privacy and well-being both increased our costs and, in some cases, reduced our revenues. But as I said at the time, I believe that these investments are the right thing to do and will make our community and our business stronger over the long term. And what we've seen is that the fundamentals of the business remain strong. More than 90 million small businesses now use our products, the vast majority of them for free. And of those we surveyed, half tell us that they've been able to grow their businesses and hire more people since joining Facebook. This means they're using our services to create millions of jobs, and this is one of the most important contributions that we feel we can make to the world. And to put this in perspective, the U.S. economy added about 2.6 million jobs last year.Our last priority is to get out there more and make the case for the role our services play in the world. Right now, there's a lot of negativity about the impact of technology, and some of it's fair and some of it's misplaced. And we, in the tech industry overall, should be scrutinized heavily because we play a role in many people's lives. My approach here is to listen to the critique first, to work on addressing our issues, figure out what we believe are the most important principles to uphold and then go engage in the debate. And I feel like we've come out of 2018 not only making real progress on important issues but having a clear sense of what we believe are the right ways to move forward. Now, we're still going to make mistakes along the way, but we now have a clearer sense of the path ahead and we're ready to work with people to understand our role and move towards good outcomes, whether that's regulation on content or data, cooperation on shared threats, working openly to make sure AI best serves people, or just standing up for the kind of open and connected world that we all want to see.The Internet is a massive force for change and we're at the center of a lot of the debate that brings, but our core value to people and society remains the same. We offer a service free to everyone to help you stay connected with the people you care about, express what you're thinking and feeling, get help when you need it most, support the causes and ideas you believe in, start and grow businesses no matter where you are, and that makes a lot of good possible and we're committed to building technology that people can use to create positive change.As always, thank you for being on this journey with us. And now, here is Sheryl to talk about our business.Sheryl SandbergThanks, Mark, and hi, everyone. We had a strong fourth quarter and a good end to the year. Q4 mobile ad revenue was $15.5 billion, increasing 36% year-over-year and contributing approximately 93% of our total ad revenue. Full year mobile ad revenue grew 45% compared to 2017. 2018 was a challenging and important year for us. As Mark said, we made significant investments in safety and security and strengthened our defenses against election interference. We gave people tools to better control their information and set a new standard for transparency and ads. We have focused on making progress in these important areas while continuing to grow our community and our business. This quarter proved that we can do both.We know we still have a lot of hard work ahead of us. We need to continue to do better at anticipating the risks that come from connecting so many people, and we need to earn back people's trust not with words alone but with actions. Part of building trust is helping people better understand our business model. Protecting people's privacy and showing them relevant ads are not at odds. We don't sell your data and we don't tell advertisers who you are. What we do is allow advertisers to reach people interested in their products. The result is that people see more relevant ads and small businesses can reach people in ways that only big companies previously could. This business model keeps Facebook free so people all around the world can use it and levels the playing field for businesses of all sizes while protecting people's privacy.I'm excited to announce today that we have more than 7 million active advertisers across our services. From local shops to global brands, companies all over the world are growing and hiring because they can reach their customers on our platform. The opportunities we create for businesses drive our growth, which continues to be broad-based across regions, marketer segments and verticals. During the holidays, companies used our ads to help people discover deals and find gifts. We saw particular strength among advertisers that optimized for measurable objectives, like conversions or sales. For example, Bryan Anthonys an online jewelry store based in Austin, Texas, used our campaign budget optimization to bring in new customers and sales on Black Friday. The campaign was so successful that they tripled their holiday purchases and hired additional people to help pack and ship orders for the busy season.We're also helping advertisers keep up with shifts in how people use technology. People are creating more Stories and sending more messages, which means these are emerging areas of opportunity for marketers. Today, we're also announcing that 2 million advertisers are using Stories to reach customers across our family of apps. We're making it easier for advertisers to adopt their campaigns for Stories. In Q4, we expanded automatic placements, which converts feed ads into a format that works for Stories and delivers ads wherever they'll get the best results. Framebridge, a start-up that provides custom picture framing, recently used automatic placements to run ads across Instagram Stories, Facebook and Instagram feed. They ran short videos to show that their frames make great holiday gifts, and Instagram Stories generated over 25% of their new customer sales.As people increasingly use messaging apps, we're helping small businesses make that shift, too. In Q4, we launched ads in Messenger Stories, which means advertisers can now easily buy Stories ads across Facebook, Instagram and Messenger. Beyond Stories and messaging, we have an opportunity to connect people and businesses on new services like Marketplace. We're seeing good early results at Marketplace ads. In Q4, we worked on making ads more relevant to the products that people are looking for. For example, if someone is browsing furniture in Marketplace, we'll try to show them an ad for furniture or a related item. We plan to keep working on this to provide a better experience for people and more value to advertisers over time.As we build new ad products, we remain focused on improving the overall quality of our ads. Across all of our platforms and formats, we're investing in AI to make ads more relevant and effective. In Q4, we developed new AI ranking models to help people see ads they're more likely to be interested in. We're also using AI to identify and more quickly review ads that might violate our policies, which was particularly important during the U.S. midterm elections. Looking ahead, we see more opportunities to use AI to keep people safe on Facebook and help businesses grow.I want to close by saying thank you to the businesses around the world who are using our tools to create jobs and growth. Last month, I went to Facebook's Community Boost in my hometown of Miami, which was the 50th stop on our tour across the U.S. in 2018, offering digital skills training to small businesses and job seekers. I met entrepreneurs like Alex Kassab. He started Morelia Gourmet Paletas with friends just two years ago. He says that 60% of his new customers learned about their ice cream from Facebook and Instagram. And because of this growth, they've expanded to 12 locations and hired more than 35 people. Last week, I was in Europe and met with SMEs from across the continent who shared similar stories of growing their companies, hiring people and investing in their communities. These stories motivate us to keep improving so more people can succeed on our platform.I also want to thank our global team for their commitment to tackling our issues and making our products better every single day. As we come out of a challenging year and continue to face challenges ahead, I believe we're in a position to build on the progress we've made and better serve our community in 2019. I am grateful to all of you for your continued hard work and dedication.Now, here's Dave.David WehnerThanks, Sheryl, and good afternoon, everyone. Q4 was a strong quarter wrapping up a good year for our business. Full year 2018 revenue grew 37% to $56 billion, and we generated over $15 billion of free cash flow. Let's begin with our community metrics. Daily active users on Facebook reached 1.52 billion, up 9% compared to 2017, led by growth in India, Indonesia and the Philippines. This number represents approximately 66% of the 2.32 billion monthly active users in Q4. MAUs grew 191 million or 9% compared to last year.Turning to our overall family metrics. Around 2.7 billion people worldwide used one of our applications in December, and on average, over 2 billion people were active daily. This is our best estimate of our de-duplicated audience across Facebook, Instagram, Messenger and WhatsApp. We believe these numbers better reflect the size of our community and the fact that many people are using more than one of our services. For the time being, we will continue to disclose both set of numbers. But over time, we expect family metrics will play the primary role in how we talk about our company and we will eventually phase out Facebook-only community metrics.Turning now to the financials. All comparisons are on a year-over-year basis unless otherwise noted. Q4 total revenue was $16.9 billion, up 30% or 33% on a constant currency basis. Had foreign exchange rates remained constant with Q4 '17, total revenue would have been approximately $348 million higher. Q4 total ad revenue was $16.6 billion, up 30% or 33% on a constant currency basis. In terms of regional ad revenue growth, Asia Pacific was strongest at 34%, followed by North America at 31% and Europe at 28%. Rest of World ad revenue grew 24% and was impacted by ongoing currency weakness and macroeconomic challenges. In Q4, the average price per ad decreased 2% and the number of ad impressions served on our services increased 34%. Impression growth was primarily driven by ads on Instagram, including both feed and Stories as well as Facebook mobile News Feed. The year-over-year decline in average price per ad reflects an ongoing mix shift towards product services and geographies that monetize at lower rates. Payments and other fees revenue was $274 million, up 42%. Sales of Oculus Go and the launch of Portal contributed to the revenue growth in the quarter.Turning now to expenses. Total expenses were $9.1 billion, up over $1 billion sequentially and up 62% compared to last year. In addition to continued investment in infrastructure, safety and security and innovation, expenses were also driven by seasonal factors, including marketing efforts, notably the promotion of Portal and Oculus Go. We ended the year with over 35,500 full-time employees, a 42% increase.Operating income was $7.8 billion, representing a 46% operating margin. Our Q4 tax rate was 14%. Net income was $6.9 billion or $2.38 per share. Full year capital expenditures for 2018 were $13.9 billion, driven by investments in data centers, servers, network infrastructure and office buildings. We generated $3.3 billion in free cash flow in Q4 and ended the year with approximately $41 billion in cash and investments.In Q4, we bought back approximately $3.5 billion of our Class A common stock and completed our prior repurchase authorization. In December, our Board of Directors authorized the repurchase of an additional $9 billion of stock.Turning now to the revenue outlook. In Q1, we expect our total revenue growth rate to decelerate by a mid-single-digit percentage on a constant currency basis compared to the Q4 rate. We also expect that our revenue growth rates will continue to decelerate sequentially throughout 2019 on a constant currency basis.Turning now to the expense outlook. On a full year basis, we continue to expect 2019 total expenses will grow approximately 40% to 50% compared to 2018. Our 2019 capital expenditure outlook is unchanged at $18 billion to $20 billion, driven primarily by our continued large investment in building data centers.Lastly, we expect that our 2019 tax rate will be a few percentage points higher than our 2018 rate. In conclusion, we are confident in our ability to continue to invest effectively in the key priorities that Mark outlined in his opening remarks: making progress on the major social issues facing the Internet, building new experiences that meaningfully improve people's lives, and growing our business by supporting the many businesses that rely on our services.With that, operator, let's open up the call for questions.Question-and-Answer SessionOperator[Operator Instructions]. Your first question comes from the line of Brian Nowak from Morgan Stanley.Brian NowakI have two, the first one for Dave. Last quarter, you talked about an expected sequential deceleration in 4Q rather, and I think it came in a little better than expected. Could you just talk to sort of which forms of media, whether it's News Feed or Stories or Instagram, kind of came in better than you thought it originally would a few months ago and what drove the upside? And then, Mark, you talked about the Instagram commerce opportunity. Maybe just talk us through sort of 1 or 2 of the key - what you think are the most important steps you have to cross throughout 2019 to really execute on this opportunity.David WehnerSure. Thanks, Brian. I'll take the first part of your question. Yes, Q4 was very strong on revenues, so we're pleased with that. On the demand front, we continued to benefit from advertisers targeting on business results. So direct response was especially strong during the holiday season. And then on the supply front, we benefited from strong Instagram growth, which was aided by both growth in impressions on Instagram feed and on Stories. But I'd reiterate that we expect that we will see a deceleration of revenue growth in Q1.Mark ZuckerbergI'd like to talk about - a bit about commerce. When I think about it, just from the consumer side, increasing commerce on Instagram, Facebook and WhatsApp, I think, is one of the most exciting product opportunities that we have in all of these products and a big business opportunity as well. The big things that I think we want to make sure that we nail, in Instagram especially, are discovery. People are already doing a lot of commerce activity and are really interested in following brands, and I think making sure that, that works is - and does well is a big deal. But I think there's also a very big opportunity in basically enabling the transactions and making it so that the buying experience is good and that when you buy from someone - from a seller that you know that you can trust them, that you're going to have a good experience and in facilitating and making that go well. The work that we're going to do in Instagram also will go across the efforts in Marketplace and Facebook, the work - the rest of work that we're doing in Facebook and all the work that we're going to be doing in WhatsApp as well. So this is a big area that I'm personally very excited about and focused on.OperatorYour next question comes from the line of Anthony DiClemente from Evercore.Anthony DiClementeMaybe, first, for Sheryl on Stories. Stories continues to grow very quickly. As you said, the number of advertising - advertisers using Stories are growing quickly. Can you give us a little bit more on the performance of the ads? Are you seeing improvements in conversion rates for those ads? Are the ads performance on Stories narrowing the gap with feed ads in terms of pricing or performance? And anything broadly on demand for those ad formats. And then one for Mark. I wonder if you could speak to the possibility of stitching together the messaging apps, WhatsApp, Instagram, Messenger. It would be great to hear what the rationale or potential commercial benefits might be to - or for potential integration of those properties.Sheryl SandbergI'll take the Stories question. One of the challenges that marketers have is keeping up where consumers are. If you think about our history, people made the shift to mobile before marketers did, and I think one of the successes we've had is we made it easier for advertisers to move into a mobile environment. And just as we did that in mobile, now we're very focused on doing that in the new things that people are doing, and Stories is a big part of that, Messaging will be further out, but as important as well. So I think the fact that we've already gotten 2 million advertisers to move into Stories is because we've gotten better at making it easier. We launched our automatic placements and expanded it, which converts feed ads into a format that works for Stories and delivers the ads wherever they'll get the best results. So our goal is to make it as easy as possible for marketers to get to the format of Stories and then deliver the ads where they're going to get the best experience and the best ROI. Now right now, one of the interesting things about Stories is there's a benefit to being an early adopter. So the pricing is really attractive. And so we think the mix shift to Stories is a big opportunity for us and it's going to take time to continue to get advertisers in, but we're very happy with demand to date.David WehnerI would just - before we turn to Mark, I'd just layer in on the Stories front. When we look into 2019, we do expect to see a deceleration of revenue growth throughout the year. And while we have opportunities to grow impressions on Facebook and Instagram, that's less so in feed, where we already have healthy ad loads in - on both surfaces and more in Stories where we have lower CPMs. So - whereas in 2018, we benefited from strong impressions growth on Instagram in both feed and Stories. We'll be more reliant on Stories impression growth in 2019. And from a pricing perspective, there's - we've got to improve our ability to grow the number of advertisers using Stories and improve price there, but it's going to be more reliant on that in terms of revenue growth.Mark ZuckerbergAll right. I can talk about messaging and the integration that we're thinking about, but first, we're really early in thinking through this. So there's a lot more that we need to figure out before we finalize the plans. And then, of course, this is going to be a long-term project that I think will probably be to whatever extent we end up doing it in - a 2020 thing or beyond. There are a few big reasons why I'm excited about this and think it'll be good for the user experience, which is the reason that we're doing it. I mean, part of the question was about a commercial benefit, but that really isn't the big focus here. The first reason that I'm excited about this is moving more to end-to-end encryption by default in more of our products. People really like this in WhatsApp. I think it's the direction that we should be going in with more things in the future. And I think if there's an opportunity to use the work that we've done with WhatsApp there, rather than doing it in different ways in the different messaging experiences, to have that really just - to have encryption work in a consistent way across the different things that we're doing. There are also a number of cases that we see where people tell us that they want to be able to message across the different services.So one example is a lot of people, hundreds of millions of people, are using Marketplace on Facebook now, and a lot of people are using that in countries where WhatsApp is the primary messaging app that they use. So we have these experiences today where we're building Marketplace and you go to message someone to buy something. And the link to basically do the messaging is over Messenger, but in that country, where people really want to be using it, is WhatsApp and we need to make it so that people can communicate across the different networks and graphs that they have or be able to do that integration better in order to facilitate more transactions and connections there. Another example is there are tens of millions of people, maybe more, but I'll go with that, who, on Android, use Messenger as not only their app for Facebook messaging but also for SMS, as their SMS client. And going back to the encryption point from before, we think that there's an opportunity to, when you're going to go message someone over a phone number network, have that primarily go over WhatsApp and be end-to-end encrypted rather than go over SMS where it's unencrypted and less secure. So I can give you a few more examples like that, but I guess the way that I'm thinking about this is that there's a handful of cases that people are telling us that they want to be able to integrate and communicate more easily across the networks. I think moving more towards end-to-end encryption and improving security there is the right direction to go in. There's a lot of questions there that we need to work through. So we're working through this in a deliberative way. And I wouldn't expect anything here to launch soon, but this is definitely something that we're thinking about and that I think will improve the user experience.OperatorYour next question comes from the line of Eric Sheridan from UBS.Eric SheridanTwo, if I could. One, Mark, on Facebook Watch, what do you think are some of the things you're still trying to solve for on either the content side or the consumer engagement side to drive broader adoption of Watch and turning it into sort of the mechanism for customers that you're trying to solve for over the medium to long term? I'd love to understand how you see the opportunity and the challenge that's just in front of the company. And second, there was a fair bit of noise in the advertising community about the macro environment at the end of 2018 and maybe at the beginning of 2019 with things like Brexit and the government shutdown in the U.S. Are you seeing anything on the macro front in your own business either exiting 2018 or should start in this year?David WehnerYes, I can...Mark ZuckerbergTake that first one and then I'll...David WehnerYes, I can start on the macro environment, Eric. Obviously, we delivered strong results in Q4. As we look out into 2019 further, that's - the macro economy is certainly a potential headwind and risk to the business just given the sensitivity of the advertising business to a slowdown in growth. Obviously, we believe we've got the best advertising products out there in terms of being able to deliver measurable business results to clients. And s</t>
+  </si>
+  <si>
+    <t>Microchip Technology, Inc. (NASDAQ:MCHP) Q4 2018 Earnings Call May  8, 2018  8:30 AM ETExecutivesSteve Sanghi - Microchip Technology, Inc.J. Eric Bjornholt - Microchip Technology, Inc.Ganesh Moorthy - Microchip Technology, Inc.AnalystsWilliam Stein - SunTrust Robinson Humphrey, Inc.Craig M. Hettenbach - Morgan Stanley &amp; Co. LLCMark Delaney - Goldman Sachs &amp; Co. LLCCraig A. Ellis - B. Riley FBR, Inc.Christopher Brett Danely - Citigroup Global Markets, Inc.Harsh V. Kumar - Piper Jaffray &amp; Co.Rajvindra S. Gill - Needham &amp; Co. LLCGilbert Alexandre - Darphil AssociatesKevin Edward Cassidy - Stifel, Nicolaus &amp; Co., Inc.Charles Kazarian - Credit Suisse Securities (NYSE:USA) LLCChristopher Rolland - Susquehanna Financial Group LLLPHarlan Sur - JPMorgan Securities LLCOperatorGood day, everyone, and welcome to this Microchip Technology fourth quarter and fiscal year 2018 financial results conference call. As a reminder, today's call is being recorded.At this time, I would like to turn the call over to Microchip's President (sic) [Chairman] and Chief Executive Officer, Mr. Steve Sanghi. Please go ahead, sir.Steve Sanghi - Microchip Technology, Inc.Thank you. I'd like to turn the call to Eric Bjornholt, Chief Financial Officer, first. Eric, go ahead.J. Eric Bjornholt - Microchip Technology, Inc.Okay. Good morning, everybody.During the course of this conference call, we will be making projections and other forward-looking statements regarding future events or the future financial performance of the company. We wish to caution you that such statements are predictions and that actual events or results may differ materially. We refer you to our press releases of today as well as our recent filings with the SEC that identify important risk factors that may impact Microchip's business and results of operations.In attendance with me today are Steve Sanghi, Microchip's Chairman and CEO, and Ganesh Moorthy, Microchip's President and COO. I will comment on our fourth quarter and full fiscal year 2018 financial performance, and Steve and Ganesh will then give their comments on the results, discuss the current business environment as well as our guidance, and make some specific comments on the pending acquisition of Microsemi. We will then be available to respond to specific investor and analyst questions.I want to remind you that we are including information in our press release and this conference call on various GAAP and non-GAAP measures. We have posted a full GAAP to non-GAAP reconciliation on the Investor Relations page of our website at www.microchip.com, which we believe you will find useful when comparing GAAP and non-GAAP results.I will now go through some of the operating results, including net sales, gross margin, and operating expenses. I will be referring to these results on a non-GAAP basis prior to the effects of our acquisition activities and share-based compensation.Non-GAAP net sales in the March quarter were just over $1 billion, above the high end of our guidance and up 0.8% sequentially from net sales of $994.2 million in the immediately preceding quarter. We have posted a summary of our revenue by product line and geography on our website for your reference.On a non-GAAP basis, gross margins were at the high end of our guidance at 61.7%, which is a new record level for Microchip. Non-GAAP operating expenses were 22.2% of sales, and non-GAAP operating income was a record 39.5%. Non-GAAP net income was a record $351.3 million, resulting in earnings per diluted share of $1.40, which was above the high end of our guidance of $1.37. Non-GAAP EPS in the March 2018 quarter was up 20.7% compared to the March quarter of 2017.For fiscal year 2018, on a non-GAAP basis, net sales were a record $3.981 billion and up 13.7% year over year. Gross margins were 61.1%. Operating expenses were 22.4% of sales, and operating income was 38.7% of sales. Net income was $1.356 billion, and non-GAAP EPS was $5.45 per diluted share.On a GAAP basis, gross margins in the March 2018 quarter, including share-based compensation and acquisition-related expenses, were 61.4%. GAAP gross margins include the impact of $3.3 million of share-based compensation. Total operating expenses were $371 million and include acquisition intangible amortization of $122.8 million, share-based compensation of $20 million, $5.2 million of acquisition-related and other costs, and special charges of $0.2 million.GAAP net income in the quarter was $146.7 million or $0.58 per diluted share, and was impacted by a couple of discrete events in the quarter. GAAP net income was impacted by a $15.5 million charge associated with marking our investments to market through the P&amp;L. These investments used to be held to maturity, but since the investments will be liquidated to fund the acquisition of Microsemi, the unrealized loss that would have been recorded in other comprehensive income in the absence of the anticipated acquisition was recognized in earnings. GAAP net income was also impacted by $38.9 million of discrete tax expense during the quarter, primarily associated with the Tax Cuts and Jobs Act.For fiscal year 2018, net sales were a record $3.98 billion. Gross margins were 60.8%. Operating expenses were 37.3% of sales, and operating income was 23.5% of sales. Net income of $255.4 million was $1.03 per diluted share.The non-GAAP tax rate was 8.4% in the March quarter. As we have continued to evaluate the impact of the Tax Cuts and Jobs Act, we are now expecting about $327 million of taxes to be paid over the eight years related to the tax incurred on foreign earnings that were permanently invested offshore, referred to as the transition tax. This estimate is up modestly from what we had discussed with investors last quarter. We estimate the tax payments to be approximately $26 million in years one through five, $49 million in year six, $65 million in year seven, and $82 million in year eight. We will continue to evaluate the impact of the Tax Cuts and Jobs Act, and these estimates may change as we complete our full analysis.As we look forward, excluding the transition tax from the Tax Cuts and Jobs Act, we expect our ongoing long-term cash tax rate to be between 8% and 9%, which is what we are providing to investors for cash flow and non-GAAP operating model forecasting purposes.Moving on to the balance sheet, our inventory balance at March 31, 2018 was $476.2 million. Microchip had 112 days of inventory at March 31, 2018, down three days from the end of the December quarter. Inventory at our distributors was at 36 days and up two days from the December quarter.The cash flow from operating activities was $359.6 million in the March quarter. As of March 31, the consolidated cash and total investment position was $2.197 billion, of which over $700 million is domestic cash. Due to the Tax Cuts and Jobs Act, the majority of our offshore cash can be brought back to the U.S. without incurring any material additional tax cost.Our EBITDA in the March 2018 quarter was a record $429.6 million. Our net leverage excluding our 2037 convertible debentures was 0.95 times at March 31, 2018, positioning us well for the Microsemi acquisition.Capital expenditures were $58.4 million in the March 2018 quarter and $206.8 million for fiscal year 2018. In April, we completed a purchase of a building in San Jose for $40.8 million, which we had previously leased. This purchase will reduce our ongoing operating expenses. Excluding this building purchase, we expect about $30 million to $50 million in capital spending in the June quarter. We expect capital expenditures for fiscal year 2019 to be between $200 million and $250 million, of which $70 million represents the San Jose building purchase and three other buildings being constructed, which we have discussed with you before.We are aggressively adding capital to support the growth of our production capabilities for our fast-growing new products and technologies and to bring in house more of the assembly and test operations that are currently outsourced. These capital investments will bring significant gross margin improvement to our business, particularly for the Atmel manufacturing activities that we are bringing into our own factories.Depreciation expense in the March quarter was $32.8 million.I will now ask Ganesh to give his comments on the performance of the business in the March quarter. Ganesh?Ganesh Moorthy - Microchip Technology, Inc.Thank you, Eric, and good morning, everyone.We performed better than we expected in the seasonally slower March quarter, with a sequential revenue growth of 0.8%. March quarter 2018 revenue over March quarter 2017 revenue grew 11%, all organic growth, as there was no contribution from acquisitions in the last four quarters.On a fiscal year basis, fiscal year 2018 revenue grew a strong 13.7% over fiscal year 2017. The Microchip 2.0 transformation continues to make good progress, especially in terms of new design opportunities, as we enable our clients' innovation with the very best smart, connected and secure solutions.Taking a closer look at microcontrollers, our Microcontroller business has performed well for a March quarter, with revenue down sequentially only 0.6% as compared to the December quarter. March quarter 2018 revenue was up a very strong 13.2% over March quarter 2017. On a fiscal year basis, fiscal year 2018 Microcontroller revenue at $2.6 billion was an all-time record and grew a strong 17.5% over fiscal year 2017. Microcontrollers represented 65.6% of Microchip's overall revenue in the March quarter.Last month, Gartner Dataquest released their microcontroller market share report for calendar 2017. We are pleased to report that Microchip retained the number one position for 8-bit microcontrollers. We were the fastest-growing 8-bit microcontroller franchise and gained substantial market share in calendar 2017, as we grew much faster than the 8-bit microcontroller market, so much so we are now approximately 60% larger than the number two 8-bit microcontroller player.In the 16-bit microcontroller market, we remained in the number five position but continued to gain significant market share, as we grew much faster than the 16-bit microcontroller market, and we're the fastest-growing franchise. In the 32-bit microcontroller market, we remained in the number six position but also gained significant market share, as we grew much faster than the 32-bit microcontroller market, and we're the fastest-growing franchise here too.For microcontrollers overall, we remained in the number three position. We're the fastest-growing franchise and grew at almost 2.5 times the microcontroller market, as we continued our relentless march towards the number one spot.Our microcontroller portfolio and roadmap has never been stronger, and we are seeing continued growth in our design-in funnel, which we expect will drive future growth as these designs progress into production over time. We believe we have the new product momentum and customer engagement to continue to gain even more share in 2018, as we further build the best performing microcontroller franchise in the industry.Now moving to our analog business, our analog revenue was sequentially up 4.7% in the March quarter as compared to the December quarter, setting a new record in the process. March quarter 2018 analog revenue grew 5.1% over March quarter 2017. On a fiscal year basis, fiscal year 2018 analog revenue at $952 million was an all-time record and grew 6% over fiscal year 2017. Analog represented 24.2% of Microchip's overall revenue in the March quarter.As we have highlighted in investor communications over the last few quarters, our publicly reported analog results will see some revenue classification headwinds resulting from a deliberate shift in strategy we made several quarters ago. The change in product line strategy is that we have for some time been adding microcontroller cores to several of our more complex analog products, especially those that provide our clients with smart connectivity solutions.The addition of microcontroller cores to these analog products enables us to sell a higher-value and more defensible total system solution. These smart connectivity products are growing nicely. And as they replace older products in new designs, our revenue classification for these products has shifted from analog product lines to our microcontroller product line.Transitioning to more sticky and higher-margin smart connectivity revenue is the right Microchip answer, but does impact some of the product line reporting that analysts are interested in, as some of the revenue growth shifts into our microcontroller product line. In the longer term, as the revenue from the analog attach design wins continue to ramp, we fully expect that the analog product line revenue will outgrow this revenue classification headwind.Moving next to our licensing business, this business was seasonally down 4% sequentially in the March quarter, although March quarter 2018 revenue grew 14.6% over March quarter 2017. On a fiscal year basis, fiscal year 2018 licensing business at $104.8 million was an all-time record and grew 14.9% over fiscal year 2017. We are seeing the fruits of having licensed many foundries and independent device makers for several years on multiple process technology nodes, manifested in our results as the licensed processes ramp volume and generate royalty revenue for many years to come.Finally, our memory business was sequentially up 3.8% in the March quarter as compared to the December quarter, and March quarter 2018 grew 9.9% over March quarter 2017. On a fiscal year basis, fiscal year 2018 memory revenue at $199.7 million grew 7.2% over fiscal year 2017.Now a quick update about Microsemi and our progress since our March 1 announcement, integration planning meetings and discussions are occurring between the business units, sales, manufacturing, and support groups of both companies. Teams at both companies started to identify product cross-selling opportunities that we can pursue after the close and have also identified reference designs that can take advantage of a combined total system approach.We're also determining how our product line reporting will be done post the close, and we'll have an update for you no later than the next earnings call. Steve will cover the status of regulatory and other approvals in his section.So now let me pass it to Steve for some comments about our business and our guidance going forward. Steve?Steve Sanghi - Microchip Technology, Inc.Thank you, Ganesh, and good morning for you, everyone. Today, I would like to first reflect on the results of the fiscal fourth quarter of 2018 and fiscal year 2018. I will then provide guidance for the fiscal first quarter of 2019.Our March quarter financial results were excellent. Our net sales were up 0.8% sequentially and up 11% from the year-ago quarter and were above the high end of our revised guidance. The sales in our Atmel-originated business was down, consistent with Atmel seasonality. Our core Microchip business was very strong and up significantly sequentially.Our non-GAAP gross margin of 61.7% of sales was a record and at the high end of our guidance. Operating profit of 39.5% of sales was better than the high end of our guidance and made a new all-time record. And earnings per share of $1.40 was $0.055 better than the midpoint of our revised guidance.Reflecting on the fiscal year 2018 results, it was clearly the best year in the history of Microchip, in which we made many new records. Fiscal year 2018 net sales were up 13.7% from fiscal year 2017, and it was all organic growth. I want to thank all the employees of Microchip worldwide for delivering an outstanding quarter and fiscal year 2018. On a non-GAAP basis, this was also our 110th consecutive profitable quarter.Now, I will provide you with an update on Microchip 2.0. We are continuing to experience an enormous customer preference to design with our microcontroller solutions in all 8-bit, 16-bit, and 32-bit customer applications. Our various acquisitions have now built a powerful diversified product line, through which we are able to provide total system solutions to our customers. We are winning incremental design wins with multiple products in the same boards of our customers.At our Analyst and Investor Day on March 1, 2018, we showed that the number of Microchip parts per customer system was growing at a 20% annual rate. With another quarter under our belt, the number of parts per system is continuing this trend of being up 20% over the same quarter a year ago. We have a robust design win funnel, and we feel very optimistic that Microchip 2.0 is working. We also recently received SIA [Semiconductor Industry Association] numbers for quarter ending March 31, 2018. Based on SIA numbers, our microcontroller market share grew in each of 8-bit, 16-bit, and 32-bit product lines in the March 2018 quarter versus the year-ago quarter.Our inventories at Microchip at the end of March 2018 were 112 days, which is just slightly below our target of 115 to 120 days. We continue to make enormous progress on the manufacturing side and bringing capacity online and decreasing lead times. In the last conference call, we stated our lead times to be between 4 to 14 weeks. Our lead times now are between 4 to 10 weeks. Normal lead times would be between 4 to 8 weeks.Our book-to-bill ratio for the March quarter was extremely healthy and around the number we had given you at the Analyst Day, and our backlog has grown even higher to another record. With healthy book-to-bill ratio continuing, now will be the time to start providing quarterly numbers for book-to-bill ratio, as we had said in the Analyst Day. We have always said that book-to-bill ratio is confusing and simply tracks the lead times. We have proven it again with book-to-bill ratio of 1.0 in the December quarter. The business remained healthy in March quarter. Providing book-to-bill ratio simply increases volatility in the stock. In the March quarter, we successfully soft-landed the business, consistent with the guidance we have been providing, and we will continue to grow in the June quarter.During the quarter ending June 30, 2018, we will adopt a new GAAP revenue recognition standard, which will result in recognition of revenue at the time products are sold to distributors, whereas currently revenue on such transactions are deferred until the product is sold by our distributors to an end customer. We are not able to provide guidance on a GAAP basis, as we are not able to predict whether inventory at our distributors will increase or decrease in relation to end-market demand, and this is not how we manage our business.As evidence of this uncertainty, in recent years we have seen net inventory at our distributors increase or decrease by a significant amount in a single quarter. Our non-GAAP revenue will be based on true end-market demand, so we will report a non-GAAP revenue which will be based on true end-market demand in which we measure the revenue based on when the product is sold by our distributors to an end customer, meaning we will continue to report a non-GAAP revenue based on sell-through.We will continue to manage our business and distributor relationships based on such sell-through revenue recognition. All of Microchip's bonus programs will continue to work based on sell-through revenue recognition. Therefore, along with GAAP results, which will be based on sell-in, we will also report our non-GAAP results based on sell-through revenue recognition.In terms of guidance, we will only provide guidance based on non-GAAP revenue, so we expect total non-GAAP net revenue for the June quarter to be up 1% to 6% sequentially, giving us a midpoint of the guidance at 3.5%. Given the amount of revenue beat in March quarter, this guidance is modestly better than the expectation we had provided during the Analyst Day.Regarding gross margin, we see a steady improvement in overall gross margin of the company based on Microchip 2.0 margin drivers. We expect gross margin for the June quarter to be between 61.6% and 62% of sales. We expect our overall operating expenses to be between 22% and 22.4% of sales. We expect operating profit percentage to be between 39.2% and 40% of sales. And we expect earnings per share to be between $1.39 and $1.49 per share. All these numbers do not include Microsemi.Now I wanted to make a couple of comments on the pending acquisition of Microsemi. On April 12, 2018, we received U.S. antitrust clearance. On April 19, 2018, China's MOFCOM accepted Microchip's filing for review under Simplified Procedure. We cannot confirm yesterday's report in the press that China's MOFCOM has cleared the transaction. We believe that the review process is running smoothly, and we remain optimistic that we will receive clearance shortly. In addition, yesterday, on May 7, we did receive Japan's antitrust clearance.We expect several other countries to clear the antitrust review this month. The Microsemi shareholder vote is scheduled for May 22, 2018, and we believe that we are on schedule for closing the acquisition sometime during early June 2018.I want to remind investors that during our Analyst and Investor Day presentations, we increased our long-term financial model with the Microsemi acquisition to a non-GAAP gross margin of 63%, operating expense of 22.5%, and an operating profit of 40.5%.As you all know, we will be borrowing about $8 billion to close the Microsemi transaction. I want to assure you that after the closure of Microsemi acquisition, we plan to use all of our cash generation, after dividend and capital, of course, to rapidly delever the balance sheet until the leverage comes down to about 2.5x, which is our long-term target.In addition, given all the complications of accounting for the acquisitions, including amortization of intangibles, restructuring charges, and inventory write-up on acquisitions, Microchip will continue to provide guidance and track its results on a non-GAAP basis. We believe that non-GAAP results provide more meaningful comparison to prior quarters, and we request that the analysts continue to report their non-GAAP estimate to First Call.With this, operator, will you please poll for questions?Question-and-Answer SessionOperatorThank you. We will take our first question from William Stein with SunTrust. Please go ahead.William Stein - SunTrust Robinson Humphrey, Inc.Great, thanks so much for taking my question. You highlighted earlier in your prepared remarks that you've added capacity, I think, as it related to the Atmel products to reduce the lead times there. I'm wondering if you can talk about your anticipation for lead times as we go forward. Do you expect that to get in the normal range in the current quarter?And I'd also like to know as it relates to your raw materials and lead time from foundries, whether you see that as already within the normal range or if it's extended. And if there's anything remarkable about that, I'd love to hear details. Thank you very much.Steve Sanghi - Microchip Technology, Inc.So thank you, Will. The normal lead times are 4 to 8 weeks usually on 85% – 90% of the products. That's what we call a normal lead time. There will always be some strange products or specialized projects that need extra work or extreme circumstances where the lead time would be longer. So for a majority of the products, 4 to 8 weeks lead time is normal. We are currently at 4 to 10 weeks, so we've got a little more progress to make. And as we have been saying for about a year or longer is that we expect the lead times to essentially become normal by the end of June, and we are really on schedule for that.The other part of your question was lead times at suppliers and foundries and all that. Scattered issues here and there, but in general, the foundry lead times are normal. We're able to get the capacity we need from our foundries. We're able to get the assembly/test equipment that we're acquiring. Again, the lead time could be 2 to 4 weeks longer to get some of the test equipment, but it also largely depends on what you're buying and what the mix of equipment is, what you're trying to buy, and what particular setup you need. But lead times are really not excessive either on foundry wafers or on assembly and test equipment.William Stein - SunTrust Robinson Humphrey, Inc.Helpful, thanks so much and congrats on the good results and outlook.Steve Sanghi - Microchip Technology, Inc.Thanks.OperatorOur next question comes from Craig Hettenbach with Morgan Stanley. Please go ahead.Craig M. Hettenbach - Morgan Stanley &amp; Co. LLCYes, thank you. Steve, any update on industry pricing, be it from some of the consolidation, some of the favorable impact there, also relative to just the tight conditions today and how that might be influencing pricing?Steve Sanghi - Microchip Technology, Inc.Type of what?Craig M. Hettenbach - Morgan Stanley &amp; Co. LLCThe pricing environment today, just if you can, talk about just how the consolidation in the industry is influencing that as well as just the tight industry conditions.Steve Sanghi - Microchip Technology, Inc.Okay, tight industry conditions. So the pricing is very normal. We've been saying for quite a while that the historic industry practice where the prices went down every year, we are really no longer following that trend. We have seen some others follow it. We are winning a lot more often at customers not giving them year-to-year price reduction. Five years ago, we'll succeed some of the times; today we succeed most of the time. So industry pricing for us really looks very normal.We did some price increases in the last two years. I think that's largely behind us. Now prices are stable but they're not going down. Meanwhile, we are continuing to improve cost on a lot of products by bringing assembly/test inside with the die shrinks and others. And in those cases, some of those are improving the gross margin as you're seeing it.Now in terms of tight industry conditions, they're obviously helping pricing. The consolidation is also helping prices, but where the industry conditions are tightest are really not on microcontroller, analog, and Wi-Fi and other products we make. Industry conditions are the tightest on passives. There could be 40 – 50 weeks lead time to really get capacitors and products like that, and I think that's where we are seeing price increases. We don't sell those devices. We don't compete with them, but we buy some of those devices for our development tool and all that. It's not a very high-cost component for us because development tool is a very small business, but we are seeing long lead times and tight supply especially on passives.Craig M. Hettenbach - Morgan Stanley &amp; Co. LLCGot it, thanks for sharing that. And then just a follow-up for Ganesh on the Microchip 2.0 cross-selling, and any additional milestones you can share with us on the progress you're making?Ganesh Moorthy - Microchip Technology, Inc.All our internal indicators look good. As Steve mentioned, attach is one of those things we are continuing to measure how that is growing quarter over quarter and year over year. It's a long-term process, but we're sowing lots of seeds and taking care of those seeds to make sure that they bloom, and we're very confident that it will continue to grow and provide growth for us as an incremental growth driver.Craig M. Hettenbach - Morgan Stanley &amp; Co. LLCGot it, thanks.OperatorOur next question comes from Mark Delaney with Goldman Sachs. Please go ahead.Mark Delaney - Goldman Sachs &amp; Co. LLCYes, good morning. Thanks for taking the question. I realize Microchip's own inventory came down and is a little bit below your target range. I was hoping you could extend that discussion a bit further and talk about where you think inventory is in the channel and any changes you expect distributors to be making with their inventory.Steve Sanghi - Microchip Technology, Inc.The inventory was a little lower than our expectation because sales were higher than our expectation. Our guidance at the midpoint was minus 1% sequentially. And based on that, inventory would be slightly higher and in the range of 115 days to 120 days. Instead, we reported sales which were up 0.8%, so 1.8% beat. Its net result was the inventory days were slightly lower.I think inventory is fine. Two, three days don't really make that kind of difference. We're comfortable with the inventory position. Inventory, there are always products which are showed and the product was a little high. So there's a continuous effort constantly to get the inventory in the perfect mix. And there's no such thing as perfect, but our inventory is in good shape.Mark Delaney - Goldman Sachs &amp; Co. LLCOkay, that's helpful. And there was a lot of discussion in the last earnings call and at the Analyst Day about what new seasonality for the company is. I was hoping you could help us better contextualize how you think about guidance for this coming quarter of up 1% to 6% sequentially. How does that compare to what that new seasonality may be? And are there any headwinds or tailwinds relative to normal seasonality that you're trying to factor into your guidance for this coming quarter?Steve Sanghi - Microchip Technology, Inc.So I think at the Analyst Day, we said June quarter was 5%, if you recall, sequentially, but we beat the March quarter by 1.8%. So when you put it all together, at the 3.5%, we're slightly better than that guidance. We did better in manufacturing last quarter in shipping some delinquency that originally we thought we were going to ship it in the June quarter, but we were able to do better and were able to ship some more in the March quarter, which resulted beating the March quarter, and then a little bit of the product went from June into March.We're facing a lot of one-time issues. There is a slight impact because of ZTE. We can't ship to ZTE. There are long lead times on passive that we talked about, so certain customers are telling us that they don't need our product because they cannot get passives to complete their boards and systems.China. That has been lowered from 17% to 16%. It doesn't sound much, sounds trivial, but a number of customers asked us to delay shipment from April into May because the lower VAT was effective on May 1. So that pushed some shipments from April into May, but that's kind of a wash for the quarter. But you never know whether they didn't do some production in April and whether there will be any net result for the quarter, hopefully not. The overall trade tensions, we're not seeing any impact of that, but if anything else crazy happens, then you have to account for that.None of those items I talked about really are significant. They're all 0.1% – 0.2% issues sequentially, but you add all four or five of them and it could be in a 0.5% to 1% probably impact driven by many of these factors together. I think what we guided June quarter is really seasonal, especially if March quarter was minus 1% and the June quarter would have been totally seasonal. So we don't have years of experience with Atmel and the numbers for that seasonality, but what we're guiding seems to be close to seasonal.The other point is this is all going to change again when the Microsemi deal closes in June. And all the rest of the quarters again, we don't have experience on seasonality. And then when we come to the next March and next June, we're going to have to go through same learning process again. And we barely finished the learning process on Atmel, so that is the challenge of growth through acquisitions.OperatorWe will take our next question...Steve Sanghi - Microchip Technology, Inc.Did that answer your question?Mark Delaney - Goldman Sachs &amp; Co. LLCThanks so much.OperatorAnd we'll take our next question from Craig Ellis with B. Riley FBR. Please go ahead.Craig A. Ellis - B. Riley FBR, Inc.Thank you for taking the question and congratulations on the nice execution. Steve, I wanted to start with two clarifications. One, if you could, provide any color for us on whether this round of approvals, especially through MOFCOM, is different than what you've seen in the past.And secondly, I thought I heard the statement that the company is expected to borrow about $8 billion related to the upcoming Microsemi transaction, but I thought on the initial announcement it was $8.6 billion. So has there been a modest reduction in the expected debt that's undertaken to complete that transaction?Steve Sanghi - Microchip Technology, Inc.So answering your second part of your question</t>
+  </si>
+  <si>
+    <t>Call Start: 08:30 January  1, 0000  9:18 AM ETSilicon Laboratories, Inc. (NASDAQ:SLAB)Q4 2018 Earnings Conference CallJanuary 30, 2018 8:30 AM ETCompany ParticipantsJalene Hoover - Director of Investor Relations and International FinanceTyson Tuttle - Chief Executive OfficerJohn Hollister - Chief Financial OfficerConference Call ParticipantsMatt Ramsay - CowenGary Mobley - BenchmarkCody Acree - Loop CapitalBlayne Curtis - BarclaysSuji Desilva - ROTH CapitalTore Svanberg - StifelAlessandra Vecchi - William BlairRajvindra Gill - Needham &amp; CompanyOperatorGood morning. My name is Anita, and I will be your conference operator today. At this time, I would like to welcome everyone to Silicon Labs' Fourth Quarter Fiscal 2018 Earnings Conference Call. [Operator Instructions] Please note this event is been recorded. I would now like to turn the conference over to Jalene Hoover, Director of Investor Relations and International Finance. Jalene, please go ahead.Jalene HooverThank you, Anita, and good morning, everyone. Tyson Tuttle, Chief Executive Officer, and John Hollister, Chief Financial Officer, are on today's call. We will discuss our financial performance and review our business activities [Audio Gap]. After our prepared comments, we will take questions.Our earnings press release and the accompanying financial tables are available in the Investor Relations section of our website at www.silabs.com. This call is also being webcast and a replay will be available for four weeks.Our comments today will include forward-looking statements subject to risks and uncertainties. We base these forward-looking statements on information available to us as of the date of this conference call and assume no obligation to update these statements in the future. We encourage you to review our SEC filings which identify important risk factors that could cause actual results to differ materially from those contained in any forward-looking statements.Additionally, during our call today, we will refer to certain non-GAAP financial information. A reconciliation of our GAAP to non-GAAP results is included in the company's earnings press release and also in the Investor Relations section of our -- Silicon Labs' website. I would now like to turn the call over to Silicon Labs' Chief Financial Officer, John Hollister.John HollisterThanks, Jalene. Revenue for the fourth quarter ended at approximately $216 million, $5 million less than the low end of our guidance, and down 6% sequentially. We saw a deceleration in revenue as we exited Q4 with broad market weakness primarily impacting IoT and Infrastructure. For the full year, we grew revenue by $100 million or 13% ending at $868 million with $63 million derived from our organic portfolio and $37 million from the addition of Z-Wave. IoT ended the quarter at $119 million, down 5% sequentially and up 9% Q4 year-on-year.Fourth quarter wireless revenue was roughly flat sequentially. Q4 MCU revenue was down due to a weakening macro environment. Revenue from infrastructure products was down ending at $46 million declining 13% sequentially and up 18% Q4 year-on-year. Isolation product sales declined more than we expected on industrial weakness, particularly in China. Timing revenue was down slightly.Fourth quarter Broadcast revenue was slightly better than we expected, ending at $35 million, down 3% both sequentially and year-on-year. Q4 automotive revenue was down, while consumer revenue was up sequentially. In 2018, we increased our global market share in flat-panel TVs to more than 80% with our industry-leading TV tuners. Access product sales declined for the quarter ending at $15 million, down about 7% sequentially and 8% Q4 year-on-year.Looking at fourth quarter revenue by end market, we saw broad sequential declines in the Industrial, Communications, and Automotive segments. The consumer end market was up for the quarter on strength in broadcast.Looking at full year 2018, we saw the greatest strength in the industrial end market, which grew over 20%. The communications and automotive end markets were also up for the year. Geographically, we saw the greatest weakness in the fourth quarter sequential revenue performance in the Americas led by declines in Wireless, Automotive, Isolation, and Access. APAC was down slightly with declines in broad-based MCUs and isolation products offset some by growth in Access. Europe was up slightly for the quarter on strength in wireless. Looking at full year 2018, we saw growth in all geographies, led by the Americas and followed by APAC.Distribution revenue was 69% of total Q4 revenue. For 2018, our 10 largest end customers accounted for 20% of our revenues and no customer represented more than 5%. Non-GAAP gross margin for the quarter ended slightly better than we expected at 60.6% on product mix. Q4 non-GAAP OpEx ended at $88 million, in line with expectations. Non-GAAP R&amp;D expense for the quarter was $49 million, up slightly on seasonal fringe and new products costs and non-GAAP SG&amp;A ended at $39 million, flat to Q3.Non-GAAP operating margin for the quarter ended at 19.6%. For the full year, non-GAAP operating margin improved 70 basis points over 2017, ending at 21.2%. Our non-GAAP effective tax rate was 6.4% for the quarter, driven primarily by lower taxes on our offshore earnings and a benefit from the annual U.S. R&amp;D tax credit.Non-GAAP EPS ended at $0.91 at the low end of our guidance range, primarily due to lower fourth quarter revenue. Non-GAAP earnings for the full year improved to $3.71, up 14% versus 2017. On a GAAP basis, our Q4 gross margins ended at 60.4%, GAAP operating expenses were $112 million in line with expectations with R&amp;D expenses at $63 million and SG&amp;A expenses at $49 million. Stock compensation expense was $13 million for the quarter with amortization of intangible assets ending at $11 million, both in line with expectations. We had a $2 million or 15.6 GAAP effective tax benefit in the fourth quarter and GAAP diluted earnings per share were $0.35. Full year 2018 GAAP earnings ended at $1.90.Turning now to the balance sheet. We ended the year with $620 million in cash and investments. Accounts receivable were down for the quarter ending at $73 million or 31 days sales outstanding. Our operations teams leveraged our scalable, fabulous manufacturing model, and effectively managed inventory which declined to $75 million or 4.6 turns, in line with our corporate objectives.Operating cash flow for the year was $174 million. We executed additional share repurchases in Q4, bringing the 2018 year-to-date total to $39 million. Heading into 2019, we have approximately $160 million of our share repurchase authorization remaining.I will now cover guidance for the first quarter. In light of macro uncertainty and volatility, we are broadening our guidance range and expect first quarter revenue to be between $183 million to $193 million. We expect our non-GAAP gross margin to be 60%. In response to the anticipated decline in first quarter revenue, we are slowing OpEx growth and expect Q1 non-GAAP operating expenses to be approximately $90 million.Our non-GAAP effective tax rate for the first quarter is expected to be 13% and we expect non-GAAP earnings per share to be in the range of $0.42 to $0.52. On a GAAP basis, we expect gross margin to be 60%. We expect GAAP operating expenses to be $114 million. In Q1, we expect GAAP effective tax rate of approximately 10% with a GAAP loss per share between $0.11 and $0.01.I will now turn the call over to Tyson.Tyson TuttleThank you, John. We are proud of our performance in 2018, which was a strong year for Silicon Labs in many dimensions. We completed the successful acquisition of Z-Wave and grew our revenue by $100 million. We strengthened our team with the addition of critical leadership sales, applications, customer support and software expertise. Silicon Labs' innovative culture attracts outstanding talent who are foundational to our success.In 2018, our opportunity pipeline achieved record growth, up more than 40% to $11 billion in lifetime revenue. We also achieved record design wins, which increased approximately 30% year-on-year, providing a strong tailwind for future growth and a validation of our strategy.Fourth quarter results were weaker than we expected and our first quarter outlook is down sharply with the broad-based slowdown in our bookings and revenue outlook. We attribute these shortfalls, primarily to the macro environment and not to share loss. Economic conditions are decelerating in major markets around the world, which is causing an acceleration of the semiconductor industry down cycle. In Q4, for example, we saw sequential declines in our MCU and isolation products, which are among our broadest product lines and most strongly correlated to overall economic conditions.China, in particular, is facing a difficult environment with the slowdown in overall GDP performance and factory activity combined with customers moving production to other geographies due to concerns over tariffs. We've also seen an accumulation of inventory at certain of our key end customers.As we entered 2019, we are closely monitoring the macro environment in managing headcount growth in discretionary expenditures to drive an OpEx level that is lower than we initially contemplated.Turning now to product updates. Infrastructure delivered a phenomenal 2018 with revenue growing by more than 30% and design wins lifetime revenue up approximately 50%.Isolation product revenue grew more than 40% annually and timing products grew 25% over the same period. Silicon Labs' digital isolation products continue to replace traditional optocouplers enabling higher performance, reliability, integration and best-in-class safety for designs requiring protection from high voltages.In 2018, we saw strengths across a broad range of applications, including power supplies, solar, industrial and automotive. We've established ourselves as a leading provider of digital isolation technology to the cloud, telecom and electric vehicle markets.Traditionally our timing products have targeted the core optical networking market. During 2018, we expanded and diversified our timing revenue into industrial, datacenter and wireless infrastructure markets, which combined now represents approximately 40% of overall timing revenue.IoT products grew 17% in 2018 to more than $460 million, including $37 million from our acquisition of Z-Wave in Q2. Wireless products now make up more than 60% of total IoT revenue and delivered nearly 30% year-on-year growth. We saw modest annual growth in our MCU and sensor products.Despite the late product ramps in 2018 with high volume lighting customers, the transition from SMETS1 to SMETS2 in the UK smart metering market and macro factors, we remain confident in our design win pipeline and market position. The full year 2018, we saw approximately 50% growth in our IoT opportunity funnel to $8 billion, and nearly 30% growth in IoT design win lifetime revenue.We continue to strengthen our portfolio, driving capabilities and differentiation, while advancing security and growing ecosystem partnerships. Our connectivity portfolio is gaining significant traction as we target low power wireless end nodes with a broad range of protocols and optimal combinations for target market segments in smart home, industrial, metering, commercial, consumer and lighting.In Q4, we launched the next-generation Z-Wave 700 on our Wireless Gecko platform, delivering on our vision and platform integration roadmap and enhancing our product offering to the Z-Wave ecosystem. Our new smart home platform builds on Z-Wave's industry leading S2 security and interoperability, improving batter life and adding higher performance in longer-range RF capabilities.IDC estimates, the worldwide smart home market will grow at an approximate 20% compound annual growth rate from 2017 to 2022 as the market balloons to 1.3 billion devices shipped annually with much of that adoption in growth driven by sensors enabling AI and edge computing applications. Advances in wireless technologies such as Z-Wave 700 are driving the battery power sensitive trend and making these devices easier to install and deploy. Silicon Labs is well-positioned to consolidate the smart home experience and drive the IoT adoption in this market.Earlier this week we announced the release of new Bluetooth 5.1 software for our Wireless Gecko platform further expanding the capabilities of our portfolio. Silicon Labs' new solution will be beyond points of two point connectivity to include advanced angle of arrival and angle of departure technology for more precise indoor positioning and location services used in a wide range of applications, including factory automation, retail and smart cities.During the quarter we announced the expansion of our groundbreaking Wi-Fi portfolio featuring modules and transceivers designed specifically for the IoT. We offer the lowest power Wi-Fi devices on the planet enabling IoT end node designs that work possible until now. Developers can create products with best-in-class power efficiency, superior interference rejection, wireless coexistence and advanced security. The portfolio cuts power consumption in half compared to competitive offerings providing an ideal Wi-Fi solution for power sensitive connected products, including battery-operated IP security cameras, point-of-sale standards, asset trackers and personal medical devices. Earlier this month at CES in Las Vegas we saw growing momentum in the IoT and a lot of customer excited about our solutions. At CES, we announced that Xiaomi, a leading IoT ecosystem provider in China, launched new smart lighting products based on Silicon Labs' Wireless Gecko SoCs and Bluetooth mesh software. We are seeing increasing deployment of Bluetooth mesh in China's fast-growing smart home market. And Xiaomi is poised to ship mesh-enabled smart home products at scale, driving further adoption of this versatile ubiquitous wireless technology.Also at CES, Tuya, a leading AI and IoT platform provider in China, announced they are using Silicon Labs' Wireless Gecko platform, including SoCs, ZigBee and Bluetooth software to enable their smart multiprotocol products to easily connect to multi-node mesh networks deployed in smart homes. Tuya's production-ready smart solutions address the real world needs of IoT manufacturers, supply chains, e-commerce channels and retailers worldwide, and we are playing a role in their success.I'm delighted to announce Christy Wyatt's appointment to our Board of Directors. As a thought leader in the cyber security industry Christy brings extensive experience developing and scaling technology companies. She is currently CEO of Absolute Software Corporation, which specializes in self-healing endpoint security technology. With more than two decades of leadership experience, including Citigroup, Motorola Mobility, Apple and Palm, Christy's skills and expertise will be invaluable to Silicon Labs as we chart our course into the future.In 2018, we capped off an outstanding year by winning for the fourth year in a row the Global Semiconductor Alliance's Most Respected Public Semiconductor Company award. It's a great honor to be chosen by our industry peers based on best products, vision and future opportunities. Despite current volatility, we remain confident about our longer-term ability to outperform the market. We are focused on executing on our product roadmaps and converting a large pipeline of opportunities into additional wins and share gains. The technologies we are developing are enabling our customers to transform industries and improve life, and together we are creating a smarter, more connected world.Thank you for your time and attention. Before we take your questions, I would like to turn the call back to Jalene.Jalene HooverThank you, Tyson. We would now like to open the call up for your questions. To accommodate as many people as possible before the market opens, we ask that you please limit your questions to one with one follow-up. Anita?Question-and-Answer SessionOperatorThank you. We will now begin the question-and-answer session. [Operator Instructions] The first question today comes from Matt Ramsay with Cowen.Matt RamsayTyson, obviously -- the soft and bit cloudy macro environment, but maybe you could give us a little more color in terms of end market weakness into the first quarter, if there is any differentiation across the end markets in the IoT business? And then, second, to what extent do you feel like the outlook you given for the first quarter is reflecting just, maybe inventory been taking down at some of the channel partners and distributors [ph] versus the organic sort of slower growth that we're seeing in end markets? Any context there will be helpful. Thank you.Tyson TuttleYes, so, let me take the first part, and I'll let John talk about the second part. In terms of end market weakness, if we talk about IoT, we've had continuing weakness in the UK smart metering market, which we expect to recover in 2019. And we also have had some weakness in the lighting market, which has continued in some excess inventory there. But again, we believe that that will be ramping as we move throughout the year. So those two did contribute to the Q4 results and continued into Q1 or continuing into Q1. If you look at really the MCU business and our Isolation business are both very broad in terms of the applications and customer base. And both of those were impacted by the macro and just down overall, and particularly in China. And so I think that we've seen a number of the customer push-outs and inventory situations in the China market in particular. And so that was -- that's a factor as we exited Q4 and into Q1. So it's really the broad product lines have the most significant impact on the numbers and overall. In timing, it was okay and in wireless, continued to see some ramp, but overall, the general direction was down as we exited Q4.John HollisterMatt, this is John. I just like to add on that on the inventory side we do think there is a takedown of end customer inventory and process, and we also see that distributors were aggressively managing inventory as we rounded out the fourth quarter heading into the first quarter. That should bode well for a recovery as the days in inventory and distribution are not excessive, but it did impact our final Q4 results last year.Matt RamsayJust to follow on to that last comment John, maybe, I know, it’s a tough environment to look out too far. We’re just trying to get our heads around here on questions I’m getting around the full year for the IoT business. You guys give longer term targets and that target has been 20% growth for a while. And obviously, we're starting off a rough spot for the year. So any thoughts about annualized growth for 2019 would be helpful realizing that's a tough ask in this state, but appreciate it. Thank you.John HollisterThe commentary there is we do expect a rebound in the second quarter that’s based on strong design win performance last year combined with inputs from our customers and distribution partners as well as healthier bookings rates for last couple of weeks certainly versus what we saw in the month prior. So rebound in Q2 followed by onward growth in the second half is our expectation right now, and of course we will be able to provide better indications of that as the year progresses here.OperatorThe next question comes from Gary Mobley with Benchmark. Please go ahead.Gary MobleyGiven that we're starting the year out in a bit of a whole with respect to top line, even if we see better than seasonal trends as the year unfolds, it's going to be tough to grow revenue in 2019. And as well, just given where operating margin is expected to start in the first quarter, it’s going to be a pretty tough comp on the operating margin in 2019. So the question is how long are you willing to go before becoming more proactive and rightsizing the OpEx to deliver some stabilization there, if not improvement.John HollisterYes, Gary, this is John. I mean, first of, I think, your observations there are sound. But we think the thing to do is to be diligent and cautious in our spending, but not overreact. And we do see very strong design win momentum in the business. We have a leading position in strong secular growth markets, and feel it's very important to maintain that position. We will see how the year unfolds and we will remain diligent in that. But I think, right now, we’ve taken steps to control the OpEx here in first quarter and we'll continue to monitor this as the year progresses.Gary MobleyOkay. As a follow up, I just have a housekeeping question. John, what would you expect your full year 2019 non-GAAP tax rate to approximate?John Hollister13% is the best view I can give you at the moment, Gary.OperatorThe next question comes from Cody Acree with Loop Capital. Please go ahead.Cody AcreeSo Maxim last night said that they were starting to see some improved order trends for bookings over the last few weeks broadly. It did sound like your comments just in the last question or two were somewhat similar. Are you starting to see any improvement [indiscernible]?John HollisterCody this is John. The answer is yes. We have seen better performance there in the last few weeks over the month prior. Yes, we have.Cody Acree Can you maybe give us any visibility as to the end markets that you are starting to see that in ?John HollisterIt's fairly consistent. And I just want to add on to some of the commentary Tyson was talking about moments ago. We also have seen a relatively weak automotive market in the second half of 2018 and heading into the beginning of this year. We’re seeing that beginning to improve a bit, but it’s improvements in the bookings has been fairly broad-based.Cody AcreeAnd I guess lastly then just for your weakness in China, where are you specifically seeing that? And are you starting to see any trends change in China?John HollisterLittle too early to call it there specifically, but just adding on to what types of MCU and Isolation were particularly weak in China as we rounded out the year.OperatorThe next question comes from Blayne Curtis with Barclays. Please go ahead.Blayne CurtisMaybe turn around as you look at this year, it's probably difficult to give full year guidance. So maybe you can highlight in certain products or areas that you actually expect to see some transactional growth versus, obviously, the macro slowdown.John HollisterYes. So I think the best indication of the growth potential in the business is in the pipeline and in the design win traction. So we have 50% growth of our infrastructure design win pipeline. And in IoT, we had about 30% year-on-year growth in the design win pipeline. And so that is not in the pipeline but in the design wins themselves. And that translates into revenue and would be anticipated to ramp as we move through 2018 or 2019. So you look at the number of customers, you see us a fantastic tons of opportunities, multiple programs, multiple large customers. The question is just how quickly will that turn into revenue and how the macro impacts. We’re going into Chinese New Year, we got a Trade War. We've got debt concerns and other things. But at the same time, we're quite bullish in terms of our product portfolio, the areas that we’re in terms of IoT and smart home and lighting and commercial. And lots of things around IoT are doing well. The trend towards all the data out in the market going into data centers and high speed communications and wireless and our expansion into those areas and timing. And then in Isolation, the trend toward electrification, electric vehicles and all of the power devices that go out into the market, solar, motor controls, power supply. So we're well positioned in terms of the portfolio, well positioned competitively and well positioned in terms of the design win traction that we have. But that’s really not immune to macro. And we'll see how we come out of the first quarter. Right now things are looking like they are picking up a bit, but it's still a little bit really and we need to get through Q1 and see how the rest of year is going to turn out.Blayne CurtisAnd then I just wanted to ask you the one area that seems to be good is 5G infrastructure. I know your timing has been more wired focus. You did mention some early ramps in wireless. Can you just give us a picture as to when you see that being more material for you?John HollisterWe have design wins in some of the early 5G. We’re calling it 4.5G base stations that are going to start -- ramping this year. And then certainly 5G, as we look a little bit further out. So we got strong road map and strong engagements on the wireless side with our timing products. There is also little bit on the isolation products within the power supplies for all of those types of devices. So just overall having 40% of the timing revenue now outside the core optical networking market really shows. And we've been talking about this for a long time. But a lot of these are very high quality long-term wins that take a while the ramp. But seeing industry data center and wireless all ramping on timing bodes well for the portfolio.OperatorThe next question comes from Suji Desilva with ROTH Capital. Please go ahead.Suji DesilvaMaybe you guys kind of step back, Tyson, to describe this downturn you're seeing industrial or broadly. How it compares to past cycles? If you give us some color there that might be helpful that kind of came on very quickly. So the context will be appreciated.Tyson TuttleYes. I mean, it's been nearly a decade since we have had any sort of a macro correction. The question is, is this one going to be short-lived with a quick rebound or is it going to be more protracted? And I think that really depends a little bit on how the U.S.-China relationship turns out in terms of -- while with GTE in terms of the tariffs. We're certainly seeing a bit more churn in terms of moving production from one location to another and inventory and lots of movements there, which is caused pause in lot of the ordering patterns. So I would say that the geopolitical factors and the trade factors are much more turbulent now than they were before. This is being caused by different set of factors out in the macro economy. It's not housing bubble. You've also got U.S. consumer confidence remains strong. And we finally have a -- let up on that, at least a pod on the government shutdown. And hopefully that -- we can sell through that. So if we can keep the consumer confidence up and we see a more normal return to growth, I think, then we can start seeing the results of the design win. So hopefully this is a little bit shorter term than what we saw back in 2008. But we really have to get through the year to see how it's all going to turn out.Suji DesilvaThat’s helpful, Tyson. And then one quick follow-up on the Wi-Fi part of the business, which is newer. Can you just talk about your expectations for how much -- how quickly that ramps and grow? Does that remain a kind of a niche effort relative to your Bluetooth and ZigBee connectivity? And what’s your prospects -- what are the prospects of that business?Tyson TuttleWe’re excited about our Wi-Fi portfolio. We've been out -- sampling this to a lot of customers for about a year. It creates the lowest power Wi-Fi solution. And we have a lot of customers that are using multiple protocols that are using Wi-Fi and Bluetooth, Wi-Fi and ZigBee in different configurations. And as we integrate these solutions together and are able to offer that further strengthens both the Wi-Fi portfolio, but certainly our position in the rest of the portfolio as well. So we see that product ramping modestly this year. And it's a very important standard. There were a lot of Wi-Fi devices out in SCS. And we will see how the market uptake on a number of these things that were designed into. But it's an exciting new expansion of our stand. And I think reflects our long-term commitment to be the leading provider of IoT wireless technology.OperatorThe next question comes from Tore Svanberg with Stifel. Please go ahead.Tore SvanbergFirst question, Tyson you talked before about how security is becoming a very important part of your IoT offering and front and back security on a lot of your newer products. Could you talk a little bit about what that means for you when it comes to compound or maybe growth reaccelerating in IoT?Tyson TuttleSecurity is an absolutely important technology and set of capabilities for the IoT. And I think to the extent that we can make security bullet proof and easy to use, it will accelerate the market for these devices. If you look at our first-gen devices, we have a strong offering of security technology and the ability to drive very low power encryption and advanced algorithms and that’s integrated within our FDK. As we move out to our second generation platform, we’re integrating additional secure element functionality into the devices. Think of it is payment level security, where you can store keys, and you have very advanced hardware. So you can’t tamper -- anti-tamper, and you can’t hack into these devices even more than you would have in the first gen. So it's something that we’re investing in. It also opens up some additional opportunities to add key management. And you can individually address devices and push software updates at a very, very secure manner. And that opens up some potential new capabilities for our customers, but also capabilities for us to potentially monetize that as we move out in time. But the security is absolutely essential to the deployment and security of all these IoT devices and making people confidence that it's bulletproof is, I think really essential. So it’s a huge amount of investment and attention that we’re putting onto the portfolio around the security. And we think that can be a significant differentiator for us.Tore SvanbergThat’s helpful. And my follow-up for John. John you're talking about being prudent on OpEx. Yet it's guided to be up sequentially. I believe it's about 48% of revenue. Will you take further actions here to try and get the OpEx down somewhat?John HollisterYes, Tore, we -- there is a seasonal aspects to the increase in the first quarter. You have a multibillion dollar increase just naturally given the seasonal French reset that we go through every year. So putting that aside, we are managing the OpEx cautiously, and we will continue to monitor this as we go forward. And we look forward for a recovery in the business really as the key and X-factor to monitor here.OperatorThe next question comes from Alessandra Vecchi with William Blair. Please go ahead.Alessandra VecchiJust as a clarification, what you said your wireless revenue is roughly flat sequentially. Was that on organic basis or was that including Z-Wave?John HollisterThat was including Z-Wave.Alessandra VecchiOkay. And then additionally as you pointed out your broadcast business came in better than expected and quite better than I had modeled. How should we think about that going forward into next year? I know your strategic goal has been down 10% annually. But do you think this sort of the strength on the consumer side can hold up a little bit longer than expected?John HollisterYes, if you look at broadcast overall for the year, while Q4 was relatively flat, it was down about 8% year-on-year. And we have a target of 10% down. And so we actually held share a little bit more. We added 80% design market share in the flat penalties with our tenders. And we see that model of 10% down both for Access and Broadcast is being consistent for the long-term performance of those. So we outperformed that in both for Access and Broadcast this last year and maintained share. And feel good about our competitive position in those markets.Operator[Operator Instructions] The next question comes from Rajvindra Gill with Needham &amp; Company. Please go ahead.Rajvindra Gill… Z-Wave and organic.John HollisterRajvi, its John. We didn’t catch you at the beginning. Please begin your question from the top.Rajvindra GillI apologize if this question was asked. I joined a bit late, but the IoT kind of breakdown between organic versus Z-Wave. If you look at your 10-Q in September, you did about $20.5 million of Z-Wave since March. So that equated to about $13 million of revenue from Z-Wave in September. So if we assume kind of a similar type of rate in Q4, the organic IoT business is going to be down about 3% year-over-year in Q4 and maybe down again on</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JPMorgan Chase &amp; Co. (NYSE:JPM)  Q4 2018 Results Conference Call January 15, 2019  8:30 AM ETCompany ParticipantsJamie Dimon - Chairman and CEOMarianne Lake - Chief Financial OfficerConference Call ParticipantsErika Najarian - Bank of AmericaJim Mitchell - Buckingham ResearchJohn McDonald - BernsteinAl Alevizakos - HSBCMike Mayo - Wells Fargo SecuritiesGlenn Schorr - Evercore ISIAndrew Lim - Société GénéraleMatt O'Connor - Deutsche BankSaul Martinez - UBSBetsy Graseck - Morgan StanleyBrian Kleinhanzl - KBWSteven Chubak - Wolfe ResearchMarty Mosby - Vining SparksGerard Cassidy - RBCKen Usdin - JefferiesOperatorGood morning, ladies and gentlemen. Welcome to JPMorgan Chase’s Fourth Quarter and Full Year 2018 Earnings Call. This call is being recorded. Your line will be muted for the duration of the call. We will now go live to the presentation. Please stand by. At this time, I would like to turn the call over to JPMorgan Chase’s Chairman and CEO, Jamie Dimon; and Chief Financial Officer, Marianne Lake. Ms. Lake, please go ahead. Marianne LakeThank you, operator. Good morning, everyone. I’m going to take you through the earnings presentation which is available on our website. Please refer to disclaimer at the back of the presentation.Starting on Page 1, the firm reported fourth quarter net income of $7.1 billion and EPS of $1.98 on revenue of nearly $27 billion with a return on tangible common equity of 14%. Market impacts aside, underlying business drivers remain solid, increasing core loans and deposit growth, consumer sentiment and spending in a robust holiday season, faster market activity and the credit performance continuing to be very strong across businesses. For the full year 2018, the firm reported revenue of $111.5 billion and net income was $32.5 billion, both clear records even adjusting for the impacts of tax reform. And so, we’re entering 2019 with good momentum across all businesses.Turning to Page 2 and some more detail about our fourth quarter results. Revenue of $26.8 billion was up $1.1 billion or 4% year-on-year, driven by net interest income. NII was up $1.2 billion or 9% on higher rates and on loan and deposit growth. Non-interest revenue was down slightly, with lower market levels impacting Asset Wealth Management fees and Private Equity losses being offset by higher Card fees and Auto lease growth in CCB. Expense of $15.7 billion was up 6% year-on-year. The increase is related to investments we’re making in technology, marketing, real estate and front office, as well as revenue-related costs including growth in Auto. This was partially offset by a reduction in FDIC fees. As we had hoped, the incremental surcharge was eliminated effective the end of the third quarter and this is a benefit of a little over $200 million for the quarter across our businesses. Credit trends remained favorable across both Consumer and Wholesale. Credit costs of $1.5 billion were up $240 million year-on-year, driven by changes in reserves. In Consumer, we built reserves of $150 million in Cards on loan growth. In Wholesale, over the last several quarters, we have seen net reserve releases and recoveries. However, this quarter, we had about $200 million of credit costs. Again largely reserve builds on select C&amp;I client downgrades driven by a handful of names across multiple sectors. While we are constantly looking at the granular level, these downgrades are idiosyncratic and do not reflect signs of deterioration in our portfolio. The outlook for credit as we see it remains positive. Shifting for the full year results on Page 3, we have posted net income for the year of $32.5 billion, a return on tangible common equity of 17% and EPS of $9 a share. Net income was a record for the firm, as well as to each of our businesses even exceeding tax reform. Revenue of $111.5 billion is also record and was up nearly $7 billion or 7% year-on-year, $4.3 billion of which was higher net interest income on higher rates with growth and Card margin expansion being offset by lower markets NII.Non-interest revenues was up $2.5 billion or 5%, driven by CIB Markets and growth in Consumer being offset by Private Equity losses and the impact of spread widening on FCA. At the end of the year, the adjusted expense was $63.3 billion, up 6%, which brings our overhead ratio to 57% for the year even as we continue to make very significant investments across the franchise. And although we are showing modest positive operating leverage on a managed basis, remember our revenues were impacted by lower growth in Cards given tax reform. Adjusted for this or looking on a GAAP basis, we delivered nearly 200 basis points of positive operating leverage for the year and well over 100 basis points for the fourth quarter. On Credit, the environment remained favorable throughout 2018. Credit costs were $4.9 billion, down 8% driven by lower net reserve build in Consumer as well as the impact in 2017 of student loan sales. Moving on to Page 4 on balance sheet and capital. We ended the quarter with a CET1 ratio of 12% flat to last quarter. Risk-weighted assets decreased with loan growth more than offset by derivatives counterparty and trading RWA given a combination of seasonality, market conditions and all the enhancements. Our net payout ratio for the quarter exceeded 100% and we repurchased $5.7 billion of shares. Moving to Consumer &amp; Community Banking on Page 5. CCB generated net income of $4 billion and an ROE of 30% for the fourth quarter. And for the year, nearly $15 billion of net income and an ROE of 28%. Customer satisfaction remains near all time highs across our businesses. For the quarter, core loans were up 5% year-on-year, driven by Home Lending up 8%, Card up 6% and Business Banking up 5%. Deposit grew 3%. Growth continues to slow given the rising rate environment, but importantly, we believe we continue to outpace the industry. Of note, this quarter, we opened the first 10 branches in our expansion markets increasing D.C., Boston and Philadelphia. And although it’s clearly early, perception in the market and the performance of the new branches has been strong. Despite volatile markets, client investment assets were still up 3% and we saw record net new money flows for the year. Card sales were up 10%, debit sales up 11% and merchant processing volume up 17% reflecting a strong and confident consumer during the holiday season. And keeping with our focus on digital everything, of note, active mobile customers were up 3 million users or 11% year-on-year.Revenues of $13.7 billion was up 13%. In Consumer &amp; Business Banking revenue was up 18% on higher deposit NII driven by margin expansion. Home Lending revenue was down 8%, driven by lower net production revenues in a low volume, highly competitive environment. And of note, while not a material driver of overall expense, revenue headwinds here were offset by lower net production expense. And Cards, Merchant Services &amp; Auto revenue was up 14%, driven by higher Card NII, although loan growth and margin expansion, lower card, net acquisition costs, principally Sapphire Reserve and higher Auto lease volumes. Card revenue rate was 11.6% for the quarter and 11.27% for the year as expected. Expense of $7.1 billion was up 6%, driven by investments in technology and marketing and Auto lease appreciation partly offset by lower FDIC charges and other expense efficiencies. On Credit, net charge-offs was down $18 million as modestly higher charge-offs in Card were more than offset by lower charge-offs in Auto and Home Lending. Charge-off rates were down year-on-year across all portfolios. Economic indicators remain upbeat. And given the breadth and depth of our franchise, we have a pretty good barometer. From everything we see, the US Consumer remains very healthy. Now turning to Page 6 on the Corporate &amp; Investment Bank. CIB reported net income of $3 billion and ROE of 10% on revenue of $7.2 billion for the fourth quarter. And for the year, net income was nearly $12 billion and an ROE of 16%. In Banking, it was a record year for both total fees and advisory fees. We ranked number one in Global IB fees for the 10th consecutive year, gaining share across all regions. Fourth quarter IB revenue of $1.7 billion was up 3%. We feel continued momentum in advisory with fees up 38% driven by the closing of several large transactions. For the year, we ranked Number 2 in wallet gaining share. Equity underwriting fees were down 4% but significantly outperforming the market. We ranked Number 1 for the year and the quarter and saw our leadership positions across all products globally with particular strength in IPOs as well as in the technology and healthcare sectors.And debt underwriting fees were down 19% versus a strong prior year and sectors in the market. We maintained our number one brand rank for the year and continued to hold strongly lead-left positions in high-yield bonds and leveraged loans.Moving to markets. Total revenue was $3.2 billion, down 6% reported and down 11% adjusted for the impact of tax reform and Steinhoff margin loan loss last year. A confluence of factors throughout the quarter including trade, concerns around global growth and corporate earnings, fears of lower mortgage fares as well as other negative headlines caused spikes in volatility which were amplified by markets that assets and liquidity. And although we saw decent client flow, rates rallied, spreads widened and energy prices fell significantly, all against general market conviction that was anticipating a stronger end to the year. As a result, fixed income markets in particular were challenging with revenue down 18% adjusted. Weaker performance across rates, credit trading and commodities was partially offset by good momentum in emerging markets.Equities revenue was up 2% adjusted, a solid end to a record year. Client continued to do well but we saw client deleveraging over the course of the quarter and cash derivatives were solid in a tougher environment.Treasury services revenue was $1.2 billion, up 13%, driven by growth in operating deposits as well as higher rates but also benefitting from fee growth on higher volumes. Security services revenue was a $1 billion, up 1%. Underlying this was strong fee growth and a modest benefit from higher rates together being substantially offset by the impact of lower market levels and the business exit. Credit adjustments and other was a loss of $243 million, reflecting higher funding spreads on all derivatives.Finally, expense of $4.7 billion was up slightly with continued investments in technology and bankers and volume-related transaction costs, partly offset by lower FDIC charges and lower performance-based compensation. The comps and revenue ratio for the quarter and for the year was 28%.Moving to commercial banking on page seven. The commercial bank reported net income of $1 billion and an ROE of 20% for the fourth quarter, and for the year $4 billion of net income and a ROE of 20%. Revenue of $2.3 billion for the quarter was down 2%, and for prior year included a tax reform related benefit. Excluding this, revenue was up 3%, driven by higher deposit NII. Gross IB revenue of $600 million was down 1% year-on-year but up 4% sequentially on a strong underlying flow of activity, particularly in M&amp;A. Full-year IB revenue was a record $2.5 billion, up 4% on strong activity across segments, in particular middle market banking which was up 8%.Deposit balances were up 1% sequentially as client cash positions are seasonally highest toward year-end although down 7% year-on-year as we continue to see migration of non-operating deposits to higher yielding alternatives. We believe we are retaining a significant portion of these flows. Expense of $845 million was down 7% year-on-year as the prior year included $100 million of impairment on leased assets. Excluding this, expense was up 5%, driven by continued investment in the business in banker coverage as well as in technology and product initiatives.Loans were up 2% year-on-year and flat sequentially. C&amp;I loans were up 1%, reflecting a decline in our tax exempt portfolio given tax reform. Adjusting for this, we would have been up 4%, which is still below the industry as we focus on client selection, pricing and credit discipline. But keep in mind, in areas where we have chosen to grow such as in our expansion markets, we are growing at or about industry benchmarks. CRE loans were up 2%, also below the industry as we proactively slowed our growth due to where we are in the cycle, through continued structural and pricing discipline and targeted selections as we build. Underlying credit performance remains strong with credit costs at a $106 million including higher loan loss reserves, largely due to select client downgrades.Moving on to assets and wealth management on page eight. Assets and wealth management reported net income of $604 million with a pretax margin of 23% and an ROE of 26% for the fourth quarter. And for the year, net income was nearly $3 billion pretax margin at 26% and an ROE of 31%. Revenue of $3.4 billion for the quarter was down 5% year-on-year with the impact of current market levels driving lower investment valuations and management fees as well as to a lesser extent, lower performance fees. These were partially offset by strong banking results and the cumulative impact of net inflows. Expense of $2.6 billion was flat, as continued investments in advisors and in technology were offset by lower performance-based compensation and lower revenue-driven external fees.For the quarter, we saw net long-term outflows of $3 billion with strength in fixed income more than offset by outflows from equity and multi-asset products. Additionally, we had net liquidity inflows of $21 billion. For the 10th consecutive year, we saw net long-term inflows of $25 billion this year, driven predominantly by multi-assets and in addition saw $31 billion of net liquidity inflows this year. Assets under management of $2 trillion and overall client assets of $2.7 trillion were both down 2% as the impact of market levels more than offset the benefit of net inflows. Deposits were flat sequentially and down 7% year-on-year, reflecting migration into investments, and we continue to capture the vast majority inflows. Finally, we had record loan balances, up 13% with strength in global wholesale and mortgage lending.Moving to page nine and corporate. Corporate reported a net loss of $577 million. Treasury and CIO net income of a $175 million was up year-on-year, primarily driven by higher rates. Other corporate saw a net loss of $752 million, including on a pre-tax basis funding our foundation for corporate philanthropy $200 million this quarter, flat year-on-year, and including a $150 million of markdown on certain legacy private equity investments market related. Remainder is driven by tax-related items, totaling a little over a $300 million. And within this are two notable components. The first is regularly tax reserve; and second represents small differences between the effective tax rate for each for our businesses and that for the overall company as we close the year. So, therefore there is an offset across our businesses. Our full-year effective tax rate was just a little over 20%, in line with guidance. Moving to page 10 and outlook. We will give you more full-year outlook and sensitivity information at Investor Day as always. However, for now, I would like to provide some color and reminders about the first quarter. Net interest income will continue to benefit from the impact of higher rates and growth but quarter-over-quarter will be negatively impacted by day count. And we expect the first quarter NII to be relatively flat sequentially. While it’s too early clearly to give guidance on fee revenues, it’s also fair to say that this quarter market is still calmer and more positive and capital market pipelines are strong. So, if the environment remains positive, we would expect normal seasonal strength in the first quarter. But I will remind you that the first quarter of 2018 included a $500 million accounting write off as well as broad strength in performance. Expect expense to be up mid-single-digits year-on-year, obviously market dependent, primarily annualization effects. And finally, as I said, we expect credit to remain favorable across products.So, to close, while the markets in the fourth quarter were more challenging, we should not lose sight to the fact that 2018 was a strong year, indeed a record for revenues, net income and EPS, both reported and adjusted for tax reform. Fundamental economic data remains supportive of continued growth, and we’re generally constructive on the outlook for 2019. We have good momentum coming into the year and the company and each of our businesses are very well positioned.With that, operator, we can open up the line for Q&amp;A.Question-and-Answer SessionOperator[Operator Instructions] Our first question is from Erika Najarian of Bank of America.Erika NajarianHi. Good morning. So, the way bank stocks have performed, clearly, investors are starting to worry about revenue trends near-term and of course credit, which you addressed. I’m wondering if the revenue trends continue to be weaker than expected, if the overhead ratio of 57% that you posted in ‘17 and ‘18 is something that you could continue to level off to, or will the investment horizon be more of a dominant factor when we’re thinking about the overhead ratio.Marianne LakeYes. So, I would say a couple of things. The first is just to remind you that ‘17 and ‘18, I would look at a GAAP rather than a managed basis because of the adjustments to our revenues from tax reform. But that said, we have -- while we don’t set expense target, nor do we set overhead ratio targets, we have given you some outlook that would suggest that we continue to believe that combination of revenue growth and expense discipline, notwithstanding the investments that we’ve been making, we should see our overhead ratio continue to be stable to trending down to the kind of mid-50, so 55ish%. Obviously, the timing of that will depend on rates and markets and everything else. So, we would expect to continue to deliver positive operating leverage on higher NII on growth if nothing else and continued solid growth in fees. Clearly in any one quarter, you can have pluses and minuses that can be market-dependent. But generally, over time, we would still expect those trends.Erika NajarianAnd just as a follow-up question, the market is also thinking that the last rate hike from the Fed was December, and I'm wondering how we should think about the dynamics of net interest income and more specifically net interest margin and deposit pricing if December was indeed the last rate hike for some time.Marianne LakeSo, I would say, first of all just to say that the question mark about whether that’s a pause or a stop; is it the end of the cycle, we don’t think so. We think the outlook for growth and the economy is still strong; the consumer is still strong and healthy; and we are expecting to still see maybe slower but still global growth going forward. Having said that, just as a general matter, you’ve seen through our earnings at risk that as we have put more and more of the benefit of past rate cut, rate hikes in our run rate, each incremental hike from here has whilst deposited significantly lower sort of incremental NII drive, and that -- the front end SKU is a lower percentage. So, it’s nothing but clearly lower front end rates or lower long end of the curve or a flatter curve, all other things would be net modestly negative. But against that, you pointed out the potential for this to lead to lower or slower reprice.So, as the Fed pauses, it is fair to say there could be an offset from lower reprice as people digest the data and understand whether this is a pause or not. We would still look -- we delivered $4.3 billion of NII growth in 2018. We will still benefit in 2019 from the annualization effects of the higher rates we’ve already had as well as solid growth. So, while you kind of expect 2019 over ‘18 to be at that level, it would still be strong NII growth year-on-year.Jamie DimonI would say why it’s equally if not more important than it was. So, if it is a pause because you are going to recession, you’re going to do trades that obviously is very different than it’s to pause, economy is strong and they raise rates, you know which one you would choose.Marianne LakeAnd if this were the end of the cycle, it’s not a cycle we’ve ever seen before. So, in that scenario, if terminal Fed run rates 2.5% -- 4.5%, 5%, plus, I think we’ve never seen that movie before but that’s not our central case. And by the way, the house did a research view. We would still need to see incremental hike this year; if not in the first half, in the second.OperatorOur next question is from Jim Mitchell of Buckingham Research.Jim MitchellMaybe a question on the card business. There has been chatter about sort of pulling back on rewards to kind of focus more on profitability. I guess, how do you think about the strategy in cards right now? And can that -- I think the revenue yield in the card business was up 7 bps to 11.57. Can that go higher from here as you maybe pull back on rewards?Marianne LakeYes. I would say that when we think about the product continuum we have in the contrast, rewards is a very important part of driving engaged relationships with our customers. Customers are very attuned to it and are looking for value in the product. Value and simplicity and ease of use are the three things in the products that we deliver. So, for us, engage relationships, drive profitability, this is still a very profitable business. So, while we will always make adjustments to our offerings, it’s not the case that we are looking at a meaningful pullback in rewards. And if you think about -- think for example our banking where we are looking to bring the impact of our products together, we are continuing to offer rewards-based incentive to drive engagement with our customers. So, we think it’s a solid strategy of business that already has good returns. It’s fair to say that we’ve seen a lot of competitive response and competitive products in the marketplace that are driving high rewards offerings too and we’ve not seen that lower -- our ability to acquire new accounts. So, we feel great about the value proposition, the simplicity and the compelling products that we have. So, it’s very profitable business.Jim MitchellSo, we think about still seeing decent growth, how do we think about card losses specifically this year? You seem pretty optimistic on credit. Should we still expect some seasoning or do you think the macro trends are that positive that we hold steady? How do you think about credit and cards?Marianne LakeSo, I think the macro trends are definitely positive. So, we are creating tailwinds, but it's also true we talked about the fact that if you go back to 2014-2015 that we had expanded our credit box, we'd expanded it intentionally at higher risk-adjusted margins. But over the course of the last couple of years as we've experienced that performance, we've done sort of surgical risk pullbacks, and we amended our collection strategy, all of which have led to a charge-off rate for the fourth quarter in ‘18 that's down slightly year-on-year and for the year that's a 310 basis points which is reasonably meaningfully below our expectations, even as late as the end of last year. So, we feel great that that kind of loss trends at that 310, maybe a little bit higher is something we should look forward to at least into 2019. And it will be helped by a supportive macro environment.And we are seeing, if you unpick all of our trends, you see the phenomenon of three vintages. You see the mature vintages that continue to be stable to grinding lower in terms of delinquencies and loss rates. You see the older expansion vintages that have crossed peak delinquencies and are trending to a more stable level. And then you do have, obviously with new acquisitions, cohorts that are still seasoning. That will continue. But, net-net, we're expecting relatively stable loss rate that levels similar to 2018.OperatorOur next question is from Saul Martinez of UBS. I'm sorry, his line has disconnected. Our next question is from John McDonald of Bernstein.John McDonaldHi. Good morning. Just wondering on the markets commentary, obviously super early in the quarter, but you mentioned things feeling better. Can you just talk about seasonality there but also just what feels better so far? And then, also in the fourth quarter, what you saw in leverage lending market, how much do you have to take in terms of maybe marks and leveraged loans and the hung deals? Little bit of color there would be helpful.Marianne LakeSure. Okay. So, I would say that obviously the fourth quarter was challenging and there was a lot of market moves, a big sort of broad set of. And at that point, there were elevated concerns around trade, global growth data was causing concerns, there were concerns that the Fed was going to continue to be hawkish and not necessarily as responsive to some of the things the market was worried about. So, there was a lot of negativity, we think too much negativity priced into the fourth quarter. And it started to change a bit when we saw the first really strong unemployment trend which reminded people that there's a very long distance between 3% growth and a contraction. So, yes, we could see slower growth but still growth in the U.S. and across the globe, a slightly more constructive narrative on trade and that continues to broadly progress we hope and believe in a positive direction, and a more dovish outlook from the Fed that potential for that to be pauses in rates or being relatively supportive. And the fact that a lot of people were on the sidelines through the fourth quarter and investor appetite is out there for good value where it can be found.So, I would say just early days in the first quarter. There are still obviously risks to the outlook. And any of those things could go the worse direction. But so far, things are just a little bit more positive and that's constructive. And therefore you would hope to see normal seasonal strength in January.On leveraged loans, sort of just diving into the sort of potential for that to be hung bridges, it’s true that there was a significant market correction with spreads widening across high yield bonds and leveraged loans in the fourth quarter. Clearly, stepping back, while the industry -- leveraged finance commitments are -- they are materially down from before the crisis and very different. So, credit fundamentals look pretty good. Having said that -- and by the way, we passed on a lot of deals in the fourth quarter. We've maintained sort of our sort of protection in terms of flex pricing and flex protection. And as a result, the more maturity of our bridge that has -- still got decent cushion. That’s not to say that there's no deal that has the potential for there to be net losses after fee, but nothing that we would consider to be significant and nothing in the fourth quarter. I would also say that coming back to the first quarter that actually the market could be quite constructive to fixed income into the third quarter, given a more dovish Fed supporting corporate margin, corporate default rates are going to stay pretty low and we do have time. So, none of the deals that we have need to be brought to market in a hurry, and the market is moving in a positive direction.OperatorOur next question is from Al Alevizakos of HSBC.Al AlevizakosThank you for taking my question. I again want to focus a bit on the market's performance. You pretty much mentioned like weakness across the board in credit, in FX, in rates, which I assume like is the case. First of all, I want bit of an outlook on how you think rates will perform now that volatility has picked up. And more importantly, you mentioned strength in emerging markets. Can I ask whether that was primarily in Asia or LatAm? Thank you very much.Marianne LakeSo, it’s no good of a conserve talking about how we think things are going to pan out in time in the first quarter other than just the general comment I’ve already made, which is the environment should be more constructive and we’re expecting decent volatility in client activity and we will see how that pans out. With respect to emerging markets, Latin America was a big piece but Asia too.OperatorOur next question comes from Mike Mayo of Wells Fargo Securities.Mike MayoI guess, I’m a little torn between the year and the quarter. So, I’ll just ask it to Jamie. Jamie, it seems like you guys are very happy with the year with all the record revenues and earnings. But, the fourth quarter, are you happy with the fourth quarter, given expenses, credit, fees?Jamie DimonI’m fully happy with it. The franchise is strong, we’re investing in new products and services, but we’re not immune from the weather and volumes and volatility. We’re not immune from market prices and assets going up and down. And I like the loans up 6%, assets up, long-term flows up. I like the fact that credit card spend is up 10%, merchant processing is up 17%. Shares -- in almost every business, market shares have gone up. That’s what I look at. I really don’t pay that much attention to speed bump it a little bit but the fact that volumes were low in the last three weeks of December. I honestly could care less. I look at more in equities. We’ve gained share and we’re now bumping up to number one. Those folks have done a great job, of course cash, derivatives, prime broker et cetera. And fixed income has maintained our share and we’re adding products and services around the world. And we don’t know it’s going to happen next quarter and I don’t care.Marianne LakeAnd we take the same division, we had strong first half of the year and we said long may it continue but it may not and one quarter doesn’t make a trend. And so, we don’t really react to the sort of micro, even though it was driven by the macro. The really underlying business drivers continue to be strong. And even in those businesses, we are holding leadership positions and gaining share. And so, this too will cost and things will continue to move forward in a constructive manner.Mike MayoAs a follow-up, let’s talk about the weather. So, the weather is lousy at the end of the year and Jamie you were just appointed to your third year as Chairman of the Business Roundtable. So, in that role, what are you doing to help JPMorgan and I guess the other banks in terms of China, the government shutdown, immigration, some of these headline issues that Marianne talked about, having hurt the CIB in the fourth quarter?Jamie DimonYes. So, December is terrible but if you look at January, you have half of it back, generally in spreads and markets and stuff like that. And as BRT, I don’t do anything that benefits JPMorgan. That’s about public policy, that’s good for growth of America in total, and so very specifically stayed away from doing about banks there. But the BRT does take up trade and we are supportive of the fact there are serious issues with China. We would like to see the trade deal get done. It looks like to us they are marching along at least to this March 1st deadline date that enough will be done to kind of get an extension and hopefully complete the deal. We would like to see immigration reform, so proper border security, allowing people who have advance degrees to stay here, having the doctors stay here, having more merit-based immigration and having some path to citizenship. That is the BRT position. We want more innovation. We’d like to reduce regulations at the local and federal level that stop small business formation. So, if you look at the BRT, there are 10 verticals around that -- and we try to do things that are good for the growth of America. And bad policy can slow down the growth of America. I have pointed out over and over it takes 12 years to get the permits to build the bridge. And it took eight years to put a man on the moon. It is time that we reform ourselves and not blame anybody else for own lack of that we don't have kids getting at school of educations where they get jobs, the innovation has slowdown, the government R&amp;D spending is down. I always think what can you do better and there is plenty in this country to do better to help growth over the long run. And it’s not about helping it next quarter.OperatorOur next question is from Glenn Schorr of Evercore ISI.Glenn SchorrFollow-up on John’s question </t>
+  </si>
+  <si>
+    <t xml:space="preserve">State Street Corporation (NYSE:STT) Q4 2018 Earnings Conference Call January 18, 2019 10:00 AM ETCompany ParticipantsIlene Fiszel Bieler - IRRon O'Hanley - CEOEric Aboaf - CFOConference Call ParticipantsGlenn Schorr - EvercoreKen Usdin - JefferiesBrennan Hawken - UBSAlex Blostein - Goldman SachsBetsy Graseck - Morgan StanleyBrian Bedell - Deutsche BankMike Carrier - Bank of America Merrill LynchJim Mitchell - Buckingham ResearchBrian Kleinhanzl - KBWMike Mayo - Wells Fargo SecuritiesGerard Cassidy - RBCSteven Chubak - Wolfe ResearchGeoffrey Elliott - AutonomousVivek Juneja - JP MorganOperatorGood morning and welcome to the State Street Corporation's Fourth Quarter of 2018 Earnings Conference Call and Webcast. Today's discussion is being broadcast live on State Street’s website at investors.statestreet.com. This conference call is also being recorded for replay. State Street's conference call is copyrighted and all rights are reserved.This call may not be recorded for rebroadcast or distribution in whole or in part without the express written authorization from State Street Corporation. The only authorized broadcast of this call will be housed on the State Street’s website.Now, I would like to introduce Ilene Fiszel Bieler, Global Head of Investor Relations at State Street.Ilene Fiszel BielerGood morning and thank you all for joining us. On our call today, our CEO, Ron O'Hanley will speak first, then Eric Aboaf, our CFO will take you through our fourth quarter and full year 2018 earnings slide presentation, which is available for download in the Investor Relations section of our website, investors.statestreet.com. Afterwards, we'll be happy to take questions. During the Q&amp;A, please limit yourself to two questions and then re-queue.Before we get started, I would like to remind you that today’s presentation will include results presented on a basis that excludes or adjusts one-on-one items from GAAP. Reconciliations of these non-GAAP measures to the most directly comparable GAAP or regulatory measure are available in the appendix to our slide presentation.In addition, today’s presentation will contain forward-looking statements. Actual results may differ materially from those statements due to a variety of important factors such as those factors referenced in our discussion today. Our forward-looking statements speak only as of today and we disclaim any obligation to update them even if our views change.With that, let me turn it over to Ron.Ron O'HanleyGood morning, everyone. As you know, this is my first opportunity to address you since becoming State Street’s CEO at the start of 2019. Let me turn to slide 3. We announced our fourth quarter and full year 2018 financial results this morning and I want to start by providing some context in terms of the overall environment, addressing our performance and then importantly, focus the bulk of my comments outlining what we’re going to do differently going forward. Market dynamics are changing for our clients. The shift from active to passive means thinner fees as well as more competition amongst managers who are increasingly challenged to outperform their peers and consequently face lower volumes and thinner fees themselves. The resulting margin compression for investment managers has led them to increase pressure on their providers. Asset owners, facing inadequate returns, are similarly pressuring providers to do more for less. In turn, these same clients need better technology and streamlined operations to increase their ability to generate alpha more efficiently and reduce operating costs. Given these headwinds for our clients, we are adapting strategically to become increasingly more competitive, offer greater functionality and be the essential partner to our clients. I have made it clear to my colleagues at State Street and want to make it clear to you, we want to better drive our own destiny and more effectively manage our exposure to market headwinds. That means change, real change that I will talk about today and in the year ahead. Year-over-year, our revenue growth in the fourth quarter was driven by strong performance in net interest income and FX trading as well as the contribution from the recently acquired Charles River development business. We are encouraged by the continued interest we are seeing in CRD with a total of 98 client engagements since announcing the deal. These positive trends were offset by unfavorable market conditions, including the significantly down markets during the fourth quarter and ongoing fee compression, which impacted our servicing fee revenues. Assets under custody and administration decreased quarter-over-quarter, reflecting lower equity market levels and client transitions. Fourth quarter new servicing business wins were 140 billion. Additionally, at quarter end, AUCA yet to be installed totaled approximately 385 billion. At 1.9 trillion for the full year of 2018, we experienced a record level of new servicing wins. State Street Global Advisors was also impacted by the market environment as our business has a disproportionate exposure to equity markets and other risk on asset classes, such as high yield. Assets under management decreased quarter-over-quarter, primarily driven by weaker equity markets as well as institutional and cash outflows, partially offset by ETF net inflows. While SSGA results are not yet where we would like them to be, we have been working to diversify our business mix, leverage relationships across State Street and fill in offerings as we take advantage of the shift from products to solutions. These offerings include asset allocation, exposure management and outsourced CIO as well as demand for a range of ETF products. For example, this quarter, we saw good organic growth in our European ETFs and our low cost US ETFs and remain confident that our strategy of targeted growth in areas such as ETFs, OCIO and other multi asset solutions and ESG, just to name a few, will drive future growth.Regarding our overall bottom line performance simply put, we need to and can do better. That means reigniting servicing fee growth in a sustainable way, reducing costs across our organization and building upon the advances that we have made in digitization and automation. Collectively, this means being faster and smarter about how we deliver solutions that solve our client's greatest challenges. Our capital position is strong. Moreover, we are optimistic the balance sheet repositioning actions completed during 2018 better position us for the 2019 CCAR cycle, supporting stronger levels of capital return for our shareholders.In light of our recent results and ongoing industry dynamics, we are taking immediate action on expenses to ensure that we become a more efficient organization for our clients and shareholders alike. I have implemented a firm wide hiring freeze for all non-critical roles. We are rolling out a rigorous new performance management system and are structurally compressing and reducing the senior management pyramid by 15%, while improving spans and reducing layers across the bank by 25% to create a more agile and accountable organization. These actions are enabled by the beacon work and the consolidation of work into our global hubs. Thus, we are confident in our ability to execute quickly. In fact, initial reductions have already occurred. Additionally, we are focused on addressing inefficiencies across our entire expense base and have launched a new cost savings program that will continue through 2019 to reduce structural expenses, while also enabling us to invest in the business appropriately. As part of that program, which Eric will cover shortly, we recorded a 223 million pretax repositioning charge, the benefits from which we expect to fully realize within 12 to 15 months.Let me turn to slide 4. Slide 4 outlines my vision for State Street. We intend to be the leading asset servicer, asset manager and data insight provider to the owners and managers of the world’s capital. This vision will be driven by five strategic priorities. One, we will increase core fee growth by becoming an essential partner to our clients, gaining share of wallet and building enduring institutional relationships. The issues faced by our clients have moved services, technology and operations to the C suite agenda. Thus, we are upgrading our client coverage model to meet these needs. These changes, including new senior leadership, are already underway.Two, we must deploy the industry's leading front to back asset servicing platform as a technology driven scale provider. Three, we will continue to innovate to grow diversified revenue streams, including new markets and NII opportunities. Four, we must generate structural expense saves by automating key processes to reduce unit costs and by leveraging our global hubs and scale among other initiatives. And five, become a more high performing organization through flattening our structure, increasing the speed of decision making and evolving our employees’ skill base around our technology and data priorities.Executing against the strategic vision will require concerted action and select investments, which I'm driving forward across the business. At the same time, we need to do more to improve performance in the short term, which is evidenced by our actions announced today.And with that, let me turn it over to Eric to take you through the quarter in more detail.Eric AboafThank you, Ron and good morning, everyone. Before I begin my review of our fourth quarter and 2018 results, I'd like to take a moment on slide 5 to discuss notable items and how they impacted our financials. In 4Q 18, we recognized 223 million of pretax repositioning costs, consisting of severance and real estate write offs. This charge is in response to the challenging industry conditions and includes the organizational streamlining and de-layering actions that Ron announced last month. I'll have more to say on how we are tackling expenses later in the presentation, including details in our new 350 million expense initiative announced today.In addition, we also had 24 million of acquisition restructuring costs related primarily to Charles River, which was below our original estimate, 24 million related to the sale of a small alternative servicing business in the Channel Islands and 50 million of legal and related costs. In total, we recognized notable items of 321 million pretax or $0.64 a share.On page 6, we show our GAAP results in the top two panels as well as our results ex the notable items I just described for those of you who want to see some of our underlying trends. On this basis, we didn't achieve our fee operating leverage goal, but we did deliver a positive operating leverage overall in 2018.Now, moving to slide 7, 4Q18 EPS of $1.04 was down 44% quarter-on-quarter, but up 17% year-over-year, primarily reflecting the impact of our 4Q18 repositioning charge and the 4Q17 tax reform costs. For the full year 2018, our GAAP EPS of $6.40 was up 22% over 2017.Looking at 4Q18, return on equity was down 6.5 percentage points sequentially, primarily related to the quarter's notable expense items. For the full year 2018, ROE was up 1.6 percentage points from full year 2017. Overall, we saw growth in both EPS and ROE on a full year basis, driven by NII growth through active balance sheet management and higher interest rates, FX trading, where we continue to gain share, the acquisition of CRD and lower taxes. We are however disappointed by our performance in several of our fee businesses and I'll describe the drivers and our additional actions on the next few pages. Turning to slide 8, our end of period AUCA and AUM levels were significantly impacted by the sharp sell-off in equity markets during the end of the fourth quarter as well as the cumulative effect of industry flows in the past year. As you know and as we have summarized on the right side of this page, global equity markets were down 6% to 17% in 2018, after posting double digit gains in 2017. At the same time, cumulative industry flows were dramatically down after significant inflows during last year and client transaction activity was muted, as investors sat on the sidelines. As a result, we saw AUCA levels fall 7% quarter-on-quarter and 5% year-on-year, while AUM levels fell 11% and 10% respectively.Moving to slide 9, I want to spend some time unpacking total revenues, which were up 1% quarter-on-quarter and up 5% year-on-year. Servicing fees, shown in the dark blue piece of the stacked bar on the left side of the page were down 4% quarter-on-quarter and 7% year-on-year. Let me give you some color. On both the sequential quarter and year-over-year basis, we had a 2 to 3 point reduction in servicing fees due to falling global equity markets. In addition, we've recently been seeing industry pricing pressure of about 1 percentage point per quarter over the last year. The cumulative effect has caused a material year-on-year downdraft in servicing fees. And we also had one previously disclosed client transition, which was worth about 2 percentage points year-on-year, which was offset by net new business and client activity. To put these numbers in context, the long term appreciation in equity markets has typically lifted servicing fees on average by about 2 percentage points annually over the last 5 years. Positive client flows and client transactional activity have added another 2 percentage points annually and net new business has also generated 2 percentage points of annual growth, all of which have been partially offset by typical pricing headwinds of just under 2 percentage points annually. This year has been particularly challenging though, since we've seen twice the average historical pricing headwinds. Without the tailwind of market appreciation nor client flows and activity that are inherent in our pricing structure. We have thus undertaken meaningful initiatives to combat these headwinds, such as upgrading our client coverage program and strengthening pricing discipline through our new pricing governance process. And since we need to focus on what we can control, we are even more resolute that we need to actively manage our expense base lower, which I'll discuss further in a few minutes.Turning to slide 10, let me briefly discuss our other fee revenues. Beginning with management fees, 4Q revenue was up 5% year-on-year, primarily driven by revenue recognition adoption, but down 7% quarter-on-quarter, driven by lower equity markets as well as net outflows in our equity focused institutional business. SSGA continues to focus on expanding our relationships and product categories that offer higher margin. 4Q FX trading services saw continued strong performance, up 19% year-over-year, driven by higher FX volumes and volatility. We continue to differentiate our FX offerings with clients, driven by the breadth and depth of our capabilities. 4Q securities finance revenues were down 6% quarter-on-quarter and 18% year-on-year, reflecting lower assets on loan and lower spreads as clients de-leverage and industry demand fell. I would note that the business continues to evolve after the CCAR related counterparty adjustments. We've navigated these changes quite smoothly in FX, but continue to work through the effects in agency lending. Finally, we saw a significant step up in processing fees with the addition of CRD for the first time in our fourth quarter financials. We continue to be excited by the acquisition, we're pleased with its performance and remain confident in our previously announced revenue and cost synergies.As you can see, on the lower right of the slide, CRD saw net new bookings of 14 million for 4Q18. We have announcer our new client advisory board and delivered higher than expected fourth quarter revenues of 121 million on 39 million of expenses. We also incurred 18 million of amortization costs and 24 million of acquisition costs associated with CRD this past quarter. While CRD is enjoying real momentum, I would caution you against simply annualizing these 4Q results, given the lumpiness inherent in the 606 revenue accounting reporting standard.Now on to slide 11, we saw continued NII growth and NIM expansion during the fourth quarter. Our NII was up 4% quarter-on-quarter due to the Fed hikes we saw in September and December as well as a one-time benefit of approximately 6 million from hedging activities. 4Q NII was up 13% year-on-year, driven by higher US interest rates and discipline liability pricing, while NIM expanded 7 basis points quarter-on-quarter and 17 basis points year-on-year. As you can see on the bottom right of the slide, our average level deposits remained fairly steady and our betas remained similar to last quarter at just over 50%. We were also pleased to see an increase in our lending activity during the quarter. All of this bodes well for a full year 2019.Now turning to expenses, as we indicated earlier in the call, we are extraordinarily focused on managing expenses in this challenging revenue environment. I'll start by summarizing our expenses on an underlying basis, excluding notable items in Charles River and then discuss our efforts during 3Q and 4Q to keep our second half expenses flat to the first half on that basis. I'll then summarize the new expense savings program we just announced today.Beginning on slide 12, you can see that our underlying basis 4Q18 expenses were up 5% year-over-year and 1% sequentially, driven largely by the year-over-year adoption of the new revenue recognition accounting standard as well as technology investments. From a line item perspective, and relative to 4Q17, comp and employee benefits were well controlled, increasing just 1%, reflecting technology contractor and annual merit increases, partially offset by beacon savings and lower performance based incentive compensation, given our disappointing results.Information systems increased reflecting infrastructure enhancements as well as additional investments to support growth. Transaction processing costs were down as we renegotiated sub-custodian savings for a second quarter in a row. Occupancy costs were down as a result of continued progress in optimizing our global footprint.Now turning the slide 13, as the extent of the challenging revenue conditions became clear last spring, we committed to actually managing our quarterly expenses, so as to keep second half expenses flat to first half on an underlying basis. As you see on the left side of this page, we deliver on this commitment, but we know we need to do more. On the right side of the page, we summarize the progress in our Beacon savings, which totaled 245 million in 2018 as well as additional tactical actions and savings, which included a down payment on our 2019 program. These savings include the start of management de-layering, contracts under savings, the renegotiation of certain sub-custodial relationships and better control of discretionary spending.Now to slide 14, in light of our current macroeconomic and industry conditions impacting revenues, we have launched a significant new expense savings program. In total, this program is designed to achieve 350 million of in year expense savings during 2019 or approximately 4% of our expense base, which is larger than our previous efforts. On the right side of the page, you'll see the two major categories we've identified, resource discipline and process engineering and automation, with expected savings of approximately 160 million and 190 million respectively.Resource discipline includes a previously announced 15% reduction in senior management, the rollout of a more rigorous performance management system to better control headcount and further vendor management savings and the continued tackling of our real estate footprint. Process engineering and automation benefits are expected to include the reduction of approximately 6% of our workforce or 1500 roles in high cost locations. Staffing assessments were recently done as part of our shift to a more globalized model and we are now able to take further advantage of automation, and standardized processes and lower cost per person. We also intend to streamline three operational hubs and two joint ventures as well as continue the drive towards common technology platforms and the retirement of legacy applications. The initiation of certain portions of this program results in the 4Q repositioning charge that I mentioned, which we described in the left side of the page. Even though this charge is good payback, we know we need to reduce the size of these charges going forward, which is why we've rolled out a new performance management system and headcount control.Moving to slide 15, our capital ratios ended the year, similar to those of a year ago with tier 1 leverage of 7.2% and a standardized set 1 of 11.5%. We also undertook certain balance sheet and counterparty actions in the fourth quarter to be better positioned for the 2019 CCAR process. As you see on the left side of the page, we shifted the investment portfolio during 4Q to further increase the percentage of HQLA securities and adjusted the held to maturity holdings, thus reducing the associated AOCI volatility to our capital under stress.This portfolio rebalancing, including turning over about 10% of the book and is not expected to have a negative impact on further NII growth. Lastly and consistent with our previous announcement, we will resume share repurchases this month and intend to repurchase up to 600 million through June 30, 2019.Turning now to slide 16, I'd like to focus on our 2019 outlook. Before I start though, I'd like to first share some of the assumptions, underlying our current views. At a macro level, we are assuming continued, albeit slowing global growth. Market interest rates forward and only a modest uplift from equity markets, but with continued volatility, which will keep investor flows muted and transactional activity light.I would note that this operating environment is materially worse today than it was just 45 days ago when I presented at the Goldman Conference. Since then, we've seen a significant selloff in equity markets for the year end 2018 with the US equity indices down almost 10% in December versus the first two months of the fourth quarter. This sell off has put a material drag on our quarterly fee revenue run rate since it is geared off of the 2018 year end step off of AUCA and AUM levels. And over the same period, the rates picture has markedly changed too, with the consensus moving from two Fed hikes in 2019 to nearly none.Amidst this uncertain revenue environment, we will be laser focused on expenses. As you can see in the walk, we believe we can achieve approximately 4% in productivity saves, driven by our larger than usual 2019 expense program, which includes both resource discipline and process re-engineering improvements, partially offset by an approximately 3% of ongoing business and necessary IT investments. This should yield a net 1% reduction in 2019 total underlying cost, aside from the full year effect of CRD and notable items.In addition, given the severe market environment, we currently expect to reduce expenses 2 percentage points from 4Q18 to 1Q19, excluding seasonally deferred compensation via our recent hiring freeze and senior management exits. While material percentage of our revenues informed by markets and not in our control, we can control expenses. We will intervene further if necessary.Turning to fee revenue, with the December market selloff and increased volatility, there is a scenario where 1Q19 total fee revenue could be down quarter-on-quarter by 3 to 4 percentage points, driven by known factors including the market step off, the higher than historical pricing headwinds and the fiscal effects of lumpy revenues in CRD and trading. And because of the year end 2018 step off, even with a modest linear uptick in equity markets during 2019, we could see this 1Q fee revenue as our quarterly run rate for several quarters.At this point, we’re operating the company under this scenario and we see sustained market uplift or further retreat, however, this picture could change. For example, in terms of market sensitivity, a 5 percentage point instantaneous uplift in markets is worth about 25 million per quarter to our servicing fee revenue with a lag of half a quarter. In regards to NII, we expect to see low to mid-single digit growth for the year. For 1Q, we expect a downtick, which would be fully accounted for by two fewer days and the absence of the 4Q episodic hedging benefits I mentioned earlier. Taxes should be in the 15% to 16% range for the year, though we expect 1Q19 to be higher at 18%. And finally, given the balance sheet repositioning undertaken in the fourth quarter, we are optimistic that we are better positioned for the 2019 CCAR process, subject of course to the Federal Reserve scenarios and associated approvals. Depending upon the specific CCAR scenarios, we would expect to target a total payout of over 80% for the upcoming CCAR cycle.Finally to slide 17, in summary, full year 2018 was a mixed year. We had a solid start to the year with record new servicing wins of 1.9 trillion, which reflects our distinct servicing capabilities. Revenues started strong, but we had a difficult second half, given our exposure to weaker equity markets and challenging industry conditions. We continue to distinguish ourselves in FX trading as well as how we've effectively driven NII growth, as we've engaged with clients. All told, EPS increased 22% and ROE increased 1.6 percentage points. On the capital front, we are better positioned for the 2019 CCAR cycle and one of our top priorities is to return substantial capital to shareholders this year.Finally, as I outlined a few moments ago, we are taking immediate action to adjust our expense base for this new revenue environment and we're confident the actions we announced today position us well to reduce our 2019 underlying expense base, relative to last year.And with that, let me hand the call back to Ron.Ron O'HanleyThanks, Eric. Operator, we can now open the call to questions.Question-and-Answer SessionOperator[Operator Instructions] Your first question comes from the line of Glenn Schorr with Evercore.Glenn SchorrFurther comment on the pricing, because I think we all get that the market drops and so fee start out lower. That's, I don't think a surprise at this point. The worst pricing, what I'm curious about is, how it manifests itself, in other words, I think you used the phrase this year, I mean, this year is like 2 weeks old. So are we talking about each new contract that comes up as it comes up and it kind of rolls over like the next five years, I just wanted to get -- understand a little bit more about what's new about the -- because pricing has gone down like the last 30 years straight?Ron O'HanleyThis is Ron. Let me start on that and then Eric will probably want to say something on it. The way pricing works in there or historically has worked in this business and particularly for us since our business is disproportionately for asset managers is that when you reprice, there are some assumptions built in around market and as importantly around flows. I mean, if you serve asset managers, you get the business and then over time it accumulates. We've gone through -- the industry has gone through a very large number of repricings for all the reasons that I've outlined earlier in terms of the pressure that clients are under and those same assumptions, at least on our part have been applied and I assume on everybody else’s part. We had a year of very sharp down market and as importantly no flows. So between the volume of pricing and the fact that the usual kind of assumptions haven't yet played out, that's what's led to one, our results, particularly towards the latter half of 2018 and second for our outlook. Now, it's obviously -- we have to, as part of the pricing discipline that we've talked about, we’re rethinking these assumptions in terms of market and how much, if at all, to rely on flows, but that's really what we're referring to here.Do you want to add anything?Eric AboafYeah. Glenn, I’ll just add that historically we've seen pricing headwinds for decades in this business, just part of the underlying assumptions or some pricing headwinds offset by flows and activity and market appreciation, as well the structure the contracts are set up and those have historically been in the 1.5% to 2% range. Literally, over the last half decade, we've gone back a decade and we've got that history. We've seen closer to 4% headwinds this year. And if we think about the coming year, we expect about the same. That said, we've been renegotiating our contracts, right, and extending term. We've been putting in place some clarity around expectations on volumes and market levels and so forth. And while we're a bit more than halfway through those contract negotiations, the negotiations happen, then the fee changes occur and then we actually have to live through that. So we're just a bit below the majority of what we are going to need to live through and that's just part of what we have to navigate. I will say that the fee headwinds tend to hit a little more in the earlier part of the year than the latter part, just because of the kind of calendarization. And so that's incorporated in our forecast. The net is that, at the end of the day, this is part of our industry. We feel like this is a wave, it's a larger wave than we've seen in the past and -- than usual – and we think there will be some reversion to the mean. But that said, it strengthens our resolve that we've got to work on expenses. We've got to take expenses out, we've got improved productivity and we've got to adjust our cost structure to be in line with what the revenues are that we can earn.Glenn SchorrThat actually leads to just my other follow-up is, if you could talk about the timing and ramping of, say, both the cost save program, because it's more headcount than comp focused and then also, while we're at it, the timing and ramping of the one, but not yet funded pipeline, because those could be partial offsets as well obviously.Eric AboafYeah. Let me start on the expense side, because that's, I've been putting a lot of my time personally with Ron and the management team on that and I think you saw in my prepared remarks, I gave you a sense of what we expect to do in terms of expenses for the year on an underlying basis, down 1% and because we've been intervening month by month and quarter by quarter, we expect total expense to be down on an underlying basis by about 2 percentage points from 4Q to 1Q. But we're trying to just adjust and that just comes in stepwise the increments. I think at the same time, there are some ramping of some of the ongoing investments that we need to do and so that's what -- that's what will get the lines to meet at about that 1% down for the year. But, we're trying to peel off expenses, we've got a relatively fixed cost base, so we've got to take it down in steps and at the same time, we got to do it carefully, so that we continue to serve our clients well and deliver the services in the highest quality manner.OperatorYour next question comes from the line of Ken Usdin with Jefferies.Ken UsdinHey, Eric, I was wondering if you could help us flush out the point you made about not run rating CRD? And can you help us understand just what your expected contribution would be, if possible, both on the revenue side for more of a full year ‘19 basis and also on the cost side? I think what you've given us is the underlying on the expense, but it would be helpful if you could give us a sense of how you're thinking about the CRD adds? Thanks.Eric AboafSure. Let me describe CRD in a little more detail and I think we provided the fourth quarter P&amp;L here on page 10 of the materials. Think about it this way, revenues have a seasonality in CRD, because of the kind of natural calendarization that happens in sales, in a software oriented business and I think you'll see that in most of the software business that you or some of your colleagues may cover. We disclosed that we -- that the fourth quarter is typically 30% to 35% of full year revenues, that's a rough amount. It will vary a bit, but that's probably at least something to start with and so part of the guidance I gave on total fees for 4Q to 1Q includes the natural downtick that you’d see after that fourth quarter seasonal position. And I think you can kind of build models off of that.In terms of expenses, these are first quarterly expenses, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alphabet, Inc. (NASDAQ:GOOG) Q3 2018 Earnings Call October 25, 2018  4:30 PM ETExecutivesEllen West - Alphabet, Inc.Ruth Porat - Alphabet, Inc.Sundar Pichai - Alphabet, Inc.AnalystsEric J. Sheridan - UBS Securities LLCDaniel Salmon - BMO Capital Markets (United States)Anthony DiClemente - Evercore Group LLCMark Mahaney - RBC Capital Markets LLCBrian Nowak - Morgan Stanley &amp; Co. LLCDouglas T. Anmuth - JPMorgan Securities LLCRoss Sandler - Barclays Capital, Inc.Michael Brian Nathanson - MoffettNathanson LLCHeather Bellini - Goldman Sachs &amp; Co. LLCBrent Thill - Jefferies LLCJustin Post - Bank of America Merrill LynchOperatorGood day ladies and gentlemen, and welcome to the Alphabet Third Quarter 2018 Earnings Call. I'd now like to turn the conference over to Ellen West, Head of Investor Relations. Please go ahead.Ellen West - Alphabet, Inc.Thank you. Good afternoon everyone and welcome to Alphabet's third quarter 2018 earnings conference call. With us today are Ruth Porat and Sundar Pichai. Now I'll quickly cover the safe harbor. Some of the statements that we make today may be considered forward looking including statements regarding our future investments, our long-term growth and innovation, the expected performance of our businesses and our expected level of capital expenditures.These statements involve a number of risks and uncertainties that could cause actual results to differ materially. For more information, please refer to the risk factors discussed in our Form 10-K for 2017 filed with the SEC. Undue reliance should not be placed on any forward-looking statements and they are made based on assumptions as of today. We undertake no obligation to update them.During this call, we will present both GAAP and non-GAAP financial measures. A reconciliation of GAAP to non-GAAP measures is included in today's earnings press release. As you know we distribute our earnings release through our Investor Relations website located at abc.xyz/investor. This call is also being webcast from our IR website where a replay of the call will be available later today.And now I'll turn the call over to Ruth.Ruth Porat - Alphabet, Inc.Thank you, Ellen. Our revenues in the third quarter continued to benefit from ongoing strength in mobile search with important contributions from YouTube, cloud and desktop search, resulting in consolidated revenues of $33.7 billion, up 21% year-on-year and up 22% in constant currency.For today's call, I will begin with the results for the quarter on a consolidated basis for Alphabet focusing on year-over-year changes. I will then review results for Google followed by Other Bets and will conclude with our outlook. Sundar will then discuss business and product highlights after which we will take your questions.Starting with a summary of Alphabet's consolidated financial performance for the quarter, our total revenues of $33.7 billion reflect a negative currency impact year-over-year of $385 million or $305 million after the impact of our hedging program.Turning to Alphabet revenues by geography, you can see that our performance was strong again in all regions. U.S. revenues were $15.5 billion, up 20% year-over-year. EMEA revenues were $11 billion, up 20% year-over-year. In constant currency terms EMEA grew 19%. APAC revenues were $5.4 billion, up 29% versus last year and up 30% in constant currency. Other Americas revenues were $1.8 billion, up 19% year-over-year and up 28% in constant currency, reflecting weakening of the Brazilian real and the Argentine peso.On a consolidated basis, total cost of revenues including TAC, which I'll discuss in the Google segment results, was $14.3 billion, up 28% year-on-year. Other cost of revenues on a consolidated basis was $7.7 billion, up 36% year-over-year, primarily driven by Google-related expenses. The key drivers were costs associated with our data centers and other operations including depreciation which continue to be affected by a reallocation of certain operating expenses and content acquisition costs, primarily for YouTube.Operating expenses were $11.1 billion, up 26% year-over-year. Once again the biggest increase was in R&amp;D expenses, reflecting our continued investment in technical talent. The growth in sales and marketing expenses reflects increases in sales and marketing head count primarily for cloud and ads followed by advertising investments in cloud, Chromebooks for the back-to-school season and the Google Assistant.G&amp;A expense trends in the third quarter were affected by a number of factors. In particular, the performance fees accrued in connection with recognition of equity security gains which were again partially offset by the reallocation of certain expenses from G&amp;A primarily to other cost of revenues.Stock-based compensation totaled $2.2 billion. Headcount at the end of the quarter was 94,372, up 5,314 from last quarter. Consistent with prior quarters, the majority of new hires were engineers and product managers. In terms of product areas, the most sizable head count increases were in cloud for both technical and sales roles.Operating income was $8.3 billion, up 7% versus last year for an operating margin of 25%. As discussed in the previous two quarters, both operating income and OI&amp;E are affected by the new accounting standard that changes the way companies account for equity security investments. This new standard continues to result in greater volatility. Once again, we've provided a table in our earnings press release to highlight the impact on particular line items.Other income and expense was $1.8 billion which includes $1.4 billion of gains in equity security investments. We provide more detail on the line items within OI&amp;E in our earnings press release.Our effective tax rate was 8.8% for the third quarter, reflecting discrete items, notably an adjustment associated with the U.S. Tax Act. Net income was $9.2 billion and earnings per diluted share were $13.06.Turning now to CapEx and operating cash flow. Cash CapEx for the quarter was $5.3 billion which I'll discuss in the Google segment results. Operating cash flow was $13.2 billion with free cash flow of $7.9 billion. We ended the quarter with cash and marketable securities of approximately $106 billion.Let me now turn to our segment financial results, starting with the Google segment. Revenues were $33.6 billion, up 21% year-over-year. In terms of the revenue detail, Google sites revenues were $24.1 billion in the quarter, up 22% year-over-year.In terms of dollar growth, results were led again by mobile search, with a strong contribution from YouTube followed by desktop search. Network revenues were $4.9 billion, up 13% year-on-year reflecting the ongoing momentum of AdMob and programmatic.Other revenues for Google were $4.6 billion, up 29% year-over-year fueled by cloud and Play. We continue to provide monetization metrics in our earnings press release to give you a sense of the price and volume dynamics of our advertising businesses.Total traffic acquisition costs were $6.6 billion or 23% of total advertising revenues and up 20% year-over-year. Total TAC as a percentage of total advertising revenues was relatively flat year-over-year, primarily reflecting a favorable revenue mix shift from network to sites, offset by an increase in the sites' TAC rate. The increase in the sites' TAC rate year-over-year was driven by changes in partner agreements and the ongoing shift to mobile, which carries higher TAC. This quarter, we experienced a year-on-year decline in the network TAC rate due to a combination of factors, none of which were individually significant.Google stock-based compensation totaled $2.1 billion for the quarter, up 23% year-over-year. Operating income was $9.5 billion, up 11% versus last year. And the operating margin was 28.2%. Accrued CapEx for the quarter was $5.6 billion, reflecting investments in production equipment, data center construction and facilities.Let me now turn to Other Bets. Revenues were $146 million, primarily generated by Fiber and Verily. Operating loss was $727 million. Other Bets' accrued CapEx was $55 million. In terms of Other Bet updates for the quarter, with Waymo in the third quarter, we built on our early rider program, both expanding the group of participants and beginning to test pricing models.At Verily, the team continues to execute on its various partnerships with leading pharmaceutical companies, consistent with its mission to move medicine from reactive to proactive. Recently launched efforts include a joint venture with ResMed to focus on sleeping disorders and a research collaboration with Gilead.Finally, you can see in our results the benefit and quality of our investment teams GV and CapitalG which are also within Other Bets. Within the $1.4 billion of reported gains in equity securities in OI&amp;E, approximately $400 million was realized in Q3. There will be more detail on these investment activities in the 10-Q.Let me close with some observations on the quarter and our longer-term outlook. First, with respect to revenues. In the third quarter, results reflect FX headwinds with U.S. dollar strengthening in contrast to the tailwinds that enhanced reported results in the first half of the year. We continue to be pleased with the underlying momentum in our advertising businesses as we apply our strength in machine learning to improve the experience for users and advertisers. As we noted, hardware was only a modest contributor in the third quarter as we launched a new Made by Google family of products for the fourth quarter holiday season.Second, with respect to profitability, within cost of revenues, the biggest component is TAC. We indicated on the fourth quarter 2017 call that the pace of year-on-year growth in sites TAC as a percentage of sites revenues would begin to slow after the first quarter of 2018, and you can see that again clearly in our results this quarter. As frequently discussed, we do expect the sites TAC rate to continue to increase year-on-year reflecting ongoing strength in mobile search. Looking ahead, we expect seasonal impacts to our other cost of sales from hardware sales which are typically higher in the fourth quarter of the year as well as from increased content acquisition costs for YouTube, which have also historically been higher in the fourth quarter.Within OpEx, we continue to prioritize our investments to support long-term growth. In terms of head count, growth was seasonally higher in the third quarter because we brought on new graduates. We are continuing to invest in adding talent to our priority areas, particularly for technical roles in engineering and product management and to support our most sizable growth areas, in particular, cloud.As I've mentioned previously regarding sales and marketing, expenses are more heavily weighted toward the back half of the year. As you have seen in prior years, these expenses are particularly elevated in the fourth quarter to support the holiday season.Other Bets remains a portfolio of earlier stage businesses focused on addressing sizable markets. We are moving toward early stages of commercialization, while continuing to calibrate the pace of investment against achievement of key milestones.And finally, with respect to CapEx, you can see our continued investment as we build the infrastructure needed to support the opportunities we see across our businesses. This includes a number of datacenter construction projects in flight as well as ongoing expansion in our compute capacity.I will now turn the call over to Sundar.Sundar Pichai - Alphabet, Inc.Thanks, Ruth. We had a great quarter, and it was particularly special because last month, we celebrated Google's 20th birthday and the 10th birthday of Chrome. It's exciting to think that 20 years in, we are still just at the beginning of what's possible. We get billions of questions from users every day and about 15% of those are queries we have never seen before.Our mission to make the world's information accessible and useful is as relevant today as when we started. I want to begin by highlighting our recently launched family of hardware. It's a great example of how we bring together Google's strengths to help people through their day. Then I'll touch on ways AI is helping us approach our mission. I'll give an update on our video and advertising platforms. And finally, I'll talk about our growing cloud business.First, hardware. Every year, we have a new opportunity to push the boundaries of computing. Those experiences come to life in our Made by Google hardware, which combines the latest advances in software, hardware and AI. Our third generation is our best yet. It includes the Pixel 3, Google Home Hub, the Pixel Slate tablet and more. We're getting great feedback, and I'm very excited for users to try these devices, especially as the holiday season approaches.Our new hardware lineup showcases the best of Google, including the Google Assistant, Android and Chrome. With the Pixel 3, we've used AI to create a best-in-class camera. New features like top shot make it so you never miss a shot. If your timing wasn't perfect, the camera will suggest a better frame and give you the option to save it. And Night Sight will help you take really good pictures even in bad light.Pixel 3 also has a custom security chip called Titan M. It was built to secure Google's own datacenters and now we are bring it to our users. We also released Google Home Hub, our first smart speaker with a screen. It shows your morning commute, lets you control your smartphone and gives you hand-free help in the kitchen, and Pixel Slate, Chrome OS reimagined as a tablet with all the great apps from the Play Store.Our hardware efforts are picking up real momentum. For example, daily active users of our Google Home devices have grown by over 5x in the last year alone. I'm incredibly proud of our growing hardware team, including the talented employees who came over from HTC and Nest. Our investments are paying off as we bring the best of Google to more users and in more countries around the world.Even as we build up our hardware business, we continue to advance our mission across our core products and platforms. Last month, we kicked off 20 years of Google search by introducing some of the biggest updates in many years. They include a new AI powered ranking approach that delivers more relevant results, a redesigned Google feed called Discover to help you stay informed on topics that matter to you and a new search experience for Google images.We also continue to tackle the information problem of connecting people to relevant jobs right from search. This has already helped connect to over 100 million people in 92 countries to job listings that meet their needs and skills. Now U.S. service members can search for jobs for veterans and enter their military occupational code to see relevant civilian jobs.The Google Assistant continues to gain traction, drawing on our strengths in machine learning and helpful Google services like search, YouTube and Maps. We have expanded the Assistant to 20 languages and 76 countries and it can now understand and speak more than one language at a time. We launched our first set of smart displays with Lenovo and JBL as well as our own Google Home Hub.Pixel users in the U.S. will be the first to try our new duplex technology which helps you complete real-world tasks over the phone like calling a restaurant to book a table and we introduced a new way to easily book ride services with your Google Assistant. In Maps, we also made several improvements including a commute tab with live traffic and transit information and support for mixed-mode commutes.Earlier this month, we announced an exciting test called Project Stream. We are working with video game publisher Ubisoft to stream their latest game, Assassin's Creed Odyssey to Chrome browsers on laptops and desktops. Streaming graphically rich content for video games represents a great technical advance and we look forward to seeing what's possible here.I'm particularly proud of our strengths in AI are creating life-changing contributions in other fields. For example, our recent flood prediction efforts, which use AI to better predict when floods will occur had the potential to help millions of people get out of harm's way. We are starting in India, where 20% of flood-related fatalities occur today, and we're looking to expand to more countries soon.Earlier this month, our research has showed how they've applied deep learning models to improve the accuracy of diagnosis for metastatic breast cancer. Our research found that pathologists and AI can work together more effectively than either alone.Moving to our video and advertising platforms, which are creating economic opportunities for partners around the world. First YouTube. One particular area of focus is educational content. Every day people from all over the world turn to YouTube to learn something new from career skills to coding to cooking. Just this week, we announced a $20 million investment to expand our YouTube Learning initiative which will help fund established and emerging educational careers. We're also partnering with organizations like Goodwill and Year Up to create curated playlists that teach career skills directly in our new learning channel.YouTube's Ask business continues to provide great results for marketers and creators. At Advertising Week, we announced that we'll be expanding our popular TrueView for actions format. This helps users take action directly from video ads. They can now do things like sign up for a newsletter and soon they'll be able to find movie show times, download apps or even book a trip right from the app. For creators, YouTube is continuing to build alternative revenue products like Super Chat, channel memberships and the ability to sell merchandise directly to fans.YouTube gaming creator, Marquis player (19:55), increased its revenue by 20% using channel memberships. We continue to see positive traction for our newest subscription experiences too. YouTube Premium YouTube TV and YouTube Music Premium are continuing to expand to many new countries. The team is also investing in growing and improving the news experience on YouTube. More prominently surfacing credible news sources on the platform is a big priority for us.Next, our advertising platforms. Advertisers love that we are bringing our machine learning strengths to offerings like responsive search ads and universal App Campaigns to create more effective ads. One new example is Smart Shopping Campaigns which use signals like seasonality and price to optimize where ads are shown. Tens of thousands of advertisers are using this and seeing an average of 20% more sales for the same budget.Just last week we announced that Nike, Best Buy and Sephora are joining our Shopping Actions program. This allows people to move seamlessly from browsing to buying with a universal card that works across Google search and our system.In apps, we announced a partnership with Unity Technologies, which gives our advertisers access to one of the largest global networks of mobile gaming titles across 1.5 billion devices. Unity's developers can monetize their apps with Google ads without any additional development work.And lastly, our growing cloud business. At Google Cloud Next, we made over 100 announcements including the Titan security key, which features Google designed firmware to help verify that nothing on a customer's key has been tampered with. And we expanded our breakthrough Cloud AutoML portfolio, which now includes vision, natural language and translation.And all over the world we are seeing great customer adoption of our Cloud Platform. With help of SAP, Metro, one of the largest B2B wholesalers globally, is centralizing their finance system on Google Cloud Platform. They're using BigQuery to generate data-driven insights to help create more personalized marketing campaigns.In the U.S., we partnered with the National Institutes of Health to provide access to cloud services that help researchers access large datasets to accelerate biomedical advances. We also added new customers like ING and Broadcom, joining existing customers like PayPal, ANZ Bank and Kroger.Our G Suite business continues to fuel transformation in companies large and small and we crossed two important milestones in the quarter. Google Drive became the eight Google product with 1 billion monthly active users. And Gmail now has more than 1.5 billion monthly active users.One of our big wins in the quarter was Fast Retailing, the Japanese retailer best known for its popular brand UNIQLO, which is migrating its employees globally to G Suite, while also pursuing AI solutions like on-demand forecasting on Google Cloud Platform. Our cloud business is benefiting from our investments in technical infrastructure including a U.S.-Europe cable that will improve speeds for millions of people.Before I wrap up, I want to quickly call out our continued momentum in Asia as well as the investments that we are making in the U.S. As you can see from our results, revenue growth in APAC remains strong. This is a reflection of our very focused efforts to build great experiences for the billions of people across the region. We have adapted many of our core products like search, Maps and YouTube to work well for the next generation of users coming online.We're also building products to meet the specific needs of users in the region like Tez, a digital payments app for India, to help people easily pay their electrician or split it in a bill with just a few taps. Just one year since it launched, over 30 million people in businesses across India now use the app every month and they've collectively made more than 1 billion transactions. We have recently rebranded the app to Google Pay as we look to bring many of the app's features to others around the world.We are also investing closer to home. In Q3, more than 80% of Alphabet's total capital expenditures was within the U.S. Not only do these investments in datacenters, machines and offices allow us to provide great services to users, they have a strong positive impact on the communities around them, supporting thousands of jobs and countless local businesses. This year-to-date we have added over 9,000 new employees in the U.S. and we continue to grow faster outside the Bay Area than in it.As you can see, there's exciting momentum across many different areas. I'm constantly struck by the number of incredible opportunities ahead of us as a company and how far we have come over the last 20 years. I want to say a big thank you to all of Googlers around the world who help us deliver on that mission every day.With that, I'll hand it back to Ruth.Ruth Porat - Alphabet, Inc.Thank you, Sundar, and we will now take your questions.Question-and-Answer SessionOperatorAnd our first question comes from Eric Sheridan of UBS. Your line is now open.Eric J. Sheridan - UBS Securities LLCThanks for taking the question. Maybe two for Sundar if I can. Referencing the blog post and some of the changes about how you see the future of search, I wanted to know what some of the key investments you think the company needs to make so that search becomes more visual or relevant and what that might mean tying it back to the business for engagement with your products relevant to that medium to long term.And then with respect to your comments on YouTube, we're starting to hear from advertisers that there is some blurring between brand and direct response ad budgets as they look at products maybe more across blended lines. It sounds like the YouTube announcements coming out of Adweek were about making YouTube more responsive or more direct response. How are you thinking about the blurring of those lines and what it means for product development long term? Thanks so much.Sundar Pichai - Alphabet, Inc.Thanks, Eric. I'll take the two. The first on search. You're right that search, we are always trying to anticipate what the user experience expectations are and trying to meet them there. And increasingly in mobile, people do want immersive engaging experiences. They want their experiences to be more visual and that's partly what you saw us announce in our 20th birthday event. And we are excited to move in that direction.And I do think we have a lot of important assets to bring here. YouTube is a big part of what we do. We are investing in image search and we do have products like Google Maps and Photos which all add to the visual experience. And as part of doing that, we are investing in our advertising offerings as well. And so over time, we'll adapt that so they go hand-in-hand. But I think it's an important evolution for us.In terms of YouTube, I think part of what makes YouTube great is I think we can offer different opportunities for advertisers. We've always felt direct response is something that can work well on YouTube. And our instinct is bearing out. And I look at my personal use cases that are many times now sometimes instead of search, actually find something I want to do in YouTube, maybe thinking about going to a place. And I research it on YouTube. So I think it offers the same opportunity over time. And from our standpoint, we want to make sure that we are evolving the product to bring those opportunities to advertisers. So I'm very excited by it.Eric J. Sheridan - UBS Securities LLCThank you.OperatorThank you. And our next question comes from Dan Salmon of BMO Capital Markets. Your line is now open.Daniel Salmon - BMO Capital Markets (United States)Good afternoon, everyone. Sundar, two questions for you. First, earlier this month or it might have been late last month, Sridhar Ramaswamy, your Head of Ads and Commerce left to go to a VC firm. I'm betting that wasn't a surprise to you, but I'm just hoping you could shed a little light on sort of succession planning for that important role and whether or not you expect any sort of broad changes to ad product strategy.And then second, just amongst those announcements on the anniversary were the evolution of Feed to Discover. And I recognize that's an evolution of a product, but it does look like you're taking advantage of that long unused white space on google.com. And so, just love to hear a little bit more, just sort of a follow-up on Eric's question on the evolution of search, but how you see that surface in particular evolving and particularly the potential for ad monetization over time. Thanks.Sundar Pichai - Alphabet, Inc.Good. On the first one, look I mean we, one of the things I'm really proud about Google is we have a deep bench of talent and for example in the ads team almost all of our senior ads leadership has been here for well over a decade. And so for us, we are fortunate to be able to tap into it.Our ads leadership comes – Prabhakar who has taken over our ads product and engineering efforts, someone I worked with for many, many years, and most recently has led our G Suite business, but has done many roles before, is a deep computer scientist. And I expect to, for him to continue our tradition of technical excellence with the – approach our advertising work. Also want to mentioned Philip and his team, his extraordinary team, who definitely lead many of our initiatives here. And Philip and Prabhakar, with them I think it's in great hands. And I expect a lot of continuity there.On your question on search and Discover, it's in addition to making search more visual, one of the things we are very, very focused on is not always do users turn to us and actually ask a question. So we feel our job is to be there when users need us, anticipate what they want and sometimes proactively meet them. That's where services like Discover really play a role. Right? And I think we are thinking hard about how we can surface relevant information for our users, stuff they are really looking for, can act on, in a way in which it's delightful for them and is showing up for them when they need it.So I see that as an important evolution of search as well. And so you're going to see us investing more. Mobile offers us a great opportunity. And if you use it in Pixel 3, that's the latest product in which we bring our vision of how to bring all these products together and we'll give you a good sense of how we plan to do that over time.Daniel Salmon - BMO Capital Markets (United States)Great. Thank you.OperatorThank you. And our next question comes from Anthony DiClemente of Evercore ISI. Your line is now open.Anthony DiClemente - Evercore Group LLCGreat. Thank you for taking my questions. First for Sundar, you spent some time on hardware. You spent time discussing your suite of hardware devices, the Google Assistant, the Pixel. How are you measuring the returns on those investments in hardware, both in the products and on the marketing side here in a pretty competitive marketplace? What are the milestones for success that we should be looking for on hardware?And then for Ruth, as we start to look ahead to 2019, as you plan for 2019, how are you thinking about the relationship between revenue growth and dollars of operating income growth for next year, particularly if the macroeconomic environment were to become, let's say, less of a tailwind to the broader ads environment as it was this year and in prior years? Thank you.Sundar Pichai - Alphabet, Inc.On hardware, we always want to be at the forefront of computing. And so, and a lot of times that involves thinking across the whole stack, bringing together the entire experience in an integrated way for our users. And we genuinely see a very differentiated way to do this. We think of our approach of bringing together AI software and hardware is unique and we think we can deliver the best-in-class experience and we are committed to doing it. At the same time, we want to build a great business here as well. So we are investing in the long run because we see it clearly as an important business opportunity for us as well, so both go hand-in-hand.We closely look at metrics, and the metrics we have been very focused on for the last couple of years. This is our third generation of hardware. It's the first time we actually are doing our products end-to-end, and we've expanded to newer categories. We look at user feedback and reception. We measure NPS scores. And our scores are now reflecting best-in-class in the category. And beyond that, we're looking at how the market adoption is and we are thoughtfully building a business but we are committed to building and investing for the long run.Ruth Porat - Alphabet, Inc.And in terms of how we're thinking about planning, we're in the middle of it now. And many of the questions sort of been already asked sort of point to the direction that we feel really good about the underlying strength in the ads business as we've talked about on numerous calls. We continue to invest here because we see ongoing opportunities in particular as we leverage machine learning to provide better experience for users and for advertisers. And some of the comments that Sundar made about the opportunities that open up with visual search again continue to point the direction direct response, continue to point to some of the underlying areas in which we're focused.But as we've talked about on prior calls, that's one element of it, and we continue to invest for opportunities that are sizable over the long term. Sundar has already commented on both hardware and cloud as really important examples, and we think the steps that we're taking, the investments we're making, provide the foundational support for ongoing long-term sustained growth. And so then we marry that with the second part of your question, which is in how do we think about the pace of investment. As we've said repeatedly, we're very focused on investing for the long term. We're trying to make sure that we prioritize crisply across the opportunity set that we have and we make the right types of trade-offs but we do remain focused on long-term investing given the scale of the opportunities that we see.Anthony DiClemente - Evercore Group LLCGot it, thank you.OperatorThank you. And our next question comes from Mark Mahaney of RBC Capital Markets. Your line is now open.Mark Mahaney - RBC Capital Markets LLCThanks. Two questions please. One, Sundar, could you just update us with your thinking on China and the China market and the extent. I know Google is already in that market, but the extent to which you want to expand, re-expand your presence there with search.And then in terms of Waymo, just a quick question. Commercialization of Waymo, do you know when, </t>
+  </si>
+  <si>
+    <t>General Electric Co. (NYSE:GE) Q3 2018 Earnings Call October 30, 2018  8:00 AM ETExecutivesTodd Ernst - General Electric Co.H. Lawrence Culp, Jr. - General Electric Co.Jamie S. Miller - General Electric Co.AnalystsJeffrey Todd Sprague - Vertical Research Partners LLCCharles Stephen Tusa - JPMorgan Securities LLCScott Reed Davis - Melius Research LLCAndrew Kaplowitz - Citigroup Global Markets, Inc.Nicole DeBlase - Deutsche Bank Securities, Inc.Julian Mitchell - Barclays Capital, Inc.Nigel Coe - Wolfe Research LLCDeane Dray - RBC Capital Markets LLCAndrew Burris Obin - Bank of America Merrill LynchSteven Winoker - UBS Securities LLCJohn Walsh - Credit SuisseJoe Ritchie - Goldman Sachs &amp; Co. LLCJohn G. Inch - Gordon Haskett Research AdvisorsChristopher Glynn - Oppenheimer &amp; Co., Inc.Justin Laurence Bergner - Gabelli Funds LLCOperatorGood day, ladies and gentlemen, and welcome to the General Electric third-quarter 2018 earnings conference call. At this time all participants in a listen-only mode. My name is Brandon and I will be your operator for today. As a reminder, this conference is being recorded. I would now like to turn the program over your host for today's conference Todd Ernst, Vice President of Investor Communications please go aheadTodd Ernst - General Electric Co.Thank you, Brandon. Good morning, everyone. Welcome to GE's third quarter earnings webcast. I'm joined this morning by our Chairman and CEO Larry Culp, and CFO Jamie Miller. Before we start, I'd like to remind you that the press release, presentation, supplemental and 10-Q have been available since earlier today on our Investor website at www.ge.com. Please note that some of the statements we are making today are forward-looking statements and are based on our best view of the world and our businesses as we see them today. As described in our SEC filing and on our website, those elements can change as the world changes.And now, I'll turn the call over to Larry. Larry.H. Lawrence Culp, Jr. - General Electric Co.Todd, thanks. Good morning, everyone, and thank you for joining us. We have a lot to share with you, so let's get to it. During the third quarter, we saw positive results in most segments with outstanding performance in our Aviation (01:36-02:19)Now, I know there's been renewed speculation on our future strategic direction. The strategy we announced on June 26 to create a more focused portfolio that sets up our businesses to win and strengthening our balance sheet is today the right plan going forward.Consistent with this strategy, we are announcing two actions this morning. First, GE plans to reduce its quarterly dividend from $0.12 to $0.01 per share beginning with the board's next dividend declaration, which is expected to occur in December 2018. This change will allow GE to retain about $3.9 billion of cash per year compared to the prior payout level. Going forward, we will target a dividend payout ratio in line with peers over time.Second, we will take a materially different approach to running our Power business. The past 30 days, I've spent a lot of time with Russell Stokes and his team. It has become clear to us that we need to simplify the business structure. Therefore, today, we are announcing our intent to reorganize Power into two units, both of which will report directly to me. The first is a unified Gas lifecycle business combining our product and services group gas power systems and power services with the second constituting the portfolio of Steam, Grid, Nuclear, and Power Conversion.Additionally, we intend to consolidate the Power headquarters, Gas Power systems and Power Services teams into the new Gas lifecycle business, effectively eliminating the Power headquarters structure. We have much more to do to improve our performance in Power and we intend to move quickly to enhance our execution agility and improve our cost structure.These actions are a start in bolstering GE for the road ahead. In the last month, I have visited many of our primary business locations. Getting to know this company better from the inside has only strengthened my conviction that GE has considerable strengths. The talent here is real. The technology is special. And the global reach of the GE brand and our relationships are truly impressive.But GE needs to change. Our team knows this. In my old job, we acquired dozens of good but often underperforming businesses. And we always came prepared to convince the acquired teams that they and we needed to drive change. That is not the case here. Our GE team needs no convincing.They really want direction to know how to change. And while I don't have all the answers after one month, I do have a few early impressions. We could use a lot more out and a good bit less up around here, meaning we need to focus more on customers and competition and, frankly, less on corporate.We're going to strike a better balance between managing and reporting so that we ensure we're properly focused on the daily operating rhythms, which drive our actual financial results well ahead of our reporting cycles. Strong daily management makes reporting a lot easier. First things firstAnd we need to accelerate our progress on cash generation. Changes to our compensation system and internal reporting this year were a good start, but we need to operationalize real improvements on cash through business processes in every business, every day.And with that, let me turn it to Jamie for a more detailed discussion of the quarter.Jamie S. Miller - General Electric Co.Thanks, Larry. I'll start with our consolidated quarterly performance. Orders were strong at $31.4 billion, up 7% reported and 13% organically. This was driven by equipment orders, which were up 22% organically and services up 5%. Revenues were down 4%, with Industrial revenues down 5%. Organically, Industrial revenues increased 1% driven by Renewables, Aviation, Healthcare, and Oil &amp; Gas.Industrial profit, which includes Corporate, was down 23% reported and 17% organically, driven by declines in Power and Renewables, partially offset by solid growth in Oil &amp; Gas, Aviation and Transportation. Industrial profit margins were 8.1% in the quarter, down 180 basis points year-over-year on a reported and organic basis, driven by declines in Power and Renewables. Year-to-date, margins were down 50 basis points organically.Net earnings per share was negative $2.62 which includes income from discontinued operations related to GE Capital. Adjusted earnings per share was $0.14 and I'll walk the GAAP continuing EPS to adjusted EPS on the right-hand side of the page. Starting from GAAP continuing EPS of negative $2.63, we had $0.01 of gains, principally from the sale of Value-Based Care, partially offset by held-for-sale marks in Lighting, Aviation and Power.We also booked multiple impairments this quarter related to Power. The first was goodwill. As disclosed previously, we had a thin margin between fair value and carrying value for both Power Generation and Grid. And in the third quarter, both businesses failed their goodwill impairment test, which required us to fair value the assets of the businesses with any remaining value being allocated to goodwill.The size of the charge results from the significant value associated with the unrecognized legacy assets, principally our profitable services backlog, long-standing customer relationships and our gas turbine technology. And the value of these assets essentially squeezed out any remaining room for goodwill.Based on our best estimate, we booked a charge of $22 billion, $19 billion related to our Power Gen reporting unit and $3 billion related to Grid. Most of the $22 billion charge is related to the Alstom acquisition, which occurred in the fourth quarter of 2015. We will true this up in the fourth quarter as it gets finalized.Also, the SEC expanded the scope of its ongoing investigation to include the goodwill charge. The Department of Justice is also investigating this charge. And the other areas that we have previously reported are part of the SEC's investigation. We are cooperating with the SEC and DOJ as they continue their work on these matters.On restructuring and other items, we had $0.05 of charges related to intangibles and long-lived assets in Power Conversion where we continue to restructure the business in the face of market challenges. We also incurred $0.06 of restructuring, principally in Corporate and Power, $0.02 of charges related to BD transactions and $0.01for our share of Baker Hughes GE's restructuring. Lastly, the remaining $0.01 related to an unrealized mark associated with our equity investment in Pivotal. Excluding these items, adjusted EPS was $0.14 in the quarter.Moving to cash, adjusted Industrial free cash flow was $1.1 billion for the quarter and negative $300 million year to date. Income depreciation and amortization totaled $1 billion after adjusting for the $22 billion non-cash goodwill impairment. Working capital was negative $100 million for the quarter as we had a small build in inventory ahead of fourth quarter shipments offset by increased payables volume. Contract assets were a use of cash of $100 million, and we spent $900 million in gross CapEx or $600 million ex Baker Hughes GE.On the right-hand side of the page, you can see the walk of the GE cash balance. We ended third quarter with $9.1 billion of cash in bank excluding Baker Hughes GE. And a few highlights: we generated cash proceeds of $3.2 billion related to businesses' positions, principally Industrial Solutions and Value Based Care. We assumed $6 billion of debt from GE Capital to fund the principal plan. And $2.4 billion of other cash includes investing activity in our Aviation business from the first half of the year, derivative settlements and FX on our cash, and a few other items.While our businesses are generating cash flow along with expectations, it's clear that with respect to Power the issues will persist longer and with deeper impact than we had initially expected which will cause us to significantly miss our full year cash flow and earnings targets.Next I'll discuss financial policy which reflects our strategic commitment to strength and delever the balance sheet. A solid rating is important to us, and we will target a sustainable credit rating in the single A range. S&amp;P downgraded GE and GE Capital's credit rating from single A to BBB+ with a stable outlook on October 2, and Moody's and Fitch have our ratings on review.The impact of the downgrade is manageable, and we were prepared for this. The most pronounced impact is on our commercial paper program. As you know, we have $40 billion of committed credit lines in place. We have tapped a portion of these revolvers and are currently transitioning our commercial paper program to a smaller size, and this is in line with our long term objective of reducing our reliance on commercial paper. We have sufficient liquidity to execute this transition smoothly.We continue to target a leverage ratio of 2.5 times net debt to EBITDA and expect to make substantial progress toward this goal in the next few years. As described in June, we have significant sources available to delever and de-risk the company. The action we announced today on the dividend is an example of strengthening our position.We also continue to complete the remaining actions and transactions that are part of the $20 billion disposition program with an expected close of Distributed Power in the fourth quarter and Transportation by early 2019.Now, I will turn to take you through the third quarter operating results by segment. Starting with Power, which has faced significant external and internal challenges, the market size continues to be in line with our previous expectations. But as we move into the second half it's clear that our previous forecasts were overly optimistic on the timing and level of deal closures on heavy-duty gas turbines and particularly on aeros. And while we are seeing some progress, we're not seeing the pace of operational improvement we expected. And we continue to see issues driven by our own execution and some on project execution with customers and partners.Additionally, as Larry mentioned earlier, we're announcing our intent to reorganize the Power business into two units and are effectively eliminating the Power headquarters structure with an intent to enhance Power's execution agility, improve their cost structure and drive better outcomes.Now with respect to the third quarter results for Power, orders were down 18% reported and down 3% organically. While Gas Power Systems orders were down 45% year to date, they were up 55% in the quarter based on easy comparison. We booked orders for 21 heavy-duty gas turbines, including five HAs. Aero orders for two units were down seven versus last year. Power Services orders were down 16% driven by tough comparison and a more disciplined deal selection process on the transactional fleet which is resulting in higher margins. CSA orders were flat.Revenue was down 33% reported and down 20% organically. GPS revenue was down 55% on lower volume. Power Services revenue was down 4% with CSA's up 2% and transactional services down 12%.While we're making progress commercially on the transactional fleet, the conversion time between orders and revenue has been longer than expected and CSA utilization was in line with expectations.In the quarter, the business incurred an operating loss of $631 million, profitability was negatively impacted by charges in GPS related to challenges in project execution and liquidated damages. We also recorded $240 million of warranty and maintenance reserves related to the HA 9FB stage 1 blade issue.We have a replacement blade in production and we're working proactively with our customers to schedule outages to replace the parts over time, but we also expect to incur a similar incremental amount of cost over time related to the blades as we perform planned outages in our services contracts.Next on Aviation, which had another great quarter, orders were up 35%, equipment orders grew by 82% driven by continued strong momentum of the LEAP engine program, services orders grew 12%, revenues in the quarter grew 12%, equipment revenues were up 17% on commercial engines partially offset by lower military volume.Specifically, we shipped 303 LEAP engines this quarter, up 192 units compared to last year. Services revenues grew 9% on higher shop visits and a spares rate of 28 million per day, up 20%. We continue to experience favorability and services with strength in air traffic driving high fleet utilization and spare parts consumption.Segment profit was up 25% on higher volume, improved price and operating productivity. This was partially offset by negative mix from higher LEAP shipments. Operating profit margins expanded 240 basis points in the quarter. Year to date, we've shipped 739 engines and we're roughly four weeks behind on production as a result of the delays in material, but we remain committed to delivering 1,100 to 1,200 units. Aviation performance remains on track to deliver 15-plus percent op profit growth for the year.Next on Healthcare, Healthcare orders were flat versus last year and up 3% organically. On a product-line basis, Life Sciences orders were up 6% organically with BioProcess up 9%, Healthcare Systems orders were up 2% organically. Geographically, organic orders were up 4% in Europe, driven by successful new product launches across Healthcare System. The U.S. was down 3% due to the non-repeat of a large Healthcare Systems government order. Emerging market organic orders were up 9% with China up 13%. And in China, we saw good performance in BioProcess, imaging and ultrasound.Healthcare revenues of $4.7 billion grew 3% on an organic basis with Healthcare Systems up 3% and Life Sciences up 5%. Segment profit was up 2% on a reported basis and 10% organically, driven by volume and cost productivity partially offset by lower price. Margins expanded by 120 basis points organically. Consistent with our strategy to focus and win, the Healthcare team continues to prepare for separation.On Renewables, orders were down 3% versus last year, driven by lower hydro orders. Onshore wind orders totaled $2.7 billion with U.S. equipment volume up 2.7 times and U.S. repower volume up 72%. International volume was down 66% on tough comps versus last year. Backlog at the end of the quarter totaled $16 billion and was up 17% from strength in onshore wind. Revenues were up 15% reported and 19% organically, mainly driven by onshore wind equipment, which was up 37%. This was partially offset by onshore wind repower volume, which was down 55%, primarily driven by timing, including delays for inclement weather and customer site readiness, as well as a number of new unit delivery delays driven by supply chain issues. The repower market remains robust and we're seeing continued strong demand through 2019 and beyond.Segment profit was down 72% and margins were down 660 basis points, driven by significant pricing pressure and lower repower volume. We expect sequential improvement in our segment profit driven by higher wind turbine and repowering volume and continued product cost improvement. We will continue to monitor the supply chain and logistical issues as we ramp in fourth quarter for the higher volume.Moving to Oil &amp; Gas, Baker Hughes GE released its financial results this morning at 6:45, and Lorenzo and Brian will hold their earnings call with investors today at 9:00 AM.Next, we provide the summary financial results for Transportation and Lighting, shown here, and additional information is available in the 10-Q.Finally, on GE Capital, continuing operations generated net income of $19 million in the quarter, down $5 million from the prior year. Total year earnings will be affected by the timing of asset sales and related gains and losses. Additionally, the business may be impacted by updates to U.S. tax reform legislation and our assessment of the insurance reserves in the runoff insurance business which we perform annually in the fourth quarter.GE Capital ended the quarter with $129 billion of assets, down $11 billion year to date, ex liquidity, and we remain focused on shrinking and deleveraging GE Capital, including improving its leverage profile. We expect to reduce GE Capital's commercial paper balance to zero in the fourth quarter of 2018 as we transition the overall company to a smaller CP program. And as it relates to capital contributions, we're monitoring tax reform, WMC and the fourth-quarter insurance reserves evaluation and we continue to evaluate derisking options for the portfolio.At this point, we're planning at least $3 billion of capital contributions in 2019 and we'll continuously assess the capital adequacy and risk profile of GE Capital. GE Capital's resources are more limited as it shrinks and GE may need to support GE Capital further, if necessary, either to achieve desired capital levels or to execute strategic options around its portfolio.There was a new insurance accounting standard issued in August of 2018. We're evaluating the effect of the standard and anticipate its adoption will materially affect our financial statements when it takes effect in 2021.Now, I'll turn it back to Larry.H. Lawrence Culp, Jr. - General Electric Co.Jamie, thanks. Right now, I'm spending most of my time with the Power business with real help from Jamie and our Vice Chair, David Joyce. We need to establish a realistic outlook there, particularly for the Gas business, and drive improvements from there. The moves we've announced today, in addition to the daily, weekly and monthly operating disciplines we are instilling, will drive transparency and accountability on the path to improved operating performance. When we have our arms around this, we will provide you with our outlook in 2019.As I mentioned earlier, we also intend to maintain a disciplined financial policy and are committed to strengthening and delevering the balance sheet over the next few years. In summary, GE has and will continue to have a strong commitment to all its stakeholders. We are making GE a stronger company operationally and financially. I'm truly excited to lead this storied company into its next chapter. I've spent my career improving strong franchise businesses and taking them from good to great. We know what to do. Now is the time to execute.Before we go to Q&amp;A, I want to acknowledge the pent-up demand for information that you have on a range of topics, but I've been in this job for all of 30 days. I will share with you what I know and can today, but please know that I'll be back to you with more definitive plans and views in the months ahead.In closing, I also want to thank John Flannery for his 30 years of exceptional service to this company. John also made a number of important contributions as CEO. I have the utmost respect for John and wish him nothing but the best going forward.With that, Todd, back to you.Todd Ernst - General Electric Co.Thanks, Larry. Brandon, let's open up the call for questions.Question-and-Answer SessionOperatorThank you. And from Vertical Research we have Jeffrey Sprague. Please go ahead.Jeffrey Todd Sprague - Vertical Research Partners LLCThank you. Good morning, everyone.H. Lawrence Culp, Jr. - General Electric Co.Hey, Jeff. Good morning.Jamie S. Miller - General Electric Co.Good morning, Jeff.Jeffrey Todd Sprague - Vertical Research Partners LLCGood morning. Larry, best of luck. Hey, my first question, and I think it's everyone's question really, is the balance sheet here. And just wondering as you're sitting there with your fiduciary hat on looking at an unstable, perhaps, global economic environment, certainly relative to what the market's telling us, do you see the need to move more quickly on the balance sheet?Is there something with these lawsuits or something that tie your hands on moving with the balance sheet? Could you just give us a little bit more color on how you might move to more quickly lift the cloud and stabilize things here?H. Lawrence Culp, Jr. - General Electric Co.Jeff, let me take that, and then Jamie probably has some perspectives as well. I think we're mindful of the morphing environment, but perhaps more mindful of our leverage situation today. So, coming in as a Director earlier in the year, that was clear. All the more true today as Chairman and CEO. I think what we've tried to do throughout the course of the year is move as briskly but smartly as we possibly can. The dividend move today, to me, fundamentally straightforward, given our desire to preserve that cash to help delever the business. We have a lot of options. We laid these out, I think, in some detail back in June. Certainly, the strategy that we talked about relative to derisking and focusing the portfolio is very much intact today. How we move through those various options, the timing, the pace, the sequencing, something very much on the table to make sure that we tend to the balance sheet as quickly as we can. We don't want to be rushed. We don't want to be rash, but we need to get after this straightaway and I hope today's move on the dividend is evidence of that intent in action.Jamie S. Miller - General Electric Co.Yeah, and the only other thing I would add, Jeff, you mentioned lawsuits. There really is no consideration around that in terms of something that would be a constraint to that plan.OperatorAnd from JPMorgan, we have Steve Tusa, please go ahead.H. Lawrence Culp, Jr. - General Electric Co.Hey, Steve. Good morning.Charles Stephen Tusa - JPMorgan Securities LLCHey. Good morning, Larry. So, I guess as a fresh voice in the room there, you guys kind of addressed the insurance thing, that seems like it's going to be a little bit bigger than expected but there's been a lot of information coming out from these disclosures from the shareholder lawsuits that talks about the accounting for LTSAs and contract assets. Several whistleblowers out there talking about the behavior in the past. I'm wondering, in your seat, if you've really delved into that and you're comfortable enough there to unequivocally rule out the need for more capital and specifically the potential for an equity raise?H. Lawrence Culp, Jr. - General Electric Co.Steve, there are a number of questions there. Let me try to take them in order. Let me state in a straightforward fashion, we have no plans for an equity raise. I think with respect to the service business within Power, this is a good opportunity for us to frankly manage this franchise better than we have. I've been encouraged by what I've seen at the operational level. Clearly there are a lot of issues from the past that the team is dealing with but the opportunity here to work closely with our customers around this installed base and do so in a way that's a win-win for them and for us I think it's clear. I'm excited about this. Now it's not a business in the state that it should be in, or could be in, will be in, but I think a good bit of the time we've spent with Russell and Scott and the team has been very much geared toward putting those improvements in motion. I think as we exit this year, go into next year, at the operational level look for continued progress there.OperatorAnd from Melius Research, we have Scott Davis. Please go ahead.Scott Reed Davis - Melius Research LLCHey. Good morning, guys.H. Lawrence Culp, Jr. - General Electric Co.Hey, Scott. Good morning.Jamie S. Miller - General Electric Co.Hi, Scott.Scott Reed Davis - Melius Research LLCWelcome, Larry, and good luck to you. It's not going to be an easy job, got a lot to fix. I wish you the best of luck.H. Lawrence Culp, Jr. - General Electric Co.Well, I appreciate that Scott.Scott Reed Davis - Melius Research LLCBetter you than me.H. Lawrence Culp, Jr. - General Electric Co.Any time you want to join us, let me know but I'm excited to be here. This is an outstanding company right. The people here I think are strong. The technology again is impressive and in 30 days I've begun to appreciate all the more the reach and the impact this company has around the world. We can do better than where we are today, but this is an important company and I'm pleased to be on the team.Scott Reed Davis - Melius Research LLCWe're glad to have you. But anyway so, my question really is on the business model at GE, it's so different than Danaher. The two biggest businesses, Power and aircraft engines, the company is willing to sell the unit at a big loss in hopes of capturing the spare parts and that seems to be working in aerospace but doesn't seem to be working in Power. Can you fix Power without fixing how you go to market traditionally? Does something drastically need to change there?H. Lawrence Culp, Jr. - General Electric Co.Well, Scott, it's hard to say that we don't need dramatic or drastic change in a business that is performing the way that Power is, right? I mean, in some respects, it's that simple. So, in my mind, beyond compliance and quality, everything is on the table at Power and I think Russell and the team would echo that if they were the call. There's no question that in my prior life I was really on the periphery of both the Power space and aerospace as well.Certainly, in the heart of Healthcare, but I'm of the view that there's a lot that I've done previously that's relevant as I join this team. I've driven a lot of change. Every time we brought a new company in, we were driving a lot of change. That was effectively the value proposition for our investors and I think over time we were able to do that. That change really comes as a function of revisiting assumptions, clarifying strategy, putting the right team together, driving operations day in, day out and clearly deploying capital in and around that business as appropriate.But in a more fundamental level, Scott, it's really about expectations, right? It's about making sure that problems are surfaced and solved and managing in a substantive not superficial way. I think all that's relevant. But to be clear, this isn't about me. This is about the 300,000 people on the payroll, myself included, that want and are committed to having GE in a better place and performing better, both for our customers and for shareholders.OperatorFrom Citi, we have Andrew Kaplowitz. Please go ahead.Andrew Kaplowitz - Citigroup Global Markets, Inc.Good morning, guysH. Lawrence Culp, Jr. - General Electric Co.Andrew, good morning.Jamie S. Miller - General Electric Co.Hey, Andrew.Andrew Kaplowitz - Citigroup Global Markets, Inc.Larry or Jamie, obviously, you didn't give us EPS or cash guidance for the year, but industrial free cash flow in Q3 was arguably not as bad as feared. You did say that you would significantly miss your previous cash flow and earnings target for the year. How should we think about GE's ability to generate earnings and especially cash in what seasonally is usually a strong Q4. And then, really more importantly, when we think about next year, are there any guide posts you would give us at this point as you review the businesses, Larry? Should the Power business in particular be less of a drag on cash in 2019?Jamie S. Miller - General Electric Co.Yeah. So, let me take the first discussion on that one. So, as you noted, we're not offering updated guidance right now. But as we look at the businesses, we see real strength in Healthcare and in Aviation. And in Power, we just are seeing continued impacts from the lower market penetration I talked about. Deal closure delays and uncertainties and just other operational and project execution issues, and we do see those continuing into 2019.But as we pull back, fourth quarter, as you referenced, has always been a significant volume quarter for GE and we expect this fourth quarter to be the same. Again, with strong volume in units at Aviation, Healthcare, Renewables and at Power, and Power is also back-end loaded historically, which is another reason that as we really look at Power and the visibility we have there, both with respect to the market and the operations, we're positioning our views on that right now the way we areH. Lawrence Culp, Jr. - General Electric Co.Andrew, Larry here. I hope that you and others will appreciate that when we talk about numbers on a forward-looking basis, we want to do so with conviction and confidence. I don't want to fool you, let alone myself, in thinking 30 days in that I can give you that today. So, with respect to the quarter and certainly the outlook for next year, there'll be a time and place for that. But make no mistake, we know that the Power business has to perform better and that is what we're going to spend a ton of time on once we get past earnings today.OperatorThank you. From Deutsche Bank, we have Nicole DeBlase. Please go aheadNicole DeBlase - Deutsche Bank Securities, Inc.Yeah. Thanks. Good morning, Larry.H. Lawrence Culp, Jr. - General Electric Co.Good morning, NicoleNicole DeBlase - Deutsche Bank Securities, Inc.So, I guess maybe we could talk a little bit about Power. So, just based on the actions that you're announcing today, is there any sense of the level of savings that those like the headquarter consolidation could actually drive, just to give us a sense of what the baseline of savings could be as we move into 2019?H. Lawrence Culp, Jr. - General Electric Co.Nicole, I think what we've done today is really share both internally and publicly the organizational architecture, if you will, that we have in mind. There are a number of details that Russell, the team and I will be working through in the days and weeks to come. And as those details become more clear, we'll share those first internally, and then we will share them with you and others publicly.So give us a little bit of time to work through that. I think in the interim we want to leave that open. But I would just underscore that while there is an opportunity to improve our cost structure, dare I say it, imperative given our current performance, a good bit of what we are talking about here is also geared toward running the businesses better. I think by consolidating the headquarters and really putting that support around the Gas business, we'll all have a better line of sight on the action day-to-day in that business and be able to make decisions I think more crisply with more transparency and more accountability.Having the rest of that Power portfolio coming in directly as well through a different path will give us an opportunity to see those P&amp;Ls clearly without any noise and work business by business to drive improvements there. And I think that's a better way for us to opera</t>
+  </si>
+  <si>
+    <t>Eaton Corp. Plc (NYSE:ETN) Q3 2018 Earnings Call October 30, 2018 11:00 AM ETExecutivesDonald H. Bullock - Eaton Corp. PlcCraig Arnold - Eaton Corp. PlcRichard H. Fearon - Eaton Corp. PlcAnalystsJeffrey Todd Sprague - Vertical Research Partners LLCNigel Coe - Wolfe Research LLCJoe Ritchie - Goldman Sachs &amp; Co. LLCJeffrey D. Hammond - KeyBanc Capital Markets, Inc.Nicole DeBlase - Deutsche Bank Securities, Inc.Steven Winoker - UBS Securities LLCMircea Dobre - Robert W. Baird &amp; Co., Inc.Joshua Charles Pokrzywinski - Morgan Stanley &amp; Co. LLCStephen Edward Volkmann - Jefferies LLCAndrew Burris Obin - Bank of America Merrill LynchDeane Dray - RBC Capital Markets LLCAndrew M. Casey - Wells Fargo Securities LLCAnn P. Duignan - JPMorgan Securities LLCJohn Walsh - Credit SuisseOperatorLadies and gentlemen, thank you for standing by and welcome to the Eaton Third Quarter Earnings Call. At this time all the participant lines are in a listen-only mode. There will be an opportunity for your questions and instructions will be given at that time. As a reminder, today's call is being recorded. I'll turn the call now to, Mr. Don Bullock, Senior Vice President of Investor Relations. Please go ahead, sir.Donald H. Bullock - Eaton Corp. PlcGood morning. I'm Don Bullock, Eaton's Senior Vice President of Investor Relations. Thank you for joining us for today for Eaton's third quarter 2018 earnings call. As all of you that are on the call have noticed, today our call is occurring at 11 AM versus our traditional 10 start. We moved our call today to allow those of you who follow Cummins to participate in their call, which occurred at 10 AM this morning. With me today are Craig Arnold, our Chairman and CEO; and Rick Fearon, our Vice Chairman and Chief Financial and Planning Officer.Our agenda today as typical includes opening remarks by Craig, highlighting the performance in the third quarter along with our outlook for 2018 and a preliminary look at 2019. As we've done on our past calls, we'll be taking questions at the end of Craig's comments.The press release from the earnings announcement this morning and the presentation we'll go through today have been posted on our website at www.eaton.com. Please note that both the press release and the presentation include reconciliations to non-GAAP measures, and a webcast of this call is going to be available on our website and will be available for replay after the earnings is complete.Before we get started, I want to remind you that our comments today will include statements related to forward-looking future results of the company and are therefore by definition forward-looking statements. The actual results can differ from those forecasted projections due to a range of items covered in the uncertainties covered in our press release, presentation and on the 8-K.And with that, I'll turn it over to Craig.Craig Arnold - Eaton Corp. PlcOkay. Thanks, Don. Hey, let me begin with a quick summary of our Q3 results. And overall it was a solid quarter where our balance across multiple end markets really allowed the company to deliver strong results and so we're really pleased with our Q3 results.Earnings per share of $0.95 on a GAAP basis or $1.43 excluding the impact of the arbitration decision we previously announced in August. This is towards the upper end of our guidance range of $1.35 to $1.45 and up 14% above prior year, excluding naturally the gain from the JV that we formed last year in Q3. Our sales were $5.4 billion, up 4%, and this was comprised of 6% organic growth offset by 1% each from both currency and some small divestitures we had during the course of last year.We're very pleased with our strong margin performance, which included an all-time record margins of 17.6%. Our teams really executed well, which led to all-time record margins in three of our segments including; Electrical Products, Electrical Systems &amp; Services, and Aerospace. And finally, we produced solid operating cash flows of $1 billion in the quarter.On page 4, we compare our performance of the quarter versus prior year and I'll just highlight a couple of items here. Notice that sales were up 4% and strong execution, segment operating margins were up 120 basis points over prior year and we posted 11% increase in segment operating profits.We did have two unusual items impacting the year-over-year comparisons, the gain from the formation of the Eaton Cummins joint venture in Q3 2017 and the expenses from the arbitration decision in Q3 2018. Excluding these items, net income was also up 11%.On page 5, we summarize the quarterly results of our Electrical Products segment. Revenues were flat with organic growth of 1%, offset by 1% currency. And I'll just note here that revenues in the quarter were negatively impacted by the Lighting business. As we discussed in prior calls, in the Lighting business organic revenues declined slightly in the quarter, in line with declines that we've seen in Q2 and excluding Lighting, Electrical Products had 3% organic growth. In the quarter, we saw revenue strength in North America with particular strength and solid growth in the industrial end markets.We had expected our Lighting sales to turn positive in the quarter and we do believe this will happen next quarter. This assumption is also supported by the growth that we saw in our orders during the course of Q3. Overall orders increased 3% for the segment with solid growth in industrial and residential markets in North America. And our backlog is up some 16% over last year. So we're pleased to see the really strong strength and building backlogs during the course of the quarter. Segment operating profits increased 4%, with operating margins up 70 basis points to once again an all-time record of 19.2%.On page 6, we outline the results of our Electrical Systems &amp; Services segment. Organic growth was 9% in the quarter, an acceleration from Q2, which was up 7% and Q1 which was up 2%. Foreign exchange and the divestiture of a small joint venture each reduced revenues by 1% in the quarter. We saw strength in industrial markets and data centers and geographically we saw strength in North America and also in the Asia-Pacific region. Bookings were up 4% with strong growth in EMEA, Asia-Pacific, and with data center orders up double-digit globally.We did see a degree of caution in late September in U.S., especially in large project orders. We've seen this kind of caution in the past on periods of economic uncertainty and so we do think that impacted our orders a bit in the quarter and at the end of the month of September. Notably, our backlog was up 12% versus last year. Operating margins of 15.4% were up 160 basis points and were an all-time record for the segment.On page 7, we cover our Hydraulics segment. Here revenues were up 6%, 7% organic growth offset by 1% from currency. We had strength with multiple OEMs in both construction and ag markets and also in the distribution channel. Orders increased 4% with geographic strength in Asia and in the Americas, and this is on top of very strong comps from Q3 of 2017 which were up some 22% last year. So we saw end market strength in both construction and also in agriculture – with agriculture OEMs.Geographically, orders were up 12% in the Americas, up 9% in Asia and down 16% in EMEA. Similar to last quarter, orders in EMEA were down due to largely reduced lead times. Our shorter lead times and better delivery performance continues to reduce the need for customers to place long-dated orders in the Europe market. Our Europe orders for deliveries in the three month period, so those shorter lead-time orders, were actually up again this quarter. We continue to have a strong backlog, which was up 24% from last year, operating profits increased 18% and our margins were 14% and 140 basis point improvement over last year.Next on page 8, we summarize Aerospace's performance in the quarter. The Aerospace segment accelerated nicely from 6% organic growth in Q2 to 9% growth in Q3. In the quarter we saw strength across many platforms including military fighters, rotorcraft, regional jet, biz jets, and in both military and commercial aftermarket, so really broad-based strength in our Aerospace business. Orders remained strong in the quarter, up 12%, with particular strength in commercial transport, commercial aftermarket, as well as in military rotorcraft.Our backlog is also up strongly, up some 15% in the quarter. And operating leverage here was really outstanding with profits increasing 25% to an all-time record. Margins of 22% and up some 280 basis points over prior year. In addition to solid execution, I will acknowledge as well that we had favorable mix in the quarter, which positively impacted margins, largely as a result of strength in the commercial aftermarket business which grew faster than the overall segment.Moving to page 9 in the Vehicle segment, in Q3, our organic growth was 7%, and this organic growth was offset by 3% from FX and 2% from the formation of the Eaton Cummins joint venture last year. The NAFTA Class 8 market continues to perform well. We've increased our production forecast for 2018 from 295,000 units to 320,000 units and this is being offset somewhat by weakness in light vehicle markets in China and a bit in Europe as well. Operating profits increased 11% while operating margin stepped up 140 basis points to 18.9%. Overall, another very strong quarter in our Vehicle business.And wrapping up our segment summaries, we move to the eMobility segment on page 10. Organic growth was 7%. As anticipated we're ramping up our R&amp;D investment in this business and therefore segment margins stepped down to 12.5%, which is really in line with our full year margin guidance for the segment. In Q3 we secured an additional contract win for a new eMobility program, which reinforces our optimism for this fast-growing market. And we're also currently in discussions with a large number of additional customers and so our long-term growth outlook for this segment remains quite optimistic.Now moving to page 11. With three quarters behind us and heading into the final quarter of the year, we're fine-tuning our segment expectation for 2018 for both organic revenue growth and for operating margin. Our end markets continue to experience solid growth; we're reaffirming both our full-year organic growth target of 6% and our operating margins of between 16.4% and 17%.While the overall organic growth expectation remains unchanged, we are adjusting our growth estimates for four of the segments. In Electrical Products, we're adjusting it down by a half a basis point (sic) [half a point] (11:01) from 3% to 2.5%, and this is mostly due to softness in Lighting, which we say – think has extended one quarter longer than what we originally anticipated. But with orders turning positive in Q3, we're really confident that this headwind for the segment has now abated and we expect to see better growth going forward.We're also reducing Hydraulics down 1% from 13% to 12%. We had previously raised our outlook in Q1 from 10% to 13%, reflecting the strength in orders over the last 18 months, so this change from 12% to 13% we think reflects just some fine-tuning with three quarters behind us now.We're also raising our revenue outlook in two segments. We're taking Aerospace up 2%, from 6% to 8% for the year, really on broad-based strength in a number of our end markets, and for Vehicle, we're raising our organic growth forecast by 1%, reflecting the increased production levels in NAFTA Class 8 market in 2018, moving it from 295,000 to 320,000 units.For segment operating margins, we're fine-tuning some of the targets in a number of the segments, but overall, segment margins for Eaton overall remain unchanged. So we think a strong year of conversion.And just turning to page 12, we've taken an opportunity here to summarize our thoughts around our raw material cost and tariffs. As we outlined in Q2, we expect the tariff impact for 2018 to be modest, and as background, it's important to note that we do manufacture in zone of currency, and as a result, we don't have large material flows that would disproportionally be affected by tariffs. Where we are affected we've been focused on taking both price increases and operational actions to ensure that we stay ahead of this issue and our performance today certainly reflects this in the margin strength that we're delivering in our businesses.As we look to 2019, we remain confident in our ability to mitigate the latest round of tariff impacts with both pricing actions and other supply chain changes. As we take a look at the latest round of 301 tariffs that have been now finalized, we expect about $110 million of additional tariff cost in 2019 and we are in the midst of taking actions now that will ensure that the tariff related cost increases are once again fully offset by pricing and other additional supply chain changes. And so we're confident as we look forward just as we look backward that we have plans in place to fully mitigate any tariff related cost increases.And next on the next page, we provide our Q4 guidance, and an updated guidance on the full year. For Q4, we expect EPS of $1.38 to $1.48 and this assumes 6% organic growth, it assumes margins of between 17% and 17.4% and a tax rate of between 12.5% and 13.5%. And as we take a look at the full year for 2018, for the third time this year, we're increasing the midpoint of our full year EPS guidance to a range of $5.30 to $5.40. This naturally excludes the arbitration decision impact. The midpoint of our EPS guidance is increasing 1% from $5.30 to $5.35. We now expect corporate expenses to be $20 million above 2017 levels compared to $10 million that we previously noted and this is largely the result of slightly higher interest expenses.The tax rate for 2018 is now expected to be between 11% and 12%, reflecting really the impact of the arbitration decisions in Q3 that we noted earlier. And consistent with prior guidance, we're expecting operating cash flows of between $2.9 billion and $3.1 billion. This does exclude the $300 million impact from the arbitration decision in Q3, and also unchanged, our free cash flow is expected to be between $2.3 billion and $2.5 billion, once again, excluding the impact of the arbitration decision.Our assumptions for CapEx and restructuring costs are unchanged from prior guidance. However, certainly given the recent pullback in the stock market, we would expect our share repurchases to range from $800 million to $1 billion for the full year and year-to-date our share repurchases have been roughly $600 million. So we'll certainly view this is a buying opportunity given the pullback that we've seen recently.Lastly, at the midpoint of our EPS guidance, we would expect to generate 2018 EPS growth of roughly 15% excluding the impact of the arbitration decision and the 2017 gain from the formation of the Eaton Cummins JV and the income arising from the 2017 tax bill.Hey, just turning to page 14, and I know this is one of the big questions that's on everybody's mind, during last quarter's earnings call we provided a view of our key end markets and really split by three categories, parts of our businesses that we were basically in the early to mid-part of the growth stage, those that were in the middle part of the growth stage and the late stage of growth. And our conclusion then is still our conclusion today, the majority of our businesses are in the early to mid-part of the economic growth cycle. While we do expect the rate of growth to slow somewhat, given the strong 2018 results. We also anticipate that we'll see solid growth in 2019. This view of our end markets is consistent with our initial outlook for 2019 and our assumption that our end markets will grow between 3% and 4% next year.And just turning the page 15, while we provide specific guidance on our Q4 earnings call in January – we will provide specific guidance on our Q4 earnings call in January, we thought it would be helpful also to share some high-level assumptions around 2019. As I noted, we think our end markets will grow 3% to 4%. At this point in the cycle we'd expect incremental margins on core growth to be between 25% and 30% and this does include any impact associated with tariffs. And our preliminary estimate on corporate costs, including pension, interest and other corporate, suggests that they'll be flat with 2018. We expect our tax rate to be between 14% and 15%, consistent with our expected long-term tax rate, and lastly we continue to see opportunities for attractive returns and restructuring opportunities and we anticipate restructuring spending for 2019 will be generally in line with 2018.So with that, I'll turn the meeting back over to Don Bullock and we're happy to answer any questions that you may have.Donald H. Bullock - Eaton Corp. PlcBefore I have the operator provide you with instructions for the Q&amp;A, I did want to note that we do have a number of individuals in the queue for questions today. Given our time constraints of an hour and our desire to get as many of these questions as possible addressed, please limit your questions to a question and a follow-up. Thanks in advance. With that, I'll turn over to the operator to provide you with instructions for the Q&amp;A.Question-and-Answer SessionOperatorDonald H. Bullock - Eaton Corp. PlcOur first question today comes from Jeff Sprague with Vertical Research.Jeffrey Todd Sprague - Vertical Research Partners LLCThank you. Good morning, everyone.Craig Arnold - Eaton Corp. PlcGood morning.Jeffrey Todd Sprague - Vertical Research Partners LLCCraig, I was wondering if you could actually address capital deployment a little bit more directly, and what you're thinking. The spirit I'm asking the question is what seems some plausible speculation you guys were poking around at Esterline. I don't expect you to address that specifically, but maybe you could give us some thoughts on what your appetite is for bigger deals and how you might kind of play that card as we look into 2019?Craig Arnold - Eaton Corp. PlcYeah. Thanks, Jeff, certainly appreciate the question, and as you noted, we don't comment on any potential acquisitions. I would say that our capital deployment strategy is largely unchanged with where we've been. We've said that our first priority in our call on cash is going to be invest in our businesses and to invest in organic growth, and we continue to see really lots of tremendous opportunities to do that.We'll continue to pay a very healthy dividend and buy back shares, and in this environment, as I noted, we'll certainly be much more aggressive in buying back our shares where we think this is a tremendous buying opportunity, and we'll generate a lot of cash over the next several years, and we have the opportunity to deploy that cash in certainly value-creating acquisitions, and there we've said our priorities continue to be in our Electrical business, in our Aerospace business, and also in our new eMobility segment.But having said that, what we've said all along as well, we are not going to lose our pricing discipline, that we have a very structured approach to the way we take a look at deals and those opportunities, and we think our cost of capital is 8% to 9%, and we talk about delivering a minimum of 300 basis points over the cost of capital. And so we intend to remain very disciplined as we take a look at opportunities and how we price them, recognizing that we always have an opportunity to go out and buy our stock back and essentially create tremendous shareholder value. So, we will continue to be disciplined as we have been in the past around the way we think about capital deployment.Jeffrey Todd Sprague - Vertical Research Partners LLCRight. And by the same token, any other thoughts about just the portfolio overall? I think that probably is something you are always discussing internally, or thinking about internally. Do you think the structure, combined structure still makes sense for Eaton here?Craig Arnold - Eaton Corp. PlcYeah, I think in simple terms the answer is yes, we like the structure of the company today, we like the makeup of the company today, but having said that, as we've shared with this group in the past, we are always evaluating and assessing. We have laid out a very specific criteria for what's required to be a part of Eaton and the type of characteristics that businesses need to have and the type of results that they need to deliver, and to the extent that we have businesses that are not measuring up to those requirements, there are specific actions in place to improve.And obviously they are on the clock, and they have to improve within a certain period of time. And if they don't improve, we'll do what we've done in the past, and we've always been willing to divest parts of the portfolio that don't live up to the company's expectation. And I can assure you that we have a very thorough process with our board where we review all of our businesses, including nonperforming businesses on a regular basis, and so I would tell you that we will continue to be smart and diligent in assuring that the things that are part of the company pass the criteria or have a path to it, or we'll take other action.Jeffrey Todd Sprague - Vertical Research Partners LLCRight. Thank you.Donald H. Bullock - Eaton Corp. PlcOur next question comes from Nigel Coe with Wolfe Research.Nigel Coe - Wolfe Research LLCThanks. Good morning.Craig Arnold - Eaton Corp. PlcGood morning, Nigel.Donald H. Bullock - Eaton Corp. PlcHi.Nigel Coe - Wolfe Research LLCYeah, no one told me about the 10 o'clock, I actually dialed in quite early. So just want to dig in a little deeper on the projects pause, I think you called out, specifically within ESS, and I'm just wondering what are you hearing from customers here? Is this more inflation and having to back to the drawing board to reassess project returns? Is it just uncertainty around the macro? Any color there would be helpful. And any end market color in terms of where the project delays are coming from?Craig Arnold - Eaton Corp. PlcYeah, what I see, Nigel, we did see it, as I mentioned, largely in large projects in the month of September, in the Americas primarily, and it was – certainly caught us by a little bit – by surprise as well, but I do think it's just simply the environment that we're in right now which is filled with lots of uncertainty, whether it's geopolitical issues, or it's the elections or it's tariffs, quite surprisingly, we were clocking along just fine and were surprised in the month of September, but we do think that it's a temporary pause, and if you take a look at the macro data, whether it's the C30 data or you take a look at some of the key end markets that we serve, there's nothing that would suggest that the fundamentals are not still very much intact. And so we'll have to see what Q4 brings, but at this point, there's nothing that would suggest that the underlying strength that we anticipated to see in our Electrical Systems &amp; Services business would abate at this point.Nigel Coe - Wolfe Research LLCOkay. That's helpful. And then just on China, obviously there's a lot of push and pull going on in China with – obviously, we're seeing a slowdown in the data, the stimulus measures coming through. Feels like the construction markets are pretty healthy over there. Obviously you play quite strongly into the construction markets, but any comment in terms of what you're seeing in China would be helpful.Craig Arnold - Eaton Corp. PlcYeah, I think, without a doubt we definitely saw a slowdown in China during the course of Q3. Principally, we saw that slowdown in vehicle markets which I think have been largely widely reported and we saw that slowdown as well, although we did deliver solid growth ourself in China in Q3 based upon a number of new wins.And so I do think that as we think about the project business or commercial construction in China, at this point, we think that market continues to be fine. There's nothing that we're seeing in the overall economy that would suggest a significant pullback, although, clearly, there's some uncertainty in the China market as well.I think the tariff impact and the uncertainty that that's creating, I just – I spent about a week in China myself a couple weeks ago, had an opportunity to meet with a lot of our customers and CEOs of local Chinese companies, and they, too, are feeling this period of uncertainty and I do think there's a little bit of a pause taking place in that market, as well, pending our elections and the ultimate resolution of the trade dispute between the U.S. and China.Nigel Coe - Wolfe Research LLCOkay. Thanks, Rick.Donald H. Bullock - Eaton Corp. PlcOur next question comes from Joe Ritchie with Goldman Sachs.Joe Ritchie - Goldman Sachs &amp; Co. LLCThanks. Good morning, everyone.Craig Arnold - Eaton Corp. PlcHi.Joe Ritchie - Goldman Sachs &amp; Co. LLCSo maybe just following up on that question on just the large project pause in North America, I guess I'm just trying to understand, did you guys have a sense that these projects were going to be awarded in September and then the customers decided to pause on the decision? Or was this more of like just a gap in the market from the strength that you'd been seeing in the most previous quarters?Richard H. Fearon - Eaton Corp. PlcJoe, I'll take that one. It really was the former. We had expected contracts to be signed by the end of September and due to the uncertainties that Craig talked about, there are various customers that delayed committing to projects. We think it's temporary. These are projects that are quite far along, so it's not likely that they won't go forward, but it seemed to be that phenomenon, really, just in the last two weeks of September.Craig Arnold - Eaton Corp. PlcAnd I'd say that that position is really buttressed a little bit by the fact that if you take a look at our backlog in both our Electrical Systems &amp; Services business, as well as in our Electrical Products business, the both of them were up quite strongly in the quarter, up 12% in Electrical Systems &amp; Services and up 16% in Electrical Products. And so I think that that thesis is really borne out by the increase in our backlog.Joe Ritchie - Goldman Sachs &amp; Co. LLCGot it. That's helpful. And perhaps my follow-on question, Craig, you mentioned earlier just initial thoughts into 2019 on the contribution margin of 25% to 30%, so that includes the tariff related impact. I'm just wondering, how much are you anticipating to get back of the $110 million in tariffs? And then, also, if you think about just like cadence from a pricing perspective, like how are you guys thinking about that as you progress through 2019?Craig Arnold - Eaton Corp. PlcYeah, I'd say that – once again, appreciate the question. The 25% to 30% does include the impact of tariffs and while we fully expect to recover all $110 million of the tariff related cost increases, what's obviously problematic is trying to get an incremental on top of a tariff.And so the incrementals that we're talking about for 2019 are somewhat muted as a result of what we think will be an inability to get an incremental margin on a tariff related cost increase, but we certainly expect to fully recover those costs and we expect to be out in front of it and ensure that as we go through the quarter, that the tariff related cost increases are not a headwind to margins.Joe Ritchie - Goldman Sachs &amp; Co. LLCUnderstood. Thank you.Donald H. Bullock - Eaton Corp. PlcThe next question comes from Jeff Hammond with KeyBanc.Jeffrey D. Hammond - KeyBanc Capital Markets, Inc.Hey, good morning, guys.Craig Arnold - Eaton Corp. PlcHi.Jeffrey D. Hammond - KeyBanc Capital Markets, Inc.Hey. So just a couple questions here, truck, big revision here. Is that being driven by the supply chain improving there, any kind of color?Craig Arnold - Eaton Corp. PlcYeah, I'd say, one, Jeff, absolutely. There were some supply chain constraints that we experienced early in the year and there was some concern that we and others had about the industry's ability to actually deliver against the underlying demand that was in the marketplace. And certainly, those constraints have been largely eliminated during the course of the year. And so that's certainly part of what drove us to revise our forecast up, as well as the market has just continued to be very robust. And I'd say the really good news even about some of the order intake that we continue to see in the North America Class 8 market, is that in all likelihood, all of these orders are not going to be delivered during the course of 2018 and they'll spill off into 2019. And so we think 2019 will be another growth year for North America Class 8 on top of a very strong year in 2018.Jeffrey D. Hammond - KeyBanc Capital Markets, Inc.Okay. Great. And then data center, I think you cited as been strong, certainly it's been red hot in 2018. If you just look at backlog and quoting activity, what does that suggest for that data center market into 2019?Richard H. Fearon - Eaton Corp. PlcYeah, right now we enter, we will enter 2019 with a pretty decent backlog and certainly there are continued discussions for some large orders next year. So we would expect 2019 would be another robust year. Right now it's a little bit hard to say will it be as robust as 2018, 2018 after all did step up dramatically, but it should be another strong year.Jeffrey D. Hammond - KeyBanc Capital Markets, Inc.Okay. Thanks, guys.Donald H. Bullock - Eaton Corp. PlcOur next question comes from Nicole DeBlase with Deutsche Bank.Nicole DeBlase - Deutsche Bank Securities, Inc.Yeah, thanks. Good morning, guys.Craig Arnold - Eaton Corp. PlcGood morning, Nicole.Richard H. Fearon - Eaton Corp. PlcHi.Nicole DeBlase - Deutsche Bank Securities, Inc.Hi. So just I don't want to harp too much on this ESS order issue but just had one more point to clarify. I guess when you think about the customer conversations that you're having and the fact that they're kind of pushing out signing contracts, is there any visibility at all on how long they're pushing out? Like is this oh, we'll delay until 4Q because we want to get this into our CapEx year? Or are these contracts more likely to be signed in 2019 once we get past this next stage of tariffs?Craig Arnold - Eaton Corp. PlcYeah, I think it's really difficult to say precisely, Nicole, how much of a delay we're talking about, but with these projects in general you can't delay them for that long, right? I mean, as they're tied to other underlying requirements for facilities and buildings. And so we don't anticipate that this is going to be a long delay and we would hope to see in the course of this year in the fourth quarter and certainly by time we get to Q1, that this thing rights itself.Nicole DeBlase - Deutsche Bank Securities, Inc.Okay. That's helpful. Thanks, Craig. And then second question just around Hydraulics margins, you guys had to take down guidance again. I guess what's going on there? Maybe a little bit more color and is this just a structurally less profitable business than you thought? Or is this just really attributed to price cost and other issues that are more transitory? And I guess, does Hydraulics have a place in Eaton's portfolio given what we've seen with the margin performance year-to-date?Craig Arnold - Eaton Corp. PlcSure. First of all, I'd say we too are disappointed in the fact that we've got to take margins down again in Hydraulics, but I'd say the underlying margin issue in Hydraulics is largely a function of supply chain and operational inefficiencies that we're experiencing throughout the system. They're not structural, they're absolutely fixable but we have continued to struggle with the ability to work through supply chain, we're spending a lot more than we anticipated in premium freight and expedite and overtime as the industry has ramped up and our ability, and quite frankly our suppliers' ability to deal with this ramp in orders and sales.And so I'd say structurally speaking, nothing has changed, but having said that, as I've said with all of our businesses, Hydraulics is on the clock. And there are certain things that we have to do to demonstrate that the Hydraulics business can be a consistent performer in the company in terms of underlying margins and underlying growth rate and reduced cyclicality. And so all of the criteria that we've laid out for every part of the company also applies to Hydraulics and they have some work to do to demonstrate that we can create the kind of business that we want to own long ter</t>
+  </si>
+  <si>
+    <t>PepsiCo Inc. (NASDAQ:PEP) Q3 2018 Results Earnings Conference Call October  2, 2018  7:45 AM ETExecutivesJamie Caulfield - Senior Vice President, Investor RelationsIndra Nooyi - Chairman and Chief Executive OfficerHugh Johnston - Chief Financial OfficerAnalystsDara Mohsenian - Morgan StanleyKevin Grundy - JefferiesBryan Spillane - Bank of America/Merrill LynchAli Dibadj - BernsteinJudy Hong - Goldman SachsLauren Lieberman - BarclaysBonnie Herzog - Wells FargoCaroline Levy - MacquarieAndrea Teixeira - JPMorganSteve Powers - Deutsche BankVivien Azer - CowenAmit Sharma - BMO Capital MarketsPablo Zuanic - SIGRobert Ottenstein - Evercore ISILaurent Grandet - GuggenheimOperatorGood morning and welcome to PepsiCo’s Third Quarter 2018 Earnings Conference Call. Your lines have been placed on listen-only until the question-and-answer session. [Operator Instructions] Today’s call is being recorded and will be archived at www.pepsico.com.It is now my pleasure to introduce Mr. Jamie Caulfield, Senior Vice President of Investor Relations. Mr. Caulfield, you may begin.Jamie CaulfieldThank you, operator. With me today are Indra Nooyi, PepsiCo’s Chairman and CEO and Hugh Johnston, PepsiCo’s CFO. We'll lead off today’s call with a review of our third quarter performance and full year 2018 outlook and then we'll move on to Q&amp;A.Before we begin, please take note of our cautionary statement. This conference call includes forward-looking statements, including statements regarding 2018 guidance based on currently available information.Forward-looking statements inherently involve risks and uncertainties that could cause our actual results to differ materially from those predicted. Statements made on this conference call should be considered together with cautionary statements and other information contained in today’s earnings release and in our most recent periodic reports filed with the SEC.When discussing our financial results on today’s call, we will refer to certain non-GAAP measures, which exclude certain items, such as the impact of the U.S. Tax Cuts and Jobs Act and other tax related items, foreign exchange translation and acquisitions, divestitures, structural and other changes from our reported results. You should refer to the Glossary and other attachments to this morning’s earnings release and to the Investors section of PepsiCo’s website under the Events and Presentations tab to find full explanations and reconciliations of these non-GAAP measures.Now, it’s my pleasure to introduce Indra Nooyi.Indra NooyiThank you, Jamie and good morning everyone. Thank you all for joining us. As most of you know, we announced in August that I'm stepping down as CEO of PepsiCo after 12 years in the role effective tomorrow. And so today will be my final conference call with you. Actually my 75th and final, if you also include the calls I've participated in as CFO.After we complete the primary business at hand, reviewing the results and outlook and taking your questions. I'd like to ask for your patience and allow me to make a few concluding remarks at the end of the call.So, moving on to business; for the quarter we generated $16.5 billion of net revenue driven by 4.9% organic revenue growth and delivered core earnings per share of $1.59, a 9% increase on a core constant currency basis. Overall, we are pleased with our operating and financial performance in the quarter.The organic revenue growth represents another quarter of sequential acceleration and the highest rate of organic revenue growth in 12 quarters. The majority of our businesses again perform well, but particularly strong performances by our international sectors and solid performance by Frito-Lay in North America.And while North American beverages profit performance was impacted by inflation and a double-digit increase in advertising expense, the sector posted 2.5% organic revenue growth with a good balance between volume growth and net price realization.Frito-Lay North America delivered balanced volume growth and net price realization driving by strong innovation and brand marketing. For example, in June we launched Stacy's Cheese Petites inspired by French Cheese Puff, these bite-sized cheese snacks have real cheese baked inside creating a sophisticated snacking experience.In fact cheese is the primary ingredient. Petites are a good source of calcium and have six grams of protein per serving, and they come in a resealable pouch making them great for a convenient on-the-go experience.Over the summer, Doritos and Mountain Dew partnered on our Worlds Collide program to appeal to our Gen Z consumers who thrive on accelerating experiences. The program highlighted the brands recent innovations, Doritos Blaze and Dew Ice and rewarded consumers to purchase both products with merchandise and experiences.The eight-week media campaigns supporting the program span social media channels that are also featured on Pandora to reach our consumers' distinctive music. Tostitos' growth was fueled by new products such as Roasted Red Pepper and Black Bean and Garlic.To support the product launches we created the program to drive trial during the summer get-togethers. Our Buy, Ride, Get Together already program allowed consumers to scan a code of specially marked bags to redeem a $5 lift credit making it even easier for our consumers to get safety to and from summer parties. And Cheetos benefited from the launch of Cheetos Flaming Hot Chipotle Ranch earlier this year, appealing to consumers growing desire for intense flavors.Cheetos further benefited from our Cheetos Museum Win What You See campaign, with our first-ever Cheetos promotion supported by TV commercials directing consumers to winwhatyousee.com where we invited our fans to find and submit unique Cheetos shapes to have a chance to win what they see. We garnered more than 80,000 submissions and the program is now been localized and rolled across seven additional countries and counting.Turning to North American beverages, while the marketplace remains highly competitive, we are encouraged by improving overall category growth trends and a generally rational pricing environment.We had another quarter of sequential organic revenue performance and improvement. Organic revenue growth of 2.5% is the best you've seen in NAB in eight quarters and was driven by retail sales growth in Starbucks ready-to-drink coffee, Lipton ready-to-drink tea, Gatorade, our water portfolio, Pepsi and Mountain Dew.Certainly strong innovation across the portfolio is contributing to the improving performance. For example, LIFEWTR continues its journey advancing and showcasing sources of creativity with the launch of our Series 6 Bottle themed diversity and design.LIFEWTR achieved more than $150 million in measured retail sales in 2017 which was its introductory year. And is on pace to achieve more $200 million in measured retail sales in 2018.Bubly, a new flavored sparkling water where there's no artificial flavors, colors or calories which we launched in February of this year continues to perform exceeding well and has projected to exceed a $100 million in measured retail sales in this first year.Mountain Dew's performance is benefiting from the launch of Mountain Dev Ice, another launch which should surpass a $100 million of retail in its first year from launch, and from the return of Mountain Dew Baja Blast as our summer limited time offering.And in June, we launched Gatorade Zero. With zero sugar and all the electrolytes of Gatorade Thirst Quencher, Gatorade Zero is providing hydration options for more athletes in more occasions and is off to a strong start.And we believe our stepped-up advertising and marketing, particularly on trademarks Pepsi and Mountain Dew, are also starting to contribute to improve performance as we saw sequential net revenue accelerations in both trademarks in the third quarter.Commodity inflation, operating cost inflation particularly in transportation cost, product mix and stepped-up advertising expense each pressured our profit performance in the quarter. However, we expect that our recently implemented pricing actions will improve profit performance in the coming quarters.At Quaker Foods North America, our hot cereal business posted its fifth consecutive quarter of market share gains supported by our marketing campaigns highlighting the functional benefits of oatmeal and innovation like Simple and Wholesome Organic Hot Cereal, a Multigrain Hot Cereal with no artificial colors or preservatives.In addition, Quaker light snacks gains market share with high singe digit retail sales growth. In our Aunt Jemima pancake business, grew retail sales for the eighth consecutive quarter.And to close out our conversation in North America, we are pleased to report that in the third quarter PepsiCo was the largest contributor to food and beverage growth at retail in the United States.Turning to our sectors outside of North America, we are extremely pleased with the 10% organic revenue growth we saw in our developing and emerging market as a group, which is the continuation of the strength and experience across many of these markets in the first half.Strong marketplace execution led to continued solid growth across many of our key international markets. Within Latin America organic revenue grew 10% driven by high single digit growth in Mexico and double-digit growth in Argentina, Brazil and Colombia.The LatAm team is doing an excellent job, building our business and growing our market share in key countries in the region. In our Europe sub-Saharan Africa sector, Russia and South Africa each grew organic revenue high single-digit, while Turkey and Poland had double-digit organic revenue growth. Even within the developed markets of Europe, we saw mid single-digit organic revenue growth in the UK and France. Again, continued good performance from this team.And in AMENA, we had strong double-digit organic revenue growth in China, Saudi Arabia, India and Egypt, and high single-digit organic revenue growth in Australia. Excellent results from our AMENA team. This strong top line performance translated into impressive bottom line results with core constant currency operating profit up 12% in our international divisions as a group.The international results reflect our initiatives to continue to expand distribution of our big global brand and to innovate in locally relevant ways. For example, we continue to drive international growth of our zero sugar Pepsi Black and Pepsi Max trademarks with introductions of lime and cherry flavors across Easter Europe, lime in the Nordics, and lime and vanilla flavors in the Philippines.We are driving growth in Doritos internationally, whether through expansion to new markets like China where the brand just celebrated its first anniversary since launch, to innovation in existing markets like India, where we launched Doritos Heat Wave.And the Quaker's trademark continues its global expansion. From the launch of Quaker's super food in Mexico, to our launches of Quaker Kids and Quaker multigrain instant oatmeal platforms in China.Finally, during the quarter we reach an agreement to acquire SodaStream. As we said on the day of the initial announcement, we believe PepsiCo and SodaStream are an inspired match.Daniel Birnbaum and the rest of the SodaSteam team have built an extraordinary company that is offering consumers the ability to make great tasting beverages while reducing the amount of waste generated.That focus is well aligned with performance with Purpose, our philosophy of making more nutritious products while limiting our environmental footprint. Together, we can advance our shared vision of a healthier, more sustainable planet. SodaStream will also add to our growing water portfolio while accelerating our ability to offer personalized in-home beverage solutions around the world.From breakthrough innovations like Drinkfinity to beverage dispensers like Spire for foodservice and Aquafina water stations for colleges and universities. We are finding new ways to reach consumers beyond the bottle and the SodaStream is fully in line with that strategy.As we previously announced the acquisition was unanimously approved by the boards of both companies. The transaction is subject to a SodaStream shareholder vote, certain regulatory approvals and other customary conditions and consummation of the transaction is expected by January of 2019.Net, we are encouraged by the momentum we are seeing across many of our international markets. In North America, Frito-Lay continues to perform well, North American beverages is making steady improvement, and our recently implemented pricing actions will help improve profit performance in North America. And finally, we are excited about the new opportunities that the pending SodaStream acquisition represents.With that, let me turn it over to Hugh Johnston.Hugh JohnstonThank you, Indra and good morning everyone. I'll jut provide a quick update on the outlook and then we'll move to your questions. After considering our year to-date performance and other factors we've updated our guidance for 2018.Specifically, we now expect at least 3% organic revenue growth for the full year. We now expect our core effective tax rate to be between 19% and 20%. We continue to expect core constant currency EPS growth of 9%.However, we now expect core earnings per share in U.S. dollar terms of $5.65, which reflects a one-point headwind from foreign exchange translation based on current market consensus rates due to the recent strengthening of the U.S. dollar. This is an 8% increase compared to 2017 core earnings per share of $5.23.We continue to expect strong cash flow and to exercise disciplined capital allocation with prudent reinvestment into the business. For 2018 we continue to expect free cash flow of approximately $6 billion which includes approximately $9 billion in cash flow from operations, including a $1.4 billion discretionary pension contribution made in the first quarter. And we now expect net capital spending of approximately $3.3 billion.We continue to expect to return approximately $7 billion to shareholders in 2018 with cash dividends of approximately $5 billion reflecting a 15% increase in the annualized dividend per share that began with the June payment and share repurchases of approximately $2 billion.Finally, as you update your models, I'd like to highlight the following items to consider for the fourth quarter. Frito-Lay North America is lapping 5% organic revenue growth from the fourth quarter of 2017.We expect operating profit to decline in our AMENA division as we lap strong results and a refranchising gain in Jordan from the fourth quarter of 2017. We expect the previously announced refranchising of our Czech Republic, Hungary and Slovakia business operations to benefit ESSA operating profit in the fourth quarter.And finally based on market consensus forecast, we expect foreign exchange translation to negatively impact both net revenue and operating profit by approximately three percentage points in the fourth quarter.With that, operator, we are ready to take the first question.Question-and-Answer SessionOperatorThank you. [Operator Instructions] Our first question comes from the line of Dara Mohsenian of Morgan Stanley.Indra NooyiGood morning, Dara.Dara MohsenianHey, good morning. Congratulations Indra, on an illustrious career of Pepsi and best wishes for you in the future.Indra NooyiThank you.Dara MohsenianSo, the quarter itself clearly saw a large acceleration of the organic sales in emerging and developing markets that's in contrast to some of the fears out there over slowing macro. So, I was just hoping you could give us some more detail there on what drove the sequential improvement? Do you think it's more category growth accelerating or Pepsi market share picking up, maybe some of the key countries behind that. And then most importantly, just are those drivers sustainable as you look going forward beyond Q3 as you think about the strength in the business in the quarter?Indra NooyiHugh.Hugh JohnstonYes. So from an international perspective, I think we saw remarkably broad-based results. The list of countries that had a strong quarter is probably too long to enumerate on the call. We'll use up our entire time doing that. Maybe most notably I think if we saw a strong volume growth both in snacks and in beverages. Snacks were somewhere between 4% and 5% volume growth, beverages between 3% and 4%. And I think it really does sort of demonstrate that both the power of the portfolio and then in addition to that the relatively broad-based strength of economic performance around the world.So, I think we do expect international to continue to perform very well. I think the portfolio was sturdy and well insulated. Look, at any given time as countries are disrupted, we always have some exposure to those disruptions. But by and large I think we have a remarkably powerful international business.Indra NooyiAnd our execution also picked up quite a bit.Hugh JohnstonYes, absolutely.OperatorYour next question comes from the line of Kevin Grundy of Jefferies.Indra NooyiGood morning, Kevin.Kevin GrundyGood morning, Indra. And I want to extend my congratulations as well. Can we start on the North American beverage business? Results improving. So congratulations on that. But coming at costs when we look at the margin pressure year-over-year and understanding the freight and commodities are playing apart, but you're also picking up your advertising and marketing spending. So maybe you could touch on the ROI on the spent if you're satisfied at this point?And then two, maybe touch on the necessity to maintain higher levels here into Q4 and even next year particularly behind CSDs and sports drinks as we look at the some of the market share trends we see in the Nielsen data in order to maintain this level of growth? Thank you.Hugh JohnstonHey Kevin, it's Hugh Johnston. Couple of things on that. You're right. The P&amp;L was negatively impacted by two things. Number one was cost pressure both transport cost and aluminum were up. Number two, it was the increased in advertising and marketing spend across a number of our businesses. Maybe just we'll step back a little bit in terms of the way that we think about advertising and spending levels. Our intention generally speaking is to be competitive on advertising and spending levels, but not to accelerate beyond competition.Our goal is to win based on the quality of our advertising and the execution that follows that advertising rather than that the level itself. So I think we will maintain levels of spending that are competitive, but not beyond competitive. Regarding the input cost inflation whether it's transport or whether it's aluminum, our history is always been to price through inflation in our developed markets. We'll look to do that here. We did that post Q3. It's fairly unusual to take pricing in the middle of the summer. So despite the fact that we felt some of that pressure in the summer, we didn't take pricing until September. I think you'll see the profit picture improve in Q4 as a result of that pricing.OperatorYour next question comes from the line of Bryan Spillane of Bank of America/Merrill Lynch.Bryan SpillaneHey, good morning everyone, and Indra, really just want to wish you the best going forward. It's been a pleasure the last 20 years covering you.Indra NooyiThank you. Thank you very much.Bryan SpillaneI guess the bigger question I would have is just -- you're looking at the business today in this year, right? We've seen some an increase in investment for advertising and marketing. We've also seen SodaStream as a relative to some the acquisitions you've done in the past a little bit bigger, which Soda suggests that there's just more of a need to sort of invest to continue to drive the top line.So I [Indiscernible] yes, Indra, if you could if you could just sort of address this. We are at a point now where there is just a need to spend more whether it's operating expense or M&amp;A to sort of drive the top line or was this year sort of more of an anomaly?Hugh JohnstonHey, Bryan, it's Hugh. Those are too fairly points, so let me address them separately. In terms of capital allocation broadly no change in policy here. We talked about $500 million here in tuck-ins that continues to be our stated policy. SodaStream in a lot of ways is a unique asset in that it gets into a completely different market that we really weren’t touching at all, which are consumers who preferred to prepare beverages at home, whether they be just sparkling water, whether they be flavored beverages. So I would view [Indiscernible] to increase in advertising and marketing in the beverage business as anything more than a response to competitive increase and that’s a competitive increase that remains to be seen as to where it goes in the future. I think our expectation as we said before is we want to compete on execution, we want to compete on the quality of innovation that we want to compete on the quality of our marketing and we think we are well positioned to do that particularly whether integrated system.OperatorYour next question comes from the line of Ali Dibadj of Bernstein.Ali DibadjHey guys, first Indra very start -- if you go, you’ve really transformed the company and frankly the whole industry, so we feel very good about that, so would love to hear what made you decide to go after 12 great years and maybe that will be in the closing remarks but would love to hear that at or now or later. And then more specifically about the quarter, clearly the topline has been very good, the margins have seen little bit of pressure and we understand about the advertising increases as well as some of the commodity and other costs that are in there, but historically you’ve been able to insulate a lot of that through the $1billion or year of cost savings plan that we’ve seen here, where do you think you are on that, are you towards the end of that and that’s why we are seeing a little more pressure on the margins or do you think that has led to continue for many more years and to insulate you guys from what we are seeing from this quarter and most recent quarters on margin pressure? Thanks.Hugh JohnstonAli, well I’ll handle your second question first. In terms of productivity going forward, the bucket which we drive productivity, we call operating expenses about $28 billion bucket. It’s got a natural rate of inflation of about 3% to 4% partly because the bucket is more tilted internationally where inflation rates are higher. So I do think we’ve got years and years of productivity to come into the future. I’m not here to announce a specific new program right now beyond what we’ve announced, but I do think we have lots of opportunity out there for further productivity.Regarding your question on whether we can continue to drive growth through the P&amp;L funded by productivity. I think broadly the answer to that is yes, in a lot of ways I think that the third quarter was reflective of the timing of our pricing decisions where we decided to take those post Q3 rather than during the quarter which obviously pressured margins a little bit, and it was also reflective of continued investments that we are making in top line growth initiatives, whether it’s advertising and marketing which was up about 6% in the quarter, R&amp;D spending was up about 22% in the quarter, e-commerce spending was roughly double in the quarter.So I think in many ways what you saw was a timing issue in terms of the timing of commodity increases versus the pricing increase and continued investment in the business while delivering the short-term performance that frankly in many ways has been emblematic [ph] of interest entire 12 years in running the company or posture in doing so over the last 20 or more years with the company.Indra NooyiAli and I’ll answer your first question in my closing comments for sure.OperatorYour next question comes from the line of Judy Hong of Goldman Sachs.Judy HongThank you, good morning and congratulations Indra and best wishes from me as well. So I guess first on the guidance used so the FX [ph] obviously came down by about a percent, the core EPS didn’t change, the revenue went up, the tax rate came down so maybe there’s a little bit of additional pressure kind of between those lines, so maybe a little bit color there. And then just follow up on NAV pricing, so Q3, post Q3 the price increase, can you just give us a little bit color just the magnitude of the price increases and the category that you have announced the price increases and where you think the elasticity might be in terms of the pricing impact? Thanks.Hugh JohnstonYes, so in terms of the – the point that you made regarding the P&amp;L. We’ve said all along to the degree that we have upsides from tax and things like that we intend to deliver our guidance and invest back in the business. You just heard me articulate a few of the areas that we’ve been investing in. Regarding pricing in the market place what we said broadly is the pricing will be somewhere in the low to mid single digits and that pricing is basically in right now in the beverage business.OperatorYour next question comes from the line of Lauren Lieberman of BarclaysIndra NooyiGood morning, Lauren.Lauren LiebermanGood morning, thank you. Indra, I was hoping to just take this opportunity to ask you kind of as you look forward and you think about what are the biggest opportunity do you think that are still ahead for PepsiCo what do think some of the biggest challenges are and into the loss that has been built under your watch to continue development for example of DST in the U.S. and that we’ve got this dramatic changes in retail. So if you could just give us some thoughts on kind of opportunities but then also some of the challenges and adjustments that might need to be made in the business model going forward as you set to your retirements in the company? Thanks.Indra NooyiThanks, Lauren. And I think PepsiCo has the scale and scope to remain one of the most successful food and beverage companies well into the future. I think over the years we’ve assembled the portfolio that is very synergistic, has tremendous growth potential and more importantly we’ve built out a geographic footprint which is quite impressive.Going forward, I think there’s still tremendous amount of growth available in emerging markets. I think there’s growth available and re-thinking some of our businesses as platforms rather than just products. For example, we still haven’t fully exploited how snacks can be mini meals and what we can do with the combination of our snacks and dips [ph] and that’s something our teams are looking at very seriously. How do we look at sports beverages more as holistic sports nutrition on a sports field platform and our teams are looking at that? And so our growth prospects whether it’s a development markets or the developing markets and emerging markets is actually what we imagine it to be, not necessarily what the reported numbers are, so that’s the first topline opportunity.I think the wonderful thing about PepsiCo is that we reinvent ourselves constantly, whether it’s rethinking innovation and top line new capabilities we need to invest behind, or if its re-thinking the cost structure. As I’ve said to many of you I think there’s lot of technology driven disruptions that are coming down the pie that are going to force us to rethink many many parts of our cost structure, but we started that work several years ago and I think over the next year or so you will start seeing a lot of these taking root, and how we implement these in the company and reshape our cost structure for the new realities is really going to separate the great companies from the not so great companies and I’m confident PepsiCo is among the great companies and we will re-shape our cost structure using technology as a big driver and I think will also use data analytics and insights to think about innovation a whole lot differently.So I feel good about where we are. We have made a lot of investments, the trick now is to keep investing in the company judiciously so that we deliver a good balance of short term results and make investments to keep this engine going into the future.OperatorYour next question comes from the line of Bonnie Herzog of Wells Fargo.Indra NooyiGood morning, Bonnie.Bonnie HerzogGood morning and congratulations to Hugh and Indra, we all wish you really the very best in the future. And I had a quick question on your guidance. Your outlook for organic sales is now slightly higher for the year, but it implies a sequential deceleration in Q4, so could you guys first reconcile that for us and then whether you are being conservative or is there something else going on and then I was also hoping to hear an update on your current thinking on the strategic options you are exploring for your beverage business in North America, guess I’m wondering if you guys have made any more progress and you know determining the right path for this business and really what your latest thoughts are on potential benefits of refranchising? Thanks.Hugh JohnstonYes, happy to jump in on that. Number one, I would remind you that the Q4 lap on revenue is more difficult that Q3 was so while the guidance does imply a sequential slowdown in Q4 some of our thinking is driven by that. And frankly the guidance we’ve laid out there is at least 3%, so we’ll see how the quarter comes. And regarding North America beverage and refranchising nothing new to report on that. We’ve said we look at it as we always do, the one thing that I would say generally is we do think the integrated system does make us more innovative, it does make us faster to respond to customer needs and it does make us more cost competitive. So those are the hurdles that we have to overcome if we were to see some benefit to refranchising in the future.OperatorYour next question comes from the line of Caroline Levy of Macquarie.Caroline LevyGood morning and – and hi Indra congratulations and really can’t wait to see what you are up to next, and you’ve been a great role model for many women, so congratulations. I just – my question is on Frito North America where the margin growth hasn’t been as robust this year as it has historically and I’m wondering how you are thinking about the fourth quarter which has a very difficult lap. I know you had some one-time payments in the first quarter on bonuses, but as Frito has always been such a great driver of growth for the total company Frito, North America is there a point at which the margin expansion story thinking longer term maybe needs to slow as you invest in new opportunities?Hugh JohnstonHey Caroline, it’s Hugh. I think the answer to your question is no, because we think that, that business is so strong in its ability to leverage new ideas and new technology and to scale them relatively quickly to provide increased margin overtime. In terms of the short term numbers that you are speaking to, what are the factors affecting Frito-Lay this year is transport cost. Now transport in Frito was more heavily internal relative to beverages which uses more common carriers. So beverages has been more exposed to the driver shortage and the impact in terms of transport cost, but Frito-Lay is not immune to that it does use some common carrier and there is some wage inflation and the driver pool is well up. One of the things you will see Frito-Lay do is take some pricing in the fourth quarter particularly in single served which I think will mitigate the impact of the inflation and you will see their margin performance return to a more normal, a more normal margin improvement.OperatorYour next question comes from the line of Andrea Teixeira of JPMorgan.Andrea TeixeiraHi, thank you and Indra thank you for making history and best wishes for you and Ramon as well.Indra NooyiThank you.Andrea TeixeiraThank you. My question is related to NAB, why are we encouraged to see the volumes return to positive, but the trends continue to decelerate on a two-year stag, so how should we think about volume performance on a sequential basis as you move through the fourth quarter, I’m assuming that you are going to have some of the results of your increased investments and also execution that strayed? Thank you.Hugh JohnstonYes, Andrea, I’m not going to – I don’t want to get into guidance on a division specific perspective and on a division specific quarterly perspective particularly not. I would view it as the business is both improving but it’s improving in a broad based way. So w</t>
+  </si>
+  <si>
+    <t>The Kraft Heinz Co. (NASDAQ:KHC) Q3 2018 Earnings Call November  1, 2018  5:00 PM ETExecutivesChristopher M. Jakubik - The Kraft Heinz Co.Bernardo Vieira Hees - The Kraft Heinz Co.David H. Knopf - The Kraft Heinz Co.Paulo Luiz Araújo Basílio - The Kraft Heinz Co.AnalystsKenneth B. Goldman - JPMorgan Securities LLCBryan D. Spillane - Bank of America Merrill LynchSteven Strycula - UBS Securities LLCDara W. Mohsenian - Morgan Stanley &amp; Co. LLCAndrew Lazar - Barclays Capital, Inc.David Palmer - RBC Capital Markets LLCChristopher R. Growe - Stifel, Nicolaus &amp; Co., Inc.Akshay Jagdale - Jefferies LLCJason English - Goldman Sachs &amp; Co. LLCRobert Moskow - Credit Suisse Securities (NYSE:USA) LLCDavid Cristopher Driscoll - Citigroup Global Markets, Inc.OperatorGood day. My name is Latif, and I will be your operator today. At this time, I would like to welcome everyone to The Kraft Heinz Company's Third Quarter 2018 Earnings Conference Call.I will now turn the call over to Chris Jakubik, Head of Global Investor Relations. Mr. Jakubik, you may begin.Christopher M. Jakubik - The Kraft Heinz Co.Hello, everyone, and thanks for joining our business update. We'll start today's call with an overview of our third quarter and nine months results as well as our view on the path forward from Bernardo Hees, our CEO; and David Knopf, our Chief Financial Officer. Then, Paulo Basilio, President of our U.S. Zone, will join the rest of us for the Q&amp;A session.Please note that during our remarks today, we will make some forward-looking statements that are based on how we see things today. Actual results may differ materially due to risks and uncertainties, and these are discussed in our press release and our filings with the SEC. We'll also discuss some non-GAAP financial measures during the call today. These non-GAAP financial measures should not be considered a replacement for and should be read together with GAAP results. And you can find the GAAP to non-GAAP reconciliations within our earnings release and at the end of the slide presentation available on our website.Now let's turn to slide 2, and I'll hand it over to Bernardo.Bernardo Vieira Hees - The Kraft Heinz Co.Thank you, Chris, and good afternoon, everyone. Three months ago, we said that we expected organic growth from Q3 onwards, driven by a stronger more incremental marketing and innovation pipeline, leveraging investments in category management and go-to-market capabilities and supported by incremental merchandising spend and best-in-class customer service.Today, we believe and are confident our Q3 results show that the turnaround of our top line performance is firmly underway, not just in terms of headline organic growth, but also real volume growth.The transitory factors that negatively impacted first half sales are fading as expected and we saw further improvement in consumption trends in most countries, in most key categories. In fact on a global basis, more than half of our categories saw consumption growth in Q3.In our categories in United States, are going to a trend bend, with aggregate consumption across our categories, improving nearly 2 percentage points in Q3 versus Q2. Excluding planters club entity, they are flipping from negative to positive.Our market shares are also improving. Across the total company, Kraft Heinz is holding or growing share in more than half of our categories, including very strong market share gains in our Rest of World markets.And finally, we continue to see solid performance in non-measured channels, including e-commerce and global foodservice. Breakthrough innovation and strong in-store activity, distribution gains and whitespace expansion are coming together.Overall, while we did provide solid end market support for these activities and pricing in Q3 was down versus the prior year, it's important to note that our commercial growth is positive.Commercial profitability or the profit contribution from price, volume and mix is positive and growing. Execution is improving, and our pipeline is getting stronger, both in terms of innovation and go-to-market initiatives.At the same time, third quarter profitability was held back by several one-off factors, including commercial investments, the unfavorable impacts of bonus accrual versus 2017 and supply chain inflation as we expected, but also, by our decision to prioritize customer service as you saw volumes ramp-up and for goals, some degree of profitability in the short term.In the end, we are confident pushing commercial growth higher, given the greater visibility we have on both retailer support and consumer interest in our programming as well as below-the-line for favorability from both tax and lower-than-expected interest expenses that we see coming through.And as David will discuss, we are equally confident that profitability will improve going forward, as one-off negative factors from Q3 fall away. But before I hand it over to David, I think it's important to recognize that the commercial growth you're now seeing, and I believe that are in the path to sustainable, profitable growth, and driven by the fact that we are adapting the company with speed. And doing these two investments in both, our people and in-house capabilities.On the slide 3, we show this fixed goals from the post integration framework, we introduced early this year. During the third quarter, we continued to make good progress in each one of those areas. More important, the different investments and in-house capability we have built are now coming together for measurable, sustainable gains and making our brands more relevant than ever.For instance, look at our efforts in data driven marketing and brand building and innovation, we can see in United States that our ratio of quality impression to total impression is at 75%, significantly outpacing the industry average, (6:52) impression, I expect it to be up 9% in 2018 versus the prior year.And year-to-date, we have had $14.5 billion PR impressions versus $13.5 billion of all of 2017, all good numbers, but more powerful when you consider how these two areas come together to drive incremental gains.For instance, again in the United States, our PR campaigns to generate awareness for the launch of Heinz Mayo, not only lead to strong share gains in Mayo, but gave birth to a new product, Heinz Mayochup, which just landed of the shelves of American retailers and we will be going to the UK next.This summer, Country Time rally people to save lemonade stands contributing to the strong gains we're seeing in our beverage mix business. And now our renovate all natural Capri Sun line up is taking ongoing in-school cafeterias through the #SitTogether pledge.The data driven insights and in-house capability that drive these results are scalable and sharable across all categories and geographies. I mentioned on last call that you felt, that you had the strongest pipeline of activities in place. In our short history at Kraft Heinz and the numbers are starting to prove it.In a similar fashion, our efforts to reinvent category management by deploying tools like revenue management, assortment management and planograms are supporting and informing everything we do, as we expand go-to-market capabilities around the world. For instance, we have more than doubled our in-store head count in United States, now fully trained Kraft Heinz employees armed with insights from our category management tools are helping to drive faster product velocity.In areas, where we have greater in-store coverage we are seeing better performance in our key power windows, lower rates of out-of-stock merchandising and brand activation to display and shelving initiatives. This will help us push our total dollar velocities ahead of category average. And in both meals and sauces, our combination of powerhouse brands and optimize category management activities is driving dollar velocities 40% and 28% above their respective category average.And we have been able to push strong incremental gains with innovation like Just Crack an Egg, which in the third quarter had velocities that outperformed its entire category. The old (10:07) United States retail in foodservice, you are seeing the benefits from assortment management, as we look to expand distribution and drive incremental gains in each region of the world, while reducing complexity in our supply chain.And in the digital space, our year-to-date e-commerce sales in United States are up roughly 80%. We are capturing our fair share. And in many focused categories like snacks, nuts and condiments, we're significantly ahead of our fair share.That being said, we still see a long runway for global growth. The ability to further leverage our data-driven insight and category management knowledge and we're investing aggressively in the next generation of capabilities.These initiatives include deploying the next-generation of our Kraft recipes website, a cornerstone of our relationship marketing effort; building easy-to-use mobile technologies that learns about you and your family; recommends meal plans; and seamlessly connects you to grocers; and establishing a venture capital fund that can invest up to $100 million in emerging tech companies to further strengthen our business model.From a capability building perspective, these initiatives can improve our ability to engage consumers in an environment characterized by expanding retail channels and fast-changing shopping patterns.Finally, what make all of this come together is our effort to build best-in-class operations, as well as recruit, develop and align our people. In operations, we continue to deliver against industry-leading targets, we set for ourselves in quality, safety and customer service in all geographies where we operate.Cost is one area we are falling short this year. This is due to a combination of greater than expected cost inflation in United States, our desire to invest and protect customer service as we ramp-up volumes as well as (12:43) to delay some savings projects to avoid operational disruption.That said, we believe we have the right people, the right training and the right level of engagement to execute with excellency in all areas going forward. Specifically, our employees' recruiting remain strong with more than 85 candidates for each spot in our United States trainee and MBA program, and more than 400 candidates per spot internationally.And our vertical promotion ratios are up versus prior year showing meritocracy in action. To summarize, we feel good about our commercial performance, sales and profitability and our ability to sustain this positive momentum. We continue to build and deploy new capabilities and adapt with speed. And while we have seen and accepted more volatility in EBITDA in the near-term, we believe our investments will allow our brand to be there in a bigger way tomorrow.I will now hand it over to David to provide more color in our results and our path forward.David H. Knopf - The Kraft Heinz Co.Thank you, Bernardo and hello everyone. Turning to our results on slide 4. Total company organic net sales were up 2.6% in Q3, bringing year-to-date organic growth into positive territory. This was driven by 3.5 percentage points of volume/mix growth in Q3 and bringing volume/mix to essentially flat through the first nine months. Encouragingly, this performance was driven by volume/mix growth in every reporting segment and led by consumption growth in a majority of U.S. categories.Pricing was down 90 basis points in Q3, driven by increased promotional activity and key commodity-related pricing in the United States that more than offset higher pricing, mainly to offset local inflation and Rest of World markets.By segment, the U.S. had a strong volume/mix led quarter, characterized by consumption-led growth across the majority of categories. As expected, the change from positive first half pricing in the U.S. to lower pricing in Q3 was primarily driven by combination of three factors. One, lacking carryover pricing from last year; two, increase in-store activity to support our commercial pipeline, including higher year-over-year support in natural cheese and ready-to-drink beverages; and three, passing-through recent declines in some key commodities during the quarter, mainly bacon.In Canada, while we saw solid growth in Coffee and Mac &amp; Cheese, sales were down as anticipated from a combination of select product discontinuations, higher promotional expenses in the current year as well as comparisons with prior year limited time condiments offers and activities that were not repeated. As we mentioned on our last call, however, we do expect a solid pipeline of activities to return Canada to growth in Q4.EMEA stayed in positive growth territory in Q3 as strong growth in Southern Europe and Germany, where we continue to grow the Kraft brands more than offset some one-off headwinds in Middle East. And in Russia, where we ran into destocking activity related to World Cup-related promotional products.That said, we expect EMEA to improve sequentially in Q4 as the headwinds in Middle East and Russia fall away. And in Rest of World, in addition to the strong contribution from pricing, we've seen all year, Latin America drove strong organic volume/mix gains from a combination of pasta sauce and condiments growth in Brazil as well as whitespace expansion across the region. And this more than offset lower shipments of canned seafood and cordials in Indonesia.Moving to EBITDA. Q3 adjusted EBITDA was in fact lower than expectations we had outlined in our previous earnings call, resulting in year-to-date adjusted EBITDA now being down 7.2% on a constant currency basis. We certainly benefited from organic net sales growth. And in fact, our commercial profitability with the profit contribution from volume/mix and pricing combined, was positive. Despite all the stepped up merchandising activity we carried out during the quarter. However, several factors that we do not expect to repeat negatively impacted both EBITDA growth and our absolute level of profitability in Q3.As expected and as we outlined in our previous call, year-on-year EBITDA growth was negatively impacted by a combination of the commercial investment programs we've talked about all year, the swing from overhead favorability last year to a more normal bonus incentive compensation accrual this year, and the non-key commodity inflation we've previously noted.In addition to that, our absolute level of profitability in Q3, was negatively impacted by three factors. The first was higher than expected one-off operating costs in the U.S. from our decision to prioritize customer service, delays some saving projects to avoid disruption and buy more spot market freight during the quarter than we otherwise would, in a normal course of business. Second, was the disproportionate impact from commercial investments, particularly marketing, as we stepped up our investment levels in the second half of the year. And third, were some unanticipated one-off supply chain costs mainly in the Middle East.Looking forward, we expect both EBITDA growth and our absolute level of EBITDA margin to improve beginning in Q4. Specifically, we expect to sustain our organic top line momentum, the one-off factors that drag Q3 EBITDA down should fall away. And on top of that, we expect to see a better year-on-year balance between cost inflation and savings.Finally, at adjusted EPS, we were down $0.05 versus Q3 last year as lower taxes on adjusted earnings in the current period mitigated part of the adjusted EBITDA decline.I would also add here that for the full-year in 2018, we now expect an effective tax rate of approximately 20% versus 21% previously. And incremental interest expense in 2018 should be roughly $70 million versus the $80 million, we previously outlined.Which leads to our outlook on slide 5. I'll start by reiterating what we said before that we believe the pipeline and capabilities are now in place for us to push a more aggressive growth agenda from innovation that drives incremental consumption, to distribution gains across channels and expanding our brands into geographic and category whitespace.We continue to believe we're in a strong position to deliver organic growth for the full-year and sustain that momentum into 2019. We also expect a much better balance of top and bottom line growth going forward.2018 has clearly been a year where results have been more or less dominated by a number of transitory issues, on both the sales and cost sides of the equation, that we do not expect to repeat.At the same time, we've essentially accelerated what would have been three years of commercial investments into 2018, push commercial grow even harder than originally planned, given greater visibility over the likely success of our pipeline. And this was largely offset by tax savings.Going forward, we feel good about our ability to continue driving commercial growth and our ability to drive EBITDA dollar growth and industry-leading margins as one-off factors fall away and the contribution from our savings initiatives accelerate.To-close, I think it's worth repeating the thoughts that we've expressed all year, that we're developing capabilities to create brand and category advantage and achieve profitable growth that we're investing aggressively now in order to see benefits sooner, and that these are the key factors shaping our near-term results into 2018 and we believe will drive sustainable profitable growth into 2019 and beyond.We think our focus on EBITDA dollars and our returned based discipline in sales, marketing and innovation will lead us well positioned to deliver top-tier organic growth at industry-leading margins.We have good visibility on considerably better post-integration cash flow. We have and will continue to strengthen our balance sheet and credit standing through both de-risking and other activities such as divestitures of non-core assets when consistent with our strategic framework as we recently announced.And our ability to continue building brand and category advantage through differentiated capabilities will not only be a key enabler, but will make two plus two equal more than four in the event of a transformational deal.Now we'd be happy to take your questions.Question-and-Answer SessionOperatorThank you. Our first question comes from the line of Ken Goldman of JPMorgan. Your question please.Kenneth B. Goldman - JPMorgan Securities LLCHi. Thank you so much. Wondering if you can help us quantify the magnitude of what you would consider one-time or non-recurring cost in the P&amp;L. There is a lot different costs, there is a lot of different things that drag down your EBITDA this quarter. I think some of them like marketing probably don't go away, some of them like maybe the customer service issues maybe do go away. I'm just trying to get a sense of that, because it's difficult to maybe model ahead unless we have a better understanding of sort of what just happened.David H. Knopf - The Kraft Heinz Co.Hi, Ken, this is David. Thanks for the question. So, as I break this down for you, I think the first thing to reiterate here is commercial profitability for Q3 or the profit contribution from vol/mix and pricing combined was positive, okay? Which is good considering all the growth initiatives and stepped up merchandising activity that we had in the quarter. So, we're very happy with that.Beyond that, there are really four main drivers of the year-over-year decline, many of which were one-off in nature. So first, we have the stepped up commercial investments that we previously outlined, with Q3, seeing the heaviest quarterly impact within the year.Second, you have the swing from overhead favorability we mentioned last year to more normal incentive compensation accrual this year, so that is one-off in nature.Third, we had additional cost inflation that we previously noted, however the impact was worse in Q3 from our decision to prioritize customer service, as our volumes ramped up through the quarter, which in turn led us to delay certain supply chain savings projects and also by more spot markets freight than we otherwise would have.So, a lot of those factors were in fact kind of one-off in nature for the quarter. On top of that, we had some unanticipated one-off supply chain costs that were mainly related to the transition of the Middle East business to our European business.All that to say, we're not going to provide precise numbers around it but we expect both EBITDA growth and our absolute level of profitability to improve significantly beginning in Q4 and into next year versus what we saw this year and in the first half.Kenneth B. Goldman - JPMorgan Securities LLCOkay. And then can you – as a follow-up, just the prioritizing of customer service is a headwind, can you just walk us through what that means in practical terms? I'm not quite sure I understand in this case.David H. Knopf - The Kraft Heinz Co.Yeah, sure, Ken. This is David, again. So I'd say some of the savings projects that we anticipated for this year were very much variable cost in nature, so things like yield and variable labor. So – and this is versus fixed cost that we've captured over the last three or so years. So we decided to delay some of those productivity initiatives that we're executing across our factories. And this is really to ensure that there is no disruption as volumes ramped up in the quarter and ramped up more than, frankly, we had expected. On top of that, the additional volume that we didn't anticipate above and beyond what we planned for came at an additional cost and a lot of those costs are logistics or freight related.Kenneth B. Goldman - JPMorgan Securities LLCThank you.OperatorThank you. Our next question comes from the line of Bryan Spillane of Bank of America. Your question, please.Bryan D. Spillane - Bank of America Merrill LynchHi. Good afternoon, everybody. Two questions from me. One is just a follow-up to Ken's question. I think on the last earnings call, the expectation was the EBITDA split for the year would be roughly 50-50, first half, second half. So given that we missed by, I don't know, about $100 million or so in the quarter. I guess the question is, is the split for the year now more like 49-51? Or is the split different? Just trying to get a sense for kind of where things stood relative to maybe where you're fourth quarter expectations were. And then I have a follow-up.David H. Knopf - The Kraft Heinz Co.Hi, Bryan, thanks for the question. This is David, again. So as we said in the last call, as you pointed out, and as we said today, we do expect both EBITDA growth and our absolute level of EBITDA margin to improve in the back half and further improve in Q4. And this is based on the sustained organic top-line momentum that we're seeing, the one-off factors that I talked about that drag EBITDA this quarter which will fall away next quarter, and a better year-on-year balance between cost inflation and savings.Relative to your specific question that we talked for the last quarter, I think given the unexpected one-off factors in Q3 that we experienced, it may be difficult to get all the way back to the 50-50, first half, second half, (28:32) EBITDA that we targeted. But we should see a very good sequential improvement into Q4.Bryan D. Spillane - Bank of America Merrill LynchOkay. So order of magnitude, it's around that $100 million sort of miss in the quarter is sort of the one-off piece that you may or may not be able to close the gap on?David H. Knopf - The Kraft Heinz Co.Yeah, I think around that range would be appropriate.Bryan D. Spillane - Bank of America Merrill LynchOkay. And then just one other question in terms of asset sales. I guess the asset sale in India. is that sort of indicative of the larger sort of strategy of maybe potentially selling more assets down the road? Just some color or some context around that as well. Thanks.Bernardo Vieira Hees - The Kraft Heinz Co.Hi, Bryan. Hees (29:17) Bernardo. Look, we – like we always said, we like our portfolio. I think each brand has its role in its specific country and region. But we do evaluate every business and brand on its own and see the returns and what we can do with that, right?In the India case, I think it was very clear for us that we didn't have really the competitive advantage in the new market and the beverage portfolio we have in the country. It could not scale, right, for the level you wanted to. (29:55)And the value we're receiving from the proceeds are really higher than we could have been doing with the business. Like you said, I think there are other things to be considered within the portfolio in general. And we always evaluate very careful on a case-by-case situation. I think an important side effect of this is really the fact that we – obviously, with the proceeds, we're able to strengthen our balance sheet, right, and give us more firepower, especially in a moment where industry evaluations are more attractive, right? And that I think is a positive in this case.OperatorThank you. Our next question comes from the line of Steve Strycula of UBS. Your line is open.Steven Strycula - UBS Securities LLCYeah. Hi. Thanks for the question. So similar to the previous two, I wanted to dig into the $100 million EBITDA miss that we saw in the quarter. At what point did you realize that things were tracking below plan? How did you react to it? And can you walk us through what of that $100 million actually washes away in the fourth quarter? And then I have a quick follow-up. Thank you.David H. Knopf - The Kraft Heinz Co.Sure, Steve. This is David, again. Thanks for the question. So we said that we expected Q3 adjusted EBITDA dollars to be down a greater order of magnitude than what we saw in the first half. So that gets you to more than $140 million at the start. So kind of two big factors in the quarter that took us lower than what we had originally expected. Again, we had a higher than expected one-off operating cost in the U.S. against a prioritized customer service. We delayed some of those savings projects to avoid disruptions. And we bought more on the freight market, which increased our logistics costs than we otherwise would have given the additional volume. And then on top of that, the unanticipated one-off supply chain costs.But again as I said, we expect both EBITDA growth and our absolute level of profitability to improve significantly into next quarter. But unfortunately, we're not going to provide any more specifics around the magnitude of that into Q4.Steven Strycula - UBS Securities LLCOkay. And given what you've seen right now, is there any reason to think that EBITDA dollar growth can't expand in calendar 2019? I know it's early to talk about 2019, but given the inconsistency of recent performance, I think, maybe investors deserve a little bit of clarity as to how confident you feel about the sustainability of what the trends you're seeing develop in the fourth quarter. And is the tax rate sustainable at 20%? Thank you.David H. Knopf - The Kraft Heinz Co.Sure, Steve. David, again here. Thanks for the question. So for 2019, we do expect a much better balance of top- and bottom-line growth going forward. In 2018, we've had a number of transitory issues that we don't expect to repeat. We really accelerated and pushed commercial growth harder given the greater visibility on the investments that we're driving and putting in the business. And then on top of that, the tax favorability which mitigated a number of these headwinds on the bottom-line.Going forward, we feel good about that balance for several reasons. Our ability to continue driving real volume/mix driven organic growth; our ability to drive EBITDA dollars and at industry-leading margins as one-off factors fall away and the contributions from our savings curve accelerate.And finally, I think our ability to build the brand and category advantages and capabilities that we've been talking about, the same thing will make two plus two greater than four in the event of a transformational deal.And then finally, with respect to your tax rate, I think we started the year a bit higher but based on further clarity on new tax laws, I think, we're really expecting to get to that 20% for the full year.OperatorThank you. Our next question comes from the line of Dara Mohsenian of Morgan Stanley. Your line is open.Dara W. Mohsenian - Morgan Stanley &amp; Co. LLCHey, guys. So I just want to focus on U.S. pricing. I understand that some of the decline was probably pass-through pricing, but I'm assuming you're still down ex that or at least not up substantially, which is surprising just given the level of gross margin pressure and EBITDA pressure we're seeing here at the corporate level. So just wanted to get your thoughts around what sort of drove the sequential deceleration in pricing?Obviously, a lot of your direct and even more so indirect peers in CPG land have been talking about taking more pricing recently given some of the margin pressures in this sector. So do you have plans to increase pricing going forward? And as you look at your price premiums in the categories you compete, given they moved up over the last few years, do you think you need adjustments in those price premiums? Or are you comfortable you can get more pricing going forward? Thanks.Paulo Luiz Araújo Basílio - The Kraft Heinz Co.Hi, Dara. This is Paulo. Thanks for the question. So when we think about the price and the profile we have in the quarter, it was really consistent with our expectations. The change from the positive pricing we had in the first half to a lower net pricing in the third quarter was primarily driven by three factors. The first one was we start lapping (35:45) the carryover pricing we had from prior year. Second, we pass through recent commodity declines, mainly in bacon. And given our strong innovation pipeline and portfolio position, we believe that was the right time to expand trial, consumption, and drive strong volume gains which we didn't (36:05).As David noted before, our commercial profitability or our profit contribution from pricing and vol/mix was solid. We believe that we have a very strong portfolio of brands with ability to price as we have been showing over the past several quarters as we've mentioned. And for your last point, and you look forward to the next year, for sure, price will be an important lever we will consider in managing our cost profile.Dara W. Mohsenian - Morgan Stanley &amp; Co. LLCOkay. And then the comment on 2019 EBITDA, I just want to be clear. You talked about a better balance. Did you mean year-over-year growth in EBITDA in 2019, just to be clear? Or are we talking about sort of level of improvement relative to 2018? I just want to be precise there. Thank you.David H. Knopf - The Kraft Heinz Co.Hi, Dara. This is David, again. Thanks for the question. So, when we talk about our ability to drive EBITDA dollars, we do mean year-over-year.Dara W. Mohsenian - Morgan Stanley &amp; Co. LLCOkay. Thank you.OperatorThank you. Our next question comes from the line of Andrew Lazar of Barclays. Your question, please.Andrew Lazar - Barclays Capital, Inc.Hi, good afternoon. Just two things from me. One quick one first. Sometimes when – I think when investors hear sort of the term spending to ensure customer service and things like that, I mean sometimes the notion comes up of, is it slotting or paying more to keep product on the shelf for retailers sort of asking for more dollars or those sorts of things. So, I was hoping you could just address that just to take that off the table if that's not the case.And then I guess more importantly, putting the one-offs and the one-off spending aside, you still did it looks like or sounds like increased sort of commercial spending, spending around capabilities, spending that's ongoing that will be in the base, if you will.And it sounded like after the second quarter that you had a pretty good read on that and obviously it increased in the third. So, really, I guess what gives you that comfort level that this is the right number and that in 2019 there's not, ultimately, the need for another significant step-up? Because we have seen some other food companies already starting to talk to 2019 and saying, hey, one year of reinvestment spending that was tax reform-led actually isn't enough to get the top-line going. It really needs to be a multi-year timeframe. So, any color on that would be really helpful, too. Thank you.David H. Knopf - The Kraft Heinz Co.Hi, Andrew, this is David. Thanks for the question. So, let me take your firs</t>
+  </si>
+  <si>
+    <t>Facebook, Inc. (NASDAQ:FB) Q3 2018 Earnings Call October 30, 2018  5:00 PM ETExecutivesDeborah Crawford - Facebook, Inc.Mark Elliot Zuckerberg - Facebook, Inc.Sheryl Kara Sandberg - Facebook, Inc.David M. Wehner - Facebook, Inc.AnalystsDouglas T. Anmuth - JPMorgan Securities LLCEric J. Sheridan - UBS Securities LLCBrian Nowak - Morgan Stanley &amp; Co. LLCJustin Post - Bank of America Merrill LynchRoss Sandler - Barclays Capital, Inc.Lloyd Walmsley - Deutsche Bank Securities, Inc.Brent Thill - Jefferies LLCMark A. May - Citigroup Global Markets, Inc.Anthony DiClemente - Evercore Group LLCHeather Bellini - Goldman Sachs &amp; Co. LLCRalph Edward Schackart - William Blair &amp; Co. LLCOperatorGood afternoon. My name is Mike, and I will be your conference operator today. At this time, I would like to welcome everyone to the Facebook third quarter 2018 earnings conference call. All lines have been placed on mute to prevent any background noise. After the speakers' remarks, there will be a question-and-answer session. This call will be recorded. Thank you very much.Ms. Deborah Crawford, Facebook's Vice President of Investor Relations, you may begin.Deborah Crawford - Facebook, Inc.Thank you. Good afternoon, and welcome to Facebook's third quarter 2018 earnings conference call. Joining me today to discuss our results are Mark Zuckerberg, CEO; Sheryl Sandberg, COO; and Dave Wehner, CFO.Before we get started, I would like to take this opportunity to remind you that our remarks today will include forward-looking statements. Actual results may differ materially from those contemplated by these forward-looking statements. Factors that could cause these results to differ materially are set forth in today's press release and in our Quarterly Report on Form 10-Q filed with the SEC. Any forward-looking statements that we make on this call are based on assumptions as of today, and we undertake no obligation to update these statements as a result of new information or future events.During this call, we may present both GAAP and non-GAAP financial measures. A reconciliation of GAAP to non-GAAP measures is included in today's earnings press release. The press release and an accompanying investor presentation are available on our website at investor.fb.com.And now, I'd like to turn the call over to Mark.Mark Elliot Zuckerberg - Facebook, Inc.Thanks, Deborah, and thank you all for joining us today. We had a solid quarter, and our community and business continue to grow quickly. 2.3 billion people now use Facebook every month, and 1.5 billion every day. Revenue grew 33% year over year to $13.7 billion.Last quarter, for the first time, we also shared the number of people who use at least one of our apps each month. We believe this is a better way to measure our community over time because so many people use more than one of our apps. There are now more than 2.6 billion people using Facebook, WhatsApp, Instagram or Messenger each month, up from around 2.5 billion last quarter. But now, on average, more than 2 billion people use at least one of our services every day.Today, I want to talk about our strategy overall as we navigate challenges and opportunities on several fronts. For one, we're seeing the way people connect shifting to private messaging and stories. We have great products here that people love, but it will take some time for our business to catch up to our community growth.Two, we're seeing video grow dramatically across the ecosystem. And while Watch is now growing very quickly, we're well behind YouTube and still working to make this a unique people-centric experience. Three, we continue to face increased safety and security threats. We've significantly improved our systems here, but we have more to do.So let's start with messaging and stories. Public sharing will always be very important, but people increasingly want to share privately too, and that includes both just smaller audiences with messaging and ephemerally with stories. People feel more comfortable being themselves when they know their content will only be seen by a smaller group and when their content won't stick around forever. Messaging and stories make up the vast majority of growth in the sharing that we're seeing.On messaging specifically, we think we've built the best messaging apps in the world. People now send around 100 billion messages each day using our services that even our second most popular service, Messenger, has a higher daily message volume than SMS had globally at its peak. And this isn't just text. People share more photos, videos and links on WhatsApp and Messenger than they do on social networks.We are leading in most countries, but our biggest competitor by far is iMessage. And in important countries like the U.S., where the iPhone is strong, Apple bundled iMessage as a default texting app and it's still ahead. In countries where there's more competition between iOS and Android, like much of Europe, people tend to prefer our services.Now, it's worth noting that one of the main reasons people prefer our services, especially WhatsApp, is because of its stronger record on privacy. WhatsApp is completely end-to-end encrypted, does not store your messages and doesn't store the keys to your messages in China or anywhere else. And this is important because if our systems can't see your messages, then that means that governments and bad actors won't be able to access them through us either.Our roadmap focuses on continuing to make WhatsApp and Messenger even simpler, faster and adding basic utility features like payments. We found that every time we make our services faster and simpler, people communicate more. We'll also keep pushing our messaging services to be more private and secure, and we believe this will continue to be a competitive advantage for us.On the business side of messaging, our first step has been to enable people to connect with businesses organically in ways they find useful, and then the second step is to give businesses additional paid tools to increase those interactions. We're well into step one at this point, with more than 3 million accounts on WhatsApp Business. We'll begin step two with a couple of products, paid messaging and ads in Stories.And by making businesses pay to send messages, we believe it will make them more selective with what they send. Payments will make each of these services more useful for people and businesses, even though we don't plan to profit from it directly. I'll update with more progress on each of these efforts in the next few quarters.On Stories, we are even better-positioned. People now share more than 1 billion stories every day. We lead in almost every country. There are a couple of reasons we've focused on building Stories in all of our apps. First, I just think that this is the future. People want to share in ways that don't stick around permanently, and I want to make sure that we fully embrace this.Second, Stories is a medium like feeds that can feel very different in very different contexts. So just like most major social apps have feeds, including Pinterest, Twitter, or LinkedIn, but you wouldn't say that those services do the same things, I think many services will have Stories in the future too, but will serve different functions.Now, while this effort is going well, we're also working through a couple of challenges here. One is that while WhatsApp Status and Instagram Stories immediately took off and have been huge successes, Facebook Stories started off slower. It's now growing quickly and I think we'll be in a better position soon, but our effort to shift Facebook from News Feed first to Stories first hasn't been as smooth as I had hoped. But this is important for the Facebook community long term.Another challenge is that we're earlier in developing our ads products for Stories, so we don't make as much money from them yet as we do from feed ads. We're following our normal playbook here of building out the best consumer products first and focusing on succeeding there before ramping up ads. I'm optimistic that we'll get ads in Stories to perform as well as feed over time, and that the opportunity will be even bigger because it looks like Stories will be a bigger medium than feed has been.But I want to be up front that even assuming that we get to where we want to go from a feed-only world to a feed plus Stories world, it will take some time and our revenue growth may be slower during that period like it was while transitioning our products to mobile.Now, talking about messaging and Stories raises the question of what's the future of our feed product and the Facebook app overall. On feed specifically, people continue to use them heavily and we don't expect that to decrease. From a business perspective, feeds will drive the majority of our growth over the next couple of years, at least until Stories become an even bigger driver.On the Facebook app overall, what we see is that we are generally stable, although we may be close to saturated in developed countries while we continue to grow quickly in developing countries. For a few years, we saw a trend where people's time was increasing primarily because they were consuming more video and public content, even as they interacted with friends and family less. But people were telling us what they wanted was to interact with people more. So we didn't think that this trend was sustainable.We've made a number of changes this year to focus the product on meaningful social interactions, and those generally seem to be working. That means the trends in how people are interacting have improved, even though we've purposefully reduced time spent on things like lower-quality viral videos and news to achieve this.While there's a lot to do to improve News Feed, our roadmap for the Facebook app is very focused on a few priorities: Stories, which we've discussed; video, which I'll get to in a moment; and a much bigger focus on communities and groups.If the last 10 years have been about friends and family, then the next 10 years will be about your communities as well. When we say communities, we mean both helping people connect with people who share their interests, which is a major need in people's lives, and also building out specific services for bringing people closer together, like helping you find someone to date, or find a job, or buy and sell things, or grow your small business, or create an event, or start fundraisers, or bring together a group to volunteer.A lot of these services are growing quickly. Hundreds of millions of people now belong to meaningful communities that are a central part of their social support structure. Marketplace is now used by 800 million people and is emerging as one of the most popular places to buy vehicles online. On jobs, our new tool has helped people find more than 1 million jobs. On fundraisers, in the last year we've helped people raise more than $300 million for charities on their birthdays alone. And I'm looking forward to rolling out dating across the world soon too.These are services that generally benefit from having everyone you know connected on a single platform. And while people may not spend as much time on some of these tools as they do in News Feed, these are very high-value activities for our community.Now, we're seeing a similar dynamic in Instagram, where there's still a lot to improve in feed, but we're increasingly focused on other experiences as well. But in Instagram, instead of focusing on communities, we're very focused on helping you explore your interests. So this will take the form of IGTV, which I'll discuss more in a minute, plus new shopping experiences and really building out Explore. These areas have huge potential for serving our community and a lot of potential for businesses as well. For example, Explore is already about 20% of the time that people spend in Instagram. But unlike feed, we haven't built any ads experience for it yet, so that's an opportunity.Now, I want to discuss what we're seeing with video specifically, since it's such an important and growing area. Our efforts here have grown, but we've had challenges reconciling all this passive video consumption with what people uniquely want from us, which is meaningful social interaction.Video has grown a lot on our services, but as I mentioned earlier, we hit a dynamic where when it grows in feeds in Facebook and Instagram, it displaces some social interactions, and people tell us it makes the experience less valuable even though they're spending more time on it.So the solution to this has been building separate video experiences outside of our feeds with Watch on Facebook and IGTV on Instagram. And what we found is that when people seek out video experiences intentionally, they don't displace social interactions as much, and the quality of the experience is generally higher. We've also been able to build experiences that help creators build communities around their content, which fits our mission and our focus to encourage meaningful interactions.At this point, Watch has really hit its stride and it's growing incredibly quickly, about 3x in the last few months in the U.S. alone. IGTV is still earlier in its development, but I think we have a good sense of how to make it work as well. To be clear, these services are still well behind YouTube, which is our primary competitor in this space, but they're growing very quickly.Now, that said, beyond the mission challenges of video displacing social interactions, there is also a business challenge, which is that video monetizes significantly less well per minute than people interacting in feeds. So this means that even though we've made video more community-oriented and minimized displacement of social interactions, as video grows, it will still displace some other services where we'd probably make more money.From a mission and a business perspective, though, we still believe this is the right thing to do. Video is a critical part of the future. It's what our community wants as long as we can make it social, and I think will end up being a large part of our business as well.All right, next I want to talk about safety and security. So let me start by saying that last month, we had a serious security issue. Our teams did well to find and close the vulnerability quickly, but we have a long road ahead to prevent these kinds of attacks in the future. Over the last couple years, though, we've done a lot of work and made a lot of progress. We still have at least a year before our systems are at the level that we want, but they're getting better every day, and that's both technology and people.Our systems for proactively identifying harmful content are improving. Our systems for detecting interference in elections are a lot more mature now. The upcoming elections will be a real test of the protections we've put in place. With a community of more than 2 billion people, we will see all the good and bad that humanity can do. And we will never be perfect, but I'm proud of the work that we're doing here.We've reduced the incentives to spread misinformation. We're partnering more closely with governments and outside experts to improve security, including here in the U.S. And we set a new standard for transparency in advertising. This quarter alone, we've found and taken down foreign influence campaigns from Russia and Iran attempting to interfere in the U.S., UK, Middle East, and elsewhere, as well as groups in Brazil that have been active in their own country. We still have a lot of work to do in all of these areas that I've talked about.News Feed continues to be very important. We're building the best messaging and stories and community tools in the world. Our video services are getting better and growing quickly, and we still have a lot of work to do on safety. And we're also heavily investing in AR and VR, as well as hardware for bringing people closer together, like Portal for video presence and Oculus Quest, the all-in-one VR experience that delivers rift like quality with no wires attached.So with all of this ahead, I expect 2019 to be another year of significant investment. Dave will say more about this in a moment, but I want you to know that looking out beyond 2019, I know that we need to make sure our costs and revenue are better matched over time; and that's something that I'm focused on as well.So, overall, this has been an important year. It's been a tough year, but we've built products that I'm proud of and we've made a lot of progress on some of our hardest issues. As always, I appreciate your support. And thank you for being a part of this journey with us.And now, here is Sheryl.Sheryl Kara Sandberg - Facebook, Inc.Hi, everyone.It was another good quarter for our business, with ad revenue up 33% year over year. Our growth was broad-based across regions, marketer segments and verticals. Mobile ad revenue grew 40% to $12.5 billion, making up approximately 92% of our total ad revenue. Since Facebook launched its first ad products, we've been in the business of growing our clients' businesses, from the largest brands in the world, to the entrepreneur in her living room.Over 90 million businesses rely on Facebook pages to reach potential customers for free. In a global survey, half of small businesses with a presence on Facebook said that they are hiring because of growth they're able to achieve through our platform. More than 6 million advertisers are active across Facebook, Instagram and our other services. With more than 2 billion people using at least one of our services every day, we're the best place for these advertisers to show people ads that work.We know that our continued growth depends upon maintaining the trust of the people who use our services and earning our clients' business each and every day in a very competitive environment. Every time I meet with clients, I tell them that we want to be the best minute and the best dollar, euro or peso they spend. As we look ahead to 2019 and beyond, we're focused on continuing to build our clients' businesses and ours by helping advertisers reach consumers where they are and making ads better.First, helping advertisers connect with people where they are. Consumers often adopt new technologies before businesses do. Our competitive advantage is helping advertisers close that gap. We've done this before on desktop, mobile and News Feed. In the early days, we helped businesses deliver personalized marketing at scale on desktop. With the shift to mobile, we've helped companies large and small build their mobile presence.Now, we're doing it again with stories, messaging, Marketplace and Watch. Today, the primary way advertisers are reaching people on our services is through Facebook News Feed and Instagram Feed. Feed ads on Facebook and Instagram represent the majority of our revenue growth and the majority of opportunities for marketers to generate ROI.Quarter after quarter, we make improvements that help advertisers use feed ads to launch new products, find new customers, build awareness and increase sales, all in a highly efficient way. We're always working to enable more marketers to achieve their goals through mobile feed, and we see continued opportunity here going forward.At the same time, as Mark mentioned, more and more consumers are using stories and private messaging in addition to the time they spend in News Feed and Instagram Feed. Because our services share a common platform, advertisers can use the same tools to buy across all our ad services.Building on the strength of ads and Instagram Stories, we rolled out ads in Facebook Stories in Q3 and announced plans to introduce ads in WhatsApp Status next year. We know it's not enough to make a new format available. We also need to make it easy for advertisers to optimize their campaigns.In Q3, we improved how ads from News Feed look in Stories. This is important for advertisers like Pandora, which uses Facebook and Instagram to reach potential listeners. Previously, they would buy Instagram Story ad separately and develop unique creative each time. Now, with automatic placements, our technology converts their horizontal video and captions from Facebook into a design that looks native to the vertical Instagram Stories format. For Pandora, this resulted in a 10% lower cost per view than their stand-alone campaigns simply by checking a box in our ad tool.When it comes to messaging, we have an opportunity to help people and businesses connect in ways that are valuable for both. On Messenger, over 10 billion messages are sent between people and businesses every month. It's still early, but we're exploring how we can help advertisers reach people in Messenger through sponsored messages and inbox ads.For WhatsApp, we're growing our business ecosystem starting with the WhatsApp Business model app on Android. In August, we launched the WhatsApp Business API to help larger companies send useful information such as boarding passes or delivery confirmations. This paid messaging model will ensure that companies are selective about what they send and don't clutter people's chats. As always, people will be able to block any business they want with one tap. As we build the business on WhatsApp, we're determined to maintain the simple private user experience that people love.That's also true for Marketplace and Watch. Last year, we started allowing advertisers to extend their News Feed ads to Marketplace, helping businesses reach people where they already shop. In Q3, we expanded Marketplace ads to nearly 70 marketers. It's early days, but advertisers are seeing good results.With Facebook Watch, we've been working closely with advertisers to better fit their current planning and buying process for video. In Q3, we introduced a way for advertisers to buy video placements from a selection of the most engaging publishers, choose specific content categories they want their ads to play alongside, and pay only for ads that are watched to the end. Again, it's still early, but we're pleased with advertiser interest and results so far.We have a big opportunity to help our large and growing advertiser base expand to new platforms and formats to reach potential customers. Our service makes it possible for every business to access the same tools as the largest brands. We start by making it simple for small businesses to transition from using our consumer apps to using our business tools, and then we make it easy to run more sophisticated campaigns.This has been true every step of our journey so far, from online to mobile and now for messaging and stories. In the future, this will include opportunities with the new VR/AR platforms that we're creating as well.We're also focused on making ads better. One of the top things people tell us about our ads is that they want them to be relevant. We create value for people when we show ads they are likely to find useful, for advertisers when we deliver ads to the right audience, and for our own business by performing this match effectively.Our business model is and always has been to connect people and businesses with relevant marketing messages without sharing people's personal information. Protecting people's privacy is incredibly important because people and businesses will only use our services if they feel Facebook can be trusted and if sharing on our platform is safe. That's why we're making significant ongoing investments to better protect privacy and security.In Q3, we completed the shutdown of partner categories and tightened our standards for Custom Audiences. These changes help protect peoples' privacy and ensure that advertisers have more oversight of the information they use for advertising. We also continue to invest heavily in technology and people to remove bad content as quickly as possible and prevent it from going up in the first place, while giving advertisers more control over where their ads are placed.This quarter, we added more tools for advertisers to see where their ads might appear in Audience Network, Instant Articles and instream placements like Watch. They can block their ads from running in videos or articles from certain publishers or categories of content and review all of their placements at the end of each campaign.Making ads better also means increasing efficiency for advertisers. In Q3, we expanded campaign budget optimization so advertisers of all sizes can now set a single budget, and our system automatically finds the best opportunities across each of those segments. Improvements like this one add up and help businesses maximize the value they're gaining from our products over time. This is critical for small businesses that don't have large advertising budgets or expertise, and it's an important way we support economic growth and job creation around the world.As we wrap up the year, I want to thank our clients for their partnership and their continued feedback which helps us improve. And I also want to thank our teams at Facebook for helping these businesses reach their customers and grow.And now, here is Dave.David M. Wehner - Facebook, Inc.Thanks, Sheryl, and good afternoon, everyone. Let's start with our community metrics. Daily active users on Facebook reached 1.49 billion, up 9% compared to last year, led by growth in India, Indonesia and the Philippines. This number represents approximately 66% of the 2.27 billion monthly active users in Q3. MAUs were up 199 million or 10% compared to last year.Note that our Q3 2018 community metrics reflect an update to our calculation methodology. This resulted in the removal of the small percentage of accounts or approximately 15 million DAU and 9 million MAU worldwide. This change will modestly impact our year-over-year user growth rates until we lap it next year. Further details are included in the earnings slides on our IR website.Turning now to the financials, all comparisons are on a year-over-year basis, unless otherwise noted. Q3 revenue was $13.7 billion, up 33% or 34% on a constant currency basis. Had foreign exchange rates remained constant compared to last year, Q3 total revenue would have been $159 million higher.Q3 total ad revenue was $13.5 billion, up 33% or 35% on a constant currency basis. In terms of regional ad growth, Asia Pacific was strongest at 38%, followed by Europe and North America at 34% and 33%, respectively. Rest of world ad growth trailed at 26% due to both currency weakness and economic challenges in Latin America.Mobile ad revenue was $12.5 billion, up 40%, and represented approximately 92% of total ad revenue. In Q3, the average price per ad increased 7% and the number of ad impressions served across our services increased 25%, driven primarily by feed ads on Instagram and Facebook.Our impression growth in Q3 came primarily from product surfaces and geographies that monetize at relatively lower rates. For example, ads in Instagram Stories contributed to our impression growth this quarter, although these ads currently monetize at lower rates compared to feed ads. Payments and other fees revenue was $188 million, up 1%.Turning now to expenses. Total expenses were $7.9 billion, up 53%. We ended Q3 with approximately 33,600 full-time employees. That's up 45%. The majority of our new hires in the past year have been in technical functions. Operating income was $5.8 billion, representing a 42% operating margin. Our Q3 tax rate was 13%. This was lower than we expected because we did not take the one-time charge that we anticipated due to the Ninth Circuit Court withdrawing its decision in the Altera case.Net income was $5.1 billion or $1.76 per share. Capital expenditures were $3.3 billion, driven by investments in data centers, servers, network infrastructure and office facilities. In Q3, we generated $4.2 billion in free cash flow and ended the quarter with approximately $41.2 billion in cash and investments. In the third quarter, we bought back approximately $4.3 billion of our Class A common stock.Turning now to the revenue outlook, in Q4, we expect that our total revenue growth rate will decelerate by a mid to high single-digit percentage compared to our Q3 total revenue growth rate. Several factors are contributing to this deceleration. First, we expect more of our impression growth to continue to come from product services and geographies that monetize at lower rates. Second, we are seeing some impact from data privacy initiatives on pricing growth. And third, as we focus more of our product efforts on the growth of Stories, its more prominent placement on Facebook will displace some ad impression opportunities.Turning now to the expense outlook, we anticipate our full-year 2018 total expenses will grow approximately 50% to 55% versus our prior range of 50% to 60%. We anticipate that full-year 2018 capital expenditures will be approximately $14 billion to $14.5 billion compared to our prior estimate of $15 billion.Turning to tax, at current stock prices, we expect that our Q4 tax rate will be in the mid-teens. As a reminder, fluctuations in our stock price will impact our tax rate.I'd also like to share our initial outlook on 2019 operating expenses and CapEx. As Mark mentioned, we plan to continue to invest aggressively across the business and expect that full-year 2019 total expenses will grow 40% to 50% compared to full-year 2018. We also expect that full-year 2019 capital expenditures will be approximately $18 billion to $20 billion, driven by a continuation of our data center build strategy that seeks to put in place adequate capacity ahead of our needs. We anticipate that our full-year 2019 tax rate will be in the mid-teens.The third quarter marked a period of both solid revenue growth across the globe and heavy investment as we make progress on our mission to bring the world closer together. We are confident in our ability to improve the products that our community loves as well as to provide innovative new experiences in the near and long-term.And with that, Mike, let's open up the call for questions.Question-and-Answer SessionOperatorWe will now open the lines for a question-and-answer session. Your first question comes from the line of Doug Anmuth from JPMorgan.Douglas T. Anmuth - JPMorgan Securities LLCThanks for taking the questions. I just wanted to ask two. First for Mark, I was just hoping you could talk a little bit more about some of the challenges that you see for Stories within Facebook relative to their stronger adoption in Instagram and for WhatsApp Status. And then also, what if Stories don't gain traction on Facebook over time here? How do you think about that for the platform as well?And then, secondly, for Dave, just on OpEx for 2019, the 40% to 50% growth, should we think about that as still the same buckets of spend that you've been talking about over the last year or so, and does their prioritization change at all for next year? Thanks.Mark Elliot Zuckerberg - Facebook, Inc.Sure, so I can take the first part. I think a lot of this is really basic. When I say that we got started slower on Facebook, that starts with literally rolling out on Facebook a number of months after we had rolled out on either WhatsApp or Instagram. And then the initial version of what we shipped I just think wasn't as high-quality as where it needed to be. It wasn't as fast. There were bugs. And we've been working on dialing that in.I'm less worried at this point about it not working because we're starting to see it really take off. Certainly, with different groups of people, it's stronger on Instagram or WhatsApp or Facebook, but across all three at this point, it's growing. And as I said in my opening remarks, I think we're going to be a lot better positioned here in Facebook in the next year.David M. Wehner - Facebook, Inc.Hey, Doug. It's Dave. Just on the 2019 expense growth guide, a lot of that is consistent with what we've been talking about as our big investment areas. If you look at just head count growth in the past year, it's up 45%. So that compensation expense base that we're bringing into 2019 is really factoring into the overall growth guidance for the total expense guide, so that's a big factor there.In addition, we've been investing significantly in CapEx, and those investments are starting to flow through the P&amp;L in terms of depreciation. And then I'd point to significant investment areas like AR/VR efforts, the content ecosystem around video, and the ongoing investment in safety and security.OperatorYour next question comes from the line of Eric Sheridan from UBS.Eric J. Sheridan - UBS Securities LLCThank you so much, maybe one for Sheryl. When you thi</t>
+  </si>
+  <si>
+    <t>Microchip Technology, Inc. (NASDAQ:MCHP) Q3 2018 Earnings Call February  6, 2018  5:00 PM ETExecutivesJ. Eric Bjornholt - Microchip Technology, Inc.Ganesh Moorthy - Microchip Technology, Inc.Steve Sanghi - Microchip Technology, Inc.AnalystsCraig M. Hettenbach - Morgan Stanley &amp; Co. LLCWilliam Stein - SunTrust Robinson Humphrey, Inc.Harsh V. Kumar - Piper Jaffray &amp; Co.Chris Caso - Raymond James &amp; Associates, Inc.Mark Delaney - Goldman Sachs &amp; Co. LLCChristopher Brett Danely - Citigroup Global Markets, Inc.Craig A. Ellis - B. Riley FBR, Inc.Adam J. Gonzales - Bank of America Merrill LynchKevin Edward Cassidy - Stifel, Nicolaus &amp; Co., Inc.Harlan Sur - JPMorgan Securities LLCGil Alexandre - Darphil AssociatesJohn William Pitzer - Credit Suisse Securities (NYSE:USA) LLC (Broker)Hans Mosesmann - Rosenblatt Securities, Inc.OperatorGood day, everyone, and welcome to the Microchip Technology Third Quarter and Fiscal Year 2018 Financial Results Conference Call. As a reminder, today's call is being recorded. At this time I would like to turn the call over to Microchip's Chief Financial Officer, Eric Bjornholt. Please go ahead, sir.J. Eric Bjornholt - Microchip Technology, Inc.Good afternoon, everyone. During the course of this conference call, we will be making projections and other forward-looking statements regarding future events or the future financial performance of the company. We wish to caution you that such statements are predictions and that actual events or results may differ materially. We refer you to our press release as of today, as well as our recent filings with the SEC that identify important risk factors that may impact Microchip's business and results of operations.In attendance with me today are Steve Sanghi, Microchip's Chairman and CEO; and Ganesh Moorthy, Microchip's President and COO. I will comment on our third quarter fiscal year 2018 financial performance, and Steve and Ganesh will then give their comments on the results and discuss the current business environment as well as our guidance. We will then be available to respond to specific investor and analyst questions.I want to remind you that we are including information in our press release on this conference call on various GAAP and non-GAAP measures. We have posted a full GAAP to non-GAAP reconciliation on the Investor Relations page of our website at www.microchip.com, which we believe you will find useful when comparing GAAP and non-GAAP results.I will now go through some of the operating results, including net sales, gross margin and operating expenses. I will be referring to these results on a non-GAAP basis prior to the effects of our acquisition activities and share-based compensation.Net sales in the December quarter were $994.2 million, modestly higher than the midpoint of our guidance and down 1.8% sequentially from net sales of $1.012 billion in the immediately preceding quarter. We have posted a summary of our revenue by product line and geography on our website for your reference.On a non-GAAP basis gross margins were at the high end of our guidance range of 61.4% in the December quarter. Non-GAAP operating expenses were at 22% of sales which was a record low and below the low end of our guidance range which was 22.2%. Non-GAAP operating income was a record $391.7 million at 39.4% above the high end of our guidance of 39.2%. Non-GAAP net income was $341.2 million and was up 38.4% as compared to the same quarter last year. Non-GAAP earnings per diluted share was $1.36 which was above the midpoint of our guidance.On a GAAP basis, gross margins including share-based compensation and acquisition-related expenses were a record 61.1% in the December quarter. GAAP gross margins include the impact of $3.5 million of share-based compensation. Total operating expenses were $361.8 million, and include acquisition and tangible amortization of $121 million, share-based compensation of $20.5 million, $1.2 million of acquisition-related and other costs, and special charges of $0.2 million.GAAP net income was impacted by a $439.8 million discrete tax event in the quarter primarily associated with the Tax Cuts and Jobs Act, and we also incurred a loss of $2.1 million on the retirement of our 2037 2.125% convertible bonds. After these adjustments, the GAAP net loss was $251.1 million or $1.07 per diluted share.The non-GAAP tax rate was 8.5% in the December quarter, and we expect the rate to be about the same in the March quarter. Due to the Tax Cuts and Jobs Act we expect about $300 million of taxes to be paid over the next eight years related to the tax incurred on foreign earnings that were permanently invested offshore referred to as the transition tax. We estimate the tax payments to be approximately $25 million in years one through five, $45 million in year six, $60 million in year seven and $75 million in year eight. We will continue to evaluate the impact from the Tax Cuts and Jobs Act and these estimates may change as we complete our analysis.We are working through the impact of recent U.S. tax reform on Microchip's longer term effective tax rate. There is no impact on the fiscal year 2018 rate as you can see from our March quarter guidance provided in today's earnings release. Excluding the transition tax from the Tax Cuts and Jobs Act, we expect our ongoing long-term cash tax rate to be below 9%, which is what we are providing to investors and analysts for cash flow and operating model forecasting purposes. We will continue to refine this over the coming months prior to providing guidance for Q1 of fiscal year 2019.Moving on to the balance sheet, our inventory balance at December 31, 2017, was $487.1 million. Microchip had 115 days of inventory at the end of the December quarter, our targeted inventory levels are between 115 and 120 days. Inventory at our distributors in the December quarter were at 34 days and up 3 days from the prior quarter, and in the normal historical range for distribution inventory.The cash flow from operating activities was a record $365 million in the December quarter. As of December 31, the consolidated cash and total investment position was $1.985 billion, of which about $550 million is domestic cash. Due to the Tax Cuts and Jobs Act, the majority of our offshore cash could be brought back to the U.S. without incurring any material additional tax cost.We bought back the remaining amount of our 2037, 2.125% convertible bonds in the December quarter through $58.3 million in cash. Capital expenditures were $66.4 million in the December 2017 quarter. We expect about $50 million to $60 million in capital spending in the March quarter and overall capital expenditures for fiscal year 2018 to be about $200 million to $210 million, which is at the lower end of the guidance that we provided last quarter.We are aggressively adding capital to support the growth of our production capabilities for our fast growing new products and technologies, and to bring in house more of the assembly and test operations that are currently outsourced. These capital investments will bring significant gross margin improvements to our business, particularly for the Atmel manufacturing activities that we are bringing into our own factories.As mentioned last quarter, our capital spending in fiscal 2018 also reflects three new building projects we are constructing in Arizona, India and Germany, which will give us meaningful lease cost reductions and avoidance in the future, as well as allow us to cost effectively scale our future growth. Depreciation expense in the December quarter was $32 million.We also want to provide an update on the tax treatment of our dividends. In fiscal year 2017, our dividends paid to shareholders were treated as return of capital and we were expecting similar treatment in fiscal year 2018. The tax cuts and Jobs Act which passed in December 2017 has changed this outlook. Due to the U.S. taxation and fiscal year 2018 of our foreign earnings which were historically permanently invested offshore, Microchip is taxable in the U.S. in fiscal year 2018. As a result, dividends in the June September and December 2017 quarters are fully taxable to our shareholders, and dividends to be paid in March 2018 will be fully taxable to our shareholders. We believe the impact of U.S. tax reform on Microchip's U.S. taxable income in future periods will result in dividends being fully taxable to shareholders in fiscal year 2019 and beyond. We will continue to provide updates to shareholders on this topic in the future if facts and circumstances change.I will now ask Ganesh to give his comments on the performance of the business in the December quarter. Ganesh?Ganesh Moorthy - Microchip Technology, Inc.Thank you, Eric, and good afternoon, everyone. We performed better than we expected in the seasonally slow December quarter with a sequential revenue decline of 1.8% and year-over-year growth of 12.8%, all organic growth as there was no contribution from acquisitions in the last four quarters.The Microchip 2.0 transformation continues to make good progress especially in terms of new design opportunities as we enable our clients' innovation with the very best smart, connected and secure solutions. Taking a closer look at microcontrollers, our Microcontroller business performed well in the December quarter with revenue down sequentially only 0.6% as compared to the September quarter.On a year-over-year basis the December quarter Microcontroller revenue was up a very strong 18.9%. 8-bit Microcontroller revenue actually set a new record again, edging out the September quarter performance, while 16-bit and 32-bit revenue continue to have strong year-over-year performances.Our Microcontroller portfolio and roadmap has never been stronger and we are seeing continued growth in our design-in funnel which we expect will drive future growth as these designs progress into production over time. Microcontrollers represent a 66.5% of Microchip's overall revenue in the December quarter.Now moving to our Analog business. Our analog revenue was sequentially down 3.2% in the December quarter as compared to the September quarter, and up 1.5% on a year-over-year basis. As we highlighted at our last conference call, our publicly reported analog results continue to see some revenue classification headwinds resulting from a deliberate shift in strategy we made several quarters ago. The change in product line strategy, as we reported last quarter, is that we have for some time been adding microcontroller cores to several of our more complex analog products, especially those that provide our clients with smart connectivity solutions.The addition of microcontroller cores to these analog products enables us to sell a higher value and more defensible total system solution. These smart connectivity products are growing nicely, and as they replace older products and new designs, our revenue classification for these new products have shifted from the analog product line to our Microcontroller product line. Transitioning to more sticky and higher margin smart connectivity revenue is the right Microchip answer, but does impact some of the product line reporting that analysts are interested in as some of the revenue growth shifts into our Microcontroller product line.In the longer term, as the revenue from analog attached design wins continues to ramp, we fully expect that the analog product line revenue will grow nicely. Our analog products represented 23.3% of Microchip's overall revenue in the December quarter.Moving next to our licensing business. This business was up 6.8% sequentially in the December quarter and up 15.5% on a year-over-year basis, setting a new record in the process. We are seeing the fruits of having licensed several foundries and independent device makers for several years on multiple process technology nodes as they manifest in our results as the license processes ramp volume and generate royalty revenue for many years to come.Finally, our memory business was sequentially down 7.6% in the December quarter as compared to the September quarter, and up 3.4% on a year-over-year basis.Let me now pass it to Steve for some general comments about our business and our guidance going forward. Steve?Steve Sanghi - Microchip Technology, Inc.Thank you, Ganesh, and good afternoon, everyone. Today, I would like to first reflect on the results of the fiscal third quarter of 2018. I will then provide guidance for the fiscal fourth quarter of 2018. Our December quarter financial results were good. Our net sales were slightly above the midpoint of our guidance, which itself was slightly better than five years of seasonality. Our non-GAAP gross margin of 61.4% of sales was at the high end of our guidance.Operating profit of 39.4% of sales made a new all-time record, and earnings per share of $1.36 exceeded the midpoint of our guidance by $0.01 per share. I want to thank all the employees of Microchip worldwide for delivering an outstanding quarter and calendar year 2017. On a non-GAAP basis, this was also our 109th consecutive profitable quarter.Now I will provide you with an update on Microchip 2.0. We are continuing to experience an enormous customer preference to design with our Microcontroller solutions in all 8-bit, 16-bit and 32-bit customer applications. On top of that, our various acquisitions have now built a powerful diversified product line through which we are able to provide total system solutions to our customers. We are winning incremental design wins with multiple products in the same boards of our customers. We have a robust design win funnel and we feel very optimistic that Microchip 2.0 is working and increasing the organic growth of Microchip.Based on SIA numbers, our Microcontroller market share in calendar 2017 was at a record 15.7%, up 220 bps from calendar 2016. To be fair, calendar year 2016 only had three quarters of Atmel, while 2017 had all four quarters of Atmel. So I calculated market share for three quarters of 2016 to three quarters of 2017, which will be April 1 to December 31 of both years. Based on that nine-month comparison, our market share gain was 91 bps higher than 2016. Also, our Microcontroller market share grew in each of 8-bit, 16-bit and 32-bit product lines.Now let us go into the guidance for March quarter. Our inventories at Microchip at the end of December 2017 were 115 days, which is right at our target. We were able to get to this target a quarter or so ahead of what we were thinking. This is due to enormous progress we made on the manufacturing side and bringing capacity online and decreasing lead times.Our book-to-bill ratio has also continued to moderate from 1.11 in both March 2017 and June 2017 quarters, and then the book-to-bill ratio was 1.05 in September 2017 quarter and 1.0 in December 2017 quarter. This moderation of book-to-bill reflects the improvements in lead times that we have seen or we have been able to achieve over the last several quarters.As we have indicated before, our seasonality for any given quarter will change as we integrate acquisitions and end up with a new blended seasonality. The seasonality of the Atmel business is driven by a larger percentage of consumer-oriented business, which has a sharper decline in the March quarter. In fact, the historic Atmel seasonality in the March quarter over the five years prior to the acquisition was a 7.8% sequential decline when they were an independent company. Meanwhile, Microchip's historic seasonality in the March quarter in the five years prior to acquiring Atmel was a 2.75% sequential growth. The blended average March seasonality results in a minus 1% sequential decline.You can also see the contribution from Atmel's consumer business in the stronger than seasonal blended results Microchip experienced in the June, September and December quarters of 2017. We will compare our March quarter guidance to this combined seasonality of new Microchip. So now let's go into the non-GAAP guidance for the March quarter. We expect total net sales in the March quarter to be down 3% to up 1% sequentially, giving us a midpoint of the guidance at minus 1%, which is right at seasonality that I explained about.In September quarter last year, our net sales were up 15.8% from a year ago quarter. In December quarter, our net sales were 12.8% from a year ago quarter. In March 2018 quarter, we are guiding the net sales to be up 9% from a year ago quarter, clearly demonstrating the soft landing scenario that we have been talking to the investors. Our total fiscal year 2018 sales ending March 31, 2018 with midpoint of the guidance is expected to be up 13.2% from fiscal year 2017 sales, beating most of our competitors for the same time window.Regarding gross margin, we see a steady improvement in overall gross margin of the company. Based on Microchip 2.0 margin drivers, we expect gross margin for the March quarter to be between 61.3% and 61.7% of sales. We expect overall operating expenses to be between 22% and 22.4% of sales. We expect operating profit percentage to be between 38.9% and 39.7% of sales. And we expect earnings per share to be between $1.30 and $1.39 per share.I want to remind investors that our long-term financial model is a non-GAAP operating profit of 40% and you have seen that we are relentlessly marching towards this model. Given all the complications of accounting for the acquisitions including amortization of intangibles, restructuring charges and inventory write up on acquisitions, Microchip will continue to provide guidance and track its results on non-GAAP basis. We believe that non-GAAP results provide more meaningful comparison to prior quarters and we request that the analysts continue to report their non-GAAP estimates to First Call.With this, operator, will you please pool for questions?Question-and-Answer SessionOperatorCertainly. We'll take our first question from Craig Hettenbach with Morgan Stanley.Craig M. Hettenbach - Morgan Stanley &amp; Co. LLCYes, thank you. Steve, thanks for the color in terms of book to bill and lead times. When you think through the March quarter seasonality with Atmel/Microchip combined can you help us as you go toward June in terms of what you typically see for the June quarter?Ganesh Moorthy - Microchip Technology, Inc.Well, the June and September were stronger quarters for Atmel as well as for Microchip and you have seen pretty strong June and September quarters for the last couple of years since we have had Atmel in both quarters. And you've seen the December quarter slightly stronger than our historic seasonality as we just reported. And what their results is significant difference in the March quarter seasonality where Microchip was historically up for 2.5% to 2.75%, and Atmel was down a whopping 7.8%. And that's really when you combine it together, that's what results into a minus 1% seasonality.Craig M. Hettenbach - Morgan Stanley &amp; Co. LLCGot it. And then maybe just a follow up for Eric. As you approach the target model and given the margin expansion you've seen, can you talk about just some of the initiatives this year and maybe on the intermediate term for both gross margins and op margins?J. Eric Bjornholt - Microchip Technology, Inc.So, I mean, on the gross margin front it's more of the same of what we've been talking about over the past year in terms of investing and the assembly and test and bringing more of that in-house, and we're making progress on that front. We've deployed a lot of capital over the last couple of quarters, we had more coming in this quarter as we talked about in my prepared remarks on the $50 million to $60 million of capital coming in. So that will continue to add to the gross margin improvement over time.We've got good utilization in our wafer fabs and all those things are making our cost structure very favorable. At a midpoint of guidance here of about 61.5% gross margin, we've got about a 1% improvement to go to get to the target model, and we're confident that we're going to get there with all these initiatives that we have.Craig M. Hettenbach - Morgan Stanley &amp; Co. LLCGot it. Thanks.Steve Sanghi - Microchip Technology, Inc.And same thing on the operating margin, we just reported 39.4%, and our long-term model is 40%. And we're fairly confident that most of that gross margin will fall through and we're going to be in that range.Craig M. Hettenbach - Morgan Stanley &amp; Co. LLCGot it.OperatorWe'll go next to William Stein with SunTrust.William Stein - SunTrust Robinson Humphrey, Inc.Great. Thanks for taking my question. I'm wondering if the inventory build is something that you had expected at the start of the quarter or if that occurred more as a result of perhaps orders not coming in with turn rates as fast as you might have expected when the quarter started?Steve Sanghi - Microchip Technology, Inc.So the inventory was pretty much right on target what we had guided to and what we achieved. The turns rate in December quarter was not soft. We beat the December quarter from the midpoint of our guidance so I don't think there was any issue in terms of our bookings in December quarter, which will have changed the inventory.J. Eric Bjornholt - Microchip Technology, Inc.Yeah. And you can see from the guidance that we had on our release, we think we're going to continue to be within our inventory target range of 115 to 120 days in the quarter that we're in right now, so I think inventory is well managed.William Stein - SunTrust Robinson Humphrey, Inc.That helps. One follow-up, if I can. You might have mentioned this, and I apologize if I missed it, but you've been talking about supply constraints on the Atmel portfolio, in particular in backend tests, and I think you've noted that you expected to be supply constrained there for – one time you said for the next year, maybe now we're at either six or nine months more. Any update on that relative to the capacity you've been adding. And I see the book-to-bill coming down and lead times coming down. Is that specifically related to the Atmel backend test? And any update there will be helpful. Thank you.Ganesh Moorthy - Microchip Technology, Inc.So Atmel had many business units. It was just not one business, it was microcontrollers and memory and defense and aerospace and RF and automotive and wireless and other businesses. We had broad based challenges on the Atmel business, and every quarter certain products, certain business units get help you on that. And we have been guiding from the very beginning that we expect this to take until about June of this year for it to – all business to get healthy and that really hasn't changed.So as we speak right now, there is largely, I would say, one-and-a-half business units that are still having significant challenges. Most of the others are in the very tail end where a large amount of problems have been resolved. And this last one-and-a-half business unit largely chose the testing platforms to be the one that you cannot acquire any more of. These were very old testers of 1970, 1980 vintage that should have been obsoleted prior to the year 2000. And 20 years later they're still running, but they're not running, they're not running well. And the capacity on them is going down not up because every quarter you've got to take one of it down to use for spare parts because you cannot buy anymore, so therefore the capacity is decreasing not increasing.So we are bringing that testing up on those products on more modern testers or microchip platforms, but that process is painful and then qualification of customers, many of those are automotive customers. So that is the process we've been going through for the last year-and-a-half, and I think during which we have grown the business, results have been great, lead times have been slowly coming down, but some of the remaining challenges remain and we think we need another five months to get it all behind.William Stein - SunTrust Robinson Humphrey, Inc.Thanks for the details.Steve Sanghi - Microchip Technology, Inc.Welcome.OperatorWe'll go next to Harsh Kumar with Piper Jaffray.Harsh V. Kumar - Piper Jaffray &amp; Co.Yeah. Hey, guys. First of all, congratulations on a solid quarter. 9% growth is pretty impressive, Steve. I wanted to ask about your outlook for March. In those markets, your broad end markets, auto-industrial consumer, which one do you think is going to outperform, in your opinion, the most?Ganesh Moorthy - Microchip Technology, Inc.Well, if the question is just for the March quarter, the consumer, obviously, is the weakest.Harsh V. Kumar - Piper Jaffray &amp; Co.Sure.Ganesh Moorthy - Microchip Technology, Inc.Automotive should do very well. Industrial should do very well. In some markets you have kind of brand new budgets coming in, in the New Year. The only market that is soft which is driving a minus 1% guidance is because of the Atmel seasonality which is usually down almost 8%, and that is driven by some of the consumer markets. Everything else should be good.J. Eric Bjornholt - Microchip Technology, Inc.And maybe I'll add to that on a geographic basis, this will be a strong quarter for Europe. It always is, just many more shipping days in the quarter without the holidays. Asia is the most challenged just because of the Chinese New Year, and Americas should do pretty well.Harsh V. Kumar - Piper Jaffray &amp; Co.So Steve, as my follow-up, you guys always run the company for the long-term, and historically in lean times even you've grown inventories, your target level of inventory is 115 to 120 days. You just hit 115 days now. By all metrics, end markets are still pretty good. Does it actually make sense for you to – can you make the case that you should actually be growing your inventory levels even further and beyond the 115 days? So why stop here?Steve Sanghi - Microchip Technology, Inc.Well, if our inventories get below 100, then we don't have usually all the right product in the right place and all the permutations and combinations and SKUs and permutations and combinations and SKUs and flavors available, and then you go on support and you're expediting and you're going to have a lot of manufacturing challenges. When you are in the 115, 120 days of inventories and I think we can manage our business reasonably well. I mean, I wouldn't distinguish between 115, 120 or a few days left or a few days even more than that on the outer side. But we don't want to have – keep going, like you said, to have 135, 140, 150 days of inventory, because then you're not really making the right use of that inventory.We don't need that much inventory and you have the opposite risk of obsolescence where certain products, customer changes are flavored. They want to use a different package and we packaged it in and we want to keep most of the inventory and die (00:30:23) inventory. And when you do that, then its dollar value doesn't grow as much versus if you put it in the finished goods.So I think that's well-tried over the years, that's really the right kind of number. And when we are lower than that, we're trying to grow inventory, when we are higher than that we're trying to decrease inventory, and that's kind of still the right number.Harsh V. Kumar - Piper Jaffray &amp; Co.Understood. Thanks, guys, and congrats.Steve Sanghi - Microchip Technology, Inc.Thank you.OperatorWe'll go next to Chris Caso with Raymond James.Chris Caso - Raymond James &amp; Associates, Inc.Yes. Thank you. Good evening. I guess to start if you could talk a little bit about where lead times are in general now? You're talking about them coming down. Would you consider them at normal levels now? And just following on from that, Steve, you had talked about the soft landing that you were trying to achieve. You've got lead times down now, you had the book to bill at 1, I mean, would you consider that with what you are seeing now, that soft landing is what we're seeing now or are there are more steps that need to be taken as you go into next year in order to achieve that?Steve Sanghi - Microchip Technology, Inc.So let me have Ganesh answer the lead time, then I'll pick up on your soft landing question.Ganesh Moorthy - Microchip Technology, Inc.So lead times are running – if I look at the December quarter in the 4-week to about 14-week window. So if you remember, we had – at the peak of this, we've had between 4 and 20 weeks and we have started out the capacity has come on board as we're able to get our manufacturing to respond. We've been bringing that down and we fully expect that it gets a little bit farther down in the March quarter, maybe closer to about 10, 11 weeks at the top end, and then gets down to between 4 and 8 weeks which is what we would consider to be normal on about 90% of our standard line items by the June quarter, right about on the same timeline we established about a couple of quarters ago.Steve Sanghi - Microchip Technology, Inc.So picking up on the soft landing scenario, I think I would say we've pretty much demonstrated it. We're on the tail end of it. So March quarter is right at seasonality combining Atmel and Microchip together. And if June quarter grows from here, June, September are stronger quarters, then we kind of just right went through soft landing and getting back to kind of seasonality and March quarter is up 9% year-over-year. And right in the upper end of that range that we had given you and over time it gets into the middle maybe or something around that. I mean, we're not minus 10%, we're not correcting like some of the people thought we will.Chris Caso - Raymond James &amp; Associates, Inc.Okay. Thank you. Just as a follow-up on the analog business and some of your comments on that. And I think I understand what you're saying that there's growth in analog within the microcontroller market which is affecting what gets classified in the analog segment, but what does that mean going – well, I guess two questions. One is why are we seeing that now in that – are there particular product cycle transitions happening which would cause that to show up in the numbers now? And then what does that mean for the analog business going forward? Should we expect some flattening of the growth on the analog business over the next several quarters as that trend plays out?Ganesh Moorthy - Microchip Technology, Inc.So the transition we're going through is some of our analog business was connectivity business when it either got originally created or if it came to us from an acquisition, was largely all analog in its functionality and therefore classified as analog. As time went on, if you look at a customer's system, we then begin to see what are the other functions that are on that customer's system. And often there are microcontrollers that are there to be able to take advantage of that analog.What we did some time back was create a new set of products which effectively combined the microcontroller and the analog into a single product. And as we go win new designs – and by the way, sometimes that microcontroller was ours, in other cases the microcontroller was somebody else's. But when you take a complete solution, which is a single chip which has the microcontroller and the analog, particularly in some of these smart connectivity solutions and there's a fair amount of software that we provide, the combined solution is a far more defensible, far higher margin and far more sticky business that we have. So it creates the right answer and we don't think ahead of time should we create products that fall into analog or fall into microcontroller. We're doing what we think we need to do to be able to grow, protect and have high profitability on the products we have. So that's one part of the headwind you're seeing, so to speak, by classifying it as microcontroller versus analog.But the other side of the tailwind that is coming, and I think we will see it progress along is the standard analog products that we've had, as they get attached around our microcontroller, our new designs as we have talked about the total system solution and the whole Microchip 2.0 approach of going to market. The remaining analog products will, over time, get back some of that tailwind and have that growth. And there's a bit of cross-currents between some of the analog that is moving to microcontroller for the right reasons, and the new analog designs that will come in and give us growth. But in the long run, we fully expect that analog will be a part of the growth story for Microchip.Steve Sanghi - Microchip Technology, Inc.By the way, if a pure analog company adds a microcontroller core to another complex product to improve performance or programmabili</t>
+  </si>
+  <si>
+    <t>Silicon Laboratories, Inc. (NASDAQ:SLAB) Q3 2018 Earnings Call October 24, 2018  8:30 AM ETExecutivesJalene Hoover - Silicon Laboratories, Inc.John Carter Hollister - Silicon Laboratories, Inc.George Tyson Tuttle - Silicon Laboratories, Inc.AnalystsCody Acree - Loop Capital Markets LLCGary Mobley - The Benchmark Co. LLCTore Egil Svanberg - Stifel, Nicolaus &amp; Co., Inc.Rajvindra S. Gill - Needham &amp; Company LLCCraig Ellis - B. Riley FBR, Inc.Blayne Curtis - Barclays Capital, Inc.Suji Desilva - ROTH Capital Partners LLCOperatorGood morning. My name is Mariama and I will be your conference operator today. At this time I would like to welcome everyone to Silicon Labs' Third Quarter Fiscal 2018 Earnings Conference Call. After the speakers' remarks, there will be a question-and-answer session. All lines have been placed on mute to prevent any background noise. Thank you. I would now like to turn the call over to Jalene Hoover, Director of Investor Relations and International Finance. Jalene, please go ahead.Jalene Hoover - Silicon Laboratories, Inc.Thank you, Mariama, and good morning everyone. Tyson Tuttle, Chief Executive Officer, and John Hollister, Chief Financial Officer, are on today's call. We will discuss our financial performance and review our business activities for the third quarter. After our prepared comments, we will take questions.Our earnings press release and the accompanying financial tables are available in the Investor Relations section of our website at www.silabs.com. This call is also being webcast and a replay will be available for four weeks.Our comments today will include forward-looking statements subject to risks and uncertainties. We base these forward-looking statements on information available to us as of the date of this conference call and assume no obligation to update these statements in the future. We encourage you to review our SEC filings which include and identify important risk factors that could cause actual results to differ materially from those contained in any forward-looking statements.Additionally, during our call today, we will refer to certain non-GAAP financial information. A reconciliation of our GAAP to non-GAAP results is included in the company's earnings press release and also in the Investor Relations section of Silicon Labs' website. I would now like to turn the call over to Silicon Labs' Chief Financial Officer, John Hollister.John Carter Hollister - Silicon Laboratories, Inc.Thanks, Jalene. I'm pleased to report that we achieved record revenue of $230 million in the third quarter, up 16% year-on-year and just above the high end of our guidance range. Our IoT products generated a new all-time record of $125 million for the quarter or 25% growth year-on-year.In Q3, we saw year-on-year increases in all major IoT product lines including 8- and 32-bit MCUs, Bluetooth, 15.4 wireless, proprietary wireless and sensors. We also shipped our first full quarter of Z-Wave products. We continue to see solid growth in the smart home and broad industrial market segments. Smart metering delivered sequential growth in Q3 although it is still down year-on-year.Our Infrastructure products delivered another record quarter with third quarter revenue ending at $53 million, representing year-on-year growth of 35%. Isolation achieved record design wins and established record revenue with strength in automotive and industrial end markets. Timing declined slightly in the quarter with growth in 100 gig offset by declines in 10 gig optical transport markets.As expected Broadcast increased sequentially in the quarter to $36 million with both consumer and automotive up. However, auto was down year-on-year due to softness in Europe resulting from production delays related to new emission standards. Year-on-year Broadcast was down 16%.Access surpassed expectations in Q3 increasing sequentially to $16 million on strength in SLICs and Power Over Ethernet products. Year-on-year, Access was down 4%.Third quarter distribution revenue was 72% of total sales. Our top 10 customers represented less than 20% of total year-to-date revenue with no customer greater than 5% of our revenue.Looking at revenue by end market, industrial was up in Q3 driven by growth in IoT. Our participation in the industrial end market now represents just over half of our revenue. We also saw overall sequential growth in automotive from Broadcast isolation and 8-bit MCUs.The communications end market also increased on timing, 8-bit MCUs and Power Over Ethernet products. And finally, consumer was up for the quarter led by a seasonal peak in Broadcast TV tuner revenue.Looking at geography, revenue was up in APAC and the Americas in the quarter. Sales into Europe were down. Third quarter non-GAAP gross margins were slightly higher than we expected at 60.8%, though down slightly sequentially due to product mix with Broadcast consumer revenue seasonally high.Non-GAAP operating expenses ended at $87 million. Non-GAAP R&amp;D expenses were $47 million, roughly flat to Q2 with an increase in head count offset by lower travel and fringe.Non-GAAP SG&amp;A expenses were $40 million, down $1 million due to reduced travel and variable compensation offset by an increase in head count. Third quarter non-GAAP operating margin ended strong at 23% which is 120 basis points higher than in Q3 2017.I am pleased to report record non-GAAP operating profit in the third quarter, surpassing the $50 million mark for the first time and ending at $53 million.During the third quarter, we made certain adjustments to our income tax accounting related to ongoing updates to transition tax regulations associated with the Tax Cuts and Jobs Act. We reversed a portion of the transition tax charge recorded in Q4 2017 and recorded a discrete GAAP tax benefit of $6 million. Based on the regulatory update, this transition tax item will now be recognized over a multi-year period for GAAP and tax purposes instead of being recorded as a one-time charge. Our non-GAAP tax rate increased to 15.6% for the quarter to provide for the year-to-date 2018 portion of this adjustment. Looking forward, we estimate a steady state non-GAAP income tax rate of around 13%.Non-GAAP earnings per share ended at the high end of guidance at $1.01, up 12% over the same period of the prior year. On a GAAP basis, third quarter gross margins were 58.9% which reflects the impact of the $4 million fair market valuation adjustment for Z-Wave inventory recorded in Q2 and which fully turned around in Q3, consistent with our expectations. Total Q3 GAAP operating expenses declined to $110 million with R&amp;D expenses at $61 million and SG&amp;A expenses at $49 million. Diluted GAAP EPS ended at $0.63 due to strong operating results combined with the aforementioned favorable GAAP tax adjustment. Stock compensation was $13 million with the amortization of intangible assets ending at $11 million, both in line with expectations.Turning now to the balance sheet, we ended the quarter with cash and investments of $608 million. Our accounts receivable balance declined to $75 million on 29 days sales outstanding and our inventory balance declined to $78 million on improved turns of about 4.9 times. Year-to-date 2018 operating cash flow was $145 million with excellent cash flow realized in the third quarter. Our board of directors has increased our buyback authorization to $200 million and extended the term of the authorization to the end of fiscal 2019. Third quarter year-to-date we have repurchased $24 million.I will now cover guidance for the fourth quarter. We expect revenue to be in the range of $221 million to $227 million with IoT up and declines in Infrastructure, Broadcast and Access. By end market, in Q4 we expect industrial to increase and we expect consumer, automotive and communications to decline.We expect non-GAAP gross margin to be between 60% and 60.5% and we expect non-GAAP OpEx for Q4 to be approximately $88 million. We expect our non-GAAP effective tax rate to be around 13% and we expect non-GAAP EPS to be in the range of $0.91 to $0.97. On a GAAP basis we expect gross margin to be approximately 60% and we expect GAAP OpEx to be around $111 million. We expect our GAAP effective tax rate to be approximately 10% and we expect GAAP EPS to be in the range of $0.39 to $0.45I will now turn the call over to Tyson.George Tyson Tuttle - Silicon Laboratories, Inc.Thanks, John. We are delighted to report outstanding third quarter 2018 financial performance including 16% year-on-year revenue growth. We saw sequential growth in all core business categories in Q3 and delivered record performance in IoT and Infrastructure. We have delivered target operating model performance in top line revenue growth, non-GAAP gross margin, non-GAAP OpEx, and non-GAAP operating margin for the past five quarters.Year-to-date our IoT products have delivered nearly 21% year-on-year growth including more than $20 million from the acquired Z-Wave business.Industrial IoT revenue has more than doubled over the past 10 quarters, reflecting growth in target applications for key market segments including smart home, metering, lighting and industrial automation.While smart metering revenue was still down in the third quarter year-on-year, we were pleased to see some recovery in Q3 with the resumption of normal shipment volumes in the UK from the SMETS1 to SMETS2 transition expected in early 2019.Simplicity is the key to scaling our IoT business. Our IoT opportunity funnel has grown to approximately $7 billion and our IoT design win lifetime revenue increased over 80% in Q3 year-on-year. The more we can do to make it easy to add connectivity to IoT devices the more we accelerate IoT adoption and growth.During the quarter we introduced new Wireless Xpress modules, enabling developers to move from product concept to prototype in a matter of hours instead of weeks. Silicon Labs' Wireless Xpress provides a configuration-based development experience with everything needed including certified Bluetooth Low Energy and Wi-Fi modules, integrated protocol stats, and easy to use tools.Bluetooth and Wi-Fi products based on Wireless Xpress can be remotely managed and updated using over the air native device management features. With Silicon Labs' Device Management Services, end users can easily install and update firmware, view real-time device metrics, and adjust product settings through the cloud and mobile applications. This type of product is well positioned to move through the channel and is rapidly gaining traction.I'd like to share an example of one of the many interesting ways IoT adoption is improving lives, transforming industries, and enabling smarter cities. Transportation studies show that drivers searching for parking spots have a substantial impact on urban traffic. To address this challenge during the quarter Q-Free and Silicon Labs announced an outdoor parking sensor solution designed to make it faster and easier for drivers in urban areas to locate open parking spots.Q-Free ParQSense is 99% accurate in determining whether a vehicle is taking up a parking space. The application transmits data to centralized base stations over long distances using Silicon Labs' Wonder Gecko wireless MCU.On the product development front we were pleased with the progress of our first generation EFR32 Wireless Gecko IoT platform in 90 nanometer process technology which consists of a portfolio of multi-protocol and multiband SoCs, modules, stacks, and tools.We are seeing broad adoption of this platform across smart metering, smart home, and industry market segments addressing Zigbee, Thread, Bluetooth, and proprietary protocols and we are now migrating Z-Wave under our first-generation hardware.Our focus in investment in software and security for the IoT continues to increase. We are very excited about our new second-generation Wireless Gecko IoT platform in 40 nanometer process technology which will deliver significantly lower power, improved range, superior multiprotocol capabilities and advanced security based on an ARM Cortex-M33 core with TrustZone, an embedded secure element technology. We are sampling the first product from our second-generation platform now and have already secured several Tier 1 design-ins for residential and commercial connected lighting applications.While the lighting market has underperformed in 2018 we are well positioned for anticipated growth in 2019 and beyond. We expect to be in full production with our second generation platform next year and welcome the opportunity to continue to build out the portfolio and drive leadership in connectivity and security for the broad IoT market.Moving on to Infrastructure, Infrastructure has delivered a especially strong performance this year with Q3 year-to-date growth of more than 35%. Our timing business has traditionally been strongest in the core optical networking market. This year we have seen strength and growing diversity in our customer base into industrial, data center and wireless infrastructure applications which now represent almost 40% of timing revenueWe continue to invest in these key growth products. During the quarter we enhanced our any-frequency clock portfolio which combines a clock IC and a quartz crystal reference inside the same package, simplifying board layout and design while guaranteeing reliable startup and operation over the lifetime of end products.Data center is the primary market for this new device and longer term we expect its ease of use will drive adoption in other applications.As further evidence of our progress in the wireless infrastructure market, during the quarter we secured key design wins in wireless timing applications with multiple Tier 1 communications customers in China. We are excited about the growing diversity of our timing portfolio including opportunities in 4.5 and 5G wireless.Our isolation portfolio represents a broad-based channel-friendly set of products which has grown to approximately 40% of Infrastructure revenue.Our CMOS-based digital isolation solutions continue to replace traditional optocouplers, offering longer lifetimes, significantly better stability over temperature and ageing, faster switching, and much higher noise immunity for designs requiring protection from high voltages.In Q3 isolation achieved record revenue in design win activity with strength across a broad range of applications including power supplies, solar, industrial, and automotive. We continue to gain traction in the automotive end market where we are the number one supplier of digital isolation technology for electric and hybrid electric vehicles. During the quarter we secured several significant design wins with a large European OEM which we expect to drive revenue beginning in late 2019.We are further encouraged by longer-term macro trends around the demand for electric vehicles. In fact the International Energy Agency forecasts the number of electric vehicles on the road will grow to 125 million by 2030 and this presents a large opportunity for Silicon Labs.We offer an ideal solution and have captured leading market share where we are selling approximately $10 to $50 of isolation content per vehicle today.Broadcast increased more than 5% sequentially with seasonally high consumer revenue and sequential growth in automotive. During the quarter we secured a major automotive OEM design win with a multiyear lifetime revenue opportunity of approximately $100 million and expect to begin shipping in 2021. This win underscores the technical superiority and flexibility of our Broadcast automotive portfolio and the growing penetration we are enjoying in the market.In Broadcast consumer, this month we reached a tremendous milestone with 1 billion cumulative units of TV tuners shipped into the global flat panel TV and terrestrial set top box markets since 2010 and where our share now exceeds 70%. This accomplishment is a testament to the RFC CMOS based tuner technology we developed and optimized over 6 generations of designs. We solved technical challenges which many other companies had tried and failed to deliver, ultimately replacing more than 100 external components with a single 3 x 3 millimeter tuner IC.Our TV tuners serve as a great example of what we can achieve when we focus and work together to drive cycles of learning and optimization. Our world-class engineering team has made this possible through groundbreaking RF design and IT. Our operations teams continue to drive manufacturing efficiencies and our sales and marketing teams engage customers and keep winning sockets.In conclusion, despite near-term turbulence in macro and regulatory environments as well as end markets we are keeping our eyes focused on the long term and are bullish about our ability to outperform the market. More than 80% of our products target long-term diverse growth markets including IoT, communications, infrastructure, industrial applications, electric vehicles, and automotive infotainment.Our opportunity pipeline is approaching $10 billion and we are focused on executing on our exciting product roadmaps and converting a rich pipeline of opportunities into wins.Jalene, I'd like to turn the call back to you.Jalene Hoover - Silicon Laboratories, Inc.Thank you, Tyson. Before we open the call for the question-and-answer session I would like to announce our participation in Barclays Global Technology, Media and Telecommunications Conference in San Francisco on December 5. We would now like to open the call up for your questions to accommodate as many people as possible before the market opens. We ask that you please limit your questions to one with one follow-up.Question-and-Answer SessionOperator. Your first question comes from the line of Cody Acree with Loop Capital. Your line is open.Cody Acree - Loop Capital Markets LLCGood morning, guys, and thanks for taking my questions and congratulation on the progress. Tyson, you alluded to this maybe in the last sentence or so of your comments, but I assume you were able to take a look at TI's comments from last night about a broad slowing of demand, semi demand across most major markets. I guess I would like to get your comments, your thoughts on that, and maybe what drivers you're seeing, and then maybe as a follow-up just what are the plans, if this is a period of slowdown in the markets, what is the plan to come out the other side better positioned? Thank you.George Tyson Tuttle - Silicon Laboratories, Inc.Yeah. Thank you, Cody, for the question. If we look – I'm going to talk little bit about IoT and I'll let John talk a little bit about the Broadcast and Infrastructure areas. We saw – we are seeing growth in wireless. We're seeing IoT going to be up in Q4 and that's really driven by the growth we're seeing in wireless with Z-Wave, proprietary, and Wi-Fi in particular having strength, and really coming off of a record design win quarter in Q3. So we see traction on IoT heading into 2019. We do see some as we enter into Q4 the macro impacting a little bit of our 8-bit business in China. But the 8-bit business is quite broad with a wide range of applications and is a good indicator of some slowdown in the communications and also the industrial area there in China, so we are seeing that. And then if you look at our other businesses in Infrastructure and Broadcast and Access, all of those will be down some somewhat. I'll let John comment a little bit on that.John Carter Hollister - Silicon Laboratories, Inc.Yeah, Cody. So looking further at the Infrastructure business, we had strength in industrial in the first half. And we also had some strength in China in some of the 10 gig business in China. That in particular is down as we expect it to be in Q4 with relatively flat performance on the industrial side for timing. We also see a bit of macro weakness on the isolation side and that's also an area where we've had just a long string of quarterly increases in the business, so that is settling back some. So overall we're guiding Infrastructure down. Looking further at Broadcast, consumer is seasonally high in the third quarter which is not surprisingly forecasted to be down in Q4. And as I mentioned in my prepared comments, the automotive part of the Broadcast business is down, really around some of the regulatory issues in Europe affecting the emissions standards and production being impacted by adoption of that.OperatorYour next question comes from Gary Mobley with Benchmark. Your line is open.Gary Mobley - The Benchmark Co. LLCGood morning, everyone. Thanks for taking my question. I want to ask about your long-term gross margin outlook. I know you're going to shy away from giving any sort of commentary with respect to fiscal year 2019, but your long-term target is 58% to 60%. You've been consistently running above that throughout all of 2018 and so all mix issues considered how do you feel about the gross margins staying above 60% level at least for the foreseeable future – for fiscal year 2019?George Tyson Tuttle - Silicon Laboratories, Inc.Yes, Gary. This is Tyson. In terms of the long-term gross margin, if you look at the last few quarters, we have been above our product target range of 58% to 60% and that's driven by a few things. One, our Infrastructure business does tend to be at a higher gross margin than the corporate average and with the strength that we've seen there, 35% year-on-year growth in Q3, that has tended to push up the gross margin as well as some of the weakness that we've seen in some areas of the IoT as some of that growth has been a little bit below.We had a little bit of softness in the lighting market. We also had this pause in the smart metering market so that overall the mix has been favorable to gross margin, but at the same time we've been driving costs very, very aggressively. We have a culture where we sell the value of our products and really look at how we can best extract the value in the market and we continue to drive innovation. So it's our goal to maintain a premium gross margin and we're looking in Q4 at 60% to 60.5%. So we still believe that we can continue to do that. I'll let John comment a little bit as well.John Carter Hollister - Silicon Laboratories, Inc.Yeah, Gary. I appreciate the question. I think it's a good indicator of what our engineering and operations teams are capable of doing around optimization of our cost structure. We're holding the 58% to 60%. We've seen some positive results this year. We do continue to be in growth mode and have our eye on greater share gains, so looking forward we're holding the 58% to 60% model at this point.George Tyson Tuttle - Silicon Laboratories, Inc.Yeah. I would like to add one thing which was below the target gross margin was when we decided to go into modules, the modules had some third party content and tended to be a little bit below our corporate gross margin. We have been aggressively driving cost reductions in the modules and as Z-Wave has come in, Z-Wave actually ships mostly in modules, and we've been able to achieve substantial cost reductions on the module manufacturing there, both in manufacturing and in tests, and so we just continue to hammer on this and we'll provide updates as we go forward.Gary Mobley - The Benchmark Co. LLCOkay, here's my follow-up and speaking of IoT modules, can you share with us your thoughts on how the introduction as announced the other day of LTE-M impacts your server available market. Does this open up new use cases for Silicon Labs?George Tyson Tuttle - Silicon Laboratories, Inc.This is – the LTE-M is an area where we currently are partnering with other providers. In this case it was with Digi International and we have a reference design with them using our microcontrollers and have a number of activities in partnership with other manufacturers on the wide area network solutions. Currently we are focused on the local area network and personal area network areas of IoT for our organic development and continue to monitor the wide area network. It would be doing that internally would be an expansion of SAM, but also we have so much opportunity in the local and personal area network spaces. We've decided to focus there and to partner on the wide area network stuff for the time being.Gary Mobley - The Benchmark Co. LLCAll right. Thank you.OperatorYour next question comes from Tore Svanberg with Stifel. Your line is open.Tore Egil Svanberg - Stifel, Nicolaus &amp; Co., Inc.Yes. Thank you and congratulations on the record results. I'm pretty intrigued by this Wireless Xpress technology. Tyson, maybe you can elaborate a little bit more how that stacks up versus what's out there in the marketplace right now from a competition perspective and when should we start to see sort of the benefits of this technology? How it shows up in numbers or share gains, or any other sort of metric we might be able to track?George Tyson Tuttle - Silicon Laboratories, Inc.Yeah. So the whole purpose of Wireless Xpress is to make it easy for customers to get to market quickly without having to write a lot of code and we've been working on – we've been talking about simplicity being the key to scaling IoT for a long time, and it's something that is actually very difficult to do.You have such a wide variety of applications and a lot of different communication standards and it's our goal to try to abstract the complexity of that as much as possible so that our customers can get to market quickly and also our support cost can scale across that broad market. And so the Wireless Xpress is a key stepping stone to getting there. We have a lot of customer activity going on around that. It's very easy for our channel partners to support and that we believe this is especially for the long tail of customers that you're going to see in IoT is really the key to success.We believe that we have not only a best-in-class offering in terms of our protocol stacks and in terms of our hardware and modules and development tools, but we believe that compared to the competition there is really nothing out there that is comparable to the ease of use and completeness of the solution that we've been able to bring. Currently we've got this working on Wi-Fi and Bluetooth and we intend to extend this into other protocols and other types of development within IoT to make things easier, so I think this is one of the cornerstones of our ability to grow and scale the IoT business over time.OperatorYour next question comes from Rajvindra Gill with Needham &amp; Company. Your line is open.Rajvindra S. Gill - Needham &amp; Company LLCYes, thank you, and I echo my congratulations on the IoT revenue. Tyson, a question on isolation. You mentioned that isolation now is 40% of Infrastructure which is a significant improvement, but you mentioned some kind of near-term headwinds. Can you kind of give us more of a long term view if we go into 2019 of how you think about isolation. Should we continue to expect more diverse end markets driving isolation going forward?George Tyson Tuttle - Silicon Laboratories, Inc.Well, isolation is very broadly penetrated into the markets and very channel-friendly and it's grown substantially this year. We've had very strong growth in isolation both in 2017 and 2018. If you look at the growth we've had close to 50% year-on-year growth rates in isolation and that's a good indicator of the strength there. If you look across the end markets you've got power supplies going to the data centers and a lot of industrial equipment. You've got solar inverters. We talked about the traction in the automotive end market, so we feel very good about our penetration. As the business gets larger, it's hard to maintain that kind of level of growth and coming off of such a fast growth we do see that the law of large numbers gets difficult but we still feel very good about the isolation products and our ability to grow those going into 2019 based on our design win traction.Rajvindra S. Gill - Needham &amp; Company LLCAnd for my follow-up, the IoT, if you take out Z-Wave of $13 million or so (00:32:13) the growth was about up 12% year-on-year. So there is still some deceleration from previous year, but it's starting to stabilize. You mentioned UK smart metering starting to see some shipments. That's been a big driver of your IoT business in the past. How do we think about that as we go into 2019? When do you expect the UK government to fully transition to the SMETS2 platform and how that will affect your business positively in 2019?George Tyson Tuttle - Silicon Laboratories, Inc.Right, so we've seen about $20 million of Z-Wave revenue cumulative throughout the partial shipment quarter in Q2 and then followed by a full quarter in Q3. If you pull that out, our IoT growth is somewhat below. It's still double digits, but below the 20% target. That's really isolated to two primary areas. We've seen the smart lighting market. We had anticipated faster growth there and we have seen some softness in the smart lighting market. We do have some nice design wins and do anticipate that coming back as we move into 2019. And then you look at the smart metering market, it's actually been down. We saw a little bit of recovery in Q3. And if you just take those two factors those account for a bit of the – or most of the below-target model performance there. We did have 26% year-on-year growth in IoT organically last year and we're a little bit below, so this 20% is a long-term target. But we do see that in 2019 we've got a number of things that are coming back with the Z-Wave portfolio now at full year as well as the lighting market or just the overall design win traction. We were 80% up on design win dollars Q3 over last year. So we think we've got a lot in the pipeline. We've just got to focus on converting that pipeline into wins and driving revenue growth.Rajvindra S. Gill - Needham &amp; Company LLCThank you.OperatorYour next question comes from Craig Ellis with B. Riley. Your line is open.Craig Ellis - B. Riley FBR, Inc.Thanks for taking the question. And, Tyson, congratulations on the strong IoT growth and the TV tuner shipment milestone. My first question is a follow-up on isolation. You provided in your prepared comments an example of very robust content in the automotive end market and these design wins (00:34:47) in Europe. Is automotive yet a material part of isolation revenues and if not, what would you expect it would, it would get to something that was a material part of that sub-segment?John Carter Hollister - Silicon Laboratories, Inc.Yeah, Craig. This is John. So given the broad diversity of the isolation business, really no single application or opportunity represents a large component of it, but if you sort of order them around the relative significance of the – actually the power supplies and the data center application is the largest opportunity. Automotive is right up there. And we do expect robust growth coming from automotive in the future as the electric vehicle phenomenon continues to take off.Craig Ellis - B. Riley FBR, Inc.That's helpful. And then the follow-up is on the cash position and the increase in the share buyback authorization, but a very robust cash position, a little over $600 million share buyback authorization increase. Is the intent to continue to use share buyback as something to really manage dilution with perhaps priority for cash, inorganic growth or given what we're seeing in the market, has there been any changes? How do you expect to deploy cash? Thanks, guys.John Carter Hollister - Silicon Laboratories, Inc.Yeah, Craig, it's John again. Really no major change in the company's overall strategy in these areas. We are pleased as we expected to have seen strong third quarter operating cash flow coming off of what was a relatively light first half, so that's good. I think the capital deployment strategy remains intact that we will focus on share repurchases on an opportunistic basis and we also continue to be mindful of inorganic opportunities to grow the business in areas that makes sense strategically for the company.Craig Ellis - B. Riley FBR, Inc.Thank you.OperatorYour next question comes from Blayne Curtis with Barclays Capital. Your line is open.Blayne Curtis - Barclays Capital, Inc.Good morning. Thanks for taking my question. I'm just curious and probably a little direct impact, but just curious the impact of tariffs on downstream products and customers and if you've accounted for any of that in your outlook? And then maybe a related point, with the slowdown here just curious if you've seen any change in inventory levels within the channel or your end customers? Thanks.John Carter Hollis</t>
+  </si>
+  <si>
+    <t>JPMorgan Chase &amp; Co. (NYSE:JPM) Q3 2018 Results Earnings Conference Call October 12, 2018  8:30 AM ETExecutivesJamie Dimon - Chairman and CEOMarianne Lake - CFOAnalystsGlenn Schorr - Evercore ISISteve Chubak - Wolfe ResearchBetsy Graseck - Morgan StanleyErika Najarian - Bank of AmericaMike Mayo - Wells Fargo SecuritiesJim Mitchell - Buckingham ResearchJohn McDonald - BernsteinAl Alevizakos - HSBCKen Usdin - JefferiesSaul Martinez - UBSMatt O’Connor - Deutsche BankBrian Kleinhanzl - KBWGerard Cassidy - RBCMarty Mosby - Vining SparksOperatorGood morning, ladies and gentlemen. Welcome to JPMorgan Chase’s Third Quarter 2018 Earnings Call. This call is being recorded. Your line will be muted for the duration of the call. We will now go live to the presentation. Please stand by.At this time, I would like to turn the call over to JPMorgan Chase’s Chairman and CEO, Jamie Dimon; and Chief Financial Officer, Marianne Lake. Ms. Lake, please go ahead.Marianne LakeThank you, operator. Good morning, everyone. I’m going to take you through presentation which is available on our website. Please refer to the disclaimer at the back of the presentation.Starting on page 1. The firm reported net income of $8.4 billion and EPS of $2.34 on revenue of $27.8 billion with the return on tangible common equity of 17%. The result this quarter was strong. Record net income for third quarter even excluding the impact of tax reform with key drivers being higher net interest income across businesses reflecting continued rate normalization and solid growth in both loans and deposits, as well as very strong credit performance across all portfolios.Highlights include, average core loan growth excluding the CIB up 6% year-on-year, card and debit sales as well as client investment assets and merchant processing volumes and consumer were all up double digits. We gained share in global IB fees and across all regions year-to-date and in Asset &amp; Wealth Management, AUM and clients assets were both up 7%.Turning to page 2 and some more detail about our third quarter results. Revenue of $27.8 billion was up $1.4 billion or 5% year-on-year. Net interest income was up $945 million or 7%, reflecting the impact of higher rate, net of lower market NII as well as loan and deposit growth.Noninterest revenue was up $425 million driven by market NII and higher auto lease income, partially offset by markdowns on certain legacy private equity investments.Expense of $15.6 billion was up 7% year-on-year. More than half of the increase relates to investments we’re making in technology, marketing, bankers broadly defined and real estate. And the remainder is driven by revenue related costs, principally higher auto lease depreciation and transaction expenses on higher volumes.Credit trends remained favorable across both consumer and wholesale. For the quarter, credit costs of $950 million were down $500 million year-on-year, driven by changes in consumer reserves.Briefly on page 3, turning to balance sheet and capital. So, little to say here other than as you can see, capital and risk weighted assets remained basically flat quarter-on-quarter with the CET1 ratio of 12%.Moving on to page four and Consumer &amp; Community Banking. CCB generated $4.1 billion of net income and an ROE of 31%. Core loans were up 6% year-on-year, driven by home lending up 10%, business banking up 5%, card up 4% and auto loans and leases up 3%.Deposits grew 4% year-on-year, continuing to outpace the industry although slower than a year ago. According to the recently released FDIC annual survey, we grew at nearly 2 times the average and we were the fastest growing bank in 9 of our top 10 markets. Chase also earned the number one spot in customer satisfaction in the J.D. Power U.S. National Banking Satisfaction Study.Client investment assets were up 14% as we saw clear record net new money flows, more than doubling year-on-year, with flows accounting for more than half of the growth. Card sales volume was up 12% with strength across our portfolio, and we also saw very strong debit sales performance, up 13%.Revenue of $13.3 billion was up 10%. Consumer and business banking revenue up 18% on higher NII, driven by continued margin expansion and deposit growth. Home lending revenue was down 16% as higher rates drive loan spread compression and the smaller markets pressuring production margins. In addition, net servicing revenue was down including the MSR.Card, merchant services, and auto revenue was up 10%, driven by higher card NII on margin expansion and loan growth, higher net card fees on lower acquisition costs predominately offset by lower net interchange and also on higher auto lease volumes. Expense of $7 billion was up 7%, driven by continued investments in technology and by auto lease depreciation. The overhead ratio was 53%.Finally on credit, starting with reserves. This quarter, we built reserves in card of $150 million, largely driven by growth. And we released reserve in the home lending purchased credit-impaired portfolio of $250 million, reflecting improvements in home prices and delinquencies.On charge-offs, there are few moving pieces. Year-on-year charge-offs were down $137 million, driven by a recovery from a reperforming loan sale in home lending this quarter of about $80 million, together with an approximately $50 million charge-off adjustment in auto this period last year.Excluding those, charge-offs were about flat. But, we are seeing improvement across all portfolios except for card. And in card, while charge-offs are up as newer vintages season, they are up less than expected and credit performance remained very strong. At this point, we expect card charge-off rates for the year to be below our guidance at about 310 basis points.Now turning to page five and the Corporate and Investment Bank. CIB reported net income of $2.6 billion, and an ROE of 14% on revenue of $8.8 billion up 3%. In banking, we maintained our number one ranking year-to-date in global IB fees as well as in North America and EMEA, and gained share across regions. For the quarter, IB revenue of $1.7 billion was flat to a strong prior year and we outperformed in a market of sound meaningful as we saw robust activity, particularly in ECM. Equity underwriting fees were up 40%, gaining share across all products with continued strength in IPOs, particularly in technology and healthcare.Advisory fees were down 6% compared to a third quarter record last year, outperforming the market and gaining share year-to-date. And debt underwriting fees were down 11% although better than the market, as our strong lead left positions drove share gains. Looking forward, the overall pipeline remains strong, up solidly from the prior year across products.Moving to markets. Total revenue was $4.4 billion, down 2% or up 1% when adjusting for the impact of tax reform, so another good performance. Fixed income markets revenue was down 6% adjusted with no single predominant driver. We saw mild weakness in rates, financing, credit rating and securitized products as a result of compressed margins and tighter financing spreads in range-bound and competitive markets. This was partly offset by higher activity levels in emerging markets on volatility and commodities returning to more normal levels relative to a weaker prior year.Equities continued the momentum from previous quarters and was up across all segments on the back of strong client activity. Equity revenue was up 17%, reflecting continued share gains in cash and prime and strong performance in corporate derivatives. Treasury services and securities services revenue were $1.2 billion and $1.1 billion, up 12% and 5% year-on-year respectively, driven by higher rates and balances. And securities services also benefited from higher asset-based fees on new client activity. Quarter-on-quarter, securities services revenue was down principally on seasonality and the impacts of the business exit.Finally, expense of $5.2 billion was up 8%, driven by higher legal expense, higher compensation expense as we invest in technology and bankers, and volume related transaction costs.Moving to commercial banking on page six. Another strong quarter for this business with net income of $1.1 billion and an ROE of 21%. Revenue of $2.3 billion was up 6% year-on-year, driven by higher deposit NII. Gross IB revenue of $581 million was flat, although we saw a strong underlying flow of business and pipelines remained robust and active.On deposits, while we continue to benefit from the normalizing rate environment, as expected, balances are down year-on-year and bases are trending higher, as we are seeing some migration at the top end to higher yielding investments.Expense of $853 million was up 7%, as we continue to invest in the business in banker coverage and technology initiatives. Loan balances were up 4% year-on-year and 1% sequentially. In C&amp;I, demand remains muted in the wake of tax reform as well client confidence is high, balance sheet is strong and liquid, and the environment is competitive.For us, C&amp;I loans were up 4% year-on-year and flat sequentially, in line with the industry. But if you decompose it, we’re growing strongly in our expansion markets and specialized industries, growing solidly in our core markets, but are seeing notable offset in tax expense activity, given the mix of our business.CRE loans were up 3% year-on-year, a little less than the industry as we’re seeing increased competition and continue to be very selective. Finally, credit performance remained strong with net recovery of 3 basis points.Moving on to asset and wealth management on page seven. Asset and wealth management reported net income of $724 million with a pretax margin of 27% and an ROE of 31%. Revenue of $3.6 billion was up 3% year-on-year, driven by higher management fees, net of fee compression on higher market levels and continued growth in long-term products. These are partially offset by lower mark-to-market gains, including on seed capital investments.Additionally, banking is also strong. Expense of $2.6 billion was up 7%, driven by continued investments in advisors and technology, as well as high external fees on revenue growth. For the quarter, we saw net long-term inflows of $8 billion with positive flows across all asset classes. In addition, we saw net liquidity inflows of $14 billion. AUM of $2.1 trillion and overall client assets of $2.9 trillion were both up 7% with more than half of the increase being driven by flows and the remainder on higher market.Deposits were down 8% year-on-year, reflecting migration into investments with us, and down 5% sequentially including seasonality. Finally, we had loan balances up 12% with strength in global wholesale and mortgage lending.Moving to page eight and corporate. Corporate reported a net loss of $145 million. Treasury and CIO net income was up year-on-year, primarily driven by higher rates. Other corporate was a net loss of $241 million, including markdowns on certain legacy private equity investments of $220 million pretax. For the whole Company, legal costs were a modest negative, with the benefit here in other corporate being more than offset in the CIB.Moving to page 9 and outlook. We recently gave you updated outlook, so unsurprisingly that still holds and it’s here on the page. Only two things of note. Our expense outlook assumes that the FDIC surcharge ended this quarter. So, clearly an extension would pose a risk. And on tax, there are a number of questions in the rules, which we expect to be clarified by the end of the year. We will have to work through them but would not expect any changes to be material.So to close. We are growing across most of our businesses. We’re investing heavily in all of them. We’re investing in technology, bankers and beyond. Credit is in great shape and the earnings power of the Company is evident. We are particularly proud of the strength and improvement in customer satisfaction broadly and our continued investments which drive leadership positions and market share gains. This quarter, we announced Sapphire Banking and our digital investing platform You Invest. We opened our first branch as part of our expansion strategy in Washington DC, announced additional expansion into Philadelphia and Boston, and also announced our AdvancingCities initiative as we invest for growth in the clients and communities that we serve.With that, operator, please open the line to Q&amp;A.Question-and-Answer SessionOperator[Operator Instructions] Your first question comes from the line of Glenn Schorr with Evercore ISI.Marianne LakeGood morning, Glenn.Glenn SchorrGood morning. So, at the Investor Day, I remember asking you the same question. So, I apologize. But, you have talked about consumer and corporate balance sheets being in great shape and having low debt service burden. The 10-year is up a modest 35 basis points since then and the world is freaking out that it’s the end of the cycle and that’s going to choke off the recovery. Your results are your results but they’re some will say backward looking. Are you seeing any impact, A, at the modest increase in the curve now? And B, I’ll ask again, is there a level of rates where you would start to see an impact of slowdown in what you’re willing to lend rising in credit costs, things like that? Thank you.Marianne LakeYes. So, I would say -- I would sort of pick up on the tone that you had in your question, which is the level of rates is not surprisingly high. And so, from our vantage point we’re not seeing anything in terms of looking at our current dialogue or for that matter at credit trends that would suggest that this is problematic. With higher rates and we do this all the time, we obviously look at all of our portfolio and stress them for shocks of up 100 basis points even up 200, although clearly where we are now, risks are more asymmetric but -- I mean more symmetric. But, there doesn’t seem to be any extraordinary stress that becomes evident, even if you -- obviously, the margin you’re going to get more but it doesn’t seem to be overwhelming. And it speaks, I think to the fact that low rates have been around for long term -- time. People have had the chance to get prepared. There is a lot of liquidity. And in the corporate space in particular, people have been able to hedge. So, is there an absolute level of rates where things will be problematic? At some point, but we don’t think we’re anywhere near there. So, I’m not saying that there couldn’t be select downgrades; I’m not saying that at the margin, there may not be some incremental stress if rates continue to go much higher, but that’s not where we are right now.Glenn SchorrOkay. Thanks very much, Marianne.OperatorYour next question comes from Steve Chubak with Wolfe Research. Steve ChubakSo, I wanted to start with the question on the You Invest launch. As we think about the strategy for the business, I want to understand, is the goal to compete with the incumbents to win new clients or are you simply trying to augment the existing offerings for JPMorgan clients? And it’s really just our effort to understand the long-term strategy, given that the pricing is quite competitive but at the same time, the marketing effort has been fairly minimal so far?Marianne LakeYes. I mean, remember, You Invest, it’s early. Jamie just said, I don’t know if you heard it. Yes and yes. Clearly, we are trying to add products and capabilities and value to our existing clients in an effort to continue to drive loyalty and engagement, and also earn more share of their wallet. But, we do think that the proposition is compelling and that the pricing is disruptive. And we should also expect over time to be able to attract new accounts. So, yes and yes, but it’s early days. We’re going to continue to develop, You Invest, its capabilities to iterate it and improve it. So far, it’s early but good.Steve ChubakAnd just one follow-up for me relating to the commentary on the deposit side. You spoke of some of the headwinds to the deposit growth and these are more industry trends, including yield-seeking behavior on both the commercial and asset management side. I know you’ve given some helpful guidance in terms of the impact of Fed QE unwind as well, in the past. I’m just wondering, is the yield seeking-behavior you’ve seen so far consistent with your expectation, do you still expect to grow deposits as we look out for the next couple of years?Marianne LakeYes. So, the answer is generically yes, as we would have expected. Obviously, we have no crystal ball as to the sort of timing and parts of these things. But, it is paying out arguably little slower than we thought, but like we thought. And I would say that our outlook for deposit growth is -- for it to be slower, but still positive.OperatorThe next question comes from the line of Betsy Graseck with Morgan Stanley.Betsy GraseckSo, first question just on the rate question that you got earlier. But, I wanted to understand how you’re thinking about the impact on the outlook for your asset yields, in particular the securities portfolio. I know you’ve given guidance on that before, but given the sharp backup that we’ve got over the last couple of weeks, how is that impacting your forward look on that?Marianne LakeYes. So, I mean, on the asset side of the balance sheet just a big rule of thumb is that a little less than half of our loans are variable, index sort of prime and LIBOR. And so, what we’ve been seeing -- in any one quarter, there can be noise on one time item mix or whatever else. But, largely speaking, for every rate hike we’ve been seeing on the front end, we’re seeing our assets reprice about half of that and that -- or loans be priced about half of that and that’s what we’d expect. Similarly, if we see sustained increases in the low end of the curve, then we would see that play through into our investment securities yield. Obviously, this quarter while there was a meaningful increase on a spot basis, on average basis that wasn’t the case and particularly not for mortgages. So, it had a modest impact on investment security yields this quarter. But, again, if it was a sustained and more sizeable, we would see that play through yes -- or would rotate the assets into higher book yields over time.Betsy GraseckOkay. And then, my follow-up question has to do with a blockchain that you launched this quarter. I think, it was on September 25th, you launched a blockchain for international payments. And I know at Investor Day, you talked a lot about the investments you were making on that side. Should we be viewing this as a competitor to SWIFT? Is that how the vision is for this blockchain?Marianne LakeSo, this is the Interbank Information Network which we talked at Investor Day. And now, we have I think 75 banks and growing signed up to it. I wouldn’t necessarily look at it exactly like that. I would say, this use case at least for now is very much around reducing the friction in the wholesale payment space in terms of inquiry and information sharing and not at this point about processing payments. So, we are still exploring use cases across the board on blockchain. I’m very excited about this and the uptake; it will be I think meaningful. But, I wouldn’t think of it that way, not yet. OperatorYour next question comes from Erika Najarian with Bank of America. Erika NajarianMy first question expands on what the Glenn had asked. So, clearly, the bank stocks have been hit along with the broad market. And I guess, you’re telling us one of two things. One, either the economy is slowing down or the relationship between bank revenue growth and solid economic growth in the U.S. is broken or not somehow is correlated as expected. And I’m wondering, given your fairly strong results across the board, where is the market wrong in terms of how they’re thinking about either the economy or bank revenues related to a strong economy?Marianne LakeYes. I would just start by saying, I think there is a lot of sort of macro uncertainty, noise and overhang that have been affecting the market over the last few days. So, overthinking any one driver or sort of confusion I think might be challenging. I would say that as we look at the economy, we don’t see it slowing down. It seems to be continuing to grow pretty solidly. There is divergence around the world. So, it’s led by U.S. strength, but still expecting there to be more convergence going forward. So, I actually think that our outlook is still quite optimistic on the global economy, and not to say to James’ point that there are some risks out there.And so, as we -- and also, just to talk about monetary policy for a second. Everything, given that growth outlook, is really sort of lining up for December rate hike and sort of more hikes into 2019 and the continuation hopefully of a steeper yield curve, and that all should be constructive for bank stocks. It is definitely the case that as we’ve been talking about the years now, as the Fed is shrinking its balance sheet and liquidity is coming out of the system, yes, we are seeing deposit growth slow. And there is a natural feedback loop, as you reprice liabilities, you’ll have a natural asset base response. And so you might have slower growth on the asset side relative to the past, but it should be at higher spreads, and that should be how it plays out. So, there is really no change, I don’t think in our expectation of the drivers.Erika NajarianThat’s helpful. And just as a follow-up, and I picked up in part of your response to an earlier question Marianne. As we think about your wholesale loan trends year-over-year which continues to outpace the banking industry. Could you tell us a little bit more about the dynamics in terms of competition from non-banks, particularly in private middle market lending? And I guess, we’re really wondering what you’re observing in terms of competition more in structure rather than rates? And whether or not some of the liquidity that you noted could be drained out of the system, would change the competitive dynamics near term? And sort of what is JPMorgan’s indirect exposure that remains on balance sheet on the sponsor-backed transactions. Sorry, I know that is a lot.Marianne LakeYes. I’ll try to remember all of that. First of all, I would just clarify that when you say wholesale loan growth has been outpacing the industry, I would say that from my recollection, over the course of the last several quarters, we’ve basically been saying in line with, if not maybe even slightly less than in line with the industry, but it is nuance, you need to get beneath it. There are areas where we would fully expect to be growing more strongly than the industry, and those are in our newer expansion markets where we’ve been investing, we’re reaping the benefits of those investments, and we’re growing from a smaller base and deepening into the market. In our core markets, the mature markets, in line to maybe not even quite as we are being cautious given where we are in the cycle. So, I just want to clarify that…Jamie DimonWe haven’t changed our standards.Marianne LakeWe haven’t materially changed our underwriting standards, no. And if anything, I would say, we’re just being cautious of the margin. And with respect to competition outside of banks, it’s definitely true that non-banks are gaining share. And it’s also true that they are structure-wise going to be willing to do and are willing to do things that we are not. And so, for our best clients, we aren’t largely going to lose on price, we would be willing to work on price. But we would walk away on structure. Jamie DimonAnd we don’t have a lot of residual exposure to sponsors doing that kind of lending.Marianne LakeThat’s right.OperatorYour next question comes from Mike Mayo with Wells Fargo Securities.Mike MayoSo, Marianne, look, I mean ROTCE of 17%, you seem to have some deposit market share gained, but year-over-year for the third quarter, expenses are up more than revenues. So, can you highlight the dollar amount of investment spending and how that’s changed and where you are in that progression?Marianne LakeYes. Just before we get into expense for a second, if you step back, just a couple of things. I wouldn’t look at any one quarter when I’m thinking about operating leverage, not to overplay seasonality or anything else. But, I would look at the whole year. And tax reform is an important part of that. So, if you look at year-to-date on a reported basis rather than a managed basis, year-over-year, year-to-date, we have about 200 basis points of positive leverage. So, tax reform is a big factor. And then, obviously, we had some private equity losses which are episodic in this quarter’s revenue print. So, I think there is strong growth across the businesses. So, expense number and investments, our expenses are up over a $1 billion year-on-year, in line outside of FDIC and revenue related costs, in line with the guidance we gave at the Investor Day. So, think about that sort of $2.7 billion of year-over-year investments, and we’re working through it. So, we’re on track. It’s different from revenues insofar as it’s more linear. And so, expenses are in line and leverages -- positive leverages are I think pretty strong.Mike MayoAnd just one separate question for you, Jamie. Your CEO letter highlights the expectation that interest rates would go a lot higher, so I guess for a long -- the track that you laid out. But, it doesn’t seem like the market is digesting it as maybe as well as you might have thought the market would digest. So, it’s basically what you expected. So, what’s different between your expectations and how the recent market’s been reacting?Jamie DimonI think, I noted that the market may not take it that well if rates go up and -- because it’ll surprise people a little, people shouldn’t be surprise. And of course, so many things have changed as we’ve been through this before, like monitory policy, liquidity ratios, capital ratios et cetera. So, I was also pointing out that -- just about probability that rates can go higher, people should be prepared for that; they should not be surprised about it. So, I’m always surprised when people are surprised. And the why is more important? You’re still growing. The economy is strong, rates are going up. Most of us consider it a healthy normalization, and going back to a more of a free market when it comes to asset pricing and interest rates et cetera, and we need that. So, to me, overall, it’s a good thing, particularly because the economy is strong. And so, I do expect rates will continue to go up. We don’t bet the company on that. That’s just my own expectation. I have a -- I would put much higher odds in it being at 4% to most of the people, but again, the economy is strong. So, as long as it’s normalized strong economy, it’s a good thing. The economy could be strong for a while. I mean, Marianne pointed out wage is going up, participation is going up, credit has been written as pristine. Housing is in short supply. Confidence, both small business, consumer is extraordinarily high. And that could drive a lot of growth for a while, in spite of some of the headwinds out there.Marianne LakeI also think -- I mean, not exactly, but if you went back and looked a couple of years ago, what the 2-year forward 10-year rate would look like, it would look much like this. And so, it’s just that it’s been -- because the covers having a hard time pushing up that people are now focused on it, but this is what we would have expected, should expect and higher.OperatorYour next question comes from Jim Mitchell with Buckingham Research.Jim MitchellHey, good morning. Maybe just a quick question on deposits. We’re starting to see some slowing of growth if not outflows in some areas as rates rise. How do you -- but you guys still have a loan to deposit ratio that’s in sort of the mid-60s and you’ve been gaining share on the retail side. What’s your sense of I guess competition for deposit and pricing, particularly in the core retail bank?Marianne LakeYes. So, when we think about the -- well, it’s not really about competition particularly. When we think about the deposit base and the retail consumer relationship, deposits and rate paid is a important part of it, but it’s increasingly less important, not that it’s not significant. And so, when you think about the value that we give to our customers, it’s not just that but it’s also all of the customer experience initiatives that we’ve had, it’s about convenience, about digital mobile capabilities, it’s about launching new products, new services, simplifying the environment for them. So, there’s a lot of different investments and things to play which might make this kind of normalization cycle look a little different. And so, the way we think about it is we look carefully across the spectrum of deposits, retail and wholesale at what we are seeing in terms of flows and balances and elasticity for our customers on our balance sheet. And that’s how we think about our strategy for deposit reprice. And it’s sort of largely behaving as we would have expected.Jamie DimonI’ll just make a macro point too. As the Fed reduces balance sheet -- just say by $1 trillion over the next 18 months or whatever, which they indicated they’re going to do, that’s $1 trillion out of deposits. That will have an effect kind of macro competition and stuff like that. And we try to estimate the big points, is it coming out of wholesale, kind of retail? It’s hard to know. But that will change the competition a little bit for deposits.Jim MitchellOkay, fair enough. And maybe a follow-up on that investment spend. Do you -- I mean obviously, it went up with the Tax Cut helping to accelerate some investments. Do we think of it going forward stabilizing at these high levels, or is this sort of a one-off sort of increase and we might see that come down or do we keep increasing? How do we think about the investment spent needs going forward a little further out?Marianne LakeYes. So, I would say, and first of all obviously, we’ll give you more thoughts on forward-looking guidance at a future date. But just generically, I wouldn’t really put tax reform as being a primary reason for what we’re doing on investments. I would say that we have identified the opportunity to accelerate capabilities that are consistent with our client strategic long-term goals and so we’ve been leaning into that this year. And so, it was a pretty sizable step up this year acknowledging that. We wouldn’t necessarily expect to see that continue. But, we’re going to carry on investing in technology, adding bankers, opening branches, launching new products so that we’re defending the long-term growth and profitability of the Company. And in the absence of giving you guidance, I would just point you to the fact that we’re still targeting -- not targeting, but we’re still expecting an overhead ratio to be around about the mid-50s over the medium term, which on revenue growth, implies we’ll continue to invest and there is also volume-related costs associated with that.OperatorYour next question comes from John McDonald with Bernstein.John McDonaldHi. Good morning. Marianne, I was wondering on the regulatory front, do you any visibility into the future interaction of CCAR process with the new loan loss accounting rules, CECL, particularly in the context of the stress capital buffer potentially being implemented? Because it seems like we could have some overlapping procyclicality and then the potential to freeze that into the run rate capital. So, I was just kind of wondering, is there any visibility yet on that and is that a big area of uncertainty for you?Marianne LakeSo, you hit the nail on the head with both your question and what that could imply. It is a big area of uncertainty. We do not have clarity on capital broadly as it relates to CECL, including whether there will be permanent capital relief and/or how that will play into CCAR. It is one of the most open questions we have. So, right now, what we know is -- as far as I know, anyway that we don’t have to put the CCAR impacted until -- sorry, CECL impact in until CCAR 2020. So, it’s not sort of imminent question, but it’s an important one, and we don’t know the answer.Jamie DimonIt seems to me that every single time there’s a chance to make things more procyclical or less, we make it more procyclical.Marianne LakeThat’s the data for sure. So, we would encourage the dialogue on clarifying capital treatments with large to be at the forefront of standard set of mind. Jamie DimonThis also won’t change our strategy. That’s just accounting.</t>
+  </si>
+  <si>
+    <t>State Street Corporation (NYSE:STT) Q3 2018 Results Earnings Conference Call October 19, 2018  9:30 AM ETExecutivesIlene Fiszel Bieler - Global Head-IRJay Hooley - Chairman and CEOEric Aboaf - CFORon O'Hanley - President and COOAnalystsGlenn Schorr - Evercore ISIBrennan Hawken - UBSKen Usdin - JefferiesBetsy Graseck - Morgan StanleyAlex Blostein - Goldman SachsBrian Bedell - Deutsche BankMike Carrier - Bank of AmericaMike Mayo - Wells FargoJim Mitchell - Buckingham ResearchGeoffrey Elliott - AutonomousSteven Chubak - Wolfe ResearchBrian Kleinhanzl - KBWVivek Juneja - JPMorganGerard Cassidy - RBCOperatorGood morning and welcome to State Street Corporation's Third Quarter of 2018 Earnings Conference Call and Webcast. Today's discussion is being broadcast live on State Street’s website at investors.statestreet.com. This conference call is also being recorded for replay. State Street's conference call is copyrighted and all rights are reserved.This call may not be recorded for rebroadcast or redistribution in whole or in part without the express written authorization from State Street Corporation. The only authorized broadcast of this call will be housed on the State Street’s website.Now, I would like to introduce Ilene Fiszel Bieler, Global Head of Investor Relations at State Street. Ma'am, please go ahead.Ilene Fiszel BielerThank you, Laura. Good morning and thank you all for joining us.On our call today, our Chairman and CEO, Jay Hooley will speak first, then Eric Aboaf, our CFO will take you through our third quarter 2018 earnings slide presentation, which is available for download in the Investor Relations section of our website, investors. statestreet.com. Afterwards, Ron O'Hanley, our President and COO, will join Jay and Eric and we'll be happy to take questions. During the Q&amp;A, please limit yourself to two questions and then re-queue.Before we get started, I would like to remind you that today’s presentation will include adjusted basis and other measures presented on a non-GAAP basis. Reconciliations of these non-GAAP measures to the most directly comparable GAAP or regulatory measure are available in the appendix to our 3Q 2018 slide presentation.In addition, today’s presentation will contain forward-looking statements. Actual results may vary materially from those statements due to a variety of important factors such as those factors referenced in our discussion today. Our forward-looking statements speak only as of today and we disclaim any obligation to update them even if our views change.Now, let me turn it over to Jay.Jay HooleyThanks Ilene, and good morning, everyone.As you've seen, we announced our third quarter financial results this morning. Our third quarter and year-to-date results reflect solid performance across our businesses as we continue to win new business and invest in the future, while reducing legacy costs as we advance our digital transformation.Despite a higher than average share count, third quarter earnings included substantial EPS growth and increased return on equity compared to 3Q 2017. Assets under custody and administration rose to record levels of $34 trillion, a 6% increase year-on-year driven by strength in equity markets and new business wins.We achieve new asset servicing mandates of approximately $300 billion during the quarter, driven by two substantial wins of approximately $90 billion each from the large European client and a top insurance and investment management company.Importantly, year-to-date we've now seen a number of sizable new client business wins, totaling $1.8 trillion and our new business pipeline opportunities remain robust across the franchise, giving us continued confidence about the differentiation in the marketplace from the service and solutions standpoint.Assets under management at State Street Global Advisors were at record levels of $2.8 trillion at the end of the third quarter, up 5% year-on-year and 3% sequentially, reflecting strength in equity markets and ETF inflows driven by the continued success of our low cost product launch late last year and institutional inflows.These positive growth trends within our core franchise were partially offset by market and industry headwinds, leading to overall fee revenue increasing only 2% year-over-year. I'm particularly pleased with our ability to drive costs out of our core business and adapt quickly to the revenue environment we experienced this quarter. We actively brought down expenses for two successive quarters.Beacon continues to deliver significant savings and we have embarked on new productivity initiatives to achieve greater standardization and globalization of our operations and services. These levers equip us to achieve strong expense control as evidenced by the year-to-date increase in our pre-tax margins while continuing to invest for the future.More importantly, these initiatives enable us to create new data-oriented services and will provide the foundation for the integration of Charles River into the industry's first ever front to back office asset servicing platform from a single provider.Let me take a moment to update you on Charles River Development. As you know the acquisition closed October 1, integration is well underway and initial client reaction has been overwhelmingly positive. Charles River is already creating opportunities among new and existing clients.We have our management team in place and are establishing a client advisory board anchored by OMERS. The Ontario Pension Fund, which is a broad based user of Charles River dating back 11 years. We're encouraged by the early reaction to the acquisition and are confident that will enable us to deepen and grow our client base, while delivering positive results for our shareholders.With that let me turn the call over to Eric to take you through the quarter in more detail.Eric AboafThank you, Jay and good morning, everyone.Please turn to Slide 4, where you will find our quarterly results as well as a few notable items from prior quarters. As a reminder, 2Q 2018 include a repositioning charge of $77 million and 3Q 2017 included $26 million gain related to the sale of an equity trading platform, as well as 33 million in restructuring costs. I'll also remind you that 3Q 2018 results include the impact of the new revenue recognition accounting standard. This increased both fee and total expense by $70 million year-over-year but is EBIT neutral.Now let me move to Slide 5, where I will review the quarterly results as well as the year-to-date highlights. Third quarter 2018 EPS increased to a $1.87, up 13% relative to a year ago. ROE was 14%, up a full percentage point and pre-tax margin increased half a point as compared to prior year.3Q 2018 results reflect a disappointing fee revenue environment, largely offset by strength in net interest income and tighter expense control. We achieved positive operating leverage of 80 basis points compared to 3Q 2017. Fee operating leverage, however was negatively impacted by lower than expected fee revenue, which I will touch on shortly.Given the soft fee revenue environment, we intervened on expenses, excluding the impact from revenue recognition and the prior year restructuring charge, we held expense growth to just 1% as compared to last year.Sequentially, we actively flex expenses downwards. Last quarter I told you we would keep second half expenses flat to first half. In 3Q we did just that. Expense control is a key management priority as we navigate the quarterly revenue environment. We are carefully investing in product differentiation that continues to drive new business wins while reducing legacy costs.On a year-to-date basis, we delivered solid results. EPS increased 24% and ROE increased approximately two percentage points. We achieved positive operating leverage of 2.3 percentage points supported by positive momentum in NII and 4% year-to-date servicing fee growth.Pre-tax margin increased approximately 1.5 percentage points, further demonstrating our focus on managing expenses.Now, let me turn to Slide 6 to review AUCA and AUM performance, which increase on both the sequential and year-over-year basis. AUCA increased 6% from 3Q 2017 to 34 trillion. Growth was primarily driven by U.S. market appreciation and several large client installations, partially offset by the previously announced BlackRock transition.In Global Advisors or asset management business, AUM increased 5% from 3Q 2017, driven by strength in U.S. equity markets and new business from ETF mandate's, only partially offset by lower net flows within the institutional and cash segments.Please turn to Slide 7 where I will review 3Q 2018 fee revenue as compared to 3Q 2017. Total fee revenue increased 2%, reflecting higher equity markets and trading activity, as well as the benefit related to revenue recognition. Servicing fee revenue was lower compared to 3Q 2017, as well as compared to 2Q 2018, although it was up 4% on a year-to-date basis.3Q results reflect the previously announced BlackRock transition, which was worth an additional 20 million this quarter, as well as challenging industry conditions. Most important global economic uncertainty has driven investors to the sidelines, causing significant outflows and lower activity across the bulk of the asset management industry. We have also seen some fee pressure and two to three quarters of fund outflows in both the U.S. and Europe, which together creates a downdraft on the industry servicing fees.In emerging markets which typically represent higher per dollar servicing fees were negative both year-over-year and quarter-over-quarter. That said, net new business was strong again this quarter and year-to-date servicing fees are up 4% as I mentioned.Now, let me briefly touch on the other fee revenue lines related to 3Q 2017. Management fees increased 13% benefiting from global equity markets, as well as $50 million related to the new revenue recognition standard. Trading services revenues increased 11%, primarily due to higher FX client volumes.Securities finance fees decreased driven by some balance sheet optimization that is now complete. This provides a base of for which to grow these revenues in line with our balance sheet expansion as I've previously mentioned. Processing fees decreased from 3Q 2017, reflecting a prior year gain partially offset by higher software fees.Moving to Slide 8, NII was up 11% and NIM increased 13 basis points on a fully tax equivalent basis relative to 3Q 2017. NII benefited from higher U.S. interest rates and continued discipline liability pricing, partially offset by continuing mix shift towards HQLA securities in the investment portfolio.NIM increased due to higher NII and a smaller interest earning base due to deposit volume volatility. Deposit betas for the U.S. interest-bearing accounts were relatively unchanged from last quarter, though we expect betas to continue to edge higher in future quarters in line with industry trends.Now, I will turn to Slide 9 to highlight our intense focus on expense discipline, which continued into the third quarter. 3Q 2018 expenses were well controlled relative to 3Q 2017 increasing 3%. Excluding approximately 70 million associated with revenue recognition and a prior year restructuring cost, expenses were up less than 1% from a year ago quarter as we continue to actively manage the cost base. The 1% increase in expenses was due to investments in costs for new business, as well as higher trading volumes, partially offset by Beacon phase.Sequentially, expenses decreased 4% from 2Q, which included the second quarter $7 million repositioning charge. Excluding the charge, expenses were flat, further demonstrating our ability to flex the cost base to the current revenue environment.As I mentioned, this is a second quarter in a row of sequential underlying expense reduction. During 2Q 2018, we reduced incentive compensation. This quarter we reduced vendor and discretionary spend.Quickly, from a line item perspective and relative to 3Q 2017, compensation and employee benefits increased just 1%, reflecting cost for our new business and annual merit increases, partially offset by Beacon savings and new contractor, vendor initiatives, information systems increased, reflecting Beacon-related investments as well as additional investments to support new business growth.Transaction processing cost increased due to the impact of the new revenue recognition standard, offset by sub-custodian savings this quarter. Occupancy costs were down as a result of the continued progress in optimizing our global footprint. And excluding the $38 million impact of revenue recognition, other expenses decreased 3%, reflecting lower discretionary spent such as travel expenses and Beacon-related savings.Turning to Slide 10, let me briefly highlight what actions we have successfully taken to manage expenses relative to the revenue landscape over the last several quarters. On the top of the slide you can see that we achieved $65 million in net Beacon sales this quarter, through our efforts to optimize the core servicing business, transform our IT infrastructure and gain efficiencies within the corporate functions and SSGA.Notably, we are on track to complete Beacon by early 2019, significantly ahead of our original year-end 2020 target. We continue to invest towards a highly digitized environment, including robotics and machine learning, which are driving innovation and cost savings for us and our clients.In addition, as you can see in the bottom panel, we just rolled out a series of new expense initiatives in light of current industry conditions that are affecting quarterly revenues. These total $40 million just this quarter. And additional actions are planned in the fourth quarter.Moving to Slide 11, let me touch on our balance sheet. The size of our investment portfolio remained flat sequentially and well positioned given the rate environment. Our capital ratios increased measurably from 2Q 2018, as a result of our pre-funding related to the Charles River acquisition which we completed on October 1, as well as earnings retention.As a reminder, in late July we issued approximate $1.1 billion of common stock and in September successfully issued $500 million of preferred stock, while temporarily suspending buyback.We fully intend to resume our common stock repurchases in 1Q 2019 and expect to return $600 million to shareholders through 2Q 2019. We also completed the necessary adjustments for our management processes and believe that we are well prepared for CCAR 2019.Moving to Slide 12, let me summarize. Our 3Q 2018 results reflect a continued fund focused on managing expenses in response to the current quarterly revenue environment. The 11% increase in net interest income compared to 3Q 2017 offset in-part the softness in servicing fee revenues I described.Notably, 3Q 2018 pre-tax margin increased to 29.4%, supported by the strength in NII and disciplined expense management. Year-to-date results also reflect solid progress from the 2017 period. We announced new business wins of $1.8 trillion of custodial assets.EPS increased 24% and ROE improved buy almost 2 percentage points or 13.8%. NII increased 17%, reflecting higher U.S. interest rates and our success in managing liability pricing. Calibrating expenses, the revenue generated positive operating leverage of 2.3 percentage points.Let me briefly touch on our 4Q 2018 outlook, which currently excludes the recently completed Charles River acquisition. We expect 4Q 2018 servicing fee revenue to be flattish to 3Q assuming continuing industry conditions and stable market levels. We expect continued sequential NII growth though this always depends on market rates and betas.We expect total expenses only slightly above 3Q levels, but consistent with our expectations to keep second half of 2018 expenses flat to first half excluding the seasonal deferred incentive ramp and repositioning as we actively manage expenses relative to the revenue landscape.As I said these estimates do not yet include acquisition of Charles River that we completed earlier this month. So let me give you some color on that, before I turn the call back to Jay. Although it is early days we're very excited about the opportunities to deliver to our clients the first-ever front-to-back office asset servicing solutions on a single provider.During fourth quarter, we will be giving guidance on revenues and expenses from the Charles River acquisition at an upcoming conference. In 2019, we look forward to providing regular updates to investors and how we are progressing against the revenue and expense synergies that we can communicated on the July earnings call.Now let me hand the call back to Jay.Jay HooleyThanks Eric. And Laura we're now - if you would open-up the call to questions we are available.Question-and-Answer SessionOperator[Operator Instructions] And our first question comes from Glenn Schorr of Evercore ISI.Glenn SchorrA couple of quick ones on the securities portfolio I see, A) the duration extends a little bit I think; B) the yield on the securities book was flat, and C) it now has $1 billion unrealized loss position which I think it's just expansion of the mortgage book but could you mind commenting on those three things?Eric AboafMaybe in reverse order, the OCI position is just one that moves in firstly with rates and so as we have seen the upward rate environment that comes through as a mark on the balance sheet. I think it's within good set of balance of that's - that was to be expected.In terms of the investment portfolio, I think as we described in first quarter and second quarter we continue to remix that portfolio. We have been gently shifting out of credit and into sort of more classic HQLA securities. Though some movements of that this quarter between ABS and Muni's and so forth which resulted in relatively flat yield.The big piece that you have to remember is that we've added and continued to add international foreign debt securities, right German bonds and British gills and that kind of high-grade sovereign.As we do that we do less of the FX swaps back to the U.S. And so our FX swap cost actually came down by nearly $35 million this quarter. And so what you actually see is you see relatively stable yields in the portfolio in aggregate. But if you look down on the interest-bearing liability line for non-U.S. domicile deposits, you see reduced interest expense because we have less of that FX swaps.So just keep in mind that that the FX played through both on the investment portfolios, on the asset side and the liability side as yet read through.Glenn SchorrAnd then there's the further migration at of non-U.S. deposits and it looks like U.S. deposits are up. It also, there is a big drop in the yield paid in the non-U.S. deposits. So is that you purposely migrating those deposits via pricing?Eric AboafNo. This has less to do with rate than just the movement of the domicile from deposits. If you remember, we like many banks had had deposits in the Cayman branches and other, what I'll call offshore but U.S. related areas. Those were always, those were typically U.S. dollar deposits but were classified by the regulatory reporting standards as non U.S. domiciled.So we effectively did is we've closed down that program, it's no longer necessary. It's one of those legacy programs that we and other banks have had. So what's happened is the U.S. deposits which are paid, U.S. interest rates which tend to be higher than foreign deposits interest rates have actually moved out of the non-U.S. mining so the U.S. line which is what brings the non-U.S. line down sequentially and then it just blends into U.S. line.At this point we have made I think two steps of a change of about I want to say almost $20 billion that we have moved. It's now - those moves are completed. And so on a go-forward basis the account should be a little cleaner for you to read through.OperatorOur next question is from Brennan Hawken of UBS.Brennan HawkenFirst question just wanted to follow up Eric on the fourth quarter indication on servicing fees. You had indicated that you expected them to be flat with this third quarter. So I guess the question is, is that based upon the current quarter-to-date action that we see in some of the markets because there is some been some continued EM weakness and I know that's a headwind for you. So does it consider those dynamics? And do you just think that it will be offset by improved volume trends? Or can you give us a little bit more there please?Eric AboafYes. I think when you look quarter-to-quarter it's always - it's a set of small moves and rounding. So we continue to see negative flows in all the public data, whether it's EM but also in the other international markets which will be a bit of a headwind.We've got nearly all of the BlackRock transaction out. We've got I said 10 in the 1Q to 2Q 2020 from 2Q to 3Q. We got $5 more, so that will get to a $35 million run rate so that's nearly finished up. And then - there’s some installations coming through as the pipeline plays out.And then the open question will be what happens to market levels because you know how that plays through our fee structure. So we think it's going to be flattish. I think there is - it's rough estimate for now and kind of an assemblage of those - the composites of those move.Brennan HawkenSo it does consider some of that weakness thank you for clarifying that. Second question being, you previously had indicated an expectation of the fee operating leverage, I want to say that the bottom end of the range was positive 75 bps for the full year. I don't think you included those comments in your prepared remarks. Is there an update to that outlook? How should we think about that? I'm guessing it would be pretty hard to reach that kind of fee operating leverage for the full year, given the first nine months trend?Eric AboafYes Brendan, it's Eric. And I think you've called it right. I gave outlook here. I needed to give outlook either on the flip quarter basis or on a full year basis. And obviously, you guys can model out the other piece either way.But I'd just do it for our fourth quarter, just to give you the direct information. I think if you put together the composites of 1Q plus 2Q plus 3Q, yet in my fourth quarter you'll see that we have good line of sight to many of the targets that we gave in January, but I think fee operating leverage, as you described, will - it's not going to be one of them on a full year basis.That said, we are very focused on controlling what we can control and you've seen us, I think, intervene pretty significantly on expenses and we'll continue to do that as we navigate through the quarterly revenue environment. And that's probably an area, expenses in particular, where I think we will have outperformed our intentions for the year.OperatorOur next question is from Ken Usdin of Jefferies.Ken UsdinEric, can you talk a little bit about - you mentioned that in second quarter you had trimmed back on the incentive comp and then this quarter you made the additional changes to $40 million. I guess, how do we - can you help us understand, given the third quarter results and the fourth quarter outlook, how do we understand where you are in terms of incentive comp overall?Like, is it truing up relative to where the revenues have come from through, part of your fourth quarter outlook for flat expenses? How do you just generally think about, say, you've done in the past, or it's trued up at the end of the year for disappointing revenue trajectory? So just maybe you can hover through some of the moving pieces of how you expect that flat expenses in the fourth to be coming from?Eric AboafSo Ken, let me first describe how we and I think other banks address incentive compensation. Right? At the beginning of the year, we have estimates of where we're going to deliver in terms of revenues and expenses and other NII and total earnings and EPS.As we move through the year, right, we check to see how we are trending against those expectations. First quarter was a good quarter, generally, and there was no need to make any adjustments. And second quarter, right, as we saw that step down around flows and those industry conditions that have started to permeate through the P&amp;L, we came to the clear realization that we weren't going to deliver at least for the first half year. And as a result, we did a year-to-date catch up on incentive compensation. And that was where $40 million, $45 million in terms of reduction in that quarter.This quarter, we've kind of kept that at the adjusted pace. So - but obviously, without the catch up, so the quarters are lumpy. And then in fourth quarter, we'll assess again where we are. But as I said, I think, we have delivered on a number of our objectives and targets that we set out for ourselves and made public, but not all of them. And every one of those targets count.In terms of line of sight into fourth quarter we - there is kind of a comp benefits and a non-comp and benefits of part two to that. Merits already paid through on comp and benefits. I think incentive compensation we kind of have some line of sight to between this quarter, but we need to kind of see how fourth quarter plays out.As you described headcount is important in particular. You remember, in second quarter we took some decisive actions and drove some management delayering right that was a result of the organizational globalization and streamlining that we took upon ourselves to do potential, and so some of that will start to play out as a benefit into fourth quarter. So that's kind of a number of puts and takes for fourth quarter if we think about the comp and benefits line.And then the non-comp and benefits is every vendor and third party spend and discretionary line. We know how we've done this quarter, we have - we reforecast and think about the actions we have taken or intend to take and that gives us some line of sight which is why we said fourth quarter would be up slightly from third quarter. But we think well controlled and deliver nicely in a year-on-year basis.Ken UsdinAnd then second one, just you mention in the slides sec bending business has been changed a little bit due to some of your balance sheet optimization. Can you just talk us through, are you through with that balance sheet optimization? And would you expect sec lending to kind of have formed a base from here? Thanks a lot.Eric AboafYes we are through with the adjustments we needed to make in the sec lending business. That one includes the Classic Agency lending and Enhanced Custody. There has been a number of regulatory rules including CCAR that affect those businesses. We had a condition upon our - of that - we had the conditional approval under CCAR. We did I think some very good work around the analysis and the reporting and the management of counter parties which did include the securities lending area.We now feel like we're complete on those. We have confidence. We are as a result well prepared for CCAR. And when we think about the work we have done, we actually feel like we have also begun to deploy the kinds of future actions or actions today and actions that we can continue in the future that can give us lift and headroom.And so we have implemented a set of additional diversification from the very largest counterparties, the next group, sometimes its U.S. international, sometimes international to U.S. We have done netting and novations that help compress the book in some ways, so you don't have the large puts and takes, but you've got netted down exposure.And then what we've done as effectively systematize many of those tools because those are kind of action tools and we've systemized those in many cases on a day-by-day and even intraday basis. And that gives us confidence that we've been able to now create headroom of which we can grow sec lending on a go-forward basis. Certainly in line with the balance sheet but our intention is that that is a continued growth area.OperatorOur next question is from Betsy Graseck of Morgan Stanley.Betsy GraseckMaybe you could talk a little bit about some of the expense opportunities that you see in may be in the next quarter if you can't do it specifically but over the next year or so? And not only your own benefits from Beacon that you have been generating but what do you expect to get from CRD?Jay HooleyBetsy, this is Jay. Let me start that what Eric would pick up. You mentioned beacon and I think that's a good place to start, because a lot of the expense actions that Eric just reference a few minutes ago are kind of tactical expense actions. I think that for strategically as we have gone through Beacon and its predecessor ITOT the people we go, the better the opportunity looks.We are standardizing activity connecting processes together eliminating human touch we do see reconciliations all of which have multiple benefits. The one you're asking about is the cost benefit. And we'll expire Beacon formerly next year but those opportunities will by no means expire. I mean there are multiyear opportunities to continue to drive greater efficiencies in this core operations around custody accounting globally and you will recall at the back-end of 2017.We reorganize the business so that we're in a better position to take advantage of systematically going at we call it a straight through processing really to reduce the human labor content and the core activities that we conduct. And we've got a long way to go before we get that to a place where we're straight through and it will have huge benefits to clients, it will have huge benefits to the cost line. So there’s plenty to do.Ron O'HanleyBetsy, this is Ron. Let me just add a little bit to what Jay said. Because I think for all the things that we've accomplished to-date, I would say that there is a second order that we can get out of it and let me be specific here.So we've been on this big push to put in place end-to-end processing and that's been enabled by a lot of the automation and changes we've done in Beacon. But there is more that can be done there. I mean, as we do some we find more. As we've stood up, and strengthen our global hubs in India, Hangzhou and Poland they've matured. And they've gotten to the point where it's less about just taking in bits of work and more about taking in whole processes. So that would be one.The second order and third order out of this is we've talked earlier about the de-layering. I would say that we're going – that we're moving into the point where we can do major flattening of the organization as you actually move these processes together. And then lastly, much of the Beacon journey and the technology journey has been about standardizing when we can.The historic core of our client base has been large asset managers. And in many cases in the past that has driven us to customization. We've now learned and what we continue to learn how to standardize as much as possible and move less to customize and more to configure and that in itself will provide more opportunities. So we see ongoing opportunities to reduce expenses without actually in fact impairing client service, but at the same time improving client service.Betsy GraseckAnd how far away do you think you are from fully digital assets capability?Jay HooleyLet me take that Betsy because this is a journey and you can think of the glass as half full because there continues to be opportunities literally in every area. As we've globalize the business and think about somewhat Jay described as straight through processing.Those kinds of opportunities exist that are level of say accounting or custody but they also exist deep down - custody, for example, you can break down into bank loan processing, securities processing, derivative processing.And every one of those in our minds we have – we continue to find more areas as we fully globalize the organization. And so it's hard to say whether we’re in the third inning or the seventh inning. We're Red Sox fans up here so it's a - there's always the temptation to do that. But the truth is there continues to be real substantial opportunities and as we go deeper and deeper and more and more globally through the organization.OperatorOur next question is from Alex Blostein of Goldman Sachs.Alex BlosteinSo I was hoping we could peel back the onion a little bit on what's going on in servicing fees and understanding the quarter-to-quarter dynamic is - could be pretty lumpy. But Eric you mentioned fee pressure a bit more specifically I guess in your prepared remarks. So I was wondering whethe</t>
+  </si>
+  <si>
+    <t>Alphabet, Inc. Cl C (GOOG) CEO Sundar Pichai On Q4 2018 Results - Earnings Call Transcript | Seeking Alpha</t>
+  </si>
+  <si>
+    <t>General Electric (GE) CEO Larry Culp on Q4 2018 Results - Earnings Call Transcript | Seeking Alpha</t>
+  </si>
+  <si>
     <t>Eaton Corp. plc (ETN) CEO Craig Arnold on Q4 2018 Results - Earnings Call Transcript | Seeking Alpha</t>
   </si>
   <si>
+    <t>PepsiCo, Inc. (PEP) CEO Ramon Laguarta on Q4 2018 Results - Earnings Call Transcript | Seeking Alpha</t>
+  </si>
+  <si>
+    <t>Kraft Heinz Co (KHC) CEO Bernardo Hees on Q4 2018 Results - Earnings Call Transcript | Seeking Alpha</t>
+  </si>
+  <si>
     <t>Facebook, Inc. (FB) CEO Mark Zuckerberg on Q4 2018 Results - Earnings Call Transcript | Seeking Alpha</t>
   </si>
   <si>
+    <t>Microchip Technology (MCHP) Q4 2018 Results - Earnings Call Transcript | Seeking Alpha</t>
+  </si>
+  <si>
+    <t>Silicon Laboratories, Inc. (SLAB) CEO Tyson Tuttle on Q4 2018 Results - Earnings Call Transcript | Seeking Alpha</t>
+  </si>
+  <si>
+    <t>JPMorgan Chase &amp; Co. (JPM) CEO Jamie Dimon on Q4 2018 Results - Earnings Call Transcript | Seeking Alpha</t>
+  </si>
+  <si>
+    <t>State Street Corporation (STT) CEO Ron O'Hanley on Q4 2018 Results - Earnings Call Transcript | Seeking Alpha</t>
+  </si>
+  <si>
+    <t>Alphabet (GOOG) Q3 2018 Results - Earnings Call Transcript | Seeking Alpha</t>
+  </si>
+  <si>
+    <t>General Electric (GE) Q3 2018 Results - Earnings Call Transcript | Seeking Alpha</t>
+  </si>
+  <si>
+    <t>Eaton Plc (ETN) Q3 2018 Results - Earnings Call Transcript | Seeking Alpha</t>
+  </si>
+  <si>
+    <t>PepsiCo Inc (PEP) CEO Indra Nooyi on Q3 2018 Results - Earnings Call Transcript | Seeking Alpha</t>
+  </si>
+  <si>
+    <t>The Kraft Heinz (KHC) Q3 2018 Results - Earnings Call Transcript | Seeking Alpha</t>
+  </si>
+  <si>
+    <t>Facebook (FB) Q3 2018 Results - Earnings Call Transcript | Seeking Alpha</t>
+  </si>
+  <si>
+    <t>Microchip Technology (MCHP) Q3 2018 Results - Earnings Call Transcript | Seeking Alpha</t>
+  </si>
+  <si>
+    <t>Silicon Laboratories (SLAB) Q3 2018 Results - Earnings Call Transcript | Seeking Alpha</t>
+  </si>
+  <si>
+    <t>JPMorgan Chase &amp; Co. (JPM) CEO Jamie Dimon on Q3 2018 Results - Earnings Call Transcript | Seeking Alpha</t>
+  </si>
+  <si>
+    <t>State Street Corporation (STT) CEO Jay Hooley on Q3 2018 Results - Earnings Call Transcript | Seeking Alpha</t>
+  </si>
+  <si>
+    <t>['strong', 'benefit', 'exceptional', 'benefit', 'strength', 'strong', 'strong', 'gain', 'effective', 'benefit', 'strong', 'favorable', 'accomplishments', 'enables', 'advances', 'benefit', 'innovation', 'excited', 'opportunities', 'valuable', 'enabled', 'innovation', 'improved', 'enhanced', 'benefit', 'enhance', 'best', 'strengthening', 'strengthening', 'favorable', 'profitability', 'strong', 'strength', 'progress', 'opportunities', 'great', 'tremendous', 'opportunity', 'tremendous', 'progress', 'improving', 'great', 'better', 'progress', 'great', 'strong', 'better', 'best', 'better', 'advancing', 'great', 'exciting', 'better', 'great', 'progress', 'strengths', 'great', 'improve', 'great', 'great', 'great', 'strengthen', 'premiere', 'progress', 'strength', 'strength', 'great', 'delight', 'able', 'popular', 'benefiting', 'impressive', 'progress', 'best', 'positive', 'easily', 'popular', 'advances', 'leadership', 'accomplished', 'strong', 'collaboration', 'strong', 'incredible', 'opportunities', 'improvements', 'opportunities', 'tremendous', 'opportunity', 'stronger', 'great', 'opportunity', 'opportunity', 'strong', 'exciting', 'able', 'opportunity', 'opportunity', 'benefit', 'strong', 'strong', 'excited', 'great', 'strong', 'excited', 'worthy', 'greater', 'great', 'good', 'leadership', 'opportunity', 'win', 'excited', 'strong', 'innovations', 'strength', 'opportunity', 'improvements', 'innovation', 'opportunities']</t>
+  </si>
+  <si>
+    <t>['good', 'best', 'good', 'assured', 'positive', 'leading', 'strong', 'opportunities', 'improve', 'confident', 'gaining', 'profitable', 'good', 'improvement', 'opportunities', 'gaining', 'leadership', 'strengthening', 'strengths', 'enhancing', 'advantage', 'enabling', 'better', 'strengthen', 'confident', 'good', 'strengthening', 'strong', 'great', 'good', 'great', 'better', 'improving', 'good', 'strengthening', 'encouraged', 'strong', 'progressing', 'strong', 'better', 'better', 'improved', 'best', 'better', 'encouraged', 'proactively', 'improving', 'confident', 'succeed', 'strengthening', 'strength', 'strong', 'gains', 'best', 'progress', 'positive', 'progress', 'strong', 'strong', 'efficiently', 'stable', 'smooth', 'achieve', 'progress', 'progress', 'progress', 'strengthening', 'opportunity', 'improve', 'great', 'strong', 'strong', 'improved', 'despite', 'win', 'win', 'improve', 'transparency', 'successfully', 'strong', 'strong', 'strong', 'gained', 'favorable', 'improving', 'strong', 'strong']</t>
+  </si>
+  <si>
     <t>['opportunity', 'pleased', 'strong', 'strong', 'strong', 'pleased', 'strong', 'advantage', 'achieve', 'advantage', 'opportunities', 'strong', 'benefit', 'strong', 'highest', 'positive', 'excellent', 'strengthen', 'strength', 'stronger', 'strong', 'strong', 'strong', 'strong', 'strong', 'strength', 'strength', 'improve', 'good', 'strong', 'progress', 'progress', 'strength', 'strong', 'favorable', 'pleased', 'strong', 'despite', 'pleased', 'optimistic', 'opportunities', 'excited', 'opportunity', 'strong', 'strong', 'progress', 'improved', 'good', 'progress', 'enhancing', 'improvement', 'stronger', 'strength', 'strong', 'strength', 'strong', 'strength', 'strong', 'strength', 'strong', 'improvement', 'improvement', 'strong', 'strong', 'good', 'strong', 'despite', 'good', 'positive', 'strong', 'good', 'good', 'strong', 'stronger', 'good', 'good', 'strong', 'strength', 'good', 'strong', 'good', 'strong', 'great', 'strong', 'gaining', 'good', 'good', 'strength', 'better', 'strongest', 'strength', 'strength', 'strong', 'strong', 'strong', 'good', 'good', 'strong', 'despite', 'good', 'great', 'positive', 'better', 'benefit', 'benefiting', 'strong', 'good']</t>
   </si>
   <si>
+    <t>['pleasure', 'good', 'pleasure', 'good', 'successful', 'progress', 'improved', 'good', 'pleased', 'attractive', 'leading', 'leading', 'strong', 'strengthened', 'efficiently', 'strong', 'winning', 'strong', 'enabled', 'leadership', 'opportunities', 'stronger', 'better', 'opportunities', 'improve', 'strength', 'attractive', 'advantage', 'tremendous', 'greater', 'greater', 'satisfy', 'opportunity', 'strong', 'strong', 'attractive', 'leading', 'strong', 'successfully', 'opportunities', 'enable', 'strengths', 'strength', 'efficient', 'better', 'opportunities', 'attractive', 'leading', 'advantage', 'superior', 'efficiency', 'opportunities', 'improve', 'good', 'opportunities', 'innovation', 'success', 'innovations', 'successful', 'good', 'success', 'stabilizing', 'opportunities', 'encouraged', 'improvement', 'confident', 'improvement', 'strong', 'success', 'innovating', 'greater', 'achieving', 'greater', 'greater', 'profitability', 'strong', 'great', 'inspiration', 'attractive', 'positive', 'strong', 'leadership', 'opportunity', 'achieve', 'strengthen', 'win', 'greater', 'greater', 'leadership', 'strengthen', 'win', 'effective', 'stronger', 'enables', 'greater', 'efficiency', 'achieving', 'collaborating', 'achieve', 'best', 'best', 'best', 'good', 'innovation', 'excellence', 'enables', 'improve', 'satisfy', 'greater', 'efficiency', 'leadership', 'greater', 'better', 'progress', 'excited', 'winning', 'leadership', 'greater', 'success', 'winning', 'advancing', 'positive', 'enable', 'greater', 'good', 'attractive', 'attractive', 'improving', 'greater', 'greater', 'innovation', 'enhanced', 'achievement', 'achievement', 'progress', 'success', 'confident', 'gains', 'progress', 'leadership', 'opportunities', 'better', 'good', 'great', 'opportunities', 'opportunities', 'opportunities', 'profitable', 'opportunity', 'good', 'good', 'great', 'good', 'good', 'efficient', 'assure', 'efficient', 'efficient', 'stronger', 'better', 'opportunities', 'stronger', 'advantage', 'better', 'best', 'innovation']</t>
+  </si>
+  <si>
+    <t>['good', 'best', 'better', 'profitable', 'strong', 'innovation', 'stronger', 'successfully', 'profitable', 'positive', 'improvements', 'gains', 'encouraging', 'gaining', 'gaining', 'progress', 'strong', 'innovation', 'breakthrough', 'innovation', 'strong', 'gain', 'successful', 'stabilizing', 'improve', 'strong', 'leading', 'best', 'achieving', 'leading', 'profitability', 'gains', 'optimistic', 'successfully', 'leading', 'better', 'innovation', 'improved', 'happy', 'innovation', 'good', 'improve', 'best', 'innovation', 'efficiency', 'improving', 'advantage', 'improve', 'leading', 'strengthen', 'best', 'stronger', 'innovation', 'improving', 'opportunities', 'gain', 'advantage', 'superior', 'efficiency', 'creative', 'stronger', 'innovation', 'advantaged', 'win', 'improve', 'leading', 'gains', 'innovation', 'strong', 'better', 'strong', 'positive', 'gains', 'profitability', 'leading', 'gains', 'innovation', 'favorable', 'effective', 'confident', 'advantage', 'improve', 'strengthen', 'opportunities', 'improve', 'good', 'advantage', 'strong', 'able', 'strengthening', 'leading', 'leading', 'opportunities', 'greater', 'advantage', 'strengthening', 'greater', 'strengthening', 'progress', 'leading', 'innovation', 'advantage', 'better', 'advantage', 'happy', 'opportunity', 'greater', 'advantage', 'greater', 'strengthening', 'opportunities', 'opportunities', 'greater', 'better', 'good', 'gains', 'advantage', 'better', 'reward', 'good', 'gains', 'positive', 'gains', 'innovation', 'highest', 'confident', 'confident', 'able', 'improve', 'innovation', 'opportunities', 'innovation', 'confident', 'able', 'stronger', 'strong', 'innovation', 'confident', 'better', 'improve', 'leading', 'improvement', 'improvement', 'improvements', 'able', 'stabilize', 'innovate']</t>
+  </si>
+  <si>
     <t>['good', 'opportunity', 'good', 'opportunities', 'integrity', 'progress', 'strong', 'profitability', 'improve', 'progress', 'progress', 'improve', 'improvements', 'progress', 'proactively', 'better', 'transparency', 'proactively', 'progress', 'improve', 'improvements', 'better', 'improvements', 'excited', 'positive', 'positively', 'better', 'pleased', 'enjoying', 'able', 'strong', 'stronger', 'strong', 'able', 'progress', 'good', 'best', 'good', 'positive', 'strong', 'good', 'strengthened', 'better', 'transparency', 'progress', 'better', 'better', 'excited', 'opportunities', 'strength', 'successful', 'opportunity', 'easier', 'best', 'great', 'easily', 'opportunity', 'good', 'better', 'improving', 'effective', 'opportunities', 'boost', 'improving', 'succeed', 'better', 'progress', 'better', 'good', 'strong', 'good', 'best', 'better', 'strongest', 'innovation', 'confident', 'progress', 'improve', 'better', 'better', 'opportunity', 'opportunity', 'strong', 'pleased', 'benefit', 'strong', 'benefited', 'strong', 'exciting', 'opportunities', 'opportunity', 'opportunity', 'enabling', 'good', 'good', 'excited', 'improvements', 'great', 'successes', 'easier', 'better', 'easier', 'best', 'easy', 'best', 'best', 'benefit', 'attractive', 'opportunity', 'happy', 'opportunities', 'benefited', 'strong', 'improve', 'improve', 'excited', 'good', 'benefit', 'excited', 'opportunity', 'able', 'able', 'better', 'opportunity', 'able', 'easily', 'improving', 'improve', 'opportunity', 'strong', 'best', 'able']</t>
   </si>
   <si>
+    <t>['good', 'improvement', 'good', 'better', 'strong', 'good', 'progress', 'opportunities', 'enable', 'innovation', 'best', 'strong', 'strong', 'pleased', 'gained', 'gain', 'gained', 'progress', 'gain', 'best', 'enables', 'progress', 'opportunities', 'advantage', 'good', 'excellent', 'strong', 'better', 'better', 'best', 'profitable', 'able', 'winning', 'win', 'optimistic', 'progress', 'successfully', 'better', 'improvement', 'smoothly', 'optimistic', 'assure', 'great', 'progress', 'able', 'able', 'good', 'favorable', 'winning', 'succeed', 'succeed', 'stable', 'improve', 'improving', 'progress', 'good', 'confident', 'good', 'perfect', 'perfect', 'good', 'better', 'better', 'better', 'able', 'better', 'able', 'effective']</t>
+  </si>
+  <si>
+    <t>['good', 'better', 'leading', 'strength', 'greatest', 'strength', 'greatest', 'strength', 'better', 'improved', 'effective', 'benefit', 'improved', 'effective', 'benefit', 'effective', 'effective', 'strong', 'successful', 'strengthened', 'leadership', 'innovative', 'success', 'opportunity', 'achieved', 'achieved', 'strong', 'enabling', 'best', 'strengths', 'leading', 'despite', 'confident', 'win', 'opportunity', 'win', 'strengthen', 'advancing', 'gaining', 'enhancing', 'leading', 'improving', 'enabling', 'advances', 'easier', 'enabling', 'best', 'efficiency', 'superior', 'ideal', 'excited', 'leading', 'enabled', 'versatile', 'leading', 'enable', 'easily', 'success', 'delighted', 'leadership', 'winning', 'great', 'honor', 'best', 'opportunities', 'despite', 'confident', 'outperform', 'opportunities', 'gains', 'enabling', 'improve', 'rebound', 'strong', 'win', 'rebound', 'able', 'better', 'progresses', 'better', 'proactive', 'stabilization', 'diligent', 'strong', 'win', 'leading', 'strong', 'diligent', 'progresses', 'best', 'improved', 'improvement', 'better', 'improve', 'improvements', 'best', 'win', 'win', 'win', 'fantastic', 'opportunities', 'win', 'good', 'strong', 'strong', 'rebound', 'strong', 'win', 'excited', 'able', 'strengthens', 'exciting', 'leading', 'easy', 'strong', 'opportunities', 'better', 'better', 'strength', 'outperformed', 'good']</t>
+  </si>
+  <si>
+    <t>['good', 'strong', 'good', 'effective', 'benefit', 'favorable', 'positive', 'positive', 'positive', 'favorable', 'enhancements', 'satisfaction', 'strong', 'despite', 'strong', 'confident', 'efficiencies', 'good', 'gaining', 'gaining', 'outperforming', 'leadership', 'strength', 'strong', 'stronger', 'good', 'benefitting', 'strong', 'benefit', 'benefit', 'strong', 'strong', 'highest', 'proactively', 'strong', 'strong', 'strength', 'benefit', 'strength', 'effective', 'effective', 'benefit', 'positive', 'strong', 'positive', 'strength', 'strength', 'favorable', 'strong', 'constructive', 'good', 'good', 'stable', 'positive', 'strong', 'strong', 'benefit', 'benefit', 'strong', 'strong', 'rewards', 'profitability', 'rewards', 'rewards', 'profitability', 'profitable', 'rewards', 'rewards', 'good', 'rewards', 'great', 'profitable', 'optimistic', 'positive', 'positive', 'great', 'stable', 'stable', 'stable', 'good', 'better', 'better', 'strong', 'constructive', 'progress', 'positive', 'good', 'positive', 'constructive', 'strength', 'good', 'constructive', 'positive', 'strength', 'constructive', 'happy', 'happy', 'happy', 'strong', 'gained', 'great', 'strong', 'strong', 'leadership', 'gaining', 'constructive', 'good', 'innovation', 'good', 'innovation', 'better', 'better']</t>
+  </si>
+  <si>
+    <t>['happy', 'opportunity', 'outperform', 'better', 'efficiently', 'greater', 'better', 'strong', 'encouraged', 'positive', 'advantage', 'good', 'confident', 'better', 'advances', 'greatest', 'strong', 'optimistic', 'better', 'stronger', 'efficient', 'improving', 'enabled', 'confident', 'enabling', 'leading', 'gaining', 'leadership', 'leading', 'innovate', 'opportunities', 'improve', 'good', 'positive', 'gain', 'gains', 'positive', 'strengthening', 'strong', 'smoothly', 'excited', 'pleased', 'confident', 'enjoying', 'benefit', 'pleased', 'enhancements', 'progress', 'progress', 'better', 'achieve', 'better', 'able', 'advantage', 'good', 'better', 'achieve', 'improvements', 'optimistic', 'better', 'strong', 'better', 'confident', 'strengthens', 'resolve', 'improved', 'highest']</t>
+  </si>
+  <si>
+    <t>['good', 'innovation', 'benefit', 'strength', 'strong', 'gains', 'greater', 'gains', 'effective', 'strong', 'favorable', 'leading', 'proactive', 'collaboration', 'benefit', 'gains', 'strengthening', 'enhanced', 'pleased', 'strength', 'improve', 'profitability', 'strength', 'achievement', 'opportunities', 'great', 'exciting', 'great', 'strengths', 'opportunity', 'advances', 'best', 'great', 'excited', 'best', 'best', 'better', 'good', 'great', 'incredibly', 'best', 'gain', 'strengths', 'easily', 'improvements', 'exciting', 'great', 'strengths', 'better', 'improve', 'opportunities', 'great', 'popular', 'able', 'positive', 'improving', 'strengths', 'effective', 'best', 'breakthrough', 'great', 'advances', 'best', 'popular', 'benefiting', 'improve', 'strong', 'great', 'easily', 'great', 'strong', 'positive', 'exciting', 'incredible', 'opportunities', 'excited', 'great', 'opportunities', 'opportunity', 'opportunities', 'excited', 'good', 'advantage', 'good', 'leadership', 'able', 'leadership', 'excellence', 'great', 'proactively', 'delightful', 'great', 'opportunity', 'good', 'great', 'success', 'best', 'great', 'opportunity', 'best', 'good', 'strength', 'opportunities', 'better', 'opportunities', 'opportunities', 'opportunity', 'opportunities']</t>
+  </si>
+  <si>
+    <t>['good', 'best', 'good', 'positive', 'win', 'strengthening', 'improve', 'enhance', 'improve', 'bolstering', 'better', 'strengthened', 'strengths', 'impressive', 'good', 'good', 'better', 'strong', 'easier', 'progress', 'good', 'improvements', 'strong', 'gains', 'profitable', 'best', 'strength', 'stable', 'smoothly', 'progress', 'strengthening', 'optimistic', 'progress', 'improvement', 'enhance', 'improve', 'better', 'easy', 'progress', 'profitability', 'proactively', 'great', 'strong', 'strength', 'improved', 'successful', 'good', 'win', 'strength', 'strong', 'improvement', 'improvement', 'gains', 'improving', 'achieve', 'desired', 'improvements', 'transparency', 'improved', 'strengthening', 'strong', 'stronger', 'excited', 'improving', 'strong', 'good', 'great', 'exceptional', 'good', 'good', 'good', 'best', 'stabilize', 'good', 'good', 'good', 'opportunity', 'better', 'encouraged', 'opportunity', 'win', 'win', 'excited', 'good', 'improvements', 'progress', 'good', 'good', 'good', 'easy', 'best', 'excited', 'strong', 'impressive', 'better', 'pleased', 'able', 'better', 'better', 'good', 'good', 'strong', 'strength', 'strong', 'better', 'good', 'good', 'opportunity', 'improve', 'good', 'better', 'better', 'able', 'transparency', 'opportunity', 'improvements', 'better']</t>
+  </si>
+  <si>
+    <t>['opportunity', 'strong', 'pleased', 'gain', 'pleased', 'strong', 'strong', 'gain', 'strength', 'strength', 'positive', 'pleased', 'strong', 'strength', 'strength', 'strength', 'strong', 'strength', 'strength', 'strong', 'strength', 'better', 'strong', 'improvement', 'strength', 'strength', 'strong', 'strength', 'favorable', 'positively', 'strength', 'strong', 'win', 'optimistic', 'positive', 'confident', 'better', 'strength', 'strength', 'strong', 'opportunity', 'strength', 'confident', 'confident', 'opportunity', 'gain', 'strong', 'opportunities', 'attractive', 'opportunities', 'happy', 'good', 'tremendous', 'opportunities', 'tremendous', 'opportunity', 'opportunity', 'opportunities', 'opportunities', 'opportunity', 'tremendous', 'improve', 'improve', 'assure', 'diligent', 'assuring', 'good', 'strength', 'opportunity', 'good', 'strength', 'progress', 'good', 'improving', 'good', 'strong', 'great', 'strong', 'strong', 'good', 'profitable']</t>
+  </si>
+  <si>
+    <t>['pleasure', 'pleasure', 'good', 'effective', 'pleased', 'highest', 'strong', 'good', 'strong', 'innovation', 'good', 'great', 'innovations', 'rewarded', 'distinctive', 'easier', 'benefited', 'benefited', 'win', 'win', 'encouraged', 'improving', 'improvement', 'best', 'strong', 'innovation', 'improving', 'advancing', 'creativity', 'achieved', 'achieve', 'benefiting', 'surpass', 'strong', 'improve', 'improve', 'gains', 'innovation', 'gains', 'pleased', 'pleased', 'strength', 'strong', 'excellent', 'good', 'strong', 'excellent', 'strong', 'impressive', 'innovate', 'innovation', 'great', 'breakthrough', 'innovations', 'encouraged', 'improvement', 'improve', 'excited', 'opportunities', 'good', 'effective', 'strengthening', 'strong', 'strong', 'gain', 'benefit', 'good', 'best', 'improvement', 'strength', 'strong', 'strong', 'strength', 'improving', 'satisfied', 'win', 'despite', 'improve', 'good', 'best', 'pleasure', 'innovation', 'good', 'great', 'good', 'able', 'opportunity', 'good', 'best', 'opportunity', 'opportunity', 'opportunities', 'successful', 'tremendous', 'impressive', 'tremendous', 'opportunity', 'innovation', 'great', 'confident', 'great', 'innovation', 'good', 'good', 'best', 'progress', 'happy', 'innovative', 'benefit', 'great', 'great', 'opportunities', 'strong', 'improvement', 'best', 'encouraged', 'positive', 'improving', 'improving']</t>
+  </si>
+  <si>
+    <t>['good', 'stronger', 'innovation', 'best', 'confident', 'improvement', 'improving', 'positive', 'improving', 'strong', 'gains', 'breakthrough', 'innovation', 'strong', 'gains', 'positive', 'profitability', 'positive', 'improving', 'stronger', 'innovation', 'profitability', 'profitability', 'confident', 'greater', 'confident', 'profitability', 'improve', 'profitable', 'good', 'progress', 'gains', 'innovation', 'good', 'gains', 'strong', 'gains', 'strong', 'gains', 'strongest', 'greater', 'better', 'able', 'strong', 'gains', 'innovation', 'outperformed', 'gains', 'easy', 'strengthen', 'improve', 'best', 'leading', 'greater', 'strong', 'good', 'profitability', 'positive', 'positive', 'strong', 'positive', 'positive', 'strong', 'improve', 'strong', 'strong', 'gains', 'benefited', 'profitability', 'positive', 'despite', 'profitability', 'profitability', 'improve', 'better', 'effective', 'innovation', 'gains', 'strong', 'better', 'greater', 'success', 'good', 'leading', 'advantage', 'achieve', 'profitable', 'profitable', 'innovation', 'leading', 'good', 'better', 'strengthen', 'advantage', 'happy', 'better', 'profitability', 'positive', 'good', 'happy', 'profitability', 'improve', 'good', 'improve', 'improve', 'better', 'good', 'improvement', 'advantage', 'able', 'strengthen', 'attractive', 'positive', 'greater', 'profitability', 'improve', 'confident', 'better', 'greater', 'good', 'leading', 'advantages', 'greater', 'positive', 'strong', 'innovation', 'strong', 'gains', 'profitability', 'strong', 'better', 'improvement', 'good', 'good']</t>
+  </si>
+  <si>
+    <t>['good', 'opportunity', 'better', 'opportunities', 'great', 'improved', 'best', 'popular', 'leading', 'strong', 'stronger', 'advantage', 'enable', 'progress', 'better', 'successes', 'better', 'best', 'succeeding', 'optimistic', 'opportunity', 'stable', 'improved', 'achieve', 'improve', 'popular', 'benefit', 'improve', 'opportunity', 'valuable', 'able', 'incredibly', 'good', 'progress', 'better', 'proactively', 'improving', 'good', 'improve', 'transparency', 'best', 'better', 'better', 'progress', 'good', 'able', 'achieve', 'best', 'best', 'best', 'better', 'advantage', 'opportunities', 'improvements', 'efficient', 'enable', 'achieve', 'opportunity', 'strength', 'easy', 'improved', 'creative', 'opportunity', 'valuable', 'able', 'good', 'better', 'pleased', 'opportunity', 'easy', 'opportunities', 'better', 'incredibly', 'better', 'better', 'efficiency', 'best', 'opportunities', 'improvements', 'gaining', 'improve', 'good', 'strongest', 'opportunities', 'progress', 'confident', 'improve', 'innovative', 'stronger', 'stronger', 'better']</t>
+  </si>
+  <si>
+    <t>['good', 'effective', 'improvements', 'good', 'better', 'good', 'progress', 'opportunities', 'enable', 'innovation', 'best', 'strong', 'strong', 'progress', 'enables', 'good', 'good', 'better', 'profitable', 'able', 'winning', 'win', 'optimistic', 'gain', 'able', 'progress', 'improvements', 'able', 'achieve', 'stronger', 'improvement', 'stronger', 'strong', 'stronger', 'progress', 'improvement', 'good', 'favorable', 'improvement', 'confident', 'confident', 'great', 'achieved', 'great', 'impressive', 'outperform', 'good', 'strong', 'good', 'good', 'achieve', 'achieve', 'able', 'stronger', 'able', 'advantage', 'win', 'able', 'profitability', 'progress', 'improve']</t>
+  </si>
+  <si>
+    <t>['good', 'pleased', 'achieved', 'achieved', 'strength', 'surpassed', 'strength', 'strong', 'pleased', 'surpassing', 'benefit', 'strong', 'favorable', 'improved', 'excellent', 'effective', 'effective', 'delighted', 'pleased', 'opportunity', 'win', 'easy', 'enabling', 'easy', 'easily', 'gaining', 'improving', 'enabling', 'easier', 'pleased', 'progress', 'excited', 'improved', 'superior', 'opportunity', 'leadership', 'strong', 'strongest', 'strength', 'enhanced', 'progress', 'excited', 'opportunities', 'friendly', 'better', 'stability', 'achieved', 'win', 'strength', 'gain', 'encouraged', 'opportunity', 'ideal', 'leading', 'win', 'opportunity', 'win', 'enjoying', 'tremendous', 'accomplishment', 'great', 'achieve', 'efficiencies', 'winning', 'despite', 'outperform', 'opportunity', 'exciting', 'opportunities', 'progress', 'able', 'better', 'strength', 'win', 'good', 'strength', 'strength', 'strength', 'favorable', 'best', 'innovation', 'good', 'positive', 'greater', 'gains', 'able', 'achieve', 'opportunity', 'gains', 'able', 'easy', 'easy', 'success', 'able', 'easier', 'improvement', 'friendly', 'strong', 'good', 'strength', 'good', 'good', 'win', 'stabilize', 'positively', 'win', 'win', 'strong', 'opportunity', 'opportunity', 'pleased', 'strong', 'good', 'opportunities', 'good']</t>
+  </si>
+  <si>
+    <t>['good', 'strong', 'strong', 'gained', 'favorable', 'satisfaction', 'satisfaction', 'strength', 'strong', 'improvements', 'improvement', 'strong', 'gained', 'strong', 'outperformed', 'gaining', 'strength', 'outperforming', 'gaining', 'better', 'strong', 'gains', 'strong', 'good', 'strong', 'gains', 'strong', 'benefited', 'strong', 'strong', 'benefit', 'strong', 'strong', 'gains', 'strong', 'positive', 'strength', 'benefit', 'great', 'strength', 'improvement', 'satisfaction', 'leadership', 'gains', 'great', 'able', 'win', 'able', 'improve', 'good', 'positive', 'excited', 'strong', 'strong', 'strength', 'optimistic', 'constructive', 'gaining', 'best', 'gained', 'positive', 'strong', 'positive', 'strong', 'strong', 'good', 'strong', 'strong', 'strong', 'good', 'strong', 'good', 'gaining', 'stabilizing', 'opportunity', 'profitability', 'good']</t>
+  </si>
+  <si>
+    <t>['good', 'happy', 'good', 'win', 'despite', 'strength', 'achieve', 'opportunities', 'strength', 'success', 'positive', 'leading', 'pleased', 'achieve', 'greater', 'achieve', 'strong', 'enable', 'positive', 'opportunities', 'encouraged', 'confident', 'enable', 'positive', 'good', 'gain', 'strength', 'achieved', 'positive', 'achieved', 'positive', 'positive', 'strength', 'benefit', 'strong', 'benefiting', 'gain', 'benefited', 'progress', 'successfully', 'achieved', 'gain', 'efficiencies', 'innovation', 'successfully', 'strength', 'progress', 'improved', 'success', 'positive', 'stable', 'excited', 'opportunities', 'progressing', 'good', 'stable', 'improved', 'positive', 'good', 'outperformed', 'good', 'benefit', 'enhanced', 'good', 'able', 'opportunities', 'good', 'better', 'opportunity', 'benefit', 'opportunities', 'opportunities', 'greater', 'efficiencies', 'better', 'advantage', 'accomplished', 'enabled', 'strengthen', 'opportunities', 'opportunities', 'improving', 'opportunities', 'opportunities', 'opportunities']</t>
+  </si>
+  <si>
+    <t>['questions', 'negative', 'weakness', 'weakening', 'declined', 'loss', 'loss', 'slowed', 'against', 'unpredictable', 'accusing', 'victims', 'crisis', 'challenge', 'problems', 'challenge', 'challenges', 'violates', 'challenge', 'closed', 'questions', 'question', 'question', 'question', 'against', 'depressed', 'question', 'question', 'questions', 'losses', 'inability', 'question', 'questions', 'question', 'questions', 'disclosed']</t>
+  </si>
+  <si>
+    <t>['questions', 'barriers', 'restructuring', 'against', 'seriousness', 'closed', 'investigation', 'penalty', 'critical', 'negative', 'negatively', 'weakness', 'underperformance', 'late', 'erosion', 'declines', 'losses', 'discontinued', 'recall', 'impairment', 'impairment', 'restructuring', 'restructuring', 'negative', 'restructuring', 'recall', 'loss', 'negatively', 'declined', 'decline', 'adverse', 'downgraded', 'disclosed', 'loss', 'liquidated', 'damages', 'negatively', 'negative', 'break', 'drag', 'negative', 'liquidated', 'damages', 'delays', 'complicated', 'losses', 'recall', 'loss', 'negative', 'adverse', 'closed']</t>
+  </si>
+  <si>
     <t>['questions', 'questions', 'recall', 'weak', 'unfavorable', 'negative', 'divestiture', 'against', 'recall', 'negative', 'recall', 'weakness', 'difficult', 'firing', 'negative', 'recall', 'declines', 'weakness', 'negative', 'unexpected', 'declined', 'recall', 'harsh', 'hazardous', 'negative', 'questions', 'questions', 'question', 'questions', 'question', 'question', 'slowdown', 'question', 'concerns', 'slowdown', 'opposed', 'question', 'question', 'question', 'disputes', 'slowdown', 'slowdown', 'question', 'slowdown', 'question', 'question', 'concerns', 'question']</t>
   </si>
   <si>
+    <t>['questions', 'cautionary', 'cautionary', 'divestitures', 'restructuring', 'volatile', 'barred', 'divest', 'challenges', 'exploiting', 'restructuring', 'against', 'questions', 'question', 'question', 'question', 'underutilized', 'against', 'against', 'question', 'questions', 'question', 'late', 'cut', 'stress', 'restructuring', 'question', 'restructuring', 'question', 'posing', 'question', 'questions', 'lack', 'penalty', 'question', 'question']</t>
+  </si>
+  <si>
+    <t>['investigation', 'closing', 'inflicted', 'losses', 'disrupt', 'decline', 'challenged', 'declines', 'miss', 'shortfall', 'question', 'disappointed', 'negatively', 'decline', 'decline', 'defending', 'closing', 'opportunistic', 'shortfalls', 'challenged', 'lack', 'shortfall', 'forfeiting', 'slowing', 'critical', 'critical', 'better (with negation)', 'restructure', 'drag', 'late', 'decline', 'unfavorable', 'divestitures', 'breaking', 'divestitures', 'decline', 'against', 'late', 'against', 'divestitures', 'divestiture', 'divestitures', 'divestitures', 'questions', 'benefit (with negation)', 'questions', 'question', 'question', 'divestiture', 'question', 'divestiture', 'question', 'questions', 'good (with negation)', 'bridge', 'question', 'break', 'decline', 'divestitures', 'decline', 'decline', 'divestitures', 'miss', 'decline', 'question', 'question', 'question', 'decline', 'decline', 'negative', 'unanticipated', 'drag', 'decline', 'question', 'disappointed', 'miss', 'miss', 'question', 'subpoena', 'opposed', 'question', 'question', 'investigation', 'investigation', 'misstatement', 'question']</t>
+  </si>
+  <si>
     <t>['challenges', 'preventing', 'harm', 'misinformation', 'harmful', 'violating', 'questions', 'question', 'default', 'displace', 'difficult', 'challenges', 'misplaced', 'scrutinized', 'mistakes', 'threats', 'force', 'challenging', 'against', 'interference', 'violate', 'challenging', 'challenges', 'disclose', 'weakness', 'challenges', 'decline', 'questions', 'question', 'question', 'question', 'question', 'question', 'challenges', 'question', 'default', 'questions', 'question', 'challenge', 'shutdown', 'slowdown']</t>
+  </si>
+  <si>
+    <t>['harsh', 'caution', 'questions', 'liquidated', 'loss', 'absence', 'slower', 'stronger (with negation)', 'deliberate', 'confusing', 'volatility', 'able (with negation)', 'able (with negation)', 'antitrust', 'antitrust', 'antitrust', 'closing', 'closure', 'complications', 'restructuring', 'questions', 'question', 'question', 'question', 'question', 'excessive', 'question', 'question', 'question', 'recall', 'delinquency', 'delay', 'challenge', 'question', 'question', 'question', 'question', 'question']</t>
+  </si>
+  <si>
+    <t>['questions', 'weakness', 'weakening', 'declining', 'declined', 'weakness', 'declined', 'declines', 'weakness', 'declines', 'declines', 'declined', 'volatility', 'decline', 'slowing', 'loss', 'critical', 'weaker', 'sharply', 'slowdown', 'shortfalls', 'loss', 'declines', 'difficult', 'slowdown', 'concerns', 'late', 'interference', 'rejection', 'volatility', 'questions', 'questions', 'questions', 'question', 'question', 'question', 'weakness', 'slower', 'weakness', 'weakness', 'weakness', 'excessive', 'questions', 'question', 'question', 'improvement (with negation)', 'question', 'question', 'question', 'weak', 'weakness', 'weak', 'question', 'difficult', 'slowdown', 'question', 'concerns', 'question', 'downturn', 'correction', 'question', 'protracted', 'shutdown', 'question', 'question', 'question', 'penalties', 'question', 'question', 'question', 'late', 'breakdown']</t>
+  </si>
+  <si>
+    <t>['disclaimer', 'losses', 'downgrades', 'downgrades', 'deterioration', 'losses', 'slow', 'volatile', 'closing', 'loss', 'concerns', 'fears', 'negative', 'volatility', 'against', 'conviction', 'challenging', 'weaker', 'loss', 'impairment', 'decline', 'slowed', 'loss', 'downgrades', 'loss', 'loss', 'markdown', 'negatively', 'challenging', 'lose', 'question', 'question', 'worry', 'weaker', 'question', 'question', 'slower', 'cut', 'negative', 'against', 'slower', 'recession', 'question', 'question', 'losses', 'late', 'loss', 'delinquencies', 'loss', 'delinquencies', 'loss', 'question', 'question', 'challenging', 'concerns', 'concerns', 'concerns', 'unemployment', 'contraction', 'slower', 'worse', 'correction', 'crisis', 'bridge', 'losses', 'default', 'question', 'question', 'weakness', 'volatility', 'good (with negation)', 'volatility', 'question', 'volatility', 'shutdown', 'hurt', 'serious', 'bad', 'slow', 'bridge', 'lack', 'slowdown', 'question', 'question']</t>
+  </si>
+  <si>
+    <t>['questions', 'questions', 'disclaim', 'challenged', 'inadequate', 'unfavorable', 'disproportionate', 'weaker', 'challenges', 'critical', 'inefficiencies', 'against', 'challenging', 'restructuring', 'achieve (with negation)', 'disappointed', 'disclosed', 'challenging', 'volatility', 'caution', 'against', 'challenging', 'disappointing', 'renegotiated', 'challenging', 'renegotiation', 'volatility', 'stress', 'negative', 'slowing', 'volatility', 'worse', 'drag', 'severe', 'volatility', 'lag', 'absence', 'difficult', 'weaker', 'challenging', 'questions', 'question', 'question', 'worst', 'disproportionately', 'renegotiating', 'question', 'disclosed']</t>
+  </si>
+  <si>
+    <t>['undue', 'questions', 'negative', 'weakening', 'volatility', 'decline', 'loss', 'slow', 'against', 'questions', 'miss', 'perfect (with negation)', 'bad', 'problem', 'fatalities', 'tampered', 'questions', 'question', 'question', 'question', 'question', 'questions', 'late', 'question', 'question', 'question', 'question', 'questions', 'questions', 'question', 'question', 'questions', 'question']</t>
+  </si>
+  <si>
+    <t>['conviction', 'underperforming', 'declines', 'declines', 'negative', 'discontinued', 'negative', 'impairments', 'disclosed', 'failed', 'impairment', 'investigation', 'investigating', 'investigation', 'restructuring', 'restructure', 'challenges', 'restructuring', 'restructuring', 'negative', 'impairment', 'negative', 'persist', 'miss', 'downgraded', 'downgrade', 'challenges', 'closures', 'loss', 'negatively', 'challenges', 'liquidated', 'damages', 'outages', 'outages', 'negative', 'delays', 'delays', 'delays', 'losses', 'closing', 'best (with negation)', 'questions', 'question', 'question', 'question', 'unstable', 'questions', 'question', 'loss', 'drastically', 'drastic', 'question', 'problems', 'bad', 'miss', 'drag', 'closure', 'delays', 'conviction', 'mistake', 'imperative']</t>
+  </si>
+  <si>
+    <t>['questions', 'questions', 'divestitures', 'negatively', 'declined', 'declines', 'divestiture', 'caution', 'late', 'caution', 'weakness', 'restructuring', 'questions', 'late', 'slow', 'restructuring', 'restructuring', 'questions', 'questions', 'questions', 'questions', 'question', 'question', 'question', 'question', 'question', 'lose', 'improve (with negation)', 'divest', 'nonperforming', 'question', 'delays', 'slowdown', 'doubt', 'slowdown', 'slowdown', 'slowdown', 'dispute', 'question', 'question', 'delayed', 'question', 'question', 'problematic', 'inability', 'question', 'questions', 'concern', 'against', 'question', 'delay', 'difficult', 'delay', 'delay', 'delay', 'question', 'disappointed', 'inefficiencies']</t>
+  </si>
+  <si>
+    <t>['question', 'cautionary', 'cautionary', 'divestitures', 'questions', 'questions', 'decline', 'negatively', 'question', 'question', 'question', 'fears', 'slowing', 'disrupted', 'disruptions', 'question', 'negatively', 'question', 'question', 'anomaly', 'question', 'closing', 'question', 'question', 'question', 'closing', 'question', 'question', 'challenges', 'loss', 'challenges', 'exploited', 'seriously', 'disruptions', 'force', 'great (with negation)', 'question', 'question', 'difficult', 'slowdown', 'overcome', 'question', 'question', 'difficult', 'slow', 'question', 'exposed', 'shortage', 'question', 'question']</t>
+  </si>
+  <si>
+    <t>['negatively', 'negative', 'unfavorable', 'negative', 'against', 'delay', 'disruption', 'volatility', 'lacking', 'declines', 'discontinuations', 'negatively', 'negatively', 'negatively', 'delays', 'disruption', 'disproportionate', 'unanticipated', 'drag', 'decline', 'divestitures', 'questions', 'question', 'question', 'question', 'drag', 'difficult', 'question', 'break', 'decline', 'worse', 'delay', 'unanticipated', 'delay', 'disruption', 'question', 'question', 'questions', 'question', 'missed', 'question', 'question', 'drag', 'question', 'unexpected', 'difficult', 'miss', 'able (with negation)', 'question', 'question', 'question', 'miss', 'question', 'against', 'delayed', 'disruptions', 'unanticipated', 'unfortunately', 'inconsistency', 'question', 'question', 'decline', 'question', 'declines', 'question', 'question', 'question', 'question']</t>
+  </si>
+  <si>
+    <t>['question', 'challenges', 'threats', 'default', 'bad', 'able (with negation)', 'challenges', 'slower', 'smooth (with negation)', 'challenge', 'slower', 'question', 'challenges', 'displaces', 'displace', 'challenges', 'displacing', 'challenge', 'displacement', 'displace', 'critical', 'serious', 'vulnerability', 'harmful', 'interference', 'bad', 'perfect (with negation)', 'misinformation', 'interfere', 'shutdown', 'bad', 'critical', 'weakness', 'challenges', 'displace', 'questions', 'question', 'question', 'question', 'questions', 'challenges', 'gain (with negation)', 'slower', 'question']</t>
+  </si>
+  <si>
+    <t>['harsh', 'caution', 'questions', 'loss', 'loss', 'slow', 'decline', 'stronger (with negation)', 'deliberate', 'decline', 'decline', 'decline', 'complications', 'restructuring', 'questions', 'question', 'question', 'question', 'missed', 'challenges', 'challenges', 'problems', 'slowly', 'challenges', 'harsh', 'harsh', 'question', 'weakest', 'harsh', 'challenged', 'harsh', 'challenges', 'obsolescence', 'harsh', 'question', 'correcting', 'questions']</t>
+  </si>
+  <si>
+    <t>['question', 'questions', 'declined', 'declines', 'delays', 'greater (with negation)', 'declined', 'declined', 'declined', 'declines', 'decline', 'challenge', 'underperformed', 'late', 'challenges', 'failed', 'turbulence', 'question', 'questions', 'questions', 'question', 'question', 'questions', 'slowing', 'slowdown', 'question', 'slowdown', 'weakness', 'question', 'question', 'weakness', 'question', 'question', 'difficult', 'best (with negation)', 'question', 'question', 'difficult', 'question', 'question', 'question', 'opportunistic', 'question', 'question', 'slowdown']</t>
+  </si>
+  <si>
+    <t>['disclaimer', 'markdowns', 'slower', 'impaired', 'delinquencies', 'weakness', 'volatility', 'weaker', 'loss', 'loss', 'markdowns', 'negative', 'questions', 'question', 'question', 'question', 'burden', 'slowdown', 'question', 'problematic', 'stress', 'stress', 'problematic', 'downgrades', 'stress', 'question', 'question', 'disruptive', 'slower', 'slower', 'question', 'question', 'question', 'question', 'inquiry', 'question', 'question', 'slowing', 'broken', 'wrong', 'confusion', 'challenging', 'slowing', 'slow', 'slower', 'question', 'lose', 'question', 'losses', 'question', 'question', 'question', 'slowing', 'cut', 'defending', 'absence', 'question', 'loss', 'stress', 'question', 'questions', 'question']</t>
+  </si>
+  <si>
+    <t>['questions', 'questions', 'disclaim', 'late', 'closed', 'restructuring', 'disappointing', 'negatively', 'restructuring', 'downwards', 'challenging', 'negative', 'volatility', 'restructuring', 'late', 'suspending', 'against', 'questions', 'question', 'question', 'loss', 'closed', 'question', 'question', 'question', 'weakness', 'negative', 'question', 'weakness', 'question', 'question', 'disappointing', 'against', 'question', 'recall', 'impairing', 'break', 'question']</t>
   </si>
 </sst>
 </file>
@@ -437,13 +815,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -477,81 +855,979 @@
       <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2">
-        <v>2018</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2">
-        <v>5632</v>
-      </c>
-      <c r="H2">
-        <v>107</v>
+        <v>55</v>
+      </c>
+      <c r="E2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2">
+        <v>2018</v>
+      </c>
+      <c r="G2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H2" t="s">
+        <v>88</v>
       </c>
       <c r="I2">
-        <v>48</v>
-      </c>
-      <c r="J2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2">
-        <v>16.94846684494233</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>5378</v>
+      </c>
+      <c r="J2">
+        <v>120</v>
+      </c>
+      <c r="K2">
+        <v>36</v>
+      </c>
+      <c r="L2" t="s">
+        <v>108</v>
+      </c>
+      <c r="M2" t="s">
+        <v>128</v>
+      </c>
+      <c r="N2">
+        <v>15.57482142857143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3">
+        <v>2018</v>
+      </c>
+      <c r="G3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H3" t="s">
+        <v>88</v>
+      </c>
+      <c r="I3">
+        <v>5378</v>
+      </c>
+      <c r="J3">
+        <v>120</v>
+      </c>
+      <c r="K3">
+        <v>36</v>
+      </c>
+      <c r="L3" t="s">
+        <v>108</v>
+      </c>
+      <c r="M3" t="s">
+        <v>128</v>
+      </c>
+      <c r="N3">
+        <v>15.57482142857143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4">
+        <v>2018</v>
+      </c>
+      <c r="G4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H4" t="s">
+        <v>89</v>
+      </c>
+      <c r="I4">
+        <v>5305</v>
+      </c>
+      <c r="J4">
+        <v>87</v>
+      </c>
+      <c r="K4">
+        <v>51</v>
+      </c>
+      <c r="L4" t="s">
+        <v>109</v>
+      </c>
+      <c r="M4" t="s">
+        <v>129</v>
+      </c>
+      <c r="N4">
+        <v>15.61426794553939</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5">
+        <v>2018</v>
+      </c>
+      <c r="G5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H5" t="s">
+        <v>90</v>
+      </c>
+      <c r="I5">
+        <v>5632</v>
+      </c>
+      <c r="J5">
+        <v>107</v>
+      </c>
+      <c r="K5">
+        <v>48</v>
+      </c>
+      <c r="L5" t="s">
+        <v>110</v>
+      </c>
+      <c r="M5" t="s">
+        <v>130</v>
+      </c>
+      <c r="N5">
+        <v>16.94846684494233</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6">
+        <v>2018</v>
+      </c>
+      <c r="G6" t="s">
+        <v>71</v>
+      </c>
+      <c r="H6" t="s">
+        <v>91</v>
+      </c>
+      <c r="I6">
+        <v>5287</v>
+      </c>
+      <c r="J6">
+        <v>166</v>
+      </c>
+      <c r="K6">
+        <v>36</v>
+      </c>
+      <c r="L6" t="s">
+        <v>111</v>
+      </c>
+      <c r="M6" t="s">
+        <v>131</v>
+      </c>
+      <c r="N6">
+        <v>17.96922857964722</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7">
+        <v>2018</v>
+      </c>
+      <c r="G7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H7" t="s">
+        <v>92</v>
+      </c>
+      <c r="I7">
+        <v>5341</v>
+      </c>
+      <c r="J7">
+        <v>147</v>
+      </c>
+      <c r="K7">
+        <v>86</v>
+      </c>
+      <c r="L7" t="s">
+        <v>112</v>
+      </c>
+      <c r="M7" t="s">
+        <v>132</v>
+      </c>
+      <c r="N7">
+        <v>18.96389973436024</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8">
+        <v>2018</v>
+      </c>
+      <c r="G8" t="s">
+        <v>73</v>
+      </c>
+      <c r="H8" t="s">
+        <v>93</v>
+      </c>
+      <c r="I8">
+        <v>5582</v>
+      </c>
+      <c r="J8">
+        <v>132</v>
+      </c>
+      <c r="K8">
+        <v>41</v>
+      </c>
+      <c r="L8" t="s">
+        <v>113</v>
+      </c>
+      <c r="M8" t="s">
+        <v>133</v>
+      </c>
+      <c r="N8">
+        <v>15.13662604761822</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9">
+        <v>2018</v>
+      </c>
+      <c r="G9" t="s">
+        <v>74</v>
+      </c>
+      <c r="H9" t="s">
+        <v>94</v>
+      </c>
+      <c r="I9">
+        <v>5312</v>
+      </c>
+      <c r="J9">
+        <v>68</v>
+      </c>
+      <c r="K9">
+        <v>38</v>
+      </c>
+      <c r="L9" t="s">
+        <v>114</v>
+      </c>
+      <c r="M9" t="s">
+        <v>134</v>
+      </c>
+      <c r="N9">
+        <v>16.46659088123302</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10">
+        <v>2018</v>
+      </c>
+      <c r="G10" t="s">
+        <v>75</v>
+      </c>
+      <c r="H10" t="s">
+        <v>95</v>
+      </c>
+      <c r="I10">
+        <v>5390</v>
+      </c>
+      <c r="J10">
+        <v>121</v>
+      </c>
+      <c r="K10">
+        <v>72</v>
+      </c>
+      <c r="L10" t="s">
+        <v>115</v>
+      </c>
+      <c r="M10" t="s">
+        <v>135</v>
+      </c>
+      <c r="N10">
+        <v>14.56190461486205</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11">
+        <v>2018</v>
+      </c>
+      <c r="G11" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11" t="s">
+        <v>96</v>
+      </c>
+      <c r="I11">
+        <v>5546</v>
+      </c>
+      <c r="J11">
+        <v>112</v>
+      </c>
+      <c r="K11">
+        <v>84</v>
+      </c>
+      <c r="L11" t="s">
+        <v>116</v>
+      </c>
+      <c r="M11" t="s">
+        <v>136</v>
+      </c>
+      <c r="N11">
+        <v>13.68014365521596</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12">
+        <v>2018</v>
+      </c>
+      <c r="G12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H12" t="s">
+        <v>97</v>
+      </c>
+      <c r="I12">
+        <v>5365</v>
+      </c>
+      <c r="J12">
+        <v>67</v>
+      </c>
+      <c r="K12">
+        <v>48</v>
+      </c>
+      <c r="L12" t="s">
+        <v>117</v>
+      </c>
+      <c r="M12" t="s">
+        <v>137</v>
+      </c>
+      <c r="N12">
+        <v>18.29580935941696</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13">
+        <v>2018</v>
+      </c>
+      <c r="G13" t="s">
+        <v>78</v>
+      </c>
+      <c r="H13" t="s">
+        <v>98</v>
+      </c>
+      <c r="I13">
+        <v>5492</v>
+      </c>
+      <c r="J13">
+        <v>108</v>
+      </c>
+      <c r="K13">
+        <v>33</v>
+      </c>
+      <c r="L13" t="s">
+        <v>118</v>
+      </c>
+      <c r="M13" t="s">
+        <v>138</v>
+      </c>
+      <c r="N13">
+        <v>15.51322940190865</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14">
+        <v>2018</v>
+      </c>
+      <c r="G14" t="s">
+        <v>78</v>
+      </c>
+      <c r="H14" t="s">
+        <v>98</v>
+      </c>
+      <c r="I14">
+        <v>5492</v>
+      </c>
+      <c r="J14">
+        <v>108</v>
+      </c>
+      <c r="K14">
+        <v>33</v>
+      </c>
+      <c r="L14" t="s">
+        <v>118</v>
+      </c>
+      <c r="M14" t="s">
+        <v>138</v>
+      </c>
+      <c r="N14">
+        <v>15.51322940190865</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="D3" t="s">
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15">
+        <v>2018</v>
+      </c>
+      <c r="G15" t="s">
+        <v>79</v>
+      </c>
+      <c r="H15" t="s">
+        <v>99</v>
+      </c>
+      <c r="I15">
+        <v>5448</v>
+      </c>
+      <c r="J15">
+        <v>117</v>
+      </c>
+      <c r="K15">
+        <v>62</v>
+      </c>
+      <c r="L15" t="s">
+        <v>119</v>
+      </c>
+      <c r="M15" t="s">
+        <v>139</v>
+      </c>
+      <c r="N15">
+        <v>15.18570872102129</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16">
+        <v>2018</v>
+      </c>
+      <c r="G16" t="s">
+        <v>80</v>
+      </c>
+      <c r="H16" t="s">
+        <v>100</v>
+      </c>
+      <c r="I16">
+        <v>5532</v>
+      </c>
+      <c r="J16">
+        <v>81</v>
+      </c>
+      <c r="K16">
+        <v>58</v>
+      </c>
+      <c r="L16" t="s">
+        <v>120</v>
+      </c>
+      <c r="M16" t="s">
+        <v>140</v>
+      </c>
+      <c r="N16">
+        <v>18.29353460570806</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="E3">
-        <v>2018</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="B17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17">
+        <v>2018</v>
+      </c>
+      <c r="G17" t="s">
+        <v>81</v>
+      </c>
+      <c r="H17" t="s">
+        <v>101</v>
+      </c>
+      <c r="I17">
+        <v>5465</v>
+      </c>
+      <c r="J17">
+        <v>119</v>
+      </c>
+      <c r="K17">
+        <v>50</v>
+      </c>
+      <c r="L17" t="s">
+        <v>121</v>
+      </c>
+      <c r="M17" t="s">
+        <v>141</v>
+      </c>
+      <c r="N17">
+        <v>21.03304594405813</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18">
+        <v>2018</v>
+      </c>
+      <c r="G18" t="s">
+        <v>82</v>
+      </c>
+      <c r="H18" t="s">
+        <v>102</v>
+      </c>
+      <c r="I18">
+        <v>5518</v>
+      </c>
+      <c r="J18">
+        <v>134</v>
+      </c>
+      <c r="K18">
+        <v>68</v>
+      </c>
+      <c r="L18" t="s">
+        <v>122</v>
+      </c>
+      <c r="M18" t="s">
+        <v>142</v>
+      </c>
+      <c r="N18">
+        <v>17.28560990395967</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="G3">
-        <v>5582</v>
-      </c>
-      <c r="H3">
-        <v>132</v>
-      </c>
-      <c r="I3">
-        <v>41</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" t="s">
+        <v>63</v>
+      </c>
+      <c r="F19">
+        <v>2018</v>
+      </c>
+      <c r="G19" t="s">
+        <v>83</v>
+      </c>
+      <c r="H19" t="s">
+        <v>103</v>
+      </c>
+      <c r="I19">
+        <v>5530</v>
+      </c>
+      <c r="J19">
+        <v>91</v>
+      </c>
+      <c r="K19">
+        <v>44</v>
+      </c>
+      <c r="L19" t="s">
+        <v>123</v>
+      </c>
+      <c r="M19" t="s">
+        <v>143</v>
+      </c>
+      <c r="N19">
+        <v>15.70508594030924</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20" t="s">
+        <v>64</v>
+      </c>
+      <c r="F20">
+        <v>2018</v>
+      </c>
+      <c r="G20" t="s">
+        <v>84</v>
+      </c>
+      <c r="H20" t="s">
+        <v>104</v>
+      </c>
+      <c r="I20">
+        <v>5466</v>
+      </c>
+      <c r="J20">
+        <v>61</v>
+      </c>
+      <c r="K20">
+        <v>37</v>
+      </c>
+      <c r="L20" t="s">
+        <v>124</v>
+      </c>
+      <c r="M20" t="s">
+        <v>144</v>
+      </c>
+      <c r="N20">
+        <v>16.90589528746868</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="K3" t="s">
+      <c r="B21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" t="s">
+        <v>65</v>
+      </c>
+      <c r="F21">
+        <v>2018</v>
+      </c>
+      <c r="G21" t="s">
+        <v>85</v>
+      </c>
+      <c r="H21" t="s">
+        <v>105</v>
+      </c>
+      <c r="I21">
+        <v>5398</v>
+      </c>
+      <c r="J21">
+        <v>115</v>
+      </c>
+      <c r="K21">
+        <v>45</v>
+      </c>
+      <c r="L21" t="s">
+        <v>125</v>
+      </c>
+      <c r="M21" t="s">
+        <v>145</v>
+      </c>
+      <c r="N21">
+        <v>16.93013798907831</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" t="s">
+        <v>66</v>
+      </c>
+      <c r="F22">
+        <v>2018</v>
+      </c>
+      <c r="G22" t="s">
+        <v>86</v>
+      </c>
+      <c r="H22" t="s">
+        <v>106</v>
+      </c>
+      <c r="I22">
+        <v>5679</v>
+      </c>
+      <c r="J22">
+        <v>77</v>
+      </c>
+      <c r="K22">
+        <v>62</v>
+      </c>
+      <c r="L22" t="s">
+        <v>126</v>
+      </c>
+      <c r="M22" t="s">
+        <v>146</v>
+      </c>
+      <c r="N22">
+        <v>13.54038054025116</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="L3">
-        <v>15.13662604761822</v>
+      <c r="B23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23" t="s">
+        <v>67</v>
+      </c>
+      <c r="F23">
+        <v>2018</v>
+      </c>
+      <c r="G23" t="s">
+        <v>87</v>
+      </c>
+      <c r="H23" t="s">
+        <v>107</v>
+      </c>
+      <c r="I23">
+        <v>5477</v>
+      </c>
+      <c r="J23">
+        <v>85</v>
+      </c>
+      <c r="K23">
+        <v>38</v>
+      </c>
+      <c r="L23" t="s">
+        <v>127</v>
+      </c>
+      <c r="M23" t="s">
+        <v>147</v>
+      </c>
+      <c r="N23">
+        <v>18.47405609005402</v>
       </c>
     </row>
   </sheetData>

--- a/CallTranscripts_Scripts/SentimentDataframe_nes.xlsx
+++ b/CallTranscripts_Scripts/SentimentDataframe_nes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="300">
   <si>
     <t>CallTranscriptID</t>
   </si>
@@ -121,6 +121,81 @@
     <t>CT_STT_2018_q3</t>
   </si>
   <si>
+    <t>CT_ETN_2018_q1</t>
+  </si>
+  <si>
+    <t>CT_KHC_2018_q1</t>
+  </si>
+  <si>
+    <t>CT_FB_2018_q1</t>
+  </si>
+  <si>
+    <t>CT_MCHP_2018_q1</t>
+  </si>
+  <si>
+    <t>CT_JPM_2018_q1</t>
+  </si>
+  <si>
+    <t>CT_STT_2018_q1</t>
+  </si>
+  <si>
+    <t>CT_GOOG_2018_q1</t>
+  </si>
+  <si>
+    <t>CT_GE_2018_q1</t>
+  </si>
+  <si>
+    <t>CT_PEP_2018_q1</t>
+  </si>
+  <si>
+    <t>CT_GOOG_2018_q2</t>
+  </si>
+  <si>
+    <t>CT_GE_2018_q2</t>
+  </si>
+  <si>
+    <t>CT_ETN_2018_q2</t>
+  </si>
+  <si>
+    <t>CT_PEP_2018_q2</t>
+  </si>
+  <si>
+    <t>CT_KHC_2018_q2</t>
+  </si>
+  <si>
+    <t>CT_FB_2018_q2</t>
+  </si>
+  <si>
+    <t>CT_MCHP_2018_q2</t>
+  </si>
+  <si>
+    <t>CT_JPM_2018_q2</t>
+  </si>
+  <si>
+    <t>CT_STT_2018_q2</t>
+  </si>
+  <si>
+    <t>CT_GOOG_2019_q1</t>
+  </si>
+  <si>
+    <t>CT_GE_2019_q1</t>
+  </si>
+  <si>
+    <t>CT_ETN_2019_q1</t>
+  </si>
+  <si>
+    <t>CT_PEP_2019_q1</t>
+  </si>
+  <si>
+    <t>CT_FB_2019_q1</t>
+  </si>
+  <si>
+    <t>CT_JPM_2019_q1</t>
+  </si>
+  <si>
+    <t>CT_STT_2019_q1</t>
+  </si>
+  <si>
     <t>Feb.  4, 2019 11:44 PM ET</t>
   </si>
   <si>
@@ -181,12 +256,93 @@
     <t>Oct. 19, 2018  4:15 PM ET</t>
   </si>
   <si>
+    <t>May  1, 2018  1:15 PM ET</t>
+  </si>
+  <si>
+    <t>May  3, 2018 12:11 AM ET</t>
+  </si>
+  <si>
+    <t>Apr. 25, 2018  9:43 PM ET</t>
+  </si>
+  <si>
+    <t>Aug.  3, 2017 10:17 PM ET</t>
+  </si>
+  <si>
+    <t>Apr. 13, 2018  2:50 PM ET</t>
+  </si>
+  <si>
+    <t>Apr. 20, 2018  5:29 PM ET</t>
+  </si>
+  <si>
+    <t>Apr. 23, 2018 11:07 PM ET</t>
+  </si>
+  <si>
+    <t>Apr. 20, 2018  3:04 PM ET</t>
+  </si>
+  <si>
+    <t>Apr. 26, 2018 12:43 PM ET</t>
+  </si>
+  <si>
+    <t>Jul. 23, 2018  9:51 PM ET</t>
+  </si>
+  <si>
+    <t>Jul. 20, 2018  1:37 PM ET</t>
+  </si>
+  <si>
+    <t>Jul. 31, 2018  2:07 PM ET</t>
+  </si>
+  <si>
+    <t>Jul. 10, 2018  3:00 PM ET</t>
+  </si>
+  <si>
+    <t>Aug.  3, 2018 12:27 PM ET</t>
+  </si>
+  <si>
+    <t>Jul. 25, 2018  9:39 PM ET</t>
+  </si>
+  <si>
+    <t>Nov.  6, 2017 11:54 PM ET</t>
+  </si>
+  <si>
+    <t>Jul. 13, 2018  3:18 PM ET</t>
+  </si>
+  <si>
+    <t>Jul. 20, 2018  6:51 PM ET</t>
+  </si>
+  <si>
+    <t>Apr. 29, 2019 11:19 PM ET</t>
+  </si>
+  <si>
+    <t>Apr. 30, 2019  4:16 PM ET</t>
+  </si>
+  <si>
+    <t>Apr. 30, 2019  8:02 PM ET</t>
+  </si>
+  <si>
+    <t>Apr. 17, 2019  7:42 PM ET</t>
+  </si>
+  <si>
+    <t>Apr. 24, 2019 10:41 PM ET</t>
+  </si>
+  <si>
+    <t>Apr. 12, 2019  6:22 PM ET</t>
+  </si>
+  <si>
+    <t>Apr. 23, 2019  4:13 PM ET</t>
+  </si>
+  <si>
     <t>q4</t>
   </si>
   <si>
     <t>q3</t>
   </si>
   <si>
+    <t>q1</t>
+  </si>
+  <si>
+    <t>q2</t>
+  </si>
+  <si>
     <t>GOOG</t>
   </si>
   <si>
@@ -280,6 +436,81 @@
     <t>State Street Corporation (NYSE:STT) Q3 2018 Results Earnings Conference Call October 19, 2018  9:30 AM ETExecutivesIlene Fiszel Bieler - Global Head-IRJay Hooley - Chairman and CEOEric Aboaf - CFORon O'Hanley - President and COOAnalystsGlenn Schorr - Evercore ISIBrennan Hawken - UBSKen Usdin - JefferiesBetsy Graseck - Morgan StanleyAlex Blostein - Goldman SachsBrian Bedell - Deutsche BankMike Carrier - Bank of AmericaMike Mayo - Wells FargoJim Mitchell - Buckingham ResearchGeoffrey Elliott - AutonomousSteven Chubak - Wolfe ResearchBrian Kleinhanzl - KBWVivek Juneja - JPMorganGerard Cassidy - RBCOperatorGood morning and welcome to State Street Corporation's Third Quarter of 2018 Earnings Conference Call and Webcast. Today's discussion is being broadcast live on State Street’s website at investors.statestreet.com. This conference call is also being recorded for replay. State Street's conference call is copyrighted and all rights are reserved.This call may not be recorded for rebroadcast or redistribution in whole or in part without the express written authorization from State Street Corporation. The only authorized broadcast of this call will be housed on the State Street’s website.Now, I would like to introduce Ilene Fiszel Bieler, Global Head of Investor Relations at State Street. Ma'am, please go ahead.Ilene Fiszel BielerThank you, Laura. Good morning and thank you all for joining us.On our call today, our Chairman and CEO, Jay Hooley will speak first, then Eric Aboaf, our CFO will take you through our third quarter 2018 earnings slide presentation, which is available for download in the Investor Relations section of our website, investors. statestreet.com. Afterwards, Ron O'Hanley, our President and COO, will join Jay and Eric and we'll be happy to take questions. During the Q&amp;A, please limit yourself to two questions and then re-queue.Before we get started, I would like to remind you that today’s presentation will include adjusted basis and other measures presented on a non-GAAP basis. Reconciliations of these non-GAAP measures to the most directly comparable GAAP or regulatory measure are available in the appendix to our 3Q 2018 slide presentation.In addition, today’s presentation will contain forward-looking statements. Actual results may vary materially from those statements due to a variety of important factors such as those factors referenced in our discussion today. Our forward-looking statements speak only as of today and we disclaim any obligation to update them even if our views change.Now, let me turn it over to Jay.Jay HooleyThanks Ilene, and good morning, everyone.As you've seen, we announced our third quarter financial results this morning. Our third quarter and year-to-date results reflect solid performance across our businesses as we continue to win new business and invest in the future, while reducing legacy costs as we advance our digital transformation.Despite a higher than average share count, third quarter earnings included substantial EPS growth and increased return on equity compared to 3Q 2017. Assets under custody and administration rose to record levels of $34 trillion, a 6% increase year-on-year driven by strength in equity markets and new business wins.We achieve new asset servicing mandates of approximately $300 billion during the quarter, driven by two substantial wins of approximately $90 billion each from the large European client and a top insurance and investment management company.Importantly, year-to-date we've now seen a number of sizable new client business wins, totaling $1.8 trillion and our new business pipeline opportunities remain robust across the franchise, giving us continued confidence about the differentiation in the marketplace from the service and solutions standpoint.Assets under management at State Street Global Advisors were at record levels of $2.8 trillion at the end of the third quarter, up 5% year-on-year and 3% sequentially, reflecting strength in equity markets and ETF inflows driven by the continued success of our low cost product launch late last year and institutional inflows.These positive growth trends within our core franchise were partially offset by market and industry headwinds, leading to overall fee revenue increasing only 2% year-over-year. I'm particularly pleased with our ability to drive costs out of our core business and adapt quickly to the revenue environment we experienced this quarter. We actively brought down expenses for two successive quarters.Beacon continues to deliver significant savings and we have embarked on new productivity initiatives to achieve greater standardization and globalization of our operations and services. These levers equip us to achieve strong expense control as evidenced by the year-to-date increase in our pre-tax margins while continuing to invest for the future.More importantly, these initiatives enable us to create new data-oriented services and will provide the foundation for the integration of Charles River into the industry's first ever front to back office asset servicing platform from a single provider.Let me take a moment to update you on Charles River Development. As you know the acquisition closed October 1, integration is well underway and initial client reaction has been overwhelmingly positive. Charles River is already creating opportunities among new and existing clients.We have our management team in place and are establishing a client advisory board anchored by OMERS. The Ontario Pension Fund, which is a broad based user of Charles River dating back 11 years. We're encouraged by the early reaction to the acquisition and are confident that will enable us to deepen and grow our client base, while delivering positive results for our shareholders.With that let me turn the call over to Eric to take you through the quarter in more detail.Eric AboafThank you, Jay and good morning, everyone.Please turn to Slide 4, where you will find our quarterly results as well as a few notable items from prior quarters. As a reminder, 2Q 2018 include a repositioning charge of $77 million and 3Q 2017 included $26 million gain related to the sale of an equity trading platform, as well as 33 million in restructuring costs. I'll also remind you that 3Q 2018 results include the impact of the new revenue recognition accounting standard. This increased both fee and total expense by $70 million year-over-year but is EBIT neutral.Now let me move to Slide 5, where I will review the quarterly results as well as the year-to-date highlights. Third quarter 2018 EPS increased to a $1.87, up 13% relative to a year ago. ROE was 14%, up a full percentage point and pre-tax margin increased half a point as compared to prior year.3Q 2018 results reflect a disappointing fee revenue environment, largely offset by strength in net interest income and tighter expense control. We achieved positive operating leverage of 80 basis points compared to 3Q 2017. Fee operating leverage, however was negatively impacted by lower than expected fee revenue, which I will touch on shortly.Given the soft fee revenue environment, we intervened on expenses, excluding the impact from revenue recognition and the prior year restructuring charge, we held expense growth to just 1% as compared to last year.Sequentially, we actively flex expenses downwards. Last quarter I told you we would keep second half expenses flat to first half. In 3Q we did just that. Expense control is a key management priority as we navigate the quarterly revenue environment. We are carefully investing in product differentiation that continues to drive new business wins while reducing legacy costs.On a year-to-date basis, we delivered solid results. EPS increased 24% and ROE increased approximately two percentage points. We achieved positive operating leverage of 2.3 percentage points supported by positive momentum in NII and 4% year-to-date servicing fee growth.Pre-tax margin increased approximately 1.5 percentage points, further demonstrating our focus on managing expenses.Now, let me turn to Slide 6 to review AUCA and AUM performance, which increase on both the sequential and year-over-year basis. AUCA increased 6% from 3Q 2017 to 34 trillion. Growth was primarily driven by U.S. market appreciation and several large client installations, partially offset by the previously announced BlackRock transition.In Global Advisors or asset management business, AUM increased 5% from 3Q 2017, driven by strength in U.S. equity markets and new business from ETF mandate's, only partially offset by lower net flows within the institutional and cash segments.Please turn to Slide 7 where I will review 3Q 2018 fee revenue as compared to 3Q 2017. Total fee revenue increased 2%, reflecting higher equity markets and trading activity, as well as the benefit related to revenue recognition. Servicing fee revenue was lower compared to 3Q 2017, as well as compared to 2Q 2018, although it was up 4% on a year-to-date basis.3Q results reflect the previously announced BlackRock transition, which was worth an additional 20 million this quarter, as well as challenging industry conditions. Most important global economic uncertainty has driven investors to the sidelines, causing significant outflows and lower activity across the bulk of the asset management industry. We have also seen some fee pressure and two to three quarters of fund outflows in both the U.S. and Europe, which together creates a downdraft on the industry servicing fees.In emerging markets which typically represent higher per dollar servicing fees were negative both year-over-year and quarter-over-quarter. That said, net new business was strong again this quarter and year-to-date servicing fees are up 4% as I mentioned.Now, let me briefly touch on the other fee revenue lines related to 3Q 2017. Management fees increased 13% benefiting from global equity markets, as well as $50 million related to the new revenue recognition standard. Trading services revenues increased 11%, primarily due to higher FX client volumes.Securities finance fees decreased driven by some balance sheet optimization that is now complete. This provides a base of for which to grow these revenues in line with our balance sheet expansion as I've previously mentioned. Processing fees decreased from 3Q 2017, reflecting a prior year gain partially offset by higher software fees.Moving to Slide 8, NII was up 11% and NIM increased 13 basis points on a fully tax equivalent basis relative to 3Q 2017. NII benefited from higher U.S. interest rates and continued discipline liability pricing, partially offset by continuing mix shift towards HQLA securities in the investment portfolio.NIM increased due to higher NII and a smaller interest earning base due to deposit volume volatility. Deposit betas for the U.S. interest-bearing accounts were relatively unchanged from last quarter, though we expect betas to continue to edge higher in future quarters in line with industry trends.Now, I will turn to Slide 9 to highlight our intense focus on expense discipline, which continued into the third quarter. 3Q 2018 expenses were well controlled relative to 3Q 2017 increasing 3%. Excluding approximately 70 million associated with revenue recognition and a prior year restructuring cost, expenses were up less than 1% from a year ago quarter as we continue to actively manage the cost base. The 1% increase in expenses was due to investments in costs for new business, as well as higher trading volumes, partially offset by Beacon phase.Sequentially, expenses decreased 4% from 2Q, which included the second quarter $7 million repositioning charge. Excluding the charge, expenses were flat, further demonstrating our ability to flex the cost base to the current revenue environment.As I mentioned, this is a second quarter in a row of sequential underlying expense reduction. During 2Q 2018, we reduced incentive compensation. This quarter we reduced vendor and discretionary spend.Quickly, from a line item perspective and relative to 3Q 2017, compensation and employee benefits increased just 1%, reflecting cost for our new business and annual merit increases, partially offset by Beacon savings and new contractor, vendor initiatives, information systems increased, reflecting Beacon-related investments as well as additional investments to support new business growth.Transaction processing cost increased due to the impact of the new revenue recognition standard, offset by sub-custodian savings this quarter. Occupancy costs were down as a result of the continued progress in optimizing our global footprint. And excluding the $38 million impact of revenue recognition, other expenses decreased 3%, reflecting lower discretionary spent such as travel expenses and Beacon-related savings.Turning to Slide 10, let me briefly highlight what actions we have successfully taken to manage expenses relative to the revenue landscape over the last several quarters. On the top of the slide you can see that we achieved $65 million in net Beacon sales this quarter, through our efforts to optimize the core servicing business, transform our IT infrastructure and gain efficiencies within the corporate functions and SSGA.Notably, we are on track to complete Beacon by early 2019, significantly ahead of our original year-end 2020 target. We continue to invest towards a highly digitized environment, including robotics and machine learning, which are driving innovation and cost savings for us and our clients.In addition, as you can see in the bottom panel, we just rolled out a series of new expense initiatives in light of current industry conditions that are affecting quarterly revenues. These total $40 million just this quarter. And additional actions are planned in the fourth quarter.Moving to Slide 11, let me touch on our balance sheet. The size of our investment portfolio remained flat sequentially and well positioned given the rate environment. Our capital ratios increased measurably from 2Q 2018, as a result of our pre-funding related to the Charles River acquisition which we completed on October 1, as well as earnings retention.As a reminder, in late July we issued approximate $1.1 billion of common stock and in September successfully issued $500 million of preferred stock, while temporarily suspending buyback.We fully intend to resume our common stock repurchases in 1Q 2019 and expect to return $600 million to shareholders through 2Q 2019. We also completed the necessary adjustments for our management processes and believe that we are well prepared for CCAR 2019.Moving to Slide 12, let me summarize. Our 3Q 2018 results reflect a continued fund focused on managing expenses in response to the current quarterly revenue environment. The 11% increase in net interest income compared to 3Q 2017 offset in-part the softness in servicing fee revenues I described.Notably, 3Q 2018 pre-tax margin increased to 29.4%, supported by the strength in NII and disciplined expense management. Year-to-date results also reflect solid progress from the 2017 period. We announced new business wins of $1.8 trillion of custodial assets.EPS increased 24% and ROE improved buy almost 2 percentage points or 13.8%. NII increased 17%, reflecting higher U.S. interest rates and our success in managing liability pricing. Calibrating expenses, the revenue generated positive operating leverage of 2.3 percentage points.Let me briefly touch on our 4Q 2018 outlook, which currently excludes the recently completed Charles River acquisition. We expect 4Q 2018 servicing fee revenue to be flattish to 3Q assuming continuing industry conditions and stable market levels. We expect continued sequential NII growth though this always depends on market rates and betas.We expect total expenses only slightly above 3Q levels, but consistent with our expectations to keep second half of 2018 expenses flat to first half excluding the seasonal deferred incentive ramp and repositioning as we actively manage expenses relative to the revenue landscape.As I said these estimates do not yet include acquisition of Charles River that we completed earlier this month. So let me give you some color on that, before I turn the call back to Jay. Although it is early days we're very excited about the opportunities to deliver to our clients the first-ever front-to-back office asset servicing solutions on a single provider.During fourth quarter, we will be giving guidance on revenues and expenses from the Charles River acquisition at an upcoming conference. In 2019, we look forward to providing regular updates to investors and how we are progressing against the revenue and expense synergies that we can communicated on the July earnings call.Now let me hand the call back to Jay.Jay HooleyThanks Eric. And Laura we're now - if you would open-up the call to questions we are available.Question-and-Answer SessionOperator[Operator Instructions] And our first question comes from Glenn Schorr of Evercore ISI.Glenn SchorrA couple of quick ones on the securities portfolio I see, A) the duration extends a little bit I think; B) the yield on the securities book was flat, and C) it now has $1 billion unrealized loss position which I think it's just expansion of the mortgage book but could you mind commenting on those three things?Eric AboafMaybe in reverse order, the OCI position is just one that moves in firstly with rates and so as we have seen the upward rate environment that comes through as a mark on the balance sheet. I think it's within good set of balance of that's - that was to be expected.In terms of the investment portfolio, I think as we described in first quarter and second quarter we continue to remix that portfolio. We have been gently shifting out of credit and into sort of more classic HQLA securities. Though some movements of that this quarter between ABS and Muni's and so forth which resulted in relatively flat yield.The big piece that you have to remember is that we've added and continued to add international foreign debt securities, right German bonds and British gills and that kind of high-grade sovereign.As we do that we do less of the FX swaps back to the U.S. And so our FX swap cost actually came down by nearly $35 million this quarter. And so what you actually see is you see relatively stable yields in the portfolio in aggregate. But if you look down on the interest-bearing liability line for non-U.S. domicile deposits, you see reduced interest expense because we have less of that FX swaps.So just keep in mind that that the FX played through both on the investment portfolios, on the asset side and the liability side as yet read through.Glenn SchorrAnd then there's the further migration at of non-U.S. deposits and it looks like U.S. deposits are up. It also, there is a big drop in the yield paid in the non-U.S. deposits. So is that you purposely migrating those deposits via pricing?Eric AboafNo. This has less to do with rate than just the movement of the domicile from deposits. If you remember, we like many banks had had deposits in the Cayman branches and other, what I'll call offshore but U.S. related areas. Those were always, those were typically U.S. dollar deposits but were classified by the regulatory reporting standards as non U.S. domiciled.So we effectively did is we've closed down that program, it's no longer necessary. It's one of those legacy programs that we and other banks have had. So what's happened is the U.S. deposits which are paid, U.S. interest rates which tend to be higher than foreign deposits interest rates have actually moved out of the non-U.S. mining so the U.S. line which is what brings the non-U.S. line down sequentially and then it just blends into U.S. line.At this point we have made I think two steps of a change of about I want to say almost $20 billion that we have moved. It's now - those moves are completed. And so on a go-forward basis the account should be a little cleaner for you to read through.OperatorOur next question is from Brennan Hawken of UBS.Brennan HawkenFirst question just wanted to follow up Eric on the fourth quarter indication on servicing fees. You had indicated that you expected them to be flat with this third quarter. So I guess the question is, is that based upon the current quarter-to-date action that we see in some of the markets because there is some been some continued EM weakness and I know that's a headwind for you. So does it consider those dynamics? And do you just think that it will be offset by improved volume trends? Or can you give us a little bit more there please?Eric AboafYes. I think when you look quarter-to-quarter it's always - it's a set of small moves and rounding. So we continue to see negative flows in all the public data, whether it's EM but also in the other international markets which will be a bit of a headwind.We've got nearly all of the BlackRock transaction out. We've got I said 10 in the 1Q to 2Q 2020 from 2Q to 3Q. We got $5 more, so that will get to a $35 million run rate so that's nearly finished up. And then - there’s some installations coming through as the pipeline plays out.And then the open question will be what happens to market levels because you know how that plays through our fee structure. So we think it's going to be flattish. I think there is - it's rough estimate for now and kind of an assemblage of those - the composites of those move.Brennan HawkenSo it does consider some of that weakness thank you for clarifying that. Second question being, you previously had indicated an expectation of the fee operating leverage, I want to say that the bottom end of the range was positive 75 bps for the full year. I don't think you included those comments in your prepared remarks. Is there an update to that outlook? How should we think about that? I'm guessing it would be pretty hard to reach that kind of fee operating leverage for the full year, given the first nine months trend?Eric AboafYes Brendan, it's Eric. And I think you've called it right. I gave outlook here. I needed to give outlook either on the flip quarter basis or on a full year basis. And obviously, you guys can model out the other piece either way.But I'd just do it for our fourth quarter, just to give you the direct information. I think if you put together the composites of 1Q plus 2Q plus 3Q, yet in my fourth quarter you'll see that we have good line of sight to many of the targets that we gave in January, but I think fee operating leverage, as you described, will - it's not going to be one of them on a full year basis.That said, we are very focused on controlling what we can control and you've seen us, I think, intervene pretty significantly on expenses and we'll continue to do that as we navigate through the quarterly revenue environment. And that's probably an area, expenses in particular, where I think we will have outperformed our intentions for the year.OperatorOur next question is from Ken Usdin of Jefferies.Ken UsdinEric, can you talk a little bit about - you mentioned that in second quarter you had trimmed back on the incentive comp and then this quarter you made the additional changes to $40 million. I guess, how do we - can you help us understand, given the third quarter results and the fourth quarter outlook, how do we understand where you are in terms of incentive comp overall?Like, is it truing up relative to where the revenues have come from through, part of your fourth quarter outlook for flat expenses? How do you just generally think about, say, you've done in the past, or it's trued up at the end of the year for disappointing revenue trajectory? So just maybe you can hover through some of the moving pieces of how you expect that flat expenses in the fourth to be coming from?Eric AboafSo Ken, let me first describe how we and I think other banks address incentive compensation. Right? At the beginning of the year, we have estimates of where we're going to deliver in terms of revenues and expenses and other NII and total earnings and EPS.As we move through the year, right, we check to see how we are trending against those expectations. First quarter was a good quarter, generally, and there was no need to make any adjustments. And second quarter, right, as we saw that step down around flows and those industry conditions that have started to permeate through the P&amp;L, we came to the clear realization that we weren't going to deliver at least for the first half year. And as a result, we did a year-to-date catch up on incentive compensation. And that was where $40 million, $45 million in terms of reduction in that quarter.This quarter, we've kind of kept that at the adjusted pace. So - but obviously, without the catch up, so the quarters are lumpy. And then in fourth quarter, we'll assess again where we are. But as I said, I think, we have delivered on a number of our objectives and targets that we set out for ourselves and made public, but not all of them. And every one of those targets count.In terms of line of sight into fourth quarter we - there is kind of a comp benefits and a non-comp and benefits of part two to that. Merits already paid through on comp and benefits. I think incentive compensation we kind of have some line of sight to between this quarter, but we need to kind of see how fourth quarter plays out.As you described headcount is important in particular. You remember, in second quarter we took some decisive actions and drove some management delayering right that was a result of the organizational globalization and streamlining that we took upon ourselves to do potential, and so some of that will start to play out as a benefit into fourth quarter. So that's kind of a number of puts and takes for fourth quarter if we think about the comp and benefits line.And then the non-comp and benefits is every vendor and third party spend and discretionary line. We know how we've done this quarter, we have - we reforecast and think about the actions we have taken or intend to take and that gives us some line of sight which is why we said fourth quarter would be up slightly from third quarter. But we think well controlled and deliver nicely in a year-on-year basis.Ken UsdinAnd then second one, just you mention in the slides sec bending business has been changed a little bit due to some of your balance sheet optimization. Can you just talk us through, are you through with that balance sheet optimization? And would you expect sec lending to kind of have formed a base from here? Thanks a lot.Eric AboafYes we are through with the adjustments we needed to make in the sec lending business. That one includes the Classic Agency lending and Enhanced Custody. There has been a number of regulatory rules including CCAR that affect those businesses. We had a condition upon our - of that - we had the conditional approval under CCAR. We did I think some very good work around the analysis and the reporting and the management of counter parties which did include the securities lending area.We now feel like we're complete on those. We have confidence. We are as a result well prepared for CCAR. And when we think about the work we have done, we actually feel like we have also begun to deploy the kinds of future actions or actions today and actions that we can continue in the future that can give us lift and headroom.And so we have implemented a set of additional diversification from the very largest counterparties, the next group, sometimes its U.S. international, sometimes international to U.S. We have done netting and novations that help compress the book in some ways, so you don't have the large puts and takes, but you've got netted down exposure.And then what we've done as effectively systematize many of those tools because those are kind of action tools and we've systemized those in many cases on a day-by-day and even intraday basis. And that gives us confidence that we've been able to now create headroom of which we can grow sec lending on a go-forward basis. Certainly in line with the balance sheet but our intention is that that is a continued growth area.OperatorOur next question is from Betsy Graseck of Morgan Stanley.Betsy GraseckMaybe you could talk a little bit about some of the expense opportunities that you see in may be in the next quarter if you can't do it specifically but over the next year or so? And not only your own benefits from Beacon that you have been generating but what do you expect to get from CRD?Jay HooleyBetsy, this is Jay. Let me start that what Eric would pick up. You mentioned beacon and I think that's a good place to start, because a lot of the expense actions that Eric just reference a few minutes ago are kind of tactical expense actions. I think that for strategically as we have gone through Beacon and its predecessor ITOT the people we go, the better the opportunity looks.We are standardizing activity connecting processes together eliminating human touch we do see reconciliations all of which have multiple benefits. The one you're asking about is the cost benefit. And we'll expire Beacon formerly next year but those opportunities will by no means expire. I mean there are multiyear opportunities to continue to drive greater efficiencies in this core operations around custody accounting globally and you will recall at the back-end of 2017.We reorganize the business so that we're in a better position to take advantage of systematically going at we call it a straight through processing really to reduce the human labor content and the core activities that we conduct. And we've got a long way to go before we get that to a place where we're straight through and it will have huge benefits to clients, it will have huge benefits to the cost line. So there’s plenty to do.Ron O'HanleyBetsy, this is Ron. Let me just add a little bit to what Jay said. Because I think for all the things that we've accomplished to-date, I would say that there is a second order that we can get out of it and let me be specific here.So we've been on this big push to put in place end-to-end processing and that's been enabled by a lot of the automation and changes we've done in Beacon. But there is more that can be done there. I mean, as we do some we find more. As we've stood up, and strengthen our global hubs in India, Hangzhou and Poland they've matured. And they've gotten to the point where it's less about just taking in bits of work and more about taking in whole processes. So that would be one.The second order and third order out of this is we've talked earlier about the de-layering. I would say that we're going – that we're moving into the point where we can do major flattening of the organization as you actually move these processes together. And then lastly, much of the Beacon journey and the technology journey has been about standardizing when we can.The historic core of our client base has been large asset managers. And in many cases in the past that has driven us to customization. We've now learned and what we continue to learn how to standardize as much as possible and move less to customize and more to configure and that in itself will provide more opportunities. So we see ongoing opportunities to reduce expenses without actually in fact impairing client service, but at the same time improving client service.Betsy GraseckAnd how far away do you think you are from fully digital assets capability?Jay HooleyLet me take that Betsy because this is a journey and you can think of the glass as half full because there continues to be opportunities literally in every area. As we've globalize the business and think about somewhat Jay described as straight through processing.Those kinds of opportunities exist that are level of say accounting or custody but they also exist deep down - custody, for example, you can break down into bank loan processing, securities processing, derivative processing.And every one of those in our minds we have – we continue to find more areas as we fully globalize the organization. And so it's hard to say whether we’re in the third inning or the seventh inning. We're Red Sox fans up here so it's a - there's always the temptation to do that. But the truth is there continues to be real substantial opportunities and as we go deeper and deeper and more and more globally through the organization.OperatorOur next question is from Alex Blostein of Goldman Sachs.Alex BlosteinSo I was hoping we could peel back the onion a little bit on what's going on in servicing fees and understanding the quarter-to-quarter dynamic is - could be pretty lumpy. But Eric you mentioned fee pressure a bit more specifically I guess in your prepared remarks. So I was wondering whethe</t>
   </si>
   <si>
+    <t>Eaton Corp. Plc (NYSE:ETN) Q1 2018 Earnings Call May  1, 2018 10:00 AM ETExecutivesDonald H. Bullock - Eaton Corp. PlcCraig Arnold - Eaton Corp. PlcRichard H. Fearon - Eaton Corp. PlcAnalystsJoe Ritchie - Goldman Sachs &amp; Co. LLCSteven Winoker - UBS Securities LLCAnn P. Duignan - JPMorgan Securities LLCScott Davis - Melius Research LLCJeffrey Todd Sprague - Vertical Research Partners LLCMircea Dobre - Robert W. Baird &amp; Co., Inc.Julian Mitchell - Barclays Capital, Inc.Deane Dray - RBC Capital Markets LLCStephen Edward Volkmann - Jefferies LLCChristopher Glynn - Oppenheimer &amp; Co., Inc.Jeffrey D. Hammond - KeyBanc Capital Markets, Inc.Robert Paul McCarthy - Stifel, Nicolaus &amp; Co., Inc.Chris Laserinko - Wells Fargo Securities LLCOperatorLadies and gentlemen, thank you for standing by, and welcome to the Eaton First Quarter Earnings Call. For the conference, all the participant lines are in a listen-only mode. There will be an opportunity for your questions. Instructions will be given at that time. As a reminder, today's call is being recorded.I'll turn the call now over to Mr. Don Bullock, Senior Vice President of Investor Relations. Please go ahead sir.Donald H. Bullock - Eaton Corp. PlcGood morning. I'm Don Bullock, Eaton's Senior Vice President of Investor Relations. Thank you for joining us for today for Eaton's first quarter 2018 earnings call. With me today as usual are Craig Arnold, our Chairman and CEO and Rick Fearon, our Vice Chairman and Chief Financial and Planning Officer.Our agenda today includes opening remarks by Craig, highlighting the company's performance in the first quarter along with our outlook for 2018. As we've done on our past calls, we'll be taking questions at the end of Craig's comments.The press release from our earnings announcement this morning and the presentation are posted on our website at www.eaton.com. Please note that the press release and presentation include reconciliations to non-GAAP measures. A webcast of the call will be accessible on our website and will be available for replay.Before I get started, I do want to remind you that our comments today will include some statements on expected future results of the company and as therefore are forward looking statements. The actual results may differ from those from our forecasted protections to a whole wide range of risks and uncertainties that are described in both the earnings release and the presentation and they're also outlined in our 8-K.With that I'll turn it over to Craig to go through the presentation.Craig Arnold - Eaton Corp. PlcOkay. Thanks, Don. Appreciate it. Hey, before I dive into Q1 results this morning, I thought I'd take a moment to just reiterate three key elements of the strategy that we've been working on as a company and how we're focusing on growing the company, expanding margins and really effectively allocating capital.First, our organic growth initiative really is focused on new technology, how we're leveraging our channel and service capabilities, creating products that play across the entire spectrum of our customers' requirements, what we call delivering superior value.Next we intend to continue to expand our margins by restructuring to eliminate fixed costs, to drive operational improvements across our plants and functions, and we're being more selective in where we invest; what we call fixing the tail and growing the head.Finally, we continue to be good stewards of capital, first by investing in our existing businesses, playing to win in every business that we're in, returning cash to shareholders through dividends and share buybacks and being disciplined in our approach to M&amp;A.By consistently doing these three things well, we believe we'll drive superior value for our shareholders both in the short term and over the long term. And we made solid progress in Q1. A few examples that we've noted on page four. We launched our new eMobility segment targeted at growth in electric vehicles. A $2 billion to $4 billion opportunity for Eaton and we're clearly working this opportunity with 30 plus pursuits that we're working on as we speak. And we'll certainly talk about this more later in the presentation.We continue to make progress towards our goal of digitally enabling our product portfolio including addressing the necessary infrastructure needed to ensure industry approvals and needed security protocols. We launched a new Microgrid initiative in Africa, combining our expertise in Microgrid management with energy storage.And we also had a very successful quarter growing our penetration in hyperscale data centers with over $60 million of new wins in the quarter. We launched a new Power Xpert circuit breaker product line for the harsh, hazardous and corrosive circuit protection market, a market that we believe is $500 million in size and a new opportunity for us to serve it. And lastly, we continue to execute on our ongoing restructuring actions and completed three site closures in the quarter. So while not an exhaustive list, we thought it would be helpful to provide a few notable examples of progress that we're making towards our strategy.Now turning to our financial results for Q1 on page five, I'll just add a bit of color to what you've already seen in our reported results. Earnings per share were $1.10, up 15% over Q1 2017 and at the high end of our guidance range of $1 to $1.10.Our results were primarily driven by strong revenues, up 8% over Q1. This is driven by 6% organic growth, the highest growth that we reported since Q4 of 2011. And foreign exchange added 3% or approximately $150 million to reported revenues. We had expected $150 million of forex for the entire year, so certainly a strong start there as well.Booking strength continued in the quarter with notable growth in Hydraulics and another quarter of strength in Electrical Systems &amp; Services. Our operating cash flow in the quarter was $339 million. And if you recall, Q1 is typically our weakest quarter of cash flow generation. In addition, we're adding working capital to support higher growth in the quarter and a stronger outlook for the year.We repurchased $300 million of our shares in the quarter and are on track to repurchase $800 million in shares for the full year. And finally, we increased our dividend by 10%. This is consistent with our long term goal of growing our dividend in line with our long term earnings.Turning to page six, we show a summary of the income statement for the quarter. Here I point out that our 8% growth was made up of 6% organic, 3% FX, offset by negative 1% due to the divestiture in Electrical Systems &amp; Services and the formation of the Eaton Cummins joint venture last year.Margins were 15.2%, 80 basis points above prior year and a Q1 record. We think a good indication that our restructuring plans are paying off. Consistent with our plans, our incremental margins on organic growth were approximately 30% in the quarter and we remain confident in our ability to achieve 40% incrementals for the full year. We did see good volume leverage in the quarter, generating 12% net income growth on 2% organic growth and we expect this relationship to improve as the year unfolds.Moving into the segments, I will begin with Electrical Products. Our revenues were up 5% with 1% organic growth. Sales in this segment were impacted by our Lighting business which was down approximately 10% in the quarter. Excluding the impact of Lighting, organic growth in the segment was 6%, so strong growth excluding Lighting.Maybe just a word on Lighting weakness. The weakness was driven primarily by what you've seen, reported weak markets. There were also a number of large projects in last year's results and management's decision, quite frankly, not to chase some unattractive projects during the quarter. We do expect Lighting to have a relatively better next three quarters. And consistent with our prior guidance, we think the business will be down mid-single-digit for the year.For the remainder of the business, we saw strength in a number of end markets with particular strength in products going into industrial applications. And geographically, we saw strength in Europe and in North America. Bookings were down 2% in the quarter, also driven by Lighting weakness. Excluding Lighting, bookings were up 2% with strength in Power Distribution Components and Industrial Controls.Notably, our margins in the quarter were up 30 basis points over the first quarter, a first quarter record as well. The results for Electrical Systems &amp; Services are on page eight. Revenues were up 4% in the quarter with organic up 2.3%. We rounded it to 2% on the chart. Foreign exchange was up 2.2%. We also rounded it to 2% on the chart. And the divestiture of our stake in a small joint venture reduced revenues by approximately 1%.In the quarter, we saw market strength in services in harsh and hazardous and power distribution assemblies for industrial markets. And geographically, the U.S. markets saw the greatest strength.Bookings in the quarter were up 8% on strength in industrial projects and in services. And as we noted in Q4, our backlog for industrial projects continued to expand and as a result, we would expect to see organic growth accelerate beginning in the second quarter. I'd also note that our operating margins improved by 50 basis points in this segment.Next, taking a look at the Hydraulics business, sales were very strong, up 21% with organic revenues up 16% and foreign exchange adding 5%. In the quarter, all regions were up significantly with particular strength in construction equipment and through the distribution channel.Bookings were up 14% in the quarter with strength coming primarily from OEM customers and really all end markets. And we also saw booking strength across all geographies. Given our very large backlog, we expect this market will remain strong throughout 2018.Margins were 12.7% in the quarter, up 250 basis points over Q1 2017 and we continue to see the benefits of our restructuring efforts as well as the benefits of higher revenues. Now we continue to experience some challenges as we continue to ramp this business in the face of very strong demand levels, but we do expect to see improvements beginning in Q2. And we're certainly on track to deliver our full year margin guidance in this segment.For Aerospace, we had another strong quarter. We saw 7% sales growth with 6% organic. Sales growth was driven primarily by strength in military which was up 13%. And the military strength extended across really all categories including the military aftermarket.Always lumpy orders in the quarter were up 1% on aftermarket and strength in rotorcraft offset by weakness in both military and commercial transport. And margins were 19.4%, up 90 basis points over last year and once again, a Q1 record.We also had a very strong quarter in the Vehicle business. Sales up 14%, of which organic revenues were up 13%. Foreign exchange added 3% and the divestiture impact from the joint venture formation with Cummins was a negative 2%.NAFTA heavy duty truck production was up 45% in the quarter and also Brazil truck and bus was up nearly 6%. So lots of strength in our truck business around the world. In addition, order strength continued through the quarter. We now expect NAFTA heavy duty production will be 295,000 units in 2018, significantly higher than the outlook of 275,000 that we had at the start of the year.U.S. and China light vehicle markets are expected to be flat for the year. Europe a bit better. And strong growth in the emerging markets, specifically in India and Brazil.Margins were 14.8% in the quarter, up 110 basis points on better than expected revenue and benefits from prior restructuring efforts. Margins, while good, were held back somewhat by higher restructuring costs in this quarter and we certainly expect them to improve in the out quarters.Page 12 is a first look at the financial results of our eMobility segment. You'll find 2016 results for eMobility, including the restatement of our Electrical Products and Vehicle segments in our 10-Q which will be out later today.Sales in the quarter were $77 million, up 22% from prior year, 19% coming from organic growth. The organic growth in the quarter was driven by new European electric vehicle penetration and growth in electrical products going in traditional internal combustion engine applications in North America.Margins in the quarter were 14.3%. This is down from prior year due to additional R&amp;D investment and spending on specific customer programs. This is an exciting new segment for Eaton and we expect to see double-digit growth in this segment for some time to come.So before we move into the remainder of the year, I do want to provide some additional background on our new eMobility segment for those who may not have had an opportunity to join us at our investment conference in New York.eMobility is really a great example of how we're capturing synergies across the company, in this case, to pursue emerging market opportunities in electric vehicles. So what are we doing? In simple terms we're combining the unique industry knowledge, customer relationships and, I'd say, application knowledge from our Vehicle business with the proven technology that we've created in our Electrical business. All of the technologies and products that are needed to support electric vehicles were already selling in homes and factories and offices in our Electrical business.More development and customer specific changes are certainly needed, but this is exactly what our Vehicle business does very well. And electrification is a good thing for Eaton. Our addressable content per vehicle is actually 8 to 10 times greater on an electric vehicle than it is on an internal combustion engine.So just turning to page 14, electrification of vehicles will no doubt be a very large market and we've decided to really focus on those areas where we can create the right to win and have unique technology. On page 14, we show you the specifics of where we intend to focus and that's in power electronics and conversion and on power distribution and circuit protection.You can see from the description that these technologies are critical to the safe and reliable operation of the vehicle. But what you really can't see is what we already do. And that's – we have a very large business in both of these technologies across our electrical markets.We're a market leader in power conversion from our UPS business and in power distribution and circuit protection from both our Bussmann fuses as well as our legacy circuit breaker business. We're already selling many of the electrical products into both electric vehicles and into internal combustion engine markets, and look forward to exploring the opportunity to expanding this opportunity as the electric vehicle market continues to grow.On page 15, we included an outlook for 2018. And here we expect revenues to be approximately $320 million, 12% organic growth. And we think the segment will deliver 12% and 13% full year margins. Our margins were down versus 2017 as a result of a significant step up in R&amp;D spending and where we expect to spend approximately $30 million in this segment for the year.More importantly, I'd say we expect a serve a market that will grow to over $33 billion over the next 10 years or so, and we think Eaton can capture $2 billion to $4 billion of additional revenue by that same timeframe. So we're working with a number of global OEMs as we speak and are certainly excited about the opportunity to make eMobility a meaningful part of the company.At this point I'll turn to our outlook which is on page 15. Excuse me, page 16. We now expect organic revenues to grow 5% for the year up 1% from prior estimates driven by, as you can see here, an increase in both Hydraulics and Vehicle.We expect Hydraulics to be up an additional 3% and now forecast a 13% increase for the year and Vehicle to be up an additional 3% and we now expect a 4% increase for the year. The other segments are unchanged from our prior guidance.And for margins on page 17, we're increasing our segment margin guidance for Eaton from 16.4% to 17% or 16.7% at the midpoint, up from our prior guidance of 16.6% at the midpoint. We're also raising the margin expectations for our Vehicle segment to 16.5% to 17.1% for the year.And as we noted last year, we'd only intend to change margin guidance for our segments when they're outside of the prior guidance or ranges provided, hence the increase in Vehicle. And our other segments remain unchanged as our expectations for the year continue to be within the prior ranges.On page 18, we provide a summary of Q2 and our 2018 guidance. For Q2 we expect EPS of $1.25 to $1.35. This assumes 5% organic growth, margins of 16.2% to 16. 8%, and a tax rate of 11.5% and 12.5%. For the full year we now expect EPS of $5.10 to $5.30, up $0.10 at the midpoint from our prior guidance; organic revenues of 5%, up 1%. We think foreign exchange will be a positive $250 million now, $100 million above our prior guidance.We think segment margins are now expected to be, as I noted, 16.4% to 17%. Corporate expenses will be slightly higher than what we originally forecasted, $10 million above 2017. The prior guidance was flat. And we expect our tax rate to be down modestly with a range of 12.5% to 14.5%, down from our prior guidance of 13% to 15%. Cash flow, CapEx, share repurchase and restructuring cost assumptions are really unchanged from the prior guidance.And so just before I turn things back to Don for Q&amp;A, I did want to once again take this opportunity to summarize why we think Eaton is a very attractive investment opportunity. The first I'd say, our markets have returned to growth and we think the next three years will be better than the last three.In addition, we have a number of attractive organic growth initiatives that we think will allow us to grow faster than our end markets. Our restructuring is paying off. Our margins will be at an all time high in 2018, and we expect our margins to continue to improve.Our balance sheet is in great shape. Net debt to capital is below 30%. Our pension plan is now funded at over 95%. Our cash flow continues to be strong and we expect to consistently deliver cash flow at or above 100% of net income, while generating $8 billion of free cash flow over the next three years.And we're also returning cash to shareholders through a high dividend yield. Our dividend today is north of 3.5% and we're buying back shares, 1% to 2% on an ongoing basis. And lastly, we'll deliver 11% to 12% EPS growth over the next three years. So we think it's a fairly compelling story and, once again, a very good reason to take another look at how you view the stock.So with those opening comments, I'll pause and turn it back to Don for Q&amp;ADonald H. Bullock - Eaton Corp. PlcOperator's going to provide you instructions for the Q&amp;A. But before I do, I would like to remind you that we have a large number of questions on the call today, and I'd ask you that you – to try to keep it at an hour today, I'd ask you sort of keep your questions – limit your questions to a single question and a follow-up.And with that, I'll turn it over to the operator to give you instructions.Question-and-Answer SessionOperatorThank you.Donald H. Bullock - Eaton Corp. PlcOur first question today comes from Joe Ritchie with Goldman Sachs.Joe Ritchie - Goldman Sachs &amp; Co. LLCHey, good morning, guys.Craig Arnold - Eaton Corp. PlcMorning.Joe Ritchie - Goldman Sachs &amp; Co. LLCCraig, can we maybe just start on Lighting for a second? It's been a bit of a drag on growth in orders for the last several quarters and I'm just curious, like, how are you guys thinking about this business internally just from a strategic perspective? And how important is it to the overall portfolio?Craig Arnold - Eaton Corp. PlcYeah. I appreciate the question. First of all, I'd say that the Lighting results in Q1 were certainly were below our expectations as a company, but very much in line with our outlook for the year. As we said back in New York, we thought this would be the one segment inside the company that would be under pressure during the course of the year. And so we still believe, down low single digit is very much in line with our thinking when we set our plan at the beginning of the year.And to your point around strategically how we view Lighting, I'd say Lighting, very much like the rest of the company, has to live up to our company's expectations around the criteria that we set for what an attractive business looks like.And we talked about it being – businesses have to be leaders in their markets. They have to grow in excess of GDP. They have to deliver attractive return on sale and attractive return on net asset. And where we're in cyclical businesses, they have to deliver a minimum level of profitability. And so I would say, the Lighting business inside of Eaton today is a business that has a lot of positive things and a lot positives going on, but it's also a business, I would say, today that still has something to prove.And so with respect to Lighting, we have work to do to turn this into the type of business that meets all of Eaton's criteria for businesses that we want to be in. So we continue to invest, we continue to like many of the prospects, but we clearly have something to prove in this business.Joe Ritchie - Goldman Sachs &amp; Co. LLCThat's helpful color, Craig. And maybe for my second question, if I could just focus on ESS growth in orders. Clearly, the order momentum is there. It sounds like large project activity is picking up. No change to the organic growth guidance, but you're expecting an acceleration in 2Q.So maybe just provide a little bit of commentary around your thoughts on growth for the remainder of the year, the acceleration that's expected. And whether this is one where potentially we could get outside the range, just given how strong the order momentum has been.Craig Arnold - Eaton Corp. PlcYeah. I mean, at this point, I think, I would say, it's early in the year and, but perhaps too early to make a change to the guidance. But we are, in fact, seeing very strong growth in our Electrical Systems &amp; Services business, driven as we said at the beginning of the year, by power distribution, large assemblies, harsh and hazardous markets, the Crouse-Hinds business, and certainly, today we're really seeing perhaps even more strength than we originally anticipated in our three-phase power quality business.And so our negotiations are up solidly for Q1 as well. And so we certainly are hopeful that this business continues to grow at the rate that we expect and we'll have to take another look at it in Q2. But at this point, we think the guidance that we provided is prudent and we're optimistic that this business continues to grow not only in 2018, but we think the outlook for the next few years for our Electrical Systems &amp; Services business is quite positive.Joe Ritchie - Goldman Sachs &amp; Co. LLCGood to hear. Thanks, guys. I'll get back in queue.Donald H. Bullock - Eaton Corp. PlcOur next question comes from Steve Winoker with UBS.Steven Winoker - UBS Securities LLCThanks. Good morning, everybody.Craig Arnold - Eaton Corp. PlcHi.Steven Winoker - UBS Securities LLCHi. Can you maybe just give a little more color on the incremental walk that you're talking about for the rest of the year? I know obviously restructuring and you got the benefits from that, maybe pricing actions versus material and wage inflation and productivity. Just little more color for how that's progressing given the 1Q performance.Craig Arnold - Eaton Corp. PlcYes, and I'd say that if we think about our incremental performance in Q1, they were in fact largely in line with what our own expectations were as we've built our profit plan . And so we were quite pleased overall with how we did in Q1.And as you think about why things will improve in subsequent quarters, I'd say there's really two pieces. You hit on one. It's restructuring, net spending versus benefits and those are certainly will increase in each of the subsequent quarters.And the other thing I would say is that our net price versus commodity inflation performance will actually improve as well as the year unfolds. And so those are really the two, I'd say things that will give us ultimately a lift in our margins. And we had some volume growth in some of our businesses as well. But those are really the two big ones that will generate incremental margins and incremental return on sales as the year unfolds.Steven Winoker - UBS Securities LLCI would think that volume leverage would be very significant too given this large step up you're looking at for the rest of the year.Craig Arnold - Eaton Corp. PlcYeah, absolutely. We also see a benefit there.Steven Winoker - UBS Securities LLCAnd just following up on your pricing point, so what – in terms of actions that you've taken versus those that are kind of being phased in through the rest of the year, would you say that you're about a quarter of the way through those pricing actions? Have you taken more of them? Just some perspective on that.Craig Arnold - Eaton Corp. PlcSure. Yeah, maybe the first thing, just to go back to what we said in New York. We talked about what – we anticipated that Section 232 would have an impact of roughly $50 million. Well that impact has been significantly reduced with all of the exceptions that have been made in terms of countries that are no longer in scope or potentially no longer in scope, and we'll see how it finally unfolds. But that number went from 50 million down to about 10 million.Secondly, I'd say that inside of our businesses, we have already either taken or announced price increases in each of our businesses that essentially offset or more than offset the commodity inflation that we anticipate and can see at this point.As we take a look at commodities in general, they're certainly running at higher levels than we planned originally. But our teams have gotten out in front. We've already, as I mentioned, taken price increases or announced price increases. And we're fairly confident that we don't expect commodity price inflation to be a drag on margins at all for us this year.Steven Winoker - UBS Securities LLCAll right. Thanks, Craig. I'll hand it on.Donald H. Bullock - Eaton Corp. PlcOur next question comes from Ann Duignan with JPMorgan.Ann P. Duignan - JPMorgan Securities LLCHi. Good morning.Craig Arnold - Eaton Corp. PlcMorning.Ann P. Duignan - JPMorgan Securities LLCMost of the operational questions have been addressed so I'd like to focus maybe on your comments on eMobility. Craig, I think you said that the content opportunity for Eaton is 8 to 10 times versus an internal combustion engine. Was that reference just to gasoline engines or was that also diesel engines? Because if I recall, you probably have more content on a diesel engine than you do on a spark-ignition engine.Craig Arnold - Eaton Corp. PlcYeah. First maybe just to clarify that point. And no, we don't have more content on diesel than we do a gasoline engine. We have content on both platforms and we're not necessarily biased to one or the other. And perhaps one of the pieces that you reference is the whole diesel issue in Europe and how that would impact the company. And for us, it won't have an impact at all. Those become gasoline engines, we're just as well positioned as if they would be a diesel engine.Ann, but to your other point, yeah, absolutely. I mean, if you think about the content available to Eaton as the world moves to more electric vehicles and commercial vehicles and off-road equipment, our opportunity as a company, it really does increase by 8 to 10 times. And that's simply the electrical content on those vehicles versus the content today that we would sell in the form of valves and valve actuation and superchargers and other product that you would typically find on an internal combustion engine. So for us it's an exciting opportunity and we think a real growth opportunity and the reason why we launched this eMobility initiative and are putting so much resource behind it.Ann P. Duignan - JPMorgan Securities LLCOkay. And this may be an unfair question for a conference call and quarter conference call, but are there any lessons learned from the penetration of LED lighting that can be used in eMobility? I mean I look at the world and I see companies like (29:44) have already also created an eMobility segment. Are there any lessons learned from conversion of industries where you can take the learnings from one division to another?Craig Arnold - Eaton Corp. PlcYeah, I think there absolutely is, Ann. And I think if there's one message and if you had our Lighting team on a call they would probably say play to win and make the early investments and bet on the technology winning. And that's exactly way we're approaching the eMobility opportunity. That's one of the reasons why the margins are down in 2018 in eMobility is because we were investing heavily in that segment. So we clearly intend to play to win and to play to win globally and our teams are excited by the opportunity.Ann P. Duignan - JPMorgan Securities LLCOkay. I'll leave it there and get back in line. I appreciate it.Craig Arnold - Eaton Corp. PlcThanksAnn P. Duignan - JPMorgan Securities LLCThanks.Donald H. Bullock - Eaton Corp. PlcOur next question comes from Scott Davis with Melius Research.Scott Davis - Melius Research LLCHi. Good morning, guys.Craig Arnold - Eaton Corp. PlcMorning.Scott Davis - Melius Research LLCHi. Just following up a little bit with Ann on eMobility. I mean, I don't know what scale looks like in eMobility. It's still early days, but do you feel like you have enough? I mean, I look at the product portfolio and you're really strong in circuit protection and power conversion but there's a lot of electricals on the car. I mean, does it change your M&amp;A strategy or the things that you'd like to have or think about bolting on that you've sent your M&amp;A guys out to explore?Craig Arnold - Eaton Corp. PlcYeah. The first thing I'd say is as we think about kind of the places where we've decided to play around power conversion, power distribution, I'd say we're really leveraging the strength of what we do today. We have a very large Electrical business today where we provide exactly the same types of technology in buildings. And so I think one of the real advantages that Eaton has versus other companies who are approaching this opportunity, we have the ability to leverage existing technology and leverage the scale that we already get through participating in these technologies in our Electrical business.Having said that, there is obviously customer specific modifications that will be required. And in many cases we'll have to make some additional investments and we're certainly view this as a segment that we'd be willing to look at M&amp;A opportunities and partnerships in. But I think we're in a great starting position because we do have this very strong base of technology and knowhow and customer intimacy through our Vehicle business.Scott Davis - Melius Research LLCMakes sense. And just to again go back to – a couple folks have asked about Lighting and I'll ask about it too. I mean, when Eaton bought Cooper, I mean, most of us I think felt that Eaton might sell their Lighting business. It was something that was easy to parse off and it's an industry that's desperately in need of some level of consolidation it appears. But do you need to be in the lighting business? And at what point do you just say, we're fighting too many wars here? I mean, you're trying to build an eMobility business at the same time you're – gosh, you've got lots of SKUs here. And do you need to be in lighting? And how much time are you going to give it?Craig Arnold - Eaton Corp. PlcYeah, no, what I'd say is, first of all, I think we have an attractive Lighting business. We are arguably the second largest lighting LED supplier in the North America market and have really enviable positions with a full product range. And so I'd say today, if you think about as lighting businesses go, we have one of the most attractive lighting businesses we think in the world. And so it's an attractive business in the context of the markets in which we compete.Yeah, and in some cases we are, in fact, leveraging some common distributors. But I'd say do we have to be in lighting? Does it have a negative impact on the balance of our Electrical businesses if we're not in it? I'd say no. But one of the things we've said in general as we think about the company, every</t>
+  </si>
+  <si>
+    <t>The Kraft Heinz Co. (NASDAQ:KHC) Q1 2018 Earnings Call May  2, 2018  5:00 PM ETExecutivesChristopher M. Jakubik - The Kraft Heinz Co.Bernardo Vieira Hees - The Kraft Heinz Co.David H. Knopf - The Kraft Heinz Co.Paulo Luiz Araújo Basílio - The Kraft Heinz Co.Bryan D. Spillane - Bank of America Merrill LynchAnalystsDavid Palmer - RBC Capital Markets LLCKenneth B. Goldman - JPMorgan Securities LLCDavid Cristopher Driscoll - Citigroup Global Markets, Inc.Robert Moskow - Credit Suisse Securities (NYSE:USA) LLCAndrew Lazar - Barclays Capital, Inc.Jonathan Feeney - Consumer Edge Research LLCPablo Zuanic - Susquehanna International Group of CompaniesSteven Strycula - UBS Securities LLCOperatorGood day. My name is Lateef and I will be your operator today. At this time, I would like to welcome everyone to The Kraft Heinz Company's First Quarter 2018 Earnings Conference Call. I will now turn the call over to Chris Jakubik, Head of Global Investor Relations. Mr. Jakubik, you may begin.Christopher M. Jakubik - The Kraft Heinz Co.Hello, everyone, and thanks for joining our business update. We'll start today's call with an overview of our Q1 results and our 2018 plans from Bernardo Hees, our CEO; and David Knopf, our Chief Financial Officer. Then, Paulo Basílio, President of our U.S. Zone; and Georges Zoghbi, Strategic Advisor and Director, will join the rest of us for the Q&amp;A session.Please note that, during our remarks today, we will make some forward-looking statements that are based on how we see things today. Actual results may differ due to risks and uncertainties, and these are discussed in our press release and our filings with the SEC. We'll also discuss some non-GAAP financial measures during the call today. These non-GAAP financial measures should not be considered a replacement for and should be read together with GAAP results. And you can find the GAAP to non-GAAP reconciliations within our earnings release and at the end of the slide presentation available on our website.Now let's turn to slide 2, and I'll hand it over to Bernardo.Bernardo Vieira Hees - The Kraft Heinz Co.Thank you, Chris, and good afternoon, everyone. Let me start by saying that we're feeling more confident about our outlook with Q1 in line to slightly better than our expectations from the February call. If you recall, there were several factors that lead us to be cautioned on our top-line performance for the first half of 2018, including the headwinds in United States from Planters and Ore-Ida, the impact from retail inventory reductions in Canada, and the weak result in Brazil from our SAP implementation.At EBITDA, we spoke about near-term pressures in the United States and the Rest of World from accelerated investments in go-to-market capabilities, Big Bet launches, and increasing working media dollars, and best-in-class customer services, as well as significant cost inflation, especially freight at the beginning of the year.On the whole, it played out as expected. And we continue to expect many of these same factors to remain in Q2, as were anticipated in the outlook we provided in the February call.Outside these transitory factors, we are seeing ongoing improvement in consumption trends in most countries and in most of the key categories that we believe will drive both top and bottom-line growth into the second half of the year. These include positive trends in the first quarter – it's actually the fourth quarter – in categories such as natural cheese, meals and desserts, and ready-to-drink beverage in United States; cheese and coffee in Canada; condiments and sauces across Europe; soups and meals in the UK; and baby food in Russia; condiments and pasta sauce in Latin America; as well as soy sauce in Indonesia.More important to highlight for the balance of 2018, for 2019 and beyond, is that these gains are being driven by the investment and progress we are making to build capability for sustainable advantage to our iconic brands.On slide three we show six goals from our framework presentation that is set to fulfill The Kraft Heinz vision to become the best food company, growing a better world. For instance, we set a goal to be the English number one in marketing capabilities and we are investing in our portfolio of brands to a data-driven approach to win with consumers.It's fair to say that we have spent the last two years on the necessary renovation of our portfolio largely by focusing on marketing spend efficiency and product renovation. We are playing more offense with higher commercial investments especially behind incremental innovation. In data-driven marketing, we continue to develop proprietary in-house tools to better measure quality impressions across new mediums like mobile, and to understand the impact that our digital initiatives have on net sales, all at a faster real-time pace.In the first quarter alone, our Super Bowl ad kicking off the Kraft Maxwell brand campaign generated more than 2 billion impressions. We executed a data-driven target digital campaign in UK soups helping us gain more than a point of share during strong soup season in gross sales 10%.Also in UK, our company behind a new announced product, chocolate flavored mayo during Easter season generate 3.5 billion impressions for Heinz Seriously Good Mayo. Think about that, more than 3 billion impressions in a country one-fifth the size of the United States, and in a classic definition of adaptable data-driven marketing, our U.S. team's quick response around consumer and social media interest in Mayochup generated more than 1 billion impressions within 48 hours. This coming at a time when we are just launching Heinz Real Mayonnaise in United States and Canada.In innovation, we are pushing into new categories, new segments, new occasions, in many cases to premium positioning and we are doing this with a focus on incrementality, not just gross sales from new items. In the United States for instance, our innovation funnel has got wider every single year, and in 2018, we plan to launch roughly 60% more innovation projects than we did in 2016. And more launches are designed to be incremental to our current base, such as breakthrough innovation in new dayparts like we're doing with Just Crack an Egg for breakfast, a refrigerated product that's now selling faster than we can make it.Disruptive innovation like Heinz Premium Mayonnaise and building on our presence in snacking by complementing P3 with Oscar Mayer Natural Meat &amp; Cheese Plates, Philadelphia Bagel Chips and Cream Cheese Dips, and Planters Signature nuts. As well as partnering with growing equities to bring specialty items to market with our new Springboard platform and through joint ventures. Items like Momofuku sauce, Oprah O, That's Good! Comfort Foods, and Food Network Meal Kits and Cooking Sauces.Outside of the United States you are already seeing the impact of incremental sales from the Kraft brand in Europe and should soon see the same in Australia. And in our Rest of the World market we expect gains from whitespace launches under Kraft, Heinz and Planters to show more strongly in the second half of the year in our effort to maximize category managers will have significant impact still ahead.At retail in the United States, for instance, we still have room to improve the effectiveness of our promotional activities. We expect key summer and winter reset windows to improve SKU adoption, distribution and velocity through our assortment management and planogram tools.In U.S. foodservice, we have started to streamline our product catalog, emphasizing high-velocity SKUs, which also reduce supply chain complexity. And across our zones, we recently made our Global Center of Excellence in the Netherlands our global hub for assortment management, adding this capability to the revenue management team to drive value and growth.In go-to-market capabilities, we continue to take actions that will enable us to improve our ability to get the right product at the right place, at the right time for our consumers and capture what we believe to be significant incremental organic growth. Our in-house in-store sales teams in the United States is now 80% larger than this time last year, and we are seeing the incremental returns we expect versus the previous focus-only approach in store everywhere we have implemented this new model.In foodservice, we are capturing whitespace opportunity in some of our most developed markets, the United States and Europe, a good indication that there is more untapped potential in this channel. And in e-commerce, our theme is developing in-house data science and consumer analytics expertise with a focus on building consumer baskets that together with single-item purchase can leverage the breadth of The Kraft Heinz portfolio and make it a better partner to our retail customers.We are also making significant progress in our goal to create best-in-class operations. We are pacing ahead of aggressive industry-leading targets in quality, safety and customer service in nearly all geographies we operate, even as we ramp up to get new state-of-the-art factory in Davenport, Kirksville, China and Brazil producing to their potential.And on costs, while inflationary pressures have continued across procurement, logistics and manufacturing, we view the solid pipeline of projects in each area to minimize these pressures which should come true in the second half of the year. In other words, even though we've substantially complete our integration program in Q4, we remain in a strong position to both offset cost inflation and fuel high-return investments in our brands.These include investing in the develop of our people, where in the first quarter alone, Kraft Heinz employees completed nearly 60,000 courses through our interactive university online platform. We cannot underestimate how critical it is in this rapidly changing environment to develop our people to new competencies and SKU building in areas like sales, marketing, leadership, problem-solving and R&amp;D, because we know that our people are what really made Kraft Heinz to adapt to these new times and to win in the marketplace.So to summarize, one, we are building capabilities to create brand and category advantage to achieve profitable growth. Two, we're investing aggressively now in order to see the benefits sooner. And three, these are key factors shaping what's likely to be on a typical balance of net sales and EBITDA between first half and second half in 2018.So let me hand over to David to explain how these factors impact Q1 results and how the commercial momentum we are investing to build is likely to play out in our financials.David H. Knopf - The Kraft Heinz Co.Thank you, Bernardo, and hello, everyone. Turning to slide 4, from a total company perspective, organic net sales were down 1.5 percentage points in Q1, consistent with the expectations we laid out on the last call. Pricing was positive for the third consecutive quarter, up 1 percentage point and driven by favorable pricing in the United States and Rest of World markets. Volume mix was 2.5 percentage points lower in Q1, due to known headwinds in the United States and Rest of World markets that overshadowed solid retail growth in EMEA and Canada, strong Easter programming in the United States and foodservice growth in both the U.S. and EMEA.By segment, the U.S. was slightly better than our initial expectations, Planters and Ore-Ida had a negative 1.5% impact, and trade spend timing was a 1.2% headwind to Q1 net sales. Excluding these factors, underlying U.S. consumption was significantly better than reported results and continued to show sequential improvement.In Canada, as expected, results reflect earlier go-to-market agreements with key retailers, with growth tempered by retail inventory reductions at a key retailer, versus the end of 2017. EMEA had a strong first quarter, driven by soups and meals growth in the UK, as well as condiments and sauces growth across the zone, including southeast and central Europe, where we are now selling the Kraft brand. And in the Rest of World, top line growth was supported by pricing, while vol mix was held back by distribution-related issues, primarily re-alignment in Mexico and continued disruption in Puerto Rico, a seafood shortage in Southeast Asia that is impacting our canned business in Indonesia and the implementation of SAP in Brazil.That said, we do expect sequential improvement moving forward. At EBITDA, Q1 performance was slightly better than expected, although the drivers were consistent with our expectations, specifically solid gains from productivity savings and net pricing, gains that were offset by inflationary pressures, primarily elevated freight and resin costs, as well as cost associated with our aggressive commercial investment agenda. At adjusted EPS, we were up $0.05 versus Q1 last year, driven primarily by a roughly 730 basis point reduction in the adjusted effective tax rate versus Q1 last year, while other below-the-line items largely offset one another.One final note I'd like to make about Q1 results that's not on the page is our cash generation. In Q1, we delivered nearly $500 million of additional cash versus the year-ago period. This came from a combination of lower capital expenditures, lower cash taxes and lower working capital.In sum, our Q1 financial performance was in line to better than expected and provides a solid start to delivering our full-year outlook outlined on slide 5. To start, we continue to expect 2018 will be a year where just less than half of our net sales and EBITDA will be delivered in the first half of the year and more than half in the second half. And this is compared to 2017, where net sales and EBITDA were roughly equally split between first half and second half. In fact, in Q2, while the set of sales and cost headwinds will be similar to Q1 and we will continue to press our aggressive commercial investment agenda, we will be up against our strongest EBITDA comparisons of the year in every reporting segment versus last year.But as Bernardo said, with four months now behind us, we are gaining visibility on a number of trend-bending drivers, both commercially and operationally that are giving us confidence in a strong second half and solid momentum heading into 2019. To be more specific, we see four tangible drivers of the turnaround in the second half of 2018. First, the transitory headwinds in the U.S. during the first half should not just fade but are likely to turn into positive year-on-year contributors, given strong go-to-market plans for Planters nuts, Oscar Mayer cold cuts and our frozen business.Second and also in the U.S., we expect to begin seeing more benefit from the investments in category management and go-to-market capabilities, benefiting both the strong innovation agenda we have planned as well as our in-store presence with key customers. Third is international growth, driven by a combination of innovation and whitespace initiatives in virtually every market, Canada, EMEA and Rest of World. And, fourth is leveraging greater net savings as the benefits from the initiatives we have at work across procurement, logistics and manufacturing ramp-up.From an overall perspective, we remain confident in delivering positive constant currency EBITDA growth and strong adjusted EPS growth for the full year, as we outlined in February. And to be clear, we're targeting EBITDA growth versus the revised 2017 base, following the new accounting standards we've implemented.For earnings per share, we now expect an incremental $40 million of depreciation and amortization versus $70 million previously and we continue to expect incremental interest expense of roughly $100 million versus last year and an effective tax rate of approximately 23% for the full year. And in terms of cash generation as evidenced by our strong Q1, we continue to expect a significant step up in cash generation from a combination of lower capital expenditures, lower cash taxes and lower working capital.To close, I'd echo Bernardo's earlier thoughts on the year in our path forward that we're developing capabilities to create brand and category advantage to achieve profitable growth, that we're investing aggressively now in order to see the benefits sooner, and that these are the key factors shaping what is likely to be an atypical balance of net sales and EBITDA between the first half and the second half in 2018.Now we'd be happy to take your questions.Question-and-Answer SessionOperatorThank you, sir. Our first question comes from the line of David Palmer of RBC Capital Markets. Your line is open.David Palmer - RBC Capital Markets LLCThanks. Good evening. You mentioned your investments in feet on the street, the sales in stores. Could you talk about where you are with those investments? Have you seen returns in that and can you give us a sense that you're feeling confident you'll get something for that investment?Paulo Luiz Araújo Basílio - The Kraft Heinz Co.Sure, David. Hi. This is Paulo. So, yes, we're deploying this different in-store coverage model that it basically involves replacing some existing third-party merchandises that we own, we have in our stores to in-house salespeople. What we believe that we can better execute and understand the category needs with that, and we have leveraged advanced analytics, we are forming the metrics to track this activity. We started doing this in 2017. I can guarantee you that it's being up and we're actually doubling down on this.David Palmer - RBC Capital Markets LLCGreat. And just a question on your – the big four, cheese, nuts, lunchmeat and coffee, those categories have that pass-through element. They've been four categories for you which your brands have been wobbling in terms of their market share lately. It looks like private label has been the beneficiary in some of these. Could you tell us what's going on? Is it something of a price timing issue or is there something else with regard to your promotion strategy that you're looking to adjust? Thanks.David H. Knopf - The Kraft Heinz Co.Hi, David. This is David. Thanks for your question here. So let me step back on pricing a little bit and let me give you some more color on Q1 and then going forward. So in Q1 we realized a fair amount of carryover pricing from last year, so you saw that we were up 1% overall for Kraft Heinz and this is really in the places that we planned, okay, outside of key commodities, so this is something that will likely last going into the rest of the year.Outside that pricing, pricing out of commodities was pretty stable for the quarter and we expect that to maintain stability going forward, so that's kind of our Q1 pricing. Going forward as a matter of practice, we don't talk about potential future pricing actions, so I won't get into that but what I will say is we continue to be very confident in the strength of our brands and we will continue to strike a balance between market share and profitable volume for each of our categories.David Palmer - RBC Capital Markets LLCThank you.OperatorThank you. Our next question comes from the line of Ken Goldman of JPMorgan. Your question, please.Kenneth B. Goldman - JPMorgan Securities LLCHi. Two for me if I can. You talked about the headwinds in 2Q. I just want to make sure I understand what the message is there. Typically, if you look at seasonality, EPS, EBITDA in 2Q, they've been around 10 – EPS anyway about $0.10 higher than 1Q. This is exactly what the Street's modeling today, $0.99 versus $0.89. So I know you can't give guidance, but I just want to make sure we're hearing you correctly on what that similar headwinds comment meant, right? Does it mean that we should expect similar EBITDA or could seasonality still lift 2Q's EBITDA ahead of 1Q like it typically does?David H. Knopf - The Kraft Heinz Co.Hey, Ken. This is David. Thank you for the question. So as I said earlier, 2018 is likely to be a bit less first half, a bit more in the second half, and that compares to the roughly 50/50 split that we had last year in 2017.So obviously shifting very few percentage points can cause significant year-over-year percentage changes. And on top of that, particularly in Q2, given what we're up against in terms of having the strongest EBITDA comparisons on a margin perspective last year in every geographic segment. So that's something that will be relevant for next quarter.That being said, again, I think there are three very highly tangible drivers to our kind of second half outlook. First, as I said, the transitory headwinds in the U.S., including nuts, cold cuts and Ore-Ida. These are three significant factors that should fade into the second half. Second, we have a very strong innovation pipeline and whitespace agenda across the company this year that I think EMEA is actually already kind of proving out for us, and that will gain traction in the U.S., Canada and Rest of World.Finally, on the bottom line, our savings curve should catch up to inflation that we've seen in the business and the investments that we've made in the business as the year progresses. So that's kind of, again, our breakdown for the year. And again, just to kind of reiterate what we said, the capabilities we're building in category management, brand-building, and go-to-market that we're investing this year aggressively, this will benefit us both later into 2018 and will benefit us in 2019 and going forward.Kenneth B. Goldman - JPMorgan Securities LLCOkay. Thank you for that. And my follow up is you mentioned, I think, if I heard you correctly, as the management team, you're going to have 60% more, and I thought I heard the phase innovation projects than a year ago. I wanted to understand what's an innovation project as you define it, and how do I reconcile the talk of 60% more projects with the sort of Big Bet strategy you've told us about in the past? Thanks.Paulo Luiz Araújo Basílio - The Kraft Heinz Co.Hi, Ken. This is Paulo. What I can talk about the U.S. innovation pipeline here. So what I can tell you is that when I compare year-over-year the number of projects and the number of dollars that we are seeing coming from innovation for – that we expect to have innovation in 2018 – is growing versus 2017 and has many examples now being launched and being shipped. We have in all of these projects, one another driver that we are incorporating here. We are very focused on the incrementality of the innovation that we are launching.So we have the Just Crack an Egg, Heinz Mayo is coming, Planters Crunchers, our partnership with Food Network, a lot of new dressings. We have the Capri Sun base renovation. And on top of that, we are already entering Q2, we have 19 refrigerated and soft frozen meals, and also a very strong pipeline in frozen meals that we brought from the second half. So again, we are very happy and confident with the U.S. innovation pipeline that we already got distribution in 2018.Bernardo Vieira Hees - The Kraft Heinz Co.Just to complement Paulo, adding to the rest of the work, you're going to have the same, the similar story that's an extension of a number of projects, right, renovation and incrementality in a set of projects that we call the Big Bet strategy, Ken. That's why it's all totally connected. That's what we call the platform launch, right?Just to name a few on the international market, we have MAX Boost in Canada. We have several in Kraft territory in Europe, right, now coming to Australia as well. We have Jif Jaf cookies in China. I have the entire Heinz baby food renovation in Europe and Asia. I have the premium line in soy sauce in Indonesia, pasta sauce in Japan. So those are some of key platform renovation that match to the Big Bet concept that you just addressed. At the same time, we are widening our innovation pipeline worldwide.Kenneth B. Goldman - JPMorgan Securities LLCThank you.OperatorThank you. Our next question comes from the line of David Driscoll of Citi. Your line is open.David Cristopher Driscoll - Citigroup Global Markets, Inc.Great. Thank you, and good evening. I wanted to ask about gross margins. Can you talk a little bit about how gross margins trended by region? And then specifically, I'd like to understand if retailer pressures are constraining the gross margins and then if it's a developed or emerging market pressure?David H. Knopf - The Kraft Heinz Co.Hi, David. This is David. Thank you for the question here. So as you know, broadly we manage EBITDA dollars not to margin, whether it's EBITDA margin or gross margin. So, we're very focused on growing our EBITDA dollars. That being said, in Q1 you saw our gross margin overall was essentially flat versus prior year. I think two things to note on that. One, we did have a small benefit from the timing of pension and post-retirement costs and this is something that's not going to repeat, and, two, we did have another small benefit from a mix impact from a Easter shift into Q1 from Q2 that's going to work against us next quarter.Going forward, again, I'd expect sales growth to improve before EBITDA growth and before EBITDA improves and again, coming back to the fact that we have inflation coming into this year, and the accelerated investments that we're making in the business that run ahead of our savings curve, and the ramp-up in our commercial growth.David Cristopher Driscoll - Citigroup Global Markets, Inc.David, though, can you just comment on a little bit on the regions? I mean, one of the most talked about issues right now in the sector is the potential pressure on gross margins and a comment on the U.S. business. I mean, the sales growth is weak so we're all wondering here. I mean, I hear what you're saying about the back half of the year, but just like your sense as to the current environment and is this pressure something that, do you actually think it would constrain your ability to manage your margins over time?David H. Knopf - The Kraft Heinz Co.Yeah, no. So again, I'm not going to speak to gross margin by segment or by zone for us, but again we're happy with the performance in Q1. We're running consistent with our plan for the year, and again, that plan is going to be very second half weighted with the three kind of tangible drivers that I talked about with the headwinds in the U.S. including nuts, cold cuts and Ore-Ida abating through the year with the strong innovation and whitespace agenda in EMEA and rest of the world and U.S. and Canada, and our savings curve that should catch up with inflation and investments.David Cristopher Driscoll - Citigroup Global Markets, Inc.Okay. Thank you.OperatorThank you. Our next question comes from the line of Robert Moskow of Credit Suisse. Your line is open.Robert Moskow - Credit Suisse Securities (USA) LLCHi. Thank you for the question. I was hoping that you could help me understand how your relationships with the trade have evolved. Last year, there were a series of service issues on Ore-Ida and then you also had some – I would say some pushback from a major retailer on their pricing scheme for private label and cheese and meats and then you had the Davenport issue. So are all these issues kind of being resolved now? And do you feel like the retailers have given you a clean slate and that's why you feel confident that you're seeing a bit of a tipping point here in terms of your distribution trends, your innovation trends, and your programs? Or are those issues weren't that big to begin with? Thanks.Paulo Luiz Araújo Basílio - The Kraft Heinz Co.Hi. Hi, David. This is Paulo. Hi, Rob. It's Paulo here. So, again, what I can tell you is that when you think about our service level for this year we had a big improvement. As you know, the majority of the footprint work is now behind us, so, again, we started the year with a very good and a strong service level. We have this focus issue in capacity from Ore-Ida, but beside that, all of our products and capacity we are delivering and aligned what our customers they demand. So, again, we feel it's going to place some service constraints in Ore-Ida, but overall my total service level and the ability that we are seeing to engage with the customers, to get our innovation distribution, to get our products there, to get – to negotiate and staff our JVPs (32:49) really well, so we're feeling good about this relationship for the year.Robert Moskow - Credit Suisse Securities (USA) LLCOkay. Thank you.OperatorThank you. Our next question comes from the line of Andrew Lazar of Barclays. Your line is open.Andrew Lazar - Barclays Capital, Inc.Good afternoon, everybody.Bernardo Vieira Hees - The Kraft Heinz Co.Good afternoon.Andrew Lazar - Barclays Capital, Inc.Hi. I guess I read some comments the other day from a recent conference that were made by Jorge Paulo Lemann and basically acknowledging that 3G bought brands that they thought could last forever as he put it, but then all of a sudden got disrupted and those were kind of his words. And I realize some comments can be taken a bit out of context and such, but I guess I was hoping to, first, get your take on these comments. It's hard to know, kind of, what to make of them.And then second, maybe better understand how thoughts like this inform or impact certain capital allocation decisions for KHC. I guess, in other words, does this disruption make slower growth staple assets less interesting, even if compelling transactions from a financial standpoint?Bernardo Vieira Hees - The Kraft Heinz Co.Thanks, Andrew. It is Bernardo. Look, let me try to address your question directly, right? I think the disruptive market and changing channels consumer habits and so on, that's happening for quite some time and that's something we have been in knowledge also for some time, right, a significant part of our commercial investments, right, that we announced at the end of last year. The $250 million to $300 million is behind new digital initiatives, right, behind e-commerce, behind new channels, behind go-to-market, behind the innovation that's coming to market to support it and behind working dollars in media as well as service.With that being said, I think, the big message here is really that there will be – we cannot have any compliance with the brands we have. It's actually the opposite. We believe in the big brands when you support them, right? When you give them the right relevancy, the right product offering in the marketplace, they go really well. It's the case, for example, if you think about Heinz in the United States, it has been growing 15% every year since 2015. The re-allowance of the Kraft brand with the Super Bowl campaign, with family greatly is giving us a lot of excited behind Kraft's new offers in cheese and other segments that can be very relevant.But it's also true to say that these big brands that have the scale, that have the profitability, right, they will need to come with new offers from different angles and different categories for smaller brands and so on. And we are doing that if you think about the case of DEVOUR on the frozen territory. If you think about Just Crack an Egg going for breakfast in refrigerated, right? If you think about the things we are doing with brands like Classico, like Cool Whip, like A.1, right. If you think about the extension of the Planters with Planters Signature and NUT-rition, right? So the combination of the two things are extremely important. So in a sense to your question, it's changed our capital allocation, mindset. My answer, it's no.Andrew Lazar - Barclays Capital, Inc.Okay.Bernardo Vieira Hees - The Kraft Heinz Co.Actually, I think it's very in line with what we have been saying for quite some time, right? Our framework for capital allocation, organic and inorganic, has not changed. We continue to like big brands. We continue to like business that can travel and continue to like business that we can generate efficiency that can be invested behind growth, brands, products and people.Andrew Lazar - Barclays Capital, Inc.Great. Thank you very much for that color. One quick follow-up. If you expect some of the similar topline impacts in 2Q as in 1Q, plus you'll have an added headwind from the Easter shift that reverses a little in 2Q, I guess, does that suggest that 2Q organic sales could be weaker sequentially compared to 1Q? Or would you expect some sequential improvement, even with the Easter shift hurting you? Thank you.David H. Knopf - The Kraft Heinz Co.Andrew, this is David. Thanks for the question there. So let me walk through a little bit zone-by-zone or geography-by-geography for Q2 on the sales side. So from a topline perspective in the U.S., we</t>
+  </si>
+  <si>
+    <t>Facebook, Inc. (NASDAQ:FB) Q1 2018 Earnings Call April 25, 2018  5:00 PM ETExecutivesDeborah Crawford - Facebook, Inc.Mark Elliot Zuckerberg - Facebook, Inc.Sheryl Kara Sandberg - Facebook, Inc.David M. Wehner - Facebook, Inc.AnalystsDouglas T. Anmuth - JPMorgan Securities LLCMark A. May - Citi Investment ResearchEric J. Sheridan - UBS Securities LLCJustin Post - Bank of America-Merrill LynchHeather Bellini - Goldman Sachs &amp; Co. LLCRoss Sandler - Barclays Capital, Inc.Anthony DiClemente - Evercore Group LLCJohn Blackledge - Cowen &amp; Co. LLCPeter C. Stabler - Wells Fargo Securities LLCBrian Nowak - Morgan Stanley &amp; Co. LLCColin Alan Sebastian - Robert W. Baird &amp; Co., Inc.Mark Mahaney - RBC Capital Markets LLCRichard Greenfield - BTIG LLCYoussef Squali - SunTrust Robinson Humphrey, Inc.OperatorGood afternoon. My name is Mike, and I will be your conference operator today. At this time, I would like to welcome everyone to the Facebook First Quarter 2018 Earnings Call. All lines have been placed on mute to prevent any background noise. After the speakers' remarks, there'll be a question-and-answer session. This call will be recorded. Thank you very much.Ms. Deborah Crawford, Facebook's Vice President of Investor Relations, you may begin.Deborah Crawford - Facebook, Inc.Thank you. Good afternoon and welcome to Facebook's first quarter 2018 earnings conference call. Joining me today to discuss our results are Mark Zuckerberg, CEO; Sheryl Sandberg, COO; and Dave Wehner, CFO.Before we get started, I'd like to take this opportunity to remind you that our remarks today will include forward-looking statements. Actual results may differ materially from those contemplated by these forward-looking statements. Factors that could cause these results to differ materially are set forth in today's press release and in our Annual Report on Form 10-K filed with the SEC.Any forward-looking statements that we make on this call are based on assumptions as of today, and we undertake no obligation to update these statements as a result of new information or future events. During this call, we may present both GAAP and non-GAAP financial measures. A reconciliation of GAAP to non-GAAP measures is included in today's earnings press release. The press release and an accompanying investor presentation are available on our website at investor.fb.com.And now, I'd like to turn the call over to Mark.Mark Elliot Zuckerberg - Facebook, Inc.Thanks, Deborah, and thanks everyone for joining us today. Despite facing important challenges, our community and business are off to a strong start in 2018. More than 2.2 billion people now use Facebook every month, and more than 1.4 billion people use it every day. Our business grew 49% year-over-year to $12 billion. But as you know, we have important issues to address.For most of our existence, we've focused on all the good that connecting people can bring. But it's clear now we didn't do enough to prevent these tools from being used for harm as well, whether that's foreign interference in elections, fake news, hate speech, or app developers and data privacy. So now, we're going through every part of our relationship with people and making sure we're taking a broad enough view of our responsibility, not just to build tools, but to make sure those tools are used for good. This means continuing to invest heavily in safety, security and privacy.Some of this will come in the form of new technology. We're restricting that data developers can access. We're building advanced AI tools that have helped us detect and remove tens of thousands of fake accounts ahead of the elections in France, Germany and Alabama last year. We're investing more in people. We are doubling our team working on security and content review to more than 20,000 people by the end of this year, and this includes content reviewers with specific language skills to detect hate speech in places like Myanmar. We're also working to protect political discourse by making ads more transparent.We recently announced that from now on we will require everyone running political and issue ads or running a large page to be verified with a government ID. And we're also starting to roll out ads transparency tools that bring our ads to an even higher standard of transparency than TV or print ads. You'll be able to see who is running a political ad, who they're targeting, how much they're paying, and what other messages they're sending to different people. And we're going to get this done in time for the 2018 U.S. midterm as well as upcoming elections in Mexico, Brazil, India, Pakistan and more.We have a responsibility to keep our community safe and secure, and we're going to invest heavily to do that. At the same time, we also have a responsibility to keep moving forward and keep building tools that bring people together in meaningful new ways. That's what makes Facebook so important to so many people and that's our responsibility too.I'm proud that more than 2 billion people use our services to stay connected with the people that matter to them most. In just the last several months, we've seen the #metoo movement and the March for Our Lives, organized, at least in part, on Facebook. We've seen people come together after Hurricane Harvey to raise more than $20 million for relief, and we've seen more than 80 million small businesses use Facebook to grow and create jobs.That's why beyond the investments we're making to secure our platform, we're going to invest even more in building the experiences that bring people together on Facebook in the first place. Over the next three years, we're going to keep building Facebook to not only be a service that people love to use, but also one that's good for people and good for society.Last quarter, we shared our well-being research into the good and bad uses of technology that showed that when you use the internet to interact and build relationships that's correlated with greater long-term well-being and greater health and happiness over time. But when you're just passively watching videos or news online, that's not as positive.This quarter, we've continued shifting from passive consumption to encouraging meaningful interaction. It's still early, but we're starting to see some signs that this is working. Some types of sharing are increasing even as passive consumption of video is down. And at the same time, we're rolling out more interactive video features like Watch Party that let you watch video with your friend. This is something we can uniquely do and the feedback on it so far is great.Groups is also a major focus for us. This quarter, we announced that 200 million people are now members of meaningful groups on Facebook. Now we just need to keep doubling that for the next few years to reach our goal of helping 1 billion people belong to meaningful groups. As membership in physical groups continues declining as it has for decades, we hope helping people connect online will help strengthen our society's social fabric.Stories is also a big part of the future of video sharing, which is why we're all in on it across our family. Instagram was the first to really take off here, Facebook started slower, but is now growing quickly, too, and WhatsApp Status is by far the biggest of views products and continues to grow quickly. There's also a clear trend towards sharing with smaller groups, which is why messaging is so important. Between WhatsApp and Messenger, people now send almost 100 billion messages every day. They also do more than 3 billion minutes of video and voice calling every day, making us by far the largest network for video calling as well.Over the next five years, we're focused on building out the business ecosystems around our apps like Instagram, WhatsApp and Messenger. This quarter, we released WhatsApp Business, which lets small businesses create a presence and offers better tools for messaging. And in just a few months more than 3 million people are actively using WhatsApp Business. It's a hit and it's growing quickly.One of the interesting opportunities and challenges over the coming years will be making sure that ads are as good in Stories as they are in feeds. If we don't do this well, then as more sharing shifts to Stories, that could hurt our business. But there's real upside here, too, if we do a good job. And we're leading the way here with Instagram, and the results so far are promising both on product quality and business performance.Over the next 10 years, we're continuing to work on the long-term technology that we need to break down barriers and bring the world closer together. We continue to work on connectivity and our Internet.org efforts have now helped almost 100 million people get access to the Internet who may not have had it otherwise.AI is the most important technological trend right now and I'm optimistic that it can help us amplify the good that's happening on our services as well as proactively remove harmful content. For example, one thing that I'm proud of is our AI tools that help us take down ISIS and Al Qaeda related terror content, with 99% of that content being removed before any person flags it to us.We've also built AI tools that have flagged when people are posting thoughts about suicide. And these tools have helped us reach out to first responders to get over 1,000 people the help they need quickly.On the positive side, AI will help us understand the context of what people are sharing so we can help encourage more connection and conversations between people as well.And finally, we have some big moments for virtual reality coming up, and I'm excited to get Oculus Go in people's hands soon.Overall, 2018 is a year of important investment to keep people safe and also to keep building the experiences people expect from us. We are taking a broader view of our responsibility and investing to make sure our tools are used for good.And we also need to keep moving forward, building new tools to help people connect, build community and bring the world closer together. Thanks to all of you for being a part of this journey. I'm looking forward to making more progress together.Now, here's Sheryl to talk about our business.Sheryl Kara Sandberg - Facebook, Inc.Hi, everyone. Before going through our results, I want to take a minute to talk about ads and privacy. At Facebook, we have always built privacy protections into our ad system. We use the information you provide and that we receive from websites to target ads for advertisers, but we don't tell them who you are. We don't sell your information to advertisers or anyone else.We also believe that people should control their advertising experience. For every ad we show, there's an option to find out why you're seeing that ad and to turn off ads from that advertiser entirely. And you can opt out of being targeted based on certain information, like the websites you visit or your relationship status.Advertising and protecting people's information are not at odds. We do both. Targeted ads that respect people's privacy are better ads. They show people things that they're more likely to be interested in. We regularly hear from people who use Facebook that they prefer to see ads that are relevant to them and their lives.Effective advertising is also critical to helping businesses grow. This is especially important for small businesses who wouldn't otherwise be able to afford to buy broad reach media. As Mark shared, we now have more than 80 million small businesses around the world using Facebook pages and many of them are building their businesses on Facebook.Small businesses are the backbone of local communities and create the majority of jobs around the world and their growth creates millions of new jobs. We surveyed small businesses in 18 countries, and more than half of SMBs on Facebook say they've been able to hire more people due to growth in demand since joining our platform.Last month, I was in Houston for Facebook's Community Boost event. I met Patrice Farooq, who runs a small business called Cupcake Kitchen. After Hurricane Harvey damaged her business last year, she used Facebook to find new customers. Now more than half her business come from Facebook and she's getting ready to open a second store.We're proud of the ad model we've built. It ensures that people see more useful ads, allows millions of businesses to grow and enables us to provide a global service that's free for all to use. The fastest way to bridge the digital divide in the United States or around the world is by offering services free to any consumer regardless of their circumstance. Advertising supported businesses like Facebook equalize access and improve opportunity.At the same time, we know that people want control over how their information is used, and we want them to feel confident that the ads they're seeing are authentic. That's why we're building industry-leading transparency tools. This includes a way to see ads an advertiser is running, even if they aren't targeted to you. This new feature is live in Canada and will roll out in Ireland and the U.S. soon.In the coming months, GDPR will give us another opportunity to make sure people fully understand how their information is used by our services. It's an EU regulation, but as Mark said a few weeks ago, we're going to extend these controls to everyone who uses Facebook regardless of where in the world they live. Our commitment to you is that we will continue to improve our ads model by strengthening privacy and choice, while giving businesses of all sizes new and better tools to help them grow.With that, I'd like to turn to our results. It was a great quarter for our business. Q1 ad revenue grew 50% year-over-year. Mobile ad revenue was $10.7 billion, up 60% from last year and contributed approximately 91% of total ad revenue. Revenue growth was broad-based across regions, marketer segments and verticals.We continue to make progress on our three priorities: helping businesses leverage the power of mobile; developing new ad products; and making our ads more relevant and effective.First, leveraging the power of mobile. Advertisers recognize the importance of reaching their audience on mobile. During the Super Bowl this year, over 90% of national TV advertisers were also advertising on Facebook. This shows that the largest advertisers understand the value of broad-based campaigns with us.Take Tourism Australia. To get more Americans interested in visiting Australia, they ran ads on Facebook and Instagram in the week leading up to the game. On Super Bowl Sunday, they ran short video ads on Facebook before their big TV spot at halftime. This drove 22% incremental reach on top of TV and a 35 point lift in awareness. During the campaign, 50% of leads on the Tourism Australia site came from Facebook.Second, developing new ad products. Instagram Stories is changing how people share and express themselves. Advertisers are also finding creative ways to use the format. This quarter, we made carousel ads available in Stories so advertisers can share up to three images or videos per ad instead of just one. People can swipe up on the ads to visit the advertiser's website.We also announced a number of innovations to help retailers reach customers. We rolled out a more personalized shopping experience in News Feed. Now when people click on a collection ad, they'll see a full-screen catalog organized according to their interests.We also introduced a new way to reach people before they've shown interest in making a specific purchase. If someone is generally interested in furniture, a business can now run ads focused on different categories of their products, such as couches or tables, to inspire them to shop.And last, making our ads more relevant and effective. Our investments in measurement are helping advertisers of all sizes understand their results and make good investment decisions.We've heard from many of our advertisers that they want third-party verification to prove that we're helping them achieve their marketing goals. We were recently accredited by the Media Ratings Council for News Feed served ad impressions on desktop and mobile. We're working with them on accreditation in other areas as well.Going forward, we will continue to focus on these three priorities and ensure that people's privacy is protected on Facebook.I want to close by thanking our teams around the world for the work they do each and every day and each and every quarter to make our company and our services better. I'm also truly grateful to our partners who work with us to grow their businesses.Thanks, and now here's Dave.David M. Wehner - Facebook, Inc.Thanks, Sheryl, and good afternoon, everyone. Our community and business both showed solid growth in the first quarter. Let's start with our community metrics. Daily active users on Facebook reached 1.45 billion, up 13% compared to last year, led by user growth in India, Indonesia and Vietnam. This number represents approximately 66% of our 2.2 billion monthly active users in Q1. MAUs were up 260 million or 13% compared to last year.Turning now to the financials. All comparisons are on a year-over-year basis unless otherwise noted. Q1 total revenue was $12 billion, up 49% or 42% on a constant currency basis. Foreign exchange tailwinds contributed $536 million of revenue in Q1. Additionally, the adoption of ASC 606, the new revenue standard, resulted in approximately $130 million of incremental revenue in Q1 due to a change from net to gross accounting for our Instant Articles product.Q1 total ad revenue was $11.8 billion, up 50% or 43% on a constant currency basis. Mobile ad revenue was $10.7 billion, up 60%. In Q1, the average price per ad increased 39%, and the number of ad impressions served increased 8%, driven primarily by feed ads on Facebook and Instagram. Payments and other fees revenue was $171 million, down 2%.Turning to expenses, total expenses were $6.5 billion, up 39%. In Q1, we added over 2,600 employees, which was a record level of net new hires. We ended Q1 with over 27,700 full-time employees, up 48% compared to last year. We are focused on growing technical head count as well as a variety of other groups that support the business.Operating income was $5.4 billion, representing a 46% operating margin. Our effective tax rate was 11%. Net income was $5 billion or $1.69 per share. Capital expenditures were $2.8 billion, driven by investments in data centers, servers, network infrastructure and office facilities. In Q1, we generated $5 billion in free cash flow and ended the quarter with approximately $44 billion in cash and investments.In Q1, we bought back approximately $1.9 billion of our Class A common stock. Given our existing repurchase program is nearly fully executed, our Board of Directors has authorized the repurchase of up to an additional $9 billion of stock.Turning to our outlook, the changes that Mark and Sheryl described will, we believe, benefit our community and our business and will serve to strengthen Facebook overall. At the highest level, we believe that we can continue to build the great ads business while protecting people's privacy. That said, with regard to GDPR and other initiatives around data usage, while it's early and difficult to know the business implications in advance, we anticipate a couple of impacts.First, as you might expect, we believe that European MAU and DAU may be flat to slightly down sequentially in Q2 as a result of the GDPR rollout. Second, while we do not anticipate these changes will significantly impact advertising revenue, there is certainly the potential for some impact and we will be monitoring this closely.Importantly, GDPR affects the entire online advertising industry, so the Facebook specific impact is difficult to model in advance. In terms of our overall 2018 revenue outlook, we continue to anticipate revenue growth rates will decelerate on a constant currency basis throughout the year.On the expense side, we are tightening our initial expense guidance range. We now expect that full year 2018 total expenses will grow 50% to 60% compared to our prior range of 45% to 60%. This narrowed range reflects the significant investments we're making in areas like safety and security, content acquisition and our long-term innovation efforts.Turning to capital expenditures, we expect that our full year 2018 capital expenditures will be around $15 billion, at the high end of our prior range of $14 billion to $15 billion, driven by investments in data centers, servers, network infrastructure and office facilities. We also expect continued growth in capital expenditures beyond 2018 to support global growth and ongoing product improvements.Turning now to tax, at current stock prices, we expect that our Q2 and full year 2018 tax rate will be in the mid-teens. As a reminder, fluctuations in our stock price will impact our tax rate.In summary, our first quarter results demonstrated the growth in our business and global community remains strong. We have a lot of work ahead and are investing aggressively to enhance safety, security and privacy, while also focusing on our mission of giving people the power to build community and bring the world closer together.With that, operator, let's open up the call for questions.Question-and-Answer SessionOperatorWe will now open the lines for a question-and-answer session. Your first question comes from the line of Doug Anmuth with JPMorgan.Douglas T. Anmuth - JPMorgan Securities LLCGreat. Thanks for taking the question. One for Mark and one for Dave. Mark, so you focused on bringing people together and clearly have this massive platform with strong engagement, but can you talk about some of the business opportunities for Facebook on the platform away from advertising, and where you're most focused there?And then Dave, just on the OpEx, can you talk about kind of more specifically where some of the incremental costs would fall that take the previous low end of the range here off the table, given what you've seen over the last couple months? Thanks.Mark Elliot Zuckerberg - Facebook, Inc.I could take the first question. So we think that ads is a great business model that is aligned with our mission. We want to build a service that can help connect everyone around the world, so we want to offer that service for free and have it be affordable, and that's completely aligned with what we're trying to do.So even when we do other things, like we're running tests of payments, we have Marketplace which is growing and doing well, there may be other ways that we could think about making money from those, but in general our strategy is to offer those services at cost and make it so that businesses can bid what it is worth to them to run ads in the system. We think that that is both the most efficient way to run the business, it offers every business in the world the lowest prices that we can potentially offer, and it provides a great free service to people around the world.I know that a lot of people have had questions about the business model, and this is something that I just think we at Facebook are very proud of. And we think that it is the right way to build a service that connects everyone around the world.David M. Wehner - Facebook, Inc.Hey, Doug. It's Dave. So if you recall, it's very consistent with what we've been talking about the last couple of quarters which is the acceleration of expense growth is really driven by three factors. So it's the investments that we're making in safety and security, it's the content investments we're making to support Watch, and then finally it's the innovation initiatives around our longer term bets like AI, AR, VR and connectivity.So it's those three factors. If I had to point to what's really leading us to tighten the range, it's really the first factor which is the safety and security investments. Specifically, we're putting more behind that more quickly than we anticipated, and so that's where you're going to see it come up.If you look at the current results from this quarter, you'll see that our sales and marketing expense grew 51% in the quarter – one of the – year-over-year. One of the factors driving that is that's where we're categorizing our community operations investment and other operations teams that support the quality initiatives and the safety initiatives. So you're already seeing some of that getting picked up in the quarter and you'll see that carry through in the year.OperatorYour next question comes from the line of Mark May with Citi.Mark A. May - Citi Investment ResearchThank you. This question's probably aimed at Dave. You commented that you do not expect any significant, maybe some impact from the implementation of GDPR, yet you also voiced some uncertainty there. I guess the question is what gives you confidence in coming out now and saying that you expect no significant impact on the ad business, maybe some?And then maybe more for Mark, there have been some recent reports that imply that even some seemingly simple things that Facebook may not be proactively identifying or addressing have come up and I guess the question is, is it that it's not as simple as it may seem, or is it that these reports aren't accurate, this just has to do with some of the sensitive data like social security information being showing up online? Thank you.David M. Wehner - Facebook, Inc.Hey, Mark. It's Dave. So on GDPR, I think fundamentally we believe we can continue to build a great ads business while protecting the privacy of the people who use Facebook. As part of the rollout of GDPR, we're providing a lot of control to people around their ad settings and we're committed, as Sheryl and Mark mentioned, to providing those same controls worldwide.And while we don't expect these changes will significantly impact advertising revenue, there's certainly potential for some impact. Any change of the ability for us and our advertisers to use data can impact our optimization potential at the margin, which could impact our ability to drive price improvements in the long run. So we'll just have to watch how that plays out over time.I think it's important to note that GDPR is affecting the entire online advertising industry. And so what's really most important in winning budgets is our relative performance versus other opportunities presented to marketers. And that's why it will be important to watch kind of how this plays out at the industry level.Sheryl Kara Sandberg - Facebook, Inc.On the social security information, social security is not an input people put into Facebook and posts containing information like social security numbers or credit cards are not allowed on our site and we remove them as soon as we become aware of it. So we're continually working to improve these efforts and we encourage our community to report anything like this that they see, but that's not data that Facebook is collecting in any way.OperatorYour next question comes from the line of Eric Sheridan with UBS.Eric J. Sheridan - UBS Securities LLCThanks for taking the question, maybe two if I can. Mark, in the changes you talked about at the product level at the beginning part of the year, as you've started to make those changes and some of the content people see on the platform has evolved, what does that mean for engagement? What are you seeing in terms of the way people are using Facebook? I know it's early days, but curious if you've seen anything in terms of change of behavior.And then, Sheryl, we're starting to pick up from advertisers a lot of momentum and positive commentary on messaging platforms, especially Facebook Messenger. Wanted to know if you'd give us any color about your own conversations on the business side, on the messaging apps, WhatsApp, Facebook Messenger, and how investors should think about the opportunity there. Thanks.Mark Elliot Zuckerberg - Facebook, Inc.I can speak to the first point. So we made a number of changes and are still making changes to prioritize meaningful interactions between people over passive consumption of content. And that follows a lot of feedback directly from our community that people want Facebook to be more about friends and family and less about just content consumption. And it also follows the well-being research that we've done that suggests that when people use the Internet for interacting with people and building relationships, that is correlated with all of the positive measures of well-being that you just expect like longer term health and happiness, feeling more connected and less lonely, whereas just passively consuming content is not necessarily positive on those dimensions.So we've been rolling out a number of changes, both product changes and ranking the News Feed. As I said in my opening remarks, that has increased or we've observed increases in some types of sharing and interaction between people based on that. We've also observed some continued declines as we've done this and in the passive consumption of video, specifically.Overall, I'd say that these changes are doing what we expected that they would do and helping people to connect more and have more meaningful interactions. I think that that's the thing that people can uniquely do on Facebook that they can't do on other services that may be more about just consuming content.So we think that this is going in the direction of building a stronger community and a stronger business over the long term, and we're optimistic about what we're seeing here.Sheryl Kara Sandberg - Facebook, Inc.On Messenger, we continue to be primarily focused on consumer growth and engagement, and we're being slow and deliberate with monetization. It's worth noting this isn't a feed product, so there are some more unknowns here.But I think the potential is real and big and growing. We see a lot of organic connections between businesses and consumers, and our experience is that where are those – where we have those organic connections, that's very promising to turn that into monetization as well.We have over 18 million businesses now communicating with their customers through Messenger. We have 2 billion messages sent between people and businesses a month, which includes automated messages.And we're focused on launching new tools that help businesses use Messenger. For this quarter, we launched new quick replies for customers. We're seeing ads in inbox, which are now available to all advertisers.It's really early, but nice pick up and nice buzz there. And click to Messenger ads on Facebook are actually very promising as well because advertisers want to see a return for the money they spend. And when they have an ad and they can get a direct contact one to one with a customer, that's been something that people are really excited about. So early days, but I think a lot of potential here.OperatorYour next question comes from the line of Justin Post with Bank of America Merrill Lynch.Justin Post - Bank of America-Merrill LynchThank you. I'd like to follow-up a little bit on usage just because of the comments last quarter. Any update to the time spent trends on Facebook post your changes?I guess, a second question is, do you think time spent on Facebook can start to grow again?And then third, when you look holistically at Instagram, which seems to be doing really well in third-party services, how do you think about the whole platform in total, Facebook plus Instagram? Thank you.David M. Wehner - Facebook, Inc.Yeah, so I'll take that. In terms of time spent on Facebook, we're not providing a specific update on that. I would note that Mark talked about some of the changes we're making to focus on connections over consumption. So we're seeing a decrease in certain types of time spent such as passive video consumption as a result of that and an increase in areas like sharing. So, we're not really optimizing the business on time spent, but rather the kind of quality of conversations and connections.So we're continuing to invest in that work, and we think it's the right thing for the Facebook community in the long run. And I think it's also good for overall engagement.For Instagram, that continues to perform very well, not providing kind of a separate breakout of that, but Instagram continues to grow nicely, both as a – both from an engagement perspective and a business perspective.OperatorYour next question comes from the line of Heather Bellini with Goldman Sachs.Heather Bellini - Goldman Sachs &amp; Co. LLCGreat. Thank you very much. I was wondering if we could talk a little about Watch. I know it's early, but I was wondering if you could share with us your init</t>
+  </si>
+  <si>
+    <t>Microchip Technology, Inc. (NASDAQ:MCHP) Q1 2018 Earnings Call August  3, 2017  5:00 PM ETExecutivesJ. Eric Bjornholt - Microchip Technology, Inc.Ganesh Moorthy - Microchip Technology, Inc.Steve Sanghi - Microchip Technology, Inc.Mitchell R. Little - Microchip Technology, Inc.AnalystsVivek Arya - Bank of America Merrill LynchMark Delaney - Goldman Sachs &amp; Co. LLCJohn W. Pitzer - Credit Suisse Securities (NYSE:USA) LLCWilliam Stein - SunTrust Robinson Humphrey, Inc.Chris Caso - Raymond James &amp; Associates, Inc.Craig A. Ellis - B. Riley &amp; Co. LLCHarlan Sur - JPMorgan Securities LLCChristopher B. Danely - Citigroup Global Markets, Inc.Gil Alexandre - Darphil AssociatesKevin E. Cassidy - Stifel, Nicolaus &amp; Co., Inc.Craig M. Hettenbach - Morgan Stanley &amp; Co. LLCChristopher Rolland - Susquehanna Financial Group LLLPOperatorGood day, everyone, and welcome to this Microchip Technology first quarter and fiscal year 2018 financial results conference call. As a reminder, today's call is being recorded. At this time, I would like to turn the call over to Microchip's Chief Financial Officer, Mr. Eric Bjornholt. Please go ahead, sir.J. Eric Bjornholt - Microchip Technology, Inc.Good afternoon everyone. During the course of this conference call, we will be making projections and other forward-looking statements regarding future events or the future financial performance of the company. We wish to caution you that such statements are predictions and that actual events or results may differ materially. We refer you to our press release as of today as well as our recent filings with the SEC that identify important risk factors that may impact Microchip's business and results of operations.In attendance with me today are Steve Sanghi, Microchip's Chairman and CEO and Ganesh Moorthy, Microchip's President and COO. I will comment on our first quarter fiscal year 2018 financial performance, and Steve and Ganesh will then give their comments on the results and discuss the current business environment as well as our guidance. We will then be available to respond to specific investor and analyst questions.I want to remind you that we are including information in our press release and this conference call on various GAAP and non-GAAP measures. We have posted a full GAAP to non-GAAP reconciliation on the Investor Relations page of our website at www.microchip.com, which we believe you will find useful when comparing GAAP and non-GAAP results.I will now go through some of the operating results, including net sales, gross margin and operating expenses. I will be referring to these results on a non-GAAP basis prior to the effect of our acquisition actives and share-based compensation. Net sales in the June quarter were a record $972.1 million, above the high end of our June 5, 2017, upwardly revised guidance and up 7.7% sequentially from net sales of $902.7 million in the immediately preceding quarter. We have posted the summary of our revenue by product line and geography on our website for your reference.On a non-GAAP basis, gross margins were 60.4% in the June quarter and above the high end of our guidance, which was 60%. Non-GAAP operating expenses were 22.9% of sales, below the low end of our guidance range of 23%. And non-GAAP operating income was a record 37.5%, well above the high end of the our guidance of 37%.Non-GAAP net income was a record $319.1 million, resulting in record earnings per diluted share of $1.31, which was $0.07 higher than the mid-point of our guidance of $1.24, up 12.9% on a sequential basis and up 56% as compared to the same quarter last year.On a GAAP basis, gross margins including share-based compensation and acquisition-related expenses were 60.1% in the June quarter. GAAP gross margins include the impact of $3.4 million of share-based compensation and $0.7 million benefit from the recovery of material that was previously written off due to a vendor material issue.Total operating expenses were $362.8 million and include acquisition and tangible amortization of $120.8 million, share-based compensation of $19 million, $2.9 million of acquisition-related and other costs, and special income of $2.8 million, consisting primarily of the gain on the sale of the Micrel San Jose wafer fab in the June quarter. After these adjustments, GAAP net income was a record $170.6 million or $0.70 per diluted share.The non-GAAP tax rate was 8.7% in the June quarter. The GAAP tax rate was negative 2.6% in the quarter. We expect our longer-term forward-looking non-GAAP effective tax rate to be between 8.25% and 9.25%. The large difference between our non-GAAP and GAAP tax rates relates to the differences in the specific tax rates that apply to the charges that are excluded from our non-GAAP results.Moving on to the balance sheet, our inventory balance at June 30, 2017 was $426.8 million. Microchip had 100 days of inventory at June 30, down three days from the end of the March quarter. Inventory days are at a seven year low and we don't expect inventory days to grow in the current quarter as our capacity increases are hardly keeping pace with the increases in demand we are seeing in the business. Inventory at our distributors was at 31 days and that was down two days from the March quarter levels.The cash flow from operating activities was a record at $345 million in the June quarter. As of June 30 the consolidated cash and total investment position was $1.65 billion, of which about $546 million is domestic cash.We continued to make good progress on our leverage with our net debt-to-EBITDA ending the June quarter at 1.58. This is down from 1.94 at the end of the March quarter. Our EBITDA in the June quarter was a record $395.6 million. We expect our net debt-to-EBITDA to be under 1.3 by the end of September. Our net debt-to-EBITDA does not include our 2037 convertible debt as it is excluded from our banking covenants because it is more equity-like in nature due to its 20 year maturity date. Our net debt-to-EBITDA is in excellent condition and declining rapidly, so we're not going to continue to share this metrics in our earnings calls in future periods unless there is a material change.During the June quarter, we received about $40 million of capital at our facilities. Capital spending for the quarter was only $22.1 million due to the timing of the receipt of the equipment and when it was paid for. We expect about $70 million in capital spending in the September quarter and overall capital expenditures for fiscal year 2018 to be about $180 million.We are aggressively adding capacity to support the growth of our production capabilities for our fast growing new products and technologies and bring in-house more of the assembly and test operations that are currently outsourced. These capital investments will bring significant gross margin improvements to our business over time, particularly for the Atmel manufacturing activities that we are bringing into our own factories. Depreciation expense in the June quarter was $29 million.I will now ask Ganesh to give his comments on the performance of the businesses in the June quarter. Ganesh?Ganesh Moorthy - Microchip Technology, Inc.Thank you, Eric, and good afternoon everyone. We're very pleased with how all our product lines performed in the June quarter and how the combined assets of Microchip and former Atmel working in harmony continue to produce differential growth results. These are our first results since we unveiled Microchip 2.0 to our investors about two months ago. We look forward to sharing many more updates of our transformation to Microchip 2.0 as we continue to enable our clients with the very best smart, connected and secure embedded applications.Let's now take a closer look at the performance of each of our product lines, starting with microcontrollers. Our microcontroller business performed very strongly in the June quarter with revenue being up 9.5% sequentially as compared to the March quarter, setting a new record in the process. On a year-over-year basis, the June quarter microcontroller revenue was up a whopping 18.1%. The June quarter of this year and the year-ago June quarter are completely comparable, as they both represent a full quarter of combined Microchip and Atmel business.We continue to see clients using microcontrollers that originated from Atmel's heritage express confidence in Microchip's stewardship of these product families. As a result, we are seeing more designs that are in the pipeline, going to production and ramping in volume. We're also seeing continued growth in our design-in funnel, which we expect will drive future growth as these designs progress into production over time.Microcontrollers had over $2.5 billion in annualized revenue, representing 65.4% of Microchip's overall revenue in the June quarter. Additionally, we shipped our 20 billionth cumulative microcontroller in the June quarter. In the June quarter, we also started sampling the PIC32 C product line, our first PIC32 microcontroller, which happened to have an ARM core, so we now have PIC32 microcontrollers with MIPS and ARM cores within them, both of which are supported by the Microchip development tools ecosystem. This is consistent with what we have always said, which is that the core inside the microcontroller is not as important as the brand on the outside, along with the attendant brand promise for what clients expect from PIC microcontrollers.Our microcontroller business gained further market share in the second quarter of calendar 2017, as evidenced by our June quarter results. In fact, the results show that all our microcontroller product lines are firing on all cylinders and driving differential growth and market share gains. We believe we have the new product momentum and customer engagement to continue to gain even more share as we advance the Microchip 2.0 transformation and build the best-performing microcontroller franchise in the industry.Moving now to our analog business, our analog product revenue was up 3.7% sequentially in the June quarter as compared to the March quarter and also set a new record in the process. Our analog results were negatively impacted by capacity constraints on products with Atmel heritage, without which the growth would have been higher. On a year-over-year basis, the June quarter analog revenue was up 11.2%, well ahead of the market growth rate for analog. At over $950 million in annualized revenue, our analog products represented 24.6% of Microchip's overall revenue in the June quarter.We are successfully finding more opportunities to attach microcontroller's vast portfolio of analog products to Atmel microcontrollers and microprocessors at multiple customers and applications. This effort should pay dividends over time as these new design wins go to production. We continue to develop and introduce a wide range of innovative and proprietary new linear, mixed signal, power, interface, timing and security products to fuel the future growth of our analog products, as we march relentlessly towards making analog a greater than $1 billion annualized revenue business for Microchip sometime in fiscal year 2018 and a much larger business in the coming years.Moving now to our licensing business. Our licensing business was up 8.5% sequentially in the June quarter and set a new record in the process as annualized revenue broke through the $100 million mark for the first time ever. For the last three to four years, we have licensed multiple foundries and independent device markers on multiple process technology nodes and have been working to enable getting these technologies qualified for production. We expect the fruits of this work will soon begin to manifest in our licensing results as the licensed processes start generating royalty revenue for many, many years to come.Moving to our memory business. This business was sequentially up 8.8% in the June quarter as compared to the March quarter. We have been very successful in our memory business using the combined product lines of Microchip and Atmel and getting the best from each. There are significant cost reductions underway using Atmel-originated silicon, which will be assembled and tested using Microchip's back-end factories to achieve the lowest overall cost. We believe that this effort will make us even more competitive and improve gross margins further. We continue to run our memory product line in a disciplined fashion that maintains consistently high profitability, enables our licensing business and serves our microcontroller customers to complete their solutions.Finally, before I conclude, a couple of general items. First, in case there are any lingering concerns about the automotive end market in light of the results announced by some of our competitors and the seasonally adjusted annualized rate of automobile shipments, also known as SAAR, which some analysts track, we would like to categorically state that our automotive business performance was strong in the June quarter, with sequential growth pretty close to the Microchip's overall performance.Now this is understandable as Microchip content tends to be in mid to high end cars, which are less sensitive to inventory and consumer cycles, and we continue to benefit from the growth in automobile electronics as well as our market share gains in the automotive market segment. Therefore Microchip's automotive business does not necessarily track with the SAAR numbers, and we expect our automotive business to perform well again in the September quarter.For more information about our automotive business, we refer you to a presentation we made on June 6 at an automotive-focused investor conference, which is available in the Investor Relations section of our website.Secondly, on the heels of our ranking in April by Semicast as one of the top 10 largest automotive semiconductor companies, IHS in June ranked Microchip as one of the top 10 largest industrial semiconductor companies and among the top three largest micro-component suppliers to the industrial market. Micro-components in the IHS report refer to microcontrollers and microprocessors. Automotive and industrial are important end markets for our growth and consistent performance, and as we shared with you in May, they together represent about 60% of our revenue.Let me now pass it to Steve for some general comments about our business and our guidance going forward. Steve?Steve Sanghi - Microchip Technology, Inc.Thank you, Ganesh, and good afternoon everyone. Well, how do you like the results from Microchip 2.0? Today, I would like to first reflect on the results of the fiscal first quarter of 2018. I will then provide guidance for the fiscal second quarter of 2018. I will also provide update on capacity enhancement activities, as well as Microchip 2.0 that we introduced to the investors during the last quarter.Our June quarter financial results were extremely strong. Our net sales were a huge new record and well above the high end of our revised guidance. Our non-GAAP net sales for this quarter were up 15.2% from the June quarter of a year ago and this revenue comparison is not impacted by any acquisition since Atmel's full quarter revenue was in the June 2016 quarter.Our non-GAAP gross margin percentage, operating profit percentage and earnings per share each exceeded the high end of our guidance and each crossed significant milestones. Our non-GAAP gross margin crossed the important 60% milestone, non-GAAP operating profit exceeded 37% for the first time and non-GAAP earnings per share crossed an important run rate of well over $5 per share annualized.Non-GAAP earnings per share were up 56% from the June quarter of a year ago due to improving sales, gross margin percentage, operating expense leverage and successful execution of our core business as well as accretion from our acquisitions. I want to thank all the employees of Microchip worldwide for delivering a record quarter in every respect. This was also our 107th consecutive profitable quarter.There are three other points I would like to make on our sales growth. First, every one of our major product lines, 8-bit MCU, 16-bit MCU, 32-bit MCU, analog, wireless, licensing, memory and others were up significantly in the June 2017 quarter over the year ago quarter. Number two, every major geography, North America, Europe and Asia, were up significantly in the June 2017 quarter over the year-ago quarter. And number three, sales in all end markets were up in the June 2017 quarter over the year-ago quarter.Regarding the reason for the large sequential and year-over-year growth, I will refer you back to Microchip 2.0. We are experiencing an enormous customer preference to design with our microcontroller solutions in all 8-bit, 16-bit and 32-bit customer applications. This is also demonstrated in the recent EE Times survey. The EE Times survey also indicates that customers believe that Microchip has the best ecosystem in the industry.On the top of that, our various acquisitions have now built a powerful diversified product line through which we are able to provide total system solutions to our customers. Our sales channels have been trained and are welcoming the opportunity to sell multiple products to our customers in the same board. As a result our customers are responding by giving us incremental design wins with multiple products in the same board. We have an enormous design win funnel and we feel very optimistic that in Microchip 2.0 we will continue to see the acceleration in the organic growth of Microchip.Now, before I go into the guidance for our September quarter, I will say that we are continuing to see a very strong business environment for our products worldwide and have a number of company-specific demand drivers. Our bookings rate in the June quarter was extremely strong. Our inventories at Microchip as well as at the distributors are towards the low end of the normal range. Both inventories at Microchip as well as distributors declined further sequentially in the June quarter. While our manufacturing operations produced a lot more units in the June quarter, we shipped them all for growth and did not progress towards improving our inventory position.However, through the growth of capacity and producing a lot more units, our lead times have stabilized. While lead times are still longer than what we would like them to be, they're not getting any longer and we appear to have created a soft landing so far without triggering any double ordering or panic from our customer base.We have increased wafer starts in our three internal fabs and we're adding capacity in our three back-end facilities. We will continue to add additional capacity in all of our fabs, assembly test plants, foundries and sub-contractors. In the back end, there are too many product tester/handler combinations. We are catching up on some of those combinations, as we convert Atmel products to Microchip's more efficient assembly test platforms. However, we don't expect to fully catch up on all product tester/handler combinations until the middle of calendar year 2018.Now let us go into the non-GAAP guidance for the September quarter. We expect total net sales to be up approximately 3% sequentially, which represents approximately 14.6% on a year-over-year basis. I want to remind investors that in the last five years, we had three acquisitions that closed in the September quarter: SMSC closed in August of fiscal year 2013; ISSC closed in July of fiscal year 2015 and Micrel closed in August of fiscal year 2016. Therefore, mathematically taking the average of the last five years of sequential growth will give you a number of 6.7% and that number would be totally wrong.Excluding these acquisitions, the average sequential growth in the September quarter over the past five years, has been just under 0.5% and ranged between minus 2.6% and plus 6.5%. Our current sequential revenue guidance of 3% growth and year-over-year guidance of 14.6% growth is showing substantial organic growth, consistent with the Microchip 2.0 that we have presented to investors. As a result, in September quarter, we expect to see our first $1 billion quarter.Regarding gross margin, we see a steady improvement in overall gross margin of the company. We expect gross margin for the September quarter to be between 60.5% to 60.75% of sales. We expect overall operating expenses to be between 22.5% and 23% of sales. We expect operating profit percentage to be between 37.5% and 38.25% of sales, and we expect earnings per share to be between $1.33 and $1.37 per share.In our last quarter, we revised up our long-term financial model to a long-term non-GAAP gross margin of 62.5%, operating expense of 22.5% and operating profit of 40% and as you have seen, we are relentlessly marching towards this model. This quarter we would like to share with investors our longer-term annual growth expectations of high single digit growth. This higher growth expectation comes from our transformation to Microchip 2.0 and an environment which we expect through industry consolidation will continue to improve from a pricing discipline standpoint.Given all the complications of accounting for the acquisitions including amortization of intangibles, restructuring charges and inventory write-up on acquisitions, Microchip will continue to provide guidance and track its results on non-GAAP basis. We believe that non-GAAP results provides more meaningful comparison to prior quarters, and we request that the analysts continue to report their non-GAAP estimates to First Call.With this, operator, will you please poll for questions?Question-and-Answer SessionOperatorYes. Thank you. And we'll take our first question from Vivek Arya with Bank of America Merrill Lynch.Vivek Arya - Bank of America Merrill LynchThank you for taking my question and congratulations on the strong results and outlook. Steve, you mentioned pricing discipline as being an important factor. When I look at the two other microcontroller companies that are bigger than Microchip, Renesas, and NXP, do you see this pricing discipline pervasive in the industry? Or I assume you really mostly talk about Microchip, but what about your competitors, do you see this pervasive through the industry?Steve Sanghi - Microchip Technology, Inc.The pricing discipline is improving and to a different extent with various manufacturers. I can't mention it, the names of the competitors and specifically what they are doing, but we have seen some discipline on others also, some more than the others. Microchip has kind of led this charge in the last five years, and especially after the acquisition of Atmel, whose pricing was really below acceptable pricing, we have quite substantially corrected those pricing and we have seen others who were relatively undisciplined also make some correct moves in that direction.Vivek Arya - Bank of America Merrill LynchI see. And so my follow up, you have mentioned a few times the concept of attaching more analog products. Is there a way to quantify what that attach rate is, how it's trended and whether it's even useful to analyze this trend?Steve Sanghi - Microchip Technology, Inc.Well it's not something we can completely externally share, but we have large number of internal indicators, which are really driven by number of Microchip products per customer board. So if you think about years ago, we just sold microcontrollers and you will usually have one device per customer board. We have well in excess of one device per customer board and the larger and larger that number becomes means you are being able to attach more and more devices, and rather than the attach, we kind of use the word these days, total system solutions. So we track that internally and it's moving in the positive direction. It's not something we plan to share with the Street as just one other thing to track and hit us over the head with.Ganesh Moorthy - Microchip Technology, Inc.We also have some examples in some of the investor conference presentations and again if you go back to Steve's presentation from back in early June, you'll see some examples of what exactly total system solution means.Steve Sanghi - Microchip Technology, Inc.And those slides are still on the Internet. You can check it in the investor page.Vivek Arya - Bank of America Merrill LynchThank you.Steve Sanghi - Microchip Technology, Inc.Thanks, Vivek.OperatorAnd we will take our next question from Mark Delaney with Goldman Sachs.Mark Delaney - Goldman Sachs &amp; Co. LLCYes. Congratulations on the record quarter and thanks very much for taking the question. The question was on the lead times. I was wondering if you could give us a bit more quantification of how extended lead times have gotten to and just any sort of differences between different types of products and if you can put into context versus prior cycles.Steve Sanghi - Microchip Technology, Inc.So our lead times on most products today are between, I would say, 4 weeks and 20 weeks. So lots and lots of products are kind of normal on lead time. It could be version of a given silicon that is longer, but other versions are shorter, so a large bracket around it is about 4 weeks to 20 weeks. But more important part is really, they're not getting any longer. They were getting longer in the prior quarters, as we extended and the normal lead times we will consider where 90% of our products can be bought in 4 to 8 weeks.So that's kind of the bracket and with the capacity growth we have had, we have been able to stabilize the lead time, but as I said in my remarks, we're essentially shipping all the excess production for growth and not able to either lower the amount of delinquent product, or unsupported product, nor are we able to really dramatically shorten the lead times. On some products with tester/handler product combinations have caught up, yes, but in broad majority, lead times are stable but not coming in yet.Mark Delaney - Goldman Sachs &amp; Co. LLCThat's helpful. And for a follow-up question, somewhat related to that, in your prepared remarkets, Steve, you commented that you think by stabilizing lead times, you think you can engineer a soft landing. You've always been very thoughtful on the cycle and in revenue growth. Any more detail either for the industry or Microchip specifically about what's baked into that assumption about a soft landing and how exactly you go from sort of mid-teens growth to what's assumed in a soft landing scenario? Thank you.Steve Sanghi - Microchip Technology, Inc.Well, I don't have any comments on the industry. I resigned from that job two years ago. We're just simply – I will comment on Microchip. And what I'm seeing is that by lead times really not going longer and taking almost a year to bring these lead times down, that we're guiding to really by the middle of next year, we believe we already have engineered a soft landing and not creating any panic, not having runaway book-to-bill ratio, strong backlog, fair amount of unsupported product. But still largely good behavior on the part of customers and distributors. Inventory is still very low all over the board. Our distributor inventories are low. Our Microchip inventories are lowest in seven years. This is essentially engineering a soft landing.Mark Delaney - Goldman Sachs &amp; Co. LLCThank you.OperatorAnd we'll now take our next question from John Pitzer with Credit Suisse.John W. Pitzer - Credit Suisse Securities (USA) LLCYeah. Good afternoon, guys. Congratulations on the strong results. Thanks for letting me ask the question. Steve, I had a couple sort of clarifying questions around your longer-term growth rate of high single digits. Is that your view on an organic basis or will that continue to include sort of the successful M&amp;A strategy you've employed in the past? And if it's more the former than the latter, does that change your view on M&amp;A? In addition, you talked about better pricing. I'd just be kind of curious from where we were to where you think we're going, how much pricing adds to that.And then my last point would just be market share, and I guess around that specifically the time when some of your peers are kind of consolidating their distribution partners and trying to take economics from them, you're taking sort of a more of a Switzerland approach and kind of spreading the wealth a little bit. Do you think that's having a positive effect just through the distribution channel, and that enormous design funnel you were talking about? Thank you.Steve Sanghi - Microchip Technology, Inc.Those were a number of questions. Let me see if I can remember all of them.J. Eric Bjornholt - Microchip Technology, Inc.First one was organic growth is our, what you talked about -Steve Sanghi - Microchip Technology, Inc.So the high single digit kind of growth I talked about is organic. The acquisitions are unpredictable. You do not know when they happen. You cannot schedule them. So that growth rate is organic. Now we believe over the last several years as the industry growth has been fairly slow, with the exception of this current year where the industry growth has been reasonable, there was always unit growth, but the entire unit growth was eaten up by the year-over-year price decreases and pricing pressures and bad practices in our industry constantly to give the price away. As through consolidation and other reasons as large companies have got in pricing discipline, we believe that unit growth is not being eaten up by the price drop. So some of that price discipline is built in into the longer-term organic growth guidance we're giving. And the second part was?J. Eric Bjornholt - Microchip Technology, Inc.The second question he asked was does the change in your view on organic growth change the M&amp;A strategy.Steve Sanghi - Microchip Technology, Inc.Does it change the M&amp;A strategy, it does not change the M&amp;A strategy. If we find a right company that fits well, we can buy it at a reasonable price, is accretive going in and with all the other – check all of the boxes that we have, sort of a pretty proprietary scheme of how we essentially select an acquisition, if we can do that we will do it. However, as you know, the herd is thinning. There are fewer companies left and the valuations are quite high as we speak. But as we're able to find some things on reasonable valuation, it doesn't change our view.J. Eric Bjornholt - Microchip Technology, Inc.All right, and John, I think the last piece of your question was market share. I'd like you to repeat that question to make sure we answer it specifically.John W. Pitzer - Credit Suisse Securities (USA) LLCYeah, to the extent – how much of the high single digit long-term growth is expected market share gains and specifically at a time when some of your peers are sort of consolidating their distribution partners and trying to take back some economics from their distribution partners, you seem to be taking more of a Switzerland approach and perhaps spreading the wealth a little bit more. And I'm just kind of curious as to what extent you think that's really helping that design funnel you referenced your prepared comments?Steve Sanghi - Microchip Technology, Inc.Well, these distribution things go in cycles. You made a call 10 years ago, we were taking some actions on distribution when we felt that certain distributors were not creating demand, and a decade later now some other people feel the same way. So these things kind of go in cycles.But what we're experiencing is currently, as a number of our competitors have defranchised either distributor completely or they have narrowed their margins and not giving them demand creation margin, we have seen these distributors put a tremendous attention and focus on Microchip and especially with a broadened product line sort of under the Microchip 2.0 initiative that we have, we are finding that distributors are finding the new Microchip 2.0 product portfolio to be so much more desirable and essentially being able to replace the number of other competitive companies where they have lost a franchise on, including microcontroller, analog, wireless, USB, Ethernet, wired products, USB, Ethernet and wireless, just really timing is just perfect for the distribution to grab onto our broad portfolio, and do a great job for us. So I think we are taking advantage of it right now.John W. Pitzer - Credit Suisse Securities (USA) LLCAnd then Steve, if I could sneak one more in, clearly your initial intent around the Atmel acquisition was to buy back stock, and you ended up not doing that. The stock's had a good absolute run since then, but if you kind of look at the re</t>
+  </si>
+  <si>
+    <t>JPMorgan Chase &amp; Co. (NYSE:JPM) Q1 2018 Results Earnings Conference Call April 13, 2018  8:30 AM ETExecutivesMarianne Lake - CFO and EVPAnalystsJohn McDonald - BernsteinGlenn Schorr - Evercore ISIMichael Mayo - Wells Fargo SecuritiesMatthew O'Connor - Deutsche BankErika Najarian - Bank of America Merrill LynchBetsy Graseck - Morgan StanleyJames Mitchell - The Buckingham Research GroupKenneth Usdin - JefferiesSaul Martinez - UBS Investment BankGerard Cassidy - RBC Capital MarketsChris Kotowski - OppenheimerAl Alevizakos - HSBCOperatorGood morning ladies and gentlemen. Welcome to JPMorgan Chase's First Quarter 2018 Earnings Call. This call is being recorded. [Operator Instructions] We will now go live to the presentation. Please stand by.At this time, I would like to turn the call over to JPMorgan Chase's Chief Financial Officer, Marianne Lake. Ms. Lake, please go ahead.Marianne LakeThank you operator and good morning everyone. And just to let you know that Jamie is actually on the ride with clients today, so he's not able to join us this morning, but sends his regards.So, now I'm going to take you through the earnings presentation which is available on our website. Please refer to the disclaimer at the back of the presentation. Starting on page one, the firm reported net income of $8.7 billion, EPS of $2.37, and a return on tangible common equity of 19% on revenue of $28.5 billion, benefiting from broad based strength in performance, but also lower taxes and seasonality.So, this quarter's performance in context, on a core basis pretax earnings grew 13% year-on-year, benefiting from higher rate, solid growth across other revenue drivers, and continued investments in our businesses. And even excluding the benefit of tax reform, net income was a clear record this quarter.Included in the results, you see on the page, approximately $500 million of mark-to-market gains on certain investments previously held at cost due the adoption of a new accounting standard. These gains are reported in CIB markets revenue.Against that, there were a number of other smaller, but nevertheless notable items, including changes in credit reserve, SBA, investment securities, and private equity losses and legal, which together substantially offset those gains.Underlined results continue to be strong. Average core loan growth excluding the CIB of 8% year-on-year, Card sales and merchant processing volumes up 12% and 15% respective. We maintained our number one rank in global IB fees and have net income of $1 billion in the Commercial Bank. And in Asset &amp; Wealth Management, we saw strong long-term flows [ph] across all regions and 10% AUM growth.Turning to page two, some more details about the first quarter results. So, before we get into the numbers on the performance drivers for the quarter, I do want to remind you that there have been a couple of adjustments to the numbers on the page which are in line with the guidance that we gave during the fourth quarter.First, seeing the impact of the new revenue recognition standard. You will recall, this will have the full year impact of grossing up non-interest revenue and expense each by approximately $1.2 billion. The impact for the quarter of about $300 million is included here and prior periods have been similarly restated.Second, as a result of tax reform, certain tax equivalent adjustments that are included in managed revenue are lower on a relative basis and for that prior periods have not being restated. This impact which was also about $300 million for the quarter, reduced revenues, was split about 50/50 in NII versus NIR, an offset in tax expense.So, with that, revenue of $28.5 billion was up $2.7 billion or 10% year-on-year. Net interest income was up $1.1 billion, mainly reflecting the impact of higher rates. Non-interest revenue was up $1.6 billion year-on-year and while it includes the mark-to-market gains on the first page, it also includes approximately $400 million of losses on investment securities and legacy private equity investments.Adjusted expense of $16 billion was up 6% year-on-year, reflecting higher compensation expense as well as business growth including Auto lease depreciation. Credit cost of $1.2 billion were down $150 million year-on-year. Consumer charge offs were in line with expectations and guidance and there were no changes to reserves this quarter. In wholesale, we had a net reserve release of about $170 million driven by single Oil &amp; Gas names.You'll see that our effective tax rate for the quarter ended a little above 18% compared to the 17% guidance we gave, driven by a combination of higher pretax earnings as well as geographical mix. We're expecting full year effective tax rate to be closer to 20%.Shifting to balance sheet and capital on page three. We ended the first quarter with CET1 of 11.8%, down about 30 basis points versus last quarter. Capital generated was offset by net capital distributions and changes in AOCI. So, the reduction was driven by higher risk weighted assets reflecting the increased level of market activity, which similarly impacted all other ratios.In the quarter, the firm distributed $6.7 billion of capital to shareholders and last week, we submitted our 2018 CCAR Capital Plan to the Federal Reserve. But as you know, we can't provide any details of that at this stage.So, before moving on to the lines of business, on page four, I'll briefly address this week's new capital news. Two new capital NPRs were released this week, the Stress Capital Buffer and eSLR. Starting with the Stress Capital Buffer, the proposal was broadly in line with a narrative and expectations that had been set.There is a comment period, we intend to fully participate in the process and are encouraged that there is an openness from current leadership to really consider feedback from the industry.On the positive side, we support the convergence of Stress and BAU capital and in general, support simplification of the framework. We believe that firm should be required to hold adequate capital to withstand severe stress, calibrated to firm's specific exposures and risks. We also agree that many of the changes to the construct of the test, for example, not having to hold capital for full distributions during a stress environment, better reflect reality, and Board-approved policies.That said, stepping right back, if we are fundamentally reconsidering the contrast of minimum capital levels, then all of the building blocks should be in play including the GSIB surcharge to ensure they all hang together. And to reinforce points that we previously made, first and foremost, the fixed coefficients need to be recalibrated in light of the economic growth we've had. Second, the underlying premise for the surcharge and more particularly, U.S. gold plating is somewhat unnecessary for a firm that is compliant with all of the post-crisis reform that directly addresses systemic risks, which includes the severity of the CCAR stress, incorporating material GSIB specific instructions.Beyond that, obvious challenges with the current proposal includes the significant volatility and opacity in the said results, as well as challenges around implementation. So, getting to the numbers, you can see on the page, our estimated historical Stress Capital Buffer derived from the said result. And while for 2017, it would imply no impact on our minimum capital levels, you can see that in years prior, the buffer would have been higher. And you know that in 2018, the scenario was in many ways more severe and the lower tax rate has a net negative bias.Further there will potentially be a need for larger management buffers if it is necessary to accommodate significant volatility. So, acknowledging everything that we don't know, it's fair to say that our minimum level of capital including a management buffer would likely be higher under this proposal, but likely still in the range of 11% to 12%.Briefly on eSLR, as you know, we are not currently bound by leverage. I'm trying to say to you this proposal would reduce the eSLR minimum. So, my primary comment on this is to reiterate my earlier comments about the need to be willing to reexamine the GSIB surcharge regardless of the fact that it reduces the number. Overall, we've been waiting for these proposals and we look forward to participating in the comment process.Moving to page five and let's start with Consumer &amp; Community Banking. CCB generated $3.3 billion of net income and an ROE of 25%. Core loans are up 8% year-on-year, driven by Home Lending up 13%, Business Banking up 7%, Card up 5%, and Auto loans and leases up 6%.Deposits grew solidly at 6% year-on-year. We believe we continue to outpace the industry, which as we previously noted, is experiencing a slowdown as consumers are increasing their allocations to investments, but also based upon our data, they appear to be spending more, reflecting a continued high level of confidence.Client investment assets were up 13% year-on-year with half of the growth from net new money flows and with record flows this quarter. And active mobile users were up double-digit.Revenue of $12.6 billion was up 15% year-on-year. Consumer &amp; Business Banking revenue was up 17% on higher NII, driven by continued margin expansion and deposit growth. Home Lending revenue was roughly flat, as portfolio loan spread and production margin compression were predominantly offset by higher net servicing revenue.And Card, Merchant Services, and Auto revenue was up 18% including higher Auto lease income, but it was driven by Card on lower net acquisition costs, higher loan balances as well as margin expansion. The Card revenue rate was 11.6% in the quarter.Expense of $6.9 billion was up 8% year-on-year, driven by investments in technology and marketing. Higher Auto lease depreciation and continued underlined business growth. The overhead ratio of 55% was roughly flat quarter-on-quarter despite seasonally higher payroll taxes and higher marketing expenses.Finally, on credit, the trends across our portfolio remain favorable. Charge offs were driven by Card and were in line with guidance and there were no reserve actions taken this quarter. Recall, last year included a net impact of a little over $200 million related to the student loan portfolio sale.Turning to page six and the Corporate &amp; Investment Bank. CIB reported net income of $4 billion on revenue of $10.5 billion and an ROE of 22%. This quarter in Banking, we maintained our number one ranking a global IBCs as well as a number one rank in North America and EMEA. IBCs were $1.7 billion, down 10% from a record quarter last year and strong performance in M&amp;A was more than offset by lower debt and equity underwriting fees.Advisory fees were up 15% year-on-year as we saw good momentum and some large deal closed. We ranked number one in global M&amp;A wallet and gained share in every region. And for the quarter, we announce and completed more deals than any other bank.Equity underwriting fees were down 19% in a market that was also down and versus a strong first quarter last year, which included a number of large deals. This quarter we ranked number three in a very competitive environment.And debt underwriting fees were down 18%, driven by a slow start to the year, primarily due to increased market volatility which reduced issuance. Despite these headwinds, we maintained our number one ranking globally and looking forward to the rest of the year, across products, the overall pipeline remains strong.Moving onto market, total markets revenue was $6.6 billion, up 13% year-on-year reported. However, as mentioned, this includes the mark-to-market gains we called out on the front page and also includes a reduction of about $150 million reflecting lower tax equivalent adjustments year-on-year. Accounting for both of these items market revenues would have been up about 7%.Fixed income market's adjusted revenue was flat versus a strong first quarter last year with rates and spread markets reversing to more normal levels following significant outperformance last year, being offset by strong emerging markets and commodities performance.It was a record quarter for equities and revenue was up 25%. A well-diversified story driven by broad strength and continued momentum throughout the quarter with increased volatility benefiting all of equity derivatives. In addition, we saw share gains in cash and continue client activity driving growth in prime as the investments that we've made the business are paying off.Treasury Services and Security Services revenue were both $1.1 billion for the quarter and up 14% and 16% respectively, driven by higher rates and balances. Security Services also benefited from asset based fee growth on both market levels and new client activity.Finally, expense of $5.7 billion was up 9% year-on-year, half being higher compensation expense with a comp-to-revenue ratio of 29% and the remainder primarily driven by higher transaction costs in markets.Moving to Commercial Banking on page seven. Another very good quarter in this business with net income of $1 billion and an ROE of 20%. Revenue was up 7% year-on-year, driven by higher deposit NII as we continue to benefit from higher rates, partially offset by lower IB revenues.Sequentially, revenue was down 8%, largely driven by the impact of tax reform. Gross IB revenues of $569 million result 15% year-on-year on a lower overall industry wallet and fewer large transactions versus last year. That said, the underlying flow of business remains robust. In fact, it was a record quarter for middle market clients and the pipeline looked strong.Expense of $844 million was up year-on-year as we continue to invest in the business, both in bankers and technology. Loan balances were up 6% year-on-year and flat sequentially. C&amp;I loans were up 5% on strength in our expansion markets as well as specialized industries, but down 1% sequentially roughly in line with the industry.CRE loans were up 7% year-on-year and up 1% quarter-on-quarter as the competition is significantly elevated.So both, while client sentiment is high in the wake of corporate tax reform and we remain hopeful that this will support higher demand later in the year, we're not seeing that yet and we are maintaining pricing and credit discipline. Finally, credit performance continues to be very good with zero net charge offs this quarter.Moving onto Asset &amp; Wealth Management on page eight, Asset &amp; Wealth Management reported net income of $770 million with a pretax margin of 26% and an ROE of 34%. Revenue of $3.5 billion was up 7% year-on-year, driven primarily by higher management fees on growth in AUM as well as higher NII on deposit margin expansion and loan growth.Expense of $2.6 billion was down year-on-year as the first quarter of last year included nearly $400 million of legal expenses. Adjusted expense would have been up 8%, driven by higher external fees and revenues as well as higher compensation.For the quarter, we saw net long-term inflows of $16 billion including $5 billion in active equities with strength across all regions benefiting from strong long-term performance. We saw net liquidity outflows of $21 billion, largely driven by a combination of recent M&amp;A activity and the impacts of cash repatriation due to tax reform.AUM of $2 trillion and overall client assets of $2.8 trillion were up 10% and 9% respectively on high market levels globally as well as net inflows. Deposits were down 9% year-on-year, reflecting the migration into investments which we previously discussed, but were about flat sequentially on seasonally higher balances. Finally, we had record loan balances up 12% with strength in both mortgage as well as other loans globally.Moving to page nine and Corporate. Corporate reported a net loss of $383 million. The net loss of $1.87 million in treasury and CIO was primarily due to losses related to security sales. The net loss of $196 million in other Corporate reflects approximately $100 million after-tax loss on legacy private equity investments, as well as a net tax expense on adjustments and true-up of certain reserves. And you'll recall that last year included a legal benefit and our quarter, of course, included the impact of tax reform.Finally, turning the page 10. Given Investor Day is only six weeks behind us, we've not changed our guidance for the full year 2018. So, to wrap-up, we are pleased with the firm's performance this quarter with all of our businesses showing continued and broad strength in an overall environment that remains supportive. And while acknowledging the tailwinds of tax reform and higher rates, the consistent performance of business drivers is translating into topline growth and positive operating leverage with revenues and pretax income both up double-digits year-on-year.So, with that operator, we can take some questions.Question-and-Answer SessionOperatorCertainly ma'am. [Operator Instructions]Our first question comes from John McDonald of Bernstein.John McDonaldHi, good morning Marianne. Wanted to talk about LIBOR, we saw big increase this quarter, can you remind us how LIBOR affects you, kind of pros and cons, where do you have LIBOR sensitivity on the asset side and where do you have it on the funding cost sensitivity to LIBOR? And how should we think net-net about that?Marianne LakeYes. Okay, so I'll sort of end with the op shop [ph] which is that net-net the impact to our results in the quarter was very modest positive. So, a pretty small number on the positive direction. And we've actually seen this before, I can't remember, a year or so ago, we are most sensitive as you know to the front-end of rate, but principally to IOER and prime.So, while we do have exposure to LIBOR repricing, it's both on the asset and liability. As you mentioned, we also have combination of one month and three months LIBOR. So, if you look sort of next across the assets and liability side, they material offset, we don't have sort of significant mismatches. And so as a consequence, obviously, we benefit from a higher level of obsolete short rate, but the basis widening hasn't been very meaningful to our NII. And I mean examples of asset that we price of LIBOR be the Commercial Banking loans and obviously, unhedged or hedged long-term debt on the liability side.John McDonaldOkay. And then just as a follow-up, wondering about the drivers of the 7% expected growth in fee income for this year. At Investor Day, you mentioned you've got some bounce back from headwinds in Card and markets, but also core growth of -- I think about $2.5 billion you mentioned. So, what are the drivers of that overall 7% fee income if you could just give us some color there that would be great?Marianne LakeYes. So, let's start with sort of three relatively big drivers. So, yes, as we have now sort of latched big Sapphire reserves and high premium vintages, our net acquisition costs are substantially lower and so that is a tailwind. We are seeing regular way BAU growth in Cards, NIR, and -- sort of drivers.Similarly, mark-to-markets as we talked about after the first quarter performance that's a driver and then as the ongoing sort of growth in the Auto lease income space which is significant. Outside of that, you look at our underlying drivers across the Board in terms of new accounts and debit trends in Card sales and Asset Management fees as a driver too, so there's obviously a level of market dependency to it, but a bit of the sort of outsized year-on-year increase is seeing the -- somewhat tailwind of Card and market, both in the trading and in the Asset Management base.OperatorOur next question comes from Glenn Schorr of Evercore ISI.Glenn SchorrHi. Thanks very much.Marianne LakeHey Glenn.Glenn SchorrHello. There's a comment in the prepared text on -- in Lending and Commercial banking being intensely competitive and led to no real growth. Yet, I saw your -- the comments about 5% and 7% C&amp;I growth and CRE growth, so I wonder if you could just flush that out a little bit more about the competitive landscape and I guess that's a pricing issue mostly?Marianne LakeYes, I'll start with year-over-year, we're still getting significant benefits from our investment and expansion markets and also as you know we had a pretty -- we have a pretty unique sort of offering in terms of first term lending and so, for a period of time in both of those bases, we've been materially outperforming the market and so we're still seeing the benefit of that in our year-over-year numbers.Quarter-over-quarter -- and the trouble with C&amp;I loans is there can also be some volatility associated with held-to-sell mortgage portfolio, seasonality -- sorry mortgage warehouse seasonality and stuff like that. So, quarter-over-quarter what we're seeing is just the impact of the sort of overall industry-wide slowdown and the fact that you're right, it's not just pricing, it's just generally we continue to be very selective and cautious given where we are in the cycle, but we're not expecting flat for the year, we're expecting growth in the mid-single-digits for the year and we still believe that there should be demand.And in the CTL space and commercial real estate [ph] more generally that's where the competition really has stepped up very significantly and that really is where pricing has become fiercely competitive and that's in compression.Glenn SchorrThanks. And I just want to quick follow-up on your other comments related to capital proposals. The simple question I have is hearing you loud and clear on the -- on everything related to risk based capital, but the clear improvement on the leverage side in the SLR, does that -- theoretically I know that's just a proposal right now, would that theoretically free up more activity in repo land and other short-term investments that soak-up leverage capital but not risk -- much risk-based capital?Marianne LakeSo, generally across the -- sort of whole industry, I suspect the answer to the question is yes, but remember for us that we haven't been constrained by leverage -- Tier 1 leverage or SLR over the last -- over the last several years. And it's a result obviously of the business mix we have and operating model that we have that we can socialize some of our [Indiscernible] results across the company and so we wouldn't expect there are the hedges [ph] and change materially.OperatorOur next question is from Mike Mayo of Wells Fargo.Michael MayoHi.Marianne LakeHi.Michael MayoCan you just give a little bit more of your expectations for consumer and specifically digital banking? The active online users were up 5% year-over-year, but for the quarter, it was up 12% annualized. And I know there's always risk in annualizing numbers, so is that change in online users seasonal or is it structural, just a little more color on that?Marianne LakeOkay. So, I'll give you my best thought. I would say it's a little bit more structural than it is seasonal and we've been seeing continued growth in both digital and especially, the mobile channels. And it's a lot to do with adding features and as we talked about at Investor Day, making it compelling for people to digitally move money, which makes them become much more engaged in all of the good things that come with that.In addition we talked also I think at Investor Day about the fact that we've recently added digital account opening and so I couldn't give you exact amounts of what is driving -- which ones of those is driving what, but we would continue to expect a bit of a structural acceleration. Certainly we hope for that.Michael MayoAnd then a follow-up on that. So, is this money stickier or not? And if you could elaborate more on the deposit base, I know you've been pretty cautious in saying that money could flee more easily because of the digital it goes, on other hands, does it become more sticky because you have these connections?Marianne LakeYes, so I think we sort of talked about the fact that -- I did think those customers are more loyal that they spend more and they bring up more deposits in investment. So, we gave you the stat -- that I think at Investor Day, we see more Card spend both debit and credit, but we also see higher deposits and investment, so digitally active customers. So, overall, it's really good for our franchise to have these customers engaged and we hope they also use our branches by the way.With respect to deposit status, we talked before about the two theses. The first which is the one that we generally subscribe to is that a combination of the ability to use technology, the transparency, and expectation of higher rates as well as potentially overtime, the value of retail deposits the liquidity that we would expect higher reprice. And we haven't changed our expectation on that, but we haven't seen it yet either. So, we're going to have to watch that maybe play out.There is the other side of that argument that other people -- many people subscribe to which is the customer experience, investments, the convenience, the brand, the marketing, the digital features, the products and services, the reward, all become increasingly important and customers are less price-sensitive.So, I guess we'll all know it when it finally unfolds. As you know we could have taken a little bit more of a conservative view but where we are right now in the normalization cycle specifically, sort of retail, checking, and savings, as you know we haven't yet seen that unfold.We have seen migration in Asset, Wealth Management balances and that to be expected to be a leading indicator. So, this will unfold over the course of the next year or so.OperatorOur next question comes from Matt O'Connor of Deutsche Bank.Marianne LakeHey Matt.Matthew O'ConnorHi, good morning. Can you provide an update on your interest rate sensitivity with the recent move in rates that we've had?Marianne LakeI'm sorry, say again.Matthew O'ConnorJust an update on your interest rate sensitivity from here?Marianne LakeOkay. So, we've seen two things happen. I guess we've seen obviously we've rolled forward a quarter. I think our earnings at risk disclose at the end of last quarter was $1.7 billion, you go forward a quarter and that comes down a little less sort of realized rate benefit, but we've also seen as you know somewhere in the sort of mid 40s basis point increase in rates sort of front and long end which will also have a somewhat significant impact. So, $1.7 billion will be down quite meaningfully I would expect at the end of the third quarter, but you'll see those disclosures in our Q.Matthew O'ConnorOkay. And then just separately within the trading businesses not a surprise there's a big increase in the average VAR, obviously, there's a lot of volatility in the number of products out there or the markets out there. But just anyway to think about like how much the VAR increased? And you had some increase in trading revenues, but maybe not as much as one would think when you see the VAR that much, is there any correlation between those two from [Indiscernible] point of view?Marianne LakeYes, I think it's extremely difficult to draw a straight line between VAR and all of its complexities and revenues in any one quarter. And if I just sort of unpick it for you first -- and by the way, just to reiterate that it's still at relatively low levels relative to historical norms when we've been in more normal trading environments with higher levels of volatility and inventory and the like.So, I would handpick and say of the increase more than half was related to volatility and obviously some of the volatility was somewhat significant, we wouldn't necessarily expect to see that level continue, albeit that we would expect to continue see periods or episodes of significant volatility and a bit less than half to do with positions principally, but not exclusively as a result of higher levels of client activity in the CIB any sort of balance sheet wants to go up and risk weighted assets and so on.OperatorOur next question is from Erika Najarian of Bank of America.Erika NajarianHi. Good morning.Marianne LakeHi Erika.Erika NajarianMorning. So, my first question to you Marianne is if the Stress Capital Buffer becomes final as proposed and now the industry has a BAU CET1 minimum that could move year-to-year, how does that change your outlook on how to think about dividends and buybacks from here?Marianne LakeOkay. So, I mean I would start a little bit with -- so when you say as return, if you take the last years Stress Capital Buffer, you've seen this from history for us that that could be significant. So, there are three observations I would have. The first is when we think about capital planning, I think rightly you would expect us and we do think about over more than a one year cycle and while we have very significant earnings capacity, we don't want to be sort of up and down and sideways and [Indiscernible].So, I think there will be some implications of the potential for volatility in the calibration of management buffers. And so whether it's in higher or lower SCB or whether it has to be taken into consideration so that we aren’t caught sideways from a test result that is with respect once a year and a little bit opaque.The second thing I would highlight to you is for what it's worth, you saw our Investor Day sort of, I won't say guidance, but no sort of indication that we were -- we would expect to try and pay out around 100% off of minus. And you see our ratios are below 12%. So, I think that puts us on reasonably solid booking regardless of the precision of it to sort of understand how the rules play out.Finally, I hope and I believe, I suspect that through the comment period, the implications of volatility will be properly explored and that hopefully there will be some sort of mechanism considered to accommodate smooth or otherwise allow for things not to be [Indiscernible] around based upon the specificity of the test.And margin, I guess, the fourth point, it's not something that we overthink is having the full course of dividend explicitly included notwithstanding that this cap [ph] is listed kind of makes it dollar-to-dollar capital. So, at the margin, I guess that makes people think carefully, but we would still want to pay out a strong healthy dividend on growing earnings.Erika NajarianGot it. And my follow-up question, I wanted to follow-up to your response to Glenn's question on SLR. I think there was some excitement from your investors if you look at your 4Q banking sub SLR, I think it was 6.7% off of a 6% minimum and that would clearly go to 4.75%. But just to make sure I understood your response even if you could add low risk weight exposure according to that constraint that leverage exposure feeds into the size component of the GSIB surcharge calculation. And so for there to be more freed balance sheet, you also really need to recalibrate the GSIB surcharge. Did they get that?Marianne LakeYes, I mean that's definitely one of the factors. But just the other sort of slightly first order factor is we're running 70 basis points above our minimum. So, if you reduce the minimum by another 100 or 200 basis points whatever the number is, we already had excess capacity. And so when we think about the use of our resources, we obviously think about to maximize SCA [ph]. And so we haven't felt extraordinarily constrained I would say.So, there's that kind of just sort of basic, we haven't been maybe as constrained as maybe others have seen and that is what it is. And so while we'll continue to make every decision incrementally based upon marginal SCA, but you are right. You have to take into consideration all the local impacts, I mean our stock price alone impacts GSIB.OperatorOur next question is from Betsy Graseck of Morgan Stanley.Betsy GraseckHi, good morning MarianneMarianne LakeGood morning Betsy.Betsy GraseckQuestion on LIBOR, I know you discussed it relative to the loan book, I'm wondering if you could give us some color on how the LIBOR changes impacted trading?Marianne LakeYes, so look, I would say that in the fixed income spaces was sort of discussion and it was a feature or a factor and even in equities, to be honest, it was part of the discussions. I wouldn't say that we could point to it materially impacting our failing results.Betsy GraseckAnd then the follow-up is just on the mark-to-market gains that you called out the $505 million [ph]. It looks to me like you've called it out as mark-to-market gains on certain equity investments. I just wanted to understand why it's really showing up in fixed income instead of equity trading line, is that the correct interpretation of the slide?</t>
+  </si>
+  <si>
+    <t>State Street Corporation (NYSE:STT) Q1 2018 Earnings Conference Call April 20, 2018  9:30 AM ETExecutivesIlene Fiszel Bieler – Global Head-Investor RelationsJay Hooley – Chairman and Chief Executive OfficerEric Aboaf – Chief Financial OfficerAnalystsBrennan Hawken – UBSGlenn Schorr – EvercoreAlex Blostein – Goldman SachsBrian Bedell – Deutsche BankJim Mitchell – Buckingham ResearchMike Mayo – Wells Fargo SecuritiesGerard Cassidy – RBCGeoffrey Elliott – Autonomous ResearchBetsy Graseck – Morgan StanleyMike Carrier – Bank of AmericaOperatorGood morning and welcome to State Street Corporation's First Quarter of 2018 Earnings Conference Call and Webcast. Today's discussion is being broadcast live on State Street's website at investors.statestreet.com.This conference call is also being recorded for replay. State Street's conference call is copyrighted and all rights are reserved. This call may not be rerecorded or rebroadcast or distribution in whole or in part without the expressed written authorization from State Street Corporation. The only authorized broadcast of this call will be housed on the State Street website.Now I'd like to introduce Ilene Fiszel Bieler, Global Head of Investor Relations at State Street.Ilene Fiszel BielerThank you, Sam. Good morning and thank you all for joining us. On our call today are Chairman and CEO, Jay Hooley, will speak first; then Eric Aboaf, our CFO, will take you through our first quarter 2018 earnings slide presentation, which is available for download in the Investor Relations section of our website, investors.statestreet.com. Afterwards, we'll be happy to take questions. [Operator Instructions]Before we get started, I would like to remind you that today's presentation will include adjusted basis and other measures presented on a non-GAAP basis. Reconciliations of these non-GAAP measures to the most directly comparable GAAP or regulatory measure are available in the appendix to our 1Q 2018 slide presentation.In addition, today's presentation will contain forward-looking statements. Actual results may vary materially from those statements due to a variety of important factors such as those factors referenced in our discussion today. Our forward-looking statements speak only as of today, and we disclaim any obligation to update them even if our views change.Now let me turn it over to Jay.Jay HooleyThanks, Ilene and good morning, everyone. As you've seen in our announcement today, we started the year with strong business momentum across our asset servicing and asset management business, as we continued to deepen client relationships, win new business and advance our digital leadership.First quarter results included strong EPS growth and improved return on equity. Importantly, we continue to see momentum across our core franchise. Strength in equity markets and new business lifted our asset under custody administration with growth of approximately 11% from first quarter 2017 to more than $33 trillion.We announced record new servicing commitments of $1.3 trillion in the first quarter with total new business yet to be installed of $1.6 trillion. We're seeing strength across our pipeline, both geographically and by capability.State Street Global Advisors finished first quarter 2018 with asset under management levels of $2.7 trillion, up approximately 7% from first quarter 2017, driven by strength in equity markets and ETF flows with continued traction in our low cost ETF products launched last year.Furthermore, we continue to realize benefits from State Street Beacon, our multi-year program to digitize our business and drive new solutions and innovations for our clients as evidenced by this quarter's announced wins. Beacon investments are enabling us to go beyond traditional custody services and provide greater speed, scale and quality declines globally.Additionally, our ability to deliver new tools and functionality is proving to be a meaningful factor, and from a differentiation in clients decision to expand their relationship with us across asset classes and funds.But to conclude, I'm very pleased with our financial performance to-date. Revenue growth was strong driven by both fee revenue and net interest income, reflecting higher U.S. market interest rate, continued market appreciation, new client business wins and higher trading activity.We really focused on expense management, while calibrating investment in our business with the revenue environment and prudently investing in new products and solutions. We also purchased $350 million of our common stock and declared a quarterly common stock dividend of $0.42 per share in first quarter 2018. And importantly, we continue to be well positioned to achieve our financial objectives in 2018, including delivering full year positive fee operating leverage.Now over to Eric.Eric AboafThank you, Jay and good morning everyone. Please turn to Slide 4, where I would like to remind you of a few items. Beginning this quarter, we are reporting primarily on a GAAP basis. We will continue to call out notable items such as restructuring cost to better provide investors insights on an underlying business trends.As you can see in the right side of Slide 4, we did not have any notable items in 1Q, 2018. We have, though, listed the notable items for 4Q, 2017 and 1Q, 2017. As a reminder, 1Q, 2018 results reflect the impact of the new revenue recognition accounting standards, resulting in an increase in both fee revenue and total expense by $65 million, which is EBIT neutral.Now let me move to Slide 5. Most of my comments will focus on 1Q 2018 results compared to 1Q 2017, the year ago period. 1Q 2018 EPS increased to $1.62, up 41%, reflecting strength in servicing and management fees from higher equity markets and new business, continued momentum in net interest income supported by the higher interest rate environment and the lower share count.We continue to prudently manage expenses relative to the revenue environment, as demonstrated by an increase of 3.4 percentage points in 1Q 2018 pretax margin. We thus achieved positive operating leverage of 5 full percentage points. Fee operating leverage was negative six-tenth of a point.The elevated impact of higher FX swap cost, which we would have preferred to book in net interest income, amounted to a 1% headwind to fee operating leverage this quarter. Notably, return on equity increased approximately 3 percentage points relative to 1Q 2017.1Q 2018 results reflected a 14% tax rate, albeit lower than our full year expectation, primarily due to a seasonal benefit of approximately $0.02 a share attributed to equity compensation.Now let me turn to Slide 6 to briefly review AUCA and AUM performance. AUCA and AUM increased from 1Q 2017, benefiting both our asset servicing and asset management businesses. 1Q 2018 AUCA of $33.3 trillion increased 12%. Growth was primarily driven by a combination of market appreciation, client activity and new business.Strong inflows continued in ETFs around the world in both on and offshore funds in EMEA and within our middle-office outsourcing business. Hedge fund outflows continued in 1Q 2018, albeit at more modest levels. Notably, as Jay referenced, we announced a record $1.3 trillion in new mandates for 1Q 2018.In our asset management business, AUM increased 7% driven by market appreciation and higher-yielding ETF inflows, partially offset by outflows from lower fee institutional index mandates. Our new low-cost ETF offering continues to gain momentum and added $7 billion inflows this quarter, bringing us to $12 billion cumulatively over just 6 months.Please turn to Slide 7, where I will review 1Q 2018 revenue compared to 1Q 2017. You will also find additional detail in the appendix with the sequential quarter comparison. Total fee revenue increased approximately 8%, reflecting strong performance across our businesses. Let me take you through some of the details.Servicing fees increased 10%, reflecting higher global equity markets and new business, partially offset by some continued modest hedge find outflows. Adjusting for currency translation, which you can see at the table at the bottom, servicing fees were up 6%, which shows strong business momentum.Management fees increased 24%, benefiting from higher global equity markets, as well as approximately $45 million related to the new revenue recognition standard. Trading revenue increased 11%, primarily due to strong FX client volumes and higher electronic trading activity as well as approximately $50 million in related to the new revenue recognition standard. The breadth and depth of our FX capabilities and platforms continues to differentiate our offerings.Securities finance fees increased from 1Q 2017, driven by higher lending activity in the agency business. Processing fees and other revenue decreased from 1Q 2017, largely reflecting the absence of a one-time gain in 1Q 2017 from the sale of the business and the impact of elevated FX swap costs, which I mentioned earlier. We would expect lower FX swap cost going forward here, as more swaps qualify for hedge accounting and as we ship the currency mix of our balance sheet.Moving to Slide 8. NII was up 23% and NIM increased 26 basis points on a fully tax equivalent basis from 1Q 2017. NII and NIM benefited from higher U.S. interest rates, disciplined liability pricing, higher client balances. U.S. dollar, interest-bearing, client deposit betas floated up during 1Q 2018, in line with our expectations.Relative to 4Q 2017, average non-interest bearing deposits declined only slightly, while interest bearing deposits increased $5 billion on average, which demonstrated good client engagement. Relative to 4Q 2017, NIM improved 5 basis points driven by higher market rate and disciplined deposit pricing, partially offset by a smaller tax equivalent adjustment for our municipal bond portfolio and a modestly larger balance sheet.As we said previously, we are comfortable – we are comfortable with modestly growing the balance sheet to accommodate client demand, and have even created more room to do so by adjusting our investment portfolio this quarter, which I will cover in a few minutes.Now I will turn to Slide 9 to review 1Q 2018 expenses. Expenses were up 6% adjusted for currency translation, though this included $65 million in higher expenses related to the new accounting standards for revenue recognition, partially offset by the absence of restructuring cost this quarter.When considering these two effects, underlying expenses increased only 4% for the year ago quarter. The components of the 4% underlying growth in expenses include, 3 percentage points of new business and volumes, 2 percentage points of merit and incentive compensation and 2 percentage points in technology spent, partially offset by a net 3 percentage points in Beacon savings.From a GAAP line item perspective, compensation and employee benefits increased primarily due to increased costs to support new business as well as annual merit and incentive compensation, partially offset by Beacon savings.Transaction processing increased relative to 1Q 2017 driven by higher sub-custody fees. Information systems cost increased relative to 1Q 2017 as a result of additional technologies spent. Occupancy costs were up compared to 1Q 2017, but have been relatively flat for several quarters. Finally, as compared to 4Q 2017, expenses were up primarily due to the seasonal deferred incentive compensation cost, which are described in the footnotes.Let me now move to Slide 10 to review our progress on State Street Beacon. On the left side of the slide, you see some of the achievements which are enabling us to win with clients. We continue to digitize how we receive and process data from clients, using speed and scale as a way to differentiate service.Key accomplishments include improving efficiencies from enhancing our global accounting platform and upgrading the functionality of our information delivery platform to better meet client needs. We're also continuing to realize enterprise-wide efficiencies as we automate internal processes through Beacon initiatives.On the right side of the page, you can see that we achieved $58 million in net Beacon saves this quarter, through optimizing our core servicing business, transforming our IT infrastructure and by gaining efficiencies within the corporate functions and SSGA. We continue to expect $150 million in Beacon savings in 2018, including the $58 million achieved this quarter.Now let's turn to Slide 11 to review our quarter end balance sheet and capital position. On the left of the slide, you will notice that we reduced the size of our investment portfolio from year-end 2017. We sold approximately $12 billion of non-HQLA securities during the quarter. Those portfolio sales reflect our strategy to prioritize capital efficient client lending, while prudently managing OCI sensitivity.We chose to rotate out of thin spread credit securities and we will reinvest into interest earning assets over time. Trimming the portfolio, especially the dollar portions, will also have the benefit of reducing the size of our FX swap balances and the associated cost which I mentioned earlier.Moving to the right of the slide, our capital ratios remain healthy and all of our ratios are flat to up, year-on-year. As compared to 4Q 2017, the only significant change was a decrease of 80 basis points in the standardized version of a common equity tier 1 ratio due to an increase in client overdraft balances, which has since been recovered by our clients and the impact has reversed. While we are mindful of our leverage ratios, recent regulatory developments make us even more confident, we can put our balance sheet to work for our clients.To recap, moving to Slide 12, we saw strong business momentum, resulting in headline total revenue growth of 13% and servicing fee revenue growth of 10%. Our pretax margin increased by 3.4 percentage points from 1Q 2017, and we delivered EPS growth of 41%.Before turning the call back to Jay, let me take a moment to provide you with some additional color relative to our quarterly outlook. We expect business momentum within asset servicing to continue. Although, there may be some variability within quarters as new business is installed. We expect securities finance, which includes the agency and enhanced custody businesses, to experience some 2Q seasonal uptick in relation to 1Q, albeit at muted levels relative to last year.As I mentioned earlier, we expect swap cost to moderate as we adjust the currency mix of our balance sheet. As such, a typical quarterly range for processing fees and other revenue should be around $35 million to $45 million in 2018. We expect momentum in NII to continue in 2Q, consistent with our full year target range.In summary, we believe that our strong first quarter business momentum positions us well to execute against both our financial and strategic priorities, including positive fee operating leverage, in keeping with our full year 2018 outlook range that we provided in January.Now let me turn the call back to Jay.Jay HooleyThanks, Eric. And then Sam, we should now – I'd ask you to open the call to questions.Question-and-Answer SessionOperator[Operator Instructions] Your first question comes from Brennan Hawken with UBS.Brennan HawkenGood morning, thanks for taking the question. Eric, interested to hear a little bit more about the plan to shift up the investment and the earning asset portfolio. What types of loans are you looking to grow? And how should we think about that as far as a change, proportionally? I think it might be helpful to sort of base a little bit of that. Thanks.Eric AboafHey, Brennan. It's Eric. Let me describe a little bit of our intentions here. Clearly, as we enter this market with rising rates, it's a natural time for us to consider how much to keep on non-HQLA assets versus other interests earning assets. We've made a choice to continue to optimize that part of the balance sheet. And what you'll see us doing over time is shifting some of that into interest earning assets for clients, right? And I'll – some of that will be lending, as you've asked about come back that in a moment. Some that'll be support the enhanced custody business, some that'll support our other activities.And then another portion, just we reinvested in interest earning assets that HQLA qualifying, and thereby, balance out the balance sheet. So I think you'll see us continue to design the balance sheet in a way that supports multiple objectives. In terms of lending, our lending growth, and you see mid-teen lending growth over the last year. It's been consistent over the last couple of years. We lend to 40 Act funds, we lend to the parent companies of some of our large clients, we do capital call financing for some of our private equity client.And so, that's the kind of, I'll call it, near end lending that will be – that'll continue to be the core of what we do. And our perspective is that some of that lending is remunerative on its own. Some of that lending is actually positive, because it gives us an extra way to interact and to connect with our clients. And that's something that they value. And sometimes actually ask for as part of the servicing mandates for others that we participate in.Brennan HawkenYes, thanks. That makes a lot of sense actually. And it seems like a good way to expand out the relationship. So another question on the balance sheet. And it seemed like you implied it in your prepared remarks, Eric, but please correct me if I'm wrong. It seems like the balance sheet and the average deposit balances grew here similar to the peers. But seems as though there is sustained appetite there. And so am I correct in implying that we shouldn't necessarily think about that reverting from what was a pretty strong growth rate here this quarter? And you think that, that could sustain, or at least the indication so far looks like it's pretty durable here?Eric AboafBrennan, yes, I think the way to think about our balance sheet growth is that you dial back three years, we needed to compress the size of our balance sheet and kind of focus of the most valuable part of the funding of the deposits that we had. And we did that like many other. I think last year, we felt like we had also seen another tick up in balances and some currencies and some overall balances. And we felt like we had to continue to trim and make it more compact and kind of more higher NIM generating.I think we've gotten to a point over the last couple of quarters where we're comfortable with the size of our balance sheet and we signaled, as part of January outlook, that we're comfortable with modest growth. And so you saw a little bit of that, quarter-on-quarter. The trimming of the investment portfolio gives us an ability to do that. Deposits now, in dollars in particular, come in at healthy margins. And it's just another way to engage with all of our clients, whether it's the asset managers, whether it's the alternative providers, whether it's some of the FX kind of parties. They all value the ability to leave their cash with such a highly-rated counterparty. And our perspective is, that's part of what we can do and should do. And if you come full circle, that's a good service for them and provides good earnings and earnings growth for us.Brennan HawkenGreat. Thanks for all the color.OperatorYour next question comes from the line of Glenn Schorr with Evercore.Glenn SchorrHi, thanks. If you could talk about the new business wins. Talk about what they're engaging you on? Is it new versus existing clients, fee-rate relative to overall maybe you could go through a little bit of that?Jay HooleySure, Glenn. This is Jay. I'll start and then Eric can jump in. Obviously, an outsized quarter, this quarter for new business commitments, that the $1.3 trillion. And not surprisingly, there's a couple of big deals embedded within that. I would say, general themes, our clients consolidating with fewer providers. So if the two big deals, one represented that, a global player that operates in many different geographies and chose to consolidate with State Street, which is terrific. The other big deal represented a large client that decided for the first time to outsource fund accounting to the administration. Which I think just speaks to the ongoing challenge that the asset management industry is having and looking for ways to get more efficient, outsource more activities.So that represent a little bit of the outlier growth in the quarter. I would say, maybe more generally, Glenn, the pipelines and the new business that we committed is pretty diverse. Little concentration in Europe, which continues to be an outperformer in the offshore marketplace. ETS, as a service provider to ETS, we think we have a very differentiated proposition. So ETS continue to be a theme. But across the geographies, well balanced.Final point I'd make before I give Eric a shot is that in the two big deals that we – that were embedded in the quarter. They both went very deep in their diligence looking at, as you'd expect, State Street's capabilities. And Beacon featured very positively. As people get in and peel back the covers and understand the investments that we're making and how we view a future around consolidating back, middle, front office, it's really a differentiator. So in one of those in particular, I don't remember being examined the way we were examined by that perspective client. And the deeper they got, the better we looked. So I'd say that it's reinforcing, to me, the efforts of Beacon, not just to create more efficiencies, but when clients take a look at us, they've been – really understand that we are investing for the future. And we do have a vision about how this business is going to look over time. Eric, would you add anything?Eric AboafYes, Glenn, I'd just add that, it showed some real positive momentum in the business. I'd just be careful. It's hard to model how and when that this. Some new business comes in right away. Some of the simpler activity. Some of the more complex stuff takes time. We're not going to, in any particular quarter, give guidance as to when stuff is going to get installed or not. I think we're just going to overdo it then. But there is a range, right? Sometimes you bring on an alternative mandate and you get 5 or 6 bps because of the fee structure. Sometimes it comes on as custody accounting administration, so you get what might be typical in terms of fee yield. And sometimes, you might just get custody because there may be other activities in discussion or possible down the road. And so you start with your foot in the door, so to speak. And that comes at a fraction of the typical or the average fee rate. So there is a mix there. I think it's a nice positive momentum from a business standpoint, which makes us feel a little good about the progress and successes today.Glenn SchorrOkay. One tiny follow-up, Eric, on the balance sheet. It seems like it got more fixed rate versus floating. As rates are rising, just not as intuitive as I would've thought. I'm sure it's much more involved than that.Eric AboafYes, Glenn. Good observation, what the – the immediate change that you noticed, which is really just a quarter-on-quarter change on the asset side of the balance sheet. So we'll come back on the liabilities on the asset side as we sell down the Non-HQLA securities. You know the bulk of those were credit instruments. Credit instruments tend to be floating rate. So the mix changes just in kind of a percentage nature, not in a dollar amount. We've continued to maintain, though, the asset-sensitive balance sheet that we've had. And we feel good about that. That's paid out nicely over the last two years and – so our asset sensitivity still remains in the range where we'll – where we're positioned for a rising rates, in particular, in this short end of the curve.Glenn SchorrOkay. Thank you.OperatorYour next question comes from Ken Usdin with Jefferies. And Ken your line is open. Your next question comes from Alex Blostein from Goldman Sachs.Alex BlosteinHi guys, good morning. I want to start off with just talking about the operating leverage dynamic in the quarter. So I understand the FX swap dynamic. Obviously, Eric, you point tracked it about a 1 percentage point from operating leverage on the fee side. So adjusted modestly positive, but again albeit, very modest especially in the light of pretty strong equity markets and improving volumes. So maybe go through a little what's going on there? Anything that drove, in particular, sort of muted operating leverage on the fee side this quarter. I don't know, which is the sizable wins that might've suppressed some of that a little bit. So just help us understand how to think through the fee operating leverage through the rest of the year.Eric AboafYes, Alex. Fair question. There's always variability quarter-on-quarter on both the revenue side and the expense side. You saw that on the revenue side with the FX swaps. And in that processing other line that we have, it's really the kind of all other line. Every bank has that somewhere in their books. And so you have the swaps. And then we had slightly better results from that a year ago. Slightly below average this year. And so the year-on-year actually got accentuated. You have other stuff in there. Small stuff. You have the mark-to-mark on the seed capital for a new asset management fund, which was positive a year ago. You've got the tax advantage investments and how much they run through revenue.On the negative side, that was less negative a year ago. So you kind of have those puts and takes. And that's why in addition to the FX swap, we saw lower than typical processing in other line and that impacted the top line part of operating leverage by one point for FX swaps. And then there is another point but it's small stuff, which we don't like to get into, but just tends to play through.On the expense side, if you think through expenses, you keep an eye on currency translation, keep an eye on the accounting, the revenue recognition accounting standard and then the absence of restructuring, underlying expenses were up 4%. That's the [indiscernible] given the revenue momentum in the business, but came in just a little more than it may in a typical quarter. So we had some of the ramp-up cost, as you mentioned, of new business, right? And that kind of has some ebbs and flows. But as you imagine as you bring on new business, before you bring it on, you've got to run in parallel. Before you run in parallel, you got to set up. Some of that is technology cost, which is typically expense. Some of that is people, some of that is underlying processing. And so there are periods where one quarter or even two quarters, we can pick up expense in advance of the revenues.And then we also had, I noted, some higher sub-custody fees, if you noticed, emerging markets were up almost 30%. That's where sub custodians are. And so end up being a little higher than this particular quarter. So anyway, there is some variability, I think, in the revenue – on the fee revenue line, there is a little bit of variability in the expense line. We're pleased with the overall momentum. And as I said at the end of my prepared remarks, we're committed to our full year fee operating leverage within that range that we have provided at this point.Alex BlosteinOkay. So no real change there. And then the second question for me, I guess, just around some of the NIR dynamics. I guess one, maybe you would – could hit on the deposit betas. Obviously, costing can be pretty well controlled in the U.S. side. For quite some times frankly as well. So Maybe talk a little bit about what were the deposit betas on the U.S. side and why they're so much lower than for your peers? And then maybe just to kind of round up the whole conversation around processing fee versus NIR. Do I hear you correctly that, I guess, if the FX cost go away, roughly $10 million-ish drag this quarter, so processing fees steps up about $10 million but then NIR goes down $10 million.Eric AboafLet me take those questions in the order that you asked. So betas came in reasonably well relative to expectations. So we've been signaling that they've been floating up. We had betas in the U.S. in the low 40% range, which is kind of right where we had thought they would come. That's up from last, I guess, the last rates hike we had. We had it about 25%. So we're kind of in – we've been moving up in line with our expectations. The part of the balance sheet that performs better than expectation was actually that transition from non-interest-bearing to interest-bearing, was actually slower than we've continued to model.And so if you think about interest-bearing betas are at expectations or even though a bit better. But total deposit betas, right? Because that's what really matters, that's come in better than expected. And I think if I step back, I think that's in the range of what we've seen in peers. I think you see some types of deposits are – that corporate deposit money, very high beta. Or the well management money, very high beta. The retail is very low beta and we tend to be in the middle as a custody bank. And so we've been pleased with those results.And finally, just on the FX swaps, that's – you've got it right. They – instead of being in NIR, that FX swap cost, that ended up in processing fees. If they had qualified for hedge accounting, they would've been in the other line. I think going forward, we – our intention is certainly to put as much as possible into the NII line by making sure they qualify for hedge accounting. But even more importantly, our perspective is, we should bring down the volumes of FX swaps. They were up at the – the kind of $15 billion to $20 billion level. They're now in the $10 billion to $15 billion level. And actually trending at the lower end of that range. Our intention in the coming quarter is to bring down even further. And as we've trimmed the investment portfolio by trimming the dollar portion of the investment portfolio on non-HQLA side, that actually, on a dollar-for-dollar basis, can actually bring down the swaps further.So our perspective is to align the balance sheet over time, so that it's as currency matched as possible. That'll bring the swap cost down. And in fact, it'll give us, over time, the ability to take advantage of swap dislocations and actually do a little bit better depending – one way or the other.Alex BlosteinGot it, great. Thanks for taking all the questions.OperatorYour next question comes from Brian Bedell with Deutsche Bank.Brian BedellMaybe just to go back – one more on the balance sheet. The end of period balance sheet, obviously, was a lot higher. As a big step – I mean a big difference from the average balance sheet. I know there's always a lot of quarter end noise. But maybe, Eric, if you can comment on whether you think that reverts and we should look at the sort of the trend line on the average balance sheet. And also on the non-interest-bearing side, that spiked up. It looks like about – by about $10 billion. So just want to make sure we're normalizing that. And then on the swap, I think that's out of the non-U.S. deposit side, the $22 million if I'm not mistaken. And would that make it more like an 18 basis point core rate instead of a 7 basis point core rate on that?Eric AboafLet me start on the balance sheet. And then I'd – actually to clarify the swap question a little bit more. On the balance sheet, we do get, on a daily basis and then a end of quarter basis, we do get higher deposit balances. And if you think about the very largest of our asset management and pension clients, that is quite typical. I don't think this quarter was any different than the other quarter ends other than it ended on a Good Friday. And that, in some cases, creates a little more cash on our balance sheet. But there's nothing – there was nothing unique about the quarter end which signals any changes really on the average balance sheet.The average balance sheet, as I described, I think is moving in the right direction. I think we've got good client engagement. We've got a good sharing of the benefits of the rate rises with our clients and we continue to engage them in making sure that that's fair on both sides. And as I said earlier, our perspective is our balance sheet. If there is something we can put to work for the benefit of our clients, we're going to keep doing that. That's a nice way to supplement the fee revenue that we have in this business.Do you want to just clarify a li</t>
+  </si>
+  <si>
+    <t>Alphabet, Inc. (NASDAQ:GOOG) Q1 2018 Earnings Conference Call April 23, 2018  4:30 PM ETExecutivesEllen West - Head, IRRuth Porat - SVP &amp; CFO Sundar Pichai - Director &amp; CEO, GoogleAnalystsDouglas Anmuth - JPMorgan Chase &amp; Co.Heather Bellini - Goldman Sachs GroupEric Sheridan - UBS Investment BankMark Mahaney - RBC Capital MarketsBrian Nowak - Morgan StanleyRoss Sandler - Barclays Bank PLCAnthony DiClemente - Evercore ISIDaniel Salmon - BMO Capital MarketsColin Sebastian - Robert W. Baird &amp; Co.Michael Nathanson - MoffettNathansonStephen Ju - Crédit Suisse AGBrent Thill - JefferiesOperatorGood day, ladies and gentlemen, and welcome to the Alphabet Inc. First Quarter 2018 Earnings Call. [Operator Instructions]. I'd now like to turn the conference over to Ellen West, Head of Investor Relations. Please go ahead.Ellen WestThank you. Good afternoon, everyone, and welcome to Alphabet's First Quarter 2018 earnings conference call. With us today are Ruth Porat and Sundar Pichai. Now I'll quickly cover the safe harbor.Some of the statements that we make today may be considered forward looking, including statements regarding our future investments, our long-term growth and innovation, the expected performance of our businesses and our expected level of capital expenditures. These statements involve a number of risks and uncertainties that could cause actual results to differ materially. For more information, please refer to the risk factors discussed in our Form 10-K for 2017 filed with the SEC. Undue reliance should not be placed on any forward-looking statements, and they are made based on assumptions as of today. We undertake no obligation to update them.During this call, we will present both GAAP and non-GAAP financial measures. A reconciliation of GAAP to non-GAAP measures is included in today's earnings press release. As you know, we distribute our earnings release through our Investor Relations website located at abc.xyz/investor. This call is also being webcast from our IR website, where a replay of the call will be available later today.And now I'll turn the call over to Ruth.Ruth PoratThank you, Ellen. We delivered ongoing strong revenue growth, up 26% year-on-year and up 23% in constant currency. The sustained outstanding performance in sites revenues, in particular, reflects the combined benefits of innovation and secular growth, with mobile search again leading the way. Robust growth in network revenues was again led by our programmatic business. Ongoing substantial growth in other revenues, namely cloud, hardware and Play, continues to highlight the growing contribution of our non-ads opportunities. Our outline for today's call is, first, I'll review the quarter on a consolidated basis for Alphabet, focusing on year-over-year changes. Second, I will review results for Google and then Other Bets. As we highlighted in our earnings press release, our results this quarter were affected by a new accounting standard that changes the way companies account for equity security investments. I'll highlight the impact on particular line items as I review the quarter. I will then conclude with our outlook. Sundar will then discuss business and product highlights, after which we will take your questions. Starting with the summary of Alphabet's consolidated financial performance for the quarter. Our total revenues of $31.1 billion were up 26% year-over-year. We realized the positive currency impact on our revenues year-over-year of $1.3 billion or $1.1 billion after the impact of our hedging program. Turning to Alphabet's revenue by geography. You can see that our performance was strong again in all regions. U.S. revenues were $14.1 billion, up 20% year-over-year. EMEA revenues were $10.5 billion, up 29% year-over-year. In constant currency terms, EMEA grew 21%, reflecting strengthening of both the euro and the British pound. APAC revenues were $4.8 billion, up 33% versus last year and up 30% in constant currency, reflecting strengthening of the Japanese yen and Australian dollar. Other America revenues were $1.7 billion, up 36% year-over-year and up 35% in constant currency. On a consolidated basis, total cost of revenues, including TAC, which I'll discuss in the Google segment results, was $13.5 billion, up 37% year-on-year. Other cost of revenues on a consolidated basis was $7.2 billion, up 39% year-over-year, primarily driven by Google-related expenses. The key drivers were, first, costs associated with our data centers and other operations, including depreciation, which was affected by a reallocation of certain operating expenses primarily from G&amp;A; second, content acquisition costs primarily for YouTube; and finally, hardware related costs. Operating expenses were $10.7 billion, up 27% year-over-year, with the biggest increase in R&amp;D expenses reflecting our continued investment in technical talent. The growth in sales and marketing expenses reflects advertising investments in cloud and hardware as well as the Assistant. G&amp;A expense trends were affected this quarter by a number of factors, in particular, performance fees accrued in connection with the recognition of equity security gains, which were partially offset by the reallocation of certain expenses from G&amp;A, primarily the other cost of revenues and the benefit of the Uber litigation settlement. Stock-based compensation totaled $2.5 billion. The quarter-on-quarter step-up reflects the full year equity refresh grant to employees at the beginning of the quarter and the biannual grant to SVPs. Headcount at the end of the quarter was 85,050, up 4,940 people from last quarter, including just over 2,000 people who joined at the end of January when we closed our previously announced deal with HTC. As in prior quarters, the majority of new hires were engineers and product managers. In terms of product areas, the most sizable headcount increases were the additions from HTC followed by hiring and cloud for both technical and sales roles. Operating income was $7 billion, up 7% versus last year, and the operating margin was 22%. Other income and expense was $3.5 billion, which includes $3 billion of primarily unrealized gains in equity security investments recognized under the new accounting standard. We provide more detail on the line items within OI&amp;E in our earnings press release. Our effective tax rate was 11% for the first quarter. As outlined in our earnings press release, this includes a 5 percentage point reduction from the release of a deferred tax asset valuation allowance, which offset the income tax expense on the equity security gains. Net income was $9.4 billion, and earnings per diluted share were $13.33. As indicated in the table in our earnings press release, these results reflect an increase in net income of $2.4 billion and $3.40 in earnings per diluted share due to the impact from the gains in equity security investments we've already discussed. Turning now to CapEx and operating cash flow. Cash CapEx for the quarter was $7.3 billion, which I'll discuss in the Google segment results. Operating cash flow was $11.6 billion with free cash flow of $4.3 billion. We ended the quarter with cash and marketable securities of approximately $103 billion. Let me now turn to our segment financial results, starting with the Google segment. Revenues were $31 billion, up 26% year-over-year. In terms of the revenue detail, Google sites revenues were $22 billion in the quarter, up 26% year-over-year, led again by mobile search complemented by solid growth from desktop search and strong performance from YouTube. Network revenues were $4.6 billion, up 16% year-on-year, reflecting the ongoing momentum of programmatic and AdMob. Other revenues for Google were $4.4 billion, up 36% year-over-year fueled by cloud, hardware and Play. As a reminder, the hardware revenues in this line now include our Nest business, and prior periods were restated. We continue to provide monetization metrics in our earnings press release to give you a sense of the price and volume dynamics of our advertising businesses. As we previously announced, we made a change this quarter to impression-based monetization metrics for our network business given the ongoing growth of programmatic. Total traffic acquisition costs were $6.3 billion or 24% of total advertising revenues and up 36% year-over-year. This year-on-year increase in sites TAC, as a percentage of sites revenues as well as network TAC as a percentage of network revenues, continues to reflect the fact that our strongest growth areas, namely mobile search and programmatic, carry higher TAC. Total TAC, as a percentage of total advertising revenues, was up year-over-year, reflecting primarily an increase in the sites TAC rate, which was modestly offset by a favorable revenue mix shift from network to sites. The increase in the sites TAC rate year-over-year was driven by changes in partner agreements and the ongoing shift to mobile, which carries higher TAC. The underlying trend affecting the network TAC rate year-over-year continues to be the shift to programmatic, which carries higher TAC. Google's stock-based compensation totaled $2.3 billion for the quarter, up 22% year-over-year. Operating income was $8.4 billion, up 12% versus last year, and the operating margin was 27%. Accrued CapEx for the quarter was $7.7 billion, reflecting investments in facilities, production equipment and data center construction. Facilities was the largest component of CapEx of this quarter due primarily to the $2.4 billion purchase of Chelsea Market that we announced in March. Let me now turn and talk about Other Bets. For the first quarter, Other Bets revenues were $150 million, primarily generated by Fiber and Verily. As a reminder, Nest results are now reported as part of the Google segment, with revenues reflected in the Google other revenues line. Operating loss was $571 million for the first quarter. Other Bets accrued CapEx was $55 million. We're pleased with our progress across Other Bets. A couple of updates. At Waymo, we have achieved 5 million miles of driving on city streets, adding the latest million in just 3 months. We also announced a long-term partnership with Jaguar Land Rover for their fully electric I-PACE vehicles. Verily is seeing good progress with Onduo, its joint venture with Sanofi. The companies made its diabetes management platform commercially available in 3 states with Blue Cross Blue Shield of Arkansas and South Carolina and Anthem's health plan in Georgia. Let me close with some observations on the quarter and our longer-term outlook. First, with respect to revenues. The opportunity set ahead of us is quite extraordinary, and we remain focused on investment to support long-term revenue and profit growth. We have both the business confidence to invest appropriately in the next phase of innovation as well as clarity about some very compelling opportunities that, in our judgment, will enable us to create shareholder value. We're pleased with the continued momentum of our revenue growth again this quarter, reflecting strong underlying trends across our business, which are amplified by our relentless focus on innovation, not only in our newer businesses, like cloud and hardware, but in our sites business. Specifically, we're excited by the still sizable opportunity in search advertising led by mobile. At 26% year-on-year revenue growth in our sites business, we continue to benefit from our investments to enhance the user and advertiser experience. Second, with respect to profitability. Within cost of revenues, the biggest component is TAC. While we expect sites TAC to continue to increase as a percentage of sites revenues, reflecting ongoing strength in mobile search, we continue to anticipate that the pace of year-over-year growth in sites TAC, as a percentage of sites revenues, will slow beginning in this second quarter. Within OpEx, as I said last quarter, we are continuing to support our priority investment areas. Within R&amp;D, this is reflected in increased headcount, particularly for technical roles. Sales and marketing is similarly elevated to support these areas, both in the quarter and for the full year, and we expect expenses to remain more heavily weighted toward the back half of the year to support the holiday season. As you've seen in prior quarters, G&amp;A can be a more difficult line to forecast. In particular, this quarter, we had the impact of the accrual for performance fees related to the equity gains previously discussed, partially offset by the reallocation of some expenses to other cost of revenues and the Uber legal settlement. We appreciate the importance of prioritization and are keenly focused on the steps we can take to make the right investments with the proper intensity while being diligent about long-term plans and returns. For our Other Bets, we remain focused on moving toward commercial applications in a number of areas with a continued focus on calibrating investment to metrics for success. Third, with respect to CapEx. Our commitment to growth is evident in the trend in CapEx investment, almost equally split this quarter between compute capacity and facilities. Our facilities spent in Google dominated by the Chelsea Market acquisition reflects that we favor owning rather than leasing real estate when we see good opportunities. With respect to compute capacity, the largest component of CapEx is for machines that incorporate the latest technologies. We are also investing in data center growth and increased network capacity through undersea cables. These combined investments will expand our compute capacity to support our growth outlook across Google, including machine learning, the Assistant and cloud. In many respects, these investments underscore my opening comment about both our confidence and clarity about future opportunities with our focus on proprietary solutions that enable us to deliver the secure, reliable, high-performing compute infrastructure to support new and emerging products and services for our users, advertisers and enterprise customers. I will now turn the call over to Sundar.Sundar PichaiThanks, Ruth. The end of Q1 is always an exciting time as we prepare for our annual developer conference, Google I/O. Computing is evolving at a rapid rate, and we can't wait to share what's next and how we are tackling important issues. I want to call out an important highlight from Q1, the Google news initiative that we unveiled in March. Over the years, we have worked closely with the news industry to address key challenges through projects like Accelerated Mobile Pages. We are building on that partnership with the $300 million investment to elevate and strengthen quality journalism. As part of this effort, we announced more than a dozen new products, including Subscribe with Google developed in close collaboration with publishers, which lets you use your Google account to buy a subscription on participating news sites. We've had overwhelming interest. Since the launch, we have heard from more than 300 news publishers who are interested in Subscribe with Google. We also introduced new tools for journalists and improvements to our platforms to ensure that we are surfacing accurate quality content where it matters most. Today, I'll quickly talk about how machine learning is helping us advance that mission, then I'll highlight progress in our 3 big areas, cloud, YouTube and hardware, and share updates on our computing and advertising platforms. First, machine learning and making information accessible to everyone. Our own ML-powered products like Google Photos and Google Lens gets better every day. The Google Assistant is a great example of this. In the home, we have added over 200 new device partners that work with Assistant just on the last 4 months alone. We now partner with all major manufacturers of connected devices for the home in the U.S. All told, the Google Assistant can now help you with over 1 million actions, including new things like reminding you to buy bread when you get to the store or sending money to friends or if you want to get a ride share home. For a concept we unveiled at I/O less than 2 years ago, this is great progress. AI is also unlocking new opportunities for everyone. Just in the last few months, we have seen some amazing applications from dairy farmers in Georgia using TensorFlow to improve the health their herds to our own Google researchers who figured out how to use ML techniques to assess a person's risk of a heart attack. The possibilities of AI in health care are truly exciting. At our recent TensorFlow summit, we introduced TensorFlow hub, making it easier for developers to share and reuse models so that we can work together to tackle even more problems and get to better ideas faster. Our investments in this area are helped because of our specialized Tensor Processing Units, which are specifically designed to be highly efficient for machine learning applications. Of course, we continue to advance Google's core mission in other ways, too. We recently launched our Google Go app in 26 African countries. This app reduces the amount of data needed to display search results by 40%, and we continue to invest in ways to give people granular and easy controls over their information across all our products. Every single day, nearly 20 million people visit My Account, which gives them options to review their Google security, privacy and ad settings. Additionally, tools like security checkup and privacy checkup prompt people to keep their account secure and control their data settings. Now turning to our three big areas, cloud, YouTube and hardware. Last quarter, we shared some exciting metrics about the progress of Google Cloud, including that we passed $1 billion per quarter in 2017. In Q1, we saw increasing momentum. We are growing across the board and are also signing significantly larger, more strategic deals for cloud. Our security capabilities, the easy-to-use advanced data analytics and machine learning solutions and the secure and industry-leading collaboration platform, G Suite, are winning customers over. Google Cloud is growing well. Some examples of new technologies announced in the quarter include Cloud AutoML, which makes it easier for companies without machine learning expertise to build complex neural nets and more than 20 new security products. Our global infrastructure continues to expand to support demand. We commissioned 3 new subsea cables and announced new regions in Canada, Japan, Netherlands and Saudi Arabia, bringing our total of recently launched and upcoming regions to 20. G Suite has reached a point where it can serve all the needs of a large enterprise, and as a result, grow at a certain inflection point. The Suite is growing from strength to strength. We believe our secure environment is an important factor in driving enterprise customer wins. G Suite customers like Colgate-Palmolive Company tell us that no one offers a better combination of hardware, network and data security. In Q1, we also signed agreements with customers like Airbus and Thailand's Krung Thai Bank. As a result, G Suite revenue growth accelerated in Q1. Next, YouTube. The platform continues to grow as millions of creators build communities and find opportunity on YouTube. Over the last year, channels earnings 6 figures annually grew more than 40%. This quarter, Dua Lipa's video for New Rules became the 100th video on YouTube to reach 1 billion views. We are also investing in new experiences like life content, where we see tremendous momentum. One recent example was our exclusive Coachella live stream, which had more than 41 million live views from all over the world. Coachella was YouTube's most viewed live music festival ever. And no surprise, Beyoncé was the most viewed Coachella performance ever on YouTube. Even as we invest in new experiences, we stay very focused on making sure that YouTube remains a safe platform with great content. We are aggressively combating content that violates our strict policies through a combination of user and machine flags. Over 6 million videos removed in Q4 were first flagged by our machine systems, and over 75% of those videos were removed before receiving a single view. We also changed our monetization requirements to better identify creators who contribute positively to the community and drive more ad revenue to them. Moving to hardware. This quarter, we welcome Nest of the Google hardware team to supercharge our efforts. Nest is building industry-leading products for the home, including new additions like the Nest Hello doorbell and Nest temperature sensor. In 2017, they sold more devices than the previous 2 years combined. They are an incredibly talented team with fantastic momentum. Google Home continues to be super popular, and we are making it available in many more countries. Just recently, we launched Google Home in many -- in India and Singapore, and the response has been terrific. Our early 2018 Net Promoter Scores rank among the highest in the industry across all product categories. This shows how much love people have for Made by Google consumer hardware devices and makes us even more excited for what's ahead. There's great momentum across our computing platforms, like Android and Chrome. At Mobile World Congress, a new generation of Android partner devices was introduced, including Android One phones like the Nokia 7 plus. Android One pairs high-quality hardware with a secured and streamlined software and experience from Google. This quarter, we launched the Acer Chromebook Tab 10, the first Chrome OS tablet designed specifically for education. It is a secure and easily shareable tablet equipped with all the Chromebook features that educators and students love. And finally, our advertising platforms. We continue to make Google Search and Shopping the best places for people to find and buy products from a range of merchants. We recently announced shopping actions, allowing customers to easily buy from their choice of participating retailers on the Google Assistant and Search with the universal card across mobile, desktop and even Google Home. The results are really helping retailers. Early testing showed that participating retailers see an average increase in basket size of about 30%. YouTube is delivering great results for our advertisers. To help brands reach broad audiences on YouTube with even more flexibility, we introduced TrueView for Reach, which optimizes in stream ads to reach a wide audience. In beta testing, 9 out of 10 campaigns drove a significant lift in ad recall, with an average lift of nearly 20%. We are also helping small businesses take advantage of video with the expansion of YouTube Director onsite to over 170 U.S. cities. This gives SMBs access to a professional filmmaker to create and edit their video ads. Finally, we remain focused on investing in our publisher partners. Last year, we paid $12.6 billion to publishing partners in our ad network. We recently announced AdSense Auto ads. This uses machine learning to analyze ad placements on a publisher's page and show ads when they are likely to perform well while providing a good user experience. Google's success depends not just on the success of our partners but also on the community's very work. We recently announced the Rolling Study Halls program for rural areas across 12 states. It equips school buses with Wi-Fi devices and onboard educators so that students with long commutes can get their homework done during the trip. We are also making long-term investments in our offices and data centers around the country. Last month, we announced the purchase of Manhattan's Chelsea Market building. And in Tennessee and Alabama, we broke ground on 2 new data centers, which will have a big economic impact on the local economies. These investments are made hand-in-hand with our commitment to sustainability. In 2017, we officially met our goal to purchase enough renewable energy to match all electricity consumed by our operations around the world. I want to close by saying thank you to our employees. It's been a particularly tough few weeks for the Google family, especially at YouTube. I'm so proud of the resilience that our employees have shown, and I'm so grateful for the support we have gotten across the industry and from the community. Thank you.Question-and-Answer SessionOperator[Operator Instructions]. And our first question comes from Douglas Anmuth of JPMorgan.Douglas AnmuthRuth, just first on the accounting change, I was just hoping you could clarify. If we're trying to normalize that, is it right that we would be adding back about $632 million to operating income and then reducing EPS by $3.40, and then just on the EPS side, perhaps adjusting for the tax rate? And then just in terms of the business, I just wanted to ask about Waymo. If you could talk a little bit about just the latest timing for the commercial launch in Phoenix and how quickly you'd look to expand to other markets, and then just how you're thinking about the technology and whether you'll license it to others going forward or keep it more proprietary for Waymo services?Ruth PoratSure. So on the accounting standard, we try to lay out all the component parts clearly on the cover of the earnings release so that you would have it all in one place. I think you summarized it right, but I'll just direct everybody to the earnings release. The net of which was the gain from the equity investments was $2.4 billion to net income. That is net of performance fees as well as the release of a deferred tax asset that we have, so it does reflect $3 billion in gains. And I think you know this, but this quarter, the accounting standard requires marks for everything where there is an observable raise.So these are unrealized -- the majority of them are unrealized, not actually monetized by Alphabet, and then the performance fees are calculated based on investment returns. They're accrued but not paid until an exit event occurs, and they do appear in OpEx. And as you noted, there is also, therefore, the benefit that flows through on the tax line, and that is 5 percentage points of benefit offset to the effective tax rate for the quarter. As it relates to your Waymo question, there was a lot in there. We do remain very excited about the opportunity with Waymo and our continued progress on multiple fronts. It is still very early. In terms of our progress, this year is about offering a service that is safe, that works, that delight users in the Phoenix area. The rider program in Phoenix is open to members of the public, and riders will use a Waymo app to hail one of our fully self-driving cars without a driver at the wheel, and will pay for the service. We've also had progress on the vehicle partnerships, as I mentioned in my opening comments. Last month, Waymo announced it signed a long-term strategic partnership with Jaguar beginning with a collaboration to design and manufacture self-driving I-PACE vehicles for Waymo's transportation service. These are all electric cars.This new partnership in the vehicles adds to our strong position with FCA, and the production of the cars begins in 2020. And then we are expanding our testing to more states. We're also working on additional areas like applying the technology to logistics and deliveries and working with cities to help strengthen public transportation and for personal use vehicles. And as we've talked about on a bunch of calls, the opportunity is here for us because we started with safety, and we remain a leader in safety, and we do believe that's the foundation for success, and it builds on the -- all the testing miles that we've done. So we keep coming back to when you create vehicles that drive themselves faithfully, we think there's a lot of potential uses and business opportunities, and that's what we're focused on.OperatorAnd our next question comes from Heather Bellini of Goldman Sachs.Heather BelliniI wanted to ask two quick questions. One, just one on GDPR then one on cloud. On GDPR, just wondering if you could share with us kind of any impact you're thinking about as the implementation occurs later in May, and so any thoughts you could share there would be great. And then on cloud, Sundar, you had mentioned you're seeing a lot of momentum. You said G Suite, I believe, accelerated in Q1. I was wondering if there was any color on the GCP side that you could share from a growth perspective if that business accelerated or not and kind of how were the deal sites trending for that business in particular.Sundar PichaiGreat. Maybe I'll do the GDPR first. GDPR, I realize, is a fairly new public OPEC. But for us, it's not new. We started working on GDPR compliance over 18 months ago and have been very, very engaged on it. It's really important, and we care about getting it right. And overall, we have long had a very robust and strong privacy program at Google, too. So we are committed to meeting requirements on May 25 and also long term. We are working very closely with advertisers, publishers and our partners. And we will also update all the privacy policies and controls we provide to users worldwide. So it's a big effort. We are very committed to it. We are very focused on getting it right by our users and partners, and that's where our focus is now. On -- Heather, on cloud, I guess your question was about overall growth, and we are continuing -- the momentum has been very strong on cloud as well. We haven't talked about G Suite much, and so we highlighted it the moment I'm there, but cloud is continuing its great growth. We are seeing it across the board. Things worth I would call out is we are seeing larger deals as well. We are seeing good synergies between G Suite and cloud. Areas where we have done acquisitions like Apigee, they are beginning to work in terms of driving synergies to cloud. And the efforts we are beginning to put particular with our partners, that is beginning to bear fruit as well. So we have go-to-market programs now with SAP, Cisco and Salesforce. And I think we are beginning to see early results from that, and hopefully, that translates into more momentum going forward.OperatorAnd our next question comes from Eric Sheridan of UBS.Eric SheridanMaybe two for Sundar, if I can. One, on mobile search, continue to call that out as a point of strength in the results. What are you most excited about in terms of either the product innovation or the ability to get consumers to adopt mobile search more broadly on devices globally, which could lead to more ad budgets moving it to mobile search? And then on hardware, you've now been through 2 years of sort of Pixel devices. You've made the aqui-hire of ETC engineers. Can you give us a sense of what you've learned so far from your hardware efforts and how that might evolve product innovation or go-to-market strategies long term?Sundar PichaiOn mobile search, for me, mobile obviously raises the bar. And if you look at the evolution of Search, we gave from -- we evolved to stay ahead of user expectations, and we evolved from just providing links to answers. I just feel at a high level the next big evolution we are doing as part of mobile search and assistant is to actually help users complete actions, to help get things done. And it's really hard to do at scale, and that's the work we are doing. And as we do that, it'll impact just -- not just the Assistant but mobile search more broadly. And obviously, that has a commercial impact as well. So we continue to be very excited about the opportunities there. On hardware, the exciting part for us is now, I think we have all the end-to-end capabilities of a world-class hardware organization, along with the quality of the software organizations we have always had. And in this area, it truly takes long-term planning. And so for example, if you think about silicon, et cetera, the longer you can do it, the more advantages you have. And so I definitely feel we are taking the steps towards being able to do this well for the long term. Part of that obviously involves scaling of our go-to-market strategies both in the U.S. and internationally so that we can drive adoption. I said earlier, our Net Promoter Scores show that we are right up there with the best-in-class devices and across all the products we have, not just our Pixel, across our Nest family and everything we do. So the opportunity is clearly there. We're going to lean into it, and it takes two to three years to really get to the scale where we want to see it and -- but we are committed to getting there.OperatorAnd our next quest</t>
+  </si>
+  <si>
+    <t>General Electric Company (NYSE:GE) Q1 2018 Earnings Conference Call April 20, 2018  8:30 AM ETExecutivesMatt Cribbins – Vice President of Investor CommunicationsJohn Flannery – Chairman and Chief Executive OfficerJamie Miller – Chief Financial OfficerAnalystsJulian Mitchell – BarclaysSteve Tusa – JPMorganJeffrey Sprague – Vertical ResearchSteven Winoker – UBSScott Davis – Melius ResearchAndrew Obin – Bank of AmericaAndrew Kaplowitz – CitiRobert McCarthy – StifelOperatorGood day, ladies and gentlemen, and welcome to the General Electric First Quarter 2018 Earnings Conference Call. At this time, all participants are in a listen-only mode. My name is Jason and I will be your conference coordinator today. [Operator Instructions] As a reminder, this conference is being recorded.I would now like to turn the program over to your host for today’s conference, Matt Cribbins, Vice President of Investor Communications. Please proceed.Matt CribbinsGood morning and welcome to today’s webcast. I’m joined by our Chairman and CEO, John Flannery; and our CFO, Jamie Miller. Before we start I would like to remind you that the press release, presentation and supplemental have been available since earlier today on our Investor website at www.ge.com/investor. Please note that some of the statements we are making are forward-looking and are based on our best view of the world and our businesses as we see them today. As described in our SEC filings and on our website, those elements can change as the world changes.And now I will turn the call over to John Flannery.John FlanneryGreat, thanks, Matt. In my letter to shareholders I spoke of our path forward. We are taking what we learned in 2017, recommitting to the fundamentals, and dedicating 2018 to earning back your trust and delivering for you. Today is our first report card for 2018 and we see signs of progress. At a critical time I’m extremely proud of the team’s intense effort and execution focus during the first quarter.Adjusted EPS up $0.16 was up 14%. Industrial had a strong quarter delivering $0.18, up 29%, with strong performances in Aviation, in Healthcare, in Renewables, in Transportation and higher cost out in Corporate. This is partly offset by lower Power, Oil &amp; Gas and GE Capital earnings.Free cash flow was about what we were expecting. It was a $1.7 billion use but, importantly, a $1.1 billion improvement over the first quarter of 2017. We continue to make progress on cash. The team is intensely focused and cash is front and center in every conversation. We see it in our results both in the fourth quarter of last year and in the first quarter. Power continues to be our biggest challenge. The team is making good progress on execution, but the market is challenging and, as we’ve said before, this will be a multiyear fix. We are confident we will exceed our 2018 goal of $2 billion plus of structural cost out. We delivered $800 million in the first quarter, which helped increase the industrial margin rate 60 basis points.We have been working for several years to resolve our WMC-related exposures. As we publicly disclosed, in December 2015, the DOJ started a FIRREA investigation. In the first quarter, we booked a related reserve for $1.5 billion for WMC. Last November we announced our intention to divest $20 billion of assets over the next one to two years. We are making progress on these dispositions. Industrial Solutions will close in the second quarter and Value-Based Care in the early third quarter.In addition, we are in active discussions on multiple smaller Aviation platforms, Current &amp; Lighting, Distributed Power and Transportation. We’ve got a lot to execute on but the first quarter was a good start to executing on our 2018 plan. There is no change to our framework of $1 to $1.07 earnings per share and $67 billion of free cash flow. We expect earnings pressure in Power will be offset by better Aviation and better Healthcare earnings and lower corporate costs. Renewables, Transportation and Oil &amp; Gas should be about as expected.And now next on orders. First quarter orders totaled $27 billion, up 10% reported but flat organically. Equipment orders were down 1% and service orders were up 1% organically. Jamie will give you orders details by business. The decline in equipment orders was driven by Power, which was down 40%. We saw strength across the rest of the portfolio, particularly in Renewables, Aviation and Transportation. Services orders were strong in Aviation, Healthcare and Transportation but were mostly offset by softness in Power and Renewables.The majority of our markets are quite strong, our franchises are robust and we see a lot of opportunity for growth. Some market highlights are on the right. With respect to Power, we came into the year expecting the overall market for new gas orders in 2018 to be 30 to 34 gigawatts. Based on what we are seeing in the market, this is trending to less than 30 gigawatts. I will give you more details on Power in a couple of pages. We see broad strength in Aviation. Global revenue passenger kilometers grew 5.9% year-to-date with strong growth both domestically and internationally.Air freight volumes grew 7.7%. Load factors posted record highs for February. In Healthcare we saw strength in emerging markets with HCS orders up 7%, Bioprocess orders were up 7% as well. The U.S. and Europe markets continue to see modest growth. In the first quarter we signed our first cell therapy FlexFactory order with Shanghai Cellular Biopharmaceutical Group. Although this is a small business for us today, cell therapy is an exciting area where we are investing for growth. Orders for cell therapy were up 78% in the first quarter. Our Renewables onshore business continues to see strong growth but there is price pressure across the industry.Next I will go through revenue, margins and costs. Industrial segment revenues were $27.4 billion, up 9% reported and down 4% organic. The difference was driven mainly by the impact of the Baker Hughes acquisition. Aviation and Healthcare had a solid quarter, both up 6%. Power, Oil &amp; Gas, Transportation and Renewables all had negative organic revenues and Jamie will take you through the businesses in more detail. Our Industrial margins were 10.2% in the quarter, up 60 basis points. Organically margins expanded 160 basis points. This is very solid performance given the lower revenues.Aviation margins were 340 basis points up year-over-year on cost out and higher service revenue, offsetting the drag of 186 LEAP shipments in the quarter versus 77 last year. Transportation margins were up 520 basis points driven by lower costs and a higher mix of services. And reduction in our structural cost is a highlight. At the Industrial level cost out was $800 million. While comps will get tougher throughout the year, we expect to beat our $2 billion plus target for cost out. Power cost out was $350 million and we see upside to the $1 billion Power cost out target.Now with respect to Power, I thought it would be helpful to give you some context on what we are seeing in the power market and the actions we are taking to drive execution. Our plan for the heavy-duty gas turbine market was built on 30 to 34 gigawatts of demand. We are seeing lower demand today driven by energy efficiency, renewables penetration and some delays in orders. Our equipment orders were down 24% in the fourth quarter and were down 40% in the first quarter.Given what we are seeing, we believe the 2018 market is trending below 30 gigawatts and we think this is the type of market that we are going to be looking at in general for the next few years. So here is the plan that we are executing on. First, we continue to have leading technology, deep domain, digital solutions and broad and deep customer relationships. We continue to be viewed as a go to provider in our industry and we are fighting for every opportunity in the market.On the cost side, in an industry that clearly has excess capacity, we are aggressively moving to right size our footprint and base cost. We took out $800 million of structural cost in 2017 and an additional $350 million in the first quarter. We are on track to exceed our $1 billion target for 2018 and headcount and sites are coming down. We are maximizing the economics of our installed base. Our installed base is a valuable asset. We have a third of the world’s power generation. We have increased our visibility to transactional outages by more than double since last October and that’s up to 86%, which should allow us to capture more of this important market.We are driving out cost and addressing the quality issues we had last year. The team has introduced a new sales force compensation program specifically aimed at driving transactional services and margins. We have a new leadership team in our supply chain and they are reinvigorating the use of lean and Six Sigma to drive better execution. The H cycle time is down 20%. Ultimately our goal is to cut this another 50% or more. The team has put in controls that are driving more disciplined production plans and better timing of cash in our long-term service contracts. These measures will lead to lower inventory and better cash flow over time. And we are also exiting non-core assets as we simplify the business.Russell has built out the leadership team. In the fourth quarter we announced new leaders in Services and Supply Chain. In the first quarter, we added Chuck Nugent to run our Gas Power Systems business. He has deep operational background in Aviation and Healthcare. We have made a lot of progress putting the right team in place. So we are planning for the market to continue to be challenging, but we are taking the right steps to adjust to this market and drive execution.In the final analysis, it’s important to step back and look at our total Power portfolio. We have the leading franchise in gas turbines, a strong position in wind, cutting-edge technology, digital expertise, grid and automation capability and a growing presence in storage with our GE Reservoir. There are short-term pressures but GE is on the field playing out the transformation in this industry.And with that I will now turn it over to Jamie.Jamie MillerThanks, John. Before I start with the consolidated results and, consistent with what we laid out in November, we’ve made adjustments to our reporting metrics starting this quarter. First, on EPS we now report an adjusted EPS number which has total continuing operations, excluding industrial gains, restructuring and other and non-operating pension and benefit costs. And on cash we have moved to reporting free cash flow as opposed to CFOA. Both of these changes reflect our continuing effort to simplify our financial reporting and bring our metrics more in line with industry peers.Also as you know, last Friday we filed an 8-K with restated financials for 2016 and 2017 to reflect a number of new accounting standards, the most significant being the new revenue accounting standard known as ASC 606. I will go through more detail on the transition and financial impacts later in the discussion, but all financial metrics and prior period comparisons in this presentation are now on the new basis. And it’s important to note that this does not change anything related to our cash flows and has no impact on our 2018 earnings and free cash flow guidance.On the consolidated results, first-quarter revenues were $28.7 billion, up 7% reported. Industrial revenues were $26.5 billion, up 9% reported with the Industrial segments also up 9% and organically down 4%. For the quarter, adjusted EPS was $0.16, up from $0.14 in the first quarter of 2017 and I will walk you through the Industrial and Capital components of that. The Industrial businesses comprise $0.18 of EPS, up 29% versus last year, driven by strength in Aviation, Healthcare and lower Corporate costs. And GE Capital contributed negative $0.02 driven largely by interest on excess debt and costs relating to calling $2 billion of long-term debt during the quarter. The benefits from calling this long-term debt will be accretive within the year.Next I will move to continuing EPS which was $0.04 for the quarter and includes $0.12 of costs related to restructuring and other, non-operating pension and benefit cost and US tax reform adjustments in GE Capital. Net EPS was negative, $0.14. As John mentioned, we recorded a $1.5 billion reserve charge to discontinued operations related to the WMC DOJ FIRREA investigation. As we have disclosed in our SEC filings and previously discussed, we have been under investigation since late 2015 by the Department of Justice related to activity in our mortgage subsidiary from 2006 and 2007.In March we had settlement discussions following the DOJ’s assertion that WMC and GE Capital violated FIRREA. We recorded the reserve based on our discussions with the DOJ and a review of settlements by other banks. We do not expect this to change our view on GE Capital with regards to cash and liquidity. The discussions are ongoing and we will update you on this one as we know more. Free cash flow was negative $1.7 billion for the quarter, in line with our expectations and an improvement of $1.1 billion versus the prior year. And I will walk through more details on our cash performance in the next couple of pages.Next on taxes, the reported GE tax rate was 15% and the adjusted tax rate was 25%. For the year we still expect an adjusted tax rate in the mid to high teens. On the right side are the segment results. Industrial segment op profit was up 7% reported and up 4% organically, driven by strong double-digit growth in Aviation, Healthcare and Transportation, partly offset by declines in Power and Oil &amp; Gas. When combined with the lower corporate cost John mentioned earlier, the Industrial op profit is up 15% reported and up 12% organically. I will cover the individual segment dynamics separately.Next I will cover cash. Our total Industrial free cash flow was negative $2 billion in the quarter. This represents total GE including 100% of Baker Hughes free cash flow. Adjusted for the $300 million of pension plan funding this quarter, our Industrial free cash flow was negative $1.7 billion, up $1.1 billion versus the prior year. On the right you can see the drivers of our cash flow. Income depreciation and amortization totaled $2 billion. Working capital usage was negative $1.4 billion for the quarter, driven by inventory buildup of $1.1 billion in Renewables and Aviation.This was needed for equipment deliveries in the second half of the year. Contract assets were a cash usage of $400 million this quarter driven by cum catch adjustments on long-term service agreements of $200 million and revenue in excess of billings for another $200 million. And the other outflow of $900 million includes deferred taxes and timing items related to project cost disbursements. Finally, we spent $1 billion in CapEx to support our growth in business segments, primarily Aviation, Healthcare and Renewables, and that was slightly above what our run rate will be for the remainder of the year.On the next page I will discuss the cash balance walk for the quarter focusing on the GE ex-Baker Hughes column. Cash on hand ended at $7.5 billion, down $4.3 billion versus year end. In addition to the free cash flow impact which I had already discussed, our quarterly dividend was an outflow of $1 billion.Next we received $300 million of proceeds from the Baker Hughes GE share buyback and also reduced our debt by $100 million, which is net of $300 million of incremental debt to fund the pension plan. Additionally, during the quarter we had investing activity related to our Aviation business, including an incremental share in Arcam for $200 million. Finally the $900 million change in Other is comprised of the pension contribution and other timing items during the quarter. There is no change to our 2018 guidance of $6 billion to $7 billion of free cash flow. We expect to end the year with $15 billion in cash, which is driven by the next three quarters of free cash flow, and disposition proceeds while funding the pension and the dividend.From a liquidity standpoint, in addition to the cash on hand, we have roughly $20 billion of operating lines and an additional $17 billion of backup credit lines. Finally, GE Capital ended the quarter with $22 billion of liquidity. Overall we are continuing to focus and make progress on our four key financial priorities, which are: strengthening our cash position and delevering; reducing our costs; driving a cash and returns focus; and finally, to simplify and drive more transparency. Before I cover the segments I will go through a walk of EPS on the items we have discussed with the quarter since we are using new metrics.Starting with our net EPS of negative $0.14, there is a negative $0.18 of discontinued operations which is mostly made up of the WMC charge for $0.17. Now walking from the continuing operations of $0.04, first we had non-operating benefit cost of $0.06 in the quarter. Additionally, on Industrial restructuring and other items we incurred $0.05 of charges, $0.03 of that was related to GE excluding Oil &amp; Gas and was primarily driven by the cost-reduction actions we are taking at Corporate, Power and Renewables. And we incurred an additional $0.02 related to our Oil &amp; Gas segment which represents our portion of Baker Hughes GE’s restructuring, most of which was synergy related. Finally, in GE Capital we incurred a $0.01 true-up adjustment related to the updates to the U.S. tax reform enactment impact on energy investments.Next, as you know, we issued an 8-K last Friday regarding the adoption of several new accounting standards. I will walk you through two pages on that. The first page provides an overview of the standards and their application within our segment. The most significant change was driven by the new revenue accounting standard, which resulted in differences in the timing of revenue recognition versus previous accounting guidance. For GE the main drivers of the timing differences were long-term services agreements and Aviation engine accounting.On LTSA, their long-term services agreements, changes were made related to the accounting for contract changes and changes in scope and term. For Aviation engines we previously recorded revenue using levelized margins for a contract. And under the new standard, engine accounting reflects the revenue and cost for each individual engine, the most significant effect of this change is on our new engine launches like LEAP. Lastly, one additional change from the new 606 standard is the required reporting of remaining performance obligations, or RPO, going forward. RPO represents backlog, excluding any contract or purchase order that can be terminated by a customer without substantial penalty regardless of the probability of cancellation. Our RPO as of the end of the first quarter was $253 billion compared to backlog of $372 billion.We have included a reconciliation of RPO to backlog in the supplemental information provided today. There are a few differences between RPO and backlog for us mostly driven by our Aviation business. First, backlog includes engine contracts for which we have received purchase orders that are cancelable. We have included these in our backlog historically as our historical experience has shown no net cancellations as any canceled engines are typically moved by the airframer to other program customers. Second, our services backlog includes contracts that are cancelable without substantial penalty, primarily time and materials contracts.And lastly, backlog includes engines contracted under long-term service agreements even if the engines have not yet been put into service. We believe that backlog provides important information to investors and have included the reconciliation I referenced earlier to RPO in the supplemental information.On the next page you can see the financial impact associated with the accounting updates on the left side. I will cover just the impacts of the revenue change, but you can see the total impact in the far right column inclusive of the other accounting changes. In total, the other changes impacted EPS by $0.01. For the revenue change, we recorded a cumulative retained earnings adjustment of negative $8.1 billion, which includes the opening retained earnings impact of $4.2 billion plus earnings impacts in 2016 and 2017.Additionally, we recorded a $1.1 billion charge to retained earnings for the resulting U.S. tax reform impact. The standard reduced 2017 revenue by $2.2 billion and Industrial segment profit by $2.5 billion. GAAP EPS was revised down $0.30 of which $0.17 related to the new standard and $0.13 related to the tax reform impact. Adjusted EPS post all of the accounting changes was $1 in 2017. As a reminder, our 2018 guidance incorporated the impact of the new revenue accounting standard.On the right-hand side of the page you can see the 2017 impacts to the segment. I won’t go through them individually, but you can see the impacts to both revenue and op profit by business with the most significant changes in Power, Renewables and Aviation. The adjustments to Power were driven by changes in scope, term and the treatment of contract changes for LTSAs. And in Aviation it was driven by both LTSAs and engine accounting and Renewables was also impacted by the timing of revenue recognition for International Onshore Wind. The new standard accelerated revenue so that it is recognized now on delivery versus before at installation and commissioning.Now I will take you through the first quarter results by segment. As John discussed earlier, our current view of the market for Power, based on demand and expected contract closure timing, is trending below 30 gigawatts for 2018. And our first-quarter orders are consistent with that view. This quarter our Power orders were $5.6 billion, down 29% with equipment down 40% and services down 19%. In equipment, gas power systems orders were down 52%. Excluding Distributed Power reciprocating engines, GPS orders were down 71% on lower gas turbines, aero derivatives and steam units. We received no orders for H units, which was in line with our plan. Steam Power System orders were down 80% as a result of the non-repeat of two large orders in India last year.Turning to services, our orders were down 19%, but down 12% ex-Water. Our contractual services orders were down 14% principally on lower AGPs and fewer replacement parts needed during outages as a result of the recent upgrade cycle. Utilization of the CSA fleet continues to perform as expected. Transactional orders were down 20% on lower AGPs and outages and in total we received four AGP orders versus 20 for last year.Revenues in the quarter were $7.2 billion, down 9%. Equipment revenues were down 16% on lower gas turbines, heat recovery steam generators and aero derivative units. Service revenues of $3.7 billion were down 2% and up 8% ex-Water. Contractual Services revenue was down 18% on lower AGPs and a mix of content and outages this quarter. Transactional Services were up double-digits on higher outages and field service repairs and total AGPs in the quarter were 6 versus 21 last year.Op profit of $273 million was down 38% principally on lower equipment volume, unfavorable price, lower AGPs and the absence of Water. This was partially offset by structural cost out of $354 million, down 17% and ahead of plan. As John discussed earlier, we are making progress on taking cost out, repositioning our services business and fixing execution issues. We are aggressively implementing additional actions; however, the pace of the market decline is greater than the near-term benefit of those actions. As a result, we expect business operating performance to be about flat to 2017, lower than we outlined at our November investor meeting.Next on Aviation the market continues to be strong. Global revenue passenger kilometers grew by 5.9% through February year-to-date with solid growth in domestic and international markets and air freight volumes also had a strong start to 2018 growing at 7.7% through February. Industry load factors posted a record high in February at 80.4%. Orders in the quarter of $8.1 billion were up 13%. Equipment orders grew 18% on higher commercial engine orders, up 39%, driven by GEnx and LEAP.Military engine orders were up 87% on large helicopter and F-110 contracts. Services orders grew 10% with commercial services up 5% on a higher spares rate of $25.2 million a day, up 16%. Military service orders grew 17%. Revenues in the quarter grew 7% to $7.1 billion. Equipment revenue was down 2% on fewer legacy engine shipments partially offset by higher LEAP shipments. We shipped 186 LEAP engines versus 77 a year ago. This is roughly 70 engines behind our original plan for the quarter. Military equipment revenues were up 22%. Services revenues grew 12%.Operating profit of $1.6 billion was up 26% driven primarily by higher pricing on commercial engines and aftermarket material, as well as product cost productivity, which is partly offset by negative mix from higher LEAP shipments. Operating margins expanded 340 basis points in the quarter and 80 basis points of that was driven by the lower LEAP shipments. Aviation had a strong start to the year, outperforming in the quarter relative to expectations. This was driven principally by better spares performance, cost execution and favorable engine mix. We expect these trends to continue.And on LEAP, as I mentioned, Aviation delivered 186 engines with improving cost position. LEAP product performance continues to be excellent. We are making good progress on our commitment to recover on LEAP deliveries by the end of third quarter and are on track to deliver 1,100 to 1,200 engines in 2018.Moving to the top right on Renewable Energy, orders of $2.4 billion were up 15% over last year. Onshore Wind orders were $2.1 billion, up 16% on higher equipment, which was up 24%, partially offset by services down 21% on timing of U.S. repower orders. Wind turbine unit orders totaled 936 on higher U.S. volume while international orders declined 46%. Pricing on new units continues to be difficult and was down 13% in the quarter versus last year. Hydro orders of $199 million were down 26% mostly based on the timing of the orders profile.Sales of $1.6 billion were down 7% on lower onshore unit shipments of 352 versus 539 last year. Higher services volume and hydro were up 25% and partially offset the lower shipments. Operating profit of $77 million was up 10% driven by the acquisition of LM. On an organic basis op profit was down 3% on unfavorable pricing and negative leverage on the lower onshore equipment volume. This was partially offset by better structural and product cost out. The onshore market continues to have pricing headwinds with wind turbines but we are making good progress on cost out. Product demand for Renewables remains strong with onshore megawatts and unit order growth expected to be up high single-digits to double-digits for the year and the business remains on track.Now on to Healthcare. Orders of $4.7 billion were up 4% versus last year and up 1% organically. Geographically organic orders were down 1% in the U.S. and 2% in Europe. Emerging market organic orders were up 7%. On a product line basis Healthcare Systems orders were up 4% reported and were flat organically. Life Sciences orders grew 9% reported and 5% on an organic basis. Healthcare revenues of $4.7 billion grew 9% reported and 6% organically with Healthcare Systems up 6% and Life Sciences up 7%, both on an organic basis.Operating profit of $735 million was up 11% driven by continued volume growth in productivity, partially offset by pricing and higher program investment. Margins expanded 70 basis points organically in the quarter. Also, as you saw, we announced the disposition of our Value-Based Care solutions division in Healthcare Digital to Veritas for over $1 billion of cash. This is part of the planned $20 billion of Industrial dispositions we discussed. The transaction is expected to close in the third quarter. We feel confident in the Healthcare markets going forward; relative softness in the U.S. market in the quarter was driven by timing and tough comparisons. We feel good about the ability of the Healthcare team to outperform for the year.On the next page I will start with Oil &amp; Gas. Baker Hughes GE released its financial results this morning at 6:45 and Lorenzo and his team will hold their earnings call with investors today at 9:30. Similar to prior quarters I will provide a comparison to the combined business based on financials as if the merger had taken place on 1/1 of 2016. For reference I will give you the total orders and revenue comparisons of our legacy Oil &amp; Gas business. Orders were $5.2 billion, up 102% reported and up 2% excluding BHI. On a combined business basis orders were up 9%. This was driven by growth in all product segments with equipment up 9% and services up 8%. Market fundamentals are supportive of growth as crude oil prices have remained relatively range bound, providing stability for customers to more effectively evaluate projects.The gas markets continue to grow and LNG demand is strong. Revenues were $5.4 billion, up 74% reported and down 8% excluding BHI. On a combined business basis revenues were up 1%. Short cycle oilfield services and digital solutions revenues were up 12% and 4% respectively while the longer cycle oilfield equipment and turbomachinery and process solutions were down 7% and 11% respectively. Operating profit was $181 million, down 30% reported and down about 77% in our legacy Oil &amp; Gas business driven by declines in our longer cycle oilfield equipment and turbomachinery businesses partially offset by synergies.During the quarter, cash distributions from Baker Hughes GE totaled $440 million including the share repurchases and the quarterly dividend of $127 million. Lorenzo and Brian will provide more details on their call today. The team is executing well with $144 million of integration synergies in the quarter, on track for $700 million for the year.Next is Transportation. North American carload volume was up 2.4% in the quarter primarily driven by Intermodal carloads up 5.6% and commodity carloads down 0.7%. Parked locomotives showed signs of improvement but remain at historically high levels. Orders of $1.5 billion were up 46%. Equipment orders were up 34% and we received orders for 342 locomotives compared to 37 in first quarter of 2017.Additionally, we continue to see strong growth in mining with wheel unit orders up 30%. Services orders were up 58% on strong locomotive parts and mods growth. Revenues of $872 million were down 11% with equipment revenues down 47% on lower locomotive volume. This was partially offset by higher mining revenue up 148%. Services revenues were up 26% driven by aftermarket parts growth and mod shipments. Op profit of $130 million was up 37% driven by services growth and mining wheel shipments more than offsetting the effects of locomotive volume decline.Overall Transportation delivered a strong quarter. Although carload volumes have improved and we’ve seen a decrease in the number of parked locomotives, the market for new locomotives is still slow. The mining markets continue to recover with six consecutive quarters of orders growth. The Transportation team is done a great job of balancing operational execution while also making significant progress on positioning the business for disposition.Moving over to Lighting, revenues for Current &amp; Lighting were down 1% with Current down 7% and the legacy Lighting business up 5%. Operating profit was $1 million, down from $10 million last year. In the first quarter we announced an agreement to sell our Europe, Middle East, Africa and Turkey and global automotive lighting businesses. These businesses represented approximately $200 million of Current &amp; Lighting’s annual revenue of $2 billion. We expect to close substantially all of this deal in the second quarter and to sell the remainder of Current &amp; Lighting by the end of 2018.Finally I will cover GE Capital. Continuing operations generated a loss of $215 million in the quarter, down $168 million from prior year. This decline includes a $45 million loss related to updates to the U.S. tax reform impact on energy investments and a $50 million charge associated with upfront costs from calling approximately $2 billion of excess debt.This ALM action will be accretive within the year. In addition, the business recorded lower gains and tax benefits that were partially</t>
+  </si>
+  <si>
+    <t>PepsiCo, Inc. (NASDAQ:PEP) Q1 2018 Earnings Call April 26, 2018  7:45 AM ETExecutivesJamie Caulfield - PepsiCo, Inc.Indra K. Nooyi - PepsiCo, Inc.Hugh F. Johnston - PepsiCo, Inc.AnalystsDara W. Mohsenian - Morgan Stanley &amp; Co. LLCLauren R. Lieberman - Barclays Capital, Inc.Bryan D. Spillane - Bank of America Merrill LynchVivien Azer - Cowen &amp; Co. LLCCaroline Levy - Macquarie Capital (NYSE:USA), Inc.Ali Dibadj - Sanford C. Bernstein &amp; Co. LLCAmit Sharma - BMO Capital Markets (United States)Mark David Swartzberg - Stifel, Nicolaus &amp; Co., Inc.Andrea F. Teixeira - JPMorgan Securities LLCRobert Ottenstein - Evercore ISIPablo Zuanic - Susquehanna Financial Group LLLPNik Modi - RBC Capital Markets LLCBonnie L. Herzog - Wells Fargo Securities LLCStephen Robert Powers - Deutsche Bank Securities, Inc.Kevin Grundy - Jefferies LLCBrett Cooper - Consumer Edge Research LLCOperatorGood morning and welcome to PepsiCo's First Quarter 2018 Earnings Conference Call. Your lines have been placed on listen-only until the question-and-answer session. Today's call is being recorded and will be archived at www.PepsiCo.com.It is now my pleasure to introduce Mr. Jamie Caulfield, Senior Vice President of Investor Relations. Mr. Caulfield, you may begin.Jamie Caulfield - PepsiCo, Inc.Thank you, Operator. With me today are Indra Nooyi, PepsiCo's Chairman and CEO; and Hugh Johnston, PepsiCo's CFO. We'll lead off today's call with a review of our first quarter performance and full-year 2018 outlook and then we'll move on to Q&amp;A.Before we begin, please take note of our cautionary statement. This conference call includes forward-looking statements, including statements regarding 2018 guidance based on currently available information. Forward-looking statements inherently involve risks and uncertainties that could cause our actual results to differ materially from those predicted. Statements made on this conference call should be considered together with cautionary statements and other information contained in today's earnings release and in our most recent periodic reports filed with the SEC.When discussing our financial results on today's call, we will refer to certain non-GAAP measures, which exclude certain items, such as the impact of foreign exchange translation, from our reported results. You should refer to the Glossary and other attachments to this morning's earnings release and to the Investors section of PepsiCo's website under the Events and Presentations tab to find full explanations and reconciliations of these non-GAAP measures.And now, it's my pleasure to introduce Indra Nooyi.Indra K. Nooyi - PepsiCo, Inc.Thank you, Jamie, and good morning, everyone. Thank you all for joining us this morning. We will start off with an overview of the first quarter and a discussion of each of the operating sectors performance in a little more detail. And then Hugh will cover the full year outlook.For the quarter, we delivered $12.6 billion of net revenue and core earnings of $0.96 per share. Within the P&amp;L, gross margin was impacted by input cost inflation. Operating margin was further impacted by the front-line bonus we announced earlier this year. Foreign exchange translation had a positive impact of approximately 2 percentage points to both net revenue and reported EPS. And below the operating profit line, we benefited from a lower core effective tax rate.The majority of our businesses performed very well in the quarter, excluding our North American Beverage division. In fact, excluding NAB, the company generated 4.6% organic revenue growth and 7% core operating profit growth, when excluding the one-time front-line bonus. However, our North American Beverages sector continues to work through some challenges.So let's start with a discussion of NAB, separating long-term strategy from short-term executional issues. As you know, we've been transforming the business over many years, to build a product portfolio that meets consumers' desires through a repertoire of great-tasting beverages, especially beverages with fewer or zero calories, and in an assortment of packages that satisfies a broad range of occasions, from immediate personal refreshment, to family meal accompaniment, to social gatherings.And our focused and sustained transformation initiatives at NAB have been very successful on multiple dimensions. We have shifted our product mix to faster-growing subcategories and provided more lower and zero sugar options, including recent innovations under the Mountain Dew, Gatorade, Propel, Lipton Tea House and Starbucks trademarks. Since 2010, we have increased our volume mix of non-carbonated beverages by 7 percentage points.We have established and maintained strong leadership positions in many of the most attractive non-carbonated beverage categories, including ready-to-drink tea, ready-to-drink coffee and sports hydration and in the most recent quarter, grew value share in a number of the fastest growing categories, including tea, enhanced water and sparkling water.We have increased our CSD package variety, so that our mix of non-traditional packages, that is, everything other than 2-liter and 20-ounce PET and 12-ounce cans, has increased from 14% in 2011 to 21% today.We have reconfigured our supply chain to handle increased complexity and greater product assortment. For example, we have substantially increased flexible can line capacity. We expanded our co-pack (5:01) network to give us greater packaging flexibility in an asset-light model. And we're approaching having 60% of our route network converted to delivery via our GeoBox trailers, (5:11) and we have equipped many of our trucks with chillers to expand our chilled DSD network.We have brought equipment innovation to market, providing product customization and convenience with our Spire fountain device and made nutritious options more broadly available with our Hello Goodness vending machines. And we have ramped up our R&amp;D and innovation efforts to launch products that are on-trend with consumers.For example, this February, we introduced bubly, a new flavored sparkling water with no artificial flavors, sweeteners or calories, and a brand and packaging that convey a playful and upbeat sense of humor.And we recently launched Drinkfinity, now available online in the United States. This unique beverage system addresses growing consumer demand for customizable nutritious beverages in the most sustainable packaging.We believe our strategy is sound and is positioning us well for the future; however, we are focused on the past three quarters, where our financial results have not lived up to our expectations for the North American Beverage business. So what is the issue? Simply put, while most parts of the business are performing well, recent losses in cola market share in North America have led to subpar top-line and bottom-line performance over the past three quarters. We have studied in detail the causes for the share loss across every dimension.The overwhelming driver is that, despite moderately increasing our media on trademark Pepsi over the past three years, our share of voice has fallen dramatically relative to our key competitor, who has substantially stepped up their media spending on colas over the past two years.To address this, we have allocated increased media to trademark Pepsi. And we have tightened and elevated our brand communication, beginning with the launch of our new Pepsi Generations campaign.The campaign supports all the brands under the trademark Pepsi umbrella, and this will enable us to more effectively leverage the media investment across our full Pepsi portfolio.Importantly, we plan to substantially and sustainably support the campaign throughout the year, while remaining disciplined on pricing. We are already seeing positive results from the campaign, with research telling us that the campaign is driving higher advertising recall, higher brand recall and higher brand regard with consumers. And our share performance has also begun to improve. These are important first steps. As we sustain the campaign, we anticipate it will translate to further improving sales and market share results.Encouragingly, beyond trademark Pepsi, North America Beverages is performing reasonably well in the context of a highly competitive environment. Our tea portfolio under Lipton and Pure Leaf has over the past 17 quarters grown retail sales in the range of mid-single digits to as high as 21%.Our enhanced water portfolio is performing well, with our premium LIFEWTR continuing to grow nicely as it enters the second year since its initial launch. And bubly's early results following its 2018 launch are exceeding our expectations. KeVita, our line of premium organic live probiotic beverages, grew retail sales 50% in Q1, following 66% growth for the full year 2017. And Starbucks ready-to-drink coffee grew retail sales 3% in the first quarter, following 4% growth in 2017, despite a number of new competitive entrants in the category.Furthermore, we are pleased with both the improved trajectories and the outlook for both Mountain Dew and Gatorade. Both brands posted improved retail sales performance in the quarter versus the second half of last year. And our positive outlook for these trademarks are underpinned by robust 2018 innovation.In January, we launched MTN DEW ICE, a clear lemon-lime flavored DEW made with a splash of real juice with just 100 calories per 12-ounce serving, and it is off to a strong start. Additionally, we expect our Summer 2018 limited-time offering of MTN DEW BAJA BLAST to perform well, especially relative to our DEW Summer 2017 LTO, which fell short of our expectations.Also, this summer, we will launch Gatorade Zero. Gatorade Zero will address the large and growing demand by athletes for additional hydration options. We are introducing a Gatorade that provides all the hydration and electrolyte solutions of base Gatorade without the carbohydrates. Gatorade Zero will give our athletes more flexibility in combining hydration with other fuel sources to meet their overall sports hydration and nutritional needs. Taken together, we believe our plans will drive continued improved performance in the business.Finally, beyond the strategic and execution actions I just mentioned, we continue to consider all available options to drive greater shareholder value from NAB.Now moving on to Frito-Lay North America. We had solid performance, with balanced volume growth and net price utilization and continued strong market share results, driven by great marketplace execution, innovation and creative brand marketing. For example, building on the success of our 2017 launch of Lay's Poppables, an entirely new growth platform for Frito, we extended the Poppables product line-up with the introduction of new Lay's Poppables Honey Barbecue and a new 12-count multipack of Poppables Sea Salt.We continue to drive net revenue growth through increased trial and household penetration, which, when combined with increased purchase frequency from the expanded product line-up and year long media support, should continue to scale up this promising new brand extension.We have also extended success of our Simply sub-line by introducing new package varieties with the Simply variety pack and a three-flavor lineup of single-serve packages for Simply Lay's, Cheetos and Doritos offerings. The expanded package variety is enabling us to more fully capitalize on consumers' growing desire for organic non-GMO snacks with no artificial ingredients.Demonstrating our focus on lifting and shifting successful ideas around the globe, we recently introduced Red Rock Deli to select markets in the U.S. Red Rock Deli has been a breakout success in Australia that addresses millennials' desire for high-quality food offerings, with credentials like Non-GMO Project Certification and no artificial flavors or colors.Another example of lift and shift is our launch of the innovative Lay's Smile campaign, a concept that has its roots in a similar campaign we initially ran in China. This year, we are harnessing the power of sharing a smile and having a positive impact along the way.With Lay's Smiles, we put more than 40 unique smiles on Lay's bags. And with each purchase of a Lay's Smile bag, donated a portion to Operation Smile. The photogenic and humorous elements of the campaign, combined with a compelling purpose-driven element, have driven terrific exposure for the brand through social media.At Quaker Foods North America, our portfolio of Quaker branded products had mid-single-digit retail sales growth, boosted by the continued success of overnight oats and supported by a new ad campaign highlighting the functional benefits of oatmeal.Let me now turn to our sectors outside of North America. We are pleased with the 8% organic revenue growth we saw in our developing and emerging markets as a group, which is an acceleration from the 6.5% growth we had in the fourth quarter of 2017. Stable to improving macro conditions, combined with strong market execution, have led to very strong growth across many of our key international markets. Within Latin America, organic revenue grew 10% in Mexico, high teens in Brazil and 20% in Argentina.In AMENA, we had strong double-digit organic revenue growth in China, India, Egypt and Pakistan. The growth in the sector continues to be diluted somewhat by beverage tax-related declines in Saudi Arabia.In our Europe Sub-Saharan Africa sector, Turkey and Poland organic revenue grew high teens, while Russia and South Africa grew mid-single digits. Even within the developed markets of Europe, we saw solid low single-digit growth in the UK and Spain, mid-single-digit growth in France and high single-digit growth in Germany.Importantly, the strong top-line performance translated to impressive bottom-line results, with core constant currency operating profit up 9% in ESSA, 10% in AMENA and 17% in Latin America. The strong international results are, in part, a reflection of our initiatives to leverage our scale by increasingly coordinating commercial activities across markets and sectors. Example, with the increased global focus on zero-calorie beverages, we have continued to strengthen and scale our distinctive Pepsi Black under the MAX or Zero Sugar brands, depending on the market, which drove double-digit organic volume growth globally and the United States in 2017.We have almost tripled our global footprint from 28 markets at the beginning of 2015 to 77 markets this year. We are leveraging our Pepsi Generations campaign internationally, airing our This is the Pepsi ad across 55 markets and the soccer-themed copy under the Generations campaign across more than 60 markets. And we have expanded Lay's Oven Baked to 14 markets, with plans to nearly triple that number in the next two years. And the Lay's Smiles campaign mentioned earlier has now been launched across markets in each of our sectors and grew retail sales mid-teens in the first quarter.Net-net, we're encouraged by the momentum we're seeing across many of our key international markets and solid financial performance by Frito-Lay North America. And although North American Beverages is in the process of a turnaround, we have plans in place that we expect will lead to improving performance.With that, let me turn it over to Hugh.Hugh F. Johnston - PepsiCo, Inc.Thank you, Indra, and good morning, everyone. I'll just provide a quick update on the outlook, and then we'll move to your questions. From a macro perspective, we remain pretty positive. We see continued broad-based GDP growth, with developed markets stable and developing and emerging markets accelerating. And in most of our key markets, including the U.S., the picture is relatively positive, with strong employment, consumer spending and consumer sentiment data.However, within this broadly positive picture, there remains a risk of geopolitical volatility in certain markets. From an industry standpoint, we continue to see pretty challenging conditions, including: dynamic retail and consumer landscapes; a very competitive environment; some currency volatility, most recently, in the Mexican peso, Russian ruble, Turkish lira and Brazilian real, and commodity inflation.As Indra mentioned, within our businesses, the majority of our divisions are performing well, and we expect NAB's results to improve as the year progresses. So putting this all together, our guidance for 2018 remains unchanged. Specifically, we expect organic revenue growth at least in line with our 2017 growth rate, or 2.3%.As we move through the year, our expectation is that we will continue to see some level of gross margin compression from inflationary input costs. Normally, you would see the gross margin contraction offset with SG&amp;A productivity. But, as we shared with you in February, with the benefit of a lower effective tax rate in 2018, we are making investments to fortify the business, as well as fund the front-line bonus. And these investments will largely offset the productivity-driven margin improvement.We expect our core effective tax rate to be in the low 20s. And we expect core earnings per share of $5.70 or a 9% increase compared to 2017 core earnings per share of $5.23.We continue to expect and we continue to generate strong cash flow and to exercise disciplined capital allocation, with prudent reinvestment in the business. For 2018, we continue to expect free cash flow of approximately $6 billion, which includes approximately $9 billion in cash flow from operations, including a $1.4 billion discretionary pension contribution made in the first quarter, and net capital spending of approximately $3.6 billion.We continue to expect to return approximately $7 billion to shareholders in 2018, with cash dividends of approximately $5 billion, reflecting a 15% increase in the annualized dividend per share starting with the June payment, and share repurchases of approximately $2 billion. And, as we mentioned on the last conference call, we still see the prospect for even higher cash returns as we begin to fully realize the benefits of greater global cash mobility beyond 2018.Finally, as you update your models, I'd like to highlight the following. We continue to expect our core constant currency EPS growth to be higher in the second half than in the first half, as we will lap NAB's softer performance and natural disaster-related business disruptions in the second half. And we expect variability in the timing of productivity savings, investments, which includes the accrual of the front-line bonus, and net commodity inflation, to contribute to relatively better performance in the second half of 2018.With that, we're ready to take the first question.Question-and-Answer SessionOperatorThank you. Your first question comes from the line of Dara Mohsenian of Morgan Stanley.Indra K. Nooyi - PepsiCo, Inc.Morning, Dara.Dara W. Mohsenian - Morgan Stanley &amp; Co. LLCHey. Good morning. So, Indra, on the Beverage business, obviously a disappointing few quarters, I'd also argue if you go back longer-term, you could argue it's somewhat disappointing a performance, even including the solid results from back in 2015, 2016. And we continue to see this wide dichotomy between the snacks business performance and Beverages. You articulated that with the corporate ex Beverage numbers earlier.So with all that as context, you mentioned all available options on the call earlier. And, as you think about that, is that more a sort of options and structure maybe that we've seen in the past, perhaps tweaked a bit for today's environment or is that seriously considering more radical changes? And I'm trying to get a sense for the level of sort of discontent within the organization around these Beverage results.Indra K. Nooyi - PepsiCo, Inc.So, Dara, that's a good question. So let me start off by saying, we are talking just about North American Beverages. As I look around the world, given some of the actions in many countries on beverage categories, selected beverage categories, we have actually performed quite well internationally in beverages, not just as PepsiCo, but the PepsiCo system, because our bottlers have their own beverage businesses, too. So if you look at the total, the beverage system of PepsiCo has actually performed extremely competitively.The issue is in North America, and the issue is really the last three quarters. We look at the performance of the business constantly. If I look at it post the reinvestment we made in 2012, the business has actually performed quite well, very competitive, but performed quite well. And 2014 coming into 2015, 2016 and even the first half of 2017 was good. The last three quarters have been worrisome for us.And let me talk a little bit about this, and I am reflecting back in the last 15 years of looking at North American Beverages, in particular. Whenever we have a competitive situation where somebody is going through a financial transaction with beverages, clearly, that creates room for reinvestment, which starts to perturb the competitive balance. And that's what we are seeing in the last three quarters, because of stepped up investment resulting from business model changes. The question is should we allow this to pass or should we step up and invest along with our competitor and that's a big question we asked ourself.For three quarters, we said let it pass, because all of these have a timeframe. And once that temporary investment phase is over, the business comes back to a competitive equilibrium. But we don't want to be a net share donor, especially in CSDs, especially in colas. And so we'll go toe-to-toe and increase our spending in colas, in particular, but we're going to remain very responsible on pricing.The key thing is this is a business that's highly competitive in North America. There's no question about it. It's a big business. It's a profitable business. Is it the same profile as salty snacks? No, but it generates a lot of U.S. cash, in the mid-teens profitability. I think that's a very, very attractive business in the staples space. And it gives you enormous clout with retailers because the velocity on this categories are phenomenal.And I will tell you one thing. Anybody who is in the beverage business always wants to be in the salty snack business. And anybody who's in the salty snack business always wishes they had a beverage partner because you can't have a salty snack without a beverage.So we have the combination together. We just have to keep making sure that our portfolio works. And that's what we are doing. We like (24:19) the fact that we have to go through these short-term issues with performance, but believe me, our team is maniacally focused on getting this business back to track in the second half of this year. And we will, sequentially improving every quarter.OperatorYour next question comes from the line of Lauren Lieberman of Barclays.Indra K. Nooyi - PepsiCo, Inc.Morning, Lauren.Lauren R. Lieberman - Barclays Capital, Inc.Thanks. Good morning. I wanted to talk a little bit about productivity. The profitability outside the U.S. really accelerated, and productivity was highlighted kind of ranked first in the description of each businesses in the release. So could you talk a little bit about the balance of kind of productivity savings outside the U.S. versus within the U.S.? And as we go forward, should we expect more savings to come out of international and perhaps to start to see some margin build or are you still more prioritizing reinvesting, maybe pricing a bit below the rate of inflation to continue consolidating market share internationally? Thanks.Indra K. Nooyi - PepsiCo, Inc.You know, our goal is not to price below inflation. That's not our goal. What we're trying to do is build frequency and penetration. That's all we focus on in every market. And market-by-market is a function of what the nature of the competition is. Because in many of these markets, we have local competitors, too, and we have to think about our pricing architecture versus local competition.So at every point in time, Lauren, we are looking across geographies to really figure out how best to grow the businesses. Is it frequency, is it penetration? Do we want to actually create a price umbrella for other local competitors to come in or do we want to remain with a price premium that's reasonable and allows us to build a business?So while doing this, sometimes, we let productivity flow through. Other times, we reinvest it back in the business. So it's, again, literally a case-by-case basis. The net-net result of all of this is, as a company, overall, we are focused on productivity like you won't believe it.We think all the digital technologies that are coming, all the new ways we can work to improve agility, improve flexibility, de-layer the company, there's so much we are looking at, is actually going to increase the productivity of our company. It's just that we have to make sure we have enough beta tests done with all the new technologies in the company, that when we roll it out across the company, they actually yield results, as opposed to flopping.So we're in the process of doing all the beta tests now to make sure that they actually yield the kind of results that we're looking for. Rest assured, you might see short-term international productivity, but overall, we're looking at global productivity initiatives. Hugh, did you want to add anything?Hugh F. Johnston - PepsiCo, Inc.No. I was just going to comment on that as well. The productivity balance won't change. It will be consistent across the globe.Indra K. Nooyi - PepsiCo, Inc.Yeah.OperatorYour next question comes from the line of Bryan Spillane of Bank of America.Indra K. Nooyi - PepsiCo, Inc.Morning, Bryan.Bryan D. Spillane - Bank of America Merrill LynchHey, good morning, everyone. So I guess I want to follow-up on Dara's question, just about NAB. And I guess as you think about all the available options to drive greater shareholder value, would that actually include separating or selling NAB? Is the international business still important to have the scale benefits and you'd keep one and not the other or is that really not kind of what you're implying when you talk about all available options?Indra K. Nooyi - PepsiCo, Inc.That's not what we are talking about when we talk about all available options. The beverage business is still a global business. It's very linked, the North America business to the international business. And it's very linked to our snacks business. It provides very important scale in many important international markets and provides us a seat at the table with customers here in the U. S. So I think the beverage business is very important.The real question we are asking ourselves is how best do we handle the operating aspects of bottling? We've gone back and forth between a separate company, part of PepsiCo. Is it best as a stand-alone public entity or is it best in the hands of multiple franchisees? The evidence is not clear. And we want to make sure we just don't engage in financial transactions for the sake of financial transactions, but whatever we do is really setting the company on a sustainable path.So we're looking at what models exist out there. We're looking at what we did in the past. And we are trying to see how best to operate this very attractive, but very competitive beverage business that creates shareholder value and also does not detract from the overall performance of the rest of PepsiCo.OperatorYour next question comes from the line of Vivien Azer of Cowen.Vivien Azer - Cowen &amp; Co. LLCHi. Good morning.Indra K. Nooyi - PepsiCo, Inc.Good morning, Vivien.Vivien Azer - Cowen &amp; Co. LLCSo, Indra, I was hoping we could touch on Frito-Lay, please. Another solid print from the top line, but I was hoping you could touch on price realization. You did cycle quite a tough compare. But it does also look like in the scanner data, that there might be a slight softening in pricing, driven by competitive promotional activity. So if you just offer any color on that, that would be helpful. Thank you.Indra K. Nooyi - PepsiCo, Inc.So Hugh?Hugh F. Johnston - PepsiCo, Inc.Yeah, I'm happy to answer that. Good morning, Vivien. No, I would take the pricing as more temporary in nature. I think when we get to the end of 2018, you're going to see Frito-Lay pricing that's very much in line with what you've seen in the past. I wouldn't expect any dramatic dislocation in that regard. Quarter-to-quarter, price can wiggle a bit, but by the end of the year, you're going to see the same consistent Frito, both from a pricing perspective, as well as from a profit perspective, that you've seen in the past.OperatorYour next question comes from the line of Caroline Levy of Macquarie.Indra K. Nooyi - PepsiCo, Inc.Morning, Caroline.Caroline Levy - Macquarie Capital (USA), Inc.Good morning. Thanks very much. Good morning, Indra. I'm wondering if I got this right, but it looks like your spending on A&amp;M was down in the first quarter North American Beverages. If I did get that right, can you just help us, regardless, understand sort of the pacing of the spend behind this business? And which brands in particular, is it really very cola-focused? Are you going to be spending heavily on all your brands? And what the strategy is, just a little more to get us some confidence in a back half recovery.Indra K. Nooyi - PepsiCo, Inc.Hugh, why don't you take it and then I'll follow up.Hugh F. Johnston - PepsiCo, Inc.Yeah, happy to. Hey, Caroline. A couple things on that, number one, we kind of have to separate the accounting from the actual spending in the marketplace. From an accounting perspective, as, of course you know, A&amp;M gets spread out on a curve. As the volume was a little bit softer in the first quarter relative to our expectations for the year, less of the spend would have been booked in the first quarter. And so you're seeing a timing difference in what appears in the books.In terms of media spend in the marketplace, we were actually up strong double digits and strong double digits across the big brands. So I wouldn't over-focus on what the A&amp;M showed up in the financial books. That's a product of GAAP convention. In terms of actual advertising in the marketplace behind the big brands, it was up significantly.Indra K. Nooyi - PepsiCo, Inc.And in terms of going forward, Caroline, which is the second part of your question, in most of the brands that we have, we're spending at very competitive levels, and they're all yielding the right results. The only place where we're outspent in the marketplace is in colas. And we were surprised by the extent to which media spending was taken up in colas by competition.So we're going to step up our advertising behind trademark Pepsi, with a little bit of a focus on Zero Sugar and Diet Pepsi. And at the end of the day, we don't want to be a share donor. We want to be responsible in pricing. We want to be responsible in portfolio management, to go where the consumer is going. At the same time, being a share donor is not our cup of tea.OperatorYour next question comes from the line of Ali Dibadj of Bernstein.Indra K. Nooyi - PepsiCo, Inc.Morning, Ali.Ali Dibadj - Sanford C. Bernstein &amp; Co. LLCHey, guys. So I wanted to go back to pricing in North America Beverages for a moment. You may remember, we were quite vocal in pushing that price rationality is the best for shareholders in CSDs, at least. And, look, to your credit, you were early adopters of the sustainable price/mix that we've been seeing in CSDs in North America. But actually, now there's a little bit more controversy about it. I think I'd argued it's the biggest investment controversy we are hearing right now, certainly since Coca-Cola reported a couple days ago. And the controversy is whether price/mix will become more competitive or not.Now to be clear, you reported pricing up in NAB. DPS reported pricing up in NAB, or their equivalent. KO had pricing down. I don't know if you listened to the call or not, but they excused it away with Easter compares and freight cost, oddly, and (33:26) price, et cetera. But investors are trying to figure out that controversy in particular. What will price/mix look like in North America Beverages for you, for your competitors, in the context of KO's, hopefully, confusion in terms of their pricing and your talk of reinvestment? I get that you're being clear in terms of being responsible on pricing; want to get a better sense of what that is, and how we should think about price/mix in North America Beverages going forward.Indra K. Nooyi - PepsiCo, Inc.Again, mix is very i</t>
+  </si>
+  <si>
+    <t>Alphabet Inc. (NASDAQ:GOOG) Q2 2018 Results Earnings Conference Call July 23, 2018  4:30 PM ETExecutivesEllen West - Head, IRSundar Pichai - CEORuth Porat - CFOAnalystsEric Sheridan - UBSHeather Bellini - Goldman SachsBrian Nowak - Morgan StanleyDoug Anmuth - JP MorganAnthony DiClemente - EvercoreMark Mahaney - RBC Capital MarketsDan Salmon - BMO Capital MarketsBrent Thill - JefferiesColin Sebastian - Robert W. BairdMichael Nathanson - MoffettNathansonOperatorGood day, ladies and gentlemen, and welcome to the Alphabet Second Quarter 2018 Earnings Call. At this time, all participants are in a listen-only mode. Later, we will conduct a question-and-answer session and instructions will be given at that time [Operator Instructions]I’d now like to turn the conference call over to Ellen West, Head of Investor Relations. Please go ahead.Ellen WestThank you. Good afternoon, everyone, and welcome to Alphabet’s second quarter 2018 earnings conference call. With us today are Ruth Porat and Sundar Pichai. Now, I’ll quickly cover the safe harbor.Some of the statements that we make today may be considered forward-looking, including statements regarding our future investments, our long-term growth and innovation, the expected performance of our businesses and our expected level of capital expenditures. These statements involve a number of risks and uncertainties that could cause actual results to differ materially. For more information, please refer to the risk factors discussed in our Form 10-K for 2017 filed with the SEC. Undue reliance should not be placed on any forward-looking statements, and they are made based on assumptions as of today. We undertake no obligation to update them.During this call, we will present both GAAP and non-GAAP financial measures. A reconciliation of GAAP to non-GAAP measures is included in today’s earnings press release. As you know, we distribute our earnings release through our Investor Relations website located at abc.xyz/investor. This call is also being webcast from our IR website, where a replay of the call will be available later today.And now, I’ll turn the call over to Ruth.Ruth PoratThank you, Ellen.We delivered another quarter with strong operating performance, reflecting our focus on building great experiences for users, advertisers and enterprise customers around the world. In aggregate, we had substantial revenue growth, up 26% year-on-year and up 23% in constant currency. Sites revenues continued to exhibit strong year-on-year momentum, benefiting from innovation and secular growth with mobile search again leading the way.Our network adverting business maintained a healthy growth, led by AdMob and programmatic advertising. The businesses comprising other revenues, namely Cloud, Play and Hardware again had substantial growth.Our outline for today’s call is I’ll begin with results for the quarter on a consolidated basis for Alphabet, focusing on year-over-year changes. There are two items to note in our earnings press release. First, we provided a table to highlight the impact of the European Commission fines on operating income, net income and EPS results in the second quarters of 2018 and 2017. Second, as discussed last quarter, our results are affected by the new accounting standard that changes the way companies account for equity security investments. This new standard continues to result in greater volatility in OI&amp;E. I’ll highlight the impact on particular line items, as I review the quarter. I will then review results for Google followed by Other Bets and will conclude with our outlook. Sundar will then discuss business and product highlights, after which we will take your questions.Starting with the summary of Alphabet’s consolidated financial performance for the quarter. Our total revenues of $32.7 billion were up 26% year-over-year. We realized the positive currency impact on our revenues year-over-year of $768 million or $665 million after the impact of our hedging program.Turning to Alphabet revenues by geography. You can see that our performance was strong again in all regions. U.S. revenues were $14.9 billion, up 21% year-over-year. EMEA revenues were $10.8 billion, up 26% year-over-year. In constant currency terms, EMEA grew 19%, reflecting strengthening of both the euro and for British pound. APAC revenues were $5.1 billion, up 36% versus last year and up 34% in constant currency, reflecting strengthening of the Japanese yen and Korean won. Other Americas revenues were $1.8 billion, up 31% year-over-year and up 34% in constant currency, reflecting strengthening of the dollar relative to the Brazilian real.On a consolidated basis, total cost of revenues, including TAC, which I’ll discuss in the Google segment results, was $13.9 billion, up 34% year-on-year. Other cost of revenues on a consolidated basis was $7.5 billion, up 41% year-over-year, primarily driven by Google-related expenses. The key drivers were costs associated with our data centers and other operations, including depreciation, which continued to be affected by a reallocation of certain operating expenses and content acquisition costs, primarily for YouTube, followed by hardware-related costs.Operating expenses, including the impact of the EC fine, were $16 billion. Excluding the impact of the EC fines, operating expenses were $10.9 billion in the quarter, up 24% year-over-year. Once again, the biggest increase was in R&amp;D expenses, reflecting our continued investment in technical talent. The growth in sales and marketing expenses reflects increases in sales and marketing headcount, primarily for Cloud, followed by advertising investments in Cloud and the Assistant.G&amp;A expense trends in the second quarter were affected by a number of factors, in particular, performance fees accrued in connection with the recognition of equity security gains, which were again partially offset by the reallocation of certain expenses from G&amp;A, primarily the other cost of revenues.Stock-based compensation totaled $2.4 billion. Headcount at the end of the quarter was 89,058, up 4,008 from last quarter. As in prior quarters, the majority of new hires were engineers and product managers. In terms of product areas, the most sizable headcount increases were in Cloud for both technical and sales roles.Operating income was $2.8 billion. Excluding the impact of the EC fines, operating income was $7.9 billion, up 15% versus last year, for an operating margin of 24%. Other income and expense was $1.4 billion, which includes $1.1 billion of gains in equity security investments. We provide more detail on the line items within OI&amp;E in our earnings press release.Our effective tax rate was 24.2% for the second quarter, reflecting a sizable impact from the non-deductibility of the EC fine. Net income was $3.2 billion and earnings per diluted share were $4.54. Excluding the impact of the EC fine, net income was $8.3 billion and earnings per diluted share were $11.75.Turning now to CapEx and operating cash flow. Cash CapEx for the quarter was $5.5 billion, which I’ll discuss in the Google segment results. Operating cash flow was $10.1 billion with free cash flow of $4.7 billion. We ended the quarter with cash and marketable securities of approximately $102 billion.Let me now turn to our segment financial results, starting with the Google segment. Revenues were $32.5 billion, up 25% year-over-year. In terms of the revenue detail. Google Sites revenues were $23.3 billion in the quarter, up 26% year-over-year. In terms of dollar growth, results were led again by mobile search with strong contributions from both YouTube and desktop search.Network revenues were $4.8 billion, up 14% year-on-year, reflecting the ongoing momentum of AdMob and programmatic. Other revenues for Google were $4.4 billion, up 37% year-over-year, fueled by Cloud, Play and Hardware.We continue to provide monetization metrics in our earnings press release to give you a sense of the price and volume dynamics of our advertising businesses.Total traffic acquisition costs were $6.4 billion or 23% of total advertising revenues and up 26% year-over-year. Total TAC as a percentage of total advertising revenues was up year-over-year, primarily reflecting an increase in the sites TAC rate, which was offset by a favorable revenue mix shift from network to sites. The increase in the sites TAC rate year-over-year was driven by changes in partner agreements and the ongoing shift to mobile, which carries higher TAC. This quarter, we experienced year-on-year decline in the network TAC rate as a result of the favorable mix shift within our problematic business.Google stock-based compensation totaled $2.3 billion for the quarter, up 21% year-over-year. Operating income was $9 billion, up 17% versus last year and the operating margins was 27.6%. Accrued CapEx for the quarter was $5.3 billion, reflecting investments in production equipment, data center construction, and facilities.Let me now turn and talk about Other Bets. Other Bets revenues were $145 million, primarily generated by Fiber and Verily. Operating loss was $732 million for the second quarter. Other Bets accrued CapEx was $10 million.We’re pleased with our progress across Other Bets. A couple of updates. Waymo expanded its partnership with Fiat Chrysler with the option to add up to 62,000 Chrysler Pacifica minivans to its self-driving fleet. And lastly Waymo announced that it has driven more than 8 million fully autonomous miles with most of those on city streets.A couple of weeks ago, X announced that Loon and Wing have graduated to become independent companies under Alphabet. Graduation from X signals that these companies have reached certain technical and business milestones and that their focus is shifting toward commercialization. And just last week, Loon indicated that it is partnering with Telkom Kenya to launch commercial service in regions of Kenya by early 2019.Let me close with some observations on the quarter and our longer term outlook. First, with respect to revenues. We’re pleased with the ongoing momentum in our advertising businesses. As discussed previously, we continue to identify new opportunities through innovation, including the benefits of applying machine learning to create more useful experiences for users and advertisers.Looking ahead, our hardware business is seasonal, typically experiencing lower growth in the third quarter in anticipation of the launch of new products for the holiday season. Second, with respect to profitability. Within cost of revenues, the biggest component is TAC. As we’ve discussed for the past couple of quarters, we expected the pace of year-on-year growth in sites TAC as a percentage of sites revenue would slow after the first quarter of 2018, and you can see that clearly in our results of this quarter.As frequently discussed, we do expect the sites TAC rate to continue to increase year-on-year, reflecting ongoing strength in mobile search, albeit at a more moderate pace relative to the year-on-year increases experienced over the past several quarters.Within OpEx, we continue to take a disciplined approach to setting priorities as we invest for the long-term growth. The majority of our headcount growth continues to be in technical roles and engineering and product management. In terms of business areas, the largest number of headcount additions were in our cloud business with hires for engineering, sales and marketing.As a reminder, headcount additions tend to be seasonally higher in Q3 because that is when we bring our new graduates. As I mentioned last quarter, regarding sales and marketing, we continue to expect expenses to be more heavily weighted toward the back half of the year to support the holiday season.Another factor to consider in year-on-year comparisons next quarter is the timing of two expense items in Q3 last year. As we called out last year, there was a meaningful benefit in the third quarter of 2017 from the shift in timing of our annual equity refresh and also from the timing of sales and marketing spend which was more heavily weighted to the fourth quarter.For our Other Bets, we remain focused on making progress on a number of commercial opportunities across the business, while continuing to manage investment against achievement of key milestones.Third, with respect to CapEx. As I discussed with you last quarter, our commitment to growth is evident in the ongoing trend in CapEx investment. We’ve been investing meaningfully in search and ads consistent with the opportunities we see to benefit the user and advertiser experience. And we are investing in the additional compute power required to support growth in the number of YouTube users globally. We’re also investing in new businesses that are growing at a rapid pace and have sizable compute needs, most notably Cloud. The investment pace also reflects the importance of machine learning across all of our products including search and ads. Although machine learning is more compute-intensive, it is increasingly core to businesses across Alphabet, and opens up the possibility of accelerated innovation in products and services. And keeping with our approach across Alphabet to invest thoughtfully for long-term value creation, we remain focused on both performance and cost effectiveness.I will now turn the call over to Sundar.Sundar PichaiThanks Ruth. It’s been a busy few months at Google, and we showed a lot of what we are working on at events like Google Marketing Live, Brandcast, and of course our annual developer conference, Google I/O. It was exciting to have millions of people join us in person and via live stream.Tomorrow, I hope you’ll tune in to Google Cloud Next where the great momentum and innovation in our cloud business will be fully on display. The common thread you’ll hear on today’s call is the benefit of machine learning and AI, and how it’s improving our products and generating great results for our users and partners.I also hope that everyone enjoyed the World Cup as much as I did. I know our French Googlers were very excited. I loved the competition and was extremely proud to see positive feedback about how useful Google Translate was for people who traveled to Russia. The app translates about 143 billion words a day. And during the World Cup, we saw a huge bump in volume.In the simple moments when you’re in an unfamiliar place or you don’t know the language, Google is there to help with the right information at the right time. This is what we aspire to best at, and it’s why billions of people continue to put their trust in our products.Today, I’ll start with how AI is enabling us to advance the mission of making information accessible and useful to everyone in new ways. Then, I’ll share updates on our computing, video and advertising platforms which are helping our partners succeed and grow. And finally, I’ll talk about our growing cloud business.Let’s begin with AI helping our mission. We revamped the Google News app in May to create reviews. It uses machine learning to highlight top stories organized for users, explore topics more deeply with articles from a range of clustered news sources. We believe in the need to deliver high-quality information and news to users, and to support the news industry as we do so.The Google Assistant is another the great product based on machine learning. By the end of this year, it will be available in more than 30 languages and 80 countries. We have worked with partners to expand the number of smart devices that are now compatible with the Google Assistant like doorbells, dryers, refrigerators and more, and connect with more than 5,000 devices in the home.At Google I/O, we also highlighted how AI is improving Google Maps, including enhancing the experience with Assistant and AR features. Through our improvements in machine learning, we have seen a 25x increase in our ability to build maps algorithmically, and we have added 110 million algorithmically drawn buildings to Maps, since the beginning of this year. And with over 1 billion users, we’re continuing to see tremendous growth in maps with especially strong growth in countries like Indonesia, India and Nigeria, each of which are growing over 50% year-on-year.There are many more great AI powered features we rolled out this quarter including the new version of Gmail with Smart Compose, a new features that helps users craft emails faster. And Google Photos now suggests actions to help you brighten, share, rotate or archive a picture.Next, our computing, video and advertising platforms. These platforms are providing real economic opportunities for developers, creators and publishers in every corner of the vault. Last year, I announced that in the three-year period from 2014 to 2016, we paid out over $15 billion in revenue to our creator, publisher and app developer partners in Europe, Middle East and Africa via AdSense, YouTube and Google Play. Our contribution is accelerating. In 2017 alone, we generated an additional $7 billion for these partners.First, our computing platforms. 10 years ago, we launched the first Android phone with a simple idea to build a mobile platform that’s free and open to everyone. Today, there are more than 24,000 devices at every price point from more than 1,300 different brands. The Android ecosystem supports thousands of phone makers and mobile network operators who build and sell Android devices. Millions of app developers around the world who have built their businesses of Android and billions of consumers who can now afford and use cutting-edge Android smartphones. This is all supported by a business model that encourages and enables this open ecosystem to thrive.Continuing this momentum, at I/O, we unveiled a plethora of new features throughout the Android platform, like battery saving features in Android P, new Google Assistant capabilities on Wear OS, the new Android model to help developers optimize for a variety of devices and form factors, as well as tools to help users understand and control how they are spending time on their device. Our investments in our computing platforms, as well as in AI and design are also helping us generate great momentum in our made by Google hardware business across Pixel, Home, Nest, Chromecast and more. We brought Google Home and Mini to Ireland, Australia, Spain and Mexico. Additionally, bringing the Nest and Google teams together is showing early results. The products can more seamlessly work together and our product development and go-to-market are benefiting from the new alignment. There is a lot more to come here in the next few months.Second, our video platform, YouTube is growing tremendously. We launched our revamped YouTube Music service across 17 countries, and it’s receiving great feedback from users and artists a lot. This quarter, YouTube rebranded its subscription service, YouTube Premium, featuring originals like our hit series Cobra Kai, which got 41 million views to first episode alone. While advertising on YouTube is an incredibly strong and growing source of income for creators, we are also investing in new ways for creators to generate revenue on the platform, including paid channel memberships, merchandise shelves on YouTube channels, and endorsement opportunities, through a company we acquired in 2016, FameBit. In fact, half of the creators that used FameBit in the first three months of 2018, doubled their YouTube revenue. And third, our advertising platforms which are firing on all cylinders, as we put the power of machine learning into marketers’ hands.At Google Marketing Live, we introduced our newly rebranded advertising products, our core product Google Ads, Google Marketing Platform which provides analytics and ad serving for large marketers and agencies, and Google Ad Manager, our monetization engine for publishers.We also announced a new ad format powered by machine learning, called Responsive Search Ads. It automates the manual process of building text ads and optimizes them in real time to show the best performing ad for each search query. Advertisers also got a first look at local campaigns and smart campaigns. Local campaigns are designed exclusively to drive foot traffic to local businesses and smart campaigns are now the default for new SMB advertisers. Small business owners love the simplicity and the results.This quarter, we announced shopping and commerce partnerships with leading global retailers like Carrefour, designed to give people the power to shop wherever and however they want. Carrefour is a great example of how we can partner deeply with companies, bringing our shopping and ads and cloud products together for them. They recently chose to migrate from Office to G Suite for their more than 160,000 employees and have selected us as their main cloud provider, based on our ability to support the Company’s digital transformation.Speaking of our efforts to help businesses succeed in the cloud, our cloud business has great momentum. It’s a natural extension of our long time strength in computing, data centers and machine learning. We have developed these over many years and they power our own services in the cloud and are now helping others. This week’s Google Cloud Next event will have more than 20,000 SMBs, up from over 2,000 at our Cloud Conference in 2016 with over 250 customers speaking.I won’t spoil any of the surprises, but I do want to call out Google Cloud’s momentum. Success of our vertical strategy and customer centric approach was illustrated by key wins including Domino’s Pizza, SoundCloud and PricewaterhouseCoopers. Target is migrating three areas of its business to Google Cloud platform. Financial institutions are increasingly turning to the cloud to modernize their systems, explore new business models and improve customer experiences.New customers include Banco Itaú in Brazil. We also have our rapidly growing business for our specialized cloud AI services. AirAsia expanded its relationship with us to use machine learning and data analytics. We are seeing an acceleration in business adoption of Chromebooks, the most secure and cost efficient way for businesses to enable their employees to work in the cloud.In Q2, unit sales of managed Chromebooks grew by more than 175% year-over-year. And we saw deployments at customers like Veolia. And to support our growing global customer base, we continue to invest in new cables, open new regions in Finland and Los Angeles, and announced the Zurich region. We now have 17 open regions with three more on the way.Before I close, I want to give a quick shout out to the work that we are doing to build great specialized products for the next wave of people coming online for the first time in countries like India, Indonesia, Brazil and Nigeria, many of whom experience the web only through their mobile phone. This is a big area of focus for us. Through a great partnership with Indian Railways, and RailTel, we have hit our goal of enabling high-speed public Wi-Fi in 400 train stations across India. We’ve also rolled out this Google Station model in Indonesia and Mexico with more to come soon.And to help spur AI innovation in Africa, we recently announced the new Google AI research center in Ghana with the goal of bringing together top machine learning researchers and engineers to explore AI research and applications in Africa and beyond.Of course, our commitment to help communities and people benefit from the digital economy, expense beyond the products that they use. Last month, as part of our broader growth Google effort, we expanded the Google IT Support Professional Certificate program to more than 25 community colleges in the U.S. This will give students an opportunity to learn skills needed to jump start their carriers in IT support.I want to thank Googlers for their hard work which helps us create products that billions of people love and use every day.With that, I’ll hand it back over to Ruth.Ruth PoratThank you, Sundar. And we will now take your questions.Question-and-Answer SessionOperatorThank you. [Operator Instructions] And our first question comes from Eric Sheridan of UBS. Your line is now open.Eric SheridanThank you very much. Two questions if I can. Sundar, for you, following upon your comments, we’ve seen all of these partnerships announced in the commerce space. I want to understand how those partnerships might evolve over the next couple of years? What Google brings on table for those partners, what it might do for the advertising services business as we thing long-term? And then, we’ve been getting a lot of questions on Waymo, in the quarter. Is there any you can give us of some of the key investment milestones or how we should be thinking about capital allocated to the Waymo business in the coming years? Thanks so much.Sundar PichaiGreat. On the commerce front, obviously, it’s a natural sector I think for us to drive partnerships. We already have deep advertising relationships with many of these providers, increasingly. Shopping is an area where we are beginning to work together. And finally, I think cloud is another important way by which we can start working together. So, I do think we are seeing a lot of traction there. I gave the Carrefour example. We also announced strategic partnership and significant investment in JD.com, the second largest ecommerce company in China. Today, we are already, for example in Google Express we’re partnering with over 100 merchants including national retailers like Walmart, Costco, Target, Walgreens and PetSmart. So, there is a lot of traction. I think we are building upon these relationships, trying to have more holistic conversations across the breadth of our offerings, and I think I see all being very synergistic.Ruth PoratAnd then, in terms of Waymo. We remain very excited about the opportunity with Waymo. You’ve seen us talk about our progress on a number of fronts. I think the main point is, it is still very early. But, in terms of our progress. So, 2018, the focus has been to launch the commercial rider program in Phoenix that we’ve talked about, looking to do that by year-end. We do view that as a first step in building a more fully rolled out rider program in the future. And as we’ve discussed on prior calls, we continue to trial the program in Phoenix with an emphasis on delivering a safe experience that delights users.We’ve also continued to build out our vehicle relationships. You saw announcements regarding FCA and Jaguar. We’re expanding our testing to more states. We’re also working on additional areas such as logistics and deliveries. We talked this past quarter about licensing the technology for personal use vehicles, and we’re also focused on working with cities to help strengthen public transportation. More specifically, you’re focused on CapEx. As I said, we’re excited about the long-term opportunity but creation of a new market does take time. and then on the CapEx versus OpEx, the way it works is once the commercial program is up and running beyond what’s viewed as more of a development or R&amp;D phase than much of the investments or CapEx versus OpEx. And that’s for car sensors and any other spend.So, yes, we’re excited. We do think it’s really an important market, but it is still very early.OperatorThank you. And our next question comes from Heather Bellini of Goldman Sachs. Your line is open.Heather BelliniGreat. I just had two questions. One, I was wondering if you could talk about what you’ve seen thus far with the rollout of GDPR? Anything you could share with us, and just how that’s played out versus your expectations at this point? And then, Sundar, as you mentioned, with Google Next upon us, and you’re obviously -- you guys are talking very positively about the business. But, are there anymore stats you can share with us, even about the growth rates in G Suite or GCP or combined? And then, when we think about this business scaling over time, is there any reason to think that the pace of gross margin progression would be materially different than say Azure, AWS at similar revenue levels? Thank you.Sundar PichaiThanks, Heather. On GDPR, obviously something we’ve been working on for a long time well over 18 months, but the rollout just happened towards the end of second quarter. So, it’s a bit early to us to say anything. But for us, it’s been super important to get it right, and we’ve always been focused on user privacy. But, it’s been a big change for a lot of our partners as well. And so, we are working closely with our partners and regulators and committed to doing it right, but it’s too early to tell.And on Google Next and Cloud, obviously the conference is tomorrow. So, I will hold for the announcements there. Couple of things, G Suite has definitely I think seen a lot of momentum, definitely have noticed in the -- now I think it can definitely serve the needs of a large enterprise, it’s clear I gave the Carrefour for example. But increasingly, we are seeing big companies take on the migration. So, that’s been four sure a positive development.And on Cloud, I think we are investing for the long run. We are definitely seeing traction. A lot of our effort, from a product and technology standpoint, we are definitely there and differentiated. It’s been a lot about investing in our go-to-market efforts. And as we do it, both developing our in-house strength but as well as partnering, those things are beginning to pay dividends. And hopefully, you’ll hear more details at tomorrow’s conference.OperatorThank you. And our next question comes from Brian Nowak of Morgan Stanley. Your line is now open.Brian NowakThanks for taking my question there. I have two. The first one, the Google Assistant and the Hardware and Google Mini. I was curious, if you could just talk about sort of early learnings and differences in consumer behaviors, how they interact with those devices as opposed to mobile search and the phones? And they’re always very focused on the long-term value proposition for users and advertisers. Maybe talk about the focus, and the hardware is long-term for users and advertisers. And Sundar, I appreciate your color on India and Indonesia and emerging markets. Talk about how you’re strategically trying to position yourself for business potentially beyond advertising and payments or other areas in the countries, if you could, please?Sundar PichaiSo on Google Assistant, obviously, we see Google Assistant as an important evolution. And obviously, it’s early days, but it’s already exciting to see. People definitely are pushing the boundaries of what they can do with these devices, and home control and automation is a good example of the kind of use case that’s very, very different consumer behavior and which is why our assets in Nest et cetera end up battling over time. So, there is a lot more actions, people are trying to get things done, which is definitely areas we are focused on. But, I think it’s important to understand that experience not just in the context Home and Home Mini, but also your core mobile experience, how it evolves on the phone and across the streams, you’ll have in your life. So, we’re taking the end-to-end user experience in mind, and that’s where all the investments we have done over many, many years I think will come into play as the product evolves.On your question about emerging markets, the user growth there is extraordinary to see. And we’re seeing it across all our products. So, all our major products, products which have over a billion users each, they are all doing well in these markets. And so, that’s where most of the growth is going to from. And so, it’s an important area of focus. And we do see unique opportunities in these markets, which are different from the markets we are here in here in our more mature markets. You highlighted payments as a good example. And you’ve seen us address that exclusively with Google Tez in India. And so, we will look to do more like that. And beyond just getting our products working better, we’re going to opportunistic, we are investing in talent in these countries. And there is a lot of innovation, which is going to happen from these countries, both for their own markets and for the world beyond. And we want to be in a position to do that well.OperatorAnd our next question comes from Doug Anmuth of JP Morgan. Your line is now open.Doug AnmuthTwo, if I could. First, for Ruth. You talked about the higher cost, as you shift to machine learning driven business and then also your tech upgrade cycle around machine? Can you give us a sense of where you are in making those transitions and absorbing those investments from a cost perspective?</t>
+  </si>
+  <si>
+    <t>General Electric Company (NYSE:GE) Q2 2018 Results Earnings Conference Call July 20, 2018  8:30 AM ETExecutivesMatt Cribbins - VP, Investor CommunicationsJohn Flannery - Chairman and CEOJamie Miller - CFOAnalystsScott Davis - Melius ResearchAndy Kaplowitz - CitigroupJeff Sprague - Vertical ResearchAndrew Obin - Bank of America Merrill LynchSteve Tusa - JP MorganNicole DeBlase - Deutsche BankJulian Mitchell - BarclaysSteven Winoker - UBSOperatorGood day, ladies and gentlemen, and welcome to the General Electric Second Quarter 2018 Earnings Conference Call. At this time, all participants are in a listen-only mode. My name is Christine and I will be your conference coordinator today. [Operator Instructions] As a reminder, this conference is being recorded.I would now like to turn the program over to your host for today’s conference, Matt Cribbins, Vice President of Investor Communications. Please proceed.Matt CribbinsGood morning and welcome to GE’s second quarter earnings webcast. I’m joined by our Chairman and CEO, John Flannery; CFO, Jamie Miller; and our new Head of IR Todd Ernst.Before we start, I would like to remind you that the press release, presentation and supplemental have been available since earlier today on our investor website at www.ge.com/investor. Please note that some of the statements we are making today are forward-looking and are based on our best view of the world and our businesses as we see them today. As described in our SEC filings and on our website, those elements can change as the world changes.And now, I will turn the call over to John Flannery.John FlanneryThanks, Matt.The second quarter was an important one for GE. We’ve described 2018 as a reset year; and in the quarter, we made significant progress on that journey. At an overall Company level, we laid out our path to a simpler and stronger GE by announcing our broad portfolio of strategy going forward to drive shareholder value. The core of GE will consist of our Aviation, Power and Renewables businesses. We also announced our plans to move our Healthcare, BHGE and Transportation businesses out of the GE core to enable and pursue more focused growth strategies as standalone companies.We made significant ongoing progress on our tactical priorities. We have now closed the sales of Industrial Solutions and Value-Based Care. We also announced the merger of our Transportation business with Wabtec and our sale of Distributed Power. This essentially completes the announcement or actual closing of our target of $20 billion of dispositions. We moved on this with deliberation but with an eye for value as well. We are materially shrinking the size of GE Capital with planned asset reductions of $25 billion over the next two years. We continue to take out structural costs. We’ve achieved $1.1 billion in cost out through the first six months, and we are on track to exceed our goal of $2 billion. We also announced changes in our operating model that allow us to take out an additional $500 million plus at Corporate by 2020.The aviation market continues to be very strong. We had a strong orders quarter and a good week at the Farnborough airshow with $22.6 billion of wins. The biggest challenge we face continues to be working through the turnaround of our Power business. The market continues to be difficult with softness in orders putting pressure on our cash flow and working capital. The team continues to focus on rightsizing footprint, reducing base cost, improving quality, and maximizing value of our installed base. This transformation is taking place in the context of a very dynamic macro environment. Overall, economic activity remains solid in most parts of the world. I made trips to Europe and to China and Korea in the past six weeks, and we continue to watch the global trade picture carefully. Our businesses see significant opportunities, both in Europe and Asia. And it was also a chance for me to see the very strong GE teams winning on the ground.In terms of business performance in the quarter, our overall results were in line with our expectations. Adjusted EPS was $0.19 with particularly performances in Aviation and Healthcare and a good performance in Oil and Gas. Free cash flow was $258 million, about what we expected for the quarter. Through the first half, cash is about $1 billion better than last year. I’m pleased that we’re executing well on cash, meeting or beating our plan across all businesses, except Power. Given that ongoing market challenges and related volatility in Power, we anticipate free cash flow will be approximately $6 billion for the year. Orders were up 1% organically. Organic revenue was down 6%. And margins were down 80 basis points organically. And I’ll share more details on those metrics in the next few pages.Overall, we are executing on our framework and the plan we laid out for you in June. This plan was built around driving shareholder value by focusing the portfolio for growth, delevering and derisking the Company and operating in a new, decentralized manner. The team is energized by our path forward. And we made solid progress in the first half of the year and will continue to execute. We expect earnings and cash pressure in Power will be offset by strength in Aviation and Healthcare, and lower corporate cost. Renewables, Transportation, and Oil and Gas should be about as expected. Our current rollup for EPS is as at the low end of the range we’ve guided to of $1 to $1.07.And next on to orders. First quarter orders totaled $31 billion, up 11% reported and up 1% organically. Equipment and services orders were both up 1% organically. We saw strength in equipment orders in Aviation, Healthcare and Transportation. Power was down 29% and Renewables was down 34% on tougher comps. We had good service orders growth in five of seven businesses with strong spares in Aviation and repower in Renewables. Power services declined 22%.I’ll take you through some of the market highlights on the right. As I said earlier, Power remains challenging. First half trends continue to point to a market less than 30 gigawatts in 2018, which is down from 34 gigawatts last year and 48 gigawatts in 2016. We are planning for the environment to be in this range through 2020. In Aviation, Healthcare and Renewables, we see a lot of opportunities for growth. Aviation markets are robust. Global revenue passenger kilometers grew 6.8% year-to-date with strong growth, both domestically and internationally. Air freight volumes grew 5.3%. Load factors continue to be strong. As I mentioned earlier, we had another very successful week in Farnborough. David and the team led the airshow with $22.6 billion of orders and commitments.In Healthcare, we saw strength in the U.S., up 6% organically and emerging markets up 5%. Europe continues to see modest growth, up 2%. I was with our Healthcare team in China last week, and they had another strong quarter with orders up 10%. The market continues to be robust and the team recently launched the Pioneer MR that helped contribute the 19% MR growth in China. Our Renewables orders were down in the quarter, but we continue to see strong global demand for Onshore Wind. Our onshore backlog is up 43% year-over-year. And although pricing remains challenging, it is improving. Overall, the majority of the markets we are in are strong and growing, and we see good opportunity for growth.Next, I will go through our results on revenue, margins and costs. Industrial segment revenues were $29 billion, up 4% reported and down 6% organic. The difference is due mainly to the impact of the Baker Hughes acquisition. Aviation saw very strong growth of 13% and Healthcare was up 4%. As expected, Power, Oil and Gas, Transportation and Renewables had negative organic revenues. Jamie will walk through each of the businesses in more detail.Industrial margins were 10.4% in the second quarter, down 160 basis points. Organically, margins were down 80 basis points in the quarter, but are up 40 basis points for the half on strong cost out. Aviation margins were down 110 basis points on higher LEAP shipments, but are up 110 basis points at the half. We expect Aviation margins will expand in the year. Power margins were down 500 basis points in the quarter, primarily due to lower volume in price. Structural cost reduction remains on track. We reduced cost, an additional $300 million in the second quarter, bringing the total for the first half to $1.1 billion versus our full year target of $2 billion.We continue to look aggressively at all cost out opportunities. We’ve begun implementing the actions we outlined in June to run the Company with the businesses as the center of gravity. This will result in at least $500 million of incremental corporate cost out through 2020. And with that, I’ll hand it over to Jamie.Jamie MillerThanks, John.On the consolidated results, second quarter revenues were $30.1 billion up 3% reported. Industrial revenues were $27.7 billion, up 4% reported with the industrial segments also up 4% but down 6% organically. For the quarter, adjusted EPS was $0.19, down 10% from the second quarter of 2017. The industrial businesses delivered $0.21 of EPS, down 9%, driven by continued softness in Power, partially offset by strength in Aviation and Healthcare. GE Capital contributed negative $0.02 in the quarter, which I’ll cover later in the GE Capital results.Continuing EPS was $0.08 and included $0.15 of costs related to restructuring and other, non-operating pension and benefit costs, and tax charges related to the planned separation of GE Healthcare. It also includes $0.05 of gains and other marks, which I’ll cover in more detail on the next page. Net EPS of $0.07 includes discontinued operations. Adjusted industrial free cash flow was $258 million for the quarter, down by about $100 million from prior year. I will walk through more details on our cash performance on the next couple of pages.The reported GE tax rate was 39%, which was higher than previously expected due to the approximate $200 million tax charge to restructure our operations related to the planned separation of GE Healthcare. The adjusted industrial tax rate was 18%.On the right side of the segment results, industrial segment op profit was down 4%, driven by double-digit declines in Power, Renewables and Transportation, partially offset by solid growth in Aviation and Healthcare. Industrial operating profit, which includes Corporate, was down 11%. Through the half industrial segment op profit was down 3%.Next, I will go through a walk of earnings per share. Net EPS was $0.07 including losses and discontinued operations of $0.01 related to trailing cost from the GE Capital exit plan and the reserve for an unfavorable tax resolution related to a prior disposition. EPS from continuing operations was $0.08, this included $0.02 of gains primarily related to the sale of Industrial Solutions to ABB. On industrial restructuring and other item, we incurred $0.08 of charges; $0.05 was related to ongoing cost out actions at Corporate, Power and Renewables. We also incurred a $0.01 in our Oil and Gas segment, which represents our portion of Baker Hughes GE’s restructuring, and $0.03 related to the planned separation of GE Healthcare and the small impact related to other tax reform adjustments.For the year, we expect restructuring to be about $2.7 billion pretax, ex-Baker Hughes GE. In the quarter, we also had a $0.02 favorable mark-to-market related to our equity investment in Pivotal. The company IPOed in April; and as required by GAAP accounting for equity securities, we marked our investment to fair value, based on the publicly traded share price as of the end of June. This non-operating item is not included in our $1 to $1.07 EPS guidance for the year. Any future marks for this investment will continue to be backed out of our adjusted EPS each quarter in 2018. Finally, non-operating pension and benefit costs were $0.06, which gets you to an adjusted EPS of $0.19.Next, I’ll cover cash. Our total industrial free cash flow was negative $600 million in the quarter. This represents total GE, including 100% of Baker Hughes GE free cash flow. Adjusting for pension plan contributions, deal taxes and Baker Hughes GE on a dividend basis, our adjusted industrial free cash flow was $258 million. This was up significantly from the negative cash flow of $1.7 billion that we reported last quarter.Adjusted industrial free cash flow year-to-date was negative $1.4 billion and that is up $1 billion compared to last year. Overall, second quarter free cash flow performance was in line with expectations. Continued weakness in Power was offset by strength in other business segments.If we continue on the right, you can see the drivers of the second quarter cash performance. Income depreciation and amortization totaled $2.2 billion. Working capital usage was negative $900 million for the quarter. The primary driver was net liquidation of progress collections in our Power segment, reflecting a challenging new orders dynamic. Excluding Power, working capital was flat, indicative of a normal business cycle and the other businesses. We saw a cash usage in these businesses through buildup of receivables and inventory, which was funded by a similar increase in payables and progress collections.Contract assets were a cash usage of $500 million this quarter, driven by $400 million of deferred inventory build in our Renewables segment due to timing of units that were shipped but not rev rec. We expect to recognize these units in the second half. In addition, we had about $300 million of usage in our long-term services agreements portfolio, primarily driven by revenue in excess of billings. This was partially offset by $200 million of cash collections ahead of revenue on equipment contracts. Other cash flows were flat in the period.We spent $800 million in capital expenditures to support growth in our business segments. This was down $300 million versus prior year, reflecting our focus on rightsizing investment spend. For the year, the continued challenges we are seeing in power are putting pressure on our total year adjusted industrial free cash flow outlook. We currently expect it to be about $6 billion, reflecting the tougher Power market dynamics, which is offsetting strength in other businesses.Cash on hand ex-Baker Hughes GE of $8.9 billion is down $2.9 billion versus year-end. At the half, we’ve used $1.4 billion of adjusted industrial free cash flow and have paid out $2.1 billion in quarterly dividend. We received $2.3 billion in cash from business dispositions, primarily from the sale of our Industrial Solutions business to ABB that closed this quarter. Additionally, we had 1.1 billion of investing activity, primarily related to $900 million of activity in our Aviation business in the first quarter where we acquired IP assets for $700 million as well as a minority shareholding in Arcam for $200 million, one of our additive businesses.Debt went up by $800 million, primarily driven by debt related to pension funding. And as we had previously disclosed, we will be making total contributions of $6 billion in 2018 to our U.S principal pension plan, which includes contributions in the first half of $900 million. These contributions are being funded by utilizing excess debt in GE Capital. The $1.3 billion change in other is comprised of $900 million of pension plan funding made this year that I previously mentioned, as well as other timing items during the year. We plan to end the year at more than $15 billion of cash. The principal drivers in the second half are free cash flow and dividends for the remainder of the year. In addition, we are expecting to receive approximately $5 billion from disposition proceeds and will have cash usage from the exercise of the $3 billion of Alstom puts in the fourth quarter.Now, I will take you through the second quarter results by segment. For Power, orders of $7.4 billion were down 26% with equipment down 29% and services down 22%. Equipment was down, primarily in gas power systems, which was down 78%. This was driven by lower gas turbine orders of 7 units versus 24 last year, lower balance of plant, down 600 million, and less aero derivatives orders of 3 versus 12 last year. We have 82 gas turbine units in backlog, including 33 H units. Services orders were down 22% and down 17% excluding the water disposition. Contractual orders were down 5%, principally on lower upgrades and averages. Transactional orders were down 30%, driven by lower upgrades in parts.Revenue of $7.6 billion was down 19% with both equipment and services down double digits. Lower equipment revenues were driven by gas turbine shipments of 7 versus 21 units, and aero units of 5 versus 17 in the prior year. We expect to ship about 50 gas turbines this year with 90% in backlog today. Aero shipments are estimated to be around 30 units with about 55% in backlog. Shipments for both are in line with total year expectations.Services revenues were down 15% and down 8% excluding water. CSA revenue was down 8% on lower outages, unfavorable mix of contract scope, and lower long-term service agreement gain. Utilization on CSA units continues to perform as expected and in line with last year. Transactional services revenues were down 21% on fewer upgrades and outages. Transactional revenues were also impacted by several large transactions of about $200 million where commercial closure moved to the second half. In total, services revenue should be stronger in the second half. However, we will continue to have year-over-year pressure from CSA outage and contract mix.Operating profit of $421 million was down on lower volume price and unfavorable productivity and mix. Structural cost-out totaled $212 million in the quarter and $566 million for the first half. We are on track for $1 billion of cost out for the total year end.The Power business had another challenging quarter. As John mentioned, the market continues to be soft, and we have seen new orders in both gas turbines and aero derivatives moving out to the second half. We have visibility to a solid pipeline of activity in the second half. However, the timing of closing on these orders remains difficult to forecast. We expect orders to be better in the second half versus the first half, and about flat with last year. We’re making progress on operational improvements, but this is a multiyear process.Our lead time on H turbines is down about 15% and we have implemented ERP systems that will provide greater visibility earlier on cost positions and scheduling issues in our project business. We continue to make progress on upgrading our transactional service technical sales and capabilities. We have visibility to 90% of the non-CSA GE units over the last year and have initiated commercial actions on 80% of these units.We are focused on gaining traction in winning new business with transactional revenues up 5% for the first half. We expect to see improvement in the second half, especially as we move into the fourth quarter. As is typical with this business, as we look to the second half, we are backend loaded to the fourth quarter. No change to our prior comments on Power performance for the year, but clearly we are very focused on operational change and improvements.On Renewables, orders were down 15% in the quarter, driven principally by Onshore Wind down 18% on lower wind turbine volume and down 44% on unit. This was partially offset by higher onshore service orders, up 2.6 times versus last year. The decline in wind turbine orders is principally driven by timing. Year-to-date Onshore Wind orders are flat with last year. Pricing for new units in the quarter improved sequentially, but were still lower than last year. Backlog for the total business grew 32% to $16.5 billion with onshore up 43%. Revenues were down 29%, principally on lower Onshore Wind turbine deliveries, down 54% on units. This was partially offset by onshore services up 44%.Operating profit was down 48%, driven by lower volume and unfavorable pricing, partially offset by better cost performance. Backlog continues to expand in this business, based on strength in Onshore Wind. The team is investing and building capacity and is very focused on ensuring that we have the capability to deliver on a large second half ramp-up in shipments. The Onshore Wind business has about 70% of the expected second half new units in repower sales in backlog today, with good visibility to the remaining 30%. This along with continued strong service growth should put us on track for revenue growth in line with our prior guidance, 7% to 10% organic. We continue to bring product costs down, and we expect to see benefit from those actions, as we deliver volume in the second half.Next, on Aviation. Orders in the quarter were up 29% to $9.5 billion. Equipment orders grew 62%, driven by commercial engine orders which were up 90% as a result of key wins in GEnx, up 9x; and continued LEAP momentum, up 37%. Military engine orders were up 19%, largely driven by U.S. Navy 414 order. Service orders grew 9%. Not included in orders are $22.6 billion of wins at list price for GE and CFM from the Farnborough airshow with engines of about $19 billion and services of about $4 billion. We saw a significant activity in key commercial engine segments including LEAP with $12 billion of when and GEnx and GE 90 of $5 billion. Revenues in the quarter grew 13% to $7.5 billion. Equipment revenue was up 24% on higher commercial and military engine shipments.We shipped 250 LEAP engines this quarter with improving cost positions versus 69, a year ago and 186 in the prior quarter. Services revenues grew 8%, with the spares rate of 26.6 million per day, up 23% versus prior year. This was partially offset by lower CSA revenue. Operating profit of $1.5 billion was up 7% on higher volume, improved year-over-year price, and operating productivity. Operating profit margins were pressured by 110 basis points in the quarter, principally due to unfavorable mix on higher LEAP shipments.As I said earlier, we shipped 250 LEAP engines in the quarter. And for the first half, we have delivered 436 versus 459 for all of 2017. We are about four weeks behind schedule but are making good progress on our commitment to recover on LEAP deliveries by year-end and remain on track for 1,100 to 1,200 engines in 2018. For the year, David and the team are on track to deliver 15-plus-percent op profit growth.Next, on Healthcare. Orders of $5.3 billion were up 7% and 5% organically. Geographically, organic orders were up 6% in the U.S and 2% in Europe. Emerging market organic orders were up 5% with China up 10%. On a product line basis, Life Sciences orders were up 12% reported and 9% organic with bioprocess strong, up 14% organic. Healthcare Systems orders were up 6% reported and 4% organically. Healthcare revenues of $5 billion grew 6% reported and 4% on an organic basis with Healthcare Systems up 4% and Life Sciences up 5%. Emerging markets continue to be strong, up 10% organically, while developed markets were up 2%.Operating profit of $926 million was up 12% reported and 10% organic, driven by continued volume growth in productivity. Margins expanded 100 basis points in the quarter as material deflation and cost productivity more than offset price pressure. The Healthcare team is making progress on portfolio actions. The sale of the Value-Based Care portfolio of Healthcare Digital to Veritas Capital was completed on July 10th.Next on Oil and Gas. Baker Hughes GE released its financial results this morning at 6:45, and Lorenzo and his team will hold their earnings call with investors today at 9:30. Since we had the one year anniversary of the merger of Oil and Gas with Baker Hughes in July, this will be the last quarter that I provide a comparison of the combined business based on financials as if the merger had taken place on 1/1 of 2017. For reference, I’ll give you the total organic orders and revenue comparisons as well. These represent the results of our legacy Oil and Gas business.Orders were $6 billion, up 95% reported and up 2% organic. On a combined basis, orders were up 9%. The Oil and Gas market continues to grow as crude oil prices have remained relatively stable. Our short cycle businesses are already benefiting from this, which is driving the growth this quarter, particularly in the upstream oilfield services business, which was up 13% year-over-year. Our outlook for long cycle is becoming more constructive, and we saw a good growth in oilfield equipment orders which were up 30% on a large award from Chevron for the Gorgon stage 2 project. This was offset partially by turbomachinery and process solutions down 4% and digital solutions down 6%.Revenues were $5.6 billion, up 85% reported and down 12% organic. On a combined business basis, revenues were up 2%. Short cycle oilfield services and digital solutions revenues were up 14% and 7%, respectively, while the longer cycle oilfield equipment and turbomachinery and process solutions were down 9% and 13%, respectively. Operating profit was $222 million, up 86% reported and down about 27% organic, driven by declines in our longer cycle oilfield equipment and turbomachinery businesses, partially offset by synergy.During the quarter, cash distributions from BHGE totaled $439 million, including the share repurchases and the quarterly dividend of $125 million. Lorenzo and Brian will provide more details on their call today. We are pleased with the team’s execution on strategic goals of growing share and improving cash and margins. The integration is going well with 189 million of synergies in the quarter and is on track for 700 million for the year.Next, on Transportation. North American carload volume was up 5% in the quarter, primarily driven by intermodal carloads up 7% and commodity carloads up 4%. Parked locomotives continued to improve, ending the quarter down about 31% from last year. Orders of $1.1 billion were up 42% with equipment orders of $486 million, up 110%. We received orders for 115 locomotives, principally from North American customers versus 26 in the second quarter of ‘17. Additionally, we continue to see strong growth in mining wheels with unit orders up 115%.Services orders of $620 million were up 13%, driven by double-digit growth in both locomotives and mining. Backlog was up $300 million versus prior year to $18.3 billion with equipment up 30% and services down 7%. Revenues of $942 million were down 13% with equipment down 40% on lower loco volume. We shipped 7 North American locomotives this quarter versus 37 in the second quarter of 2017. International unit shipments were 47 in the quarter versus 83 in the second quarter of ‘17. This was partially offset by mining, which was up 109%. Services revenue was up 12%, driven by locomotive and mining parts growth.Operating profit of $155 million was down 15% due to lower locomotive volume, partly offset by services growth. We announced in May that our transportation business will be merging with Wabtec. The deal is progressing and we expect it to close in early 2019.Moving over to Lighting. Revenues for the segment were down 9% with Current up 6% and the legacy lighting business down 26%. Revenues for the segment were up 6% organically. Operating profit was $24 million, up from $17 million last year. In the second quarter, we closed on the majority of our sale of our Europe, Middle East, Africa, Turkey and global automotive lighting businesses. These businesses represented approximately 15% of Current and Lighting’s annual revenues. We expect to sign a deal to sell the remainder of Current and Lighting by the end of 2018.Finally, I will cover GE Capital. Continuing operations generated a loss of $207 million in the quarter, down 20%. We had a $38 million charge associated with the upfront cost of calling approximately $700 million of excess debt, which will be accretive by the end of 2019. Compared to last year, the business recorded lower gains and higher impairments, primarily related to EFS, which was mostly offset by higher base earnings and lower cost. As mentioned previously, for the year, we’re targeting to be about breakeven on continuing net income. We expect to have higher income in the second half, driven by lower excess debt costs, incremental tax benefits in the fourth quarter and additional asset sale gains. The timing of asset sales could impact the exact outcome.GE Capital ended the quarter with $136 billion of assets including $16 billion of liquidity. We paid down $7 billion of long-term during the quarter and reduced our commercial paper program by $1 billion, which is in line with our overall capital allocation framework.As we announced in January, we modified on July 1st, the internal GE Capital preferred stock to be mandatorily convertible into common equity in January 2021. Remember, this was a back-to-back arrangement with GE. So, the modification does not change the terms of the external GE preferred stock. In January 2021, the GE preferred stock becomes callable, and we will make a decision about this as part of our overall capital structure at that time. Our strategy with respect to GE Capital remains clear. We intend to materially shrink the balance sheet of GE Capital. We’re making progress on our target reduction of $25 billion in energy and industrial finance assets by the end of 2019. We sold approximately $2 billion of assets in the second quarter and expect to exit more than $10 billion of assets in the second half.With that, I’ll turn it back over to John.John FlanneryThanks, Jamie. In summary, we see continued strength in Aviation, Healthcare and corporate costs in the second half. This will offset pressure in Power. Renewables, Transportation and Oil and Gas should be about as expected. Cost out was $1.1 billion in the first half, on track to be better than $2 billion target. We are aggressively reviewing all cost out opportunities for the second half. We are targeting GE Capital earnings to be breakeven for the total year due to portfolio actions. We expect the second half to be better than the first half.GE is on a multiyear transformational journey, and the path forward is clear. Overall, we feel good about our execution. We see strength across the majority of the portfolio. We remain focused on implementing the broad macro strategic changes we outlined in June, while making sure our micro execution in each business continues to improve across the Company.And with that Matt, I will turn it back over to you.Matt CribbinsThanks, John. With that, let’s open up the call for questions.Question-and-Answer SessionOperator[Operator Instructions] Our first question comes from Scott Davis of Melius Research. Please go ahead.Scott DavisGreat. Thanks, operator. Good morning, guys and gals. The Power business, it continues to get a bit worse it seems, and the news flow just continues to get worse. I guess, the question is, the original restructuring plan, when you look at it now, is it enough, and can you get enough? With the agreements that you have with the French government, is it even possible to take out enough capacity to get close to matching up supply and demand on that?John FlannerySo, Scott, let me just start out saying, it’s clearly our top priority, is managing through and fixing our issues in the Power business. So, we’re working that intensely, in total sense of urgency. The market is challenging, but we need to work through that. It’s going to be a multiyear fix, I think with some volatility. This is not something that’s going to move straight line quarter-to-quarter. But, let me take it in three pieces really, one is just the market; two is now we’re fixing it; and then, just as we look into ‘19 and beyond. I’ll start with market. So, we’re looking basically 50% down last two years, we’re planning for this to stay at those levels. So, we’re not looking for any rebound there.On the installed base side, the industry is not going way. I think, if you look at every forecast, recent forecast, Bloomberg and others that the amount of electricity generated by gas turbines will increase. So, we think there is something substantial to build around it longer term here, and our strategy is to restructure the business and maximize the value.We’ve got five basic things, Scott, in the plan here in terms of addressing this. One is rightsizing the footprint and the base cost. I think, the team made good progress on that. We’re about 550 and $560 million of cost out in the first half; we’ll be ahead of the target on $1 billion out.Then maximiz</t>
+  </si>
+  <si>
+    <t>Eaton Corp. Plc (NYSE:ETN) Q2 2018 Earnings Call July 31, 2018 10:00 AM ETExecutivesDonald H. Bullock - Eaton Corp. PlcCraig Arnold - Eaton Corp. PlcRichard H. Fearon - Eaton Corp. PlcAnalystsJeffrey Todd Sprague - Vertical Research Partners LLCJoe Ritchie - Goldman Sachs &amp; Co. LLCScott Reed Davis - Melius Research LLCNigel Coe - Wolfe Research LLCNicole Deblase - Deutsche Bank Securities, Inc.Steven Winoker - UBS Securities LLCAnn P. Duignan - JPMorgan Securities LLCJeffrey D. Hammond - KeyBanc Capital Markets, Inc.Stephen Edward Volkmann - Jefferies LLCDeane Dray - RBC Capital Markets LLCAndrew M. Casey - Wells Fargo Securities LLCJulian Mitchell - Barclays Capital, Inc.Andrew Burris Obin - Bank of America Merrill LynchMircea Dobre - Robert W. Baird &amp; Co., Inc.OperatorLadies and gentlemen, thank you for standing by. Welcome to the Eaton Second Quarter Earnings Conference Call. At this time all participants are in a listen-only mode. Later we will conduct a question and answer session. Instructions will be given at that time. As a reminder, this conference is being recorded. I would now like to turn the conference over to our host, Senior Vice President of Investor Relations, Mr. Don Bullock. Please go ahead.Donald H. Bullock - Eaton Corp. PlcGood morning. I'm Don Bullock, Eaton's Senior Vice President of Investor Relations. Thank you all for joining us for today for Eaton's Second Quarter 2018 Earnings Call. With me today are Craig Arnold, our Chairman and CEO; and Rick Fearon, our Vice Chairman and Chief Financial and Planning Officer.Our agenda today includes opening remarks by Craig, highlighting both the performance in the second quarter and our outlook for the remainder of 2018. As we've done historically in our past calls, we'll be taking questions at the end of Craig's comments.Before we do, I want to remind you of a couple of things. First, the press release from our earnings announcement this morning and the presentation we'll go through today have been posted at our website at www.eaton.com. Please note that the press release and the presentation both include reconciliations to any non-GAAP measures, and a webcast of today's call is going to be accessible on our website and is available for replay for those who aren't able to join us.Before we get started, I do want to remind you that our comments today will include statements related to expected future results of the company and are therefore forward-looking statements. Actual results can differ materially from those forecasted projections due to a whole range of risk and uncertainties that are described both in the earnings release and our presentation and our related 8-K.With that behind us, I'll turn it over to Craig to go through our presentation.Craig Arnold - Eaton Corp. PlcOkay. Thanks, Don. Appreciate it. Just before we get started with Q2 results, I did want to take an opportunity to once again emphasize the three primary elements of our corporate strategy. I'm sure you've worked through most of the financials already, but first and foremost, we remain focused as a company on delivering organic growth.Our initiatives are very specific by business, but generally they include investing to create industry-leading products and technologies, leveraging partnerships with distributors and third parties, creating value products and services that allow us to more fully participate across the opportunities we see. So in short, what we're trying to do is find opportunities to say yes more often and doing it in a way that solves customer problems but also delivers attractive returns.Second, we continue to expand our margins by improving productivity in our factories and in our functions and by selectively undertaking restructuring initiatives that allow us to eliminate redundancies, eliminate waste and really being more selective on how we spend our time moving away from marginal activities, but just as importantly, doubling down on those areas where we have the right to win with attractive returns.Third, we'll maintain our disciplined approach to capital allocation which begins with investing to win in all of our existing businesses. We'll also consistently return cash to shareholders in the form of industry-leading dividends, share repurchases, and by maintaining our rigor as we evaluate M&amp;A opportunities against our hurdle rate.We think by continuously delivering on these components, we'll generate superior value for our shareholders both in the short-term and the long-term. And in the context of that kind of strategic overview, we also thought we'd take an opportunity to just highlight once again this quarter a number of places where we've made a bit of progress against these strategic initiatives.And on page four, I've highlighted a few of the examples. First, in our efforts to grow, I point to our presence in the fast-growing data center market which continues to pay off. In fact, we booked record orders in the first half of the year. We're seeing strong global demand for new facilities in hyperscale and Internet 2.0 applications, and importantly, we're winning in this space.We also entered into a new joint venture with Shaanxi Fast Gear for light duty transmissions to serve the Chinese market. The JV combines Eaton's broad transmission technology with the leading transmission company in China and allows us to participate in the world's largest light vehicle market.We also made solid progress on our digitization initiatives, and while too many to note, I would point out a few examples of progress made in the quarter. We launched an IoT enabled home lighting solution. We deployed an IoT enabled hydraulic system in sugar cane harvest applications as well as in hydraulic fracturing. We formed an industry cybersecurity partnership with the Rochester Institute of Technology which allows us to advance the common and secure IoT platform that we intend to deploy on all of our products. And so really solid progress as we continue to digitize the company and focus on opportunities to grow with these new technologies.And while just getting started, we did secure our first high voltage converter order in our newly formed eMobility segment. And lastly, we added significant capacity to our hydraulics hose business enabling us to sharply reduce lead times and expand our presence in the high volume segment of the market.So while not a complete list, these are examples that hopefully provide you with a sense of how we're moving our strategic priorities forward and how we're also investing in the future.Now turning to our financial results for Q2 on page five, I'll just add some context to what you've already seen in the results. First of all, we think a very strong quarter of performance by our businesses. Earnings at $1.39, up 21% over Q2 of 2017 and at the high end of our guidance range. Our performance was driven by both strong revenue and record margins. Organic revenue up 7% was actually the highest reported growth since Q4 2011. FX added 1% offset by 1% in divestitures.Bookings accelerated in most segments, but especially in Electrical Systems &amp; Services and Aerospace, which were both up solid double digit. We generated all-time record segment margins of 17% based upon strong volume growth and strong incrementals, and we think once again demonstrated the ongoing benefits of our multiyear restructuring program and how those benefits are coming true.Operating cash flow was $499 million in the quarter, and while not as strong as you might have expected, cash was impacted by adding working capital to support increased growth as well as by selectively pre-buying inventory to mitigate impacts of the trade tariffs.And finally, we repurchased $300 million of our shares in the quarter bringing year to date purchases to $600 million, 1.7% of shares outstanding at the start of the year. So we think really strong, balanced performance across the company.Turning to page six, we'll provide a summary of the consolidated results for the quarter, and here I just highlight a couple of elements of the income statement. We talked about the sales increase which really allowed us to increase segment operating margins by 16% and net income by 18%, earnings per share up 21% in Q2, and this compares to 15% in Q1. And lastly, we did deliver 11.1% after-tax margins in the quarter.Moving to the segments, I'll start with Electrical Products. Our revenues were up 4%, 3% coming from organic growth, and this is up from the 1% growth we reported in Q1.In the quarter, we saw particular revenue strength in industrial markets, especially in the Americas and the EMEA market, Europe, Middle East and Africa. Total bookings were up 4% in the quarter, and excluding Lighting, bookings were actually up 7%, which is a step up from Q1 bookings where, also excluding Lighting, they increased 2%. So this business is also ramping favorably.Order strength was broad, driven by both industrial and residential markets. I would also note that lighting markets appear to have stabilized, and we expect to see low single digit market growth in the second half of the year.Importantly, our margins in the quarter were up 120 basis points to 18.5%, which is a second quarter record. So strong conversion in our Electrical Products business.Next, the results for our Electrical Systems &amp; Service business is on page eight. Revenues increased a solid 7% in the quarter, and this is up from the 2% growth that we saw in Q1. Foreign exchange added 1% which was offset by negative 1% from a small divestiture in a joint venture.In the quarter, we saw revenue strength in industrial projects, in data centers, and solid growth in harsh and hazardous markets. We generate very strong bookings growth of 15% with strength in the Americas and Asia Pacific and bookings were especially strong in large industrial projects and in data centers. And our backlog continued to grow increasing 14% in the quarter, and we think position the business well for continued growth in the second half of 2018 and certainly into 2019 as well.Operating margins were 15%, up 130 basis points, and we delivered strong leverage as the 7% sales increase resulted in a 17% increase in operating profits.Moving to page nine, here we cover the Hydraulics results. Sales increased 14% in the quarter, 13% organic, 1% positive FX. Revenues were strong with both mobile OEMs and across the distribution channel. Bookings were actually down 1% in the quarter, and this does take a little bit of an explanation, but this included Asia Pacific up 15%, the Americas up 4%, offset by EMEA down 21%. And while impacting orders, the lower EMEA number is actually the result of our operational improvements and capacity investments that we've made to shorten delivery lead times, and this has reduced naturally our customers' need to place long-dated orders And certainly when we take a look at our backlog, it increased some 26% year to date and this certainly gives us confidence that this market remains strong.Margins at 14% were up 230 basis points, so we continue to see the benefits of restructuring efforts here as well as leverage from the higher volume. However, I would note as we discussed on prior calls, we continue to experience challenges as we ramp up production to support the strong growth levels and most of the challenges are coming from the supply base which has really struggled to keep pace with the higher demand.Next, our Aerospace business is listed on page 10. Sales were up 6%, all organic. The sales growth was driven by strong activity in military OE across all segments, biz jets and commercial aftermarket. Orders were even stronger, up 18%, with strength in both military and commercial aftermarket, business jet, military fighters and military rotorcraft. Our backlog also remains strong and is up 13% over prior year. And lastly, operating margins were once again very strong, 19.4% and up 90 basis points over prior year.Turning to page 11, our Vehicle business had another strong quarter. Sales increased 6%. Organic revenues were actually up 11% and the divestiture impact of the joint venture that we formed with Cummins was a negative 5%.NAFTA heavy duty truck production was up 15% in Q2 following more than 40% in Q1. So this market continues to be very strong. We continue to expect NAFTA heavy duty truck production to be at 295,000 units for 2018 which implies a modest growth in the second half of the year on more difficult comps.And I'd also note that the industry is seeing a few supplier challenges that will likely limit second half production but pushing production into 2019. And in the automotive markets, both Europe and China are stronger than we originally anticipated and the U.S. market is really coming in about on expectations. So really broad strength in our Vehicle business.I'd also note that the Eaton Cummins joint venture is doing well. Revenues grew to $141 million in the quarter, so very strong growth in our joint venture. And margins were at 18.5%, up 180 basis points from prior year on strong revenue.And finally, results in our eMobility segment are shown on slide 12. Sales in the quarter were up 15%, 14% organic, and having just formed the business in Q1, we're pleased to announce that we have in fact won our first high voltage converter order, one of the key products that we've just begun selling into the electrical vehicle market. And our pipeline of opportunities perhaps more importantly is 2X what it was in Q1, so we continue to see tremendous growth in the opportunities that we're having an opportunity to quote on for customers.Margins were 16.9%, down 120 basis points reflecting really the additional R&amp;D investment but very much in line with our expectations.On page 13, we've updated our organic growth outlook for 2018. Our end markets continue to grow above our original expectations in a number of our businesses and so we're increasing our full-year organic growth estimate from 5% to 6%. The continued strength in orders from Electrical Systems &amp; Services has led to an acceleration of organic growth and we're now forecasting growth of 6%. We're also increasing the organic growth outlook for our Aerospace business to 6% on strength in both military and commercial markets. And finally, our Vehicle business continues to perform at a high level and we're increasing our organic growth guidance to 6% for the full year as well. You'll also recall that we increased our Vehicle segment organic growth estimate following a strong Q1 as well.Overall, a 1% change for Eaton and this is on top of the 1% increase that we provided as a part of our Q1 guidance.Moving to page 14, we'd like to provide just a bit of perspective on where we think our businesses are in the economic cycle and why we think conditions are setting up well for the second half 2018 and really going into 2019.Now, as this chart demonstrates, we think that our end markets are currently – where our end markets are currently at in terms of the economic cycle. As you can see, most of our end markets are in the early to mid-growth stage, which we think bodes well for continued market growth. The majority of Eaton's revenue comes from businesses that are in the early to mid part of the growth cycle, and this includes many of our larger businesses like long-cycle Electrical Systems &amp; Services segment.So overall, we think our businesses will continue to have a market tailwind for some time to come, and we would expect to, as well, grow faster than our end markets.On page 15, we provide an update on our thoughts regarding raw material inflation as well as the estimated impact from tariffs.As we communicated at the beginning of the year, we continue to execute on our strategy of offsetting raw material and logistics cost inflation with price and cost out actions. We moved quickly with pricing actions in the first half of 2018, and as a result, we expect no negative EPS impact in 2018 from additional commodity inflation.With regard to tariffs, we think there will be a very modest cost impact for our businesses overall, some $65 million. But we also fully expect to mitigate this increase through actions that are currently underway or will shortly be implemented in our businesses.So I won't go through the tariff details in a lot of detail, but I would emphasize kind of the two main points. And one, our long-term strategy has been and continues to be to manufacture in the same zone in which we sell, and this certainly reduces the tariff impact on Eaton. And secondly, we're committed to move swiftly to take pricing actions to offset any tariff impact that we do see in our businesses.Moving to margin guidance on slide 16, we're increasing margins for three of our segments where we're seeing stronger than expected organic growth and solid performance. These include Electrical Systems &amp; Services, up 20 basis points; Aerospace, up 30 basis points; and Vehicle up 50 basis points. We are lowering our guidance for Hydraulics to a range of 13.7% to 14.3%, which is a 50 basis points reduction at the midpoint. This is in response to supply chain challenges and inefficiencies as volume continues to grow at these strong paces. And our full-year margin guidance remains in the range of 16.4% to 17% and really places us on a solid trajectory to achieve our 17% to 18% margin targets that we set for 2020.And finally on page 17, we provide a summary of our Q3 and 2018 guidance. For Q3, we expect EPS of between $1.35 and $1.45, and this assumes 7% organic growth. We expect margins to be 16.9% to 17.3%, and a tax rate of 13% to 14%.For the full year 2018, we are again increasing our full-year EPS guidance to a range of $5.20 to $5.40, which is a 10% increase at the midpoint. Organic revenue growth is now expected to be up 6% versus 5% previously. Foreign exchange is now expected to be only a $50 million positive which is down from the $200 million that we had in our prior estimate.Segment margins will be in the 16.4% to 17%, as earlier noted. No change in our cash flow or free cash flow guidance, and corporate expenses, tax rate, CapEx share repurchase assumptions all remain unchanged from prior guidance.So just before I hand it back to Don, I did want to once again take this opportunity to summarize why we think Eaton is an attractive investment opportunity. As you can see, and we talked about, our markets have returned to growth. The next few years will be much better than the last few.In addition, we have a number of really attractive organic growth initiatives that we think will allow us to continue to grow faster than our end markets. And our restructuring is paying off. Our 2018 margins will be at an all-time high, and we have plenty of room to continue to improve them. Our balance sheet is in great shape. Net debt-to-capital is at 30%, and our pension plan is now 96% funded. Our cash flow continues to be strong, and we expect to consistently deliver free cash flow at or above 100% of net income while generating some $8 billion of free cash flow over the next three years.We're also returning cash to shareholders through a high dividend yield, 3.3% today, and buying back shares 1% to 2% on an ongoing basis. And lastly, as we committed, we'll deliver 11% to 12% EPS growth over the next three years, and so we think once again solid performance this quarter, a positive outlook, and we think a really compelling story for investing in Eaton.So with that, I'll stop and turn it back to Don for Q&amp;A.Donald H. Bullock - Eaton Corp. PlcOkay. Our operator's going to provide guidance on participating in the Q&amp;A.Question-and-Answer SessionOperatorThank you.Donald H. Bullock - Eaton Corp. PlcBefore we jump into the Q&amp;A, we do see we have a number of people on the call and we also have a number of calls going on simultaneously to this time so I want to be very sensitive to the timing of that. So if we would please limit yourself to a call and a follow-up call. And with that, our first question comes – question and follow-up question, excuse me. And our first question comes from Jeff Sprague with Vertical Research.Jeffrey Todd Sprague - Vertical Research Partners LLCThank you. Good morning.Richard H. Fearon - Eaton Corp. PlcHi.Jeffrey Todd Sprague - Vertical Research Partners LLCHey. Great momentum. I think one interesting question given that you guys report a little later than others is what you're seeing in July. I'd say it's somewhat implicit in your Q3 guidance obviously, but was there some element of pre-buying or other activity in June as people were looking at tariffs? And did you see any let-up in July?Craig Arnold - Eaton Corp. PlcYeah, I think the short answer to the question, Jeff, is no. We really did not see any pre-buy of any measure, and what we've seen to date in July is very much consistent with the patterns that we've been seeing. So absolutely everything that we've forecasted in the outlook for the company is very much consistent with the way the businesses have been performing.Jeffrey Todd Sprague - Vertical Research Partners LLCRight. And then just to be clear on price-cost, what you're saying is kind of underlying price-cost, you're caught up or have visibility on being caught up but there's still actions that need to be taken on tariffs? Can you clarify that?Craig Arnold - Eaton Corp. PlcThere's still a fair amount of uncertainty as it relates to the implementation of 301. And so what I would tell you is what we know about to date and what has been announced to date we have very much either announced or implemented plans to offset that impact.There's a lot of uncertainty as you think about the step 2, step 3 of 301 and what actually happens that obviously we don't have visibility into, and those actions, if they are implemented as speculated, then we would have to take additional actions down the road. But everything that we've seen to date and everything that's been announced to date is very much already baked into our guidance and plans are very much already implemented or in the phase of being implemented.Jeffrey Todd Sprague - Vertical Research Partners LLCThanks. I'll hold it to two and pass the baton.Donald H. Bullock - Eaton Corp. PlcOkay. Thank you. Our next question comes from Joe Ritchie of Goldman Sachs.Joe Ritchie - Goldman Sachs &amp; Co. LLCThanks. Good morning, everyone.Richard H. Fearon - Eaton Corp. PlcHi.Craig Arnold - Eaton Corp. PlcMorning.Joe Ritchie - Goldman Sachs &amp; Co. LLCSo organic bookings in ESS, obviously really good to see the progress that you're seeing there and finally seeing some of that growth materialize. Craig, my first question is maybe touch on what you're seeing from like a leading indicator perspective on the data center stuff, the industrial projects, and how you feel about that business on the go forward.Craig Arnold - Eaton Corp. PlcYeah, and I appreciate your question. Certainly the few big businesses that are inside of Electrical Systems &amp; Services would include our power distribution and controls assemblies, our commercial distribution assemblies our power quality business and also Crouse-Hinds. And I'd say in all four of those very large businesses, we are seeing very strong order growth across the business.And so all four of those businesses are performing well. We talked about the fact that the backlog is up from 15%, and we saw strong orders, and those are the four businesses that are essentially driving the growth. And so very much as we anticipated for our Electrical Systems &amp; Services business, perhaps even a little ahead of schedule, those businesses are late cycle businesses but are ramping right now and we expect to continue to perform for some time to come.Joe Ritchie - Goldman Sachs &amp; Co. LLCOkay. That's great to hear. And then my second question maybe following up on Jeff's trade tariff question and more broadly on cost inflation. When you think about the different segments and your ability to offset cost inflation across the segments, where are you finding it the easiest or are you finding it difficult in some of your segments? Basically a question around pricing power and your ability to offset.Craig Arnold - Eaton Corp. PlcSure. Again, and I'd say it's pretty much no different this cycle than it is any cycle. And to the extent that we're selling through distribution, distribution always tends to be a little easier. Price increases are good for our distributors, and they have the ability to pass it forward into the marketplace relatively easier.It's always more challenging with the big OEMs, but I would tell you that our plan's to pass it forward every place including in those places that have historically been a little bit more challenging. But I just think more generally speaking, distribution tends to be a bit easier than large OEMs, but we're not differentiating between the two. We're passing price increases equally through to all of our customers.Joe Ritchie - Goldman Sachs &amp; Co. LLCOkay. Thank you. I'll pass it on.Donald H. Bullock - Eaton Corp. PlcOur next question comes from Scott Davis with Melius Research.Scott Reed Davis - Melius Research LLCHey. Good morning, guys.Richard H. Fearon - Eaton Corp. PlcHi.Craig Arnold - Eaton Corp. PlcMorning.Scott Reed Davis - Melius Research LLCThe positive benefit of putting up these kind of numbers is you're kicking off a lot of cash. And we've seen some of your peers have a fairly active M&amp;A pipeline and some direct comp, some not. But what do you think as far as priorities are concerned? With the amount of cash you're kicking off, it almost doesn't feel like buybacks can really keep up to the – can almost not keep up to the growth. But is M&amp;A something that think will come back this year?Craig Arnold - Eaton Corp. PlcAs we've stated in prior quarters, having paid down the last tranche of debt associated with the Cooper acquisition, the company is certainly in a position today both from an organizational capacity standpoint and from a cash standpoint that we have the ability today to re-enter the M&amp;A market.And today I can tell you that we are looking at more opportunities than we have in quite some time. But having said that, we'll be disciplined as we think about how we value and price these transactions. We talk about a cost of capital of being 8% to 9% and saying we want a minimum of 300 basis points over our cost of capital. So we intend to be disciplined as we look at these opportunities.But having said that, we will not allow cash to build up on the balance sheet. To the extent that we're not able to land acquisitions, which we would hope to do, we'll certainly look for other ways of returning cash to shareholders.Scott Reed Davis - Melius Research LLCFair enough. And then as a follow-up, in the Lighting business, you mentioned a return to growth in the back half of the year. Is that – is there also a sense of price stability that you're finally seeing in that market explicitly?Craig Arnold - Eaton Corp. PlcYeah, I would say that as we talk about our own Lighting business and our own strategy with respect to Lighting is that we have made a decision to be perhaps more selective than others around business that we're chasing, and we made some adjustments in terms of where we focus our efforts. And I can tell you that as we think about the segments of the markets where we think are attractive and the places that we want to play, you generally see better pricing power, better pricing stability.I can't say if you think about the entire market at the low end of the market that that dynamic has changed dramatically. But the places that we anticipate playing and the places where we think we have an opportunity to sell differentiated value-added solutions, we do have a lot better pricing power in those markets.Scott Reed Davis - Melius Research LLCOkay. Sounds good. Thank you, guys. Good luck.Donald H. Bullock - Eaton Corp. PlcOur next question comes from Nigel Coe with Wolfe.Nigel Coe - Wolfe Research LLCThanks. Good morning, guys.Richard H. Fearon - Eaton Corp. PlcHi.Nigel Coe - Wolfe Research LLCSo you called out data center as a strong end market, which shouldn't be a huge surprise, but I think it's the first time you've really specifically called data center end market strength.So I'm wondering is this pretty broad across geographies, or is it one of two super-sized data centers that you're starting to see coming through?And then just thinking about the ESS margins and we're starting to tilt now towards larger projects. Do you think that mix becomes a headwind as we go into the second half of the year, maybe 2019?Craig Arnold - Eaton Corp. PlcYeah, I'd say to your first question around data centers and to your point, Nigel, it's one of the big secular trends that we certainly think bodes well for Eaton and will help generate long-term growth for our company. And it is broad. We're seeing growth in the data center markets really around the world, and as you move to hyperscale and colos and as the world just generates more and more data, we think that trend will continue for some time and will continue broadly.To your other question around margins, no, we don't anticipate that margins will be under pressure in this business, and I'd say quite frankly today if we take a look at where the industry sits today in electrical assemblies, for the most part, we have capacity constraints. Some of the demand that we're seeing today in our business is really pressing us and others to really deal with a lot of volume that we're looking at, and we're certainly looking at potentially adding capacity to deal with some of this increased demand.And so, no, I don't anticipate at all that margins will come under pressure and given the balance of capacity and demand, I think the market's in a great position today to actually get price.Nigel Coe - Wolfe Research LLCGreat. Thanks. And a quick follow-on.Richard H. Fearon - Eaton Corp. PlcI just wanted to add one thing. We've seen a bigger – a larger proportion of complex large industrial type projects, and those tend to have higher margins. Inherently there are fewer people that can actually pursue projects of that nature. So that's another element to the margin outlook.Nigel Coe - Wolfe Research LLCGreat. Thank you. And then quickly on the EP, it looked like Lighting was down roughly 10% in the quarter. Maybe you can clarify that. But what was the impact on operating leverage. You obviously had very strong margins for EP, but if we look at ex Lighting margins how did that look?Craig Arnold - Eaton Corp. PlcYeah, I'm not sure of your math, but we know Lighting was down closer to 4% in the quarter, not 10%. But I'd say that today I could just tell you that it's better. I mean, we've not given specific margin numbers for our Lighting business, and I would just tell you that the margins in Lighting are certainly below, well below the average for the Electrical Products segment.And so they certainly have a negative impact on the overall margins for the segment. But inside of that, we have a fairly large Lighting business and still posted 18.5% margins in Electrical Products which I think is a real testament to the strength of the franchise.Nigel Coe - Wolfe Research LLCGreat. Thank you.Donald H. Bullock - Eaton Corp. PlcOur next question comes from Nicole DeBlase with the Deutsche Bank.Nicole Deblase - Deutsche Bank Securities, Inc.Thanks. Good morning, guys.Richard H. Fearon - Eaton Corp. PlcHi.Nicole Deblase - Deutsche Bank Securities, Inc.So I guess I want to start on ESS. If we look back into history since the Cooper acquisition, we've never really seen a real ESS recovery. So I guess if you could give us an idea of how order growth translates to revenue growth. Because it seems to me from the past three quarters that an acceleration in revenue growth could be in the cards.Craig Arnold - Eaton Corp. PlcYeah, no, that would be our expectation as well, and if you think about it today, what's in the backlog – typically I'd say what's in the backlog, most of that becomes consumed within the next 12 to 15 months, probably 75% to 80% of it.And so it is a longer lead time business from project to delivery, but it's not two years out or 18 months out. It's much nearer term than that. And so we do anticipate that the strong orders that we're seeing in our Electrical Systems &amp; Services business convert in a relatively short period of time into higher revenue growth.Nicole Deblase - Deutsche Bank Securities, Inc.Okay. Got it. Thanks, Craig. That's helpful. And maybe just one on Aerospace. Orders were also really, really strong there this quarter. I know that's a business that tends to see a lot of lumpiness. So if you coul</t>
+  </si>
+  <si>
+    <t>PepsiCo Inc (NASDAQ:PEP) Q2 2018 Earnings Conference Call July 10, 2018  7:45 AM ETExecutivesJamie Caulfield - Senior Vice President, Investor RelationsIndra Nooyi - Chairman and Chief Executive OfficerHugh Johnston - Chief Financial OfficerAnalystsDara Mohsenian - Morgan StanleyAndrea Teixeira - JPMorganPablo Zuanic - SIGBryan Spillane - Bank of AmericaAli Dibadj - BernsteinJudy Hong - Goldman SachsLauren Lieberman - BarclaysSteve Powers - Deutsche BankBonnie Herzog - Wells FargoAmit Sharma - BMO Capital MarketsMark Swartzberg - StifelRobert Ottenstein - EvercoreNik Modi - RBC Capital MarketsBill Chappell - SunTrustOperatorGood morning and welcome to PepsiCo’s Second Quarter 2018 Earnings Conference Call. Your lines have been placed on listen-only until the question-and-answer session. [Operator Instructions] Today’s call is being recorded and will be archived at www.pepsico.com. It is now my pleasure to introduce Mr. Jamie Caulfield, Senior Vice President of Investor Relations. Mr. Caulfield, you may begin.Jamie CaulfieldThank you, operator. With me today are Indra Nooyi, PepsiCo’s Chairman and CEO and Hugh Johnston, PepsiCo’s CFO. We will lead off today’s call with a review of our second quarter performance and full year 2018 outlook and then we will move on to Q&amp;A.Before we begin, please take note of our cautionary statement. This conference call includes forward-looking statements, including statements regarding 2018 guidance based on currently available information. Forward-looking statements inherently involve risks and uncertainties that could cause our actual results to differ materially from those predicted. Statements made on this conference call should be considered together with cautionary statements and other information contained in today’s earnings release and in our most recent periodic reports filed with the SEC.When discussing our financial results on today’s call, we will refer to certain non-GAAP measures, which exclude certain items, such as the impact of the U.S. Tax Cuts and Jobs Act and other tax related items, foreign exchange translation and acquisitions, divestitures, structural and other changes from our reported results. You should refer to the Glossary and other attachments to this morning’s earnings release and to the Investors section of PepsiCo’s website under the Events and Presentations tab to find full explanations and reconciliations of these non-GAAP measures.Now, it’s my pleasure to introduce Indra Nooyi.Indra NooyiThank you, Jamie and good morning everyone and thank you all for joining us. We will start off with an overview of second quarter performance and a discussion of each of the operating sectors in a little more detail and then Hugh will cover the full year outlook.For the quarter, we delivered $16.1 billion of net revenue driven by 2.6% organic revenue growth and core earnings of $1.61 per share, a 7% increase on a core constant currency basis. Overall, we are pleased with our operating and financial performance in the quarter especially given continued commodity inflation and other headwinds in the quarter such as the Brazil transportation strike. In the quarter, organic revenue growth accelerated sequentially from the first quarter. The majority of our businesses performed very well, with particularly strong performances by Frito-Lay North America and each of the international sectors and NAB, North American Beverages posted another quarter of sequential improvement in both organic revenue and operating profit performance.Frito-Lay North America delivered balanced volume growth and net price realization driven by great marketplace execution, innovation and creative brand marketing. For example to address consumers’ desire for greater flavor and product variety in single-serve multi-packs, we launched a 20-count Family Fun mix that includes an array of products from Lay’s to Cheetos to Ruffles with an expanded mix of flavors and this clearly help drive 10% net revenue growth in our overall variety pack business. We launched Ruffles Mozzarella 'n Marinara, our latest bar food inspired flavor to meet the expectations of existing fans and capture the attention of new consumers seeking a unique and fun flavor experience. And this contributed to Ruffles 10% net revenue growth in the quarter. And Doritos Blaze launched earlier this year with the most talked about Super Bowl ad continues to perform well above our initial expectations and contributed to 6% net revenue growth in trademark Doritos in Q2. So overall, we are feeling very good about Frito-Lay North America’s performance and momentum.Turning to North American Beverages, the marketplace remains highly dynamic, but generally rational. With this as a backdrop, we are encouraged by the trending improvement in both net revenue and operating profit performance. After a slow start in the earlier part of the second quarter both for the category and North American Beverages, we saw momentum improve and a return to net revenue growth in the back half of Q2. Within the business, trademark Pepsi continued to make progress towards more stable performance. As we mentioned last quarter, we have stepped up media support on trademark Pepsi under the Pepsi generation’s campaign. As a result in the second quarter, we began to see improvement in a number of key brand health metrics that is leading to better net revenue performance as the year progresses. So, we intend to stay the course increasing investment behind brand support in the second half of the year with the aim of driving further top line improvement. At the same time, we remain laser focused on higher growth categories with appropriate brand investment and robust innovation. For example, bubly, a cleverly marketed new entrant in the fast growing sparkling water segment launched earlier this year and it continues to perform exceedingly well.Gatorade Zero, our latest hydration innovation with zero sugar and all the electrolytes of Gatorade just launched and is off to a great start. More importantly, trends on overall Gatorade performance have also recently accelerated and we are excited by the return of Mountain Dew Baja Blast, our summer limited time offer that just hit the shelves. So overall, we have seen sequential quarterly improvement at NAB and we expect to see continued acceleration in top line performance in the third quarter.At Quaker Foods North America, our hot cereal business posted its fourth consecutive quarter of market share gains and delivered mid single-digit retail sales growth supported by our new ad campaign highlighting the functional benefits of oatmeal. In addition, Quaker light snacks had double-digit retail sales growth in our Aunt Jemima pancake business, grew both retail sales and market share for the seventh consecutive quarter.Turning now to our sectors outside of North America, we are pleased with more than 6% organic revenue growth we saw in our developing and emerging market as a group. Strong marketplace execution combined with stable macro conditions have led to continued solid growth across many of our key international markets though growth was negatively impacted by the 11-day transportation strike that broadly disrupted commerce in Brazil. Within Latin America, organic revenue grew 3.5% driven by mid single-digit digit growth in Mexico and double-digit growth in Argentina and Colombia. We estimate the Brazil strike depressed overall net revenue growth for Latin America by approximately 2 percentage points.In our Europe sub-Saharan Africa sector, Russia, Poland and South Africa each grew organic revenue high single-digits and Turkey had double-digit organic revenue growth. Even within the developed markets of Europe, we saw mid single-digit organic revenue growth in the UK and high single-digit growth in France. And in AMENA, we had strong double-digit organic revenue growth in China and Egypt, high single-digit organic revenue growth in Pakistan and Australia, and solid mid single-digit organic revenue growth in India. This strong top line performance translated into impressive bottom line results with core constant currency operating profit up 12% in our international divisions as a group fueled by fundamental operating performance and the gain this year from the Thailand refranchising partially offset by lapping the gain from our sale of Britvic shares in 2017.The international results are in part a reflection of our efforts to increasingly lift and shift successful initiatives from one market to many and innovating on our big global brands in locally relevant ways. For instance, in Latin America, we are innovating with Quaker Super Foods, a new premium platform with differentiated ingredients such as oats with rye, amaranth, flaxseed and quinoa. In ESSA, we have lifted and shifted Off the Eaten Path, a premium range of plant-based snacks from the U.S. to the United Kingdom. And in AMENA, we have taken our successful Sunbites platform from the U.S. to Australia by launching Sunbites Grain Waves Plus with the goodness of Australian whole grain corn, wheat and oats for beetroot and sweet potato. At the same time, they have also launched in the U.S., Red Rock Deli, one of our most successful brands in Australia. Net, we are encouraged by the momentum we are seeing across many of our key international markets. NAB is making steady improvement and Frito-Lay North America is performing well. Importantly, as we have managed the business for strong performance today, we are also taking steps to enable to continue to perform well in the decades ahead. We are pleased to report that in the coming days we will publish our most recent sustainability report discussing our progress against and commitments to our sustainability goals.We encourage you to read the full report, but I’d like to take just a few minutes this morning to provide you with the highlights. We are in millions of pantries and refrigerators worldwide. So we know we have a tremendous opportunity and responsibility to use our scale to make a positive impact on the world. Our customers, employees and partners feel good knowing that there is a shared journey of sustainable transformation making our products more nutritious and more resource efficient, dialing up the taste while reducing our environmental footprint. Our investors can feel good knowing this makes us a stronger business over the long-term, that we can also do well by also doing good. 12 years ago, we embarked on a journey of PepsiCo, as we call, Performance with Purpose. Since then, much has changed at PepsiCo and around the world, but the underlying principles behind Performance with Purpose remain. Much of our early work on Performance with Purpose requires us to think differently about our business and make the kinds of long-term investments from researching and developing new more nutritious products to finding ways to reduce water and energy use across plants and farms that will help us deliver on the vision of making our growth, our operations and our impact more sustainable. Sustainability has been defined as meeting the needs of the present without compromising the ability of future generations to meet their own needs. Over the last dozen years, we have tried to meet the needs of the present, while strengthening the ability of future generations to meet this integrating that aspiration into our goals for products, planet and people.Let me briefly comment on each. When it comes to products, we have built on our legacy as the first company to voluntarily remove trans-fats from our snacks by reducing added sugars, sodium and saturated fat in many of our products launching a revolutionary nutrition-focused vending option, Hello Goodness and growing our portfolio of what we define as Good for You and Better for You options from about 38% of revenue in 2006 to roughly 50% last year. We also teamed up with others in our industry to form The Healthy Weight Commitment Foundation removing 6.4 trillion calories from our food and beverage products surpassing our collective pledge by more than 400%. And through Food for Good, we have provided 18 million nutritious servings to low income U.S. families since 2009.Regarding planet, we have raised the bar for what it means to be a responsible corporate water steward earning the prestigious Stockholm Industry Water Award. We have invested more than $40 million since 2006 to provide safe water access around the world benefiting nearly 16 million people in some of the planet’s most water stress regions. We have also made our delivery fleet more energy efficient eliminating the need for over 1 million gallons of diesel fuel since our electric vehicle initiative began in 2010. The equivalent of keeping more than 2,000 passenger cars off the road for the year, while also making our beverage coolers and vending machines 60% more energy-efficient and we are one of the world’s largest purchasers of recycled PET. In fact if more recycled PET were available we would buy it. We have also launched the first 100% compostable chip bag in test markets, while diverting more and more of our waste from landfill, approximately 95% as of 2017. And for people, we have re-imagined what it means to support our associates from ushering onsite and near-site childcare campuses around the world to expanding PepsiCo University’s online course offerings to help associates upgrade their skills to navigate our rapidly changing world. We have also helped lift up the communities we serve playing a critical role in disaster relief efforts from Texas to Florida and Puerto Rico, Mexico to Ecuador and China to the Philippines.While we still have work to do in certain areas, we are incredibly proud of the progress we have made. Our aspiration of being a good company, good ethically and good commercially continues to come to fruition using a broader, more lasting impact than we ever imagined and setting a standard that companies across our industry and beyond aspire to meet. Looking ahead, we will continue viewing our work through both the microscope and a telescope, focusing on the most granular details, grams of saturated fats, parts per billion of greenhouse gas, the number of women in management roles as well as the larger ambition of building a business that acts in accordance with our values, each of us striving to do what’s right for the company and what is right for our communities, because at the end of the day, there is no separating the two.With that, let me turn it over to Hugh.Hugh JohnstonThank you, Indra and good morning everyone. I will just provide a quick update on the outlook and then we will move to your questions. From a macro perspective, we maintain a fairly positive view overall. However within this broadly positive picture, there remains risk of volatility both in geographic markets as we saw in Brazil in the most recent quarter and in currencies as witnessed by the recent sharp rise in the strength of the U.S. dollar. From an industry standpoint, we continue to see pretty challenging conditions, including a dynamic retail and consumer landscape, a very competitive environment and ongoing commodity inflation. So putting this all together in considering our year-to-date performance, our guidance for 2018 remains unchanged. Specifically, we expect organic revenue growth at least in line with our 2017 growth rate or 2.3%.As we move through the year, our expectation is that we will continue to see some levels of gross margin compression from inflationary input costs. Normally, you would expect to see the gross margin contraction offset with SG&amp;A productivity, but as we have stated previously with the benefit of a lower effective tax rate in 2018, we are making investments to fortify the business as well as having funded the U.S. frontline bonus and these investments will largely offset productivity driven margin improvement. We expect our core effective tax rate to be in the low 20s and we expect core earnings per share of $5.70 or a 9% increase compared to 2017 core earnings per share of $5.23.We expect to continue to generate strong cash flow and to exercise disciplined capital allocation with prudent reinvestment into the business. For 2018, we continue to expect free cash flow of approximately $6 billion, which includes approximately $9 billion in cash flow from operations, including a $1.4 billion discretionary pension contribution made in the first quarter and net capital spending of approximately $3.6 billion. We continue to expect to return approximately $7 billion to shareholders in 2018 with cash dividends of approximately $5 billion, reflecting a 15% increase in the annualized dividend per share that began with the June payment and share repurchases of approximately $2 billion.Finally, as you update your models I’d like to highlight the following. We expect our rate of earnings growth to be substantially higher in the fourth than in the third quarter. This is due to the timing of investments and the lapse associated with last year’s natural disasters. In addition, we expect the previously announced refranchising of our Czech Republic, Hungary and Slovakia business operations to benefit our fourth quarter earnings, and finally based on market consensus forecast, we expect foreign exchange translation to negatively impact both net revenue and operating profit in the second half of the year reversing the ForEx benefits that we had in the first half.With that operator, we are ready to take the first question. Operator?Indra NooyiHello. Operator?Jamie CaulfieldHi, it’s Jamie Caulfield. We appear to be experiencing some technical difficulties in having your questions fed to us. So if I could ask you just to remain patient for a minute while we sort this out. Thank you.Question-and-Answer SessionOperator[Operator Instructions] Your first question comes from the line of Dara Mohsenian of Morgan Stanley.Indra NooyiGood morning, Dara.Dara MohsenianHey, good morning. So, Indra, clearly, there has been a lot of investor focus around the number of pressure points in the CPG industry in terms of pricing power brand demand fragmentation etcetera, etcetera and basically that some of the traditional advantages of larger CPG companies are breaking down. In that context, I was hoping you could give us some perspective on if there are areas of significant investment or operational changes at Pepsi going forward beyond what you have already done to help position the company versus some of those industry challenge is and how realistic a long-term high single-digit earnings growth algorithm beyond 2018 is if you need to reinvest it again some of those pressure points? And within that answer I was hoping specifically you could touch on price mix, you have obviously had strong pricing realization in the last few years with the inflationary commodities in the trade and tariff risk, I’d love some updated thoughts on price mix also within that? Thanks.Indra NooyiThanks, Dara. And first of all, I think you asked me about 10 questions within one question, but given that we had this technical difficulty, I guess you are entitled to ask these 10 questions. I think you asked a sort of very, very interesting questions, I think the changes we are seeing in the industry are quite interesting and I think the changes that we are seeing benefit companies that have already invested to build scale, building international footprint and have the right partnerships around the world. I think now it’s not the time for companies to go and plant flags in new countries and try to startup businesses. So, I’d actually observe that the advantage CPG companies are small, niche single country companies with small brands who grow it to a certain level and then flip it or very large established scale companies who build businesses in multiple geographies. And I don’t mean just planting the flag actually built scale. And I think PepsiCo is one of those few companies that have actually over the years invested to build scale, put the right partnerships in place, built a diversified portfolio and actually solidified our presence and we made all the investments over the years.So that part of the investment is behind us. This next tranche of investments relate to digitalization thinking through more automation in our plants, in our go-to-market systems figuring out how we can unleash more productivity, but more efficiency and effectiveness not just efficiency, if efficiency and effectiveness so that we can serve the changing retail world in more efficient and productive base, because retailers are going to go through their own changes and they are going to look at a few players to be the anchor suppliers to them while they handle with all kinds of changes with a large portion of the CPG world. And I think PepsiCo with its DSD systems and with its high velocity categories, its brand portfolio, and most importantly, innovation becomes a very valuable partner across the world. I mean I have often said this to you, when we had just snacks and beverages going to large European retailers, we were like 37 in a number of 50 on the list now with our combined approach and the Power of One approach, we are in the top 5 or top 7 suppliers driving a lot of the growth. They look at us and say there are these large companies the drive a lot of growth in our anchor suppliers that we should just have great relationships with, leave them aside, while we focus on all of the other players that we need to either prune the portfolio or figure out how to make them more efficient. So we are making investments in digitalization, more automation in plants, rethinking our innovation process and making sure that we fragment or segment our innovation between premium, mid and value and deal with each country and each marketplace with that sort of an architecture. And then we are getting better and better lifting and shifting across the world. So, there I don’t think that a big burst of innovation required. All that we are doing is investing as we go along. And I think Hugh talked about the fact that we have been making investments in the business. We have been doing that deliberately and carefully over the years. And we are going to continue to do that. We are going to look for ways to unleash productivity and every time we have productivity we are going to see how we judiciously reinvest in the business that we can keep this engine going. And in terms of price mix, innovation is a big driver of price mix as is revenue management and we are improving our revenue management skills all the time applying more digital tools. When it comes to innovation, we are thinking more and more about segmenting on innovation and we are also thinking about how to incubate a niche company within our big company and that’s what we are focused on in every big region of the world. So overall, we feel very comfortable with our overall strategy.OperatorYour next question comes from the line of Andrea Teixeira of JPMorgan.Andrea TeixeiraHi, thank you and good morning. So I appreciate your answer to that, but I was hoping if you can update us on your outlook for NAB since the last call as you are considering strategic alternatives? And in light of this combined approach with technology I just mentioned using the European example I would appreciate if you can elaborate? Thank you.Indra NooyiI will provide some opening comments, Andrea and then pass it to Hugh to give more color. What we told you in the last call is that you should expect to see sequential improvement in North American Beverage performance. That’s exactly what we are focused on and that’s what we are delivering. Every part of the business in North American Beverages is showing sequential improvement. In the second part of Q2, we saw significant improvement in performance and as we go into Q3, we feel good about the trend rate. We are playing a very responsible game in terms of advertising and pricing. And with commodity inflation, we will continue to play a responsible – take a responsible position in this marketplace by pushing through pricing. So at the end of the day, our North American Beverage business, which participates in a highly competitive category needs to be managed very, very carefully especially at a time when there are changes in the marketplace from lots of competitive activity. And look there is always going to be short-term preservations when our competitors go through major changes in their business models, our challenge is to maintain a very steady hand and make the PepsiCo portfolio work for us and that’s what we have been doing. I don’t know Hugh if you want to add anything to this?Hugh JohnstonThe only thing I would add, Indra, is hopefully you all have seen that this management team is always focused on creating value both in the short-term and in the long-term and achieving the right balance between the two. And as we look at all of the businesses that, that is our most significant focus and I think we will continue to do that just as we have.OperatorYour next question comes from the line of Pablo Zuanic of SIG.Indra NooyiGood morning Pablo.Pablo ZuanicThank you. Good morning, Indra. Good morning, everyone. Two quick questions. One, I understand that you are reinvesting in the tax benefits, but can you clarify whether that’s more heavily geared to reinvesting in beverages or is it pretty much evenly across the business? And the second question which is related to that when you see a success that Coca-Cola has had with the Diet Coke new products and with Coca-Cola Zero Sugar, any thoughts in terms of how things would be done different on the Pepsi side of things? And the reason I asked that is that if the brands themselves having been improved in terms of innovation, how much is reinvestment and more marketing going to help? Thanks.Indra NooyiPablo, we reinvested tax benefits on additional media for NAB and wherever the businesses needed investment, we put it in. The idea is not just to invest, it’s to reinvest judiciously, so that we get return from the investments. And we also reinvested some of the tax benefits in our frontline bonus, so that especially people in the United States where the tax benefits of really accrued can benefit from the upside. Now, when it comes to our North American Beverage business, we are investing in CSDs, especially trademark Pepsi. And we are investing more in trademark Pepsi, because we saw stepped up investment in media from our competition. So we are doing that. When it comes to the Zero Sugar portfolio both between Diet Pepsi and Pepsi Zero Sugar, Pepsi Zero Sugar is growing extremely well. I mean, it’s – I hate to use the word flying off the shelves but is doing exceedingly well. When it comes to Diet Pepsi, Diet Pepsi is also back to good performance. And I have to tell you the flavor portfolio on Diet Pepsi and whatever competition launched, you might want to look at the numbers in a little bit more detail, because I think it’s a mixed bag. We have to be careful not to throw too much innovation to this marketplace and sort of obfuscate the numbers from our perspective, Zero Sugar portfolio between Diet and Zero Sugar is doing well and is doing well on the sustained consistent basis and we are playing the long game, Pablo, in terms of overall liquid refreshment beverages. And we think that, that’s the right way to play this beverage game and we feel good about where we are headed.OperatorYour next question comes from the line of Bryan Spillane of Bank of America.Bryan SpillaneHey, good morning everyone.Indra NooyiGood morning, Bryan.Bryan SpillaneHugh, I just wanted to pickup on you made a comment in terms of the forward guidance about gross margins still being under pressure in the second half. So, I guess couple of questions. I guess that implies we should expect that gross margins might be down in the second half? And then maybe what some of the pressure points are what’s sort of inflation and I guess also maybe transactional FX, if you could just kind of walk us through what’s going to drive that pressure in gross margins in the second half and maybe what mitigation you might have as we look forward into ‘19?Hugh JohnstonYes, Bryan, happy to do that. So, a couple of comments. When I say gross margins under pressure, I am talking about relatively nominal pressures we have seen over the last several quarters. A combination of a couple of factors on gross margin, number one, obviously commodity inflation has picked up a bit. Certainly, we have seen a bit more in oil and in addition to that in aluminum; second, transport costs have also been under some pressure with the driver shortage in the United States; and then third, in international markets, as you know where we have seen some inflation, we do tend to price a bit behind inflation and try to drive productivity in order to offset that and then obviously we are reinvesting the tax benefit in the form of new capabilities. So, you don’t see the productivity flow through as you normally might in SG&amp;A. So, those are the several factors that are driving it. Overall as I said, we expect full year to be on the 9% that we originally committed to and we are balancing the internal workings of the P&amp;L to make that happen.OperatorYour next question comes from the line of Ali Dibadj of Bernstein.Indra NooyiGood morning, Ali.Ali DibadjHey, guys. So just wanted to ask a little bit more about the sustainability of your results going forward along three dimensions. First, is the sustainability of one-timers like Thailand and Britvic and coming up on Czech Republic here in your core results, should we continue to expect things like that to be a consistent part of your algorithm going forward? How much more of those types of things you have to sell? Second, in terms of pricing, it continues to be a big driver obviously for Latin America and you are willing to continue to sacrifice a little bit of volume there again, how much longer you think that sustainable? And then third on NAB improvements very pleased that they are on track both you and I, can you give us more about whether you believe that was actually driven by advertising increases, was there an advertising increase in particular in NAB overall as opposed to just Pepsi, could you call that Pepsi, because you called out Pepsi, but I don’t see it in the release for the segment, NAB or is there something else that drove that improvement and so will that improvement you guys believe continue not just going to this quarter, but going forward?Indra NooyiI am going to take the third one and then Hugh, I am going to toss it to you to talk about the first two, okay. NAB improvement, again, Ali as I mentioned, we are playing the LRB game. We are looking to improve our position in the liquid refreshment beverage category, because we play in pretty much every category in LRB most of them with very, very strong brands. And in terms of A&amp;M spending, we increased A&amp;M spending on trademark Pepsi as we mentioned we were going to do and because the A&amp;M gets curved in, you will see the benefits flowing through in Q3 and Q4 more as we go through and we are seeing the improvement in brand health metrics and we are seeing a sequential improvement in the performance of the business. So believe me, we have focused maniacally on tracking the performance and the result of all of our increased spending. And what we are seeing in the results, that gives us confidence to tell you what we told you on the call today. So on balance, we are feeling good about the NAB performance trends. Now, let me turn it to Hugh to talk about the one-timers and pricing, especially in countries like – regions like Latin America.Hugh JohnstonYes, happy to, Ali. In terms of one-timers, if you look at our record over the last 4 or 5 years, we have always had some one-timers whether it’s refranchising the businesses or sales of businesses or assets. So that’s going to continue to be a factor as it has been. In terms of Latin America, without a doubt, where you have high inflation environments, we have tended to price through the vast majority of that inflation. And as a result, it’s improved our revenue results sometimes at the expense of volume. As you see the inflation rates come down in those countries, obviously our pricing will diminish, but we do expect that our volume will pickup as a result of that and we expect to continue to see strong results out of Latin America and other places that have historically had high inflation where the numbers have come down a bit.Indra NooyiBut I think the most important thing on one-timers, we don’t do o</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Kraft Heinz Co. (NASDAQ:KHC) Q2 2018 Earnings Call August  3, 2018  8:30 AM ETExecutivesChristopher M. Jakubik - The Kraft Heinz Co.Bernardo Vieira Hees - The Kraft Heinz Co.David H. Knopf - The Kraft Heinz Co.Paulo Luiz Araújo Basílio - The Kraft Heinz Co.AnalystsAndrew Lazar - Barclays Capital, Inc.Alexia Jane Howard - Sanford C. Bernstein &amp; Co. LLCBryan D. Spillane - Bank of America Merrill LynchRob Dickerson - Deutsche Bank Securities, Inc.Christopher R. Growe - Stifel, Nicolaus &amp; Co., Inc.Michael S. Lavery - Piper Jaffray &amp; Co.Jason English - Goldman Sachs &amp; Co. LLCScott A. Mushkin - Wolfe Research LLCDavid Palmer - RBC Capital Markets LLCJonathan Feeney - Consumer Edge Research LLCOperatorGood day. My name is Daniel, and I will be your operator today. At this time, I would like to welcome everyone to The Kraft Heinz Company's Second Quarter 2018 Earnings Conference Call. As a reminder, this conference call may be recorded.I will now turn the call over to Chris Jakubik, Head of Global Investor Relations. Mr. Jakubik, you may begin.Christopher M. Jakubik - The Kraft Heinz Co.Hello, everyone, and thanks for joining our business update. We'll start today's call with an overview of our second quarter and first-half results as well as an update on our 2018 plan from Bernardo Hees, our CEO; and David Knopf, our Chief Financial Officer. Then, Paulo Basílio, President of our U.S. Zone, will join the rest of us for the Q&amp;A session.Please note that during our remarks today, we will make some forward-looking statements that are based on how we see things today. Actual results may differ materially due to risks and uncertainties, and these are discussed in our press release and our filings with the SEC. We'll also discuss some non-GAAP financial measures during the call today. These non-GAAP financial measures should not be considered a replacement for and should be read together with GAAP results. And you can find the GAAP to non-GAAP reconciliations within our earnings release and at the end of the slide presentation available on our website.Now let's turn to slide 2, and I'll hand it over to Bernardo.Bernardo Vieira Hees - The Kraft Heinz Co.Thank you, Chris, and good morning, everyone. Similar to our Q1 results, our second quarter results were better than we expected at the time of our last earnings call. The transitory factors that lead us to be cautious on the near-term sales played out much as expected, including the headwinds in the United States from Planters and Ore-Ida and the impact from retail inventory change in Canada.That said, we delivered slightly better net sales than expected. This was driven by encouraging, ongoing improvement in retail consumption trends in most countries and most categories as well as strong foodservice performance in a number of key countries. At EBITDA, we spoke about near-term pressures in the United States, Canada and Rest of the World from a combination of accelerated commercial investment, significant cost inflation, especially freight, as well as strong comparisons with the prior year in every region.Still, we delivered stronger-than-expected EBITDA from solid productivity gains in EMEA as well as better growth in certain Rest of the World markets. In addition, and perhaps even more important, we continued to make progress in building the capabilities and putting in place the go-to-market plans that we expect will generate top line growth going forward.Many of you have asked why we are so confident in our ability to deliver the top line and what specifically will drive it. So on the slide 3, we have laid out many of the key initiatives we expect will help us build momentum into the second half by region, by brand. In the United States, we saw consumption trends improve as Q2 unfolded, and as Planters' Club comparisons fade and as Ore-Ida and cold cuts activity and distribution improves, we're targeting top line growth in the third quarter. Our focus is on incremental volumes and mix improvements coming from new products like Lunchables, Around the World Flavorings, Oscar Mayer Plates, Just Crack an Egg, Heinz Real Mayonnaise as well as Planters where we brought back consumers' favorites, CHEEZ BALLS and CHEEZ CURLS for a limited time.In addition, we are planning stronger in-store activity as we move forward, including back-to-school, behind main-stays like Oscar Mayer, Kraft cheese, Lunchables and Capri Sun, as well as continuing Philadelphia's growth with strong holiday programs. In Canada, while the impact of tariffs on sales is still largely unknown, we continue to feel good about getting Canada back to growth track by year-end. This should come on building on the good performance we are seeing in coffee products, frozen meals and Natural Cheese Slice innovation as well as stronger merchandising behind Cracker Barrel Cheese.In EMEA, we are looking to sustain the momentum we have seen from the positive consumption tailwinds that have been driving performance to-date, including those coming from newly-repatriated Kraft and Bull's-Eye brands. In the second half, we also see opportunities for improvement for both whitespace and innovation initiatives, including Heinz in Middle East, Africa and Eastern Europe, the recent launch of Bull's-Eye Barbecue in the UK and Plasmon Infant Biscuits in Italy.And in our Rest of the World market, at some of – the short-term headwinds we recently experienced has started to fade. We expect some drivers to show towards a stronger way in the second half. These include: the strong growth and turnaround of Complan in India; the repatriation of the Kraft brands and our Cerebos acquisition in Australia/New Zealand; Heinz condiments in Brazil and Mexico; Kraft Mayo in Brazil; and sauces whitespace expansion in Central America and the Southern Cone.Outside of traditional retail, I also add that we have innovation distribution and assortment initiatives underway in Foodservice to drive substantial incremental gains in each region, as well as in the e-commerce channel where, in the United States alone, we're up more than 75% in both Q2 and through the first half. And our online portfolio is now over index market share, versus traditional retail channels.In total, this is by far the strongest innovation pipeline we have had in place in our short history as Kraft Heinz. At the same time, and something we have been talking about are the commercial investments and capabilities to play more offense. It gives us further confidence in our ability to change trajectory in both distribution and consumption, especially behind innovation.On slide 4, we show again the six goals from the framework we introduced early this year. During the second quarter and into the second half of 2018, we continue to make strides in each area. I just talked about our brand-building initiatives. Pushing into new categories, new segments, new occasions and doing this with a focus on incrementality, not just gross sales from new items. We will strongly support this, for instance, through data-driven marketing, where we are putting our in-house tools to work to drill deeper into the quality impressions. We are concentrating on building even more native impressions or impressions that are created by being part of the conversations of consumers' everyday lives and earned impressions, where you can create the news and share it through media coverage.For those of you in the United States, you have seen this at work with our Heinz Mayochup and Country Time by Legal-Ade campaigns, helping to drive improving consumption trends. Year-to-date, we estimate that native and earnings PR impressions we have generated in the United States alone is greater than all of 2017 and double what we generated in full-year 2016. And we have more coming to support our second-half initiatives. In both category management and go-to-market capabilities, we now have more capacity to drive category and brand growth, as our product pipeline will be fully in place in Q3.In category management, while we have significant potential still ahead, there are key areas of improvement we can leverage right now. At retail in the United States, for instance, our efforts have been targeted at improving SKU adoption, distribution velocities through assortment management and planograms. And in Canada, our in-house tools and disciplined rituals and routines are in place to help set pricing guidelines and guardrails as well as conduct pre-and post-event analysis, all aimed to make more informal decisions and improve returns.In go-to-market capabilities, the next wave of our in-house in-store sales teams is now in place in the United States, on track to more than double by the end of the year. With that, we believe that we now have critical mass to see a measurable impact on feature and display conversion, out-of-stocks and planogram compliance, just as we ramp up our second half sales plan.When our capability and product news (10:31) come together, we see measurable, incremental and sustainable gains. We see Oscar Mayer Hot Dogs increase households' penetration and velocity, grow dollar sales and gain share. This is happening now behind our For the Love of Hot Dogs campaign and a step-up in store activity at Memorial Day and Fourth of July.We see successful breakthrough innovation like our Just Crack an Egg platform. Just over six months in the market launch velocities roughly two times our estimates, top quartile trial and repeat, improving to be a successful bridge between convenient and freshness.And internationally, when our marketing, category management and go-to-market capability come together, we hit the ground running with newly repatriated and acquired brands like Bull's-Eye and Kraft in Europe and Cerebos in Australia and New Zealand, both are performing ahead of plan.Finally, the backbone of everything we do, operations, people and corporate social responsibility are fully aligned and even more capable to execute our plans. In operations, we continue to deliver against aggressive industry-leading targets in quality, safety and customer service in nearly all geographies we operate. Customer service in particular had been an area of significant focus and investment and we have made significant improvements in the United States and Canada.And in people, during Q2, we leveraged our Marketing Playbook and Category Marketing programs to close any gaps in best-in-class skills and capabilities and further deploy our new in-house tools. And on the CSR front, early this week, we expanded our environmental commitments. We aim to deliver a 100% recyclable, reusable or compostable packaging by 2025. And we are doing our part to accelerate the transition to a low-carbon economy by joining the Science Based Targets Initiative and working to set science-based carbon reduction goals.So to summarize, our first half results came in better than expected. Our second half commercial plans are the most robust since the 2015 merger and now it's up to us to execute with excellency.I will now hand it over to David to provide more color on our Q2 results and how our plans for the second half are likely to play out in our financial results going forward.David H. Knopf - The Kraft Heinz Co.Thank you, Bernardo, and hello, everyone. Turning to our results on slide 5, total company organic net sales were down 40 basis points in Q2, sequentially better than Q1 and, as Bernardo said, somewhat better than what we expected at the time of our last call. Pricing was positive for the fourth consecutive quarter, up 1.3 percentage points in Q2 and 1.1 percentage points in the first half.In both periods, this was driven by a combination of pricing to offset local input costs in Rest of World markets and carryover pricing in both the U.S. and Canada that more than offset stepped up in-store and new product activity in EMEA. Volume mix was 1.7 percentage points lower in Q2 and two points lower for the first half due to known headwinds in the United States and Canada that overshadowed strong growth in EMEA.By segment, the U.S. was slightly better than our initial expectations. As expected, Planters and Ore-Ida had a negative impact of approximately 1.5%, and the combination of trade spend timing and Easter shift was roughly one point of headwind to Q2 net sales. Excluding these factors, underlying U.S. consumption again exceeded reported results and showed a slight sequential improvement from Q1. And I would add that consumption has continued to improve based on the data we've seen so far for July.In Canada, results reflected the anticipated combination of comparisons with prior year promotional activity that was not repeated primarily in condiments and sauces, as well as trade inventory adjustments and select product discontinuations. EMEA had another strong quarter driven by strong condiments and sauces' growth across the zone, including solid consumption gains for both the Kraft and Bull's-Eye brands. Strong gains in Foodservice in every region are also contributing to EMEA growth.And in Rest of World, while top line growth was supported by pricing, another quarter of strong vol mix gains in condiments and sauces across the majority of regions and strong growth of Complan in India were again held back by one-off factors. In Q2, this included lower sales of canned seafood in Indonesia and the truckers strike in Brazil. That said, we do expect sequential improvement in Rest of World moving forward.At EBITDA, Q2 performance was slightly better than expected, although the drivers were consistent with our expectations. Specifically, we had solid gains from productivity savings and net pricing; gains that were offset by inflationary pressures, primarily elevated freight and resin costs; as well as costs associated with our aggressive commercial investment agenda. And in adjusted EPS, we were up $0.02 versus Q2 last year, driven primarily by a roughly 720-basis-point reduction in the tax rate on adjusted earnings.Overall, our first half financial performance was consistent with the type of start to the year we expected, if not somewhat better than expected at the profit line, and provides a solid base from which to build, which brings us to our outlook on slide 6. As Bernardo outlined, we believe things are in place for us to push a more aggressive growth agenda in the second half from a strong innovation pipeline, distribution gains across channels, as well as expanding our brands into geographic whitespace.Despite the slow start with several transitory headwinds and recent key commodity weakness in the U.S., we believe we're in a strong position to deliver organic growth for the full year, and therefore, we continue to expect that 2018 will be a year where the first half second half balance of net sales will be skewed to the second half. Our organic net sales growth is expected to begin now in Q3 with the U.S. growing and EMEA and Rest of World sustaining momentum. In Canada, with near-term risks at play, it may be Q4 until we see the turn.To support this growth and given our confidence in the pipeline of activities that Bernardo described, we're planning our commercial investments to be at the high-end of the $250 million to $300 million range we previously discussed, mainly in the form of more working media dollars. At the same time, we think it's appropriate to be more conservative in the near-term with expectations around adjusted EBITDA. And instead of the second half skew that we previously talked about, we now expect more of a 50-50 split to the year. This is driven by three factors.One is that we will be at the high-end of our planned commercial investments that I just mentioned. Two is our stronger-than-expected first half delivery. And three is cost inflation, where a number of areas have stayed higher for longer than we anticipated, mainly in freight and transportation; packaging, both resins and cardboard; as well as tariff risk currently impacting foil and aluminum costs in the U.S. and certain products we sell in Canada.Net-net, our savings curve will take more time to overcome the incremental cost inflation we expect during the remainder of 2018. So, as we assess Q3 prospects, the combination of greater-than-expected inflation, a more aggressive investment posture and difficult comparisons on variable compensation versus last year will mean that Q3 adjusted EBITDA dollars are likely to be down a greater order of magnitude than what we saw in the first half of the year. That said, we do expect our constant currency adjusted EBITDA trend to improve by year-end and gain further momentum into 2019 with productivity net of cost inflation accelerating, while the recovery in top line momentum continues.Below the line, we are still targeting adjusted EPS growth and strong cash generation in 2018. This should be aided by tax favorability where we now can expect an effective tax rate of approximately 21% for the full year in 2018. I will also note that based on successful recent refinancing activity, we now expect incremental interest expense in 2018 of roughly $80 million versus the $100 million we previously outlined. And in terms of cash generation, we continue to expect a significant step-up in 2018, despite a near-term headwind to working capital from recent termination of our accounts receivable securitization and factoring program in the U.S.To close, I think it's worth repeating the thoughts that we've expressed all year: that we're developing capabilities to create brand and category advantage to achieve profitable growth; that we're investing aggressively now in order to see benefits sooner; and that these factors will shape our near-term results in 2018, and will drive sustainable profitable growth into 2019 and beyond.Now, we'd be happy to take your questions.Question-and-Answer SessionOperatorThank you. Our first question comes from Andrew Lazar with Barclays. Your line is now open.Andrew Lazar - Barclays Capital, Inc.Good morning, everybody.Bernardo Vieira Hees - The Kraft Heinz Co.Good morning.David H. Knopf - The Kraft Heinz Co.Good morning.Andrew Lazar - Barclays Capital, Inc.I guess I'll kick it off with, with all of the investments in capabilities that you've been making recently, and clearly some of the renewed confidence in the organic top line growth starting as of Q3, I guess, do you feel as though this makes Kraft Heinz more willing to perhaps consider assets that may require a bit more heavy lifting rather than ones that already have better growth prospects, but would certainly come at higher multiples?Bernardo Vieira Hees - The Kraft Heinz Co.Hi, Andrew. This is Bernardo. Good morning.Andrew Lazar - Barclays Capital, Inc.Good morning.Bernardo Vieira Hees - The Kraft Heinz Co.Well, let me start with the investment part of your question. We're happy that we accelerated the investments we announced at the beginning of the year, creating the capabilities that I really believe are going to stay here. You're going to start seeing the second half of this year, but are going to stay with us in 2019 and beyond, right, behind go-to-market sales teams, channels, activations, innovation, marketing dollars and so on. We always said that was one investment that we would see results in the year to come. So, we're happy with the program. And as we always said as well, we wouldn't hesitate to sacrifice a point of margin to generate accelerated growth on the top line.With that in mind, your question is given the capability we're building, now how this plays on M&amp;A or more organic plans for the company, right? What I can say about that is pretty much what we have been saying and have been consistent for quite some time. Our framework has really not changed, right. The fact that we like big brands, the fact that we like business that can travel and international, the fact that we do like to take synergies from existing business and to reinvest behind brands, behind products and behind people. I don't think that this framework change because of the capabilities we're developing.Why I can say that with the experience we have today after being – since Heinz 2013 – five years into the industry, the knowledge on the category, the knowledge of the things that do work and things that you have seen that do not work, and so on, allows us to be much more confident where to put the money, what assets can be turned around, and things that can really be within this framework. And also true to the fact that our ability to integrate and to connect companies for a bigger scale and so on, given that you have been doing that for quite some time. And every time we have been doing better, got faster and we have a better understanding.To your question about assets, slower growth, or higher growth, and so on, I don't think that changed with what we have in mind from a framework standpoint.Andrew Lazar - Barclays Capital, Inc.Great. Thanks very much.OperatorThank you. And our next question comes from Alexia Howard with Bernstein. Your line is now open.Alexia Jane Howard - Sanford C. Bernstein &amp; Co. LLCGood morning, everyone.Paulo Luiz Araújo Basílio - The Kraft Heinz Co.Good morning.David H. Knopf - The Kraft Heinz Co.Good morning.Alexia Jane Howard - Sanford C. Bernstein &amp; Co. LLCCan I ask about the pricing environments in North America? It seems as though it's been pretty challenging for the last 18 months or so. You've obviously got some positive pricing that's running through now. How do you expect that to play out in the second half? And just how do you see the environment and the retailers' relationships playing out from here on out?Paulo Luiz Araújo Basílio - The Kraft Heinz Co.Hi, Alexia. This is Paulo. So again, we believe that we have strong brands. We have differentiated products. We have a strong innovation pipeline and so far we've been able to drive our brands and products in line with what we perceive to be the value to the consumer, so. But we always keep in mind it's very important to us to strike the right balance between market share, distribution and profitable volume. So this balance will play very differently in each category that we play. So today, I can say that the relationship we have with customers are going very well and a very clear connection with all of them.Alexia Jane Howard - Sanford C. Bernstein &amp; Co. LLCAnd so, do you expect the pricing to strengthen as we get into the back half? Or the price mix to improve?Paulo Luiz Araújo Basílio - The Kraft Heinz Co.Alexia, as a matter of practice, we don't forecast pricing for the future. But what we can say there, the growth that we expect to have in the second half is going to be more balanced to volume mix.Alexia Jane Howard - Sanford C. Bernstein &amp; Co. LLCThank you very much. I'll pass it on.OperatorThank you. And our next question comes from Bryan Spillane with Bank of America. Your line is now open.Bryan D. Spillane - Bank of America Merrill LynchHey. Good morning, everyone.Paulo Luiz Araújo Basílio - The Kraft Heinz Co.Good morning.Bryan D. Spillane - Bank of America Merrill LynchJust two questions related to the investment in capabilities, the P&amp;L investment this year. I think if I remember it correctly, you're spending about $300 million, P&amp;L dollars against it. And I guess, two things. One, is this sort of an ongoing expense, meaning will it be an incremental headwind again as we kind of move into the future? Or is it sort of a one-year step-up? And then second, if you could talk a little bit about how those investments specifically would help you. Or do they at all improve your ability to integrate acquisitions? So like the difference between integrating without these capabilities versus what it was before.Bernardo Vieira Hees - The Kraft Heinz Co.Thanks, Bryan. It's Bernardo. The investments were announced. What really scaled up was a one-off, the $300 million that you want to accelerate the capability to have in the company in go-to-market, channel activation, in innovation launch platforms, and service levels with specific investments directed to specific customers especially in the United States. So that, I would say, is coming really well, creating the capability the company has for the future, not only we expect to see that already has some results in the second half of the year, but 2019 and beyond. That is, like we said before, a step-up as a one-off. Okay?Related to the second part of your question about the capabilities of integrating faster in an M&amp;A environment, how this would happen, those capabilities will help us. I think, like I said, at the first question, the learning and the experience we have today allowed us to have very knowledge on each one of the categories and those capabilities are created when you think about revenue management, assortment management, planogram, go-to-market, breakthrough innovation, channel mix, activation in e-commerce, Foodservice, clubs, drugstores, all these kinds of capabilities, they are scalable in an organic environment.Bryan D. Spillane - Bank of America Merrill LynchIf I could just follow up, David, is it still $300 million that you're spending back this year?David H. Knopf - The Kraft Heinz Co.Hi, Bryan. This is David. That's correct. We talked about at the beginning of the year, commercial investments and investments in service between $250 million to $300 million, so now we expect to be on the high end of that at closer to $300 million.Bryan D. Spillane - Bank of America Merrill LynchAll right. So if we're thinking about the EBITDA guide for the year even though you're having to have faced some inflation, you chose to actually spend at a high-end of the investment either way. Because of it, it's going to make sense longer-term?David H. Knopf - The Kraft Heinz Co.Yes, that's correct.Bryan D. Spillane - Bank of America Merrill LynchAll right. Thank you.OperatorThank you. And our next question comes from Rob Dickerson with Deutsche Bank. Your line is now open.Rob Dickerson - Deutsche Bank Securities, Inc.Thank you. Good morning. Two quick questions, I guess, the first question just in cadence for the rest of the year, Q3 versus Q4. In terms of what you said about Q3 that Q3 EBITDA would be down slightly more than it was down in the first half of the year, and then we should see a pick back up in Q4, just relative to internal forecast originally from the beginning of the year, is there a change to the full year just to be clear? Or is it – so some came in a little bit better in the first half and really in Q2, but then it will be a little bit worse in Q3? Or how should we think about kind of where you are right now and how you view the full year versus where you viewed the full year at the end of 2017? That's it.David H. Knopf - The Kraft Heinz Co.Sure. Hi, Rob. This is David. Thanks for the question. So in terms of the second half cadence, so I'll start with Q3. So, our profitability in the quarter in Q3 versus last year is going to be driven by three factors. So first, we expect that the swing from overhead favorability we mentioned last year to a more normal incentive compensation accrual this year to be roughly $75 million to $100 million in the quarter.Second, as noted, we plan to be at the high-end of our commercial investments for the year. So again, the high end of the range of the $250 million to $300 million I mentioned and this is to support our second half growth initiatives more strongly.And third is the fact that the additional inflation we noted is running ahead of our savings curve in the short-term. So those are really the three factors in Q3 that are going to drive that trend.Going forward in Q4 we expect our comparisons to ease and our savings curve to accelerate, although we think it's best to maintain a conservative set of expectations with regard to cost inflation. So that's why we think the year is going to look a little bit more balanced versus what we talked about earlier in the year.Rob Dickerson - Deutsche Bank Securities, Inc.Okay. Great. And then just quickly on tariffs, I think I heard you call out a few inflationary aspects of tariff effects on specific commodities. Is there some potential risk though in terms of volumes do you foresee? And just very general, it's just a very general question.David H. Knopf - The Kraft Heinz Co.Yes. So in terms of tariffs, I think the point that I want to get across is given what we're seeing we want to be conservative and that drives our kind of outlook for the year. But these types of things, we're not exactly sure what will stick and for how long. So we're not going to take a stance yet on potential actions that we can take to offset those things, so I'm not going to talk about that now but I think given those factors and some of the cost inflation we're seeing in the market, again, we're going to have this kind of more conservative stance on the year.Rob Dickerson - Deutsche Bank Securities, Inc.Super. Thank you so much.OperatorThank you. And our next question comes from Chris Growe with Stifel. Your line is now open.Christopher R. Growe - Stifel, Nicolaus &amp; Co., Inc.Hi. Good morning.David H. Knopf - The Kraft Heinz Co.Good morningPaulo Luiz Araújo Basílio - The Kraft Heinz Co.Good morning.Christopher R. Growe - Stifel, Nicolaus &amp; Co., Inc.Hi. I just had two quick questions for you. I wanted to ask first of all, if you look at this quarter, if you think of like the old PNOC, pricing net of commodity inflation, is that positive or negative in the quarter here such that are you getting pricing through given this accelerated rate of non-commodity inflation? That's my first question.David H. Knopf - The Kraft Heinz Co.Sure. Hi, Chris. This is David. So I won't talk specifically on the quarter but I'd say overall for the year we continue to expect pricing relative to our key commodities to be stable. We have recently seen some key commodities come down more recently and expect that for the year. But as a matter of practice, we're not going to discuss potential future pricing actions relative to that. But as Paulo said earlier, we're confident in the strength of our brands and will continue to strike a balance between market share distribution and profitable volume as it relates to commodities.Christopher R. Growe - Stifel, Nicolaus &amp; Co., Inc.And so just to be clear, does non-key commodity inflation come into your thinking as you're approaching pricing? Not that you're going to tell me what you're going to do, but is that a factor you'd consider in terms of your pricing? Or (35:30) offset with cost savings?David H. Knopf - The Kraft Heinz Co.Yes. So it's certainly part of the equation there. We're not going to provide color on pricing going forward. But between commodities, non-key commodity inflation, we think in terms of pricing and potential productivity initiatives to offset that.Christopher R. Growe - Stifel, Nicolaus &amp; Co., Inc.Okay. And I had just one question as well. You've had some weight on your sales from Planters and Oscar Mayer and Ore-Ida. I think you approached much easier comparisons on that front in the second half of the year. Is that right? You get past a lot of those issues in the second half? And do those shift to growth in the second half of the year as a result of that?Paulo Luiz Araújo Basílio - The Kraft Heinz Co.Hi, Chris. This is Paulo. I think that is one of the components, as we said. We are confident that we're expecting sales to grow in U.S. in the second half. I think one component that we are seeing is that you can see that our categories are improving, our categories now are growing. And on top of that, the big headwinds in share that you were seeing, these negative headwinds, we expect them to fade. I can give examples of cold cuts, Ore-Ida, lost distribution that we have, the capacity restrictions we had. Now we have the capacity in place, so we expect to recover the distribution.I can also say that on top of that, we're going to see our – we have a strong innovation pipeline coming to the market that's already distributed – and also a much better and stronger program driving improvement in consumption. So pretty much this is the main pillars to support our expectations for growth in the second half.Christopher R. Growe - Stifel, Nicolaus &amp; Co., Inc.Okay. Thank you very much.David H. Knopf - The Kraft Heinz Co.You're welcome.OperatorThank you. And our next question comes from Michael Lavery with Piper Jaffray. Your line is now open.Michael S. Lavery - Piper Jaffray &amp; Co.Thank you. Good morning.David H. Knopf - The Kraft Heinz Co.Good Morning.Paulo Luiz Araújo Basílio - The Kraft Heinz Co.Good morning.Michael S. Lavery - Piper Jaffray &amp; Co.Two quick ones. </t>
+  </si>
+  <si>
+    <t>Facebook, Inc. (NASDAQ:FB) Q2 2018 Earnings Call July 25, 2018  5:00 PM ETExecutivesDeborah Crawford - Facebook, Inc.Mark Elliot Zuckerberg - Facebook, Inc.Sheryl Kara Sandberg - Facebook, Inc.David M. Wehner - Facebook, Inc.AnalystsBrian Nowak - Morgan Stanley &amp; Co. LLCEric J. Sheridan - UBS Securities LLCRoss Sandler - Barclays Capital, Inc.Douglas T. Anmuth - JPMorgan Securities LLCHeather Bellini - Goldman Sachs &amp; Co. LLCMark Mahaney - RBC Capital Markets LLCJohn Blackledge - Cowen &amp; Co. LLCJustin Post - Bank of America/Merrill LynchMark A. May - Citigroup Global Markets, Inc.Richard Greenfield - BTIG LLCAnthony DiClemente - Evercore Group LLCPeter C. Stabler - Wells Fargo Securities LLCBrent Thill - Jefferies LLCColin Alan Sebastian - Robert W. Baird &amp; Co., Inc.OperatorGood afternoon. My name is Mike, and I will be your conference operator today. At this time, I would like to welcome everyone to the Facebook Second Quarter 2018 Earnings Call. All lines have been placed on mute to prevent any background noise. After the speakers' remarks, there will be a question-and-answer session.This call will be recorded. Thank you very much. Ms. Deborah Crawford, Facebook's Vice President of Investor Relations, you may begin.Deborah Crawford - Facebook, Inc.Thank you. Good afternoon and welcome to Facebook second quarter 2018 earnings conference call. Joining me today to discuss our results are Mark Zuckerberg, CEO; Sheryl Sandberg, COO; and Dave Wehner, CFO.Before we get started, I would like to take this opportunity to remind you that our remarks today will include forward-looking statements. Actual results may differ materially from those contemplated by these forward-looking statements. Factors that could cause these results to differ materially are set forth in today's press release and in our Quarterly Report on Form 10-Q filed with the SEC.Any forward-looking statements that we make on this call are based on assumptions as of today, and we undertake no obligation to update these statements as a result of new information or future events. During this call, we may present both GAAP and non-GAAP financial measures. A reconciliation of GAAP to non-GAAP measures is included in today's earnings press release. The press release and an accompanying investor presentation are available on our website at investor.fb.com.And now, I'd like to turn the call over to Mark.Mark Elliot Zuckerberg - Facebook, Inc.Thanks, Deborah, and thanks, everyone, for joining us today. We had another solid quarter. Revenue grew 42% year-over-year to $13.2 billion. And Facebook now has more than 2.2 billion monthly active with almost 1.5 billion actives using it every day.For the first time today, we're also releasing how many people use at least one of our apps, Facebook, WhatsApp, Instagram or Messenger, and that's 2.5 billion people each month. This number better reflects our community for a couple of reasons. First, it refers to individual people rather than active accounts, so it excludes when people have multiple active accounts on a single app. And second, it reflects that many people use more than one of our services. And Dave will explain this in a little more detail later.I want to start by talking about all the investments we've made over the last six months to improve safety, security and privacy across our services. This has been a lot of hard work and it's starting to pay off.We recently launched two important ad transparency tools: one to let anyone see the ads any page is running even if the ads aren't targeted to you; and the other an archive of ads with political or issue content that's starting in the U.S. ready for the midterm election. These ads are now labeled so you can clearly see who's paying for them and, within the archives, you can see the budget associated with each ad, how many people saw it, and search all ads with political or issue content that an advertiser has run for up to seven years. This level of transparency will mean increased accountability and responsibility for advertisers globally.Over the next 18 months, there are important elections beyond the U.S. in Brazil, India, and the EU, and these will all be real tests for Facebook. But I'm confident that we will get this right given our results during last year's French and German elections, the Alabama special election, as well as this month's presidential election in Mexico, where our systems found and removed thousands of fake account pages and groups that violated our policies.Of course, security is not a problem that you ever fully solve. We face sophisticated well-funded adversaries who are constantly evolving. But, during each election, we learn and improve too. We're also making progress in the fight against misinformation. We're getting rid of the financial incentives for spammers to create fake news, much of which is economically motivated. We stopped pages that repeatedly spread false information from buying ads. And we also use AI to prevent fake accounts that generate a lot of the problematic content from ever being created in the first place.Our investments in AI mean that we can now remove more bad content quickly because we don't have to wait until after it's reported. It frees our reviewers to work on cases where human expertise is needed to understand the context or nuance of a situation.In Q1, for example, almost 90% of graphic violence content that we removed or added a warning label to was identified using AI. This shift from reactive to proactive detection is a big change, and it will make Facebook safer for everyone.I also want to talk about privacy. GDPR was an important moment for our industry. We did see a decline in monthly actives in Europe, down by about 1 million people as a result. And at the same time, it was encouraging to see the vast majority of people affirm that they want us to use context, including from websites they visit, to make their ads more relevant and improve their overall product experience.Looking ahead, we will continue to invest heavily in security and privacy because we have a responsibility to keep people safe. But, as I've said on past calls, we're investing so much in security that it will significantly impact our profitability. We're starting to see that this quarter. But, in addition to this, we also have a responsibility to keep building services that bring people closer together in new ways as well.Now, in light of increased investment in security, we could choose to decrease our investment in new product areas, but we're not going to, because that wouldn't be the right way to serve our community and because we run this company for the long term not for the next quarter. And Dave will talk about this in a few minutes.Now, perhaps one of the most important things we've done this year to bring people closer together is to shift News Feed to encourage connection with friends and family over passive consumption of content. We've launched multiple changes over the last half to News Feed that encourage more interaction and engagement between people, and we plan to keep launching more like this.Now, of course, connecting isn't limited to News Feed. Now, there are more than 200 million people that are members of meaningful groups on Facebook, and these are communities that, upon joining, they become the most important part of your Facebook experience and a big part of your real world social infrastructure. These are groups for new parents, for people with rare diseases, for volunteering, for military families deployed to a new base and more.We believe there is a community for every one on Facebook. And these meaningful communities often spend online and offline and bring people together in person. We found that every great community has an engaged leader. But running a group can take a lot of time. So we have a road map to make this easier. That will enable more meaningful groups to get formed, which will help us to find relevant ones to recommend to you, and eventually achieve our five-year goal of helping 1 billion people be a part of meaningful communities.Now, since the 1970s, there has been this long decline in people joining physical groups around the world, and that has contributed to a broad feeling of loneliness and isolation. But if we can help 1 billion people be a part of something meaningful, then that can help reverse this trend.Talking about being a part of something meaningful, it's been inspiring to see how people are using our fundraising tools to make a difference. Last month, a campaign to raise $1,500 for undocumented children separated from their families at the border ended up going viral and raising more than $20 million from more than 0.5 million donors all around the world. This quarter, we added the ability for pages to create and donate to fundraisers for causes that they care about too.This quarter, we also reached a milestone with now more than 1 billion actives on Instagram. And this is a moment to reflect on how this acquisition has been an amazing success. When Instagram joined us the team had only 16 people. And since then, Kevin and the team have built Stories, Direct, and now IGTV. This has been a story of great innovation and product execution. And it's also a story of how effective the integration has been.We believe Instagram has been able to use Facebook's infrastructure to grow more than twice as quickly as it would have on its own. So a big congratulations to the Instagram team and to all the teams across our company that have contributed to this success.I'm really excited about video too. And this quarter, we launched IGTV. People are watching less TV, but more video, but most video is not yet optimized for mobile. IGTV will help solve that problem. It's designed specifically for mobile and makes watching long-form vertical video from creators easy. There's a stand-alone IGTV app, but you can also watch within the Instagram app, so that means the entire Instagram community has been able to use it from the start.We're also seeing Watch start to grow more quickly on Facebook too. Our teams are focused on building new experiences that help people connect and start conversation. We recently rolled out Watch Party to all groups, so you can watch and chat with friends at the same time. And we're seeing some real traction with some of the original program, from the talk show Red Table Talk, featuring Jada Pinkett Smith, to Skam, an interactive series that started in Norway and features a new style of storytelling where the characters have accounts on Facebook and Instagram, and key parts of the story are told not just through video, but through posts on their pages.Stories continue to be a big part of the future of sharing too, and they're growing quickly across WhatsApp, Instagram, Facebook and Messenger. While we started off just implementing the basic Stories format, we've now moved well beyond it, and have built lots of new features like polls, questions, and collaborative stories and groups and events. And we're also making progress developing Stories into a great format for ads. We've made the most progress here on Instagram, but this quarter, we started testing Stories ads on Facebook too.The other major trend we're seeing is the shift to more private messaging. There's a lot to build here. We've been testing payments on WhatsApp in India, and it gives people a really simple way to send money to each other and contribute to greater financial inclusion. And of the people who have tested this, feedback and usage have been very strong. All signs point to a lot of people wanting to use this when the government gives us the green light. And in the meantime, we've broadened our focus to building this for other countries so we can give more people this ability faster. Over the next five years, we're focused on building out the business ecosystem around messaging on WhatsApp and Messenger.More broadly, our strategy is to use Facebook's computing infrastructure, business platforms and security systems to serve people across all of our apps. For example, we made the decision a decade ago to build our own data centers, and we opened our first custom-built data center in 2011. Today, we have six data centers around the world, and we're working on building eight more. We're using AI systems in our global community operations team to fight spam, harassment, hate speech, and terrorism across all of our apps to keep people safe. And this is incredibly useful for apps like WhatsApp and Instagram as it helps us manage the challenges of hyper-growth there more effectively.Beyond apps and looking at the next 10 years, we're making a lot of progress with virtual reality. Our goal is to create that feeling of presence like you're right there with people you care about even if you might be halfway around the world. Oculus Go is off to a good start, and at $199, it's going to be how a lot of people experience virtual reality for the first time. Overall, this is a critical year for Facebook. We've made progress preventing abuse, forged ahead with new innovation, and are adapting our services to the new trends of messaging, Stories, videos and groups.As always, thank you for being a part of this journey, and I'm looking forward to making more progress together. And now, here is Sheryl to talk about our business.Sheryl Kara Sandberg - Facebook, Inc.Hi, everyone. It was a good second quarter with ad revenue growing 42% year-over-year. Mobile ad revenue was $11.9 billion, a 50% increase year-over-year, making up approximately 91% of total ad revenue. Our growth, again, was broad-based across regions, marketer segments and verticals.We are working to ensure that Facebook is a safe place for people and businesses. We've taken strong steps to address a number of issues, including election integrity, fake news and protecting people's information. One of the most important things we can do to affect change is to increase transparency because transparency leads to greater accountability.For example, when anyone can see any ad on Facebook, advertisers have to stand behind the ads they run. Transparency also allows us to get more input from our community and from experts around the world, so that we can find and fix problems. We wish we could find everything ourselves, but we never will, so we're building tools to make it easier for people to report issues to us.As Mark mentioned, this quarter, we took major steps to make advertising in pages more transparent. Now anyone can see all the ads a page is running across Facebook, Instagram, Messenger and Audience Network. You can also learn more about pages even if they don't advertise. You can see when a page was created and if they've changed their name.For political and issue ads, we're going even further. Advertisers placing ads with political content are now required to verify their identity and location. These ads will be labeled with a disclosure about who paid for them and saved in a searchable archive.The vast majority of ads on Facebook are run by legitimate organizations from small businesses looking for new customers to advocacy groups raising money for their causes. But we've seen that bad actors can misuse our products too, so we're erring on the side of transparency. We're being intentionally broad in our interpretation of political and issue ads. This includes ads for books about politicians and brand campaigns that touch on national issues.Given our commitment to transparency, we think it's important to apply this policy to more ads rather than fewer. These steps are just the start. We'll keep looking for ways to improve, and we hope these tools become standard across the industry. As we make these investments in transparency and accountability, we remain focused on our key priorities: helping businesses leverage the power of mobile, developing innovative ad products, and making our ads more relevant and effective.First: leveraging the power of mobile. For businesses, winning on mobile now means winning on video. Globally, people are creating and watching more video, especially on mobile devices. According to eMarketer, nearly a quarter of the world's population will watch video on a mobile phone this year. We see this trend toward video across all of our apps, from people sharing more video with their friends on Facebook, to watching more video from creators on Instagram, to having more video calls on WhatsApp and Messenger.Marketers are making more video of their own. We're seeing healthy growth in video ads among all advertiser segments. M&amp;M's UK recently used mobile-optimized five-second video ads on Facebook and Instagram to introduce M&amp;M's Mix, a bag of three kinds of M&amp;M's in one. Their campaign worked, driving results not just for their new product but for the brand overall. Their sales increased by over 10% and 80% of that came from households that had not bought M&amp;M's in the previous 26 weeks.Second: developing new ad products. We know that creating video can be more difficult for small businesses that have fewer resources, so we've launched new tools on Facebook to help anyone make videos that work well on mobile. Last quarter, we released Ads Animator, a simple way to create eye-catching video ads using photos and other content that's already on a company's Facebook page. We're also testing Video Creation Kit, which gives advertisers easy-to-use video templates for different marketing objectives. By learning what performs best across our platform, we can help other businesses succeed.We're also making it easier to run ads on Instagram and in Stories. Ads in Stories are an immersive engaging way for people to interact with businesses. When online retailer Overstock wanted to gain new customers and increase furniture sales, they ran video ads in Instagram Stories with a shop now button. They saw an 18% increase in return on ad spend and a 20% decrease in cost per acquisition. This quarter, we made it easier for more advertisers to adopt the Stories format. When an advertiser uploads video in a square or horizontal format for feed, we can automatically transform it into the full-screen vertical format of Stories.Third: making our ads more relevant and effective. We're building new products and improving existing ones to ensure advertisers can reach the right audience. For example, automatic placements help advertisers get better results by showing ads across our platform wherever they'll perform best and at the lowest cost. SumUp, a German payment start-up that helps small businesses accept debit and credit cards, switched from manual to automatic placements and increased sales by 34% in one week.Advertisers of all sizes want to know if their ads are working and how to make them better, but smaller businesses don't always have this capability. We're changing that. Last year, we introduced Test and Learn, a way for advertisers to run variations of their ads and measure the results in just a few steps. We started with tools for direct response advertisers to figure out what drives conversions.In Q2, we added a way for companies to understand the effect of their ads on brand perception. We plan to roll this out to all advertisers, big and small, so they can easily experiment with different strategies and find the ones that work best.As always, I'm grateful to our teams around the world. Their work over the past several months has helped millions of businesses grow and created new levels of transparency in advertising. I'd also like to thank our partners and the businesses of all sizes who turned to us to reach their customers and give us the feedback that helps make us better.Thank you. And now, here's Dave.David M. Wehner - Facebook, Inc.Thanks, Sheryl, and good afternoon, everyone. Let's start with our community metrics. Daily active users on Facebook reached 1.47 billion, up 11% compared to last year, led by growth in India, Indonesia and the Philippines. This number represents approximately 66% of the 2.23 billion monthly active users in Q2. MAUs were up 228 million or 11% compared to last year. It's worth noting that MAU and DAU in Europe were both down slightly quarter-over-quarter due to the GDPR roll out, consistent with the outlook we gave on the Q1 call.As Mark mentioned, we're also introducing a family-wide audience metric, 2.5 billion people worldwide used one of our applications in June. This is our best estimate of our de-duplicated audience across Facebook, Instagram, Messenger, and WhatsApp. We believe this number better reflects the size of our community and the fact that many people are using more than one of these services.Note that, for comparison purposes, Facebook MAU does count multiple accounts for a single user when such accounts exist, and we estimate those represent approximately 10% of our Facebook MAU as previously disclosed in the limitation of key metrics section in our SEC filings. The family audience metric only counts a single user in these instances.Turning now to the financials; all comparisons are on a year-over-year basis unless otherwise noted. Q2 total revenue was $13.2 billion, up 42% or 38% on a constant currency basis. Foreign exchange tailwinds contributed approximately $370 million of revenue in Q2. Q2 ad revenue was $13 billion, up 42% or 38% on a constant currency basis.In terms of ad revenue by region, Europe and Asia-Pacific both grew fastest at 47% each and benefited from foreign exchange tailwinds. I'd note that European ad revenue growth decelerated more quickly than other regions and was impacted primarily by reduced currency tailwinds and, to a lesser extent, the roll out of GDPR.Mobile ad revenue was $11.9 billion, up 50%, and represents approximately 91% of ad revenue. In Q2, the average price per ad increased 17% and the number of ad impressions served across our services increased 21%, driven primarily by ads in feed on Instagram and Facebook. Payments and other fees revenue was $193 million, up 23%.Turning now to expenses; total expenses were $7.4 billion, up 50%. We ended Q2 with over 30,000 full-time employees, up 47% compared to last year. Operating income was $5.9 billion, representing a 44% operating margin. Our effective tax rate in the quarter was 13%.Net income was $5.1 billion or $1.74 per share. Capital expenditures were $3.5 billion, driven by investments in data centers, servers, network infrastructure, and office facilities. In Q2, we generated $2.8 billion of free cash flow and ended the quarter with approximately $42 billion in cash and investments. And, in the second quarter, we bought back approximately $3.2 billion of our Class A common stock.Turning now to the revenue outlook; our total revenue growth rate decelerated approximately 7 percentage points in Q2 compared to Q1. Our total revenue growth rates will continue to decelerate in the second half of 2018, and we expect our revenue growth rates to decline by high-single digit percentages from prior quarters sequentially in both Q3 and Q4.There are several factors contributing to that deceleration. For example, we expect currency to be a slight headwind in the second half versus the tailwinds we have experienced over the last several quarters. We plan to grow and promote certain engaging experiences like Stories that currently have lower levels of monetization, and we are also giving people who use our services more choices around data privacy, which may have an impact on our revenue growth.Turning now to expenses; we continue to expect that full-year 2018 total expenses will grow in the range of 50% to 60% compared to last year. In addition to increases in core product development and infrastructure, this growth is driven by increasing investment in areas like safety and security, AR/VR, marketing, and content acquisition. Looking beyond 2018, we anticipate that total expense growth will exceed revenue growth in 2019.Over the next several years, we would anticipate that our operating margins will trend towards the mid-30s on a percentage basis. We expect full-year 2018 capital expenditures will be approximately $15 billion, driven by investments in data centers, servers, network infrastructure, and office facilities. We plan to continue to grow capital expenditures beyond 2018 to support global growth and our ongoing product needs.Turning now to tax; at current stock prices, we expect our full-year 2018 tax rate will be in the mid-teens, but that our Q3 tax rate will be 25% to 30% due to a one-time charge related to a recent court ruling in the IRS versus Altera case. As a reminder, fluctuations in our stock price will impact our tax price.In summary, our community and business growth remain solid. Our financial strength has enabled us to invest heavily to improve our ability to serve our global community through our family of apps as well as to prepare us for the future.With that, operator, let's open up the call for questions.Question-and-Answer SessionOperatorYour first question comes from the line of Brian Nowak from Morgan Stanley.Brian Nowak - Morgan Stanley &amp; Co. LLCThanks for taking my questions. Two. Just the first one on monetization of Facebook core versus Instagram; can you talk a little bit about how you think about monetization levels and the key drivers currently and, going forward, when we think about ad load, pricing and the importance of ad improvements across the two platforms over the next, call it, year or so?And the second one on Instagram TV, maybe just talk about how you look at – think about the core consumer offering, how it varies from Facebook Watch and, philosophically, how you think about investing in premium content or sports content across these two products. Thanks.David M. Wehner - Facebook, Inc.Brian, I'll take the first one. In terms of Facebook versus Instagram, they're obviously both contributing to revenue growth. Instagram is growing more quickly and making an increasing contribution to growth. And we've been pleased with how Instagram is growing. Facebook and Instagram are really one ads ecosystem. I think, from a supply perspective, both now from a feed perspective are at similar ad loads. Instagram has more heavy usage of Stories, so that's an area of continued growth opportunity because the effective levels of monetization in Stories are lower.On the demand side, we see a good traction across both platforms, and we're rolling out more ability for advertisers to leverage ads in Stories with more formats and the like. So that's, again, an important opportunity for growth is just continuing to build out more products on the demand side for Stories.Mark Elliot Zuckerberg - Facebook, Inc.And I can take the second part of the question about the – what we're trying to do with IGTV and Watch at the same time. The IGTV product approach is very focused on helping people connect with creators in a mobile-native vertical video format and helping people not only see content that they love from people that they want to follow, but build a community around those creators, which is what we see people are trying to do. And creators now uniquely have the ability to both reach a large audience and connect and engage the community through the social network on Instagram at the same time.With Watch, a lot of what we're trying to do is make it so the video content that's on Facebook and some of the content that we're acquiring through original programming that people can come together with their friends to watch that content through things like Watch Party and engage and build community that way.So there's a big space here in terms of helping people have real connections and interactions around video. These are two different takes on this. Overall, what you're going to see from us on video is not just try to optimize for overall watch time, but to optimize for building products that help bring people together and help facilitate real interactions between people.OperatorYour next question comes from the line of Eric Sheridan from UBS.Eric J. Sheridan - UBS Securities LLCThanks for taking the question. Maybe going back to the OpEx and your comments, Dave, looking out sort of medium to longer term, just wanted to understand if we can get a little bit more color on some of the drivers of that. How much of it could be video in support of where you want to take the business over the medium and long term versus things that maybe don't necessarily have a revenue component to them like the security and the protection of the ecosystem that the whole team has been talking about since the end of last year? Thanks so much.David M. Wehner - Facebook, Inc.Yeah, Eric, it's going to be a combination of those factors. I would say we're going to continue to invest in core product development and infrastructure. And so, you've seen that already in terms of the ramp that we have in capital expenditures. We're continuing to build out features and functionality for the community across a wide range of different products, whether it be the ad products that Sheryl talked about or IGTV and the like.In addition to those core developments, we're also making the significant long-term investments in safety and security. Those investments are in the billions of dollars per year. Those will have a negative impact on margins. We think that's the right thing to do for the business in terms of ensuring the community's safety and security and the durability of the franchise. So those are important investments from an ROI perspective, but they don't have, obviously, immediate translation into revenue dollars.Secondly, we're continuing to make big investments in innovation. Those, we believe, are attractive long-term investments. The things that I would point to are things like AI as well as our investments in AR and VR. Those are things that will play out – AI in the near-term, but the investments in AR and VR are really about building the next generation of computing, and that's got a longer-term return window. So, attractive investments we believe, but ones that will take longer-term to pay off, and those would have a dilutive effect on margins in the near-term. Those are the two factors that I would point to.In addition, on the CapEx side, we're continuing to invest heavily on capital expenditures, first, to just get ahead of user growth and engagement and then also to make sure that we've got the compute available to support the growth of a number of the key drivers of our business around feed ranking and ads ranking. So, I think those are the things that I would point to, all factoring into the margin guidance that I gave.OperatorYour next question comes from the line of Ross Sandler from Barclays. Your next question is from the line of Ross Sandler from Barclays.Ross Sandler - Barclays Capital, Inc.Hi. Can you hear me?Sheryl Kara Sandberg - Facebook, Inc.Yes.Ross Sandler - Barclays Capital, Inc.Can you guys hear me?David M. Wehner - Facebook, Inc.Yes.Sheryl Kara Sandberg - Facebook, Inc.Yes.Ross Sandler - Barclays Capital, Inc.Okay. Sorry. Dave, I think you said that the quarter-on-quarter growth rates are going to be high-single digits lower than the prior-year quarter-on-quarter growth rates versus 3Q and 4Q. That would imply around a 20% year-on-year growth rate exiting fourth quarter. So just want to clarify, is that what you actually said? And if so, what's driving this fairly dramatic deceleration in revenue growth?David M. Wehner - Facebook, Inc.Ross, so, yes, so we grew at 42% in the current quarter and we would expect decel in the high-single digits for the next couple quarters. In terms of what is driving the deceleration, it's a combination of factors, and I think I outlined those in my commentary. First of all, there's the currency, which is going from being a tailwind to being a modest headwind, we expect.Secondly, we're going to be focusing on growing engaging new experiences like Stories and promoting those. And that's going to have a negative impact on revenue growth. And then, finally, we're giving people who use the services more choice around privacy, and that's coming both in terms of impacts that could be ongoing from things like GDPR as well as other product options that we're providing that could have an impact on revenue growth. So it's a combination of all those factors that is leading to the deceleration of revenue growth in the second half.OperatorYour next question comes from the line of Doug Anmuth from JPMorgan.Douglas T. Anmuth - JPMorgan Securities LLCGreat. Thanks for taking the question. A question for Mark. I was hoping you could talk about the company's focus on meaningful social interactions. Se</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Microchip Technology, Inc. (NASDAQ:MCHP) Q2 2018 Earnings Conference Call November  6, 2017  5:00 PM ETExecutivesJames Bjornholt - VP &amp; CFOGanesh Moorthy - President &amp; COOStephen Sanghi - CEO &amp; ChairmanAnalystsVivek Arya - Bank of America Merrill LynchJohn Pitzer - Crédit Suisse AegeanCraig Ellis - B. Riley &amp; Co.William Stein - SunTrust Robinson HumphreyChristopher Caso - Raymond James &amp; AssociatesChristopher Danely - CitigroupHarlan Sur - JPMorgan Chase &amp; Co.Kevin Cassidy - Stifel, Nicolaus &amp; CompanyChristopher Rolland - Susquehanna Financial GroupGilbert Alexandre - Darphil AssociatesMark Delaney - Goldman Sachs GroupCraig Hettenbach - Morgan StanleyRajvindra Gill - Needham &amp; CompanyOperatorGood day, everyone, and welcome to this Microchip Technology Second Quarter and Fiscal Year 2018 financial Results Conference Call. As a reminder, today's call is being recorded. At this time, I would like to turn the call over to Microchip's Chief Financial Officer, Mr. Eric Bjornholt. Please go ahead, sir.James BjornholtThank you, and good afternoon, everyone. During the course of this conference call, we will be making projections and other forward-looking statements regarding future events or the future financial performance of the company. We wish to caution you that such statements are predictions and that actual events or results may differ materially. We refer you to our press releases of today as well as our recent filings with the SEC that identify important risk factors that may impact Microchip's business and results of operations.In attendance with me today are Steve Sanghi, Microchip's Chairman and CEO; and Ganesh Moorthy, Microchip's President and COO. I will comment on our second quarter fiscal year 2018 financial performance, and Steve and Ganesh will then give their comments on the results and discuss the current business environment as well as our guidance. We will then be available to respond to specific investor and analyst questions.I want to remind you that we are including information in our press release on this conference call on various GAAP and non-GAAP measures. We have posted a full GAAP to non-GAAP reconciliation on the Investor Relations page of our website at www.microchip.com, which we believe you will find useful when comparing GAAP and non-GAAP results. I will now go through some of the operating results, including net sales, gross margin and operating expenses. I will be referring to these results on a non-GAAP basis prior to the effects of our acquisition activities and share-based compensation.Net sales in the September quarter were a record $1.012 billion, well above our guidance and up 4.1% sequentially from net sales of $972.1 million in the immediately preceding quarter. This was Microchip's first quarter with more than a $1 billion in sales. We have posted a summary of our revenue by product line and geography on our website for your reference.On a non-GAAP basis, gross margins were 61.04% in the September quarter and above the high end of our guidance, which was 60.75%. Non-GAAP operating expenses were 22.46% of sales, well just below the low end of our guidance of 22.5%. And non-GAAP operating income was a record 38.6%, well above the high end of our guidance of 38.25%. Non-GAAP net income was a record $344.1 million and was up 7.9% on a sequential basis and up 56.7% as compared to the same quarter last year. Non-GAAP earnings per diluted share was $1.41, which was $0.06 higher than the midpoint of our guidance of $1.35.On a GAAP basis, gross margins, including share-based compensation and acquisition-related expenses, were 60.7% in the September quarter. GAAP gross margins include the impact of $3.7 million of share-based compensation. Total operating expenses were $388.7 million and include acquisition intangible amortization of $120.9 million, share based compensation of $19.9 million, $0.7 million of acquisition-related and other costs and special charges of $19.9 million, consisting primarily of a $19.5 million charge for fees associated with transitioning from the public utility provider in Oregon to a lower-cost direct access provider. This change is expected to provide significant expense and cash flow savings in the future. After these adjustments, GAAP net income was a record $189.2 million or $0.77 per diluted share. The non-GAAP tax rate was 9.1% in the September quarter, and the GAAP tax rate was a negative 1.6% for the quarter.Moving on to the balance sheet. Our inventory balance at September 30, 2017, was $456.9 million. Microchip had 105 days of inventory at September 30, 2017, up 5 days from the end of the June quarter. Inventory days are still well below our targeted levels but are starting to improve from our significant capacity expansion efforts as well as selective and opportunistic buy-aheads of constrained materials.Inventory at our distributors in the September quarter continued to be low at 31 days and were flat to the June quarter levels.The cash flow from operating activities was a record $350.1 million in the September quarter. As of September 30, the consolidated cash and total investment position was $1.844 billion, of which about $550 million is domestic cash. We bought back 15.1 million of our 2,037 convertible bonds in the December quarter where the bondholders had elected to convert. We expect the remaining principal amount of $17.3 million of the 2,037 2 1/8% convertible bonds to either be converted by the bondholders or called by Microchip during the December 2017 quarter. The call date for these bonds is December 15, 2017.Capital expenditures were $59.9 million in the September 2017 quarter. We expect about $70 million in capital spending in the December quarter and overall capital expenditures for the fiscal year 2018 to be about $200 million to $220 million, up from our prior guidance of $180 million as we capitalize on growth and cost reduction opportunities. We are aggressively adding capital to support the growth of our production capabilities for our fast-growing new products and technologies and to bring in-house more of the assembly and test operations that are currently outsourced. These capital investments will bring significant gross margin improvements to our business, particularly for the Atmel manufacturing activities that we are bringing into our own factories.Our capital spending also reflects 3 new buildings we are constructing in Arizona, India and Germany, which will give us meaningful lease cost reductions and avoidance in the future as well as allow us to cost-effectively scale for our future growth. Depreciation expense in the September quarter was $29.9 million.I will now ask Ganesh to give us comments on the performance of the business in the September quarter. Ganesh?Ganesh MoorthyThank you, Eric, and good afternoon, everyone. We're very pleased with how our product lines performed in the September quarter with overall sequential revenue growth of 4.1% and year-over-year growth of 15.8%, all organic growth as there was no contribution from acquisitions in the last 4 quarters. The Microchip 2.0 transformation continues to make strong progress, especially in terms of new design opportunities as we enable our clients' innovation with the very best smart, connected and secure solutions.Taking a closer look at microcontrollers. Our microcontroller business has performed strongly in the September quarter, with revenue being up 4.7% sequentially as compared to the June quarter, setting a new record in the process. On a year-over-year basis, the September quarter microcontroller revenue was up a very strong 20%. All microcontroller product lines, 8-bit, 16-bit and 32-bit, set new revenue records. Our microcontroller portfolio and roadmap has never been stronger, and we are seeing continued growth in our design end funnel, which we expect will drive future growth as these designs progress into production over time.Microcontrollers at almost $2.7 billion in annualized revenue, represented 65.7% of Microchip's overall revenue in the September quarter. To put our recent performance into perspective, in the last 5 quarters, we have grown our annualized microcontroller revenue by over $0.5 billion. All our microcontroller product lines are firing on all cylinders and driving differential growth and market share gains. We believe we have the new product momentum and customer engagement to continue to gain even more share as we advance the Microchip 2.0 transformation and further strengthen the best-performing microcontroller franchise in the industryNow moving to our analog business. Our analog revenue was sequentially flat in the September quarter as compared to the June quarter, and up 6.3% on a year-over-year basis and also set a new record by a whisker in the process. Our analog results over the last two quarters were negatively impacted by two factors, first, the back-end capacity constraints on products with Atmel heritage, which we discussed at the last earnings call, have taken more time to resolve as the lead time for new back-end equipment has been longer-than-expected, reflecting the strong industry conditions that our suppliers are also seeing; and second, we have been adding microcontroller cores to several of our more complex analog products, especially those that provide our clients with smart connectivity solutions.This enables us to subsume competitive microcontrollers which were sitting next to our analog products as well, as include the connectivity firmware in our products so that they form total system solutions and are, therefore, much stickier design wins. These smart connectivity products are ramping nicely. And as they replace older products in new designs, our revenue classification for these new products has shifted from the analog product line to a microcontroller product line. Transitioning to more sticky and higher-margin smart connectivity revenue is the right Microchip answer, but does impact some of the product line reporting that analysts are interested in as some of the revenue growth shifts into our microcontroller product line. As our back-end capacity constraints continue to get relieved and the revenue from analog attach design wins start to ramp, we fully expect that the analog product line revenue will grow at or above Microchip's overall growth rate. At over $950 million in annualized revenue, our analog products represent a 23.6% of Microchip's overall revenue in the September quarter.We continue to successfully find more opportunities to attach Microchip's vast portfolio of analog products to Atmel microcontrollers and microprocessors at multiple customers and applications. This effort should pay dividends over time as these new design wins go to production. And we are developing and introducing a wide range of new innovative and proprietary products in the linear, mixed signal, power, interface, timing and security products lines to fuel the future growth of our analog products as we march relentlessly towards making analog a greater than $1 billion annualized revenue business for Microchip soon and a much larger business in the coming years.Moving next to our licensing business. This business is up 3% sequentially in the September quarter and up 8.9% on a year-over-year basis, also setting a new record in the process. We are seeing the fruits of having licensed several foundries and independent device makers for several years on multiple process technology nodes manifest in our results as the licensed processes generate royalty revenue for many years to come.Last but not least, our memory business was sequentially up 5.3% in the September quarter as compared to the June quarter. There are significant cost reductions underway for this business using the combined strength of Microchip and Atmel. We believe that this effort will make us even more competitive and further improve our gross margins. Let me now pass it to Steve for some general comments about our business and our guidance going forward.Steve?Stephen SanghiThank you, Ganesh, and good afternoon, everyone. Today, I would like to first reflect on the results of the fiscal second quarter of 2018. I will then provide guidance for the fiscal third quarter of 2018. I will also provide update on capacity enhancement activities, lead times as well as Microchip 2.0. Our September quarter financial results were extremely strong. Our net sales were a new record and above our guidance, first time ever our net sales crossed a very important milestone of being above $1 billion for the quarter. Our net sales for this quarter were up 15.8% from the September quarter of a year ago, and this revenue comparison is not impacted by any acquisition since Atmel's full quarter revenue was in the September 2016 quarter results.Our non-GAAP gross margin percentage, operating profit percentage and earnings per share each exceeded the high end of our guidance. Non-GAAP earnings per share were up 50% from the September quarter of a year ago due to improving sales, gross margin percentage, operating expense leverage and successful execution of our core business as well as accretion from our acquisitions. I want to thank all the employees of Microchip worldwide for delivering a record quarter in every respect. This was also our 108th consecutive profitable quarter.There are 3 other points I would like to make on our sales growth, first, every one of our major product lines, 8-bit MCU, 16-bit MCU, 32-bit MCU, analog, wireless, licensing, memory and others, were up significantly in the September 2017 quarter over the year-ago quarter; number two, every major geography, North America, Europe and Asia, were up significantly in the September 2017 quarter over the year-ago quarter; and number three, sales in all end-markets were up in September 2017 quarter over the year-ago quarter.Now I will provide you with an update on Microchip 2.0. We are continuing to experience an enormous customer preference to design with our microcontrollers solutions in all 8-bit, 16-bit, and 32-bit customer applications. On top of that, our various acquisitions have now built a powerful diversified product line through which we're able to provide total system solutions to our customers. We are winning incremental design wins with multiple products in the same boards of our customers. We have a robust design win funnel, and we feel very optimistic that Microchip 2.0 is working and increasing the organic growth of Microchip.A year ago, in September 2016 quarter, our microcontroller market share in 8-, 16- and 32-bit combined was 14.46% as per the SIA numbers. In September 2017 quarter, our market share is up to 15.84%, an increase of 138 bps in 1 year. Now before I go into the guidance for the December quarter, I will say that we are continuing to see good business environment for our products worldwide and have a number of company-specific demand drivers.Our inventories at Microchip as well as the distributors are towards the low end of our normal range. We are continuing to slowly add incremental capacity at various bottlenecks. With that, our lead times have stabilized, with stable lead times we're engineering a soft landing so far without triggering any double ordering or panic from our customer base.Our book-to-bill ratio has moderated from 1.11 in both March and June quarters to 1.05 in September quarter as the lead times stabilize. We expect the book-to-bill ratio to come down further as lead times continue to moderate, hence engineering and soft landing. At the rate we are adding capacity, we believe that it will still take us through June 2018 when our lead times return to fully normal.Now let us go into the non-GAAP guidance for the December quarter. We expect total net sales in the December quarter to be about flat to down 4%, which, at the midpoint, represents a growth of approximately 12.6% on a year-over-year basis. I want to remind investors that in the last 5 years, we had 3 acquisitions that closed in the middle of September quarter. SMSC closed in August of fiscal year '13. ISSC closed in July of fiscal year '15, and Micrel closed in August of fiscal year '16. All these 3 acquisitions had a partial quarter revenue in September quarter and a full quarter revenue in the December quarter. Therefore, mathematically taking the average of the last 5 years of sequential growth would give you a false number.Excluding acquisitions, the average sequential decline in the December quarter over the past 5 years has been 2.5%, and ranged between plus 0.8% and minus 4.9%. Investors should compare our guidance for December quarter of flat to down 4% with an average 5-year seasonal performance of minus 2.5% in net sales and against the backdrop of a 1% beat of our FQ2 revenue guidance.Regarding gross margins, we see a steady improvement in overall gross margin of the company based on Microchip 2.0 margin drivers that we have discussed with the investors. We expect gross margin for the December quarter to be between 61% and 61.4% of sales. We expect overall operating expenses to be between 22.2% and 22.6% of sales, and we expect operating profit percentage to be between 38.4% and 39.2% of sales. And we expect earnings per share to be between $1.30 and $1.40 per share non-GAAP.I want to remind investors that our long-term financial model is a non-GAAP gross margin of 62.5%, operating expense of 22.5% and operating profit of 40%. And as you have seen, we are relentlessly marching towards this model. And we expect our longer-term annual revenue growth to be high single-digits. We believe we can grow above the industry driven by four factors, we can achieve about 1% to 2% extra growth due to our traditional market share growth continuing; we can achieve an additional 1% to 2% growth due to higher attach rate from our total system solution approach; we can achieve 1% to 2% higher growth from much less ASP erosion or stable ASPs, and we can achieve 1% to 2% higher growth from our distributor partnership approach versus competitors pulling back. And we have judged it down due to confounding effects to yield a 7% to 9% growth going forward.Given all the complications of accounting for the acquisitions, including amortization of intangibles, restructuring charges and inventory write-up on acquisitions, Microchip will continue to provide guidance and track its results on a non-GAAP basis. We believe that non-GAAP results provide more meaningful comparison to prior quarters, and we expect that the analysts continue to report the non-GAAP estimates to First Call.With this, operator, will you please pool for questions?Question-and-Answer SessionOperator[Operator Instructions]. And we'll now take our first question from Vivek Arya with Bank of America Merrill Lynch.Vivek AryaSteve, if you look over the last year, growth has been very strong for you guys. Can you give us a sense of how much of that has been sort of company-specific? How much of that has been the macro? Because I think what most investors are trying to get a sense for is how much of this growth is actually sustainable as we look out into the near-to-intermediate term.Stephen SanghiWell, it's very, very difficult. Customers don't have a good answer for -- that you're giving me this design. I'm winning this design. Is it because industry is doing well, or we are winning more than that? So that is a very, very hard to decipher. If you look at our last quarter, our year-over-year growth was 15.8%. We're not guiding to that. We're not expecting that. We're expecting a growth going forward of 7% and 9% with the December quarter guided at about 12.6% over the prior year December. So growth will moderate from these high numbers, and some of that excess is driven by the industry conditions.Vivek AryaAll right. And as a follow-up, in the last few days, there's been a lot of M&amp;A excitement in semis. And I'm wondering how you were thinking about M&amp;A given that your leverage is at a very, very comfortable level. And at what point would you decide that it is better to resume buybacks instead of maybe going after assets that might be marked-up but with all the excitement in the industry?Stephen SanghiWell, our capital allocation strategy and our thoughts have not changed since we discussed with all of you many times. Our first reference is to utilize our cash for our operations, R&amp;D and other activities, but those are very well-funded into the P&amp;L, and we do not need to really reach out into the balance sheet to spend excess cash. The second priority is to utilize our cash towards M&amp;A. Our second priority is to maintain the dividend, keep growing its small amount incrementally, like we are, but not really have a very large incremental dividend program. Then our next priority is to utilize our cash for M&amp;As. And our last priority is really to buy stock back, which we only do opportunistically.OperatorAnd we'll now take our next question from John Pitzer with Credit Suisse.John PitzerI guess, I just want to go back to the increase in the CapEx budget. Eric, you did, in your prepared comments, gave a sort of a good rundown of what's driving that. You did say there will be some cost savings because of that. I'm just kind of curious, does that put you sort of towards your target margin or above the target margin? And if you can help me understand what percent of the increase in CapEx is going because you just feel better about the demand, overall demand environment, versus bringing more stuff in-house?James BjornholtWell, we've been talking about, for the last several quarters, there are a lot of margin improvement that we can get by bringing a lot of the outsourced Atmel activity in-house, and the percentages of our internal production versus where they've historically are out of line with where we'd like them to be. So we're making these incremental investments, and there are significant gross margins to come. We think that by making these investments, we can get to our 40% operating margins and the 62.5% gross margin goal. And it's gradual. These things come over a steady period of time. There's only so much our manufacturing and operations teams can do in any given quarter. But we've laid out a pretty aggressive plan for us to increase the production capabilities in-house, and the gross margin will improve from there.John PitzerThat's helpful. And then Steve, maybe as my follow-up, just to follow-on to Vivek's question about M&amp;A. You've always been very disciplined about the price you're willing to pay for an asset. I think in the past, you've said, for every deal you've done, you've probably vetted and walked away from 3 or 4 deals. I'm just kind of curious. With Microchip 2.0 and your confidence level increasing that you can grow revenue faster than the industry, does that change the parameters around asset value you're willing to pay on the M&amp;A front? And just given where the SOX index is now, any comment around asset value to your perception there would be helpful.Stephen SanghiThere is really no change. We have strong filters in place in our M&amp;A analysis, which are multidimensional in terms of multiples and revenue and gross margin, operating profit growth rates and others. I can't give you all those filters, but it's a fairly complex metrics that we have to check off. And really, at various times, the assets available outside could be on the lower end of that metrics or could be on the higher end of the metrics. But they're always companies that fit the metrics. And if they go on the higher end of the metrics and even beyond that, and they're too expensive and we won't do it, but there are always companies available which still fall in the metrics.OperatorAnd we'll now take our next question from Craig Hettenbach with Morgan Stanley.Craig HettenbachJust a question on just the microcontroller share and as you tick through some of the things that should allow you to grow above the industry in high single-digit growth, any particular end-markets or product segments that you'd call out in terms of where you're seeing the best market share positioning?Ganesh MoorthyWe don't go-to-market with an end-market view in order to be able to grow. We have a very broad approach to markets, applications, and a broad product line to go after them. Clearly, as the end markets strengthen in one area and other, we get participation incrementally from there. We've shown you how our automotive and industrial market share, when we presented it about 6 months ago, was that 60% of the overall revenue for us. And of course, those industries have been helping as they've had some strength. But we don't have a particular end-market that is driving us in one direction or another.Craig HettenbachGot it. And then just a follow-up question for Steve. Appreciate all the color on some of the cyclical barometers around lead times and book-to-bill. As you try to kind of navigate to a soft landing, is there anything different in terms of this cycle versus prior cycles, whether it's competition with distributors and customers, inventory you're holding to kind of help navigate through that?Stephen SanghiWell, I think, the lead times did not get as long this time as, clearly, they have gotten some other times. The customer behavior and the distributor behavior has been much more normal this time than we have seen in the other times. So I think everybody has behaved. We wrote a letter back in April informing our customers that the industry conditions were strengthening and the lead times are going out. In the March quarter, our book-to-bill ratio was 1.11. And we wrote the letter on April 4, after we had seen this very strong bookings. And in the June quarter, our book-to-bill was, again, 1.11, which means, really, there was no panic created. No customers rushed to place large orders. They kept doing what they were doing before the letter and conformed to our lead time and placed the orders to conform to the longer lead times. And then in December quarter, book-to-bill ratio came down to 1.05 as some of the products where the lead times have moderated, and the lead times right now are anywhere from 4 weeks to 20 weeks with the products all over the place. But the products where the lead times have become shorter, the bookings on them have moderated because people have the orders in place. So I think it's a much more behaved environment this time than kind of we have seen before. I do not know what's happening with the competitors and the rest of the industry. There are scattered cases where the customer isn't willing to take one of our products because he cannot complete the kit. There's a product coming from one of the competitors or other analogs or other companies where he needs to build his entire products. And if that one is not available, they don't want ours either. But same can be said by those competitors that one of our products wasn't available so their product didn't sell. But those are scattered cases. It's not all over the place. I think environment is pretty reasonable and reasonably well-behaved.OperatorAnd we'll now take our next question from William Stein with SunTrust.William SteinYou spoke in the prepared remarks about subsuming competitive microcontrollers when they're next to your analog products. It sounds almost like the cross-selling opportunity is being driven from analog to the digital MCU. I would have thought that the cross-selling opportunity was much more in the other direction. Can you elaborate on this, help us understand that dynamic a little bit?Ganesh MoorthyIt happens in both directions. So in many cases where we have the microcontroller at the center of the design, we see the breadth of what else surrounds that microcontroller early and are able to attach products. There are some specific cases where it's very complex analog and especially when it's smart connectivity, where, in addition to the analog and the connectivity function, it needs a microcontroller. And we, in many cases, enter those businesses through some of the acquired entities. We didn't have our micro controllers there to begin with. But once we now see where we are on the analog from a smart connectivity standpoint, we can begin to see what else can we subsume. And that's where it goes in the opposite direction, where the strength that came from analog gives us the ability to attach microcontrollers and, in many cases, do an integrated product that gives us more complete total system solutions in that application.William SteinThat's helpful. If I can squeeze in one follow-up. I just want to make sure -- it's really clarification point of the last question that someone else asked. It sounds like perhaps the shortages on the passive side have been sort of clipping overall demand. I think you mentioned a moment ago about if a customer can't get a complete kit because he's short, say, a capacitor and he doesn't want your product, at least not yet until he can do a full kit, did I understand that as sort of the dynamic that might have contributed to sort of soft landing where things didn't get out of hand because, let's say, passives or some other product clipped the peak demand rate?Stephen SanghiSo I don't know if the others are seeing a massive number of cases where they're not able to ship the product because some passive product is not available. I think I'm kind of just seeing it sporadically where it's not large enough that, that becomes an excuse, where a number, the one way or the other. I think it's a noise level, but it's certainly a factor. It's possible that, for some other people, it's a much larger factor.OperatorAnd we'll now take our next question from Chris Caso with Raymond James.Christopher CasoI just want to talk a little bit about the efforts to build inventory and the timing of that. With demand slowing a bit seasonally in the December quarter, does that give you the ability to catch up on inventory somewhat? Or is that to wait until more capacity is in place a couple of quarters from now? And then with that, I have to imagine there's some gross margin benefit as you run the fabs a little harder to build the inventory. Can you quantify that benefit and talk about how that works its way into 2018?Stephen SanghiSo the way I will answer is, it's a continuous phenomenon. It is not digital where inventory doesn't grow this quarter, and a couple of years from now, it all grows to the right level. Our inventory grew by 5 days last quarter. Inventory will grow by some days this quarter and grow some again in March. And by June, we expect to try to get to the models. So it's a continuous phenomenon. In the stronger quarter, like we have had in the last 2 or 3 quarters, inventory was harder to grow because even though we added capacity, produced more units, we largely shipped them into the growth. Current quarter is seasonally a weak quarter, seasonally the weakest quarter of the year. So this quarter, the incremental capacity we're adding gives us the chance to add a little bit to the inventory because we can produce more than the weaker demand. But it's a continuous phenomenon. It's really not waiting for something to happen 2 quarters from now.Ganesh MoorthyThe other thing to keep in mind is our distribution inventory is at the low end of their range as well. So us having a little extra inventory helps as we go into the growth quarters. So that combined, we have the right amount of inventory for the market.Christopher CasoAnd I'm sorry, the margin impact as the inventory is building?Stephen SanghiSo margin impact is essentially doesn't care about whether inventory is building or not. It cares about overall production. If you produce more in wafers assembly test, then it has better absorption and has an accretive effect. So we have been producing more units every quarter, and you have seen the margin going up every quarter. So that's also a continuous phenomenon.Christopher CasoOkay. As a follow-up, you had talked in your prepared remarks about a number of factors for why you think you grow faster than the inventory growing forward and what the impact would be. Can you talk about that looking backwards over the last year? And I know some factors are more difficult to measure than others. But perhaps give us a walk-through, perhaps some of these factors. And I think market share. You talked about, a little bit, pricing, how that may have affected your revenue growth over the last years compared to the industry, and what we'd say, Microchip 1.0, I guess.Stephen SanghiWell, it's very difficult to numerically assign to the history and take our 15.8% growth last quarter over the previous 1 year </t>
+  </si>
+  <si>
+    <t>JPMorgan Chase &amp; Co. (NYSE:JPM) Q2 2018 Results Earnings Conference Call July 13, 2018  8:30 AM ETExecutivesJamie Dimon - Chairman and CEOMarianne Lake - CFOAnalystsKen Usdin - JefferiesJohn McDonald - BernsteinJim Mitchell - Buckingham ResearchErika Najarian - Bank of AmericaMike Mayo - Wells Fargo SecuritiesGlenn Schorr - Evercore ISISaul Martinez - UBSBetsy Graseck - Morgan StanleyGerard Cassidy - RBCAl Alevizakos - HSBCMatt O'Connor - Deutsche BankOperatorGood morning, ladies and gentlemen. Welcome to JPMorgan Chase’s Second Quarter 2018 Earnings Call. This call is being recorded. Your line will be muted for the duration of the call. We will now go live to the presentation. Please stand by.At this time, I would like to turn the call over to JPMorgan Chase’s Chairman and CEO, Jamie Dimon; and Chief Financial Officer, Marianne Lake. Ms. Lake, please go ahead.Marianne LakeThank you, operator. Good morning, everyone. I’m going to take you through the earnings presentation which is available on our website. Please refer to the disclaimer at the back of the presentation.Starting on page one, the firm reported net income of $8.3 billion and EPS of $2.29 on revenue of $28.4 billion, all were record for the second quarter, even exceeding the benefit of tax reform.Our return on tangible common equity was 17%. And also included in the results were two notable items, which I will call out in a momentum, excluding which EPS would have been about $0.10 higher.The strength this quarter was broad-based across businesses and highlights include average core loan growth excluding CIB of 7% year-on-year, consumer deposit growth of 5% which we believe continues to outpace the industry; card sales up 11%; and client investment assets and merchant processing volumes, each up 12%.We maintained our number one rank in Global IB fees and CIB delivered double-digit revenue growth across the board. Commercial bank revenue was up 11% year-on-year with IB revenues being a bright spot this quarter. And in asset and wealth management, AUM and client assets were both up 8%.Turning to page two for more details about the second quarter. The firm delivered strong core positive operating leverage this quarter. Revenue of $28.4 billion was up $1.7 billion or 6 % year-over-year. Net interest income was up $1.1 billion or 9%, reflecting the impact of higher rates and loan growth, partially offset by lower market NII. Net interest revenue was up over $600 million, driven by strong performance in markets and IB fees and also higher auto lease income. NII this quarter was negatively impacted by a rewards liability adjustment in cards. And remember that last year included a significant legal benefit. Excluding these two items, NII would have been up $1.6 billion and total revenue up 10%.Expense of $16 billion was up 8% year-on-year, with half of the increase directly related to incremental revenues, principally compensation in the CIB, transaction expenses and auto lease growth. About a third related to continued investments in technologies as well as headcount across the businesses and the remainder was largely a loss on the liquidation of a legacy legal entity as part of our simplifications efforts. And if you exclusive this item, expense was up only 7%. The legal entity loss, together with the rewards liability adjustment in cards are the two notable items I mentioned at the beginning for a total reduction of over $500 million pre-tax. Credit costs of $1.2 billion were flat year-on-year and credit trends remained favorable across both consumer and wholesale.Shifting to balance sheet and capital on page three. We ended the second quarter with CET1 of 11.9%, up about 10 basis points versus the last quarter as most of the capital generated was returned to shareholders. Risk weighted assets were relatively flat, despite solid growth in loans and commitments, being offset across other categories. In the quarter, the firm distributed $6.6 billion of capital to shareholders and last month the fed informed that they did not object to our 2018 capital plan. We were pleased to announce gross repurchase capacity of nearly $21 billion over the next four quarters and the Board announced its intention to increase our common dividend to $0.80 per share affected in the third quarter.Moving on to page four on consumer and community banking. CCB generated $3.4 billion of net income and an ROE of 26%. Core loans were up 7% year-on-year driven by home lending up 12%, business banking up 6%, card up 4%, and auto loans and leases also up 4%. Deposits grew 5%. And although growth is slower than a year ago, we are seeing record high retention rates and customer satisfaction scores.Client investment assets were up 12% with more than half of the growth from net new money flows and we are capturing an outsized share as our customers shift from deposit to investments. Card sales volume was up 11%. And we announced several new cards as we continue to update our product offering. Revenue of $12.5 billion was up 10% year-on-year. Consumer and business banking revenue was up 17% on higher NII, driven by continued margin expansion as well as deposit growth.Our lending revenue was down 6% on production margin compression and lower net servicing revenue, despite higher purchase volume in retail. And cards merchant services and auto revenue was up 6% driven by lower card acquisition costs, higher card NII on margin expansion as well as loan growth, as well as higher auto lease volumes. This was largely offset by lower net interchange, driven by a rewards liability adjustment of about $330 million, reflecting strong customer engagement across our Ultimate Rewards offering. As a result, the card revenue rate was 10.4% for the quarter, but our full year guidance of approximately 11.25% holds. Expense of $6.9 billion was up 6% year-on-year, driven by higher auto lease depreciation and investments in technology.Finally, on credit. Charge-offs were down $36 million year-on-year, including a recovery of about $130 million from a loan sale in home lending. This was largely offset by higher net charge-offs in card. The card charge-off rate was 3.27%, reflecting seasonality and is in line with expectations and in line with our guidance. There were no reserve actions taken this quarter.Turning to page five and the corporate and investment bank. CIB reported net income of $3.2 billion on revenue of $9.9 billion, up 11% and an ROE of 17%. In banking, we maintained our number one ranking for the quarter and year-to-date in Global IB fees and with a record first half performance, and we grew share across the regions.IB revenue of $1.9 billion was up 13% year-on-year, outperforming the market but was down slightly as we saw robust activity, particularly in M&amp;A and ECM. It was a record second quarter for advisory fees, which were up 24%, benefiting from a number of large deals closings this quarter. We gained share and ranked number two globally.Equity underwriting fees were up 49%. We ranked number one globally as well as in North America and EMEA and gained share in a competitive environment, driven by IPOs and convertibles in the two most active sectors, healthcare and technology, which are areas of strength for us.Additionally, we saw good momentum in private capital market as clients are exploring alternative sources of capital. And debt underwriting fees were relatively flat versus a very strong prior quarter, supported by healthy acquisition related activity. And we ranked number one in DCMs globally and across all the products. Looking forward, the overall pipeline remains strong.Moving on to market. Total revenue was $5.4 billion, up 13% year-on-year or up 16% adjusting for the impact of tax reform and was driven by strong results in equities, solid performance across categories and with performance picking up in the second half of the quarter.Fixed income markets revenue was up 12% adjusted on the back of good client flow and decent volatility and with commodities making a notable recovery from a challenging prior year. It was a record second quarter for equities with revenue up 24%, driven by strong client activity and favorable trading results, and with particular strength in cash, prime and flow derivatives.Treasury services and securities services revenues were each up 12%, driven by higher rates and deposit balances, and security services also benefited from higher asset-based fees on new client activity and higher market levels.Finally, expense of $5.4 billion was up 11%, driven by higher performance-related compensation, volume-related transaction costs and investments in technology. The comp-to-revenue ratios for the quarter were 27%, consistent with prior quarter.Moving to commercial banking on page six. Another strong quarter for this business with net income of $1.1 billion and an ROE of 21%. Revenue was a record for second quarter, up 11% year-on-year driven by higher deposit NII and strong investment banking activity. Gross IB revenue of $739 million was up 39%, driven by several large transactions and strong underlying flow of business and the overall pipeline is robust and active. Expense of $844 million was up 7% as we continue to invest in the business, both in bankers and in technology.Loan balances were up4% year-on-year and 2% sequentially. C&amp;I loans were up 3% year-on-year and sequentially due to increased M&amp;A related financing with strengths in our expansion markets as well as in specialized industries, and despite lower tax exempt activity. CRE loans were up 4% year-on-year and flat versus last year as there continues to be a lot of completion for high quality assets and we are selective given where we are in the cycle. Finally, credit performance remains strong with a net charge-off rate of 7 basis points.Moving on to asset and wealth management on page seven. Asset and wealth management reported net income of $755 million with a pretax margin of 28% and an ROE of 33%. Revenue of $3.6 billion was up 4% year-over-year driven by higher management fees on growth in long-term products as well as strong banking results. Expense of $2.6 billion was up 6%, driven by continued investment in advisors and technology as well as higher external fees on revenue growth.For the quarter, we saw net long-term inflows of $4 billion with positive flows across multi assets, equities and alternatives, partly offset by outflows in fixed income. Additionally, we saw net liquidity inflows of $17 billion. AUM of $2 trillion and overall client assets of $2.8 trillion were both up 8% with the increase being split about equally between flows and higher market levels globally.Deposits were down 7% year-on-year, reflecting continued migration into investment where we are also capturing the vast majority and down 3% sequentially on seasonal tax payments. Finally, we had record loan balances, up 12% with strength in global wholesale and mortgage lending.Moving to page eight and corporate. Corporate reported a net loss of $136 million. The result included a pretax $174 million loss on a liquidation of a legacy legal entity, previously mentioned. But it’s of note that while this loss through expense affects retained earnings this quarter, it is offset from a capital perspective. So, it’s capital neutral.Before I wrap up, you may note, we have no outlook page here. Although both revenue and expense are trending higher market-related, given we’re only halfway through the year, we’re not updating our outlook at this point.So, to close, the macroeconomic backdrop continues to be supportive. Consumer and business confidence and sentiment remain high, client activity levels are robust, and the markets are open and active. We are pleased with the firm’s results this quarter. Our broad-based financial performance clearly demonstrates the power of the platform. Revenue grew strongly, double digits year-over-year in many cases. We realized positive core operating leverage, despite significant investments and credit trends remain favorable across both consumer and wholesale. This was a clear record for second quarter, whichever way you slice it. We remain focused on consistently delivering for our customers and our communities and investing for the long term.With that, operator, can you open up the line for Q&amp;A?Question-and-Answer SessionOperator[Operator Instructions] Our first question comes from Ken Usdin of Jefferies.Ken UsdinHey. Good morning, Marianne. Can I ask you to talk a little bit about the card business? And you mentioned the strong customer engagement with regards to the rewards markdown. Can you just walk us through what’s the drivers of that and this is a one-time event and does it affect the card revenue rate outlook?Marianne LakeSo, I’ll start with the end because that’s pretty simple. It obviously affected the card revenue out in the quarter. You can see that that was 10.4%. And you can see on the page, we’ve adopted for the impact. But, the 11.25% for the year remains true, which is to say that while this may be slightly larger than normal, it’s not exactly one-time item. We regularly review our liability as we observe the mix of our portfolio and the behaviors of our customers.On face value, I know rewards is often talked about as a competitive matter. I mean, this is less about competition per se. In fact, we have record low in sales attrition, which in a competitive environment is really very good. And it’s more about customers awareness of the value proposition of rewards and them being engaged in redeeming them, which for us is a positive thing because engaged customers spend more and we’re seeing that they attrite less, and we’re seeing that. And they will bring us more deposits and investments as we deeper relationships. So, I would say it’s a little larger than normal. We do it pretty regularly. So, it’s not one-time but it’s not completely typical.Ken UsdinGot it. And in the press release, Jamie mentioned the first paragraph about increasing competition. Is that a global across all businesses comment or are you seeing it now really in specific areas? Thanks.Marianne LakeOkay. I think it’s -- I mean it’s pretty global across all businesses, as a general matter, and there are some obvious areas where it’s pretty acute. And in the retail also space for example, we talked about commercial real estate for example, mortgage clearly with capacity and the systems for example, all of those areas are pretty competitive for a variety of reasons given where we are in the cycle in the economy and like. But I would say broad based, it’s everywhere. That said, we are holding our own and in many cases gaining share. So, we’re doing pretty well.OperatorOur next question is from John McDonald with Bernstein.John McDonaldHi, Marianne. I wanted to ask you what you are seeing this quarter in terms of customer deposit trends, a little more color on both the pricing beta and volume balances. Kind of wondering, if you are seeing a lot of competition from the online competitors like Marcus and whether those are affecting your deposit balances with consumers being attracted towards high yields and affecting your pricing decisions?Marianne LakeOkay. So, I would say -- you talked to consumer deposits, so, I am talking retail now, not the sort of high net worth, but I’ll come back to that. Consumer deposit up 5% year-on-year, slowing down as we would have expected, while you have seen online competitors and even some regional competitors make some moves in the large bank space, we haven’t really seen that yet. When we look at the deposit slowdown and we unpack it, it feels to us like the vast majority of the root cause is customers moving into investments. And in the case of regional customers, that seem to manage accounts. So, it doesn’t even appear to be rate seeking. Spending more would be the second driver and to a much lesser extent are we seeing behaviors like the rate seeking at this point.So, we’re not seeing that kind of migration out of the Company to online or other competitors at this point. And so, at this point, reprice is still not happening. That said, we are on a journey clearly. And in the higher net worth space, we continue to see the migration into investment assets we’ve been seeing. And again we continue to recapture the vast majority of those. So, at this point, things are playing out as we would have expected and we’re not actually losing deposits en masse to any third parties.John McDonaldOkay. And just a follow-up on that. Can you remind us what’s the opportunity you see with the rollout of Finn and what advantages you expect to have in that arena?Marianne LakeSo, I would look at Finn as one of many sort of digital innovations that we’re doing, and I would look at it also in conjunction with broader, digital account opening. And although we’ve now launched Finn nationwide, I think it’s fair to say it’s still very nascent and we’re still learning. So, we’re going to continue to advance -- and it’s got very high net promoter score by the way. So, customer experience is good. But it’s still quite young.Jamie DimonWe haven’t really marketed…Marianne LakeSo, we’re just starting. I would say, digital account opening on the other hand is a pretty good success story. And we are seeing a lot more accounts opened digitally across the channels and we’re seeing of those, a decent chunk of net new to bank. And where we’re seeing existing customers open new accounts, we’re getting incremental money. So, we are seeing our digital asset pay off and even more broadly than that we could go into quick payments and the like. But, I wouldn’t focus overly on Finn as an eye focusing but think digital more broadly.OperatorOur next question is from Jim Mitchell of Buckingham Research. Jim MitchellHey, good morning. Maybe just talk a little bit about loan growth. Obviously, it seems to have picked up in the fed data over the last month or two. What are you guys seeing on the ground? And do you think it’s -- what we’ve seen so far is a good indicator for maybe a more sustained pickup in growth?Marianne LakeYes. I would say that we would use the commercial bank C&amp;I loans as kind of bellwether. There has been decent demand. And I mentioned it in my remarks, the decent demands, not exclusively but partly on the back of a very robust and active M&amp;A environment. And so, the demand is there, I would say, growth is solid, and in line with our expectations we will continue to hope to see that growth as we go through the year. And there may be other tailwinds. We’ve yet to see the full effect of tax reform flow through in profitability and free cash flow. And so, I would characterize loan growth as solid and our expectations for the outlook to remain solid, benefitting from very active capital markets environment.Jim MitchellOkay. And maybe as a follow-up, when we think about NIM going forward, I mean, I think it was a couple of years ago that you talked about maybe normalized being somewhat the 265 to 275 range or 246 now. Is there a certain loan to deposit ratio you think you need to have, or level of rate? How would you -- just trying to think through how we think about NIM going forward?Marianne LakeYes. I mean we’re at -- fed funds of 125 to 200 right now, but we are not anywhere yet close to normal rates. And so, when we think about what you talk about normalizing NIM, we are thinking about it more through the cycle adjusting for new liquidity rules and everything else. So, we have a number of further rate hikes to go before we reach that point. But, we are on a core basis -- and remember, we have a fairly sizeable market balance sheet, but on a core basis we are continuing to see NIM expansion in line with expectations and moving up towards that. So, we would expect to see expansion year-over-year moving towards that level but not getting there yet.OperatorOur next question is from Erika Najarian of Bank of America.Erika NajarianMy question is on the regulatory process this year under the new leadership. I am wondering if there’s anything that you could share with us that you’ve observed in terms of change. Whether or not it was -- how receptive or not the regulators were during the comment period for the SEB and also during the CCAR process? Was there any marked or observable change in the processes this year versus previous years?Marianne LakeYes. So, I would say on the commentary of the SEB, obviously during the comment period, the regulators are quiet. So, it wasn’t a two-way dialogue during that period. We would expect the two-way dialogue to start now that the comment period is over and the industry and bilateral letters have been submitted. I will say, going back to comments I think I’ve made previously that I remain constructive about the willingness for the current leadership to pay attention and take on those comments. And if you look at the proposal that was sent out for comments, not only did it have a large number of questions that they were asking the feedback on but their actual proposal was very similar to what we have been understanding was the intention in speeches that go back a fair way, which is to say that it feels like we’re still making the sausage rather than this is a done deal. And so we’re very optimistic that the comments will be taken on board. And they are -- volatility was evident in spades in this test, opaqueness, GSIB. We can go through them, I am sure we will. So, we remain optimistic that the comments -- bilateral discussions will start now. I would say -- the industry discussions will start now. I would say on CCAR, it felt close to prior years. It not to say that it is not constructive, it’s just -- it’s not like basically as prior years.Erika NajarianAnd just my follow-up question is, the pushback that I am getting from a lot of investors on bank stocks is that we are long in the tooth in the economic cycle. Clearly, there is strong activity levels that you posted this quarter and the credit metrics that you posted would suggest otherwise. And I am wondering, both Jamie and Marianne, how you would respond to that pushback that now it’s not the time to invest in banks because we are late in the game from an economic standpoint?Marianne LakeYes. I mean, I would say two things, which is while this cycle is older than potentially typically cycles have been, growth over the last decade has been lower through the recovery. So, there is plenty potentially of room to play. And as we look at all the economic data, not just here in the U.S. but also globally, there are no real signs of fragility. And I know, people are staring at the flat yield curve and we would say that that flat yield curve is a bear flattening, good flattening compared to profitability perspective and not some looming risk of a recession embedded in it. So, I am saying it’s still negative. Real policy rate is still at zero, credit is very benign. That said, we are in cyclical businesses, no doubt. And so, we are preparing and we will be ready when the cycle turns and no doubt there will be impact from that. But through the cycle, I think we’ve proven our business model will produce strong shareholder returns and among best-in-class performance.OperatorOur next question comes from Mike Mayo of Wells Fargo Securities.Mike MayoI wanted to follow up on that last question, if Jamie could respond to. I mean, Marianne, you said the macro is very supportive, you sound very positive. On the other hand, the 10-year treasury yield has flashed some warning signs to a variety of parties. So, Jamie, we have the tax cut, we’ve been waiting for the extra boost to the economy, whether it’s capital expenditures or whatever. Do you think the economy is accelerating, it’s still on steady footing, it’s the same or maybe it’s slowing down? And how should we think about the 10-year? And how do you think about the 10-year, and how do you manage to a flatter yield curve?Jamie DimonYes. So, just real quickly, Mari said, it’s almost 9 or 10 years of growth at 2%, averaging 20% over the 10 years, it really should have been closer to 40%. There is a lot of evidence that the slack in the system is being finally -- people going back to workforce. The consumer balance sheet is in good space, capital expenditure is going up, household formation is going up, home building is in short supply, the banking system is very, very healthy compared to the past. Consumer confidence and business confidence are very high, albeit off their highs, probably because of some of our trade. So, if you’re looking for potholes out there, there are not a lot of things out there, and growth is accelerating. And of course, things are always a little bit different. My own personal view is that the 10-year is 10-year. I wouldn’t say it has to happen the way it’s happened every time last time. I just think that’s a mistake. The fed is reversing the balance sheet. I think it’s very easy that rates can go up, the 10-year rates can go up in a healthy environment. In history, we’ve had rates going up where you had a healthy environment. It’s not always true that the 10-year going up is bad.Marianne LakeRight. I would also say that the shape of the curve is correlated to fed funds in a tightening cycle and that is what we’re seeing. So, while there are other factors weighing potentially on the 10-year in terms of still very accommodative central bank policy, particularly in the banks of Japan and the ECB where obviously trade is not necessarily constructive just in terms of the narrative, short-term underfunded pensions going into bumps, there are some technicals. But fundamentally, what you are seeing in terms of the flattening is pretty typical of a tightening cycle. And as long as it’s accompanied with solid to strong economic growth, it doesn’t concern us at this point. And in fact, as we’ve been pointing out, we are still levered toward fund and rates from a profitability perspective, and we do expect the curve to steepen over time.OperatorOur next question is from Glenn Schorr of Evercore ISI.Glenn SchorrJust one follow-up on the competition conversation. I just want to see, your loan growth decelerated but it was in line with your 7% to 8% goal. Your loan beta capture, what you’re getting on the pricing side is actually a little bit better than what you’ve given up on the deposit sign. So, that all seems fine, but this is the first time I remember putting in the comment about the competition. Are you still okay with the 7% to 8% goal? And maybe just an add-on to that, I’m just curious if part of the competition has anything to do with the private credit market that seems to be growing pretty strongly.Marianne LakeI would say just a tiny little correction. Our outlook was 6% to 7% core loan growth excluding the CIB. We’re at 7% now. Things are still moving ahead in line with that. I would also just point out that it is an outlook, not a target. So, while we still feel like that is our outlook at this point, we obviously are going to make the right decisions, based upon the environment that we’re in. Competitively the private credit market for commercial real estate, for leverage, lending, it’s competitive, but so are also the mainstream competitors. It’s just the environment is pretty constructive and everybody is trying to get access to the high-quality assets. So, margins are under pressure. And we will make sure we’re getting the right return for the risk we’re taking.Glenn SchorrOkay. And then, the follow-up on the expense side. If you did 16 times 4 would be 64. Your outlook is 62, but a lot of those were good expenses on better volumes. Are you still on track in your mind for the overhead ratio goals? I don’t want to overly focus on a dollar amount.Marianne LakeIt’s a couple of things. So, 62, remember, the 62 was before the impact of expense gross up. So, the actual full-year outlook was about $63 billion, about $63 billion including them. This quarter included one-time item, $174 million on the legal entity liquidation. We knew about that, obviously. So, it was in our number, but you can’t annualize it, you can’t sort of times it by four. So, you’re absolutely right. As we look out for the full year, to the degree that we would be above our -- our outlook is $63 billion, it would be largely driven, if not exclusively driven, by higher performance-related compensation on higher revenues, with the only other caveat that as you probably know, we are waiting as I’m sure you are for when the FDIC surcharge is taken away. The FDIC anticipated that would be in the middle of the year this year, but that is now potentially at some risk, moving out into the third or fourth quarter. So, while that could have an impact on this year, to answer your broader question, are we still on track for our expense overhead ratios? Yes.OperatorOur next question is from Saul Martinez of UBS.Saul MartinezSo, just following on the theme of economics and policy, to what extent do you see trade friction, geopolitical concerns, those things starting to impact client sentiment, whether it’s institutional or corporate clients? And ultimately, do you see that -- or how do you gauge that as being a risk to global growth and U.S. growth?Marianne LakeYes. So, I would say, so far, where we are is that trade is firmly part of the risk narrative. So, it’s definitely, as Jamie has said, on the psyche of people. But it’s not at this point causing them to change the strategic actions and decisions that they’re making, but clearly part of the conversation. And as currently outlined, it’s more of that than it is a real impact to sort of the global macroeconomic outlook. But that isn’t to say that uncertainty can’t ultimately lead to more challenges or slower growth but because confidence is a really important part of not just business investment cycle but also the financial market stability. So, at this point, it’s more of a risk narrative than it is an actual driver. But, it is important that that uncertainty is taken off the table.Saul MartinezOkay. And if I could just ask a quick follow-up, and I apologize if you addressed it earlier, a lot of multitasking this morning, but on the market side, you did much better than what Daniel suggested in his update in terms of year-on-year being flattish overall. Can you just give us a sense of what changed in the last month of the quarter?Marianne LakeYes. I’m going to say yes. In a nutshell, it got better. But let me just give you the context. The context is as you’ll recall, as we ended the first quarter, there were some bouts of volatility and clients became more cautious. And that carried over into the first part of this quarter. And so, while activity was fine, it wasn’t as strong. In the second half of the quarter, that generally faded, activity levels picked up. And I would say there were more catalysts. And ironically, one of the more catalysts when you’re thinking about trading volatility or intraday volatility or vol of vol, trade is part of that; emerging market idiosyncratic events are part of that. The European sovereign Italy situation, so, there’s just more catalysts in the market and just generally, more client participation.OperatorOur next question is…Marianne LakeSorry. Just to finish that to make sure that no one is confused. It was pretty broad based. It was pretty consistent throughout the second half of the quarter. And it wasn’t a lot of one-off large trades.OperatorAnd our next question comes is from Betsy Graseck of Morgan Stanley.Betsy GraseckJamie, I wanted to ask about the China investment. I know that you put in the press release that you announced this quarter plans for a more significant investment in China. I just wanted to understand the timing. Is this something that’s over the next year or this is a longer-term three to five-year? And if you could give us a sense as to how much is in your control versus needing regulatory approval from folks over there et cetera?Jamie DimonRight. So, I’ll just make a broader business comment for a second. We don’t run -- because I think we easily answered Mike Mayo’s question. We don’t run the business guessing about when there might be a recession because we know there’s going to be one. We already priced through recession. We like to blame clients, bankers, cards, accounts, products, services. That’s how we run the business. Some of the decisions you make are portfolio decisions. You can add to your mortgage portfolio or you can sell it. You can reduce your growth or the loans if you think the credit is bad. And of course, we will do that when the time comes, but we’ll still be adding accounts. And so, to me, I do</t>
+  </si>
+  <si>
+    <t>State Street Corporation (NYSE:STT) Q2 2018 Earnings Conference Call July 20, 2018  8:00 AM ETExecutivesIlene Fiszel Bieler - Global Head-Investor RelationsJay Hooley - Chairman and Chief Executive OfficerEric Aboaf - Chief Financial OfficerRonald O'Hanley - President and Chief Operating OfficerAnalystsGlenn Schorr - EvercoreKen Usdin - JefferiesAlex Blostein - Goldman SachsBrennan Hawken - UBSMike Carrier - Bank of AmericaBrian Bedell - Deutsche BankGeoffrey Elliott - Autonomous Research.Jim Mitchell - Buckingham ResearchBetsey Graseck - Morgan StanleyVivek Juneja - JP MorganBrian Kleinhanzl - KBWGerard Cassidy - RBC Capital MarketsJeff Harte - Sandler O'NeillOperatorGood morning, and welcome to State Street Corporation's Second Quarter of 2018 Earnings Conference Call and Webcast. Today's discussion is being broadcast live on State Street's website at investors.statestreet.com.This conference call is also being recorded for replay. State Street's conference call is copyrighted and all rights are reserved. This call may not be rerecorded or rebroadcast or distribution in whole or in part without the expressed written authorization from State Street Corporation. The only authorized broadcast of this call will be housed on the State Street website.Now I'd like to introduce Ilene Fiszel Bieler, Global Head of Investor Relations at State Street.Ilene Fiszel BielerThank you, Lisa. Good morning and thank you all for joining us. On our call today are Chairman and CEO, Jay Hooley; and our CFO, Eric Aboaf, will speak first on our second quarter 2018 earnings highlights followed by this morning's announcement of our agreement to acquire Charles River Development. Presentations on each of these are available for download on the Investor Relations website, investors.statestreet.com. Afterwards, Ronald O'Hanley, President and COO will join Jay and Eric for Q&amp;A.Before we get started, I would like to remind you that today's presentation will include adjusted basis and other measures presented on a non-GAAP basis. Reconciliations of these non-GAAP measures to GAAP are available in the addendum included in the 2Q '18 financial materials released today.In addition, today's presentation will contain forward-looking statements. Actual results may vary materially from those statements due to a variety of important factors such as those factors referenced in our discussion today. Our forward-looking statements speak only as of today, and we disclaim any obligations to update them even if our views change.Now let me turn it over to Jay.Jay HooleyThanks, Ilene, and good morning, everyone. As you've seen, we've announced our second quarter results as well as a definitive agreement to acquire Charles River Development, a premier front office investment management software solutions provider.Our acquisition of Charles River represents a key milestone in our digital and technology transformation aimed at leading the evolution of the investment servicing industry. We're very pleased with this transaction and we'll take you through the details a little later on the call.First, let me cover some of the highlights of the second quarter and then I will turn it over Eric to walk you through the 2Q '18 financials. We'll then discuss the announced acquisition in more detail.Our second quarter and year-to-date 2018 results reflects strength across our asset servicing and asset management businesses as we continue to deepen client relationships, win new business and advance our digital transformation. Second quarter earnings also included substantial EPS growth and increased return on equity.We continue to see strength across our core franchise. Equity market appreciation and new business lifted our assets under custody administration with growth of approximately 9% from second quarter 2017 to nearly $34 trillion. We saw year-to-date servicing commitments of approximately $1.5 trillion, of which approximately $105 billion were won in the second quarter with new business yet to be installed of approximately $300 billion as we installed the large Vanguard win and begin the BlackRock transition. And we are recognized as a number one FX provider to asset managers in the Real Money FX survey with the best overall customer satisfaction rate.State Street Global Advisors finished second quarter 2018 with assets under management levels of $2.7 trillion, up approximately 5% from second quarter 2017, driven by strength in equity markets and ETF flows with continued traction in our low-cost ETF products launched late last year.Furthermore, we continue to realize benefits from Beacon, our multi-year program to digitize our business and drive new solutions and innovations for our clients while creating greater efficiencies for State Street. We achieved a net benefit of approximately $60 million in both the first and second quarters of this year and now expect full year 2018 savings to be approximately $200 million, which exceeds our previously announced guidance of $150 million.Additionally, our ability to deliver new tools and functionality is proving to be a meaningful factor in point of differentiation and client decisions as demonstrated by the Vanguard win.Building on the success of Beacon, we are monetizing our digitization accomplishments and reducing manual processes. We are continuing to focus on achieving greater organizational effectiveness and streamlining as we move into the next phase of opportunities, which Eric will discuss further. To conclude, I'm very pleased with our financial performance to date. Revenue growth was strong, driven by both fee revenue and net interest income, reflecting the higher U.S. market interest rates, continued market appreciation, new business wins and higher trading activity. We remain focused on expense management, which you saw this quarter as we actively calibrated cost to revenues while prudently investing in new products and solutions.We also declared a common stock dividend of $0.42 per share in the quarter. And yesterday we declared a 3Q '18 dividend of $0.47 per share, representing an increase of 12% from 2Q '18 dividend. Importantly, we continue to be well positioned to achieve our financial objectives in 2018, including delivering full year positive fee operating leverage.And with that, over to you, Eric?Eric AboafThank you, Jay, and good morning, everyone. Please turn to Slide 4 where I will begin my review of 2Q '18 and year-to-date results. We have highlighted a few notable items, which we believe provide investors insight into specific initiatives as well as our underlying business trends.As you can see on the right, 2Q '18 results included net charge of $77 million or $0.17 per share consisting of $61 million of compensation expenses related to the organizational realignment and management delayering and $16 million of occupancy costs as we continue right size our real estate footprint. I'll also remind you that the quarters of 2018 reflect the impact of the new revenue recognition accounting standard. This has increased both total fee and total expense by $70 million year-over-year but as EBIT neutral.Now let me move to Slide 5 where most of my comments will focus on year-over-year results. 2Q '18 EPS increased to $1.88, up 23% compared to 2Q '17. Excluding the $0.17 related to the repositioning charge, 2Q '18 EPS increased to $2.05. Both 2Q '18 and year-to-date results reflect continued strength across servicing fees, management fees and trading services as well as continued improvement in net interest income supported by the higher interest rate environment.We continue to prudently manage expenses related to the revenue environment as demonstrated by an increase of 1 percentage point in 2Q '18 pretax margin. We achieved positive operating leverage of 1.4 percentage points compared to 2Q '17. Fee operating leverage was negative largely due to lower 2Q '18 securities and seasonality relative to 2Q '17, which were up 1.1 percentage points. Return on equity reached 14.7%, up 2.1 percentage points relative to 2Q '17.Now let me turn to Slide 6 to review AUCA and AUM performance. 2Q '18 AUCA of $33.9 trillion increased 9% from 2Q '17. Growth was primarily driven by a combination of market appreciation, strong new business and client activity especially in EMEA and our middle office outsourcing business. AUCA increased 2% sequentially driven by the insulation of a significant portion of the bank Vanguard in the first quarter offset by the previously announced BlackRock transition, which is about 50% complete and lower market levels.In our Asset Management business, AUM increased 4% from 2Q '17, driven by market appreciation and higher yielding ETF inflows partially offset by outflows from lower fee institutional index assets in a subdued market environment.Please turn to Slide 7, where I will review 2Q '18 revenue. Total fee revenue increased 6% relative to 2Q '17 reflecting solid performance across most of our businesses. Let me take you through some of the details. Servicing fees increased 3%, reflecting higher global equity markets, increased client activity and new business, partially offset by continued modest hedge fund outflows. On a sequential basis, servicing fees decreased due impart the lower global equity markets as well as the transaction of the previously announced BlackRock assets.Management fees increased 17%, benefiting from higher global equity markets as well as approximately $45 million related to the new revenue recognition standard. Management fees decreased on a sequential basis, reflecting lower global equity markets as well as net outflows in line with muted industry close this quarter. Trading services revenue increased 9%, primarily due to higher FX client volumes, driven by the depth of our FX capabilities and platforms, which continue to differentiate our offerings. Securities finance fees decreased, driven by lower seasonal activity into 2Q '18 relative to 2Q '17.Moving the Slide 8, NII was up 15% on a GAAP basis and then increased 19 basis points on a fully tax-equivalent basis relative to 2Q '17. NII benefited from higher U.S. interest rates and discipline liability pricing, partially offset by a mix shift to HQLA assets. NIM increased due to higher NII and a smaller interest earnings asset basis we reposition the investment portfolio at the end of first quarter. Deposit betas for the U.S. interest-bearing accounts continue to move a bit higher but stayed in line with our expectation. We continue to expect good growth in NII.Now let me turn to Slide 9 to review 2Q '18 expenses. Year-on-year expenses increased $21 million due to currency translation and $70 million related to the new accounting for revenue recognition. When considering these two effects, year-over-year expenses were well controlled, increasing just 2% from the year ago quarter as we actually manage the cost base and calibrated to revenues this quarter. Relative to 1Q '18 expenses decreased 4%, which included 1Q seasonally elevated compensation costs and the 2Q management delayering charge.Excluding these 2 items underlying expenses were well controlled, decreasing 1% sequentially. A top priority continues to be the actively managed expenses relative to revenues. From a line item perspective, let me cover the year-over-year trends quickly. Compensation employee benefits decreased 1% relative to 2Q ‘17 due to continued Beacon savings and lower performance related incentive compensation, partially offset by costs to support new business. Transaction processing increased relative to 2Q '17 reflecting higher client volumes and market levels as well as the impact of the new revenue recognition standard.Information systems increased relative to 2Q '17 as a result of higher Beacon related investments. Occupancy costs were up compared to 2Q '17, primarily driven by $16 million in the occupancy expense charge related to the continued rightsizing of our footprint, partially offset by a few discrete items that will not reoccur. Other expenses increased primarily due the new accounting for revenue recognition. Our intention is to keep second half expenses roughly in line with first half as of 1Q '18 seasonally deferred compensation bump.Let me now move to Slide 10 to review our progress on State Street Beacon. On the left side of the slide, you can see that we achieved almost $16 million in net Beacon sales this quarter by optimizing our core servicing business, transforming our IT infrastructure and by gaining efficiencies within the corporate functions and SSGA. Notably, we now expect to realize approximately $200 million savings in 2018, which exceeds our previously announced guidance of $150 million.Shifting to the right side of the slide, building on the success of Beacon, we are now transitioning to the next phase of efficiency initiatives that come as we begin to implement the organizational changes we announced in November, when we moved from a regional product structure to a single global highly functionalized business. We've thus recorded a $77 million repositioning charge related to management delayering as we implement this organizational change. We expect this repositioning charge to payback in about a year.Moving to the next slide, let me touch on our balance sheet. Our capital ratios remain healthy and all ratios increased. Also, as you are aware, last month, our 2018 capital plan received a non-objection from the Fed as well as some taxable conditions. The non-objection was based on our CCAR submission including a strategic change that contemplated the acquisition of Charles River as a potential transaction and the related capital ratio.Moving to the Slide 12, let me briefly summarize results. Both 2Q and year-to-date reflect continued business momentum resulting in year-to-date EPS growth of 30% and an increase in ROE of 2.5 points. Year-to-date total revenue increased 10% supporting over 3 percentage points of positive leverage as well as an increase in pretax margin of over 2 percentage points.Before turning the call back to Jay, let me briefly touch on our current outlook, which excludes any contribution from today's announced acquisition of Charles River Development. We remain on track to deliver on our 2018 financial objectives, including fee revenue growth of 7% to 8%, fee operating leverage of 75 to 150 basis points, NII growth of 10% to 13% and a tax rate of 15% to 17%. It remains the top priority to actively manage the expense base relative to revenue. And you can expect us to continue to do so.Now, let me turn the call back to Jay to start the discussion of our acquisition of Charles River, and then I'll be back to take you through the transaction details.Jay HooleyThanks, Eric. And let me ask everyone to please turn to Slide 3 in the second section of today's presentation on our acquisition of Charles River Development. Today's announcement represents an important milestone in the digital and technological transformation aimed at providing clients with differentiated solutions. And importantly, this transaction will allow State Street to address a fragmented and underserved approximately $8 billion front office revenue pool opportunity.Against the backdrop of significant industry change, institutional investors are relentlessly focusing on delivering better investment returns. At the same time, these investors face increasing complexity and regulatory expectations coupled with the needs to upgrade technology and manage costs while still focusing on product or geographic expansion. To address these challenges, they want solutions that add value across the front, middle and back-office.We believe that the combination of State Street and Charles River will create an unparalleled platform for our client that uniquely positions us as the first ever global front, middle and back-office solution providers in the industry. Importantly, our platform will be interoperable, meaning that will connect and exchange data with other industry platforms and providers as well as the client's proprietary systems.Charles River provides leading investment management software solutions to institutional asset managers, insurers, pension funds and wealth managers with a single investment platform for improved decision making, better risk management and greater efficiency while lowering costs. Building on our digital efforts, Charles River capabilities also include a comprehensive suite of advanced data management services.In addition the strategic benefits I just mentioned and Charles River's leading position in the industry, we believe the transaction is financially compelling. We expect to recognize significant cost and revenue synergies that will drive attractive long-term financial returns for State Street shareholders.In addition, the transaction generates an internal rate of return of approximately 14% with cost synergies only and greater than 28% with full costs in revenue synergies, excluding our cost of capital -- exceeding our cost of capital.Moving to Slide 4. Let me spend some time further highlighting Charles River’s business model. As I mentioned, Charles River is a leading provider of investment management software solutions, and importantly, the acquisition provides a leading front office platform and builds on our digitization efforts. Charles River’s capabilities also include a comprehensive suite of advanced data management services. Charles River has more than 300 clients, many of whom are also State Street clients with an aggregate asset under management of over $25 trillion. Revenue was $311 million in 2017 and notably 85% of Charles River's revenue base is recurring, providing a stable revenue stream, which is not dependent on market levels.On the bottom right of the slide, you can see Charles River’s broad client base and business segments. Charles River's reach by market segment in region is highly aligned with our target markets. We’ll also allowing opportunity to both expand share of wallet as well as the potential to add new clients. Notably, the acquisition will also enable us to meaningfully address the large adjacent revenue pool of the wealth advisor market.Let me briefly highlight how the acquisition enables us to create an integrated front to back platform by combining State Street's data and analytics and those are Charles River and third party providers.On Page 5, you can see what we mean by an integrated platform that optimizes the front, middle and back office. I’m often asked about our front, middle and back office capabilities. I think this slide helps bring those categories to life. On the left side of the slide you can see key activities within the front, middle and back office. Charles River's core front office capabilities for the investment management industry include portfolio modeling, construction and analysis, trade management and execution, order generation and pre-trade compliance aimed at an approximately $8 billion front office market. Charles River’s capabilities expanded to the middle office comprised of functions such as risk monitoring, client reporting, and post-trade support areas that complement our existing middle office offerings.As you’re well aware, State Street’s front, middle and leading back office competencies begin with data and analysis. It include middle office functions such as investment accounting as well as core back office functions of custody fund administration and fund accounting. On the far right of the slide, you can see that the acquisition will create a powerful new combination. Charles River enables State Street to further expand meaningfully into the front office and ultimately deliver an integrated front to back office platform, a compelling proposition to help those client's rationalize front office systems, enhance investment and risk management, extract meaningful insights from data and access additional sources of liquidity.With that, let me turn it over to Eric to further highlight why the acquisition is a compelling strategic opportunity. Eric?Eric AboafThank you, Jay. Let me review the deal terms and go into some detail on the points that Jay just highlighted. As you can see on Slide 6, the purchase price is $2.6 billion. This will be financed by sustaining buybacks from 2Q to 4Q '18, which is worth $950 million and the balance will be financed with roughly two thirds common equity and a third preferred stock. We will look to offset the preferred by a similarly size redemption is more expenses preferred in late 2019. Lastly, we expect the transition to close by 4Q '18.We are paying an attractive price for our premier front-office franchise. The PE with just cost synergies is 14 times and with full synergies is 10.5 times. The IRR in the transaction, which is a good benchmark on how we think about deploying capital, is about 14% with just cost synergies alone. This exceeds our cost of equity, which makes us confident an attractive use of capital. With full cost in revenue synergies the IRR is over 20%.The financial metrics of this transaction are attractive because we're bringing together two leading companies with highly complementary product offerings focused on exactly the same top-tier client base. So first, we expect Charles River to help accelerate State Street's annual fee growth by 75 to 125 basis points as we deliver on revenue synergies worth $80 million of EBIT by 2021, which I will detail out in a moment. Notably, Charles River's significant recurring revenue streams adds to and diversifies our current servicing fee revenue. Second, we planned to create efficiencies that will ramp up overtime, which results in cost synergies of $60 million in 2021. EPS accretion is also expected within 2 years.Moving to Slide 7, our combined client base will provide a natural opportunity to gain share of wallet among State Street and Charles River's existing clients, leveraging our platforms and delivering several additional services. To level set here at State Street we'll ready to serve about 75% or 155 of the top 220 institutional asset managers where we have senior relationships with CEOs, CIOs, COOs and business heads. Only half of the 155 are served by Charles River today as we detailed in the summary note at the bottom of the page.So let me outline several areas of opportunity. First, we can help Charles River to grow their client base by leveraging our 155 top tier relationships, which could significantly increase their penetration of our top clients. Second, we have the ability to further expand the existing relationships with more than 70 shared top-tier clients, which provide us with a unique opportunity to rollout a true front, middle and back-office platforms. No other custody bank can do this. Third, with this combination, we have the opportunity to operate in State Street platform to mid-sized institutions that represent the additional 45% of global asset management outside the top 220 institutions.Lastly, another exciting opportunity is to scale Charles River's established presence in the high-growth wealth management in private banking space. Here we can also leverage Charles River's Wealth Management solution to expand State Street's costing and accounting services into this attractive segment.Turning to Slide 8, let me provide a bit more details on how we will execute on these opportunities and the expected revenue in cost synergies as a result of the enhanced platform. By 2021, we are targeting annual revenue synergies to deliver EBIT of $75 million to $85 million and annual cost synergies of $55 million to $65 million.On the left side of the slide, you can see the components of the targeted revenue synergies. We have outlined these opportunities across five key categories each of which has a specific execution plan. $70 million to $75 million of the expected revenue synergies are driven by upgrading about 10 Charles River clients from client-sold software to the State Street Cloud and introducing Charles River to 10 to 15 State Street clients. We expect $55 million to $60 million of synergies to expanding our core, middle and back office services into Charles River’s existing base of top-tier and midsized clients. Approximately $70 million of revenue synergies are driven by expanding State Street data and analytic offerings. Gaining significant front office capabilities here supports our current front office data offerings allowing us to accelerate the growth of our global exchange business. This is particularly powerful for our joint clients. $35 million to $40 million will be achieved by integrating State Street’s premier trading platforms FX Connect, Currenex, Fund Connect into the part of our client investment workflows with Charles River’s platform, driving increased transaction volumes and trading fee revenues. And another $30 million to $35 million by penetrating the wealth management segment, which I just described. For each of these revenue opportunities, we conservatively assume product delivery cost base on fully loaded margins.Moving to the right of the slide, there are three main drivers contributing to the target $55 million to $65 million of cost synergies. First, we expect to drive operational efficiencies by streamlining existing custody, accounting and middle office operations lowering unit costs by $35 million. Second, Charles River enables State Street's retire legacy systems to achieve an additional $10 million to $15 million savings.And lastly, we expect $10 million to $15 million in expense savings related to the implementation of Charles River’s front office solutions within SSGA. This is a sort of benefit that many clients will see. And we've detailed this opportunity in the appendix. All of the savings can be realized from State Street’s existing cost base.Turning to Slide 9. Let me wrap up by highlighting the strategic and financial points to support the value that Charles River provides the State Street's businesses and shareholders. Overall, this transaction represents a significant milestone in our technology transformation, which creates a first ever front, middle, back office solutions and generates attractive financial returns.We are expanding into an $8 billion revenue pool, which is fragmented and underserved today. We expect to accelerate State Street's fee revenue growth as we round out asset management and asset services with a third nature of business. We expect EPS accretion within 2 years of the acquisition supported by various specific revenue and cost synergies. And while times accretion is a bit outside our traditional financial envelope, the intrinsic value and IRR are consulate above the cost of capital with cost synergies alone.Let me now turn it back over to Jay and we’ll be happy to take your questions.Jay HooleyThanks, Eric. And Lisa, we are now open for questions.Question-and-Answer SessionOperator[Operator Instructions]. Your first question comes from the line of Glenn Schorr with Evercore.Glenn SchorrSo question on Charles River deals. With Eze Castle and Bloomberg being other big independent players, I’m curious on why timing is now for vertical integration or I don’t know vertical is the right word, but the integration of front-to-middle-to-back. And then I’m curious on how pricing will work? Will Charles River continue to charge explicitly or will this being woven into the overall State Street relationship pricing?Jay HooleyYes, Glenn, this is Jay. Let me start that. I might ask Ron to comment as well. There is a clear trend, and it’s not a new trend in the world of front, middle, back to create more integration. You mentioned Eze and Bloomberg and BlackRock. We work with BlackRock on a similar solution where we were integrating front, middle and back office. Investment managers are under considerable pressure to get more efficient to gain greater access to data, to do more things for the single touch. So I think this front, middle, back integration is clearly the wave of the future. And up till now, it's been it's all fragmented with the custodians going into the middle office, but not all the way into the front office, you got some front office players working with middle and back-office players. So I think it's very clearly the direction of travel in this industry. And it will come together probably overtime even more so.I think it's also true that we mentioned the word interoperability, which is we have a series of clients and now with Charles River we have a combined series of clients that we can better link together the three components of middle, front and back office. But we also will continue to work with Bloomberg and we've got a significant partnership with BlackRock and Aladdin, where we're the largest custodian in integrating the lab provider and service. So it's going to happen in different forms.One last point I would mention is that one of the things that led us to Charles River was the State Street Global Advisors who a couple of years ago was looking to rationalize their front-office, which is something that most firms are in some form of doing. And landed on Charles River and that's what led us to Charles River. And SSGA will be one of the places where we'll integrate and where we'll control the front, middle and back-office to create a streamline interface, which will not only create efficiencies, free of data, but give us access to the front-office for the first time for some of our liquidity products and trading products. Now, would you add anything to that Ron?Ronald O'HanleySure, Glenn. This is Ron. What I would add to Jay's comments are that, in terms of your question on timing, it's a combination of pull from clients and where we are in our own digital and data journey. On that pull from clients, you need to be very well aware of this. Large asset managers and large asset owners that act like asset managers are operating with very complicated both technology and operations stacks. And there is a strong desire to simplify, a strong desire to get more straightforward processing and a strong desire to make better use of data in a timely way, which leads to the second point in timing.As you know we've been on this road now for a while with Beacon and there's a lot of things that Beacon is driving. But one of the things that it's driving is our ability to take client data and present it back to the clients in a highly usable form whether to reinjected back into the investment process for analytics et cetera. So it's this data-enabled platform that will work with Charles River, but as importantly as Jay said we'll interoperate with other providers because what that means not all investment managers are going to want the same thing, but the one thing they do want is some kind of platform that enables them to work with their providers of choice and not have to deal with the number of reconciliations.Jay HooleyAnd Glenn, let me just pick up the second question which was about pricing. We will keep Charles River as a standalone entity their uptake. There's a convenience of their local. They're right at the street from us. And it will continue to be Charles River, a State Street company. And in fact, we will combine some of our existing capabilities largely in the GX world into Charles River to make sure that from a pricing standpoint that is for the state and set of capabilities, which will have distinctive pricing separate from our middle and back office capabilities.Glenn SchorrOne last one, Eric. What cost of capital used in the IRR calculation?Eric AboafJust typical 10% to be conservative, so we think that’s appropriate for our business and then the other important part of the model of the IRR is always professional growth rate, which we tagged at 4%, which I think is overall on the low end of the range. But we thought, when we do these kinds of deals, we need to do it conservatively.OperatorYour next question comes from the line of Ken Usdin with Jefferies.Ken UsdinQuestion for you just as around the capital side of things here, Eric. I was just wondering if you could walk us through. What happens to capital ratios on a pro forma basis at closing? And just wondering you’re moving off the buyback in the 950 for this year. Why the decision to issue rather than just not buyback going forward in terms of saving that extra capital? Thanks.Eric AboafSure. The capital ratios are actually embedded in our CCAR submission. So you can actually take the controls as a pro forma. Obviously, I think we came in a little better in the second quarter than expected and that’ll flow through. When we, you can imagine this deal has been in process for a series of months and quar</t>
+  </si>
+  <si>
+    <t>Alphabet Inc. (NASDAQ:GOOG) Q1 2019 Results Earnings Conference Call April 29, 2019  4:30 PM ETCompany ParticipantsEllen West - Head, Investor RelationsRuth Porat - Senior Vice President and CFOSundar Pichai - Chief Executive OfficerConference Call ParticipantsEric Sheridan - UBSDoug Anmuth - JPMorganHeather Bellini - Goldman SachsAnthony DiClemente - EvercoreStephen Ju - Credit SuisseBrian Nowak - Morgan StanleyDan Salmon - BMO Capital MarketsColin Sebastian - Robert BairdJustin Post - Bank of AmericaRoss Sandler - BarclaysBrent Thill - JefferiesOperatorGood day, ladies and gentlemen. And welcome to the Alphabet First Quarter 2019 Earnings Call. At this time, all participants are in a listen-only mode. Later we will conduct the question-and-answer session, and instructions will be given at that time. [Operator Instructions]I’d now like to turn the conference over to Ellen West, Head of Investor Relations. Please go ahead.Ellen WestThank you. Good afternoon, everyone. And welcome to Alphabet’s first quarter 2019 earnings conference call. With us today are Ruth Porat and Sundar Pichai.Now, I will quickly cover the Safe Harbor. Some of the statements that we make today regarding our business performance and operations, and our expected level of capital expenditures may be considered forward-looking and such statements involve a number of risks and uncertainties that could cause actual results to differ materially. For more information please refer to the risk factors discussed in our most recent Form 10-K filed with the SEC.During this call, we will present both GAAP and non-GAAP financial measures. A reconciliation of non-GAAP to GAAP measures is included in today’s earnings press release, which is distributed and available to the public through our Investor Relations website located at abc.xyz/investor.And now, I will turn the call over to Ruth.Ruth PoratThank you, Ellen. In the first quarter, total revenues of $36.3 billion were up 17% year-on-year and up 19% in constant currency, following a strong 2018. Once again our results were driven by ongoing strength in mobile search, along with important contributions from YouTube, followed by Cloud.For today’s call, I will begin with a review of results for the quarter on a consolidated basis for Alphabet focusing on year-over-year changes. I will then review results for Google, followed by Other Bets and we will include with our outlook. Sundar will then discuss business and product highlights, after which we will take your questions.Let me start with a summary of Alphabet’s consolidated financial performance for the quarter. Our total revenues of $36.3 billion reflect a negative currency impact year-over-year of $1.2 billion or $1 billion after the impact of our hedging program.With respect to Alphabet revenues by geography, U.S. revenues were $16.5 billion, up 17% year-over-year. EMEA revenues were $11.8 billion, up 13% year-over-year and up 16% in constant currency, reflecting weakening of the euro and the British pound.APAC revenues were $6.1 billion, up 27% versus last year and up 31% in constant currency, reflecting primarily the weakness of the Australian dollar and the Indian rupee.Other Americas revenues were $1.9 billion, up 10% year-over-year and up 21% in constant currency, reflecting primarily the weakening of the Brazilian real and Argentine peso.Turning to profitability, in our earnings press release, we provide a table to highlight the impact of the year European Commission fine on operating income, net income and EPS results in the first quarter. I will comment on resu lts both with and without the impact of the fine as I review the results.On a consolidated basis, total cost of revenues including TAC, which I will discuss in the Google segment results, were $16 billion, up 19% year-on-year. Other cost of revenues on a consolidated basis was $9.2 billion, up 27% year-over-year, primarily driven by Google related expenses. The biggest contributor was costs associated with our data centers and other operations including depreciation, followed by content acquisition costs primarily for YouTube and mostly for our advertising supported content, but also for our newer subscription businesses YouTube Premium and YouTube TV, which have higher TAC as a percentage of revenues.Operating expenses including the impact of the EC fine were $13.7 billion. Excluding the impact of the fine, operating expenses were $12 billion, up 20% year-over-year. The biggest increase was in R&amp;D expenses with headcount growth in Cloud as the largest driver. Growth in sales and marketing expenses primarily reflects additions to headcount. Growth in G&amp;A expenses is primarily due to legal matters, including the effect of a legal settlement gain recorded in the first quarter of 2018.Stock-based compensation totaled $2.8 billion. Headcount at the end of the quarter was 103,459 up 4,688 from last quarter. Consistent with prior quarters, the majority of new hires were engineers and product managers. In terms of product areas, the most sizable headcount increases were in Cloud for both technical and sales roles.Operating income was $6.6 billion. Excluding the impact of the EC fine operating income was $8.3 billion, up 9% versus last year for an operating margin of 23%.Other income and expense was $1.5 billion. As I trust most of you are aware, in 2018 this line item was meaningfully elevated because of the introduction of a new accounting standard that requires recognition of unrealized gains and losses on equity securities. We provide more detail on the line items within OI&amp;E in our earnings press release.Our effective tax rate was 18.3% for the first quarter reflecting a sizable impact from the non-deductibility of the EC fine.Net income was $6.7 billion and earnings per diluted share were $9.50. Excluding the impact of the EC fine, net income was $8.3 billion and earnings per diluted share were $11.90.Turning now to CapEx and operating cash flow. Cash CapEx for the quarter was $4.6 billion, which I will discuss in the Google segment results. Operating cash flow was $12 billion, with free cash flow of $7.4 billion. We ended the quarter with cash and marketable securities of approximately $113 billion.Let me now turn to our segment financial results, starting with the Google segment. Revenues were $36.2 billion, up 17% year-over-year. In terms of the revenue detail, Google Sites revenues were $25.7 billion in the quarter, up 17% year-over-year.In terms of dollar growth results were led again by mobile search, with a strong contribution from YouTube, followed by desktop search. Network revenues were $5 billion up 8% year-on-year, continuing to reflect the performance of the primary drivers of growth AdMob followed by Google Ad Manager.Other revenues for Google were $5.4 billion, up 25% year-over-year fueled by Cloud and Play and partially offset by hardware. Google Cloud Platform remains one of the fastest growing businesses in Alphabet with strong customer momentum reflected in particular in demand for our compute and data analytics products. Strong growth in Play was driven particularly by performance in APAC.Hardware results reflect lower year-on-year sales of Pixel, reflecting in part heavy promotional activity industry-wide, given some of the recent pressures in the premium smartphone market. We provide monetization metrics in our earnings press release to give you a sense of the price and volume dynamics of our Advertising businesses.Total traffic acquisition costs were $6.9 billion or 22% of total Advertising revenues and up 9% year-over-year. Total TAC as a percentage of total Advertising revenues was down year-over-year, reflecting a favorable revenue mix shift from Network to Sites, as well as a decrease in the Network TAC rate.The Sites TAC rate was flat year-over-year, as the impact of the ongoing shift to mobile, which carries higher TAC was offset by the growth in TAC free Sites revenue primarily from YouTube. In Q1, the Network TAC rate declined year-on-year primarily due to a favorable product mix shift.Google stock-based compensation totaled $2.6 billion for the quarter, up 13% year-over-year, operating income was $9.3 billion, up 11% versus last year and the operating margin was 25.8%. Accrued CapEx for the quarter was $4.5 billion, reflecting investments in data centers, servers and office facilities.Let me now turn to and talk about Other Bets. Revenues were $170 million primarily generated by Fiber and Verily. Operating loss was $868 million. Other Bets accrued CapEx was $59 million.Key recent accomplishments include, Waymo recently announced that it will expand its activities in Michigan, opening a facility into Detroit that will be the first factory dedicated to the production of L4 autonomous vehicles.Last week, there were exciting announcements from two traditional Other Bets that were originally incubated within X. Loon announced a long-term strategic relationship to advance the use of high altitude vehicles to deliver connectivity, with SoftBank’s telecoms group HAPSMobile, which will invest $125 million in Loon.Wing became the first drone delivery company to receive air carrier certification from the FAA, an important step toward beginning a commercial service delivering goods from local businesses to homes in the U.S.Let me close with some observations on our priorities and longer term outlook. As we highlighted on our last call, there was a significant swing year-over-year in the impact of currency movements on our results this quarter, from a big tailwind in the first quarter of 2018 to a headwind in 2019.These affect both revenues and operating income given the majority of our expenses are in the U.S. Based on the continued strengthening of the U.S. dollar relative to key currencies, we expect to continue to headwind to our revenues and operating income again in the second quarter.In terms of our key revenue drivers, with respect to Sites revenues, as we indicated last quarter, the timing of product changes in ads at times can have an impact on year-on-year growth rates. We will continue to make changes with a focus on the long-term best interest of users and advertisers.We remain confident about the sizable opportunity ahead to improve the advertiser and user experience through our ongoing commitment to product innovation, in particular by leveraging machine learning across our ads products and properties.Turning to the key drivers of growth and other revenues. We are pleased with the momentum of Google Cloud platform, with balanced growth of both new customers and expansion within existing customers driving revenue growth.With respect to hardware results, while the first quarter results reflect pressures in the premium smartphone industry, we are pleased with the ongoing momentum for Assistant-enabled Home devices, particularly the Home hub and Mini devices and look forward to our May 7th management at I/O from the hardware team.Turning to profitability, with regard to Google OpEx, the first quarter results once again reflect our ongoing commitment to investing for the long-term. You can see that in R&amp;D where we continue to invest in technical talent for priority areas like Cloud, search and machine learning.In terms of sales and marketing, the pace of investment in Q1 reflected a timing shift in spend and we expect these expenses to pick up in the second quarter. In Other Bets OpEx, we are still early in the life of these companies and do plan to continue to invest meaningfully for the long-term opportunity.With respect to CapEx, the year-on-year decline reflects the purchase of a building in New York in the first quarter of 2018. As discussed on our call last quarter, while we anticipate that our full year CapEx investments will exceed those in 2018, the growth in investments should be at a meaningfully lower rate than in 2018. We continue to expect a sizable investment in both compute requirements to support long-term growth, as well as in office facilities.In conclusion, we feel confident about the opportunities ahead and we continue to invest thoughtfully for the long-term.I will now turn the call over to Sundar.Sundar PichaiThanks, Ruth. It’s great to be here with you all. Q1 was a very busy quarter at Google and it’s only going to get busier. Later this week, we will host YouTube’s upfronts events BrandCast followed by our Annual Developer Conference Google I/O next week and our advertising summit Google Marketing Live later in the month. You will hear a lot more from each of these teams throughout May, so I hope you can join us.We will always be a company that’s focus on the long-term willing to make investments that will help our businesses and our customer’s businesses succeed as technology continues to evolve. You saw this in the transition to mobile computing years ago and we are seeing that today in the shift to AI.We feel very positive about the enormous opportunities ahead involving search and assistant, capturing new ad budgets, cloud computing, AI and other areas. What gives us these opportunities as Google’s position to help people, businesses and society in countless ways through our products.Today, I will start by talking about our core mission of making information universally accessible and useful, then I will provide an update on our computing video and advertising platforms, and finally, I will discuss our hardware and cloud efforts.First, an update in our mission to make information accessible and useful is helping people every day. A big focus for us is building products that are designed to help people in their day-to-day lives.Our Duplex technology within Google Assistant can now help you easily book a table at your favorite restaurant on all Android and iOS devices in 44 U.S. states. Just tell the Assistant where you want to go and when and it will do the rest.We have also began testing AI walking navigation in Google Maps, which uses augmented reality and give phone’s camera to show you where you are relative to the surroundings as you are walking.Just last week, we announced an improved job search experience in the U.S., that helps people easily discover quality remote jobs, allowing them to work right from home. As part of our Google news initiative, we kicked off the local experiments project, working with local publishers to uncover new approaches to their business models and operations, so they can continue bringing great local content to the readers.AI is now spurring a new era of computing, which is more predictive and more assistive. We are committed to doing deep research and working to advance the space in a responsible way. AI is deeply embedded in our products, from Search to Photos to Google Home and we are also expanding other’s ability to build on our advancements.Recently at TensorFlow’s Annual Developer Summit, we announced TensorFlow 2.0, making it easier than ever to build an UCML through improvements like TensorFlow Privacy, which helps train models with differential privacy, meaning that users’ data is better protected.Now on to our computing, video and advertising platforms. There’s tremendous momentum across the Android ecosystem and our other computing platforms as we head into Google I/O. In the first quarter we released the beta of Android Q, which brings added privacy protections, new tools for developers to engage users and more.Android Go Edition, an optimized version of Android tailored for smartphones with one gig or less delivers a powerful fast and secure experience, specifically optimized for entry level smartphones. Today roughly 70% of entry level Android devices are now activating with Go like Samsung’s J2 Core.We are seeing great momentum in Android Auto as well. At the Chicago Auto Show, Toyota announced that it will include Android Auto in upcoming vehicles starting in 2020. That means all of the top 10 carmakers now support Android Auto, and in Google Play, first-time buyers grew by nearly 50% year-over-year. I am very pleased with how these platforms are growing and creating amazing experiences for users, developers and partners.Our newest platform Stadia, which revolutionizes the way gamers access and play their favorite games and brings together the best of Google’s infrastructure and open ecosystem approach. With Stadia, you will be able to play advanced AAA games on any type of screen instantly without ever needing to download the game or install updates. The reception from gamers in the industry has been incredible and we look forward to sharing more when it launches later this year.Next our video platform, YouTube. YouTube’s top priority is responsibility. As one example, earlier this year YouTube announced changes that reduce recommendations of content that comes close to violating our guidelines or that misinforms in harmful ways. There are a lot more improvements, which we will be rolling out in the next few weeks and our work is ongoing.We have also expanded the content offering, availability and the functionality on some of our newer YouTube experiences. YouTube TV is now available nationwide with many new networks and channels added in Q1.YouTube Music and YouTube Premium are now available in 43 countries up from five markets at the start of 2018. In mid-March, we launched YouTube Music in India, one of YouTube’s fastest growing markets. Since launch, the YouTube Music app has been downloaded more than 15 million times in the country.YouTube’s Ad business, for both brand and direct response campaigns, continues to grow and support our creators. In Q1, we again saw how YouTube is the go-to destination for watching Super Bowl ads before, during and after the big game. This year viewership of Super Bowl ads on YouTube during the game grows by nearly 60%.More broadly, across our Ads business, our advertising product team led by Prabhakar continues to build new products for marketers, with more than 100 enhancements introduced every quarter. We do rigorous testing on each of these improvements to ensure that we are creating the best experience for users and advertisers.Our focus has always been on investing for the long-term rather than managing for results quarter-to-quarter. I feel really positive about the opportunities ahead and the innovations that we are bring to marketers, many of which are powered by machine learning.Philip on our business teams had done a great job helping advertisers take full advantage of these new capabilities. For instance, more than 70% of our advertisers are already using automated bit strategies and Google Ads and these MO powered technologies help customers get better results for their investments.In Q1, we began testing new shoppable ad units and Google Images so brands can highlight multiple products available for sale in sponsored image results. You have also seen us make it easy for people to buy products and take action when shopping on Google Assistant and search with a universal cart on mobile, desktop and Google Home devices. Since we launched these capabilities a year ago, the number of participating merchants has increased sevenfold.Lastly, at the Game Developers Conference, we introduce a host of the advertising solutions for developers, like app campaigns for engagement, which help developers reengage players with relevant ads across Google’s properties.Next, I will give an update on our hardware and Cloud efforts. First hardware, I am very proud that in only a few short years, we have built a strong foundation in hardware. For example, demand for our Google Home family of products remain strong, especially the Home Mini and Home Hub. The breadth and depth of our product lines across Pixel, Nest and Home is amazing and you will see us continue to develop this incredible lineup.The team has also done a lot of work to scale our operations and we will continue to optimize our distribution, branding and points of business. We also announced the new campus and engineering hub in Taiwan, largely to support our hardware efforts.Not only our features like Night Sight in Pixel winning industry awards, but Net Promoter Scores tell us that many people who use our hardware products truly love them, which is particularly important as we move into this new era of computing. We are still early in our hardware journey and when I look ahead of the portfolio that we have created across Pixel Home and Nest, I feel really good about the range of products that we have.And finally, our growing Cloud business. Thomas has really hit the ground running. Just a few weeks ago, I was on stage with him at our Cloud Next event, where we hosted a sold-out crowd of more than 30,000 attendees.As I said at Next, moving to the Cloud should be simple and seamless. I was excited to announce and toss, which give customers a very elegant solution to both hybrid cloud and multi-cloud in a single technology stack. The early feedback from analysts, customers and partners has been a really great.We also announced innovations across many of our other products that enabled developers to build and deploy AI, help enterprises to better secure their data, allow Android users to leverage their phones as a security key and much more.We are also deeply committed to becoming the most customer-centric Cloud provider for enterprise customers and making it easier for companies to do business with us. Thanks to new contracting, pricing and more.Today nine of the world’s 10 largest media companies, seven of the 10 largest retailers and more than half of the 10 largest companies and manufacturing, financial services, communications and software use Google Cloud.Some of the companies that we announced at Next included the American Cancer Society and Mekason in health care. Media and entertainment companies like USA Today and Viacom, consumer packaged goods brands like Unilever, manufacturing and industrial companies like Samsung and UPS, and public sector organizations like Australia Post.Finally to support our customer’s growth, we also announced the addition of two new cloud regions in Seoul and Salt Lake City, which we plan to open in 2020. These new cloud regions will build on our current footprint of 19 cloud regions and 58 data centers around the world.20 years in and over 100,000 employees strong, I am incredibly proud of the work that our teams at Google do every day. We have so many bright opportunities ahead and seizing those opportunities starts with their investment in the communities where we operate around the world and right here at home.In the U.S., not only are we expanding our workforce across the country, but we are helping people in every state, gain the digital skills they need to succeed in today’s economy. In fact just one-year after kicking off our collaboration with Goodwill, 250,000 Americans have learned new digital skills and 27,000 have found a job.We also feel a deep responsibility to make sure that we -- that as we grow our business, we are doing it with minimal impact on the environment. Today, a Google data center uses 50% less energy than a typical data center, while delivering seven times more computing power than we did five years ago.Since 2017, we have matched 100% of the electricity consumption of our operations with purchases of renewable energy and I am proud that Google is the world’s largest corporate buyer of renewable energy. I have never been more excited about Google and where we are headed. I want to thank every Googler around the world for joining us on that journey.With that, I will hand it back over to Ruth.Ruth PoratThank you, Sundar. And we will now take your questions.Question-and-Answer SessionOperatorThank you. [Operator Instructions] And our first question comes from Eric Sheridan of UBS. Your line is now open.Eric SheridanThanks for taking the question. Maybe a couple of parts on the revenue performance in the quarter. Ruth, you would called out potential volatility on the Q4 earnings call. I wanted to understand a little bit about what you are calling out in Q4 and how that might have manifest itself in Q1 on the product side of the equation, so we could just better understand how much of it was isolated to Q1 or it might be a headwind as we move through the year? And as you look at the individual performance of the ad divisions in sites, desktop, mobile search, YouTube, it seems like you were still calling out strength in mobile search in YouTube. So could it be desktop search where we actually saw some weakness in the quarter? Thanks so much for any granularity and color on that.Ruth PoratSure. Thanks Eric. So I will try to step back and start at the highest level. Obviously, on a reported GAAP basis revenue growth in Q1 reflects the FX headwind that we talked about in contrast to the tailwind last year and as you know well, we don’t report sites revenues on a fixed FX basis, but the delta between fixed and floating growth rates the Alphabet level is a good proxy for the effect on sites revenue.Beyond that, I tried to draw that the year-on-year growth rate in part reflects our strong 2018. And then more to your question as we indicated last quarter, the other item is the timing of product changes in Ads can impact year-on-year growth rates and we make changes with the focus on the best interest of users and advertisers over the long-term we do not manage by quarter, so we are introducing enhancements only after product testing, and that was sort of the overarching color that I was trying to give you.And in terms of desktop it was a modest contributor to revenue growth. It does remain an important form factor for certain more complex tasks such as planning vacations or assessing insurance options. And as we have talked about in prior calls, we continue to see the ongoing importance of desktop for many users and many tasks, notwithstanding the growing utility of mobile. So I led with the items that are really driving the growth but that was a bit more color on desktop for you.Eric SheridanThank you.OperatorThank you. And your next question comes from Doug Anmuth of JPMorgan. Your line is now open. Once, again, Doug Anmuth, your line is now open, please check your mute button.Doug AnmuthYeah. Thanks. Sorry about that. So two questions, just following up on Eric’s on the revenue growth. Ruth can you just give us a little bit more detail on the paid click growth, the decel that we saw that at 39% from the 50%s and 60%s last year. That’s just a comp issue or something more specific? And then just on the spending side, I want to understand a little more just how you are thinking about spending relative to three months ago. I know you talked about both CapEx moderating and also headcount moderating three months ago. Just curious at least that headcount is still in that camp figure thinking just given that it seems like there’s a pretty big ramp expected under the new Cloud CEO? Thanks.Ruth PoratOkay. So, starting with clicks and CBCs. As we have discussed on prior calls the biggest driver affecting those CBCs and click trends is YouTube engagement ads with YouTube Clicks representing the vast majority of total clicks. And so while YouTube Clicks continue to grow at a substantial pace in the first quarter, the rate of YouTube Click growth decelerated versus what was a strong Q1 last year reflecting changes that we made in early 2018, which we believe are overall additive to the user and advertiser experience.And then in terms of your two spending the investment questions, in terms of headcount, first, we do continue to expect the growth rate to moderate slightly in 2019 from the year-on-year growth in 2018. And as I indicated in opening comments, we are continuing to invest in technical talent for priority areas like cloud, search and ML. And so cloud has been and continues to be the primary area of headcount growth and as Thomas indicated as well, I think Sundar did as well.In terms of CapEx just to fill up the last part I think of your question. Relative to my comments last quarter that we expect the full year 2019 growth rates for CapEx to moderate quite significantly versus the year-on-year growth in 2018, there’s no change in our expectation for the year on that point either.The first quarter last year obviously included a sizable real estate acquisition in New York. But, overall, we continue to invest meaningfully in our technical infrastructure given our outlook for compute requirements to support long-term growth.Technical infrastructure is the biggest driver of CapEx growth, but we do also continue to invest in office facilities. In fact, as we announced in the first quarter, we expect CapEx of over $13 billion in 2019 just in the U.S. in data center construction and offices, with major expansions in 14 states.And more generally, while we are investing aggressively to support our outlook for compute requirements, we are also very focused on improving efficiency with our technical infrastructure and you can see that through our innovations and things like custom server hardware and TPUs, which can be more cost-effective especially for machine learning workloads.Doug AnmuthThank you.OperatorThank you. And our next question comes from Heather Bellini of Goldman Sachs. Your line is now open.Heather BelliniGreat. Thank you. Sundar, I had a question about Cloud. You guys are obviously talking more and more about it. But when do you think you are going to be in a position to share revenue figures or even growth rates similar to what the others have been sharing for quite some time? And then, I guess, a couple of follow-ups to that are what would you say the biggest competitive differentiators are of GCP. And what also -- what changes has Thomas implemented for 2019? What are any of the big changes he’s focused on that maybe are different than what you are doing before? Thank you.Sundar PichaiThanks, Heather. Good question. Overall, I would say, I think, you saw it -- saw the momentum coming out of Next. And I would say, the high level the key differentiators which we are focused on and which we hear from customers to the five key things are security and reliability, being really open about hybrid multi-cloud, customers don’t want to be locked into anyone Cloud provider.We want to be a platform for open source and so we are really working well there in enabling options. AI, ML as a capability. And finally, as customers think about digital transformations we bring all of Google’s advances to bear to help them through the journey.I think I would say, Thomas is really building upon a strong foundation, but we are really accelerating and scaling up go-to-market both internally and through our channel partners has been a huge focus. I am incredibly excited that, we just announced a couple of weeks ago that Rob Enslin has joined us to head go-to-market and just along with Thomas, both of them bring close to three decades of serving enterprise customers, and so that reflects the commitment we have. I think we are building a strong business across all our verticals, and we are definitely are seeing a strong momentum, and look forward to being able to share more at the appropriate time.Heather BelliniThank you.OperatorThank you. And our next question comes from Anthony DiClemente of Evercore. Your line is now open.Anthony DiClementeThank you for taking my question. I have two, one for Ruth, one for Sundar. We noticed that large than expected slowdown in the properties TAC in the quarter that includes cost of mobile search, while the other cost of revenues which includes YouTube content cost seem to maintain an expected growth rate despite what you said about more moderate turns in hardware. So just wondering if that’s a wise way to infer anything about the relative performance of mobile search revenue versus YouTube from those cost lines in the quarter? And then on Waymo, maybe for Sundar, we are hearing more and more about collaborations between ridesharing networks and AV provider, so the idea of mixed fleets or part human part AV as a means of potential deployment of AV technology. So can you just comment if that mixed lead approach would be something that you think Waymo would consider versus its own full ride service network? Thank you.Ruth PoratSo in terms of the sites TAC rate, a couple of things, we have discussed this previous -- on previous calls. We have expected the year-on-year growth in the TAC rate would begin to slow, starting in the second quarter last year and you saw that through the balance of 2018.And this quarter, the constant TAC rate versus last year reflects ongoing growth in mobile, but it also benefited from growth in YouTube, where the as</t>
+  </si>
+  <si>
+    <t>General Electric Co. (NYSE:GE) Q1 2019 Earnings Conference Call April 30, 2019  8:30 AM ETCompany ParticipantsSteve Winoker - Vice President, Investor CommunicationsLarry Culp - Chairman and Chief Executive OfficerJamie Miller - Chief Financial OfficerConference Call ParticipantsJulian Mitchell - BarclaysScott Davis - Melius ResearchJeff Sprague - Vertical ResearchSteve Tusa - JPMorganGautam Khanna - Cowen and CompanyDeane Dray - RBC CapitalNigel Coe - Wolfe ResearchNicole DeBlase - Deutsche BankAndrew Kaplowitz - CitiAndrew Obin - Bank of AmericaJohn Walsh - Credit SuisseOperatorGood day, ladies and gentlemen and welcome to the General Electric First Quarter 2019 Earnings Conference Call. At this time, all participants are in a listen-only mode. My name is Brandon and I will be your conference coordinator today. [Operator Instructions] As a reminder, this conference is being recorded. I would now like to turn the program over to your host for today’s conference, Steve Winoker Vice President of Investor Communications. Please proceed.Steve WinokerThanks, Brandon. Good morning, all and welcome to GE’s first quarter 2019 earnings call. I am joined by our Chairman and CEO, Larry Culp and CFO, Jamie Miller. Before we start, I would like to remind you that the press release presentation, supplemental, and 10-Q have been available since earlier today on our investor website. We are pleased to file our 10-Q in concert with our earnings, a practice we began in October with our third quarter earnings report. Please note that some of the statements we are making today are forward looking and are based in our best view of the world and our businesses as we see them today. As described in our SEC filings and on our website, those elements can change as the world changes.With that, I will hand the call over to Larry.Larry CulpSteve thanks. Good morning, everyone and thank you for joining us. I will begin with an overview of our first quarter performance and an update on our strategic priorities, Jamie will cover the quarter in greater detail and then we will take you through segment performance and I will wrap up before we go to questions.To start, as we said in March, on our outlook call, 2019 is a reset year for GE as we make decisions and investments that will position us well for the long-term, but we will have near-term impacts on our financial performance, particularly our cash flows. And while we have made some progress in the first quarter delivering results ahead of our own expectations, especially on industrial free cash flows, this is largely due to timing of certain orders and customer collections we expected later in the year. You know as well as I do that one quarter is a data point, not a trend. The guidance we provided a month ago remains unchanged. It’s early in the year and this is one quarter in a multi-year transformation. In total, we are confident in our ability to deliver on our full year expectations that we laid out for you last month during the outlook call. We continue to believe that our 2020 and 2021 financial results will be meaningfully better.With respect to the quarter, orders were up 9% organically due to strength in Power, Aviation and Oil and Gas. Industrial revenue was up 5% organically driven by growth in each segment, except for Power. Industrial operating margins contracted 160 basis points organically driven by declines in Power, Renewable Energy and Aviation. And all of this resulted in adjusted EPS of $0.14 and GAAP continuing EPS of $0.11. Our adjusted industrial free cash flow was a negative $1.2 billion, which was significantly better than our expectations. In Power and Aviation, orders and customer collections came through earlier than we had anticipated. While there were puts and takes, these timing items should balance out over the remainder of 2019. We had higher earnings than we expected and saw some improvements in execution, but again, it’s early.I will talk to this in more detail when I cover our strategic priorities on the next slide. Throughout the remainder of this year, we will make significant investments in our future, such as restructuring, which will be second half loaded. As we said on the outlook call, we have not planned for profession meaning we had built in general contingencies to cover potential shortfalls related to market and execution risks. However, the grounding of the Boeing 737 MAX was not included in our original planning and presents a new risk.With respect to the MAX, first let me express our deepest condolences to the families and friends of all those lost in the tragic accidents in Indonesia and Ethiopia. The flying public’s confidence in the safety of flight is the foundation of the aviation industry and we all take that responsibility as paramount. We have a strong partnership with Boeing. We are confident in the 737 MAX aircraft. We are working closely with Boeing through the recertification process. And while the planes are on the ground, we are conducting proactive scheduled maintenance on the engines. The timing of the MAXs’ return to service is uncertain and we are carefully managing our own operations accordingly.Turning to Slide 3, this is a game of interests and we have a long way to go. Yet we made some progress in the first quarter on our two strategic priorities. We’ve taken action to improve our financial position. This includes the announcement of the sale of BioPharma to Danaher, which results in about $20 billion of cash proceeds and gives us flexibility and optionality on our remaining healthcare business as well as the closing of GE Transportation, which delivered $2.9 billion in cash while retaining approximately 25% stake in Wabtec which we intend to monetize over time beginning in the second quarter.At GE Capital, we completed $1 billion of capital asset reductions we paid down $2 billion of external debt and closed the MUFG transaction in the quarter. We have ended the quarter in a strong liquidity position, with more than $30 billion of cash in industrial and capital combined. We still have work to do, but we are committed to running GE on a stronger financial foundation. Our other strategic priority is strengthening the businesses, starting with Power. We are focused on running more empowered, accountable businesses that connect our operating plans to our customer’s successes. The power turnaround is in the early stages as we adjust to market realities, move past some non-operational headwinds and improve our daily execution. In our operating reviews on our plant floors and in our job sites, I see plenty of improvement opportunities and frankly take encouragement from the early signs of progress such as deep assessments that are candid about where we’re winning and losing, a reemergence of lead in all that we do and a conviction on the part of this team that we can improve and we will win. We also booked about 4.5 gigawatts of equipment orders at Gas Power in the quarter. These orders are primarily U.S. contracts at good margins.At Aviation and Healthcare, we are playing offense and we saw continued order strength, with Aviation up 7 and healthcare systems up 5. At Renewable Energy, we are managing through the PTC cycle, which is creating cash headwinds at the business this year. But all the while we continue to invest for the long term with our next generation offshore and onshore wind platforms Haliade-X and Cypress and at capital we continue to de-risk the portfolio. We settled the DoJ FIRREA investigation of WMC for $1.5 billion and completed our insurance statutory cash flow test and $1.9 billion funding in line with our plan.Stepping back, GE has important meaningful businesses operating from positions of strength. We have exceptional technology in which we continue to invest, with a valuable installed base and recurring revenue streams. Today our installed base of approximately 70,000 aircraft engines, 7,000 gas and aero turbines, as well as more than 4 million healthcare systems and 40,000 onshore wind turbines, all of which helped drive over 50% of our revenues, which come from supporting and servicing that installed base.Our digital team continues to unlock the value of that installed base by turning machine data into powerful insights and outcomes for GE businesses and our customers. Our backlog today stands at $374 billion, up 6% from a year ago. We have a global network of close customer relationships and a highly respected brand. Most importantly, we have a capable team showing grit, resilience and commitment. So we made some progress in the quarter, but as I said, it’s just one quarter in a multi-year journey. With better execution and a stronger balance sheet we will continue over time to create sustainable shareholder value.And with that, I’ll hand it over to Jamie to go through the quarter in greater detail.Jamie MillerThanks, Larry. I will start with the first quarter summary. Note that our results on a continuing basis include transportation and its history, which was reclassified to discontinued operations this quarter. Also our Lighting business is now included in our corporate results. Orders were $26.2 billion, up 1% reported and up 9% organically with strength in equipment orders up 11% organically driven by Power, Healthcare and Oil &amp; Gas. Services orders were up 7% organically driven principally by Aviation. Revenue was down 2% with Industrial segment revenues down 2% on a reported basis and up 5% organically driven by Aviation, Oil &amp; Gas and Healthcare. Both equipment and services revenues were up 5% organically.Adjusted industrial profit margins were 8.8% in the quarter, down 120 basis points year-over-year on a reported basis and down 160 basis points on an organic basis driven by significant declines in Renewables, Aviation and Power. Aviation margins were down primarily from the CFM to LEAP engine transition, margin contraction in the first quarter was in line with our expectation and we continue to expect industrial margin expansion for the year. Net earnings per share, was $0.40 which includes discontinued operations for both GE Capital and Transportation. In the quarter, we recorded a $2.5 billion after-tax gain related to the sale of Transportation to Wabtec, which is included in discontinued operations. GAAP continuing EPS was $0.11 and adjusted EPS was $0.14.I will walk through adjusted EPS on the right hand side of the page. Starting from GAAP continuing EPS of $0.11, we had $0.05 of gains, principally from the sale of ServiceMax, as well as a gain from a favorable resolution on an NBCU tax audit for which we had indemnified Comcast. On restructuring and other items, we incurred $0.03 of charges, principally in corporate and power as we continue our cost out actions for those segments in line with our stated plan. Non-operating pension and other benefit plans were a drag of $0.05 in the quarter. And lastly, during the quarter, final regulations on the US tax reform transition tax were issued, which resulted in an update to our computation of transition tax and tax impacts for 2017 and 2018. This resulted in a $0.01 negative impact in Industrial and a $0.01 favorable impact in GE Capital, offsetting at the Company level. Excluding these items, adjusted EPS was $0.14 in the quarter.Moving to cash, as Larry mentioned, adjusted industrial free cash flow was a usage of $1.2 billion for the quarter, but $500 million better than the prior year. Income, depreciation and amortization totaled $2.1 billion, up $300 million as expected working capital was negative for the quarter as we built inventory for second half volume largely in renewables onshore wind and we saw progress collection reductions in renewables and gas power as we executed on backlog. Contract assets were a cash usage of $600 million largely in gas power equipment projects. In addition, renewables deferred inventory build was higher due to delays in onshore wind unit shipments. Other CFOA was negative, primarily driven by annual employee bonuses and other compensation. We also spent about $900 million in gross CapEx or $600 million ex-Baker Hughes GE, which is down $100 million versus prior year. Overall, we are encouraged by strong cash performance in Aviation and Power, but we continue to manage through the renewables PTC cycle volume execution, power variability, restructuring, long term receivables factoring run-off and other items.And before we move on, let me provide more color on the quarter and the outlook for the industrial free cash flow. First, timing was the biggest driver of our significantly better than planned cash flows this quarter. With our large equipment focused businesses, there can be substantial variability quarter-to-quarter on factors ranging from orders timing to project execution milestones and related collections and disbursements. In the first quarter at Power and Aviation, orders and customer collections came in earlier than we expected while disbursements were lower. We anticipate these timing items will largely balance out over the year in line with our full year outlook.Second, we saw favorability in restructuring NBD this quarter and we expect that the supply chain finance transition will begin to impact free cash flow in the second half. In addition, we saw improved execution in the quarter as our teams are working hard to drive results. Third, looking forward, our 2019 guidance for industrial free cash flow is unchanged in the range of negative 2 to 0. We are evaluating further opportunities to de-risk the balance sheet and believe that we have planned appropriately for various market and execution risks that could arise across a number of our businesses, including Renewables and Power. As Larry noted earlier, the Boeing 737 MAX was outside the scope of our original planning. Specifically on the MAX, we have not changed our engine production plans at this time, but the timing of cash flows may be impacted by collections of receivables from Boeing depending on when aircraft deliveries resume. We will continue to adjust our operational management as this situation evolves.Moving to liquidity, we ended the first quarter with $17 billion of industrial cash excluding Baker Hughes GE. As we discussed, industrial free cash flow was a usage of cash and we paid approximately $100 million in dividends. We received $2.9 billion of cash from the transportation merger with Wabtec, other business dispositions and transfers netted to another $200 million. All other items were a usage of $1.5 billion of cash, which principally includes free cash flow and discontinued operations for transportation up to the close of the transaction, cash transferred with the disposition and change in debt.In line with our ongoing goal to reduce reliance on short-term funding, average short-term funding needs declined from $17 billion in the first quarter of 2018 to about $4 billion in the first quarter of 2019, which were funded with commercial paper and some utilization of our revolving credit facility. We will continue to fund intra-quarter liquidity needs with a mix of commercial paper credit facilities and excess cash at GE Capital. As stated, our goal is to get to about $5 billion of short-term intra-quarter funding needs while we execute our de-leveraging plan, but we do expect some potentially significant fluctuation in intra-quarter short-term borrowing levels in subsequent 2019 quarters based on disposition timing and we have planned our credit facilities accordingly. At the end of the quarter, commercial paper outstanding was $3 billion and we had access to approximately $35 billion of committed revolving credit facilities with zero drawn. As planned and related to the completion of our first quarter disposition, the line stepped down from $40 billion in the fourth quarter.Next on Power, we saw better-than-expected results this quarter largely due to timing. While we have a lot of work to do, we’re making progress and the business is in the early days of its turnaround. Orders of $4.8 billion were down 14% on a reported basis, but up 14% organically. Power Portfolio orders were up 4% organically, Gas Power orders were up 24% with equipment up 95% and services up 8%. We booked about 4.5 gigawatts of heavy duty gas turbine orders for 11 gas turbines, including 3 Hs and these orders were accretive to our backlog margins and are in geographies that present lower execution risk. This was a strong orders quarter on the equipment front, but as we said before, this business has variability and some of the orders that were booked this quarter were anticipated to close later in the year. We are still planning for the new gas unit market to stabilize at 25 gigawatts to 30 gigawatts per year.Overall, Power backlog closed at $93 billion, up $1 billion versus the prior quarter, but down 3% year-on-year with equipment of $25 billion, down 4% and services of $68 billion, down 3%. Gas Power represents $70 billion of total Power segment backlog. Power revenues of $5.7 billion were down 22% reported and down 4% organically. Power Portfolio revenue was down 4% organically and Gas Power revenue was down 5%, which was slightly better performance than our expectation. We shipped 7 gas turbines in the quarter versus 12 in the first quarter of last year. Gas Power services revenue was down 5% due in large part to the outage mix this quarter.Segment margins were 1.4% in the quarter and operating profit was $80 million, down 71% largely due to the impact of dispositions and volume. While it is early in the power turnaround, this was a positive start to the year, with outperformance principally driven by timing. We have no change to our outlook for the year, but we expect variability from quarter to quarter in Power. Scott, Russell and the teams are making progress on our initiatives to improve commercial and operational performance in to our cost position.Moving to Renewable Energy, the quarter came in lower than our expectation, but we had planned for light first quarter shipments in our double-digit growth profile. Orders of $2.4 billion were up 1% reported and up 3% organically. Onshore wind orders were flat reported and we received our first order for the new onshore Cypress product, which will be installed in Germany later this year. GE is the only supplier with an operating prototype greater than 5 megawatts. Pricing came in at negative 1% in the quarter, compared to negative 8% in 2018. We’re seeing price declines continue to moderate as the industry ramps up for U.S. PTC driven orders this year and next in international markets normalizing after moving from feed in tariffs to auction.Revenues of $1.6 billion were down 3% reported and up 3% organically, onshore wind sales were up 11% reported mainly driven by equipment. Segment margins were negative 10% reported with an operating loss of $162 million, down approximately $240 million versus prior year. The decline was driven by a combination of legacy matters, including the Alstom JV consolidation, project issues and contract termination, as well as R&amp;D investments related to the Haliade-X and Cypress platforms.Operationally, the negative pricing was more than offset by cost productivity and volume. Renewables faces a steep production ramp, which is a challenge but Jerome and his team have solid plans in place to deliver the volume. We expect to more than double deliveries of wind turbines and re-powering kit sequentially in the second quarter and further ramp deliveries in the third and fourth quarters. This volume mix, and leverage improvement should put renewables on track for the full year guidance of strong double-digit revenue organic growth in margins around zero in 2019.Next on Aviation, which had a strong start to the year, orders of $8.7 billion were up 7% reported and organically. Equipment orders grew 3% driven by commercial engines up 12% on strength in the GE90 and 9X. LEAP orders were down 20% versus prior year, but up versus expectations. We received orders for 636 LEAP engines in the quarter for both the Boeing and Airbus airframes. Service orders grew 10%, revenues of $8 billion were up 12% reported and organically. Equipment revenue grew 23% on higher commercial engines. We shipped 424 LEAP engines this quarter versus 186 in the first quarter of 2018 and we finished the first quarter on schedule with Airbus and 2 weeks behind schedule with Boeing. But we expect to be back on schedule in the second quarter. CFM56 engine shipments were down 50%, services revenues grew 6% with the spares rate up 21% driven by higher aircraft utilization. Segment margins of 20.9% contracted by 160 basis points reported in the quarter versus the prior year, and we experienced continued aftermarket strength and flat company funded R&amp;D as more of the cost transitions to external funding, primarily in our military business.As we shared at the outlook call, total engineering effort comprising both company and customer funded spending continues to grow in line with top line growth. And this was more than offset by two margin drags, the CFM to LEAP transition, which was 310 basis points and the Passport engine shipments, which were 60 basis points. Operating profit of $1.7 billion was up 4% reported and 3% organically and higher volume and improved price partially offset by negative mix. We are on track to deliver high-single digit revenue growth and segment margins of approximately 20% in 2019.Looking at healthcare, orders of $4.9 billion were up 4% reported and 10% organically driven by equipment orders, up 13% organically and services up 5%. On a product line basis, healthcare systems orders were up 5% organically. This was driven by imaging growth of 7% due to strong growth in premium and performance CT and new product introductions in MR including our AIR coil technology as well as life care solutions up 6% due to continued momentum on solutions-oriented deal. Life sciences orders were up 22% organically with BioPharma up 31%. Revenues of $4.1 billion were flat reported and up 4% organically. Healthcare Systems revenue was up 1% organically on tougher prior year comps, particularly in imaging, life sciences was up 5% organically driven by BioPharma up 20% and Pharmaceutical Diagnostics up 7%. Segment margins were 16.7%, expanding 110 basis points on a reported basis. Operating profit of $781 million was up 6% on a reported basis and 15% organically, which excludes the sale of value-based care business. Organic profit growth was driven by volume and cost productivity, partially offset by inflation, price and program investment. Healthcare is on track to deliver its 2019 outlook, which includes BioPharma of mid single-digit organic revenue growth and margin expansion.Moving on to Oil &amp; Gas, Baker Hughes GE released its financial results this morning and Lorenzo and Brian will hold their earnings call with investors today following ours. Regarding GE Capital, continuing operations generated net income of $135 million in the quarter, which is favorable versus prior year. This was primarily due to lower excess interest costs including the non-repeat of asset and liability management actions, the U.S. tax law change and prior year U.S. tax reform impact, higher gains and lower impairments. We ended the quarter with $107 billion of assets excluding liquidity down $2 billion from year-end, primarily driven by industrial finance. We completed the sale of the GE Capital supply chain financing program to MUFG and GE suppliers will start to transition to MUFG in the second quarter.GE Capital completed asset reductions of $1 billion in the first quarter. It is on track to execute $10 billion of asset reductions in 2019 to meet the $25 billion target. Capital finished the quarter with $15 billion of liquidity, which was flat to the fourth quarter and $63 billion of debt, which was down by $2 billion, primarily driven by debt maturities. In the first quarter, we continue to de-risk GE Capital by finalizing the WMC settlement with the Department of Justice, making the $1.5 billion payment in April, which was in line with our reserve. WMC filed for bankruptcy on April 23 and intends to file a Chapter 11 plan to complete an efficient and orderly resolution. We also contributed $1.9 billion for the insurance staff funding as planned and as discussed during the Investor teach-in and consistent with the permitted practice as we have previously discussed, we expect to fund an additional $9 billion through 2024. Our strategy at GE Capital will continue to focus on shrinking the balance sheet and achieving asset reductions of $25 billion by the end of 2019 and less than four times debt to equity ratio by 2020. As we said before, we still plan to contribute $4 billion to GE Capital in 2019.As we look out to the second quarter, we expect lower earnings from GE Capital, driven by the semi-annual preferred dividend payment and non-repeat impact of the tax law change and lower asset sale gains. Consistent with our outlook call, we anticipate that GE Capital would generate a continuing net loss of $500 million to $800 million in 2019. But we expect to break-even by 2021. At corporate, we continue to drive decision making back into the businesses and this cultural shift is starting to take hold. We believe these decentralized functions are ultimately run more efficiently and with greater accountability when decisions are made at the businesses. We continue to both reduce expenses and transfer activities to the segments while fundamentally refocusing corporate on tasks that support and enable the businesses.Our starting point for total corporate managed headcount in mid 2018 was about 26,000. Today that number stands at about 13,000 and we still have a long way to go. More than two-thirds of that reduction to date has come from internal transfers to the businesses where you will see most of the benefit and the remainder from outsourcing, restructuring, and attrition. The bottom line is that, we have exited about 1,000 corporate headcount with real cost out to date, most of which is reflected in the segment results. As we’ve said before, it’s a start, recall that our goal is to drive corporate costs below $700 million in 2021 compared to our 2018 spend of $1.2 billion. We would expect the businesses to drive further opportunity as they are now accountable for most of these positions. In the first quarter adjusted operating costs were $343 million roughly flat on a sequential basis and we are on track for our full year outlook of $1.2 billion to $1.3 billion.Larry CulpJamie thanks. You will recall that most of Slide 9 was what we have shared with you back on March 14 during our outlook call. We stand by our full year guidance and as we have discussed much of our first quarter performance had to do with timing. The only new news on this slide is the addition of the 737 MAX and the key variable, which we are monitoring closely. Our industrial businesses have strong fundamentals, which gives me confidence that we can make them better cash generators. We expect free cash flow to return to positive territory next year and accelerate thereafter in 2021 as the headwinds diminish and our operational improvements yield results. Longer term, as I have said previously, from an aspirational perspective, we should see the opportunity over time for our free cash flow margins to be at least double the mid-single digit rate that we saw in 2018. While 2019 is a reset, it will be one of intensity, focus and transparency with all of you. We are committed to creating value for our employees, our customers and our shareholders. Thanks for your continued interest in GE.With that, we will open the line for questions.Question-and-Answer SessionOperatorThank you. [Operator Instructions] And from Barclays we have Julian Mitchell. Please go ahead.Julian MitchellThanks. Good morning.Larry CulpGood morning Julian.Jamie MillerGood morning.Julian MitchellGood morning. Maybe just a first question around industrial margins, you have got the guidance for them to grow slightly in 2019. In Q1, they are obviously down a fair amount, so maybe give us some update as to how quickly you dig out from that down 160 bps? When do we start to see the margins expand year-on-year?Jamie MillerGood morning, Julian. So, we planned for margin contraction in the first quarter and that’s really been a combination of volume and cost productivity that over the course of the year will drive margin accretion. We saw declines in Power and Aviation and renewables, but for the rest of the year we have got renewables with a significant volume ramp with positive margin. We have got Power with non-repeat charges or at least charges not at the same level in the second half, which really impacted margins last year and healthcare, we see continued growth and those things really offset the Aviation mix headwinds. And as we look at it, this does ramp through the year more in the second half, but we believe we are on track for the OMX expansion for the year.Julian MitchellThank you very much. And then my second question, just around the industrial free cash flow. Appreciate the detail around the timing and how that swings around on a quarter-to-quarter basis, but just to clarify, if I look at the working capital plus contract assets outflow, in aggregate that was I think $2.5 billion in Q1. Is it fair to say that, that was the maximum outflow from those items we should expect on a quarterly basis this year or is there some risk that because of lumpiness or what have you there could be a larger outflow at some point in the next three quarters?Jamie MillerIf you look at this quarter compared to our total year plan, I would say the answer to that is yes, this is a very high impact quarter for both. Having said that, when you look at industrial free cash flow this quarter it was significantly better than we expected, but as we mentioned in our comments, that was largely due to timing. And when you look at the causes of some of that timing shifting with progress in aviation – I am sorry, Power and Aviation orders which in Power drove higher progress collections and you saw better underlying collections in services and lower project disbursements in Power as well. And you also saw some timing with respect to customer payments at Aviation accrued discounts. So when you look at that in totality that was most of the timing impact in the quarter. We do expect that to largely balance out over the rest of the year. So, you will see that shifting.OperatorFrom Melius Research, we have Scott Davis. Please go ahead.Scott DavisHi, good morning.Jamie MillerGoing morning.Larry CulpGood morning, Scott.Scott DavisI wanted to backup Larry a little bit, because there is not a ton new here versus your outlook call just a month ago, but what’s your sense now, you have had a chance to visit factories each of the different businesses. I mean, is there any – are there seeds of lean and daily management and best practices at all that you can build on or you have to start from scratch?Larry CulpScott, I have been out a good bit here of late. It’s the beauty of being on the other side of outlook get to spend more time with the businesses. Seeds, is probably the right way to frame it. Somebody shared with me as I have been poking around here a little bit that lean in certain quarters has been a four-letter word over time. But as I have seen a number of our facilities, what I have been very impressed by is some of the legacy lean expertise around 5S, around good flow within a line or a sell and frankly within a facility. But there is a lot of opportunity inside of those four walls, particularly with respect to how we integrate more broadly outside of any one site with our vendors and with our other facilities in any one of our segments. So in fact, I am going to have a number of our lean leaders in for half day on Wednesday of this week to really go through a little bit more to history, understand, get their perspective on what needs to be different this time around to really drive an approach here that teaches, motivates, but ultimately not only drives results, but informs a culture. And we certainly have I think the business imperatives with respect to cash and as importantly, quality and delivery for our customers to get us motivated to get after this. So, the seeds are there. We just need to water them and nurture them. And I think you will see over time and our customers will see over time real impact. But as you know, none of that really happens overnight, that in itself is a journey, but one we are going to be on here shortly.Scott D</t>
+  </si>
+  <si>
+    <t>Eaton Corporation PLC (NYSE:ETN) Q1 2019 Earnings Conference Call April 30, 2019 12:00 PM ETCompany ParticipantsYan Jin - VP of Investor RelationsCraig Arnold - Chairman and Chief Executive OfficerRichard Fearon - Vice Chairman and Chief Financial and Planning OfficerConference Call ParticipantsJoseph Ritchie - Goldman SachsJeffrey Sprague - Vertical Research PartnersScott Davis - Melius ResearchNicole DeBlase - Deutsche BankAnn Duignan - JPMorganNigel Coe - Wolfe ResearchJeffrey Hammond - KeyBancAndrew Obin - Bank of America Merrill LynchDeane Dray - RBC Capital MarketsAndrew Casey - Wells FargoJohn Walsh - Credit SuisseJulian Mitchell - BarclaysMircea Dobre - Robert W. BairdOperatorLadies and gentlemen, thank you for standing by and welcome to the Eaton's First Quarter Earnings Conference Call. At this time, all participants are in listen-only mode. Later, we will conduct a question-and-answer session and instructions will be given at that time. [Operator Instructions] As a reminder, today's conference is being recorded.I would now like to turn the conference over to Yan Jin, Senior Vice President of Investor Relations. Please go ahead, sir.Yan JinGood morning. I'm Yan Jin, Eaton's Senior Vice President of Investor Relations. Thank you all for joining us today for Eaton's First Quarter 2019 Earning Call. With me today are Craig Arnold, our Chairman and CEO, and Rick Fearon, Vice Chairman and Chief Financial and Planning Officer.Our agenda today includes the opening remarks by Craig, highlighting the Company's performance in the first quarter. As we have done in our past calls, we will be taking questions at the end of Craig's comments. The press release from our earnings announcement this morning and the presentation we will go through today, have been posted on our website at www.eaton.com.Please note that both press release and the presentation include reconciliations to non-GAAP measures. A webcast of this call is available on our website and will be available for replay.Before we get started, I would like to remind you that our comments today will include statements related to expected future results of the Company and are therefore, forward-looking statements. Our actual results may differ materially from our forecasted projections due to a wide range of risk and uncertainties that are described in our earnings release and the presentation, that are also outlined in our related 8-K filing.And with that, I'll turn it over to Craig.Craig ArnoldThanks, Jin. Appreciate it. Yes, I'll begin with Page 3 and the highlights of our Q1 results, and I begin by saying, we had a good start to the year with another strong quarter of performance. Earnings per share were $1.23 on a GAAP basis and $1.26 excluding the impact of the divestiture costs related to the announced spin-off of our Lighting business.At $1.26, our results were 15% above last year and toward the higher end of our guidance range, which as you will recall was $1.18 to $1.28. Our sales were $5.3 billion, up 4% organically and in line with our guidance, excluding the negative 3% impact from currency. And we continue to be pleased with our strong margin performance. Segment margins were 16% above the high end of our guidance range and 80 basis points over prior year.We also generated very strong operating cash flows of $551 million in the quarter, and this is up 63% from Q1 2018 and a first quarter record. And lastly, we repurchased $150 million of shares in the quarter as part of our plan to buy back $400 million of shares in 2019. So, a very good start to the year.Page 4 summarizes our income statement versus prior year. And I've covered most of these items in the summary comments and so I'll only point out once again, the 3% currency impact was driven primarily by the important currencies for us which are the euro, renminbi and real.We are very pleased with our 32% incremental rate that we delivered on organic growth. And so, that number was, once again, very strong and above our expectations. And we incurred as we mentioned, the $0.03 per share from the after-tax cost primarily related to the spin of our Lighting business. And as you can see adjusted earnings per share increased from 9%.Next, we summarize the quarterly results of our Electrical Products segment. Revenue here increased 2%, which includes 5% organic growth, partially offset by 3% currency. And we see particularly strength here in commercial and in residential construction with global growth rates in the mid-to-high single-digits and even stronger in the U.S. markets.Our orders increased 4% led by continued stroke, strength and growth in the Americas and our backlog grew double-digits, up 13% in the quarter. Segment operating profits grew 8% and operating margins were 120 basis points increase to 18.9% and this was a record for Q1. And we are actually pleased with how well the segment is performing and the consistency of results that we continue to see in this part of the Company.Moving to Page 6, we cover our Electrical Systems &amp; Services results. Revenues here increased 6% with organic growth of 8%, partially offset by 2% currency and we saw especially strong double-digit revenue growth in commercial construction and in data centers.We continued to have solid momentum in this business and the year had started on a high note for sure. You will recall that our original guidance is for sales to be up 5% to 6% organically for the year, and so we are certainly running above that rate.As we indicated at our Investor Conference in March, we have moved to a rolling 12-month basis for reporting our orders in this long-cycle business, as well as in our Aerospace business that I'll cover soon. On a rolling 12-month basis, ES&amp;S orders actually increased 8% with strength in all major end markets and regions.And maybe, I'll just pause for a moment on the orders here in the Electrical Systems &amp; Services because I know it's a particular point of question that many of you have and I will tell you that our ES&amp;S activity level is absolutely performing in line and perhaps maybe even a little bit better than what we anticipated.And we talked about this idea of moving to the rolling 12 months, because we do in fact see a lot of, let's say, call it lumpiness in the orders that we get in Electrical Systems &amp; Services driven primarily by what we are seeing in hyper scale data centers.And the other indicator that we have that gives us a lot of confidence in the strength of this business is, is what we call negotiations. And our negotiations in this business in Q1 were an all-time record and up some 56% from prior year.And so despite what we are seeing actually in the orders and what some of you have reported to be a little bit of weakness versus what we saw in Q4, the overall underlying activity in this business continues to be very, very strong.Our backlog continued to grow, it was up 11% in the quarter. We generated strong operating leverage with operating profits increasing 15%, only 8% volume growth and margins increasing a 100 basis points to 13.1%.You will also recall that we announced the acquisition of the Ulusoy Electric business in January. We are pleased to have closed the purchase on April 15th and then this acquisition will certainly provide a strong platform for us as we serve our customers in EMEA and the Asia-Pacific markets. So once again, a really strong performance in our Electrical Systems &amp; Services business and we continue to be quite bullish on the - for the outlook for that business as we go forward.On the next Page, we summarize our Hydraulics results for Q1. Revenues were down 3%, with 1% organic growth more than offset by a 4% currency. I'll certainly note that we had some tough comps in this business at 6% organic growth in Q1 2018, but revenue did slow slightly more than we expected, but I would probably note here only slightly more than what we had in our original plans for the year.Organic growth of 1% reflected continued growth in construction equipment, but some declines in Ag and in industrial equipment. Our orders stepped down 11%, driven principally by weakness in global mobile equipment markets and we also had tough comps here as well from last year, where orders were up some 14%.Backlog declined 6% in the quarter as well. And as we detailed at our Investor Conference, we continue to work through some inefficiencies in the business, but do expect to see strong margin performance in this business in the second half of the year as we work off some of the efficiency issues that we experienced in the second half of last year. And segment margins were 11.7%, down 100 basis points versus last year.And on Page 8, we summarize our Q1 results for the Aerospace business. And as you can see, this business just continues to perform at a very high level, delivering record performance across almost every single metric. Our revenues increased 10%, a 11% organic growth and 1% negative currency.Like ES&amp;S, we moved to a rolling 12-month basis for reporting orders. And on this basis, orders increased 18% with particular strength in commercial transport, military fighters, military transport and both commercial and military aftermarket. So really strength across the board in this segment.Our backlog also increased significantly, up some 21% in the quarter. And lastly, we demonstrated very strong incremental margins with labor to add to a 30% increase and operating profits and a 300 basis point margin improvement in the quarter. Operating margins of 23.1%, another all-time high for the business. So in addition to the volume growth, we also experienced some favorable product mix in the quarter, but really strong execution by the team overall.Next, I'll move to a summary of our Vehicle segment. Our revenues were down 9%, which includes 6% reduction in organic growth and a negative 3% from currency. The organic sales decline was driven by a combination of declines in like global vehicle markets, which were down 45% and the ongoing impact of revenue transfers to the Eaton Cummins joint venture.And I will note that the joint venture actually saw revenue increases of 27% in the quarter and continues to perform very well. We also had tough comps in this business with organic growth, which increased 13% last year. But overall, this business is really performing as we have expected, but with a little bit of weakness in global automotive markets.For the year, we continue to expect NAFTA Class 8 production to be at 324,000 units, flat with 2018. But we have lowered our outlook for light vehicle markets for the year. And lastly, despite the lower volumes, operating margins increased 30 basis points to 15.1% and a decrement of margin on the organic of less than 20%. So really strong execution by the team, once again, in our Vehicle business.And wrapping up our segment summaries, we will cover our eMobility segment on Page 10. Revenues were up 8%, which includes 9% organic growth, partially offset by 1% currency. And as planned, we continue to accelerate our R&amp;D spending, which increased by some 130% in the quarter. So we continue to invest heavily in this segment to participate in what we think is really an exciting growth opportunity as we move forward.We are certainly optimistic about the opportunities in this rapidly developing market, and our pursuit pipeline for new programs has actually now grown to $1.1 billion. At our Investor Conference in March, we did announce a new program win of a $100 million mature year revenue for traction inverters with a major global OEM customer and actually in mid-April, we announced that PSA is the customer for this program.This was our first significant event, since creating the segment about one year ago, and we are certainly ahead of our original schedule for growth in this segment and well on our way to accreting what we think is going to be a new $2 billion to $4 billion segment for the Company overall.At this point, I'll turn to our outlook for 2019, which is on Page 11. We now expect organic revenues for all of Eaton to grow approximately 4%, down slightly from our prior midpoint of 4.5% and this is largely the result of us increasing our guidance for our long-cycle businesses by reducing guidance for our short-cycle businesses.Specifically, we increased organic growth rates by 1% for both ES&amp;S and Aerospace. And for Hydraulics, we lowered organic growth by 2% at the midpoint to 3% to 4% based upon some slow growth expectations in global mobile equipment markets.And for Vehicle coming off, what I would say really was a weak Q1 in light vehicle markets, we lowered our organic growth rate by three points at the midpoint, and now we expect organic growth to be down some 4% to 5%, and once again, due to primarily the automotive side of the business itself. And we have not changed electrical products or eMobility.And our margin expectations are noted on Page 12. We are modestly raising our guidance from 17.1% to 17.5% or 17.3% at the midpoint. We are lowering the margin expectations for Hydraulics by 60 basis points to 13.4% to 14% and for Vehicle by 90 basis points to 16.5% to 17.1% due to lower organic growth primarily. But this is more than offset by increases in Electrical Products and in Aerospace margins.Our new expectation for Electrical Products is for margins to be between 19% and 19.6%, a 50 basis point increase at the midpoint and the new expectation for Aerospace is for margins to be 21.8% to 22.4%, also a 40 basis point increase at the midpoint. And the other two segments remain unchanged. So at the midpoint, 17.3% and this would naturally be another record level of performance for Eaton overall.And lastly on Page 13, we summarize our guidance for Q2 and for the year. For Q2, we expect adjusted earnings per share to be between $1.45 and $1.55 and at the midpoint, this represents an 8% increase over last year. Other assumptions in our guidance include, we are expecting 4% organic growth, foreign exchange impact of roughly $100 million. Our margin expectation for the quarter is that have margins between 17.2% and 17.6%. We would expect our corporate cost to be flat with Q2 of 2018 and we would expect the tax rate of between 13.5% and 14.5%.For the full-year 2019, we are raising our adjusted earnings per share guidance to $5.72 to $6.02 for the midpoint of $5.87, which includes essentially a $0.02 impact from the full-year impact of the acquisition of Ulusoy overall. At the midpoint, this continues to represent a 9% increase over 2018.Other full-year guidance assumptions include organic revenue growth of 4%. We would expect $100 million of revenue from the Ulusoy acquisition. We expect foreign exchange impact to be $300 million and this is a $50 million increase from prior guidance. We would expect, as I mentioned, segment margin of 17.3% and really no change to the other items in our forecast.So in summary, I would say another strong start for the year in Q1. We are well positioned to deliver another year of record results and we are absolutely thrilled with the way that the Company is performing overall.So with that, I'll turn it back to Yan for Q&amp;A.Yan JinOkay. Thanks, Craig. Before we begin the Q&amp;A session of our call today, I do see we have members of individuals peers that in the queue is present. So given our time constraint over to be an hour today and our desire to get to as many of these questions as possible, please limit your opportunity to just one question and a follow-up.So with that, I will turn it over to our operator to give you guys the guidance.Question-and-Answer SessionOperator[Operator Instructions]Yan JinOkay. We will take our first question from Joe Ritchie with Goldman Sachs.Joseph RitchieThanks. Good morning, everyone. Craig, could you maybe expand on your comments on commercial and data centers being up double-digits in ES&amp;S this quarter? We heard some conflicting news, especially in the data center side, out of the supply chain. And so any other further color you can provide there would be helpful.Craig ArnoldYes, now the only thing I would tell you that, overall the data center market for us continues to perform very well. We are still running as I mentioned, our revenue is up double-digit for data center sales. Activity levels continue to be quite strong. I think the piece that I - that we are trying to clarify for the sake of all of you who follow the Company, that data center orders, especially when it comes to the hyper scale, they tend to be quite lumpy.So, you will get a big slug of orders in one quarter and they will be lighter the next quarter, and so that is why we made this decision to really move to a rolling 12 months, because we think it more accurately reflects the underlying economic activity that we are seeing in that market. But for us, we still see very good strength and data center activity overall, and we continue to think that is going to be one of our fastest growing segments.I mentioned once again, we take a look at negotiations, which is the level which for us is a good proxy for the level of economic activity that is taking place in the market. And as I mentioned, we are really experiencing record levels of activity in our Electrical Systems &amp; Services business, but negotiation is up 56% in the quarter to record levels. And so, by and large, we have really seen no let up in activity in Electrical Systems &amp; Services and data centers continues to be a bright spot for us.Joseph RitchieAnd Craig, within commercial, what are the verticals that are really driving the strength there?Craig ArnoldYes, I would say we are really seeing pretty broad-based strengths in the commercial businesses overall. And certainly, oil and gas is - has come back and we mentioned this to strengthen data centers. We...Richard FearonYes, for example if you look at straight up commercial like office and government, both up just over 10% institutional, just a little bit under that. But we are seeing broad-based strength in the commercial side of things. And if you look at some of the governmental data, C30 reports except for the new Dodge report Europe has seen, numbers that are high-single-digit, even low double-digits. So it, it's all pretty consistent.Craig ArnoldRight. It's broad too and we are seeing also strength really around the world as well. And in commercial businesses in general. So it's not just in the U.S. market.Joseph RitchieNow, that is helpful. Maybe my follow-on just on the Hydraulics business. You know it's interesting, because it sounded like when we had met intra-quarter, that Hydraulics had maybe gotten off to a better start in January, February. And you have talked about this, this business and all your businesses meeting to kind of earn the right to be part of the portfolio. Yet, we have taken guidance down already to start the year. And so can you just kind of contextualize how the quarter went with Hydraulics? And then also in terms of - like how it fits with the portfolio longer term?Craig ArnoldFirst of all I would say, as we have talked about and recovered during our Investor Day in general, that we have some work to do to fix, what I would call some self-inflicted wounds associated with some short move transition, site transition that we are managing internally as an organization. And we always believed that was going to be more of a kind of a second half kind of resolution to some of the internal issues.I think the new news for us in the Hydraulics business in terms of what really drove the reduction guidance is largely some of the weakness that we are seeing in some of our end markets. And so, I would say operationally as we acknowledge, we still have work to do to fix some of our own inefficiencies and our teams are working that.And we certainly would expect that stuff to be flushed through the system by the time we hit the second half of the year. But the new piece is really some of the weakness that we are seeing, largely in some of the mobile equipment market.And I would say that our orders were certainly weak in Q1. If you take a look at some of our customers, all the names that you know well, I would say their sales are holding up better than our orders are. And so there could be a better outlook as we look forward. We are not sure to what extent.There is some inventory repositioning taking place in this segment. But right now, it's really more a function of weaker volumes. And at this point, I would say as we think about Hydraulics as a part of Eaton overall, today, we have a plan and the plan is a plan that we believe in.And our team is executing that plan and we fully expect the Hydraulics team to fix their operational issues and turn that into a business that we can all be proud of and would anticipate keeping as a part of the Company. But for Hydraulics, no different to any other part of the Company, we have expectations that we call all of our businesses accountable to.And we would expect them to meet the criteria that we set and if we can't meet the criteria for Hydraulics or for any part of the Company, we are willing to act when necessary.Joseph RitchieThank you.Yan JinOur next question is coming from Jeff Sprague with Vertical Research.Jeffrey SpragueThank you. Good morning, everyone. Good morning. I was wondering if you could just come back to ES&amp;S one more time anyhow? And just give us some color on what - negotiation is up 36% really means obviously it sounds good. Is that kind of a project value in dollars? Was there some kind of low ebb in Q1 last year that results in that being such a big healthy number and what kind of typical conversion rate would you have on kind of a negotiation?Craig ArnoldYes, no. I mean, the first thing I'll just answer is kind of the question around noise. There is absolutely nothing in Q1 of last year that would suggest that we had a low bar to clear. As I mentioned, it not only was higher than Q1 last year, but it was a record all-time level and was significantly higher than any other quarter during the course of 2018. And I think just as you articulate, this is essentially the number of bid and quotations that we are making to our various customers on large projects that we bid on during the course of the period.And so, it really for us is probably the best proxy for the level of underlying economic activity that we have in that business. So we think it's a really strong indicator of the fact that this business, a long-cycle business that we would expect to be performing very well at this point in the cycle, is actually performing very much like we anticipate.Richard FearonAnd it will take time for some of these negotiation bids to become final bids, typically 90 days to 180 days, sometimes a little longer for big projects. But yet, it is quite notable just how strong the activity levels are.Jeffrey SpragueAnd just as a follow-up separately on Ulusoy. Is it $0.02 accretive for the year, and therefore the sole reason for the guide or you'd actually more than that and there is maybe a negative offset somewhere else in the equation?Richard FearonNo, it's $0.02 accretive and the way to think about it Jeff is, it's really $0.04 accretive, but we have $0.02 of our estimate right now of amortization of intangible costs. And so, that is how it ends up at $0.02.Jeffrey SpragueGreat. Thank you.Craig ArnoldBut we are in fact holding all the other elements of the guide for the core business, and so no change at all.Jeffrey SpragueThank you.Yan JinOur next question is coming from Scott Davis from Melius Research.Scott DavisRight. Good morning, guys. Just to be clear, the reason why you are not raising margin guidance on ES&amp;S, is that because of mix and largely just because of the data center volumes, is that correct?Craig ArnoldFirst of all, I would say early in the year. I would say that our forecast for margins in ES&amp;S is certainly today within the range that we set for the year. And a lot of the growth to your point, is coming from projects and so we will have to wait and see how that plays out. But right now, I would not in any way take it as a sign of concern about margins in our ES&amp;S business. Things are going quite well and we are very pleased with our margins in Q1 and there is nothing today that I would say that would suggest that if there is anything to be concerned about.Scott DavisOkay. And the -- it's been actually kind of get your take, Craig, on some of the M&amp;A that is out there. I mean you have got a couple of competitors who have announced really big deals. Nothing seems cheap. They all seem to be relatively fully priced. But what is your take on the market out there and the likelihood that Eaton participates? I guess, there is two ways to think about it, you could be a seller of assets into this market of strength as easily as you could be a buyer of assets. So how do you think about that in the current?Craig ArnoldThe first thing with respect to pricing and asset values in as you can see by some of the transactions that have been announced, I mean these properties are going for extraordinary prices. We have prided ourselves on the fact that we said we are going to be disciplined through this cycle, and we think that our cost of capital continues to be 8% to 9% and we want to deliver 300 basis points over our cost of capital. And so we will continue to be a disciplined buyer into a market that looks like assets being priced at extraordinary levels. And so I would say that we today, are looking at probably more deals than we have in a very long time, and so we have a very active pipeline as well. But we will make the commitment as we have in the past. We are not going to chase deals with what I would say are unattractive returns when you look at their cash on cash set of financial metrics. So that is kind of the way we look at it.Scott DavisBut the other side of that, obviously Craig, as you could sell something, I mean if people are willing to pay for a price and maybe now is the time to think about partnering with some of maybe a more cyclical stocks, is that a possibility?Craig ArnoldYes. First of all, I would say we took a look at our businesses strategically through the cycle. And so as we think about the portfolio itself and how we hold to a seller, we are really trying to look at them over the long-term period and whether or not we think this is going to be a good strategic hole based upon the criteria that we established through the cycle.Now having said that to your point, if you have come to a decision that you want to exit as asset, now would be a great time to do it. But we generally take a longer term, let's say, more strategic view of the portfolio in terms of things that we want to - businesses that we want to be in versus businesses that we would choose to exit.Scott DavisThat is fair. Thank you and good luck to you guys.Craig ArnoldAlright, thank you.Yan JinOur next question from Nicole DeBlase with Deutsche Bank.Nicole DeBlaseYes, thanks. Good morning guys. So I just want to focus a little bit on Hydraulics. I know organic growth was 1% this quarter. Looks like in your full-year guidance you have brought it down a little bit, but you are still basically implying some improvement organic growth throughout the year. So I guess, I'm curious what is driving that conviction and maybe just frame that with how demand progressed throughout the quarter, if there was any sign of improvement in March or into early April?Craig ArnoldI would say that maybe to take your first question right out of the gate in terms of, certainly we are implying a little bit stronger growth in the back half of the year than we delivered in Q1. As I mentioned in my opening commentary, that 1% organic growth was actually within 1% of our internal plan.And so, we are actually not off our internal plan by a measurable amount in Q1. And the comps get easier quite frankly, as the year moves on. And we have very specific programs that we are working on as a company that will also help boost growth as we look into some of the out-quarters, very specific initiatives that we are working on, that have been largely bedded down, that are going to help improve our growth.And the other thing I would tell you is that, if you take a look at the major end markets that we serve construction equipment, Ag equipment, two of our big important markets in Hydraulics and you look at what our customers are saying, in most cases, they are still forecasting growth for the year. They are forecasting low single-digit kind of growth levels. And so we do believe that there was a little bit of inventory correction that took place in Q1 that probably also held down our relative growth rate.Nicole DeBlaseOkay, got it. Thanks, Craig. And then just shifting to Aerospace, the margin performance was really impressive this quarter. Was there anything special going on there? Is it a mix impact that isn't sustainable throughout the rest of the year just because the full-year guidance implies a little bit less margin expansion than we saw in the first quarter?Craig ArnoldYes, I mean it certainly was a record quarter for margins in Aerospace, an all-time record, not just a record for Q1 and I would say that we did have a bit of favorable mix in Q1. Our aftermarket business on a relative basis was a bit stronger than our core OE business, and that certainly was a help for the quarter, but also the growth in the volume as well also helped push things up.And so I would say, principally, it was more a function of the mix of customers and the mix of OE aftermarket that really led to a really strong Q1 performance, that is probably not sustainable at those levels. But as you can see, we are forecasting margins for Aerospace that are once again at record levels and I would say even in many cases industry-leading levels.Nicole DeBlaseGot it. Thank you.Yan JinOur next question comes from Ann Duignan with JPMorgan.Ann DuignanHi, guys. Just back to ES&amp;S again, I know you said bidding is up significantly, but traditionally what kind of success rates would you have been, what percent win versus not win have you had?Craig ArnoldWe have pretty strong market share Ann, in our businesses. As you know, I mean, in our Electrical Systems &amp; Services business, a lot of this activity is in the Americas market and we have industry-leading shares in this business. And so our win rate is going to be very much consistent with our underlying market share. So we do believe that this bidding activity will translate ultimately to growth in our business.Ann DuignanOkay, that is helpful color. Appreciate it. And then back to Hydraulics also, I have to ask the question about North American agriculture, of course. Maybe you could talk about what your customers are saying there? Is that where the weakness was in the quarter in term of orders? And given how bad farmer sentiment is in the US, would you anticipate that maybe staying weaker than expected for the full-year?Craig ArnoldYes, I mean, you are absolutely right that sales were actually quite decent in Ag in Q1. But the order rates in Ag was down. And to your point, it's farm incomes and underlying commodity prices being as weak as they are, that we think are certainly dampening some of the enthusiasm for the outlook in Ag markets. And I think our call on Ag for the year, we felt like it's kind of a low single-digit kind of grower for the year, but we do think that there is at least a cautionary kind of sentiment that is in the market today in and around Ag in general.Ann DuignanYes, I would think we would have a similar view of the Ag market for 2019 and maybe even into 2020. Okay, I'll leave it there just get back in line. Most of my other questions were answered. Thanks.Craig ArnoldOkay.Yan JinOur next question come from Nigel Coe with Wolfe Research.Nigel CoeThanks. Good morning, guys. Just come back to Hydraulics and the backlog was down, I think 11% and I understand the backup is coming off a very high level. But I'm just wondering to get to your sort of 4% to 5% growth for the remainder of the year in Hydraulics, do have to see orders come back positive or can we still achieve that targets with orders remaining flat to negative?Craig ArnoldYes, yes. The backlog Nigel was actually down 6% versus last year, but no problem at all, but I think the spirit of your question is once again very much like the question asked earlier, what gives us confidence that we can deliver the growth and the outlook for the year and I will say that while the backlog is down, it's still running at very, very high levels from a historical perspective.And so obviously the comparisons in general, the comps in general, get easi</t>
+  </si>
+  <si>
+    <t>PepsiCo, Inc. (NASDAQ:PEP) Q1 2019 Earnings Conference Call April 17, 2019  7:45 AM ETCompany ParticipantsJamie Caulfield - Senior Vice President of Investor RelationsRamon Laguarta - Chairman, President and Chief Executive OfficerHugh Johnston - Vice Chairman, Executive Vice President and Chief Financial OfficerConference Call ParticipantsLauren Lieberman - BarclaysJudy Hong - Goldman SachsBryan Spillane - Bank of AmericaAli Dibadj - BernsteinAndrea Teixeira - JPMorganBonnie Herzog - Wells FargoVivien Azer - Cowen &amp; CompanyCaroline Levy - MacquarieSteve Powers - Deutsche BankRobert Ottenstein - Evercore ISIAmit Sharma - BMO Capital MarketsBill Chappell - SunTrustLaurent Grandet - GuggenheimKevin Grundy - JefferiesSean King - UBSOperatorGood morning and welcome to PepsiCo's First Quarter 2019 Earnings Conference Call. Your lines have been placed on listen-only until the question-and-answer session. [Operator Instructions] Today's call is being recorded and will be archived at www.pepsico.com.It is now my pleasure to introduce Mr. Jamie Caulfield, Senior Vice President of Investor Relations. Mr. Caulfield, you may begin.Jamie CaulfieldThank you, operator and good morning everyone. I'm joined this morning by PepsiCo's Chairman and CEO, Ramon Laguarta and PepsiCo's Vice Chairman and CFO Hugh Johnston. We'll begin today's call with some brief prepared comments from Ramon and Hugh and then we'll open the call up to your questions.Before we begin, please take note of our cautionary statement. This conference call includes forward-looking statements, including statements regarding 2019 guidance and long-term targets, based on currently available information. Forward-looking statements inherently involve risks and uncertainties that could cause our actual results to differ materially from those predicted. Statements made on this conference call should be considered together with cautionary statements and other information contained in today's earnings release and in our most recent periodic reports filed with the SEC.When discussing our financial results on today's call, we will refer to certain non-GAAP measures, which exclude certain items from our reported results. Such items include the impacts of certain tax-related matters, foreign exchange translations, acquisitions, divestitures, structural and other changes, and restructuring charges. You should refer to the glossary and other attachments to this morning's earnings release and to the Investor section of PepsiCo's website under the earnings information tab to find full explanations and reconciliations of these non-GAAP measures.And now it's my pleasure to introduce Ramon Laguarta.Ramon LaguartaThank you, Jamie. Good morning everyone. About two months ago, we shared with you in some detail our priorities for the business and our financial goals for 2019. So today we're keeping our prepared comments short, just touching on the highlights for the quarter, and then we will leave enough time to get to all your questions.I'll start by simply saying that we're very pleased with our results for the first quarter. Our rate of organic revenue growth accelerated to 5.2%, our highest rate of quarterly growth in more than three years.This top line performance was broad based, with particularly strong organic revenue growth at Frito-Lay North America, which grew 6% and our international divisions, while negatively affected on a quarterly basis by FOREX and refranchising, delivered organic revenue growth of 8% in ESSA and 10% in both Latin America and AMENA.We also had solid growth and continued progress at PepsiCo beverages North America where organic revenue was up 2.5% in the quarter. We invested as planned across our businesses and these included a double digit increase in advertising and marketing. And our productivity and restructuring actions were implemented according to plan.Our strong performance in the quarter is emblematic of a number of key strengths in the business. Amongst then, the health and resilience of our categories, our leading brands, a broad based portfolio capable of evolving to satisfy consumer thesis and while develop geographic footprints with some positions in our largest markets, suite of strong and relevant capabilities across the value chain, scale that allow us to run our operations very efficiently. And of course, our highly engaged and motivated associates, we execute every day in a way that enables us to win in the marketplace.So with strong start to the year and one quarter under our belt, we remain confident in achieving the 2019 financial goals we shared with you two months ago. Looking ahead, we're staying focused on the priorities we share with you in February. Namely, to accelerate our top line growth in a sustainable way, to compete more effectively to win in most of our markets and more rapidly evolve our capabilities to widen our advantages versus the competition.To achieve these objectives, we're focused on becoming faster, stronger and better. We'll become faster by being more consumer centric and accelerating investment for top line growth and winning in the marketplace. This means, broadening our portfolio and packaging formats to win locally, fortifying our North American business businesses by investing in Frito-Lay North America and PepsiCo Beverages North America, and accelerating our international expansion with a discipline focus on right to win markets.We'll become stronger by transforming our capabilities and our culture. This means, driving savings through holistic cost management, to reinvest in the marketplace. Developing and scaling the core capabilities necessary to better understand and meet new consumer trends, strengthen our brands and improve customer service and building a differentiated organization, talent base and culture.And finally, we'll become better by integrating our purpose agenda into our business strategy with a particular focus on four critical initiatives.First, advancing farming practices to optimize crop yields, protect human rights, improve farmer livelihoods and secure supplier; second, replenishing more water than we use in water stress areas; third, creating a circular economy for plastics and fourth, increasing the appeal of our products by reducing added sugars, sodium unsaturated fats and adding more positive ingredients. The entire organization from the board to our frontline is moving forward with urgency and we look forward to updating you on our progress as the year progresses.And now let me hand it off to Hugh.Hugh JohnstonThank you Ramon and good morning everyone. I have just a few comments on the balance of your outlook.As we mentioned in the release, we are reiterating each of the components of our 2019 guidance, namely, we continue to expect organic revenue growth of 4%, a core effective tax rate of approximately 21%, core constant currency EPS to decline approximately 1%, free cash flow of approximately $5 billion and total cash returned to shareholders of approximately $8 billion comprised of dividends of approximately $5 billion and share repurchases of approximately $3 billion.With both organic revenue growth and core constant currency EPS drop, higher in Q1 than in our full year targets, that implies the growth rate for the balance of the year will be below the Q1 growth rates. So let me address how you should think about that starting with the top line.First, the rate of organic revenue growth at FLNA inQ1 was extraordinary. We don't expect that rate of growth to continue for the balance of the year. And second, Q1 represented our easiest lap of the year, so balance of year laps will be more difficult, especially in the back half of the year.From an EPS perspective, you should consider the following. One, in Q1 we had the benefit of lapping the onetime frontline bonus from 2018 and we also benefited from approximately $50 million of insurance recoveries in the current year. Two, over the balance of the year we will be lapping gains from various strategic asset sales, and we're franchising gains and insurance recoveries, most notably in Q2.Three, our rate of net commodity inflation, which includes the impact of transactional foreign exchange, is expected to accelerate in the second quarter and finally, our pace of planned reinvestment will accelerate over the course of the year and you will see this reflected both in core EPS, as well as in our operating margin performance.Now we'll open it up for your questions. Operator, we'll take the first question.Question-and-Answer SessionOperatorThank you. [Operator Instructions] Our first question comes from a line of Lauren Lieberman of Barclays.Lauren LiebermanThanks Good morning.Ramon LaguartaGood morning.Lauren LiebermanI was curious if we could talk a little bit about gross margins, obviously really solid in the quarter kind of as expected, but I was curious about one, in the near term PEM have next year let's call it thinking about commodity inflation environment, so on how you might expect that to progress and then also longer term as mixing the portfolio evolves, I guess category mix within Beverages, price tier ins and I think you've talked about in emerging markets. How should we think about gross margins from a longer term perspective? Thanks.Hugh JohnstonYeah, happy too Lauren, it's Hugh. A couple of things, one, obviously, we don't give gross margin guidance. So I'll talk more conceptually then I will specifically to numbers. We were obviously pleased with gross margins in the first quarter. But as I just mentioned, we do expect to see more commodity inflation in the balance of the year and transactional for export pressure commodities as well. So I think in the first quarter we saw probably, I call it very strong gross margin performance, in the balance of the year, we'll see how it plays out based on how FX and commodities play out. Longer term, obviously, we're looking to increase gross margins over time and that's driven primarily by productivity in the cost of goods area.Ramon LaguartaYeah, Lauren, there's a three capabilities we're working on to make sure we protect our gross margins long term expanded, one is net revenue management, key capability. Other one is innovation. And the other one is holistic cost management. So those three capabilities are the ones where we'll invest in and developing the team to make sure that we protect gross margin long term.OperatorYour next question comes from the line of Judy Hong of Goldman Sachs.Judy HongThank you. Good morning. So obviously, a pretty strong quarter from an organic revenue growth perspective, particularly as you called out some of the international markets in ESSA and AMENA, maybe you can give us a little bit more color just in terms of what you've seen in category versus your market share in some of your key markets. And, Hugh, you commented on sort of the strength in ESSA not repeating in the back half the year, so maybe a little bit more color, just why you don't think that that will be sustainable in the balance of the year. Thank you.Ramon LaguartaHi Judy, this is Ramon. Yeah, we're very pleased with the growth in international and really the macros have been very, very positive, I would say, during the quarter. We haven't seen any major geopolitical or big evaluation in any of our markets. So with your comments on ESSA, we've been investing in ESSA for many years now in building sustainable market place performance and that's coming across and most of our markets are gaining share both in beverages and snacks. Turkey has been the only country where we've seen some FOREX disruption and the team is doing a great job going through that. The same in AMENA where we had a great Chinese New Year, very, very strong Chinese New Year, the team prepared very well and we're getting better at capturing that. That's big seasonal opportunity there in that large market. So we're seeing very positive thing with Mexico. Mexico has had a great a great quarter gaining share consistently already for three quarters and continues to be a very solid performing business. So we've seen good macros and good performance across most of our operations.Hugh JohnstonYeah and Judy, just to clarify, the only thing I'd add about the laps, my comment about the laps being tougher in the back half of the year are about the company laps, not just specifically about ESSA.OperatorYour next question comes from the line of Bryan Spillane of Bank of America.Bryan SpillaneHey, good morning everyone.Ramon LaguartaGood morning.Bryan SpillaneSo I guess my question - Ramon, I know it's early in the year, but you now have the ability to begin the kind of measure or assess the efficacy of the step up in marketing and advertising, especially in PBNA, so I guess can you give us some color on whether you think A, it's going to be enough and B, are you beginning to see the consumer response to lift from the investments that you're making?Ramon LaguartaHi, Bryan, Yeah, of course, listen it's a third quarter of growth in NAB, so we feel good about the progress we're making in NAB. We feel good about our capital variance. First, I think we're really strengthening the brands. We feel very good about how Pepsi is performing. So yes, the investment in Pepsi and some of the portfolio innovation and especially packaging innovation is working very well in Pepsi. We're seeing an improvement in Gatorade, the velocity of Gatorade is improving as well. I think we have some more work to do in Dew and we will be investing more in Dew during the year. So we feel good about that part of our investments. I think what we feel really good is of our innovation; innovation is really working very well in North America Beverages. If you think about LIFEWTR, third year of growth, doubling velocities as we increase distribution, still the velocity is going is going very fast.We're, feeling very good about Game Fuel, some of the innovation we have in the energy area. Gatorade Zero is going to be a big incremental opportunity for us. It's driving category growth and its driving share for Gatorade, so we feel good about our innovation and some of our brand investments. The areas where we are still working on his execution on excellence and we made the new division structure that's going to help us a lot in terms of becoming a much more stronger local operator whilst keeping a very good customer service or large national customer. So we keep investing in that area, but I will feel good about the velocity of the brands, as I mentioned, the innovation and we'll get better execution as we invest and take maximum benefit from the new organization.OperatorYour next question comes from the line of Ali Dibadj of Bernstein.Ali DibadjHey, guys. So I actually have two questions. One is just a clarification on the one timers because as we add them up and understand last year about the transfer covers everything else, it seems like there's about $100 million swing from last year to this year in these one timers are about $0.05 a share. And I just want to make sure we're kind of getting to roughly the right number as you guys think about it. And that's probably for Hugh. And then the broader question is about the ROI and the nature reinvestments. Not because 5% organic sales growth isn't good, I mean, we thought you ran up to five, you ran it down to five, so that's all great. But it's really in North America driven more by price mix versus volume. So trying to understand the nature of the reinvestments that we would expect a little bit more, I guess volume driven or demand building type investments given the plans you laid out before for marketing et cetera. So those two questions would be really helpful please. Thank you.Hugh JohnstonHey, Ali its Hugh. I'll take the question around one timers, depending on what you characterize it as one time, I think that's about right $100 million swing. In addition to that, obviously, the tax rate was higher in the quarter this year, but I think $100 million swing is about right.Ramon LaguartaYeah. And on the investment Ali, I think it's still pretty much your - to get any good readings on the return on investment. However, we've seen, as I said, velocity of the brands improving, we're seeing market share recovering in a lot of the segments. We're seeing the brand equity better. We're seeing some of our numerical distribution and customer service, KPIs improving, so we feel good about how our investments in turn, turn it into positive operating numbers. And we feel good about the progress we're making.OperatorYour next question comes from the line of Andrea Teixeira of JPMorgan.Andrea TeixeiraYeah, hi, thank you. So I wanted to just follow up on FLNA and volumes continue to be strong on a serious spec and running about 3% in pricing the same way. I was just wondering if you can give us comfort that you're seeing good quality on that growth and I think you called out in the queue on the big franchises I assume running at a very high pace. So if you can comment on how you're seeing the progress into the goal of this 5% and how sustainable you see it going forward.Ramon LaguartaYeah. Good morning Andrea. The category and savories is performing very, very well in the US and I think it's a combination of our investments. Obviously, we have a big share of this category and some other players investing. We are obviously having a very good partnership with our customers building - increasing the space of this category in the store. So it's a compounded impact of multiple factors that is driving the category. Within this category Frito-Lay is improving its share performance as well. So we've seen the doubled impact of that. You were referring to pricing. And we're getting better at net revenue management and how we're capturing the maximum pricing of every occasion and Frito has done a great job of managing their mix to obviously maximize revenue of the demand that there is in the market.And then they've made some operational adjustments to some of the supply chain bottlenecks that we had in the past and we've been able to capture some of the seasonal opportunity, especially around Super Bowl I would say in a very, very impactful way together with our Beverages business as well. So we had a very good Super Bowl, so you put it all together and the category is healthy. I think this category we're going to have strong tailwinds as consumers. We've talked this in the past; consumers go into more unstructured meals during the day. So I think we have tailwinds, plus our investments, I think are accelerating the performance of these categories. So we feel good about Frito. Obviously, also, we're working on productivity and make sure that the business continues to generate efficiencies through invest; make sure that this model is sustainable long term.OperatorYour next question comes from Bonnie Herzog of Wells Fargo.Bonnie HerzogAll right, thank you, good morning. I wanted to ask about CSDs, there's a fairly wide delta remaining between your share performance and that of your largest branded competitor, especially in the US. So could you guys update us on some of your initiatives in CSDs, specifically innovation which you didn't mention any plans that I heard? And then how successful has your stepped up spending been in that category specifically? And then finally, I guess I'd like to understand how big of a priority CSDs are relative to your other beverage categories in terms of the investment spend and allocation of resources. Thanks.Ramon LaguartaOkay, good. So of course CSD is a very critical category for us. And we talked about that we need to have a balanced growth between CSDs and then NCBs if we really want to make progress in this business. So from that point of view it's clear that we're turning both segments of the market with a very clear intention of allocation of resources with CSDs taking a very important role for us. Within CSDs our first priority was Pepsi and we started investing in Pepsi last year. The good news is that the Pepsi brand is gaining share of CSDs already. And pretty good growth compared to our Cola competitor. So we feel good about that large segment of CSDs. Now, as I said before, we're working on Dew. Dew is - it's also improving its performance in its core portfolio and we have some laps that are over as of March, so you will see an improvement in CSD share.We continue to invest. Again you'll see, I didn't mention the innovation, there is innovation on dew brand. Game Fuel is one of the innovations in dew brand. We have other innovations coming up this summer that you guys will be able to see in the marketplace and you'll see some very strong activations of the brand coming up in the summer. So we feel good about Pepsi and it's a combination of brand, is a combination of - non-sugar doing very well, mini-cans doing very well, so the portfolio transformation we've made as well is helping us to - for Pepsi to outgrow the CSD market and now Dew is the next area of focus and I'm confident we'll see performance improvement in the next quarters in Dew.OperatorYour next question comes from the line of Vivien Azer of Cowen &amp; Company.Vivien AzerHi, thank you. Good morning.Ramon LaguartaGood morning.Vivien AzerSo I was just hoping also to talk about Beverages and ask for an update on SodaStream, how that's going and any update on your thinking on the role that'll play in your broader beverage initiative. Thanks.Ramon LaguartaYeah, I think we talked during the strategic review. SodaStream is a long term strategic bet for ads and it's in multiple dimensions. One is we think consumers will be looking for customization of their beverages solutions at home and I think SodaStream, it is a very good tool to provide that to consumers. Obviously, we're going to innovate in improving the flavor experience and other options for consumers to really capture that need. Obviously, there is a sustainability angle to SodaStream and we think that we can provide consumers with very good beverage experiences without packaging, without ways and that's I think a big plus for these effort [ph]. The performance is good; it's accelerated versus the past. We're not going to disclose specifics, but if you know the past performance of SodaStream, it is accelerating. The penetration in most of the European countries, which is the number one KPI we're measuring, keeps increasing, the same in Canada, the same in the US, which are the largest markets for this business. So we feel good about the operational results and we feel good about the value that PepsiCo as a company is adding to SodaStream, especially in the areas of R&amp;D and flavor innovation, customer relationships and some of the direct to consumer opportunities that this business has.OperatorYour next question comes from the line of [indiscernible] of Credit Suisse.Unidentified AnalystHey, everybody, good morning. Ramon presumably when you first started you developed a one year, three year, five year plan and such in, as we think about that, do we think about this year's investment spending as a bit of a one and done and the investment becomes part of the base and we're back to algorithm or do you think of it as this is the first full year we have some critical things to do and then next year there's a new set of initiatives that require further step up to hold momentum or maybe or maybe even something different.Ramon LaguartaNo, when we talked in February we were quite clear I think on this is a year where we - we are obviously taking some of our internal monies and redirecting them that we needed some additional investments to make sure that we stepped up our performance in some areas. And also, we're starting to create some capabilities that will hopefully drive the sustained performance in the future. So we will remain with the same investment position as we said in February.Hugh JohnstonAnd to add to that, and just to reiterate what Ramon was saying kind of, we talked about next year we will be back on long term algorithm so don't worry.OperatorYour next question comes from the line of Caroline Levy of Macquarie.Caroline LevyThanks very much, and good morning. I wonder if you could talk a little bit about the other categories in Beverages. They stepped up competition coming in coffee. We're just seeing a lot of new brands as well as the monster coffee business is doing pretty well and then needless to say energy and again some great new brands, but in Sports and Energy and almost a merging of those two categories. So if you could talk about your approach to defending share in coffee and to growing against Energy and Sports against the newer players that would be really helpful.Ramon LaguartaYeah, different market positions in different segments, right. So in Energy we're challengers and our portfolio in Energy clearly innovates to move on to space as the current players are not playing. So we're addressing Energy from the coffee market, we're addressing Energy from energy, like Game Fuel with specific positioning within that narrower but probably more functional. And so we are challengers and we want to have that mentality of going after existing leaders in this category and trying to get market share from that segment. In the other two categories that you mentioned our critical role is to keep building the - make sure that those categories remain very healthy and they keep growing above our LRB and that's what's happening with coffees and with sports drinks. They're both growing fast. Our biggest innovation in beverages is Gatorade Zero, I think it's going to be a very good innovation, very incremental to the category and good for our for our show market.We're investing big into Gatorade Zero and we're investing big into Gatorade. Of course Propel is doing very well and so we have a broad based approach to the sports category and we see our velocity is improving. When it comes to coffee the same approach that we think our role is to continue to innovate in this category and make sure that we premiumize at the same time we value, we cover all the different spaces where the category can go and we see our Starbucks coffee partnership very strong and clearly growing above what is the average of our company, so very accretive. Some of these players are coming into our categories. Some of them they stay for a long time, some of them, they come in and then two years later they're not there. So our approach to these categories is sustained innovation, consumer insights to drive the category long term. keep investing; make sure that we keep driving the growth, the margin expansion of those categories long term.OperatorYour next question comes from the line of Steve Powers of Deutsche Bank.Steve PowersThanks and good morning. So Ramon you talked to the category about the importance of investing among other areas in more impactful science and design led innovation and you've highlighted on this call just in response for last question some of the initiatives you have underway this year is related to beverages. But when you step back, how would you assess the 2019 innovation and new product pipeline globally, relative to what you hope to bring to market in 2020 or '21. And where might you say you see the most room for incremental improvement there.Ramon LaguartaYeah, listen, as part of the capabilities we're building is this one that you refer to, I think it's critical for us to continue to drive the growth of our categories, continue to create value for our customers in sustained way, right and that's where we are investing. We'll talk to you in the probably in this summer about how we are looking at innovation. And from the capability point of view how we're segmenting different ways of innovate. I think it's very different how you do a local refresh innovation versus what are the big bets for the company versus how do you do lift and adapt and lift and shift globally, which is a huge opportunity as you can imagine for a global company. So we'll talk more in the future, but in all of the capabilities that we're investing heavily and we're refurbishing money from other costs, lines of our P&amp;L into capabilities, it is innovation and it is especially the different types of innovation that you were talking about. We feel good about 2019 from the innovation point of view, and then the fact that we're growing 5.2%, it is a reflection of we're growing the core, but we're also adding some new segments that are very incremental to our top line and also to our categories and our customers who –we want to position ourselves as a key growth contributor to our customers through innovation, through category growth.OperatorYour next question comes from the line of Robert Ottenstein of Evercore ISI.Robert OttensteinGreat, thank you very much. A few related questions on Frito-Lay North America. First, you mentioned that you expect the growth to slow as the year progresses. Is that purely a function of tougher comps? Second, can you talk about the impact of mix in the quarter both in terms of the pricing and volume? And third, I think it's mentioned in the 10-Q that you had double digit declines in Sentidos, if you could talk a little bit about what's going on there. Thank you very much.Hugh JohnstonYeah. Hey Robert, its Hugh, I'll handle that one. Some of the commentary I gave on Frito-Lay with performance penalty year is driven by the laps as you've anticipated. In addition to that, we had a particularly good January as we had some tightening in areas of our supply chain, we address those issues, and we really had a very big Super Bowl, bigger than we've had in previous years because we unlocked some areas of the supply chain. So I think that was a big driver for the quarter, obviously that's a onetime event. We don't see that repeating over the balance of the year because it was much more driven by January challenges. Regarding mix in the quarter, it was quite positive. So we certainly feel good about where Frito-Lay mix is.OperatorYour next question comes from the line of Amit Sharma of BMO Capital Markets.Amit SharmaHi, good morning, everyone.Ramon LaguartaGood morning.Hugh JohnstonGood morning.Amit SharmaRamon, you mentioned good macros in most of your markets during the quarter. Can you just outline for us, how do you see that evolving for the rest of the year? IMF recently cut down global growth out a little bit. Can you just talk about how you see that developing for the rest of the year as well please?Ramon LaguartaYeah, happy to - listen, we're seeing very good demand for our categories globally, right. So obviously, I mean, we sell snacks and we sell beverages, so low price point product. So sometimes the big GDP fluctuations are driven by other components of the GDP and not so much consumption of our category. So the way we tend to look at our businesses is, is employment good, is wages and salaries are they moving in the right direction. So we see that stay and we don't see any reasons why in the US or in some of our big markets they just change it. FOREX has a big impact to our P&amp;L, especially in markets where we - some of the supply chain comes from outside of the country. And so far FOREX has been good, it's been stable in the ruble, the Euro, the peso, Mexican peso, so some of our big markets, the FOREX has been good. So our estimates are that it's going to continue to be quite stable.Having said that, there's always possibility obviously of geopolitical events or some others that might disrupt some of the demand, but at this point we feel good about the projections for macros for the balance of the year.OperatorYour next question comes from the line of Bill Chappell of SunTrust.Bill ChappellThanks Good morning. Just want to go back to North American Beverage and just try to understand your commentary. You said you're pleased with the kind of progress of CSDs in the quarter that Pepsi was kind of gaining share and pleased with the progress there, but really kind of two quarters removed or really one quarter removed from changing the strategy, reinvesting and kind of taking a step back. So trying to understand are things moving faster than you expected? Was advertising have a bigger impact than you expected this quarter or are we still expect - are there still a kind of a step change from here.Ramon LaguartaNo, I think the teams are doing a great job and things are coming as planned, right. So is a combination innovation, is a combination of good advertising, quantity of advertising, execution in stores and Pepsi has been the focus of our execution in stores, implementing the innovation and also imp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Facebook, Inc. (NASDAQ:FB) Q1 2019 Earnings Conference Call April 24, 2019  5:00 PM ETCompany ParticipantsDeborah Crawford – Vice President-Investor RelationsMark Zuckerberg – Chief Executive OfficerSheryl Sandberg – Chief Operating OfficerDave Wehner – Chief Financial OfficerConference Call ParticipantsDoug Anmuth – JPMorganBrian Nowak – Morgan StanleyHeather Bellini – Goldman SachsEric Sheridan – UBSJustin Post – Bank of America Merrill LynchAnthony DiClemente – EvercoreMark May – CitiRoss Sandler – BarclaysLloyd Walmsley – Deutsche BankMichael Nathanson – MoffettNathansonColin Sebastian – BairdJohn Blackledge – CowenYoussef Squali – SunTrustOperatorGood afternoon. My name is Mike and I will be your conference operator today. At this time I would like to welcome everyone to the Facebook First Quarter 2019 Earnings Call. All lines have been placed on mute to prevent any background noise. [Operator Instructions] This call will be recorded. Thank you very much.Ms. Deborah Crawford, Facebook’s Vice President of Investor Relations, you may begin.Deborah CrawfordThank you. Good afternoon and welcome to Facebook’s first quarter 2019 earnings conference call. Joining me today to discuss our results are Mark Zuckerberg, CEO; Sheryl Sandberg, COO; and Dave Wehner, CFO.Before we get started, I would like to take this opportunity to remind you that our remarks today will include forward-looking statements. Actual results may differ materially from those contemplated by these forward-looking statements. Factors that could cause these results to differ materially are set forth in today’s press release, and in our annual report on Form 10-K filed with the SEC. Any forward-looking statements that we make on this call are based on assumptions as of today and we undertake no obligation to update these statements as a result of new information or future events.During this call we may present both GAAP and non-GAAP financial measures. A reconciliation of GAAP to non-GAAP measures is included in today’s earnings press release. The press release and an accompanying investor presentation are available on our website at investor.fb.com.And now, I’d like to turn the call over to Mark.Mark ZuckerbergThanks Deborah, and thank you all for joining us today. This was a strong quarter, and our community and business continued to grow. There are now around 2.7 billion people using Facebook, Instagram, WhatsApp, or Messenger each month, and more than 2.1 billion people are using at least one every day.We’re continuing to see fast adoption of Stories with each of our three Stories experiences – Facebook and Messenger, Instagram, and WhatsApp – having more than half a billion daily actives.Since our last call, I’ve written about some major updates on the future of our services and how we’re thinking about some of the important social issues facing the Internet. So, I’ll focus my time today on these, starting with our privacy-focused vision for the future of social networking.The basic idea here is that in our lives, we all have public spaces like the town square and private spaces like our living rooms. In our digital lives, we also need both public and private spaces. For the last 15 years, Facebook and Instagram have become the digital equivalents of the town square where you can do almost anything you want with lots of people at once – stay in touch with your friends, meet new people, find communities that share your interests, start businesses, buy and sell things, and organize fundraisers for causes. They aren’t just tools for sharing one thing; they’re these whole rich platforms for lots of ways to interact in larger communities.Today, people increasingly want the intimacy of connecting privately as well, so I think there also needs to be a digital equivalent of the living room, a platform just as built out with all the ways that you’d want to interact privately. We already see that in messages, small groups, and Stories are by far the fastest growing areas of online communication. And we also know that people want additional tools for private interactions like payments and commerce.I expect the digital town squares like Facebook and Instagram will always be important and will only continue to grow in importance, but there’s a lot more to build there as well and I’m excited about that. But over time, I believe that there’s an even bigger opportunity with the digital living room to build a platform focused on privacy. We all need to communicate privately, and this service could be even more important in our lives. So, I think we should focus our efforts on building this privacy-focused platform.Our plan is to build this the way we’ve developed WhatsApp; focused on the most fundamental and private use case, messaging, make it as secure as possible with end-to-end encryption, and then build more ways for people to interact on top of that. And this privacy-focused platform will be built around several principles: Private interactions. You should have simple, intimate spaces where you have complete confidence that what you say and do is private. Encryption. Your private communications should be secure, and end-to-end encryption prevents anyone – including even us – from seeing what you share.Reducing permanence. You shouldn’t have to worry about what you share is going back to hurt you later, so we won’t keep around messages or Stories for longer than necessary. Safety. You should expect that we’ll do everything we can to keep you safe on our services within the bounds of an encrypted service. So we’re taking the time to get this right upfront before we ship this platform. Interoperability. You should be able to use any of our apps to reach your friends, and you should be able to communicate across our networks easily and securely.And finally, secure data storage. You should expect that we won’t store sensitive data in countries where it might be improperly accessed because of weak rule of law or governments that can forcibly get access to your data.So over the next few years, we’re going to rebuild more of our services around these ideas. There are a lot of open questions and real tradeoffs on important social issues, so we’re committed to working openly on this and consulting with experts and governments as we go.Now, I know one of the questions we’ve gotten frequently is about how this will affect our business. So, I’ll address that here. The reality is any impact is going to be longer term and we don’t know exactly how this will play out yet. But on some of the questions like whether encrypting content will hurt our business, I’m more confident that won’t be a significant issue. We don’t use the content of messages between people to target ads today, so encrypting that content won’t change what we do. It will strengthen people’s privacy without meaningfully affecting our business.Similarly, reducing the permanence of data may have some impact, but we’ve generally found that more recent data is more useful for recommendations anyway, so this is another step that should have a much bigger impact on strengthening people’s privacy than it will have on our business. Our stance on data localization is a risk. That is, if we get blocked in a major country, that will hurt our community and our business. But our principles on data localization aren’t new and this is always a risk.Some people have asked whether more use of private social platforms will replace the more public platforms. And our privacy road map applies to all our products, but we believe there needs to continue to be both the digital town square and the digital living room. As private platforms have grown, in some cases, we’ve seen some cannibalization of the more public platforms in countries like India, where WhatsApp is very popular, but the broader pattern across the world is that people want to use both private and public platforms . So, I believe building out this private social platform is a much greater opportunity than it is a risk.In thinking about the opportunity and impact to our business, by far the most important factor will be whether people choose to use our products and whether we can build the leading private social platforms in most countries. Now remember, we are not currently the leading messaging platform in either the United States, China, or Japan, which are the three largest economies in the world. Our apps aren’t in China, but innovating and succeeding in the other countries is going to be very important. People want a private social platform that is as strong on privacy as possible, so delivering this is both in the interest of our community and our business.As always, our first step is going to be to focus on building the services people want. We’re still in the early stages of developing this, and we’ll share more as our plans develop. The other piece I published in the last month was about the four areas of internet regulation I think would be most helpful around content, elections, privacy, and data portability.And the reason I wrote this is because I’ve spent most of the last couple of years focused on addressing the important social issues around the internet, and while I’m proud of the progress we’ve made, these are areas, where it doesn’t feel right for a private company to make such important policy decisions by ourselves. If the rules for the internet were being written from scratch today, I don’t think people would want private companies to be making so many decisions around speech, elections, and data privacy without a more robust democratic process.For harmful content, I think there should be a public process for determining what’s allowed and required for keeping harmful content to a minimum. That could be through government or industry, but having common standards is critical since people use so many different services to share content.For elections, there have long been laws defining what is political advertising, but we need to update those regulations to reflect today’s threats like the ways that foreign nation states try to interfere in elections now. Those threats are often not covered by today’s laws, and I think we’d be better off if companies didn’t define those policies themselves.For privacy, I believe it would be positive if more countries adopted regulation like GDPR as a common framework. At this point, realistically, most countries will adopt privacy regulation, and the most likely alternative to a global framework like GDPR is the fragmentation of the internet and more countries following the approach of authoritarian regimes adopting strict data localization policies, where governments can more easily access people’s data, and I’m highly concerned about that future.For data portability, if you have data in one service, you should be able to move it to another. But we need a common understanding of nuanced questions like what is your data and what is someone else’s. If I share my birthday with you, is that now your data that you should be able to bring to your calendar app, so it can remind you later? Or is that only my data? And if a platform like Facebook facilitates data portability and you’re bringing data to another app, whose responsibility is it if that app misuses your data? The absence of clear rules here discourages companies like ours from building tools to make it easier to move data between apps.These questions involve difficult tradeoffs. We can’t have complete free speech, but no hate. We can’t have complete privacy while also stopping every safety threat. We can’t tell platforms to keep everyone’s data private, but then expect a broad definition of data portability for research or competition. The values and equities at stake are too important and too conflicting for any company to balance them in a way that everyone will be comfortable with. So part of building trust will be deferring to a public process on how to make these tradeoffs.I understand that any regulation may hurt our business. But I think it’s necessary. Getting these issues right is more important than our interests. And I believe that regulation will help establish trust when people know that the right systems of governance and accountability are in place. So, over the long-term, I believe that that increase in the trustworthiness of the internet can have a much larger positive impact for our community and our business than any short-term hit that we’re going to take.Overall, this is an important time for Facebook. I’m excited about the direction we’re heading and looking forward to discussing how we should address some of these issues more directly.As always, thank you for being on this journey with us. And now here’s Sheryl to talk about our business.Sheryl SandbergThanks Mark, and hi everyone.We had a strong start to the year. Mobile ad revenue grew 30% year-over-year to $13.9 billion, making up approximately 93% of our total ad revenue. We had solid growth across all regions, and our revenue base continues to broaden as more businesses advertise with us. In Q1, our top 100 advertisers represented less than 20% of our total ad revenue, which means our advertiser base is more diverse compared to the same period last year.We’re making significant investments in safety and security while continuing to grow our community and our business. This quarter once again, shows that we can do both. As we prepare to build more services around our privacy roadmap, we’re changing the way we run the company. We are committed to earning back trust through the actions we take.A key part of earning back trust is increasing transparency. That starts with our products, which should be as easy to understand as they are to use. Last month, we updated our “Why am I seeing this ad?” feature to give people more context and control over the ads they see. We also introduced “Why am I seeing this post?” so people can learn more about what shows up in their News Feed and change their preferences to make their Facebook experience more personal.We are dramatically increasing transparency in our work on elections, where we’re focused on addressing known threats and anticipating new ones. We built up our defenses for the U.S. midterms, and we’re doing the same in other parts of the world. We’ve expanded our Ads Library to include all ads, not just electoral ads and we’ve made it easier to search for and report bad ads. Ahead of the European Parliament elections next month, anyone running political or issue ads in the EU is required to confirm their identity and location and include a “paid for by” disclosure. Making online ads more transparent helps people understand who’s trying to influence their vote, and helps us better defend against foreign interference.We’re also working hard to ensure that our ads don’t exclude or harm people. There’s a long history of discrimination in the areas of housing, employment, and credit, and we don’t want this happening on Facebook. In March, we announced industry-leading changes, anyone running ads in these categories in the U.S. will no longer be allowed to target by age, gender, or zip code. We’re also creating a new library, where people can search through active housing ads and report them. We expect these changes will affect some advertisers’ ability to run legitimate ads, but we believe this is the right tradeoff to better protect against discrimination.Going forward, we will continue making investments to increase transparency, protect our platform from interference, and help keep people safe. We’re doing this, because it’s the right thing to do for people, and because it’s good for our business over the long-term. At the same time, we are focused on continuing to grow our business by helping advertisers grow theirs. We offer the unique ability for advertisers to reach the right person with the right message at the right time, and for people to see ads that are truly relevant to them. We do this in a privacy-focused way that enables millions of businesses around the world to grow and hire.Facebook and Instagram Feed ads make up the bulk of our business today. We expect that to continue, but Stories are an increasingly important growth opportunity. We are helping advertisers keep up with the shift in how people are sharing, just as we did with mobile. We’re proud to announce that we now have 3 million advertisers using Stories Ads to reach customers across Instagram, Facebook, and Messenger.Now, we’ve learned it’s not enough to make a new format available. We also need to make it easy for advertisers to optimize their campaigns. And that’s what we’re doing with Stories. Last month, we introduced Interactive Stories Ads globally on Instagram. People and businesses already use interactive features to start conversations in their Stories and now advertisers can use polling stickers to stand out and drive results. When Dunkin’ promoted its donut fries with an interactive poll in their Stories ads, more than one in five people, who saw the ad voted, which increased engagement and drove 20% lower cost per video view.In addition to helping advertisers make the shift to new ads experiences, we’re making it easier for people to shop directly on our apps. We recently announced Checkout on Instagram, so when people find a product they love in a post or story, they can buy it without leaving the app. We launched with 23 brands in the U.S. including adidas and MAC. While this is a very small closed beta and we know this will take a long time to develop, we’re excited about this next step for shopping on Instagram.Commerce is a growing area for us, too. We’re seeing millions of interactions between buyers and sellers in Marketplace every day. Last quarter we expanded Marketplace ads to more countries and are seeing positive early results. For example, Succulents Box, an online subscription plant business, generates 18% of its total sales from their listings on Marketplace.As we continue to make ads and commerce better, we're focused on helping advertisers connect directly with people. In Q1, we launched Collaborative Ads, which give brands that don't have a direct-to-consumer channel a way to run e-commerce campaigns with retailers. Samsung recently tested Collaborative Ads with Fravega, an electronics retailer in Argentina. They targeted broad audiences who had viewed Samsung products on the retailer’s website, and the campaign resulted in a 21% lift in sales.I want to close by saying how grateful I am to our partners around the world. Every day, they give us valuable feedback on how to improve our products so that we can help them grow their businesses.I also want to thank the Facebook teams who drive that growth, while also making progress on the major social issues facing the internet and our company. I am grateful for my colleagues’ continued dedication and hard work.Thanks, and here’s Dave.Dave WehnerThanks Sheryl and good afternoon everyone. Let’s begin with our community metrics. Facebook daily active users reached 1.56 billion, up 8% compared to last year, led by growth in India, Indonesia, and the Philippines. This represents approximately 66% of the 2.38 billion monthly active users in March. MAUs grew 179 million or 8% compared to last year.Turning to our Family metrics. We estimate that on average, over 2.1 billion people used at least one of our apps on a daily basis in March and around 2.7 billion people were active on a monthly basis. We believe these numbers better reflect the size of our community and the fact that many people are using more than one of our services.Turning now to the financials. All of the comparisons are on a year-over-year basis unless otherwise noted.Q1 total revenue was $15.1 billion, up 26% or 30% on a constant currency basis. Had foreign exchange rates remained constant with the first quarter of 2018, total revenue would have been approximately $503 million higher.Q1 total ad revenue was $14.9 billion, up 26% or 31% on a constant currency basis.In terms of regional ad revenue growth, U.S. and Canada was strongest at 30%, followed by Asia-Pacific at 28% and Rest of World at 23%. Europe grew more slowly at 21% and was impacted in part by currency headwinds.In Q1, the average price per ad decreased 4% and the number of ad impressions served across our services increased 32%. Impression growth was primarily driven by ads on Instagram Stories, Instagram Feed, and Facebook News Feed. The year-over-year decline in average price per ad reflects an ongoing mix shift towards Stories ads and geographies that monetize at lower rates.Payments and Other Fees revenue was $165 million, down 4% year-over-year and down 40% from Q4 which benefitted from holiday sales of Oculus and Portal.Turning now to expenses. Total expenses were $11.8 billion, up 80%. This includes a $3 billion accrual taken in connection with the inquiry of the Federal Trade Commission into our platform and user data practices. This matter remains unresolved, and we estimate that the associated range of loss is between $3 billion and $5 billion. Absent this accrual our total expense growth rate would have been 46 percentage points lower.We ended Q1 with approximately 37,700 full-time employees, up 36%.Operating income was $3.3 billion representing a 22% operating margin. Absent the accrual, operating margin would have been 20 percentage points higher.Our Q1 tax rate was 30% and was higher than the mid-teens guidance given the tax treatment of the accrual.Net income was $2.4 billion, or $0.85 per share. The accrual we recorded reduced EPS by approximately $1.04.Capital expenditures were $4 billion, driven by investments in data centers, servers, office facilities, and network infrastructure. We generated $5.3 billion in free cash flow and ended Q1 with approximately $45.2 billion in cash and investments. In Q1, we bought back approximately $521 million of our Class A common stock.Turning now to the revenue outlook. We continue to expect that our revenue growth rates will decelerate sequentially throughout 2019 on a constant currency basis. In addition, we anticipate ad targeting related headwinds will be more pronounced in the second half of 2019.Turning now to the expense outlook. We are adjusting our expense outlook which now includes the accrual we recorded in Q1. We now anticipate full-year 2019 total expenses to grow 47% to 55% compared to 2018, up from our prior guidance of 40% to 50% growth. The $3 billion accrual accounts for approximately 10 percentage points of the anticipated expense growth.But excluding the accrual, this revised outlook implies a modest adjustment in our guidance on 2019 core expense growth rate.Note that this does not change our longer-term outlook on the need to invest in core product, infrastructure, innovation, and safety and security, and the ultimate impact of those investments on our operating margin.We are updating our 2019 capital expenditures outlook to be $17 billion to $19 billion, down from our prior estimate of $18 billion to $20 billion. Our capital expenditures are driven primarily by our continued investment in data centers and servers.We expect our tax rate for the remaining quarters of 2019 to be in the mid-teens.In summary, Q1 was another good quarter for Facebook. We are pleased with our ability to grow our community and business while at the same time investing heavily for the future.With that, Mike, let’s open up the call for questions.Question-and-Answer SessionOperatorWe will now open the lines for question-and-answer session. [Operator Instructions] Your first question comes from the line of Doug Anmuth from JPMorgan.Doug AnmuthThanks for taking the question. Mark, can you maybe just talk a little bit more about the time frame for building out a privacy-focused social platform? Are we thinking about one year, three years, five years, and what’s the right way to think about that? And also how do you layer in additional services and functionality for users from there as you go along? And then one for Sheryl as well around Stories ads, you mentioned 3 million-plus advertisers, can you just talk about how the increased density there is translating into pricing relative to the feed? And your view over time, how Stories ads could monetize relative to feed ads? Thank you.Mark ZuckerbergSure. For the time frame for this, I think that this is going to be a central focus for the company for the next five years or longer. Parts of this, we already have a strong foundation on, where WhatsApp and Messenger are strong around the world. But in a lot of the most important countries for this like that – like I mentioned in the United States and Japan, we are not the leading private communication service today. So there, the most important thing that we need to do is get the basics right and make sure that we are providing, hands down, without any question in anyone’s mind, the clear best service in those areas. So we’ll talk about both of these things over – a lot over the coming months and the plan – I’ll share a little bit more at F8 next week in terms of the product roadmap and what we expect to see on this. But some of the things we’re also going to intentionally take a longer period of time than we might have previously in order to get safety right.So when I first announced that we were going to be moving our private communication services to all be end-to-end encrypted, I was very clear that we’re planning on taking at least a year to go consult with experts and governments and law enforcements around the world to make sure that we have the right safety systems in place to make sure that we handle this really well, right? Because there are really important safety and content issues in messaging and if we don’t have the ability to see the content, we need to make sure we have different tools in place to handle that. And this is a different approach than we would’ve taken a few years ago, right?A few years ago, we probably would’ve rolled this out and tried to deal with issues as they came up with, but now part of our new approach of trying to be more proactive about social issues is trying to build in from the ground up, getting this right upfront. So the playbook is going to be work on getting the basics right, make sure that we have safety rights from the beginning. In countries where we already are the leading platform, there will be more ability to work on things like payments in the near term and build in additional ways that people want to interact privately. But in terms of when I expect this to be a real contributor to the business, I don’t think in the next couple of years that’s going to be a major driver. This is just a big focus for us which is why I’m talking about it now.Dave WehnerSo Doug, it’s Dave. I’ll take the question on Stories. So we are seeing more of our impression growth coming from Stories, and when I outlined the factors driving impression growth, I listed Stories first. It was the largest contributor of year-over-year impression growth in the quarter. But those impressions are coming in at lower prices than we see in feed. So if anything, the mix shift on growth towards Stories is certainly in the near term a headwind on revenue growth.On pricing specifically, we’re seeing such strong impression growth that this supply growth keeps prices low and creates an opportunity for advertisers, and we’re seeing smart advertisers take advantage of that. Ultimately, we believe we can increase demand for Stories as we attract more advertisers and bring more effective direct response units to Stories. But this – and over time, that will play through to increased prices but this is going to take years, not quarters. So at least in the near term, we’re going to see a meaningful discount on prices on Stories.OperatorYour next question comes from Brian Nowak from Morgan Stanley.Brian NowakThanks for taking my question; I have two. Just to go back to the story monetization point with the 3 million advertisers, could you just talk us through some of the main strategies you’ve used to really drive the Stories advertiser adoption? And then any clarity you can help us better understand what type of lifts you’re seeing in spend per advertiser as they start to spend on both News Feed and Stories?And then, Dave, just to come back to your comments about revenue for the year you mentioned the ad targeting headwinds would be more pronounced in the second half. Can you help us better understand why that is, the sort of changes to expect that would drive that? Thanks.Sheryl SandbergYes, this is Sheryl; I’ll take the Stories question. So one of the things we learned is that consumers usually move to new features, to new products, to new places before marketers, and it’s really up to us to help marketers move there quickly. We definitely saw that with mobile, that one of the barriers was convincing marketers that they needed to be with mobile. But then there was a second barrier which was just making it easier for them to do it. If you take your long TV ad or your 30-second TV spot and you just put it on mobile, it doesn’t perform as well as a mobile first ad, and that’s been something we’ve worked on.Now, we’re really applying that lesson to Stories. First, we need to convince marketers that people are using Stories, and I think having seen the mobile shift, their process – they’re getting that I think more quickly. But then we have to make it easy. So if you look at some of the tools and products I’ve talked about in the last couple of quarters, now you can – rather than us saying to you, go make a Stories ad you can just send us some pictures, some text, some very easy posts and we will create some Stories ads for you.So our process is, we have one sales team selling all of these products; I think that helps us a lot because they already have those relationships. And we’re doing all we can to make it very easy to adopt the format. We also want to make this as automated as possible. So the long run view should be that you can give us maybe simple pictures, maybe simple videos, maybe an ad you’ve produced, and we can do the placement for you, because we think over time our systems will do a better job deciding where your ads should be placed and even helping you target until you’re seeing us build tools in that direction as well.In terms of how much of its incremental, I’m sure not all of it is. There’s – definitely has to be some cannibalization for people who are doing feed ads as they get Stories. But we’ve seen that over time as we move people we’re able to get increasing shares, hopefully, of their budget but it’s our job to earn that. We tell marketers all over the world that we want to be the best dollar, the best minute, the best euro they spend and it’s up to us to prove that ROI and we’re going to continue to do that.Dave WehnerHey, Brian, it’s Dave. We already talked about on the supply side the impact that Stories is having. And the supply growth really getting driven by Stories is coming through at lower prices, so that’s one of the factors that factors into the lower growth outlook for the second half. But on the demand side, want to specifically call out several factors that are contributing to ad targeting headwinds. The first is just the evolution of the regulatory landscape, and here I would point to regulations like GDPR. The number of people who have opted out on using context from the apps and websites they visit for ad targeting has continued to increase since the adoption of GDPR, so we’ve seen that come up both in Europe and around the world. That means those people are seeing less relevant ads and that’s an ad targeting headwind for our business.The second factor is just anticipated changes that mobile platforms will make that will make targeting and measurement more difficult. And the third is Facebook – our own product changes. For example, in the fall we plan to roll out our tool for seeing and clearing your off-Facebook browsing history. In addition, we’ve introduced restrictions on the use of certain targeting criteria from some ads. So we’re seeing a cumulative impact from all of these factors leading to – leading to what we expect to be targeting headwinds for the – for the back half of the year.OperatorYour next question comes from Heather Bellini from Goldman Sachs.Heather BelliniGreat. Thank you. I had two questions. The first one I guess, Mark, was given the focus on back-end integration that you’ve been talking about and a platform increasingly focused on privacy, I was wondering how you think about the incremental expenses, if any, to achieve this? And in particular, if I go back to your comments </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JPMorgan Chase &amp; Co. (NYSE:JPM) Q1 2019 Earnings Conference Call April 12, 2019  8:30 AM ETCompany RepresentativesJamie Dimon - Chairman, Chief Executive OfficerMarianne Lake - Chief Financial OfficerConference Call ParticipantsJohn McDonald - Autonomous Mike Mayo - Wells FargoGlenn Schorr - Evercore ISIBetsy Graseck - Morgan StanleySteven Chubak - Wolfe ResearchBrian Kleinhanzl - KBWGerard Cassidy - RBC.Alevizos Alevizakos - HSBCMatt O'Connor - Deutsche BankErika Najarian - Bank of AmericaKen Usdin - JefferiesJim Mitchell - Buckingham ResearchSaul Martinez - UBSMarty Mosby - Vining SparksAndrew Lim - Société GénéraleOperatorGood morning, ladies and gentlemen. Welcome to JPMorgan Chase’s First Quarter 2019 Earnings Call. This call is being recorded. Your line will be muted for the duration of the call. We will now go live to the presentation. Please stand by.At this time, I would like to turn the call over to JPMorgan Chase’s Chairman and CEO, Jamie Dimon; and Chief Financial Officer, Marianne Lake. Ms. Lake, please go ahead.Marianne LakeThank you, operator. Good morning, everybody. I’m going to take you through the earning presentation which is available on our website. Please refer to the disclaimer at the back of the presentation.Starting on page one, the firm reported record net income of $9.2 billion and EPS of $2.65 and record revenue of nearly $30 billion with a return on tangible common equity of 19%. The results this quarter was strong and broad-based. The highlights include core loan growth ex-CIB at 5%, with loan trends continuing to progress as expected. Credit performance remained strong across businesses. We saw record client investment asset in consumer of over $300 billion and record new money flows this quarter, and double digit growth in both card sales and merchant processing volumes, up 10% and 13% respectively. We ranked number one in Global IB fees and gained meaningful share, which are well above 9% this quarter. In the commercial bank we had record growth IB revenue, in asset and wealth management record AUM and client assets and the firm delivered another quarter of strong positive operating leverage. Turning to page, two and talking into more detail about the third quarter, revenue of $29.9 billion was up $1.3 billion or 5% year-on-year, driven by net interest income which was up $1.1 billion or 8% on higher rates as well as balance sheet growth and mix. Non-interest revenue was up slightly as reported, but excluding fair value gains on the implementation of a new accounting standard last year, NII would have been up 5%, reflecting auto lease growth and strong investment banking fees and while market revenue was lower, there were other items more than offsetting.Expense of $16.4 billion was up 2% relating to continued investments we are making in technology, real-estate, marketing and front office, partially offset by a reduction in FDIC fee charges of a little over $200 million. Credit remained favorable across both Consumer and Wholesale. Credit costs of $1.5 billion were up $330 million year-on-year driven by changes in wholesale reserves. In Consumer charge-offs were in line with expectations and there were no changes to reserves this quarter.In Wholesale, we had about a $180 million of credit costs, driven by reserve sales on select C&amp;I client downgrades and recall that there was a net release last year related to energy. Once again these downgrades were idiosyncratic. It was a handful of names and across sectors. Net reserve sales of this order of magnitude are extremely modest given the size of our portfolio and we are not seeing signs of deterioration. Moving on to page three, and balance sheet and capitals. We ended the quarter with a CET1 ratio of 12.1%, up modestly from last quarter, with a benefit of strong earnings and the AOCI gains given rallying rates being partially offset by slightly higher risk-weighted assets. RWA is up primarily due to high accounts cost of credit on trading activity, but notably this quarter being offset by lower loans across businesses on a spot basis. Quarter-on-quarter loans were down in Home Lending as a result of a loan sale transaction in the CIB as a result of a large syndication and in Card and Asset &amp; Wealth Management seasoning. Also in the page total assets are up over $100 billion quarter-on-quarter, basically driven by higher CIB trading assets in part and normalization from lower levels at the end of the year given market conditions. Lower end of period loans are partially offset by treasury balances, including higher security. In the quarter the firm distributed $7.4 billion of canceled shareholders, including $4.7 billion of share repurchases, and our pre-submitted our 2019 CCAR capital plan for the Federal Reserves. Moving to Consumer &amp; Community Banking on page four, CCB generated net income of $4 billion and an ROE of 30%, with consumers remaining strong and confident. Core loans were up 4% year-on-year, driven by Home Lending and Products both up 6% and business banking up 3%. Deposits grew 3%, in line with our expectation and we believe we continue to outperform. Client investment assets were up 13% driven by record new money flows reflecting both across physical and digital channels including new invest. We also announced plans to open 90 branches this year in new markets. Revenues of $13.8 billion was up 9%; Consumer &amp; Business Banking revenue up 15% on higher deposit NII driven by continued margin expansion; Home Lending revenue was down 11%, driven by net serving revenue on both lower operating revenue and MSR, but notably while volumes are down production revenue is up nicely year-on-year on disciplined pricing. And product Merchant Services &amp; Auto revenue was up 9% driven by higher Card NII on loan growth and margin expansion and higher auto lease volumes. Expense of $7.2 billion was up 4%, driven by investments in the business and also lease depreciation, partly offset by expense efficiencies and lower FDIC charges.On Credit, net charge-offs were flat as lower charge-offs in Home Lending and Auto were offset by higher charge-offs in Card on loan growth. Charge-off rates were down year-on-year across lending portfolios.Now turning to page five under Corporate &amp; Investment Bank. CIB reported net income of $3.3 billion and an ROE of 16% on strong revenue performance of nearly $10 billion. For the quarter IB revenues of $1.7 billion was up 10% year-on-year and outside of an accounting nuance, all of advisory, DTM and total IB fees would have been record for our first quarter. Advisory fees were up 12% in a market that was down, benefiting from a number of larger deals closing this quarter. We ranked Number one in announced dollar volumes and gained nearly a 100 basis points of wallet share. Debt underwriting fees were up 21%, also outperforming a market that was down, driven by large acquisition financing deals and our continued strong lead-left positions in leverage finance. We maintained our number one rank and gained well over 100 basis points of share. And Equity underwriting fees were down 23%, but in the market down more as a combination of the government shutdown, uncertainty around Brexit and residual impact from December volatility weighed on issuance activity across the regions in the first quarter. But already in the second quarter we’ve seen a major recovery in US IPO volumes back to normalized levels and we are benefiting from our leadership in the technology and Healthcare sectors which again dominate the calendar.Moving to markets, total revenue was $5.5 billion, down 17% reported was down 10% adjusted to the impact of the accounting standards last year that I referred to. Big picture, on a year-on-year we basis we are challenged by a tough comparison. Backlog in the first quarter of ‘18 was reported, clients were active and we saw broad based strength in performance which a clear record in equity last year. In contrast this quarter started relatively slowly and overhanging uncertainties kept flying from the slide lines despite and recovered in more favorable environments. And with that in mind I would characterize the results are solid and a little better than we thought at Investor Day just a few weeks ago, largely due to a better second half of March. And for what it’s worth so far, the environment in April, sales general constructed but it’s too early to draw any conclusion in terms of P&amp;L. Fixed income markets revenue was down 8% adjusted, driven by lower activity, particularly in rates and in current fees and emerging markets, which normalized following a strong prior year. However we did see relative strengths in credit trading and strong flow, as well as in commodity. Equities revenue was down 13% adjusted, seeking more to the record prior year quarter and this quarter’s performance, which was still generally strong across products. Although it got off to a somewhat slower start, cash in particular nearly matched last year’s exceptional results. Treasury services revenue was $1.1 billion, up 3% year-on-year, benefitting from higher balances and payments volume, being partially offset by deposit margin compression. Security services revenue was a $1 billion, down 4% as organic growth was more than offset by fee and deposit margin compression, lower market levels and the impact of the business exist. Of note, deposit margin in both treasury services and security services is impacted by funding basis compression rather than client basis and at the firm wide level there is an offset. Finally, expense of $5.5 billion was down 4% driven by lower performance based compensation and lower FDIC charges, partially offset by continued investments in the business. The comps and revenue ratio for the quarter was 30%.Moving to commercial banking on page 6. A strong quarter for the commercial bank with net income of $1.1 billion and an ROE of 19%. Revenue of $2.3 billion was up 8% year-on-year on strong investment banking performance and higher deposit NII. Record Gross IB revenue of over $800 million was up more than 40% year-on-year due to several large transactions, and the pipeline continues to stay robust and active. Deposit balances were down 5% year-on-year and 1% sequentially, as migration of non-operating deposits to higher yielding alternatives has decelerated and we believe it’s largely behind us. From here we expect deposits to stabilize given the benign rate outlook. Expense of $873 million was up 3% year-on-year as we continue to invest in the business and the banker coverage and in technology.Loans were up 2% year-on-year and flat sequentially. C&amp;I loans were up 2% or up 5% adjusted for the continued runoff in our tax exempt portfolio. We continue to see solid growth across expansion market and specialized industries. CRE loans were up 1% as competition remained elevated and we continued to maintained discipline given where we are in the cycle. Finally credit costs of $90 million was predominantly driven by higher reserves from select client downgrades and net charge offs were only 2 basis points on strong underline performance.Before we go on, I want to address the perceived seat gap between our reported C&amp;I growth statistics and those that we all see in the fed weekly data. If we look across all of our hotel business, we also show strong growth year-on-year at about 8%, but there are three comments I would make; the first is that there can be reasonable noise in the fed weekly data; second, CIB is a big contributor for us, and CIB loan growth this quarter was supported by robust acquisition financing and higher market loans. And third, as previously noted, the definition of C&amp;I for the Feds does not include our tax reform portfolio, which has seen significant year-on-year declines given tax reforms. So while it’s true that the Fed base was showing strong growth year-on-year and apples-to-apples ROE, in the domain stream middle market lending phase we are seeing good, mid-single digit demand in line with our expectation. Moving on to assets and Wealth Management on page seven. Assets and Wealth Management reported net income of $661 million with a pretax margin of 24% and an ROE of 25%. Revenue of $3.5 billion for the quarter was flat year-on-year as lower management fees on average market levels, as well as lower growth brokerage activity were offset by higher investment valuation gains. Expense of $2.6 billion was up 3% year-on-year but continued investment in our business, as well other headcount related expenses were partially offset by lower external fees. For the quarter we saw net long-term inflows of $10 billion with strength in fixed income, partially offset by outflows from other asset classes. Additionally we have net liquidity outflows of $5 billion. AUM of $2.1 trillion and overall client assets of $2.9 trillion were both records of 4% driven by cumulative net inflows into liquidity and long term products and with third quarter market performance nearly offsetting fourth quarter declines. Deposits were up 4% sequentially on seasonality and down 4% year-on-year, reflecting continued migration into investments, although decelerating as we continue to capture the vast majority of inflows. Finally we had record loan balances up 10% with strength in both wholesale and mortgage lending.Moving to page eight in corporate. Corporate reported a net income of $251 million with net revenue of $425 million, compared to a net loss of over $200 million last year. The increase was driven by higher NII on higher rates, as well as cash deploying opportunities in the treasury. And recall last year we had nearly $250 million of net losses on security sales relative to a small net gain this quarter. Expenses of $211 million is up year-on-year and includes the contributions to the foundation of $100 million this quarter. Concluding on page nine, to wrap up this is a sort of quarter that really showcases the strengths of the firms operating model, benefiting from diversification and scale and our consistent investment agenda. We delivered record revenue and net income in a clean first quarter performance despite some hangover from the fourth quarter. Underlying drives across our businesses continue to propel us forward and in March and coming into April the economic backdrop feels increasingly constructed, client sentiment has recovered and recent global data shows encouraging momentum. Deposits grew is only six weeks behind us, so our guidance for the full hasn’t changed. We do remain well positioned and optimistic about the firm’s performance. With that operator, we’ll take questions.Question-and-Answer Session Operator[Operator Instructions]. Your first question comes from a line of John McDonald with Autonomous.John McDonaldHi, good morning. Marianne you had good expense control this quarter and your Jamie's letter you show goals of improving the efficiency ratio on each of the main business units for the next few years. Just kind of wondering what's driving that? Is there any kind of cresting of investment spend that's going to occur in 2020 or is this just kind of positive operating leverage carrying through.Marianne LakeHey John. So I would say just big picture it’s a combination of both obviously. We told at Investor Day about the fact that you know we're always going to make the net investment, the net incremental investment decision base based on its own merits, but in total with the amount we’re spending now and the amount of dollars that rolled off every year that get repositioned for investment. We feel like we should see our net investment spend reach a reasonable plateau over the course of the next several years and so that is positive. Obviously a lot of the investments that we've been making in technology you know are also not only to do with customer service and risk management and revenue generation, but that also has to do with operating efficiency and we would also expect to start to see some of that drive, you know operating leverage. But it’s also the case that we are looking for revenue growth, so it’s a combination of both. John McDonaldOkay, and then just on the NII outlook, it's reassuring to be able to hold the Investor Day outlook of the $58 billion for this year even though your curves flattened, there was some concerns there. What are the dynamics that enable you to keep the guidance even with the change in curve that we are seeing? Marianne LakeYeah, so I mean the first I would say is that you know, we probably said it before and we’ve seen these periods where you get kind of short term fluctuations in the curve is that, it’s a big dangerous to chase it up and down every month or so. And so in the big picture we said, you know $58 billion plus. Yes, it’s true that a persistence that the curve would have a small net drag on Carry and we are not immune to that. So there is a little bit of pressure as a result of that, if it is persistent at this level throughout the year, but you know we continue to grow our loans and our deposits and against that, there is a mixed bag of lower for longer. So while we may not have a tailwind of higher rates, we also may not have the same kinds of pressures that we would see on you know basis necessarily and while now longer and the rates maybe a net small drag in the short term on earnings, that’s a credit on the balance sheet and you could argue a patient FED and lower rates for longer may elongate the cycle. So net-net there are pluses and minuses. I would say there may be some pressure and as a results that if it’s persistent, but its modest. OperatorYour next question comes from a line of Mike Mayo with Wells Fargo. Mike Mayo Hi! You mentioned consumer deposit growth is outperforming where you get average consumer deposits up over $20 billion year-over-year, so those are the numbers. I just – I was hoping for a little bit more on the why, and to what degree does that reflect your build out of branches, how is that deposit growth going, how much of this is related to digital banking and then how much would be due to simply a perception that you have superior strength, I know that came up during the CEO hearing, the IMS study saying that you get a benefit due to a perception of being too big to fail? Thank. Marianne LakeYeah, so look I will say there’s lots of different opportunities for people to get ensured deposits. So you know, we’ll come back to the other point, but all of that plays a piece. So you record that we build a large number of branches following the financial crisis as we densified our position in new markets being California and Florida and Nevada and the like and so we do have a decent portion of our branches that are still in their maturation phase and so we are definitely seeing you know some growth in deposits there. By also firmly believing we talked about it many, many times that we’ve been investing you know consistently over the last decade in customer experience, customer satisfaction in our consumer bank is at an all-time high and continues to increase consecutively. Digital products, new products and services, value propositions to our customers, convenience, new market, all of which I think are you know increasingly important to our customers, as well as obviously you know not a number of other factors. So you know to me it’s a combination of all of the above and less so you know at this point of perception of a flight to quality, the people have a lot of choices. Year-over-year I would say you know we are see deposit growth grow exactly in line with our expectations, but this year the slowdowns speaks a little bit more as far as we can see to higher consumer spend and are little bit less to do with deposit flows out to rate-seeking alternatives. So customers are voting with their business, they are brining deposits to us and I think it speaks to a combination of the investments we are making and also including any branches. Mike Mayo So how much in that deposit growth is due to digital banking? Can you quantify that or give us a ballpark figure? Marianne LakeWell I can tell you that – and so it’s not just about deposit growth as well remember. It’s also about investment assets and we talked about our digital offerings providing headwinds there. So I don’t have a breakout for you; we can follow up. You know it deepens at our branch, both you know the reason why we continue to believe in a fiscal and digital you know combined channel presence, both are important, but we can get back too. OperatorYour next question comes from a line of Glenn Schorr with Evercore ISI. Glenn Schorr Hi, thanks very much. On sec services I heard you loud and clear about the funding basis compression being part of the answer on rev’s down. Could you talk about the business exit? I wasn't aware that and how big that is and then flip to the better side, you also did mention that organic growth. We haven’t heard too much since the big trillion dollar win, but I know there is stuff going on underneath the covers. Talk about what type of business you are winning there? Marianne LakeYeah. So on the business aspect, this is you know – it’s sort of a feature of always talking about year-over-year. To me this feels like really old news. It was a U.S broker-dealer exit that we talked about many quarters ago, but obviously we are still on a year-over-year basis for another couple of quarters going to see the impact of that on our revenues. It’s about just over $20 million year on year revenues negative impact, but it's you know relatively speaking old news in terms of the exit that took place last year. Lower market levels were about an equivalent drag on the revenues. And then we are seeing solid underlying growth, but this is a very competitive environment and as we are growing our asset from – you know our custody asset and as we are growing and winning new mandate, these are under competitive pressures and it also depends on mix. And so there is a bunch of factors going on. What we are focused on is so both of these businesses that the long term growth opportunities are very big and the organic growth and the underlying businesses are performing well, and even with these revenue pressures we are focuses on continuing to drive efficiencies and these are good ROE businesses, you know above mid-teens. I’m sorry, can I just make one more comment? I didn’t say this on the digital space, but you know I think it’s important as we think going forward that you know as we think not just about our digital assets, the digital account openings and that is being a feature of how we are attracting new accounts 25% of checking production, 40% of savings production, now able to be open digitally. So increasingly digital will be a driver, but we will get back to you with that. Glenn Schorr Marianne, just one quick qualifier on the seven hour marathon the other day in DC. Besides finding out Jamie's a capitalist, that’s shocking news, one of the risks that I think that the group talked about was in the private credit markets and non-bank lending and I just wanted to get a little qualifier of that – I'm pretty sure you didn't mean the exposure JP Morgan has to those, it’s just more risk being taken, but if you can just expand on that, that would be helpful. Marianne LakeYeah and for sure, the comment is more about the overall risk in the environment and not about our risk to you know those sectors and our risks are all the things that we’ve always told you about which are relatively modest, relatively senior, well secured, well diversified. We look at you know losses under a variety of such scenarios are manageable.The comments are really about the percentage of leverage lending or the percentage of some of our businesses that have now been taken outside of the banking market, and while you know we wouldn't say necessarily that that's systemic, being not systemic and suggesting that there won't be problems are two different things. Not all non-banks are situated similarly, so there are some healthy fighting, well-capitalized, well and responsibly run companies, and there are some others who may not be standing at the end of another downturn.So the real question for all of this business that has migrated outside of banks, is you know how much of it will be unable to be rolled over, refinanced on the same terms and with the same prices as it is now? So it's not about us, but it's about understanding that we would want to be able to be there to support and intermediate within these markets going forward. But for a variety of reasons whether it's structured, whether it's capital liquidity pricing, that may not be as easy as it sounds in a downturn for portions of that market.Jamie DimonYeah, so can I just take the big numbers, put those rolling, so obviously regulators keep an eye on it, and we are not particularly worried about it, but just to give you some facts. The banks – there’s a $2.3 trillion. The banks have generally the senior piece or the A piece of about $800 billion or $900 billion. Then institutional investors, some of them are quite right. You know these are life insurance companies, funds, etcetera, owned BPs about $900 billion, and there's $500 billion what they call direct, and think of these as large funds. For the most part large funds, some are very capable, very bright, they have long-term capital. In the institutional piece that I mentioned, a lot of them are CLOs. I know that people are worried about that, but if you actually look at the CLOs, there’s more equity in those CLOs, they are more funded and both the direct piece and the CLO piece is more capital, permanent capital, so the system is okay. It's just getting bigger as more outside and regulated judgment. It should be something that should be watched, but it's not a systemic issue at this point.OperatorThe next question comes from the line of Betsy Graseck with Morgan Stanley.Betsy GraseckHi, good morning.Marianne LakeGood morning.Betsy GraseckI had a question for Jamie. Jamie, in the shareholder letter, you mentioned because of some significant issues around mortgage that you are intensely reviewing your role in origination servicing and holding mortgages, and the odds are increasing that we will need to materially change our mortgage strategy going forward. Could you give us some color and context for that statement and what kind of things you're thinking about there?Jamie DimonYeah. So if you look at the business, I mean it is just costly. You have 3,000 federal and state origination and servicing requirements; it is litigious. Just look at history, you can see that, and it's becoming a huge -- non-banks are becoming competitors, and they don't have the same regulations, the same requirements in the servicing or production. So you're having that issue of servicing itself is a hard asset. So we just, we just want to – we know it’s an important thing for a bank. We also want – and also we standardized capital since a lot of banks are constrained by generalized capital; it's just a capital pod. Far more than it should be, if you look at it relative to the real risk embedded in holding mortgages. So we just want to have our eyes open, look at that, go through every piece, and structure it in a way that we're very happy going forward. We don't mind the volatility; we don't mind staying in the business, but you got to look at that and ask a lot of questions about whether banks should even be in it.Betsy GraseckOkay. And then, separate topic, but just a question I wanted to ask because I got a couple of questions on it yesterday. The whole group of CEOs was asked, who do you think could succeed you? Would a woman or would a person of color succeed you? And I don't think you raised your hand. I just wanted to understand why and just hear from you, you know why you answered the question that way?Jamie DimonYeah. So what I should have said is that we don't comment on or speculation on succession plan. That's a Board level issue. It's not something you do in Congress, where you play your hand out in Congress. But also I was confused by the question likely without a timetable. So we have exceptional women, and my successor may very well be a woman or it may not and it really depends on the circumstance of time, and it might be different if it's one year from now versus five years from now, so that's all that was. I think a bunch of people were kind of confused and saying what you would likely mean was stuff like that. So I mean still go and work in other several people on the operating committee who can succeed me.Betsy GraseckThanks, I appreciate that. That's the answer I expected you we're going to give, but wanted to hear it from you, so I appreciate that. Thanks.Jamie DimonYou're welcome.OperatorYour next question comes from the line of Steven Chubak with Wolfe Research.Steven ChubakHi. I just wanted to follow-up on the remarks on the mortgage business. We did see a healthy decline in resi mortgage loans and Marianne, I know you spoke at Investor Day of the balance sheet optimization strategy which could drive more growth in securities versus loans. I'm wondering, is that what's really driving the slowdown that we saw in resi loan growth and maybe more broadly how we should think about core loan growth or a sustainable pace of core loan growth in 2019?Marianne LakeYeah. So mortgages in 2018-2019 are the epicenter of it, for mortgage. So the market itself is more year-on-year. It's about 15% smaller, because notwithstanding all of the discussion about lower rates and still higher year-on-year than they were this time last year. So that obviously is having an impact and as we've been -- and we're down similarly. So we've added about $6 billion of core mortgage loans to our portfolios. But against that, as you saw last year, we did a number of loan sales and we did another sale again in the first quarter and that speaks to optimizing the balance sheet. We're trying to take loans off of our balance sheet, core loans of our balance sheet, and sell them if we can reinvest in agency MBS and non-resi assets that has better capital liquidity characteristics. So it's going to be a little bit harder to look at the trend. You're going to need to look at things grow. So we are originating high quality loans. We are adding a number of loans to our portfolio; we're distributing based on better execution as that would go, but we will continue to optimize our balance sheet.Steven ChubakVery helpful, and just a follow-up for me on CCAR. The Fed released a document recently highlighting the changes to the loss models this year, including some higher Card and Auto losses in the upcoming exam. I'm just wondering, how does that inform the way you're thinking about capital return capacity. And are you still confident in that sustainability of 75% to 100% net payout as well as the 11% to 12% CET1 target?Marianne LakeYeah. So I didn't hear the second part of the question on losses, which losses were up this year that you were mentioning, but here is what I would say.Steven ChubakThe Card and Auto losses.Marianne LakeYeah. So I applaud transparency for sure and we love to be able to get more detail as we think about the way that the Fed model losses for our portfolios. And we've been observing that over time. Necessarily, it's the case that the Federal Reserve models are typically less granular and less tied to our specific risks necessarily, because they are industry wide. Net-net, it doesn't change our point of view that as we're at 12.1% CET1 right now, so arguably little bit above the high end of our range and continuing to grow earnings that we ought to be able to distribute a significant portion of earnings, but we always invest in our businesses first.So, we are growing our businesses responsibly. Every time we're adding branches, we're adding customers, we're adding advisors across our businesses. But to the degree that we have excess earnings, we'll continue to distribute them and the ranges that we gave you at the end of February, nothing changed.OperatorThe next question comes from the line of Brian Kleinhanzl with KBW.Brian KleinhanzlHi. Good morning, Marianne. A quick question – I know you mentioned that the increase in NPLs within Wholesale was again idiosyncratic, but last quarter there was also an increase and it was five credits last quarter. Is there a way you can give more color as to the specific drivers in there? I know you said in the past that you expect to normalize that you're off a low base. I got that, but I mean just a little bit of additional color perhaps?Marianne LakeYeah. So, the color is there is really no </t>
+  </si>
+  <si>
+    <t>State Street Corporation (NYSE:STT) Q1 2019 Earnings Conference Call April 23, 2019 10:00 AM ETCompany ParticipantsIlene Fiszel Bieler - Global Head of Investor RelationsRon O’Hanley - Chief Executive OfficerEric Aboaf - Chief Financial OfficerConference Call ParticipantsAlex Blostein - Goldman SachsBrennan Hawken - UBSKen Usdin - JefferiesGlenn Schorr - EvercoreMichael Carrier - Bank of America Merrill LynchBetsy Graseck - Morgan StanleyJim Mitchell - Buckingham ResearchBrian Bedell - Deutsche BankGerard Cassidy - RBCSteven Chubak - Wolfe ResearchMike Mayo - Wells Fargo SecuritiesMarty Mosby - Vining SparksOperatorGood morning and welcome to the State Street Corporation's First Quarter of 2019 Earnings Conference Call and Webcast. Today's discussion is being broadcasted live on State Street's webcast at investors.statestreet.com.This conference call is also being recorded for replay. State Street's conference call is copyrighted and all rights are reserved. This call may not be recorded for rebroadcast or distribution in whole or in part without the expressed written authorization from State Street Corporation. The only authorized broadcast of this call will be housed on the State Street website.Now, I would like to introduce Ms. Ilene Fiszel Bieler Global Head of Investor Relations at State Street.Ilene Fiszel BielerGood morning and thank you all for joining us. On our call today, our CEO Ron O’Hanley, will speak first; then Eric Aboaf, our CFO will take you through our first quarter 2019 earnings slide presentation which is available for download in the Investor Relations' section of our website investors.statestreet.com. Afterwards we'll be happy to take questions. During the Q&amp;A, please limit yourself to two questions and then re-queue.Before we get started, I would like to remind you that today's presentation will include results presented on a basis that excludes or adjusts one or more items from GAAP. Reconciliations of these non-GAAP measures to the most directly comparable GAAP or regulatory measure are available in the appendix to our slide presentation.In addition today's presentation will contain forward-looking statements. Actual results may differ materially from those statements due to a variety of important factors such as those factors referenced in our discussion today. Our forward-looking statements speak only as of today and we disclaim any obligation to update them even if our views change.Now, let me turn it over to Ron.Ron O’HanleyThanks Ilene and good morning everyone. Turning to slide 3, you will see we announced our first quarter financial results this morning. Our results reflect challenging industry conditions including lower average equity market levels relative to 1Q 2018, continued pricing pressure, and lower global industry flows that were somewhat improved from 4Q 2018 but muted compared to the last few years.In light of the current environment, we are driving a culture of execution and productivity as evidenced by the early accomplishments of our expense management program, which I will discuss further shortly.Assets under custody and administration increased 3% relative to the end of fourth quarter of 2018 to $32.6 trillion with new wins in the quarter of $120 billion and assets yet to be installed of $309 billion.At Global Advisors assets under management increased by 12% relative to the end of the fourth quarter of 2018 to $2.8 trillion supported by higher period end equity market values and net new inflows of over $70 billion.Turning to slide 4 and before diving a bit deeper on the quarter, I would remind you that our vision is to be the leading asset servicer, asset manager, and data insight provider to the owners and managers of the world's capital. Let me provide a check-in on the progress against the strategic execution priorities underlying this vision which you have heard me outline previously.These priorities are; first, to reignite our servicing fee growth; second, to innovate and grow diversified revenue streams; third, to deploy the industry's leading front-to-back asset servicing platform as a technology-driven scale provider; fourth, to generate substantial expense saves; and fifth, to foster a high-performing and leaner organization focused on execution and productivity.We recognize that industry servicing fee revenue remains under pressure. However, we are taking a multipronged approach to reigniting servicing fee growth and are confident in our ability to grow revenue which we expect to see in a few quarters.Let me mention some of the actions we have underway. First, we are significantly upgrading our client coverage model. Our new client executive program is approximately two-thirds of the way complete led by a combination of new talent and accountable executives. It will deliver a cohesive one State Street experience to our most important clients, which account for more than 50% of our revenue.Second, we have established a new executive deal review committee. This group is evaluating client pricing and business acceptance decisions that have firm-wide applications.And third, we are strategically aligning the company with the most attractive plant segments in the market our fastest-growing large clients, which include global asset managers, asset owners, and insurance firms.We are changing the way we interact with clients renewing our focus on delivering industry-leading client service and innovative new offerings, while driving efficiencies for State Street.In keeping with this proactive approach, I personally have been working with our client service teams to review client account plans and have met with close to 40 client CEOs in my first 90 days as CEO of State Street.Beyond our largest clients, we are capitalizing on our learnings and have plans in place to implement new segment strategies over the next few quarters beginning with the insurance and asset owner segments with the aim of increasing market and wallet share and further diversifying our revenue stream.Next, I would like to concentrate on our priority to deploy the industry's leading front-to-back asset servicing platform. We are already making measurable progress. At the end of the first quarter, we had approximately 110 opportunities being actively pursued by our sales teams.Notably, we anticipate announcing a number of client adoptions of the front-to-back platform during 2019 as clients see the strong value proposition enabled by the Charles River State Street combination.We are pleased with the momentum of Charles River's front end offering as evidenced by its strong new bookings and remain confident in achieving our revenue and cost synergy projections announced when we acquired the business last year.Moving on I'd like to discuss our current expense management initiatives. We remain committed to generating expense saves over the medium-term while continuing to invest prudently in our business. Given the challenging operating environment, this past January, we announced an even more ambitious $350 million cost program for 2019 targeting 4% productivity savings driven by resource discipline as well as process reengineering and automation before investing a portion of that in technology including resilience and growth initiatives. To-date, we have already achieved more than 20% of the targeted savings.Disciplined expense management continues to be one of my top priorities. The firm-wide hiring freeze for all non-critical roles outside of CRD that I implemented remains in place. We are now reducing our workforce while structurally compressing the senior management pyramid. These measures have contributed to an overall reduction in underlying expenses by 2% relative to the fourth quarter of 2018.Finally, becoming a higher performing organization is the cornerstone to executing on our vision and successfully achieving our strategic priorities. I am deeply focused on simplifying the organization and ensuring we have the right leadership in order to drive our strategy and achieve results across State Street.To that end I have made a number of changes to our senior management team. Since last December, we have in place a new Chief Operating Officer, a new Head of Global Delivery, a new Head of our Global Clients divisions, as well as a new Head of Global Markets.We also have announced that Francisco Aristeguieta will join State Street and become the CEO for our International business. Francisco is a highly experienced and talented individual who will lead all of our international business activities. These new leaders will drive the change we desire and ensure we have a high probability of executing on our strategic priorities but that will take some time.I'd like to conclude my remarks by highlighting our focus on capital return to our shareholders. During the first quarter, we returned approximately $480 million to shareholders through share repurchases and dividends. As we look ahead, we feel that the current repositioning of our balance sheet during 2018 positions us well for CCAR 2019. We remain optimistic that we can achieve a total payout that is substantially better than 80% for this CCAR cycle.And with that, let me turn it over to Eric to take you through the quarter in more detail.Eric AboafThank you, Ron and good morning everyone. Before I begin my review of our first quarter 2019 result, I'd like to take a moment on slide five to discuss certain notable items this quarter and how they impacted our financials.On page five we show our GAAP results in the top left panel, as well as certain results ex to notable items on the bottom left panel for those of you who want to see some of the underlying trends.For 1Q 2019, we recognize a total of $23 million pre-tax and notable items or $0.06 a share, consisting of $9 million of net acquisition and restructuring costs related to Charles River and $14 million of legal and related items.On a period-on-period -- for period-on-period comparisons, recall that we had no notables in 1Q 2018, but did have $321 million pre-tax of notable items equal to $0.64 per share in 4Q 2018.Turning to slide six. We saw a period end AUC/A levels decline 2% year-on-year and increased 3% quarter-on-quarter. AUM levels increased 3% year-on-year and increased 12% quarter-on-quarter. Much of these sequential quarter changes were driven by large double-digit upswings in the end of period global equity markets, which recovered during the first quarter, after closing down sharply in 4Q.Let me remind you, however, that our servicing and management fee revenues are more closely related to daily average market levels. On this basis, global equity markets were down year-on-year and up only slightly quarter-on-quarter. And while we saw a rebound in equity markets recently, the continued economic and market uncertainty has led to lower levels of industry flows and client activity resulting in further headwinds in Q1.Moving to slide seven. Servicing fees were down 12% year-on-year or 10% ex-FX and 3% quarter-on-quarter. During the last year we saw challenging industry conditions persist, as we continue to see the ongoing impact of fee concessions, previously announced client transition, as well as lower client flows and activity and lower global equity markets.We are now executing on a number of initiatives to counterbalance these industry conditions, which we spoke about in February and continue to expand upon. More specifically, we are, number one, rolling out our new client coverage model across a targeted client base. We're focusing on increasing share of wallet given our estimated 35% starting point.Number two, leveraging our CRD client dialogues to drive incremental core servicing fee revenues, something I'll discuss later in my remarks. Number three, concentrating on key market segments like insurance and asset owners where we have a particularly strong proposition to build upon.And number four, realizing the benefits of increasing pricing discipline from our newly formed executive deal review committee, which met five times in Q1 and is currently reviewing approximately 30 transactions.This adds a very senior perspective to our client relationships that has introduced new found pricing rigor, as well as more senior client share of wallet discussions. Given the sales and negotiation cycle, it will take a few quarters until we see these initiatives come through in the P&amp;L.Turning to slide eight. Let me discuss the rest of fee revenues, beginning with management fees. 1Q revenue was down 11% year-on-year, driven by weaker daily average global equity market levels, as well as late 4Q outflows and a product mix shift away from higher fee products. Fees were down 5% quarter-on-quarter, half of which was day count. After a tough December sell off, we saw only a slight sequential lift from the 1% quarter-on-quarter uptake in daily average equity prices.Our asset management business did however see over $70 billion of positive net flows this quarter in the institutional index space and a very nice rebound in cash, which gives us some confidence going into 2Q.FX trading was down 8% year-on-year and 5% quarter-on-quarter on lower client volumes and lower-than-average market volatility. Securities finance revenues were down 16% year-on-year, largely reflecting the CCAR related balance sheet repositioning in the second half of 2018 and flattish quarter-on-quarter, as we saw monthly assets and loans dip in December and January and then rebound nicely as clients re-leveraged and new business came in. This bodes well for 2Q.Finally, processing fees and other was up year-on-year, reflecting roughly a $95 million revenue contribution from CRD this quarter, as well as a tax advantaged lease sale and market related adjustments in our asset management employee long-term incentive plan.Moving to slide nine. I wanted to spend some more time talking about CRD, its financial performance and how we're advancing our front-to-back strategy. As you'll see in the top left panel, CRD had another strong quarter in Q1, generating $99 million of revenues on $41 million of operating expenses, resulting in $58 million of pre-tax income.The business also saw $6 million in new client bookings during the quarter. While CRD continues to perform well, I would caution against simply annualizing these 1Q results, given the lumpiness inherent in the 606 revenue accounting reporting standard.We've also achieved some important milestones this quarter, which we've listed below. These are indicators of success that we've been looking for and we expect more to come.Turning to the upper right panel on this page, we wanted to provide you an update on our active client discussions regarding CRD. As you can see here, our client discussions continue to advance. We're now actively engaging with approximately 110 clients who represent approximately $39 trillion in assets.As we engage, we're finding that some clients are looking for a full front-to-back offering, so that they can benefit by streamlining numerous portfolio management risk, training and compliance systems in their front office and multiple middle and back office systems into one consolidated State Street platform.At the same time, other clients are excited about our powerful interoperable solutions where we actively build automated interface within feeds from our custodial system into leading front office software providers, like Aladdin and Bloomberg. We are committed to both approaches. As anticipated, these client dialogues are resulting in a variety of revenue opportunities and we remain confident in our revenue and cost synergy goals announced at the time of the acquisition.Turning to slide 10. NII was up 5% year-on-year, while NIM expanded 14 basis points over the same period, both driven by higher U.S. interest rates and disciplined deposit pricing. On a quarter-on-quarter basis, however, and consistent with our expectations, we saw NII decline by 3% and NIM tightened one basis point, as a result of lower client deposits and two fewer days in the quarter.Unpacking our client deposit behavior this quarter, I would note that average total deposits have gently trended lower as our asset manager and asset owner clients are being more discerning.At the same time, we have seen some lumpiness in non-interest bearing balances, which had actually ticked up in 4Q and backed down in 1Q and are now back on their normal multi-year trend line. And as expected, we also saw an upward move in total interest-bearing deposit betas, but the move was consistent with our expectations of steady client behavior, as well as some targeted wholesale deposit gathering initiatives that we consciously initiated. We do have a series of deposit initiatives in flight that should yield growth in the latter half of the year.Now turning to expenses on slide 11. As you're well aware we are extraordinarily focused on managing expenses in this challenging revenue environment and launched a new expense savings program last quarter, designed to generate material and measurable efficiency and productivity gains over the course of this year.I'll start by summarizing our expenses this quarter ex-notables and seasonal expenses so that underlying trends are more readily visible. Year-on-year, our underlying expenses were up 1%, but actually down 2%, excluding CRD. You see that this was a result of a hard work across almost every line of the expense base, comp and benefits, transaction processing, occupancy and other. And on a quarter-on-quarter basis, underlying expenses were down nearly 2%.We have bent the cost curve by; number one, implementing a hiring freeze, which has reduced high cost location headcount by 800 in the first quarter, which is 2.5 times the off-boarding rate of 2018; number two, we're almost halfway through the 15% reduction in senior executives; and number three, we've continued to adjust incentive compensation.Now turning to slide 12, you can see how these forceful actions have resulted in a quick start to the 2019 expense savings program. As a reminder, in January we announced an ambitious $350 million expense savings target for this fiscal year, which is more than 4% of our expense base. This includes $160 million that come from resource discipline with the remaining $190 million that come from process reengineering. And we're off to a strong start already achieving approximately $78 million of expense savings, which gives us confidence on delivering the full target amount this year.The resource discipline savings achieved have come primarily from senior management delayering and third-party vendor saves while the process engineering and automation benefits have enabled the reduction in our high-cost location headcount and the ongoing shift to our global hubs.These initiatives yielded a reduction in your company-wide headcount this quarter by approximately 0.5 percentage point, evidenced by the trend chart on the bottom of this page.With this $350 million expense savings program, we can fully fund technology infrastructure and important business growth investments while still delivering a 1% reduction in the total underlying expenses for the year.Moving to slide 13, our capital ratios were relatively consistent quarter-on-quarter with our standardized CET1 at 11.5% and our tier 1 leverage at 7.4%. We resumed common stock repurchases during the first quarter, returning a total of approximately $480 million of capital to shareholders, $300 million of which were share buybacks.As you can see on the left side of the page with the rebalancing of our investment portfolio completed during 4Q 2018, we have continued to increase fixed rate asset so as to limit earnings sensitivity from the downtick in rates.And with these balance sheet and other actions, we believe we are well-positioned for the 2019 CCAR process and are confident we can deliver a total payout ratio substantially above 80% subject to the usual regulatory approvals.Lastly based on recent regularly filings we now anticipate that our 2020 GCIB surcharge will fall from 1.5% to 1%, a development that should provide us with incremental capital management flexibility going forward.Before turning to slide 14, I'd like to cover our 2Q outlook. We expect fee revenues will be flat to up 1% on a sequential quarter basis. At a macro level, we are assuming equity markets consistent with margin levels, which should provide some support to servicing and management fees, net of quarterly pricing pressure and other drivers.We also expect a seasonal uptick in our markets businesses, partially offset by the absence of 1Q gains in processing fees and other. But we also want to be cautious given the low market volatility we're seeing in April year-to-date.In regards to NII for 2Q, we expect to see a decrease of 1% to 2% driven by continued modest rotation out of non-interest bearing deposits into interest bearing and yield curve expectations of lower long rates.In terms of 2Q expenses, we currently expect to see underlying expenses flat to up less than 1% sequentially excluding notable items in first quarter seasonal and deferred comp but driven by merit increases and CRD expansion.That said, we are firmly on track for a full year guidance of underlying expenses down 1%, and we will intervene further if necessary. Taxes should be the same range as this quarter though our full year guidance of 17% of 19% remains.In summary on page 14, 1Q 2019 was a tough quarter as we work to restart fee growth and focus on productivity. The 2% sequential reduction of underlying expenses we achieved 1Q 2019 demonstrated, our ability to manage expenses and achieve the expected net 1% reduction in our underlying full year expenses that we announced earlier this year.As Ron mentioned earlier, we continue to make progress on our strategic priorities. We have undertaken a number of new initiatives to help reignite servicing fee growth while expanding our sales efforts on the back per acquisition of CRD and making real progress on our synergies.We're also seeing productivity saves come through the P&amp;L, evidenced by the $78 million in savings, which is driving down expenses year-on-year across almost all line items and we brought headcount down sequentially.Finally, we resume share repurchase in the first quarter and returned approximately $480 million of capital to shareholders. Given the balance sheet repositioning undertaken this late last year, we're optimistic subject to the usual Federal Reserve approvals that we can deliver a total payout substantially above 80% for the upcoming CCAR cycle.And with that, let me hand the call back over to Ron.Ron O’HanleyThank you, Eric. Questions?Question-and-Answer SessionOperator[Operator Instructions] You first question comes from the line of Alex Blostein with Goldman Sachs.Alex BlosteinHi, good morning everybody. Ron first question for you. I guess, I was hoping to a little bit of a bigger picture. But I was hoping you could compare the fully integrated front-to-back offering of CRD with State Street with your guidance middle and back-office solutions against some of the other platforms. Obviously you guys mentioned Aladdin and Bloomberg. Help us think through the positives and negatives clients need to consider between vertically integrated model of State Street with CRD versus something that's a little bit more open architecture with Aladdin and Bloomberg?Ron O’HanleyThanks, Alex. It's a big question there. Firstly, let me start with your premise in that I don't think it's in either or as we've I think talked about from the beginning, we strongly believe in the need for a front-to-back solution. It's what our clients are demanding as they're trying to deal with the complexity that's built up in their operations and their own cost. They are looking for simplification, which really does drive some kind of a pre-trade to reporting type of solution, recognizing that we're the largest asset servicer for asset managers, and the fact that different clients will want different things and their selling points are different, we've been committed to both a front-to-back platform that as you said if desired by clients could be exclusively State Street products, but at the same time an interoperable and open architecture functioning of that platform driven by data.So, we remain committed to interoperability but ultimately believe that over time what clients will need is something that truly is front-to-back. That it starts, for example, with a single security master file that you're not having to do all sorts of reconciliations along the way. And certainly there are offerings in place that start to get at that, but we do believe that over time that kind of a front-to-back is what will solve clients' issues.Secondly, we are also thinking about this from our own perspective and our own strategic perspective in terms of as we think about where growth will come from and where revenue growth will come from. There's the existing pool of back and middle-office revenues and there's at least as large a pool if not larger of front-office revenues that become available to us to the extent, to which we connect -- we implement this front-to-back solution.And by that, I'm not just talking about order management or risk analytics or those kinds of things but by having this seamless platform, it makes it much easier for example to trade FX, right. To decide what you're going to do in terms of securities lending. So it has benefits for lots of the high margins ancillary revenue offerings that we have.So we step back from it. We're committed to both and the reason why we're committed to both is that the real competition here is not Charles River versus Aladdin or Bloomberg versus Charles River, it's really what most institutions have in place is this plethora of Excel spreadsheets propriety kinds of things a multiplicity of risk analytic tools and it's simplifying that in moving to something that's a more integrated platform.Eric AboafAnd Alex, it's Eric. I'd just add that from a revenue standpoint when we offer a front-to-back offering, right. We enter and participate in a whole new revenue pool, right. An $8 billion revenue pool in the front office that we can now secure, grow, expand and deliver on. When we offer for other clients who want an interoperable or open architecture system -- a custodian will plug into those front-office systems just like I said in my prepared remarks, whether it's with Aladdin or some of the other front-office providers in that case the custodian doesn't earn materially more in revenues, right.Those revenues are already sitting there in the office system for the front-office provider. So from our perspective the real revenue growth opportunity is to participate on that vertically integrated front-to-back offering, but on the other hand we have clients who want and need that open and interoperable solution and we're delighted to provide that as part of how we work with them, plug-in with them, interface with them as part of what we do as a custodian.Alex BlosteinGreat. Thank you very much for that. And then the second question Eric for you, just on follow-up around some of the NIR comments you mentioned. So beyond Q2 guidance, I was hoping you can kind of give us some puts and takes as we think about 2019. I know you mentioned growth in deposits in the latter half of the year potentially yielding some positive results, but obviously the interest rate environment has gotten a little worse. So just maybe help us think through the rest of the year on NIR?Eric AboafYes, I think, clearly since January the tone and the market indicators for interest rates has changed right? Back in January, we even thought there was a possibility of an interest rate hike. I think now we're at the front end of the curve now we're talking about the opposite. 10-year rates were in the 275-plus range and now are down 25 basis points, 30 basis points at least. So I think there's a different environment that we find ourselves in. And so as we look out at the year, we think we're going to see a downtick in 2Q. We said -- I said 1% to 2%. I think on a full year basis, we're looking to probably flattish on NII for the full year right?And the way that'll come is that we're going to continue our active efforts to grow our balance sheet. So our investment portfolio will tick-up this quarter. We've got -- our lending business is going to continue to grow. We're going to fund that with some of the initiatives that we're driving on deposits and those together need to offset some of the underlying rotation that we and industry continues to see in deposits from non-interest-bearing to interest-bearing. But, I think, we're optimistic we can kind of work through this period of interest rates, but it's clearly a bit different than what we expected at the turn of the year.Alex BlosteinGreat. Thanks for all the details on that both questions.OperatorYour next question comes from the line of Brennan Hawken with UBS.Brennan HawkenGood morning guys. Thanks for taking the question. First one is on AUC. So it was up, I think as you highlighted 3% quarter-over-quarter. But when we look at historical trends versus what we saw in the markets this quarter it suggested to me that the sequential change should have been higher and maybe even double that. So can you talk about whether or not there were some lost business in the custody side? And what exactly was happening there? It just seems like there was a pretty big dislocation especially versus AUM? Thanks.Eric AboafBrennan, it's Eric. This quarter we had decouple features working through on the -- on a quarter-on-quarter basis. As you describe the spot equity markets were up. Now remember, we've got a mix of equities, fixed income and alternative assets are not quite as much as say the S&amp;P. We did have also the lingering, probably almost a final piece was on that previously announced transition that we announced last year. And then we had one other middle-office deal, which I'd kind of put in the legacy bucket that was done a long time ago. It was margin-neutral, which doesn't really pay from our standpoint that a client chose to in source and do themselves, and so that had an affect on the quarter end.Brennan HawkenOkay. And then when we think about expenses here, it seems as though the outlook for NII difficult servicing revenue challenging. You guys have laid out the plan to cut expenses and when we look at on a gross basis, it seems pretty solid, but then we're chipping away three quarters of it with reinvestment. So, I guess, my pushback here is to say why not -- what are the thresholds to justify that investment spend? Why not ratchet the bar higher from an IRR perspective for that investment? Why not for self-funding? Why not pick-up the pressure here to try to drive expense growth lower to try to bring down expenses more given how difficult the environment is because it certainly seems as though based on that -- on the AUC side -- and the servicing revenue piece there's just something that's underwhelming here on the revenue side and there -- it seems as though the best place to make up for it is expenses.Ron O’HanleyYes. Brennan, why don't I start and then Eric, I'm sure will add to it. Firstly, we need to be focused on both in our, but we do know that what we can control more easily is our expenses. So the programs that we announced at the beginning of January is actually an addition to a number of initiatives that we already have underway in terms of continuing to automate our business and continue to make sure the work is being done at the right place, by the right people, at the right time. And that in itself will continue to yield us some expense savings in addition to the program that we announced in early January.In terms of the reinvestments there is a very high bar on this an extremely high bar. We're actually, I mean, if you -- as you do expect there's more demands than what we're willing to fund and what we're willing to fund needs to have a very high bar either in terms of it adds meaningfully to our client value proposition such that we can visibly see the potential for new revenues, lowers our costs, lowers our risk. Much of that reinvestment is in the resilience area which is a heavy focus now not just for ourselves, but for the regulators. So we hear you on this. We're continuing to keep that bar very high, but are also very confident that most if not all of those investments themselves will yield economic improvement for us. Eric?Eric AboafAnd Brennan, it's Eric. I would just add that we ask ourselves these ques</t>
+  </si>
+  <si>
     <t>Alphabet, Inc. Cl C (GOOG) CEO Sundar Pichai On Q4 2018 Results - Earnings Call Transcript | Seeking Alpha</t>
   </si>
   <si>
@@ -340,6 +571,81 @@
     <t>State Street Corporation (STT) CEO Jay Hooley on Q3 2018 Results - Earnings Call Transcript | Seeking Alpha</t>
   </si>
   <si>
+    <t>Eaton Plc (ETN) Q1 2018 Results - Earnings Call Transcript | Seeking Alpha</t>
+  </si>
+  <si>
+    <t>The Kraft Heinz (KHC) Q1 2018 Results - Earnings Call Transcript | Seeking Alpha</t>
+  </si>
+  <si>
+    <t>Facebook (FB) Q1 2018 Results - Earnings Call Transcript | Seeking Alpha</t>
+  </si>
+  <si>
+    <t>Microchip Technology (MCHP) Q1 2018 Results - Earnings Call Transcript | Seeking Alpha</t>
+  </si>
+  <si>
+    <t>JPMorgan Chase's (JPM) Management on Q1 2018 Results - Earnings Call Transcript | Seeking Alpha</t>
+  </si>
+  <si>
+    <t>State Street's (STT) CEO Jay Hooley on Q1 2018 Results - Earnings Call Transcript | Seeking Alpha</t>
+  </si>
+  <si>
+    <t>Alphabet's (GOOG) CEO Sundar Pichai on Q1 2018 Results - Earnings Call Transcript | Seeking Alpha</t>
+  </si>
+  <si>
+    <t>General Electric's (GE) CEO John Flannery on Q1 2018 Results - Earnings Call Transcript | Seeking Alpha</t>
+  </si>
+  <si>
+    <t>PepsiCo (PEP) Q1 2018 Results - Earnings Call Transcript | Seeking Alpha</t>
+  </si>
+  <si>
+    <t>Alphabet Inc. (GOOG) CEO Sundar Pichai on Q2 2018 Results - Earnings Call Transcript | Seeking Alpha</t>
+  </si>
+  <si>
+    <t>General Electric Company (GE) CEO John Flannery on Q2 2018 Results - Earnings Call Transcript | Seeking Alpha</t>
+  </si>
+  <si>
+    <t>Eaton Plc (ETN) Q2 2018 Results - Earnings Call Transcript | Seeking Alpha</t>
+  </si>
+  <si>
+    <t>PepsiCo Inc (PEP) CEO Indra Nooyi on Q2 2018 Results - Earnings Call Transcript | Seeking Alpha</t>
+  </si>
+  <si>
+    <t>The Kraft Heinz (KHC) Q2 2018 Results - Earnings Call Transcript | Seeking Alpha</t>
+  </si>
+  <si>
+    <t>Facebook (FB) Q2 2018 Results - Earnings Call Transcript | Seeking Alpha</t>
+  </si>
+  <si>
+    <t>Microchip Technology's (MCHP) CEO Stephen Sanghi on Q2 2018 Results - Earnings Call Transcript | Seeking Alpha</t>
+  </si>
+  <si>
+    <t>JPMorgan Chase &amp; Co. (JPM) CEO Jamie Dimon on Q2 2018 Results - Earnings Call Transcript | Seeking Alpha</t>
+  </si>
+  <si>
+    <t>State Street Corporation (STT) CEO Jay Hooley on Q2 2018 Results - Earnings Call Transcript | Seeking Alpha</t>
+  </si>
+  <si>
+    <t>Alphabet Inc.'s (GOOG) CEO Sundar Pichai on Q1 2019 Results - Earnings Call Transcript | Seeking Alpha</t>
+  </si>
+  <si>
+    <t>General Electric Co. (GE) CEO Larry Culp on Q1 2019 Results - Earnings Call Transcript | Seeking Alpha</t>
+  </si>
+  <si>
+    <t>Eaton Corporation PLC (ETN) CEO Craig Arnold on Q1 2019 Results - Earnings Call Transcript | Seeking Alpha</t>
+  </si>
+  <si>
+    <t>PepsiCo, Inc. (PEP) CEO Ramon Laguarta on Q1 2019 Results - Earnings Call Transcript | Seeking Alpha</t>
+  </si>
+  <si>
+    <t>Facebook's (FB) CEO Mark Zuckerberg on Q1 2019 Results - Earnings Call Transcript | Seeking Alpha</t>
+  </si>
+  <si>
+    <t>JPMorgan Chase &amp; Co. (JPM) CEO Jamie Dimon on Q1 2019 Results - Earnings Call Transcript | Seeking Alpha</t>
+  </si>
+  <si>
+    <t>State Street Corporation (STT) CEO Ron O'Hanley on Q1 2019 Results - Earnings Call Transcript | Seeking Alpha</t>
+  </si>
+  <si>
     <t>['strong', 'benefit', 'exceptional', 'benefit', 'strength', 'strong', 'strong', 'gain', 'effective', 'benefit', 'strong', 'favorable', 'accomplishments', 'enables', 'advances', 'benefit', 'innovation', 'excited', 'opportunities', 'valuable', 'enabled', 'innovation', 'improved', 'enhanced', 'benefit', 'enhance', 'best', 'strengthening', 'strengthening', 'favorable', 'profitability', 'strong', 'strength', 'progress', 'opportunities', 'great', 'tremendous', 'opportunity', 'tremendous', 'progress', 'improving', 'great', 'better', 'progress', 'great', 'strong', 'better', 'best', 'better', 'advancing', 'great', 'exciting', 'better', 'great', 'progress', 'strengths', 'great', 'improve', 'great', 'great', 'great', 'strengthen', 'premiere', 'progress', 'strength', 'strength', 'great', 'delight', 'able', 'popular', 'benefiting', 'impressive', 'progress', 'best', 'positive', 'easily', 'popular', 'advances', 'leadership', 'accomplished', 'strong', 'collaboration', 'strong', 'incredible', 'opportunities', 'improvements', 'opportunities', 'tremendous', 'opportunity', 'stronger', 'great', 'opportunity', 'opportunity', 'strong', 'exciting', 'able', 'opportunity', 'opportunity', 'benefit', 'strong', 'strong', 'excited', 'great', 'strong', 'excited', 'worthy', 'greater', 'great', 'good', 'leadership', 'opportunity', 'win', 'excited', 'strong', 'innovations', 'strength', 'opportunity', 'improvements', 'innovation', 'opportunities']</t>
   </si>
   <si>
@@ -400,6 +706,81 @@
     <t>['good', 'happy', 'good', 'win', 'despite', 'strength', 'achieve', 'opportunities', 'strength', 'success', 'positive', 'leading', 'pleased', 'achieve', 'greater', 'achieve', 'strong', 'enable', 'positive', 'opportunities', 'encouraged', 'confident', 'enable', 'positive', 'good', 'gain', 'strength', 'achieved', 'positive', 'achieved', 'positive', 'positive', 'strength', 'benefit', 'strong', 'benefiting', 'gain', 'benefited', 'progress', 'successfully', 'achieved', 'gain', 'efficiencies', 'innovation', 'successfully', 'strength', 'progress', 'improved', 'success', 'positive', 'stable', 'excited', 'opportunities', 'progressing', 'good', 'stable', 'improved', 'positive', 'good', 'outperformed', 'good', 'benefit', 'enhanced', 'good', 'able', 'opportunities', 'good', 'better', 'opportunity', 'benefit', 'opportunities', 'opportunities', 'greater', 'efficiencies', 'better', 'advantage', 'accomplished', 'enabled', 'strengthen', 'opportunities', 'opportunities', 'improving', 'opportunities', 'opportunities', 'opportunities']</t>
   </si>
   <si>
+    <t>['opportunity', 'superior', 'improvements', 'good', 'win', 'superior', 'progress', 'opportunity', 'opportunity', 'progress', 'enabling', 'successful', 'opportunity', 'progress', 'strong', 'highest', 'strong', 'strength', 'strength', 'stronger', 'good', 'confident', 'achieve', 'good', 'improve', 'strong', 'better', 'strength', 'strength', 'strength', 'strength', 'strength', 'greatest', 'strength', 'strength', 'improved', 'strong', 'strength', 'strength', 'strength', 'strong', 'strong', 'improvements', 'strong', 'strength', 'strength', 'strength', 'strong', 'strength', 'strength', 'better', 'strong', 'better', 'good', 'improve', 'exciting', 'opportunity', 'great', 'opportunities', 'good', 'greater', 'win', 'opportunity', 'opportunity', 'excited', 'opportunity', 'positive', 'opportunity', 'attractive', 'opportunity', 'better', 'attractive', 'improve', 'great', 'strong', 'good', 'good', 'attractive', 'attractive', 'attractive', 'profitability', 'positive', 'strong', 'strong', 'strength', 'optimistic', 'positive', 'good', 'progressing', 'pleased', 'improve', 'improve', 'benefit', 'confident', 'good', 'opportunity', 'opportunity', 'exciting', 'opportunity', 'opportunity', 'win', 'winning', 'opportunity', 'win', 'win', 'excited', 'opportunity', 'good', 'strong', 'strength', 'advantages', 'opportunity', 'opportunities', 'great', 'strong', 'easy', 'attractive', 'attractive', 'attractive']</t>
+  </si>
+  <si>
+    <t>['good', 'confident', 'better', 'best', 'improvement', 'positive', 'gains', 'progress', 'advantage', 'best', 'better', 'win', 'efficiency', 'innovation', 'better', 'gain', 'strong', 'good', 'innovation', 'innovation', 'innovation', 'breakthrough', 'innovation', 'innovation', 'good', 'gains', 'improve', 'improve', 'excellence', 'enable', 'improve', 'opportunity', 'good', 'better', 'progress', 'best', 'leading', 'strong', 'leadership', 'solving', 'win', 'advantage', 'achieve', 'profitable', 'positive', 'favorable', 'strong', 'better', 'better', 'improvement', 'strong', 'improvement', 'better', 'gains', 'gains', 'effective', 'better', 'strongest', 'gaining', 'strong', 'positive', 'strong', 'benefit', 'benefiting', 'strong', 'innovation', 'innovation', 'greater', 'confident', 'positive', 'strong', 'effective', 'strong', 'advantage', 'achieve', 'profitable', 'happy', 'good', 'confident', 'better', 'stable', 'stability', 'confident', 'strength', 'profitable', 'strongest', 'strong', 'innovation', 'gain', 'progresses', 'benefit', 'benefit', 'innovation', 'innovation', 'innovation', 'innovation', 'innovation', 'innovation', 'strong', 'happy', 'confident', 'innovation', 'boost', 'innovation', 'great', 'good', 'benefit', 'benefit', 'improve', 'improves', 'happy', 'strong', 'innovation', 'confident', 'innovation', 'improvement', 'good', 'strong', 'innovation', 'good', 'good', 'good', 'better', 'innovation', 'greatly', 'excited', 'profitability', 'efficiency', 'great', 'improvement']</t>
+  </si>
+  <si>
+    <t>['good', 'opportunity', 'despite', 'strong', 'good', 'good', 'transparency', 'transparency', 'able', 'good', 'good', 'good', 'greater', 'greater', 'happiness', 'encouraging', 'great', 'strengthen', 'better', 'opportunities', 'good', 'good', 'leading', 'optimistic', 'good', 'proactively', 'positive', 'excited', 'good', 'progress', 'better', 'effective', 'able', 'boost', 'enables', 'improve', 'opportunity', 'confident', 'leading', 'transparency', 'opportunity', 'improve', 'strengthening', 'better', 'great', 'progress', 'effective', 'leading', 'creative', 'innovations', 'effective', 'good', 'achieve', 'better', 'good', 'effective', 'benefit', 'strengthen', 'highest', 'great', 'innovation', 'improvements', 'strong', 'enhance', 'strong', 'opportunities', 'great', 'efficient', 'great', 'innovation', 'leading', 'great', 'improvements', 'winning', 'opportunities', 'improve', 'positive', 'opportunity', 'positive', 'happiness', 'stronger', 'stronger', 'optimistic', 'excited', 'good']</t>
+  </si>
+  <si>
+    <t>['good', 'benefit', 'gain', 'effective', 'good', 'progress', 'excellent', 'improvements', 'good', 'pleased', 'enable', 'best', 'progress', 'gained', 'gains', 'gain', 'best', 'successfully', 'opportunities', 'innovative', 'greater', 'enable', 'successful', 'best', 'achieve', 'improve', 'profitability', 'enables', 'strong', 'benefit', 'gains', 'good', 'enhancement', 'strong', 'improving', 'successful', 'profitable', 'best', 'able', 'opportunity', 'win', 'optimistic', 'strong', 'strong', 'stabilized', 'efficient', 'improvement', 'improve', 'strong', 'improving', 'able', 'positive', 'able', 'stabilize', 'stable', 'stabilizing', 'strong', 'good', 'good', 'strong', 'successful', 'better', 'positive', 'able', 'gains', 'tremendous', 'desirable', 'able', 'perfect', 'great', 'advantage', 'good']</t>
+  </si>
+  <si>
+    <t>['good', 'benefiting', 'strength', 'benefiting', 'benefit', 'gains', 'gains', 'gains', 'strong', 'strong', 'gains', 'effective', 'effective', 'encouraged', 'leadership', 'positive', 'better', 'despite', 'favorable', 'strong', 'good', 'gained', 'strong', 'despite', 'strong', 'gains', 'strong', 'strong', 'strength', 'benefiting', 'gains', 'benefited', 'good', 'benefit', 'strong', 'strength', 'good', 'strength', 'benefiting', 'strong', 'strength', 'benefit', 'pleased', 'strength', 'positive', 'good', 'positive', 'positive', 'benefit', 'great', 'outperforming', 'benefit', 'improvement', 'best', 'good', 'easily', 'loyal', 'good', 'transparency', 'reward', 'leading', 'good', 'benefit', 'good', 'smooth', 'strong', 'excitement', 'good', 'gains', 'gains']</t>
+  </si>
+  <si>
+    <t>['good', 'happy', 'good', 'strong', 'win', 'leadership', 'strong', 'improved', 'strength', 'strength', 'strength', 'innovations', 'enabling', 'greater', 'pleased', 'strong', 'achieve', 'positive', 'good', 'better', 'strength', 'achieved', 'positive', 'benefit', 'benefiting', 'strong', 'gain', 'strong', 'strong', 'benefiting', 'strong', 'gain', 'benefited', 'good', 'improved', 'progress', 'achievements', 'enabling', 'win', 'accomplishments', 'improving', 'efficiencies', 'enhancing', 'better', 'efficiencies', 'achieved', 'gaining', 'efficiencies', 'achieved', 'efficient', 'benefit', 'confident', 'strong', 'enhanced', 'strong', 'positive', 'enhanced', 'positive', 'good', 'strong', 'valuable', 'good', 'good', 'efficient', 'positively', 'better', 'efficiencies', 'positive', 'positive', 'good', 'progress', 'successes', 'good', 'good', 'good', 'positive', 'strong', 'improving', 'better', 'positive', 'advantage', 'pleased', 'better', 'better', 'better', 'pleased', 'advantage', 'better', 'great', 'good', 'good', 'good', 'benefit']</t>
+  </si>
+  <si>
+    <t>['good', 'innovation', 'strong', 'innovation', 'leading', 'opportunities', 'positive', 'strong', 'strengthening', 'strengthening', 'gains', 'benefit', 'gains', 'effective', 'gains', 'gains', 'strong', 'strongest', 'favorable', 'pleased', 'progress', 'achieved', 'good', 'progress', 'opportunity', 'innovation', 'opportunities', 'enable', 'pleased', 'strong', 'innovation', 'excited', 'opportunity', 'benefit', 'enhance', 'profitability', 'strength', 'gains', 'diligent', 'success', 'good', 'opportunities', 'opportunities', 'enable', 'exciting', 'strengthen', 'collaboration', 'improvements', 'progress', 'better', 'great', 'great', 'progress', 'opportunities', 'improve', 'exciting', 'easier', 'better', 'efficient', 'easy', 'exciting', 'progress', 'easy', 'leading', 'collaboration', 'winning', 'easier', 'strength', 'strength', 'better', 'opportunity', 'tremendous', 'exclusive', 'great', 'better', 'positively', 'leading', 'incredibly', 'fantastic', 'popular', 'highest', 'excited', 'great', 'easily', 'best', 'easily', 'great', 'advantage', 'good', 'success', 'success', 'gain', 'gains', 'benefit', 'benefit', 'effective', 'excited', 'opportunity', 'progress', 'progress', 'delight', 'progress', 'collaboration', 'strong', 'strengthen', 'opportunity', 'success', 'opportunities', 'great', 'strong', 'strong', 'great', 'good', 'strength', 'excited', 'innovation', 'innovation', 'excited', 'opportunities', 'exciting', 'advantages', 'able', 'best', 'opportunity']</t>
+  </si>
+  <si>
+    <t>['best', 'progress', 'strong', 'strong', 'improvement', 'progress', 'good', 'progress', 'confident', 'resolve', 'progress', 'good', 'better', 'better', 'strength', 'strong', 'strong', 'opportunity', 'strength', 'strong', 'strength', 'exciting', 'strong', 'efficiency', 'leading', 'opportunity', 'valuable', 'leadership', 'better', 'better', 'better', 'leadership', 'progress', 'leading', 'strong', 'gains', 'benefit', 'strength', 'benefit', 'improvement', 'strong', 'progress', 'strengthening', 'transparency', 'benefit', 'progress', 'greater', 'benefit', 'strong', 'strong', 'strong', 'outperforming', 'better', 'favorable', 'improving', 'excellent', 'good', 'progress', 'better', 'good', 'progress', 'strong', 'confident', 'good', 'outperform', 'stability', 'strong', 'improvement', 'strong', 'strong', 'strong', 'improved', 'great', 'progress', 'gains']</t>
+  </si>
+  <si>
+    <t>['pleasure', 'pleasure', 'good', 'positive', 'benefited', 'effective', 'great', 'satisfies', 'successful', 'innovations', 'strong', 'leadership', 'attractive', 'enhanced', 'greater', 'greater', 'innovation', 'innovation', 'despite', 'enable', 'positive', 'improve', 'improving', 'enhanced', 'despite', 'pleased', 'improved', 'improved', 'positive', 'innovation', 'strong', 'improved', 'greater', 'strong', 'great', 'innovation', 'creative', 'success', 'success', 'enabling', 'successful', 'success', 'innovative', 'positive', 'boosted', 'success', 'pleased', 'stable', 'improving', 'strong', 'strong', 'strong', 'strong', 'impressive', 'strong', 'strengthen', 'distinctive', 'encouraged', 'improving', 'good', 'positive', 'stable', 'positive', 'strong', 'positive', 'improve', 'progresses', 'benefit', 'effective', 'improvement', 'effective', 'strong', 'greater', 'better', 'good', 'good', 'good', 'profitable', 'profitability', 'attractive', 'improving', 'good', 'profitability', 'best', 'improve', 'improve', 'assured', 'good', 'greater', 'best', 'best', 'best', 'best', 'attractive', 'good', 'good', 'happy', 'good', 'good', 'good', 'happy', 'strong', 'strong', 'best', 'better']</t>
+  </si>
+  <si>
+    <t>['good', 'innovation', 'strong', 'great', 'strong', 'benefiting', 'innovation', 'leading', 'greater', 'positive', 'strong', 'strengthening', 'strengthening', 'strengthening', 'gains', 'gains', 'effective', 'strong', 'favorable', 'favorable', 'pleased', 'progress', 'pleased', 'opportunities', 'innovation', 'profitability', 'strength', 'benefit', 'progress', 'opportunities', 'achievement', 'opportunities', 'benefit', 'innovation', 'exciting', 'great', 'innovation', 'benefit', 'improving', 'great', 'enjoyed', 'excited', 'positive', 'best', 'enabling', 'succeed', 'great', 'improving', 'enhancing', 'improvements', 'tremendous', 'strong', 'great', 'opportunities', 'encourages', 'enables', 'great', 'benefiting', 'tremendously', 'great', 'incredibly', 'strong', 'opportunities', 'best', 'exclusively', 'leading', 'great', 'succeed', 'great', 'strength', 'success', 'improve', 'efficient', 'enable', 'great', 'great', 'enabling', 'innovation', 'benefit', 'opportunity', 'excited', 'opportunity', 'progress', 'progress', 'delights', 'strengthen', 'excited', 'opportunity', 'excited', 'positively', 'positive', 'strength', 'exciting', 'good', 'opportunities', 'good', 'exclusively', 'better', 'innovation']</t>
+  </si>
+  <si>
+    <t>['best', 'progress', 'stronger', 'enable', 'progress', 'achieved', 'strong', 'strong', 'good', 'improving', 'opportunities', 'strong', 'winning', 'good', 'better', 'pleased', 'progress', 'strength', 'strength', 'good', 'strong', 'opportunities', 'strong', 'strong', 'successful', 'strength', 'strong', 'strong', 'improving', 'strong', 'good', 'opportunity', 'strong', 'strong', 'opportunities', 'strength', 'benefit', 'gains', 'gains', 'favorable', 'benefit', 'strength', 'progress', 'progress', 'strength', 'gain', 'stronger', 'better', 'progress', 'improvements', 'greater', 'progress', 'gaining', 'winning', 'improvement', 'improvements', 'improved', 'better', 'strength', 'good', 'strong', 'benefit', 'improving', 'improved', 'good', 'progress', 'strong', 'strong', 'progress', 'stable', 'benefiting', 'constructive', 'good', 'pleased', 'improving', 'improve', 'strong', 'progressing', 'gains', 'gains', 'progress', 'strength', 'better', 'opportunities', 'better', 'good', 'strength', 'improve', 'good', 'rebound', 'good', 'progress']</t>
+  </si>
+  <si>
+    <t>['opportunity', 'leading', 'opportunities', 'opportunities', 'solves', 'attractive', 'improving', 'win', 'attractive', 'win', 'leading', 'opportunities', 'superior', 'opportunity', 'progress', 'strong', 'winning', 'leading', 'progress', 'progress', 'enabled', 'enabled', 'progress', 'opportunities', 'enabling', 'strong', 'strong', 'highest', 'strong', 'strong', 'strong', 'strength', 'favorably', 'strength', 'stabilized', 'strong', 'strength', 'strong', 'strength', 'strong', 'strong', 'positive', 'strong', 'improvements', 'strong', 'strong', 'strong', 'stronger', 'strength', 'strong', 'strong', 'strong', 'strong', 'stronger', 'strength', 'strong', 'strong', 'pleased', 'opportunities', 'tremendous', 'opportunities', 'opportunity', 'strength', 'strength', 'strong', 'stronger', 'strong', 'achieve', 'positive', 'opportunity', 'attractive', 'opportunity', 'better', 'attractive', 'improve', 'great', 'strong', 'positive', 'good', 'great', 'good', 'good', 'progress', 'leading', 'strong', 'strong', 'great', 'easier', 'good', 'easier', 'easier', 'good', 'positive', 'benefit', 'opportunities', 'opportunities', 'stability', 'attractive', 'better', 'better', 'stability', 'opportunity', 'better', 'good', 'good', 'good', 'strong', 'strength', 'great', 'strong', 'better', 'strength', 'good', 'strong', 'strong']</t>
+  </si>
+  <si>
+    <t>['pleasure', 'pleasure', 'good', 'pleased', 'strong', 'improvement', 'great', 'innovation', 'creative', 'greater', 'good', 'encouraged', 'improvement', 'improve', 'progress', 'stable', 'improvement', 'leading', 'better', 'progresses', 'improvement', 'innovation', 'innovation', 'great', 'excited', 'improvement', 'gains', 'pleased', 'strong', 'stable', 'strong', 'strong', 'impressive', 'gain', 'gain', 'successful', 'innovating', 'innovating', 'successful', 'successful', 'encouraged', 'improvement', 'strong', 'enable', 'pleased', 'progress', 'tremendous', 'opportunity', 'positive', 'good', 'efficient', 'good', 'stronger', 'good', 'strengthening', 'good', 'better', 'surpassing', 'good', 'prestigious', 'benefiting', 'efficient', 'efficient', 'incredibly', 'progress', 'good', 'good', 'good', 'good', 'positive', 'positive', 'strength', 'benefit', 'effective', 'improvement', 'effective', 'strong', 'benefit', 'good', 'advantages', 'strong', 'benefit', 'advantage', 'efficiency', 'efficiency', 'efficient', 'innovation', 'valuable', 'great', 'efficient', 'innovation', 'innovation', 'better', 'better', 'innovation', 'innovation', 'improving', 'innovation', 'innovation', 'good', 'improvement', 'improvement', 'improvement', 'good', 'achieving', 'good', 'good', 'success', 'improved', 'innovation', 'benefit', 'good', 'innovation', 'good', 'good', 'happy', 'benefit', 'improvements', 'pleased', 'improvement', 'improvement', 'improvement', 'improve', 'strong', 'improvement', 'improvement', 'good', 'happy', 'improved', 'strong']</t>
+  </si>
+  <si>
+    <t>['good', 'better', 'better', 'encouraging', 'improvement', 'strong', 'strong', 'stronger', 'gains', 'better', 'progress', 'confident', 'improve', 'improves', 'improvements', 'favorites', 'stronger', 'strong', 'good', 'good', 'innovation', 'stronger', 'positive', 'opportunities', 'improvement', 'innovation', 'stronger', 'strong', 'innovation', 'gains', 'strongest', 'innovation', 'innovation', 'improving', 'greater', 'improvement', 'improving', 'improve', 'gains', 'gain', 'successful', 'breakthrough', 'innovation', 'improving', 'successful', 'leading', 'improvements', 'best', 'better', 'better', 'better', 'positive', 'strong', 'better', 'improvement', 'improve', 'strong', 'strong', 'gains', 'strong', 'gains', 'strong', 'gains', 'strong', 'improvement', 'better', 'gains', 'gains', 'strong', 'innovation', 'gains', 'despite', 'strong', 'stronger', 'greater', 'greater', 'improve', 'gain', 'strong', 'effective', 'successful', 'despite', 'advantage', 'achieve', 'profitable', 'profitable', 'happy', 'good', 'good', 'good', 'better', 'good', 'good', 'happy', 'innovation', 'happy', 'confident', 'better', 'better', 'great', 'good', 'good', 'positive', 'strong', 'strong', 'innovation', 'able', 'profitable', 'strengthen', 'improve', 'good', 'good', 'improve', 'innovation', 'breakthrough', 'innovation', 'good', 'better', 'profitability', 'best', 'great', 'good', 'good', 'good', 'positive', 'stable', 'confident', 'strength', 'profitable', 'easier', 'confident', 'improving', 'strong', 'innovation', 'better', 'stronger', 'improvement', 'good', 'good', 'good']</t>
+  </si>
+  <si>
+    <t>['good', 'opportunity', 'better', 'improve', 'transparency', 'transparency', 'confident', 'improve', 'progress', 'proactive', 'encouraging', 'improve', 'profitability', 'great', 'easier', 'enable', 'achieve', 'success', 'great', 'innovation', 'effective', 'able', 'success', 'excited', 'easy', 'able', 'collaborative', 'progress', 'great', 'progress', 'greater', 'strong', 'incredibly', 'progress', 'good', 'progress', 'innovation', 'progress', 'good', 'strong', 'integrity', 'transparency', 'transparency', 'greater', 'transparency', 'easier', 'transparency', 'transparency', 'improve', 'transparency', 'innovative', 'effective', 'winning', 'winning', 'easy', 'best', 'succeed', 'easier', 'gain', 'easier', 'effective', 'improving', 'better', 'best', 'better', 'easily', 'best', 'transparency', 'better', 'good', 'best', 'better', 'benefited', 'effective', 'strength', 'enabled', 'improve', 'improvements', 'pleased', 'opportunity', 'effective', 'good', 'opportunity', 'innovation', 'attractive', 'attractive', 'leading']</t>
+  </si>
+  <si>
+    <t>['good', 'improve', 'opportunities', 'improvements', 'good', 'pleased', 'strong', 'progress', 'opportunities', 'enable', 'innovation', 'best', 'strong', 'progress', 'gains', 'gain', 'strengthen', 'best', 'resolve', 'strong', 'enables', 'successfully', 'opportunities', 'innovative', 'greater', 'strength', 'improve', 'good', 'enhancement', 'strong', 'improving', 'successful', 'profitable', 'able', 'winning', 'win', 'optimistic', 'good', 'stabilized', 'stable', 'stabilize', 'improvement', 'achieve', 'achieve', 'achieve', 'stable', 'achieve', 'strong', 'winning', 'winning', 'excitement', 'better', 'excitement', 'good', 'better', 'improvement', 'improve', 'strong', 'best', 'able', 'strengthen', 'strength', 'strengthening', 'strong', 'opportunity', 'opportunity', 'able', 'strength', 'benefit', 'benefit', 'stronger', 'better']</t>
+  </si>
+  <si>
+    <t>['good', 'benefit', 'strength', 'strong', 'positive', 'strong', 'rewards', 'benefit', 'exclusive', 'rewards', 'favorable', 'despite', 'pleased', 'satisfaction', 'despite', 'rewards', 'strong', 'rewards', 'outperforming', 'benefiting', 'gained', 'gained', 'strength', 'good', 'strong', 'strong', 'strong', 'good', 'strong', 'favorable', 'strength', 'benefited', 'strong', 'strong', 'strong', 'strengths', 'despite', 'strong', 'strong', 'positive', 'strength', 'pleased', 'positive', 'despite', 'favorable', 'good', 'strong', 'rewards', 'rewards', 'good', 'rewards', 'positive', 'gaining', 'opportunity', 'advantages', 'innovations', 'good', 'good', 'success', 'good', 'good', 'profitability', 'benefitting', 'leadership', 'receptive', 'constructive', 'leadership', 'optimistic', 'optimistic', 'strong', 'good', 'profitability', 'strong', 'best', 'positive', 'boost', 'good', 'easy', 'strong', 'profitability', 'better', 'constructive', 'good', 'better', 'stability', 'better', 'better', 'strong', 'easily']</t>
+  </si>
+  <si>
+    <t>['good', 'good', 'premier', 'leading', 'pleased', 'strength', 'win', 'strength', 'win', 'best', 'satisfaction', 'strength', 'innovations', 'greater', 'efficiencies', 'achieved', 'benefit', 'win', 'success', 'accomplishments', 'achieving', 'greater', 'opportunities', 'pleased', 'strong', 'achieve', 'positive', 'good', 'strength', 'improvement', 'achieved', 'positive', 'strong', 'benefiting', 'benefited', 'good', 'progress', 'achieved', 'gaining', 'efficiencies', 'success', 'efficiency', 'positive', 'opportunity', 'better', 'unparalleled', 'leading', 'improved', 'better', 'greater', 'efficiency', 'leading', 'attractive', 'greater', 'leading', 'leading', 'stable', 'opportunity', 'enable', 'enables', 'leading', 'enables', 'enhance', 'opportunity', 'attractive', 'premier', 'good', 'confident', 'attractive', 'attractive', 'leading', 'efficiencies', 'opportunity', 'gain', 'opportunity', 'opportunity', 'opportunity', 'exciting', 'opportunity', 'attractive', 'opportunities', 'enhanced', 'opportunities', 'gaining', 'achieved', 'premier', 'opportunities', 'efficiencies', 'enables', 'achieve', 'benefit', 'opportunity', 'attractive', 'happy', 'efficient', 'gain', 'greater', 'better', 'strong', 'strong', 'strong', 'better', 'enabled', 'enables', 'distinctive', 'better']</t>
+  </si>
+  <si>
+    <t>['good', 'strong', 'strength', 'profitability', 'gain', 'gains', 'effective', 'strong', 'strong', 'strong', 'favorable', 'favorable', 'accomplishments', 'exciting', 'strengthening', 'best', 'confident', 'opportunity', 'improve', 'innovation', 'pleased', 'pleased', 'enabled', 'profitability', 'opportunity', 'confident', 'opportunities', 'great', 'succeed', 'positive', 'opportunities', 'opportunities', 'easily', 'favorite', 'improved', 'easily', 'great', 'advancements', 'easier', 'improvements', 'better', 'tremendous', 'great', 'pleased', 'revolutionizes', 'favorite', 'best', 'able', 'incredible', 'improvements', 'enhancements', 'improvements', 'best', 'positive', 'opportunities', 'innovations', 'great', 'advantage', 'better', 'easy', 'strong', 'strong', 'incredible', 'winning', 'good', 'excited', 'great', 'innovations', 'enabled', 'better', 'easier', 'strong', 'incredibly', 'opportunities', 'opportunities', 'gain', 'succeed', 'collaboration', 'better', 'strength', 'highest', 'good', 'strong', 'best', 'enhancements', 'strong', 'improving', 'efficiency', 'innovations', 'effective', 'good', 'enabling', 'advances', 'strong', 'incredibly', 'excited', 'strong', 'strong', 'able', 'despite', 'collaborations', 'benefited']</t>
+  </si>
+  <si>
+    <t>['good', 'pleased', 'best', 'good', 'greater', 'progress', 'confident', 'better', 'strength', 'better', 'improvements', 'strong', 'confident', 'proactive', 'progress', 'improve', 'strong', 'stronger', 'strengthening', 'empowered', 'successes', 'improve', 'improvement', 'opportunities', 'encouragement', 'progress', 'winning', 'improve', 'win', 'good', 'strength', 'strength', 'exceptional', 'valuable', 'progress', 'better', 'stronger', 'greater', 'strength', 'gain', 'gains', 'gain', 'favorable', 'benefit', 'favorable', 'better', 'progress', 'encouraged', 'strong', 'better', 'improved', 'opportunities', 'better', 'progress', 'strong', 'stabilize', 'better', 'positive', 'progress', 'improve', 'greater', 'improvement', 'strong', 'strong', 'strength', 'strength', 'improved', 'strong', 'favorable', 'gains', 'efficient', 'achieving', 'gains', 'efficiently', 'greater', 'enable', 'benefit', 'opportunity', 'strong', 'better', 'positive', 'improvements', 'opportunity', 'transparency', 'good', 'positive', 'better', 'progress', 'progress', 'better', 'good', 'best', 'good', 'impressed', 'good', 'opportunity']</t>
+  </si>
+  <si>
+    <t>['good', 'strong', 'pleased', 'strong', 'strong', 'good', 'pleased', 'strong', 'strength', 'stronger', 'strength', 'pleased', 'strong', 'strength', 'better', 'strength', 'despite', 'strong', 'strong', 'pleased', 'strong', 'strong', 'strong', 'efficiency', 'strength', 'strength', 'strong', 'improvement', 'favorable', 'strong', 'despite', 'strong', 'exciting', 'opportunity', 'optimistic', 'opportunities', 'win', 'strong', 'opportunity', 'good', 'strong', 'good', 'strength', 'good', 'strength', 'strengths', 'strengthen', 'strength', 'strength', 'better', 'better', 'better', 'good', 'good', 'good', 'best', 'strong', 'strong', 'good', 'pleased', 'strength', 'easily', 'good', 'great', 'good', 'good', 'improvement', 'progressed', 'improvement', 'stronger', 'easier', 'boost', 'improve', 'impressive', 'favorable', 'stronger', 'strong', 'leading', 'success', 'win', 'strong', 'leading', 'win', 'enthusiasm', 'good', 'positive', 'achieve']</t>
+  </si>
+  <si>
+    <t>['pleasure', 'good', 'pleasure', 'good', 'pleased', 'highest', 'strong', 'progress', 'strong', 'strengths', 'leading', 'satisfy', 'strong', 'efficiently', 'enables', 'win', 'strong', 'confident', 'achieving', 'win', 'advantages', 'achieve', 'stronger', 'better', 'winning', 'win', 'win', 'stronger', 'better', 'strengthen', 'improve', 'better', 'advancing', 'improve', 'positive', 'progress', 'progresses', 'good', 'effective', 'benefit', 'benefited', 'gains', 'gains', 'good', 'progress', 'happy', 'pleased', 'strong', 'innovation', 'good', 'strong', 'strength', 'pleased', 'positive', 'gaining', 'great', 'great', 'strong', 'better', 'opportunity', 'positive', 'great', 'great', 'gaining', 'good', 'good', 'good', 'good', 'progress', 'good', 'strengthening', 'good', 'innovation', 'innovation', 'improvement', 'improving', 'good', 'good', 'innovation', 'innovation', 'good', 'innovation', 'opportunity', 'good', 'innovation', 'excellence', 'stronger', 'good', 'good', 'innovation', 'better', 'benefit', 'great', 'good', 'improving', 'better', 'improving', 'good', 'positive', 'good', 'progress', 'strong', 'good', 'progress', 'good', 'good', 'improving', 'better', 'great', 'able', 'opportunity', 'good', 'strong', 'good', 'efficiencies', 'good', 'innovation', 'successful', 'good', 'progress', 'good', 'gaining', 'good', 'good', 'improving', 'improvement', 'innovation', 'innovations', 'innovations', 'able', 'strong', 'good', 'confident', 'improvement', 'good', 'good', 'innovate', 'improving', 'good', 'good', 'good', 'good', 'innovation', 'opportunities', 'good', 'good', 'great', 'innovates', 'innovation', 'good', 'innovation', 'good', 'improving', 'innovate', 'strong', 'innovation', 'good', 'innovation', 'innovation', 'improvement', 'innovation', 'innovate', 'innovation', 'opportunity', 'innovation', 'innovation', 'good', 'innovation', 'innovation', 'progresses', 'good', 'positive', 'good', 'good', 'good', 'happy', 'good', 'good', 'good', 'stable', 'good', 'stable', 'good', 'good', 'pleased', 'progress', 'gaining', 'pleased', 'progress', 'great', 'innovation', 'good', 'innovation']</t>
+  </si>
+  <si>
+    <t>['good', 'opportunity', 'strong', 'excited', 'opportunity', 'able', 'able', 'easily', 'confident', 'strengthen', 'strengthening', 'popular', 'greater', 'opportunity', 'opportunity', 'leading', 'innovating', 'succeeding', 'strong', 'progress', 'better', 'positive', 'easily', 'able', 'able', 'easier', 'positive', 'excited', 'strong', 'transparency', 'easy', 'transparency', 'easier', 'better', 'leading', 'better', 'transparency', 'good', 'enables', 'opportunity', 'easy', 'easier', 'excited', 'positive', 'better', 'collaborative', 'collaborative', 'valuable', 'improve', 'progress', 'good', 'better', 'strongest', 'benefitted', 'innovation', 'good', 'pleased', 'strong', 'strong', 'best', 'proactive', 'leading', 'strong', 'opportunity', 'advantage', 'effective', 'better', 'better', 'easier', 'easy', 'easy', 'easy', 'better', 'able', 'best', 'best', 'best', 'leading', 'leading', 'achieve']</t>
+  </si>
+  <si>
+    <t>['good', 'strong', 'progress', 'strong', 'gained', 'strong', 'positive', 'gains', 'strong', 'favorable', 'benefit', 'strong', 'gains', 'strong', 'confident', 'outperform', 'efficiencies', 'strong', 'benefiting', 'gained', 'outperforming', 'strong', 'gained', 'benefiting', 'leadership', 'strength', 'despite', 'favorable', 'better', 'better', 'strong', 'strengths', 'strong', 'strong', 'exceptional', 'benefitting', 'strong', 'strong', 'stabilize', 'strong', 'strong', 'strong', 'good', 'gains', 'strength', 'strength', 'opportunities', 'gain', 'strengths', 'benefiting', 'despite', 'encouraging', 'optimistic', 'good', 'good', 'improving', 'efficiency', 'positive', 'positive', 'efficiency', 'able', 'enable', 'outperforming', 'superior', 'strength', 'benefit', 'opportunities', 'satisfaction', 'better', 'win', 'winning', 'winning', 'opportunities', 'efficiencies', 'good', 'able', 'able', 'good', 'happy', 'succeed', 'succeed', 'exceptional', 'succeed', 'better', 'better', 'confident', 'transparency', 'able', 'able', 'good']</t>
+  </si>
+  <si>
+    <t>['happy', 'good', 'improved', 'accomplishments', 'leading', 'progress', 'innovate', 'leading', 'confident', 'attractive', 'leading', 'innovative', 'efficiencies', 'proactive', 'leading', 'progress', 'opportunities', 'strong', 'enabled', 'pleased', 'strong', 'confident', 'achieving', 'achieved', 'successfully', 'achieving', 'leadership', 'achieve', 'optimistic', 'achieve', 'better', 'good', 'rebound', 'strong', 'positive', 'rebound', 'rebound', 'advantaged', 'advancing', 'strong', 'achieved', 'success', 'benefit', 'excited', 'leading', 'opportunities', 'confident', 'efficiency', 'gains', 'strong', 'achieving', 'achieved', 'enabled', 'confident', 'gains', 'achieved', 'achieve', 'progress', 'progress', 'optimistic', 'good', 'desired', 'exclusively', 'easier', 'opportunity', 'delighted', 'positive', 'optimistic', 'best', 'easily', 'confident', 'improvement']</t>
+  </si>
+  <si>
     <t>['questions', 'negative', 'weakness', 'weakening', 'declined', 'loss', 'loss', 'slowed', 'against', 'unpredictable', 'accusing', 'victims', 'crisis', 'challenge', 'problems', 'challenge', 'challenges', 'violates', 'challenge', 'closed', 'questions', 'question', 'question', 'question', 'against', 'depressed', 'question', 'question', 'questions', 'losses', 'inability', 'question', 'questions', 'question', 'questions', 'disclosed']</t>
   </si>
   <si>
@@ -458,6 +839,81 @@
   </si>
   <si>
     <t>['questions', 'questions', 'disclaim', 'late', 'closed', 'restructuring', 'disappointing', 'negatively', 'restructuring', 'downwards', 'challenging', 'negative', 'volatility', 'restructuring', 'late', 'suspending', 'against', 'questions', 'question', 'question', 'loss', 'closed', 'question', 'question', 'question', 'weakness', 'negative', 'question', 'weakness', 'question', 'question', 'disappointing', 'against', 'question', 'recall', 'impairing', 'break', 'question']</t>
+  </si>
+  <si>
+    <t>['questions', 'questions', 'restructuring', 'harsh', 'hazardous', 'restructuring', 'closures', 'recall', 'weakest', 'negative', 'divestiture', 'restructuring', 'weakness', 'weakness', 'weak', 'unattractive', 'weakness', 'divestiture', 'harsh', 'hazardous', 'restructuring', 'challenges', 'weakness', 'divestiture', 'negative', 'restructuring', 'restructuring', 'restatement', 'doubt', 'critical', 'restructuring', 'restructuring', 'questions', 'questions', 'questions', 'question', 'question', 'question', 'drag', 'question', 'question', 'harsh', 'hazardous', 'question', 'restructuring', 'restructuring', 'drag', 'question', 'questions', 'recall', 'unfair', 'question', 'question', 'negative']</t>
+  </si>
+  <si>
+    <t>['recall', 'cautioned', 'weak', 'seriously', 'disruptive', 'underestimate', 'critical', 'problem', 'overshadowed', 'negative', 'disruption', 'shortage', 'against', 'questions', 'question', 'question', 'question', 'question', 'question', 'question', 'question', 'against', 'breakdown', 'question', 'question', 'against', 'weak', 'question', 'question', 'question', 'disrupted', 'disruption', 'slower', 'question', 'disruptive', 'question', 'weaker', 'hurting', 'question']</t>
+  </si>
+  <si>
+    <t>['question', 'challenges', 'harm', 'interference', 'bad', 'positive (with negation)', 'declining', 'slower', 'challenges', 'hurt', 'break', 'barriers', 'harmful', 'critical', 'able (with negation)', 'damaged', 'bridge', 'difficult', 'difficult', 'tightening', 'questions', 'question', 'question', 'question', 'question', 'question', 'questions', 'recall', 'question', 'question', 'proactively (with negation)', 'question', 'question', 'question', 'positive (with negation)', 'declines', 'slow', 'deliberate', 'question', 'question', 'question']</t>
+  </si>
+  <si>
+    <t>['caution', 'questions', 'negative', 'declining', 'firing', 'negatively', 'lingering', 'concerns', 'declined', 'progress (with negation)', 'improving (with negation)', 'panic', 'closed', 'closed', 'closed', 'closed', 'wrong', 'complications', 'restructuring', 'questions', 'question', 'question', 'question', 'pervasive', 'pervasive', 'corrected', 'question', 'question', 'question', 'able (with negation)', 'delinquent', 'able (with negation)', 'question', 'resigned', 'panic', 'question', 'question', 'questions', 'questions', 'unpredictable', 'slow', 'bad', 'question', 'question', 'question', 'lost']</t>
+  </si>
+  <si>
+    <t>['able (with negation)', 'disclaimer', 'against', 'losses', 'recall', 'restated', 'restated', 'losses', 'stress', 'stress', 'stress', 'severe', 'stress', 'stress', 'unnecessary', 'crisis', 'severity', 'stress', 'challenges', 'volatility', 'challenges', 'stress', 'severe', 'negative', 'volatility', 'slowdown', 'recall', 'closed', 'slow', 'volatility', 'volatility', 'loss', 'loss', 'losses', 'loss', 'loss', 'recall', 'questions', 'question', 'question', 'mismatches', 'obsolete', 'question', 'trouble', 'volatility', 'slowdown', 'question', 'suspect', 'question', 'question', 'argument', 'question', 'disclose', 'volatility', 'difficult', 'volatility', 'volatility', 'volatility', 'volatility', 'exclusively (with negation)', 'question', 'question', 'stress', 'stress', 'volatility', 'suspect', 'volatility', 'question', 'question', 'question', 'failing']</t>
+  </si>
+  <si>
+    <t>['questions', 'disclaim', 'declines', 'restructuring', 'negative', 'absence', 'declined', 'absence', 'restructuring', 'against', 'questions', 'question', 'question', 'question', 'question', 'wrong', 'question', 'challenge', 'question', 'question', 'question', 'negative', 'negative', 'absence', 'restructuring', 'question', 'drag', 'questions', 'slower', 'questions', 'question', 'mistaken', 'question']</t>
+  </si>
+  <si>
+    <t>['undue', 'questions', 'litigation', 'closed', 'restated', 'loss', 'slow', 'difficult', 'challenges', 'problems', 'violates', 'recall', 'question', 'question', 'question', 'question', 'questions', 'question', 'question']</t>
+  </si>
+  <si>
+    <t>['critical', 'challenge', 'challenging', 'disclosed', 'investigation', 'divest', 'decline', 'negative', 'drag', 'delays', 'outages', 'force', 'cut', 'challenging', 'restructuring', 'opposed', 'restated', 'negative', 'restructuring', 'negative', 'discontinued', 'investigation', 'disclosed', 'investigation', 'late', 'violated', 'negative', 'declines', 'negative', 'negative', 'negative', 'negative', 'negative', 'discontinued', 'restructuring', 'restructuring', 'terminated', 'penalty', 'cancellation', 'cancellations', 'canceled', 'penalty', 'negative', 'closure', 'outages', 'outages', 'outages', 'outages', 'unfavorable', 'absence', 'decline', 'negative', 'declined', 'difficult', 'unfavorable', 'negative', 'declines', 'decline', 'slow', 'loss', 'decline', 'loss']</t>
+  </si>
+  <si>
+    <t>['question', 'cautionary', 'cautionary', 'challenges', 'losses', 'loss', 'recall', 'recall', 'declines', 'questions', 'volatility', 'challenging', 'volatility', 'contraction', 'disaster', 'disruptions', 'question', 'question', 'question', 'disappointing', 'argue', 'argue', 'disappointing', 'seriously', 'question', 'question', 'question', 'question', 'question', 'opposed', 'question', 'question', 'question', 'detract', 'question', 'question', 'question', 'question', 'controversy', 'argued', 'controversy', 'controversy', 'controversy', 'confusion']</t>
+  </si>
+  <si>
+    <t>['question', 'undue', 'fines', 'volatility', 'questions', 'fines', 'fines', 'decline', 'problematic', 'loss', 'slow', 'against', 'firing', 'default', 'questions', 'question', 'question', 'questions', 'questions', 'question', 'questions', 'question', 'question', 'opposed', 'question', 'opportunistic', 'question']</t>
+  </si>
+  <si>
+    <t>['closed', 'closing', 'challenge', 'difficult', 'challenges', 'volatility', 'declined', 'challenging', 'challenging', 'negative', 'negative', 'restructuring', 'discontinued', 'restructure', 'declines', 'losses', 'discontinued', 'unfavorable', 'restructuring', 'restructuring', 'restructuring', 'negative', 'negative', 'negative', 'weakness', 'negative', 'liquidation', 'challenging', 'challenges', 'closed', 'disclosed', 'outages', 'unfavorable', 'outages', 'closure', 'outage', 'unfavorable', 'challenging', 'closing', 'difficult', 'decline', 'unfavorable', 'unfavorable', 'declines', 'closed', 'loss', 'impairments', 'questions', 'question', 'question', 'worse', 'worse', 'question', 'restructuring', 'urgency', 'challenging', 'volatility', 'restructure']</t>
+  </si>
+  <si>
+    <t>['question', 'questions', 'able (with negation)', 'problems', 'restructuring', 'against', 'against', 'sharply', 'divestitures', 'restructuring', 'strong (with negation)', 'negative', 'divestiture', 'harsh', 'hazardous', 'restructuring', 'challenges', 'challenges', 'divestiture', 'negative', 'difficult', 'challenges', 'recall', 'negative', 'challenges', 'inefficiencies', 'restructuring', 'question', 'question', 'question', 'question', 'question', 'question', 'question', 'question', 'question', 'question', 'late', 'question', 'question', 'difficult', 'question', 'challenging', 'challenging', 'question', 'concerned', 'able (with negation)', 'question', 'question', 'question', 'pressing', 'negative', 'question']</t>
+  </si>
+  <si>
+    <t>['question', 'cautionary', 'cautionary', 'divestitures', 'slow', 'negatively', 'disrupted', 'depressed', 'against', 'stress', 'diverting', 'critical', 'disaster', 'questions', 'volatility', 'challenging', 'contraction', 'lapse', 'disasters', 'negatively', 'question', 'difficulties', 'questions', 'question', 'question', 'breaking', 'challenge', 'questions', 'question', 'difficulty', 'questions', 'questions', 'efficiency (with negation)', 'deliberately', 'question', 'challenge', 'question', 'questions', 'question', 'question', 'questions', 'shortage', 'question', 'sacrifice', 'opposed', 'doubt', 'diminish']</t>
+  </si>
+  <si>
+    <t>['critical', 'bridge', 'against', 'overshadowed', 'negative', 'discontinuations', 'better (with negation)', 'slow', 'weakness', 'overcome', 'difficult', 'termination', 'questions', 'question', 'question', 'question', 'sacrifice', 'question', 'question', 'slower', 'question', 'challenging', 'question', 'questions', 'against', 'question', 'question', 'question', 'questions', 'question', 'worse', 'question', 'question', 'question', 'questions', 'negative', 'question', 'question', 'negative', 'lost', 'question']</t>
+  </si>
+  <si>
+    <t>['question', 'violated', 'problem', 'adversaries', 'against', 'misinformation', 'spammers', 'stopped', 'false', 'problematic', 'bad', 'violence', 'warning', 'decline', 'decline', 'undocumented', 'problem', 'questions', 'spam', 'harassment', 'challenges', 'critical', 'preventing', 'abuse', 'problems', 'bad', 'misuse', 'erring', 'difficult', 'disclosed', 'limitation', 'decline', 'questions', 'question', 'question', 'questions', 'question', 'question', 'question', 'negative', 'question', 'question', 'negative', 'question', 'question', 'question']</t>
+  </si>
+  <si>
+    <t>['caution', 'questions', 'negative', 'opportunistic', 'stronger (with negation)', 'firing', 'negatively', 'slowly', 'bottlenecks', 'panic', 'closed', 'closed', 'closed', 'closed', 'false', 'decline', 'against', 'erosion', 'complications', 'restructuring', 'questions', 'question', 'question', 'difficult', 'good (with negation)', 'opportunistically', 'question', 'question', 'question', 'question', 'question', 'panic', 'question', 'question', 'shortages', 'able (with negation)', 'question', 'slowing', 'weak', 'weakest', 'weaker', 'difficult', 'difficult']</t>
+  </si>
+  <si>
+    <t>['disclaimer', 'negatively', 'loss', 'liquidation', 'loss', 'slower', 'closings', 'volatility', 'challenging', 'loss', 'loss', 'liquidation', 'loss', 'question', 'question', 'markdown', 'attrition', 'question', 'slowing', 'slowdown', 'losing', 'question', 'exclusively (with negation)', 'question', 'question', 'questions', 'volatility', 'constructive (with negation)', 'question', 'late', 'recession', 'negative', 'doubt', 'doubt', 'question', 'question', 'warning', 'cut', 'slowing', 'mistake', 'bad', 'tightening', 'constructive (with negation)', 'underfunded', 'tightening', 'concern', 'question', 'correction', 'liquidation', 'exclusively (with negation)', 'question', 'question', 'concerns', 'challenges', 'slower', 'recall', 'volatility', 'volatility', 'volatility', 'question', 'confused', 'question', 'question', 'recession', 'recession', 'bad']</t>
+  </si>
+  <si>
+    <t>['disclaim', 'late', 'negative', 'objection', 'objection', 'against', 'challenges', 'rationalize', 'late', 'questions', 'questions', 'question', 'question', 'question', 'rationalize', 'efficiencies (with negation)', 'question', 'complicated', 'question', 'question', 'closing']</t>
+  </si>
+  <si>
+    <t>['question', 'questions', 'negative', 'weakening', 'weakness', 'weakening', 'losses', 'declined', 'loss', 'decline', 'uncover', 'violating', 'misinforms', 'harmful', 'seizing', 'excited (with negation)', 'questions', 'question', 'question', 'question', 'volatility', 'weakness', 'question', 'question', 'questions', 'questions', 'question', 'question', 'question', 'question', 'question', 'question', 'slowdown', 'slow']</t>
+  </si>
+  <si>
+    <t>['questions', 'declines', 'negative', 'restructuring', 'shortfalls', 'lost', 'tragic', 'accidents', 'closing', 'closed', 'losing', 'conviction', 'investigation', 'discontinued', 'declines', 'contraction', 'discontinued', 'discontinued', 'restructuring', 'drag', 'negative', 'negative', 'delays', 'negative', 'restructuring', 'restructuring', 'negative', 'discontinued', 'declined', 'closed', 'outage', 'negative', 'negative', 'declines', 'negative', 'loss', 'decline', 'termination', 'negative', 'challenge', 'negative', 'impairments', 'bankruptcy', 'loss', 'break', 'restructuring', 'attrition', 'recall', 'recall', 'diminish', 'questions', 'question', 'question', 'contraction', 'declines', 'question', 'late']</t>
+  </si>
+  <si>
+    <t>['question', 'questions', 'divestiture', 'recall', 'negative', 'recall', 'question', 'weakness', 'recall', 'closed', 'slow', 'declines', 'weakness', 'declined', 'inefficiencies', 'negative', 'negative', 'decline', 'declines', 'weakness', 'slow', 'weak', 'questions', 'question', 'question', 'question', 'conflicting', 'inflicted', 'weakness', 'inefficiencies', 'weakness', 'weak', 'weaker', 'question', 'question', 'negative', 'question', 'concern', 'concerned', 'unattractive', 'question', 'conviction', 'question', 'correction', 'question', 'win (with negation)', 'question', 'weakness', 'bad', 'weaker', 'weak', 'cautionary', 'questions', 'question', 'negative', 'problem', 'question', 'question']</t>
+  </si>
+  <si>
+    <t>['question', 'questions', 'cautionary', 'cautionary', 'divestitures', 'restructuring', 'questions', 'negatively', 'restructuring', 'critical', 'stress', 'urgency', 'decline', 'difficult', 'questions', 'question', 'question', 'question', 'question', 'disruption', 'question', 'question', 'question', 'questions', 'question', 'good (with negation)', 'questions', 'question', 'question', 'serious', 'bottlenecks', 'question', 'critical', 'innovation (with negation)', 'question', 'disclose', 'question', 'critical', 'worry', 'question', 'defending', 'against', 'against', 'critical', 'question', 'question', 'critical', 'question', 'questions', 'slow', 'declines', 'penalty', 'tightening', 'challenges', 'question', 'cut', 'disrupt', 'question']</t>
+  </si>
+  <si>
+    <t>['prevents', 'worry', 'hurt', 'improperly', 'weak', 'questions', 'questions', 'questions', 'hurt', 'hurt', 'leading (with negation)', 'harmful', 'harmful', 'critical', 'threats', 'interfere', 'threats', 'concerned', 'questions', 'misuses', 'absence', 'discourages', 'questions', 'difficult', 'stopping', 'threat', 'conflicting', 'hurt', 'threats', 'bad', 'defend', 'against', 'interference', 'harm', 'against', 'interference', 'closed', 'slowly', 'decline', 'inquiry', 'unresolved', 'loss', 'questions', 'question', 'question', 'question', 'question', 'leading (with negation)', 'question', 'question', 'question', 'question', 'question', 'barriers', 'barrier', 'difficult', 'question', 'questions']</t>
+  </si>
+  <si>
+    <t>['disclaimer', 'downgrades', 'recall', 'downgrades', 'deterioration', 'canceled', 'closing', 'shutdown', 'volatility', 'challenged', 'slowly', 'slower', 'downgrades', 'declines', 'declines', 'loss', 'recall', 'losses', 'questions', 'question', 'question', 'concerns', 'dangerous', 'persistence', 'drag', 'persistent', 'against', 'drag', 'argue', 'persistent', 'question', 'fail', 'crisis', 'slowdowns', 'question', 'negative', 'drag', 'losses', 'problems', 'downturn', 'question', 'unable', 'easy (with negation)', 'downturn', 'question', 'question', 'costly', 'volatility', 'questions', 'question', 'questions', 'question', 'confused', 'question', 'confused', 'question', 'decline', 'slowdown', 'against', 'loss', 'losses', 'question', 'losses', 'losses', 'losses', 'losses', 'question', 'question']</t>
+  </si>
+  <si>
+    <t>['questions', 'questions', 'disclaim', 'challenging', 'against', 'challenging', 'critical', 'restructuring', 'recall', 'decline', 'closing', 'sharply', 'challenging', 'persist', 'weaker', 'late', 'volatility', 'caution', 'against', 'decline', 'challenging', 'absence', 'volatility', 'late', 'questions', 'question', 'question', 'question', 'against', 'negatives', 'question', 'question', 'worse', 'questions', 'question', 'question', 'lost', 'lingering', 'difficult', 'challenging', 'cut', 'difficult']</t>
   </si>
 </sst>
 </file>
@@ -815,7 +1271,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N23"/>
+  <dimension ref="A1:N48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -870,22 +1326,22 @@
         <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="E2" t="s">
-        <v>57</v>
+        <v>109</v>
       </c>
       <c r="F2">
         <v>2018</v>
       </c>
       <c r="G2" t="s">
-        <v>68</v>
+        <v>120</v>
       </c>
       <c r="H2" t="s">
-        <v>88</v>
+        <v>165</v>
       </c>
       <c r="I2">
         <v>5378</v>
@@ -897,10 +1353,10 @@
         <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>108</v>
+        <v>210</v>
       </c>
       <c r="M2" t="s">
-        <v>128</v>
+        <v>255</v>
       </c>
       <c r="N2">
         <v>15.57482142857143</v>
@@ -914,22 +1370,22 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="E3" t="s">
-        <v>58</v>
+        <v>110</v>
       </c>
       <c r="F3">
         <v>2018</v>
       </c>
       <c r="G3" t="s">
-        <v>68</v>
+        <v>120</v>
       </c>
       <c r="H3" t="s">
-        <v>88</v>
+        <v>165</v>
       </c>
       <c r="I3">
         <v>5378</v>
@@ -941,10 +1397,10 @@
         <v>36</v>
       </c>
       <c r="L3" t="s">
-        <v>108</v>
+        <v>210</v>
       </c>
       <c r="M3" t="s">
-        <v>128</v>
+        <v>255</v>
       </c>
       <c r="N3">
         <v>15.57482142857143</v>
@@ -958,22 +1414,22 @@
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="E4" t="s">
-        <v>59</v>
+        <v>111</v>
       </c>
       <c r="F4">
         <v>2018</v>
       </c>
       <c r="G4" t="s">
-        <v>69</v>
+        <v>121</v>
       </c>
       <c r="H4" t="s">
-        <v>89</v>
+        <v>166</v>
       </c>
       <c r="I4">
         <v>5305</v>
@@ -985,10 +1441,10 @@
         <v>51</v>
       </c>
       <c r="L4" t="s">
-        <v>109</v>
+        <v>211</v>
       </c>
       <c r="M4" t="s">
-        <v>129</v>
+        <v>256</v>
       </c>
       <c r="N4">
         <v>15.61426794553939</v>
@@ -1002,22 +1458,22 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="D5" t="s">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="E5" t="s">
-        <v>60</v>
+        <v>112</v>
       </c>
       <c r="F5">
         <v>2018</v>
       </c>
       <c r="G5" t="s">
-        <v>70</v>
+        <v>122</v>
       </c>
       <c r="H5" t="s">
-        <v>90</v>
+        <v>167</v>
       </c>
       <c r="I5">
         <v>5632</v>
@@ -1029,10 +1485,10 @@
         <v>48</v>
       </c>
       <c r="L5" t="s">
-        <v>110</v>
+        <v>212</v>
       </c>
       <c r="M5" t="s">
-        <v>130</v>
+        <v>257</v>
       </c>
       <c r="N5">
         <v>16.94846684494233</v>
@@ -1046,22 +1502,22 @@
         <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="D6" t="s">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="E6" t="s">
-        <v>61</v>
+        <v>113</v>
       </c>
       <c r="F6">
         <v>2018</v>
       </c>
       <c r="G6" t="s">
-        <v>71</v>
+        <v>123</v>
       </c>
       <c r="H6" t="s">
-        <v>91</v>
+        <v>168</v>
       </c>
       <c r="I6">
         <v>5287</v>
@@ -1073,10 +1529,10 @@
         <v>36</v>
       </c>
       <c r="L6" t="s">
-        <v>111</v>
+        <v>213</v>
       </c>
       <c r="M6" t="s">
-        <v>131</v>
+        <v>258</v>
       </c>
       <c r="N6">
         <v>17.96922857964722</v>
@@ -1090,22 +1546,22 @@
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="D7" t="s">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="E7" t="s">
-        <v>62</v>
+        <v>114</v>
       </c>
       <c r="F7">
         <v>2018</v>
       </c>
       <c r="G7" t="s">
-        <v>72</v>
+        <v>124</v>
       </c>
       <c r="H7" t="s">
-        <v>92</v>
+        <v>169</v>
       </c>
       <c r="I7">
         <v>5341</v>
@@ -1117,10 +1573,10 @@
         <v>86</v>
       </c>
       <c r="L7" t="s">
-        <v>112</v>
+        <v>214</v>
       </c>
       <c r="M7" t="s">
-        <v>132</v>
+        <v>259</v>
       </c>
       <c r="N7">
         <v>18.96389973436024</v>
@@ -1134,22 +1590,22 @@
         <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="D8" t="s">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="E8" t="s">
-        <v>63</v>
+        <v>115</v>
       </c>
       <c r="F8">
         <v>2018</v>
       </c>
       <c r="G8" t="s">
-        <v>73</v>
+        <v>125</v>
       </c>
       <c r="H8" t="s">
-        <v>93</v>
+        <v>170</v>
       </c>
       <c r="I8">
         <v>5582</v>
@@ -1161,10 +1617,10 @@
         <v>41</v>
       </c>
       <c r="L8" t="s">
-        <v>113</v>
+        <v>215</v>
       </c>
       <c r="M8" t="s">
-        <v>133</v>
+        <v>260</v>
       </c>
       <c r="N8">
         <v>15.13662604761822</v>
@@ -1178,22 +1634,22 @@
         <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="D9" t="s">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="E9" t="s">
-        <v>64</v>
+        <v>116</v>
       </c>
       <c r="F9">
         <v>2018</v>
       </c>
       <c r="G9" t="s">
-        <v>74</v>
+        <v>126</v>
       </c>
       <c r="H9" t="s">
-        <v>94</v>
+        <v>171</v>
       </c>
       <c r="I9">
         <v>5312</v>
@@ -1205,10 +1661,10 @@
         <v>38</v>
       </c>
       <c r="L9" t="s">
-        <v>114</v>
+        <v>216</v>
       </c>
       <c r="M9" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
       <c r="N9">
         <v>16.46659088123302</v>
@@ -1222,22 +1678,22 @@
         <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="D10" t="s">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="E10" t="s">
-        <v>65</v>
+        <v>117</v>
       </c>
       <c r="F10">
         <v>2018</v>
       </c>
       <c r="G10" t="s">
-        <v>75</v>
+        <v>127</v>
       </c>
       <c r="H10" t="s">
-        <v>95</v>
+        <v>172</v>
       </c>
       <c r="I10">
         <v>5390</v>
@@ -1249,10 +1705,10 @@
         <v>72</v>
       </c>
       <c r="L10" t="s">
-        <v>115</v>
+        <v>217</v>
       </c>
       <c r="M10" t="s">
-        <v>135</v>
+        <v>262</v>
       </c>
       <c r="N10">
         <v>14.56190461486205</v>
@@ -1266,22 +1722,22 @@
         <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="D11" t="s">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="E11" t="s">
-        <v>66</v>
+        <v>118</v>
       </c>
       <c r="F11">
         <v>2018</v>
       </c>
       <c r="G11" t="s">
-        <v>76</v>
+        <v>128</v>
       </c>
       <c r="H11" t="s">
-        <v>96</v>
+        <v>173</v>
       </c>
       <c r="I11">
         <v>5546</v>
@@ -1293,10 +1749,10 @@
         <v>84</v>
       </c>
       <c r="L11" t="s">
-        <v>116</v>
+        <v>218</v>
       </c>
       <c r="M11" t="s">
-        <v>136</v>
+        <v>263</v>
       </c>
       <c r="N11">
         <v>13.68014365521596</v>
@@ -1310,22 +1766,22 @@
         <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="D12" t="s">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="E12" t="s">
-        <v>67</v>
+        <v>119</v>
       </c>
       <c r="F12">
         <v>2018</v>
       </c>
       <c r="G12" t="s">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="H12" t="s">
-        <v>97</v>
+        <v>174</v>
       </c>
       <c r="I12">
         <v>5365</v>
@@ -1337,10 +1793,10 @@
         <v>48</v>
       </c>
       <c r="L12" t="s">
-        <v>117</v>
+        <v>219</v>
       </c>
       <c r="M12" t="s">
-        <v>137</v>
+        <v>264</v>
       </c>
       <c r="N12">
         <v>18.29580935941696</v>
@@ -1354,22 +1810,22 @@
         <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="D13" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="E13" t="s">
-        <v>57</v>
+        <v>109</v>
       </c>
       <c r="F13">
         <v>2018</v>
       </c>
       <c r="G13" t="s">
-        <v>78</v>
+        <v>130</v>
       </c>
       <c r="H13" t="s">
-        <v>98</v>
+        <v>175</v>
       </c>
       <c r="I13">
         <v>5492</v>
@@ -1381,10 +1837,10 @@
         <v>33</v>
       </c>
       <c r="L13" t="s">
-        <v>118</v>
+        <v>220</v>
       </c>
       <c r="M13" t="s">
-        <v>138</v>
+        <v>265</v>
       </c>
       <c r="N13">
         <v>15.51322940190865</v>
@@ -1398,22 +1854,22 @@
         <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="D14" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="E14" t="s">
-        <v>58</v>
+        <v>110</v>
       </c>
       <c r="F14">
         <v>2018</v>
       </c>
       <c r="G14" t="s">
-        <v>78</v>
+        <v>130</v>
       </c>
       <c r="H14" t="s">
-        <v>98</v>
+        <v>175</v>
       </c>
       <c r="I14">
         <v>5492</v>
@@ -1425,10 +1881,10 @@
         <v>33</v>
       </c>
       <c r="L14" t="s">
-        <v>118</v>
+        <v>220</v>
       </c>
       <c r="M14" t="s">
-        <v>138</v>
+        <v>265</v>
       </c>
       <c r="N14">
         <v>15.51322940190865</v>
@@ -1442,22 +1898,22 @@
         <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="D15" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="E15" t="s">
-        <v>59</v>
+        <v>111</v>
       </c>
       <c r="F15">
         <v>2018</v>
       </c>
       <c r="G15" t="s">
-        <v>79</v>
+        <v>131</v>
       </c>
       <c r="H15" t="s">
-        <v>99</v>
+        <v>176</v>
       </c>
       <c r="I15">
         <v>5448</v>
@@ -1469,10 +1925,10 @@
         <v>62</v>
       </c>
       <c r="L15" t="s">
-        <v>119</v>
+        <v>221</v>
       </c>
       <c r="M15" t="s">
-        <v>139</v>
+        <v>266</v>
       </c>
       <c r="N15">
         <v>15.18570872102129</v>
@@ -1486,22 +1942,22 @@
         <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="D16" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="E16" t="s">
-        <v>60</v>
+        <v>112</v>
       </c>
       <c r="F16">
         <v>2018</v>
       </c>
       <c r="G16" t="s">
-        <v>80</v>
+        <v>132</v>
       </c>
       <c r="H16" t="s">
-        <v>100</v>
+        <v>177</v>
       </c>
       <c r="I16">
         <v>5532</v>
@@ -1513,10 +1969,10 @@
         <v>58</v>
       </c>
       <c r="L16" t="s">
-        <v>120</v>
+        <v>222</v>
       </c>
       <c r="M16" t="s">
-        <v>140</v>
+        <v>267</v>
       </c>
       <c r="N16">
         <v>18.29353460570806</v>
@@ -1530,22 +1986,22 @@
         <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="D17" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="E17" t="s">
-        <v>61</v>
+        <v>113</v>
       </c>
       <c r="F17">
         <v>2018</v>
       </c>
       <c r="G17" t="s">
-        <v>81</v>
+        <v>133</v>
       </c>
       <c r="H17" t="s">
-        <v>101</v>
+        <v>178</v>
       </c>
       <c r="I17">
         <v>5465</v>
@@ -1557,10 +2013,10 @@
         <v>50</v>
       </c>
       <c r="L17" t="s">
-        <v>121</v>
+        <v>223</v>
       </c>
       <c r="M17" t="s">
-        <v>141</v>
+        <v>268</v>
       </c>
       <c r="N17">
         <v>21.03304594405813</v>
@@ -1574,22 +2030,22 @@
         <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="D18" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="E18" t="s">
-        <v>62</v>
+        <v>114</v>
       </c>
       <c r="F18">
         <v>2018</v>
       </c>
       <c r="G18" t="s">
-        <v>82</v>
+        <v>134</v>
       </c>
       <c r="H18" t="s">
-        <v>102</v>
+        <v>179</v>
       </c>
       <c r="I18">
         <v>5518</v>
@@ -1601,10 +2057,10 @@
         <v>68</v>
       </c>
       <c r="L18" t="s">
-        <v>122</v>
+        <v>224</v>
       </c>
       <c r="M18" t="s">
-        <v>142</v>
+        <v>269</v>
       </c>
       <c r="N18">
         <v>17.28560990395967</v>
@@ -1618,22 +2074,22 @@
         <v>30</v>
       </c>
       <c r="C19" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="D19" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="E19" t="s">
-        <v>63</v>
+        <v>115</v>
       </c>
       <c r="F19">
         <v>2018</v>
       </c>
       <c r="G19" t="s">
-        <v>83</v>
+        <v>135</v>
       </c>
       <c r="H19" t="s">
-        <v>103</v>
+        <v>180</v>
       </c>
       <c r="I19">
         <v>5530</v>
@@ -1645,10 +2101,10 @@
         <v>44</v>
       </c>
       <c r="L19" t="s">
-        <v>123</v>
+        <v>225</v>
       </c>
       <c r="M19" t="s">
-        <v>143</v>
+        <v>270</v>
       </c>
       <c r="N19">
         <v>15.70508594030924</v>
@@ -1662,22 +2118,22 @@
         <v>31</v>
       </c>
       <c r="C20" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="D20" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="E20" t="s">
-        <v>64</v>
+        <v>116</v>
       </c>
       <c r="F20">
         <v>2018</v>
       </c>
       <c r="G20" t="s">
-        <v>84</v>
+        <v>136</v>
       </c>
       <c r="H20" t="s">
-        <v>104</v>
+        <v>181</v>
       </c>
       <c r="I20">
         <v>5466</v>
@@ -1689,10 +2145,10 @@
         <v>37</v>
       </c>
       <c r="L20" t="s">
-        <v>124</v>
+        <v>226</v>
       </c>
       <c r="M20" t="s">
-        <v>144</v>
+        <v>271</v>
       </c>
       <c r="N20">
         <v>16.90589528746868</v>
@@ -1706,22 +2162,22 @@
         <v>32</v>
       </c>
       <c r="C21" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="D21" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="E21" t="s">
-        <v>65</v>
+        <v>117</v>
       </c>
       <c r="F21">
         <v>2018</v>
       </c>
       <c r="G21" t="s">
-        <v>85</v>
+        <v>137</v>
       </c>
       <c r="H21" t="s">
-        <v>105</v>
+        <v>182</v>
       </c>
       <c r="I21">
         <v>5398</v>
@@ -1733,10 +2189,10 @@
         <v>45</v>
       </c>
       <c r="L21" t="s">
-        <v>125</v>
+        <v>227</v>
       </c>
       <c r="M21" t="s">
-        <v>145</v>
+        <v>272</v>
       </c>
       <c r="N21">
         <v>16.93013798907831</v>
@@ -1750,22 +2206,22 @@
         <v>33</v>
       </c>
       <c r="C22" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="D22" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="E22" t="s">
-        <v>66</v>
+        <v>118</v>
       </c>
       <c r="F22">
         <v>2018</v>
       </c>
       <c r="G22" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
       <c r="H22" t="s">
-        <v>106</v>
+        <v>183</v>
       </c>
       <c r="I22">
         <v>5679</v>
@@ -1777,10 +2233,10 @@
         <v>62</v>
       </c>
       <c r="L22" t="s">
-        <v>126</v>
+        <v>228</v>
       </c>
       <c r="M22" t="s">
-        <v>146</v>
+        <v>273</v>
       </c>
       <c r="N22">
         <v>13.54038054025116</v>
@@ -1794,22 +2250,22 @@
         <v>34</v>
       </c>
       <c r="C23" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="E23" t="s">
-        <v>67</v>
+        <v>119</v>
       </c>
       <c r="F23">
         <v>2018</v>
       </c>
       <c r="G23" t="s">
-        <v>87</v>
+        <v>139</v>
       </c>
       <c r="H23" t="s">
-        <v>107</v>
+        <v>184</v>
       </c>
       <c r="I23">
         <v>5477</v>
@@ -1821,13 +2277,1113 @@
         <v>38</v>
       </c>
       <c r="L23" t="s">
-        <v>127</v>
+        <v>229</v>
       </c>
       <c r="M23" t="s">
-        <v>147</v>
+        <v>274</v>
       </c>
       <c r="N23">
         <v>18.47405609005402</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" t="s">
+        <v>80</v>
+      </c>
+      <c r="D24" t="s">
+        <v>107</v>
+      </c>
+      <c r="E24" t="s">
+        <v>112</v>
+      </c>
+      <c r="F24">
+        <v>2018</v>
+      </c>
+      <c r="G24" t="s">
+        <v>140</v>
+      </c>
+      <c r="H24" t="s">
+        <v>185</v>
+      </c>
+      <c r="I24">
+        <v>5570</v>
+      </c>
+      <c r="J24">
+        <v>119</v>
+      </c>
+      <c r="K24">
+        <v>54</v>
+      </c>
+      <c r="L24" t="s">
+        <v>230</v>
+      </c>
+      <c r="M24" t="s">
+        <v>275</v>
+      </c>
+      <c r="N24">
+        <v>15.85412844036697</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25" t="s">
+        <v>107</v>
+      </c>
+      <c r="E25" t="s">
+        <v>114</v>
+      </c>
+      <c r="F25">
+        <v>2018</v>
+      </c>
+      <c r="G25" t="s">
+        <v>141</v>
+      </c>
+      <c r="H25" t="s">
+        <v>186</v>
+      </c>
+      <c r="I25">
+        <v>5561</v>
+      </c>
+      <c r="J25">
+        <v>130</v>
+      </c>
+      <c r="K25">
+        <v>39</v>
+      </c>
+      <c r="L25" t="s">
+        <v>231</v>
+      </c>
+      <c r="M25" t="s">
+        <v>276</v>
+      </c>
+      <c r="N25">
+        <v>16.75917360468702</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" t="s">
+        <v>82</v>
+      </c>
+      <c r="D26" t="s">
+        <v>107</v>
+      </c>
+      <c r="E26" t="s">
+        <v>115</v>
+      </c>
+      <c r="F26">
+        <v>2018</v>
+      </c>
+      <c r="G26" t="s">
+        <v>142</v>
+      </c>
+      <c r="H26" t="s">
+        <v>187</v>
+      </c>
+      <c r="I26">
+        <v>5553</v>
+      </c>
+      <c r="J26">
+        <v>85</v>
+      </c>
+      <c r="K26">
+        <v>41</v>
+      </c>
+      <c r="L26" t="s">
+        <v>232</v>
+      </c>
+      <c r="M26" t="s">
+        <v>277</v>
+      </c>
+      <c r="N26">
+        <v>16.23744625768573</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" t="s">
+        <v>83</v>
+      </c>
+      <c r="D27" t="s">
+        <v>107</v>
+      </c>
+      <c r="E27" t="s">
+        <v>116</v>
+      </c>
+      <c r="F27">
+        <v>2018</v>
+      </c>
+      <c r="G27" t="s">
+        <v>143</v>
+      </c>
+      <c r="H27" t="s">
+        <v>188</v>
+      </c>
+      <c r="I27">
+        <v>5349</v>
+      </c>
+      <c r="J27">
+        <v>72</v>
+      </c>
+      <c r="K27">
+        <v>46</v>
+      </c>
+      <c r="L27" t="s">
+        <v>233</v>
+      </c>
+      <c r="M27" t="s">
+        <v>278</v>
+      </c>
+      <c r="N27">
+        <v>17.9747730718491</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" t="s">
+        <v>84</v>
+      </c>
+      <c r="D28" t="s">
+        <v>107</v>
+      </c>
+      <c r="E28" t="s">
+        <v>118</v>
+      </c>
+      <c r="F28">
+        <v>2018</v>
+      </c>
+      <c r="G28" t="s">
+        <v>144</v>
+      </c>
+      <c r="H28" t="s">
+        <v>189</v>
+      </c>
+      <c r="I28">
+        <v>5531</v>
+      </c>
+      <c r="J28">
+        <v>70</v>
+      </c>
+      <c r="K28">
+        <v>71</v>
+      </c>
+      <c r="L28" t="s">
+        <v>234</v>
+      </c>
+      <c r="M28" t="s">
+        <v>279</v>
+      </c>
+      <c r="N28">
+        <v>19.52366851371831</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" t="s">
+        <v>85</v>
+      </c>
+      <c r="D29" t="s">
+        <v>107</v>
+      </c>
+      <c r="E29" t="s">
+        <v>119</v>
+      </c>
+      <c r="F29">
+        <v>2018</v>
+      </c>
+      <c r="G29" t="s">
+        <v>145</v>
+      </c>
+      <c r="H29" t="s">
+        <v>190</v>
+      </c>
+      <c r="I29">
+        <v>5481</v>
+      </c>
+      <c r="J29">
+        <v>93</v>
+      </c>
+      <c r="K29">
+        <v>33</v>
+      </c>
+      <c r="L29" t="s">
+        <v>235</v>
+      </c>
+      <c r="M29" t="s">
+        <v>280</v>
+      </c>
+      <c r="N29">
+        <v>14.11500708930542</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" t="s">
+        <v>86</v>
+      </c>
+      <c r="D30" t="s">
+        <v>107</v>
+      </c>
+      <c r="E30" t="s">
+        <v>109</v>
+      </c>
+      <c r="F30">
+        <v>2018</v>
+      </c>
+      <c r="G30" t="s">
+        <v>146</v>
+      </c>
+      <c r="H30" t="s">
+        <v>191</v>
+      </c>
+      <c r="I30">
+        <v>5358</v>
+      </c>
+      <c r="J30">
+        <v>124</v>
+      </c>
+      <c r="K30">
+        <v>19</v>
+      </c>
+      <c r="L30" t="s">
+        <v>236</v>
+      </c>
+      <c r="M30" t="s">
+        <v>281</v>
+      </c>
+      <c r="N30">
+        <v>13.37826355887456</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" t="s">
+        <v>87</v>
+      </c>
+      <c r="D31" t="s">
+        <v>107</v>
+      </c>
+      <c r="E31" t="s">
+        <v>111</v>
+      </c>
+      <c r="F31">
+        <v>2018</v>
+      </c>
+      <c r="G31" t="s">
+        <v>147</v>
+      </c>
+      <c r="H31" t="s">
+        <v>192</v>
+      </c>
+      <c r="I31">
+        <v>5194</v>
+      </c>
+      <c r="J31">
+        <v>75</v>
+      </c>
+      <c r="K31">
+        <v>62</v>
+      </c>
+      <c r="L31" t="s">
+        <v>237</v>
+      </c>
+      <c r="M31" t="s">
+        <v>282</v>
+      </c>
+      <c r="N31">
+        <v>14.08890454124189</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" t="s">
+        <v>88</v>
+      </c>
+      <c r="D32" t="s">
+        <v>107</v>
+      </c>
+      <c r="E32" t="s">
+        <v>113</v>
+      </c>
+      <c r="F32">
+        <v>2018</v>
+      </c>
+      <c r="G32" t="s">
+        <v>148</v>
+      </c>
+      <c r="H32" t="s">
+        <v>193</v>
+      </c>
+      <c r="I32">
+        <v>5384</v>
+      </c>
+      <c r="J32">
+        <v>105</v>
+      </c>
+      <c r="K32">
+        <v>44</v>
+      </c>
+      <c r="L32" t="s">
+        <v>238</v>
+      </c>
+      <c r="M32" t="s">
+        <v>283</v>
+      </c>
+      <c r="N32">
+        <v>17.61119885794728</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" t="s">
+        <v>89</v>
+      </c>
+      <c r="D33" t="s">
+        <v>108</v>
+      </c>
+      <c r="E33" t="s">
+        <v>109</v>
+      </c>
+      <c r="F33">
+        <v>2018</v>
+      </c>
+      <c r="G33" t="s">
+        <v>149</v>
+      </c>
+      <c r="H33" t="s">
+        <v>194</v>
+      </c>
+      <c r="I33">
+        <v>5425</v>
+      </c>
+      <c r="J33">
+        <v>99</v>
+      </c>
+      <c r="K33">
+        <v>27</v>
+      </c>
+      <c r="L33" t="s">
+        <v>239</v>
+      </c>
+      <c r="M33" t="s">
+        <v>284</v>
+      </c>
+      <c r="N33">
+        <v>14.67380992718302</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" t="s">
+        <v>90</v>
+      </c>
+      <c r="D34" t="s">
+        <v>108</v>
+      </c>
+      <c r="E34" t="s">
+        <v>111</v>
+      </c>
+      <c r="F34">
+        <v>2018</v>
+      </c>
+      <c r="G34" t="s">
+        <v>150</v>
+      </c>
+      <c r="H34" t="s">
+        <v>195</v>
+      </c>
+      <c r="I34">
+        <v>5239</v>
+      </c>
+      <c r="J34">
+        <v>92</v>
+      </c>
+      <c r="K34">
+        <v>58</v>
+      </c>
+      <c r="L34" t="s">
+        <v>240</v>
+      </c>
+      <c r="M34" t="s">
+        <v>285</v>
+      </c>
+      <c r="N34">
+        <v>13.38956736358367</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35" t="s">
+        <v>91</v>
+      </c>
+      <c r="D35" t="s">
+        <v>108</v>
+      </c>
+      <c r="E35" t="s">
+        <v>112</v>
+      </c>
+      <c r="F35">
+        <v>2018</v>
+      </c>
+      <c r="G35" t="s">
+        <v>151</v>
+      </c>
+      <c r="H35" t="s">
+        <v>196</v>
+      </c>
+      <c r="I35">
+        <v>5549</v>
+      </c>
+      <c r="J35">
+        <v>115</v>
+      </c>
+      <c r="K35">
+        <v>53</v>
+      </c>
+      <c r="L35" t="s">
+        <v>241</v>
+      </c>
+      <c r="M35" t="s">
+        <v>286</v>
+      </c>
+      <c r="N35">
+        <v>17.37354046614784</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" t="s">
+        <v>92</v>
+      </c>
+      <c r="D36" t="s">
+        <v>108</v>
+      </c>
+      <c r="E36" t="s">
+        <v>113</v>
+      </c>
+      <c r="F36">
+        <v>2018</v>
+      </c>
+      <c r="G36" t="s">
+        <v>152</v>
+      </c>
+      <c r="H36" t="s">
+        <v>197</v>
+      </c>
+      <c r="I36">
+        <v>5480</v>
+      </c>
+      <c r="J36">
+        <v>130</v>
+      </c>
+      <c r="K36">
+        <v>47</v>
+      </c>
+      <c r="L36" t="s">
+        <v>242</v>
+      </c>
+      <c r="M36" t="s">
+        <v>287</v>
+      </c>
+      <c r="N36">
+        <v>18.86806508062576</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37" t="s">
+        <v>93</v>
+      </c>
+      <c r="D37" t="s">
+        <v>108</v>
+      </c>
+      <c r="E37" t="s">
+        <v>114</v>
+      </c>
+      <c r="F37">
+        <v>2018</v>
+      </c>
+      <c r="G37" t="s">
+        <v>153</v>
+      </c>
+      <c r="H37" t="s">
+        <v>198</v>
+      </c>
+      <c r="I37">
+        <v>5574</v>
+      </c>
+      <c r="J37">
+        <v>140</v>
+      </c>
+      <c r="K37">
+        <v>41</v>
+      </c>
+      <c r="L37" t="s">
+        <v>243</v>
+      </c>
+      <c r="M37" t="s">
+        <v>288</v>
+      </c>
+      <c r="N37">
+        <v>16.75968112354127</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" t="s">
+        <v>94</v>
+      </c>
+      <c r="D38" t="s">
+        <v>108</v>
+      </c>
+      <c r="E38" t="s">
+        <v>115</v>
+      </c>
+      <c r="F38">
+        <v>2018</v>
+      </c>
+      <c r="G38" t="s">
+        <v>154</v>
+      </c>
+      <c r="H38" t="s">
+        <v>199</v>
+      </c>
+      <c r="I38">
+        <v>5514</v>
+      </c>
+      <c r="J38">
+        <v>87</v>
+      </c>
+      <c r="K38">
+        <v>46</v>
+      </c>
+      <c r="L38" t="s">
+        <v>244</v>
+      </c>
+      <c r="M38" t="s">
+        <v>289</v>
+      </c>
+      <c r="N38">
+        <v>15.65730923566085</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>50</v>
+      </c>
+      <c r="C39" t="s">
+        <v>95</v>
+      </c>
+      <c r="D39" t="s">
+        <v>108</v>
+      </c>
+      <c r="E39" t="s">
+        <v>116</v>
+      </c>
+      <c r="F39">
+        <v>2018</v>
+      </c>
+      <c r="G39" t="s">
+        <v>155</v>
+      </c>
+      <c r="H39" t="s">
+        <v>200</v>
+      </c>
+      <c r="I39">
+        <v>5397</v>
+      </c>
+      <c r="J39">
+        <v>72</v>
+      </c>
+      <c r="K39">
+        <v>43</v>
+      </c>
+      <c r="L39" t="s">
+        <v>245</v>
+      </c>
+      <c r="M39" t="s">
+        <v>290</v>
+      </c>
+      <c r="N39">
+        <v>15.7480021893815</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40" t="s">
+        <v>96</v>
+      </c>
+      <c r="D40" t="s">
+        <v>108</v>
+      </c>
+      <c r="E40" t="s">
+        <v>118</v>
+      </c>
+      <c r="F40">
+        <v>2018</v>
+      </c>
+      <c r="G40" t="s">
+        <v>156</v>
+      </c>
+      <c r="H40" t="s">
+        <v>201</v>
+      </c>
+      <c r="I40">
+        <v>5681</v>
+      </c>
+      <c r="J40">
+        <v>89</v>
+      </c>
+      <c r="K40">
+        <v>66</v>
+      </c>
+      <c r="L40" t="s">
+        <v>246</v>
+      </c>
+      <c r="M40" t="s">
+        <v>291</v>
+      </c>
+      <c r="N40">
+        <v>13.15693428142086</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41" t="s">
+        <v>97</v>
+      </c>
+      <c r="D41" t="s">
+        <v>108</v>
+      </c>
+      <c r="E41" t="s">
+        <v>119</v>
+      </c>
+      <c r="F41">
+        <v>2018</v>
+      </c>
+      <c r="G41" t="s">
+        <v>157</v>
+      </c>
+      <c r="H41" t="s">
+        <v>202</v>
+      </c>
+      <c r="I41">
+        <v>5118</v>
+      </c>
+      <c r="J41">
+        <v>106</v>
+      </c>
+      <c r="K41">
+        <v>21</v>
+      </c>
+      <c r="L41" t="s">
+        <v>247</v>
+      </c>
+      <c r="M41" t="s">
+        <v>292</v>
+      </c>
+      <c r="N41">
+        <v>18.24082808624308</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>53</v>
+      </c>
+      <c r="C42" t="s">
+        <v>98</v>
+      </c>
+      <c r="D42" t="s">
+        <v>107</v>
+      </c>
+      <c r="E42" t="s">
+        <v>109</v>
+      </c>
+      <c r="F42">
+        <v>2019</v>
+      </c>
+      <c r="G42" t="s">
+        <v>158</v>
+      </c>
+      <c r="H42" t="s">
+        <v>203</v>
+      </c>
+      <c r="I42">
+        <v>5448</v>
+      </c>
+      <c r="J42">
+        <v>102</v>
+      </c>
+      <c r="K42">
+        <v>34</v>
+      </c>
+      <c r="L42" t="s">
+        <v>248</v>
+      </c>
+      <c r="M42" t="s">
+        <v>293</v>
+      </c>
+      <c r="N42">
+        <v>18.35467655876823</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>54</v>
+      </c>
+      <c r="C43" t="s">
+        <v>99</v>
+      </c>
+      <c r="D43" t="s">
+        <v>107</v>
+      </c>
+      <c r="E43" t="s">
+        <v>111</v>
+      </c>
+      <c r="F43">
+        <v>2019</v>
+      </c>
+      <c r="G43" t="s">
+        <v>159</v>
+      </c>
+      <c r="H43" t="s">
+        <v>204</v>
+      </c>
+      <c r="I43">
+        <v>5320</v>
+      </c>
+      <c r="J43">
+        <v>96</v>
+      </c>
+      <c r="K43">
+        <v>57</v>
+      </c>
+      <c r="L43" t="s">
+        <v>249</v>
+      </c>
+      <c r="M43" t="s">
+        <v>294</v>
+      </c>
+      <c r="N43">
+        <v>16.36445829304108</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>55</v>
+      </c>
+      <c r="C44" t="s">
+        <v>100</v>
+      </c>
+      <c r="D44" t="s">
+        <v>107</v>
+      </c>
+      <c r="E44" t="s">
+        <v>112</v>
+      </c>
+      <c r="F44">
+        <v>2019</v>
+      </c>
+      <c r="G44" t="s">
+        <v>160</v>
+      </c>
+      <c r="H44" t="s">
+        <v>205</v>
+      </c>
+      <c r="I44">
+        <v>5694</v>
+      </c>
+      <c r="J44">
+        <v>87</v>
+      </c>
+      <c r="K44">
+        <v>58</v>
+      </c>
+      <c r="L44" t="s">
+        <v>250</v>
+      </c>
+      <c r="M44" t="s">
+        <v>295</v>
+      </c>
+      <c r="N44">
+        <v>16.81900082540996</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>56</v>
+      </c>
+      <c r="C45" t="s">
+        <v>101</v>
+      </c>
+      <c r="D45" t="s">
+        <v>107</v>
+      </c>
+      <c r="E45" t="s">
+        <v>113</v>
+      </c>
+      <c r="F45">
+        <v>2019</v>
+      </c>
+      <c r="G45" t="s">
+        <v>161</v>
+      </c>
+      <c r="H45" t="s">
+        <v>206</v>
+      </c>
+      <c r="I45">
+        <v>5596</v>
+      </c>
+      <c r="J45">
+        <v>193</v>
+      </c>
+      <c r="K45">
+        <v>58</v>
+      </c>
+      <c r="L45" t="s">
+        <v>251</v>
+      </c>
+      <c r="M45" t="s">
+        <v>296</v>
+      </c>
+      <c r="N45">
+        <v>17.43756613756614</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>57</v>
+      </c>
+      <c r="C46" t="s">
+        <v>102</v>
+      </c>
+      <c r="D46" t="s">
+        <v>107</v>
+      </c>
+      <c r="E46" t="s">
+        <v>115</v>
+      </c>
+      <c r="F46">
+        <v>2019</v>
+      </c>
+      <c r="G46" t="s">
+        <v>162</v>
+      </c>
+      <c r="H46" t="s">
+        <v>207</v>
+      </c>
+      <c r="I46">
+        <v>5646</v>
+      </c>
+      <c r="J46">
+        <v>80</v>
+      </c>
+      <c r="K46">
+        <v>58</v>
+      </c>
+      <c r="L46" t="s">
+        <v>252</v>
+      </c>
+      <c r="M46" t="s">
+        <v>297</v>
+      </c>
+      <c r="N46">
+        <v>15.97432009650915</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>58</v>
+      </c>
+      <c r="C47" t="s">
+        <v>103</v>
+      </c>
+      <c r="D47" t="s">
+        <v>107</v>
+      </c>
+      <c r="E47" t="s">
+        <v>118</v>
+      </c>
+      <c r="F47">
+        <v>2019</v>
+      </c>
+      <c r="G47" t="s">
+        <v>163</v>
+      </c>
+      <c r="H47" t="s">
+        <v>208</v>
+      </c>
+      <c r="I47">
+        <v>5636</v>
+      </c>
+      <c r="J47">
+        <v>90</v>
+      </c>
+      <c r="K47">
+        <v>68</v>
+      </c>
+      <c r="L47" t="s">
+        <v>253</v>
+      </c>
+      <c r="M47" t="s">
+        <v>298</v>
+      </c>
+      <c r="N47">
+        <v>14.83286709667557</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>59</v>
+      </c>
+      <c r="C48" t="s">
+        <v>104</v>
+      </c>
+      <c r="D48" t="s">
+        <v>107</v>
+      </c>
+      <c r="E48" t="s">
+        <v>119</v>
+      </c>
+      <c r="F48">
+        <v>2019</v>
+      </c>
+      <c r="G48" t="s">
+        <v>164</v>
+      </c>
+      <c r="H48" t="s">
+        <v>209</v>
+      </c>
+      <c r="I48">
+        <v>5394</v>
+      </c>
+      <c r="J48">
+        <v>72</v>
+      </c>
+      <c r="K48">
+        <v>42</v>
+      </c>
+      <c r="L48" t="s">
+        <v>254</v>
+      </c>
+      <c r="M48" t="s">
+        <v>299</v>
+      </c>
+      <c r="N48">
+        <v>20.8861352612794</v>
       </c>
     </row>
   </sheetData>
